--- a/prot/ООО Регионстрой/Трехосные_КД_ПП/1171.xlsx
+++ b/prot/ООО Регионстрой/Трехосные_КД_ПП/1171.xlsx
@@ -8491,14 +8491,8 @@
     </row>
     <row r="47" ht="16.5" customHeight="1">
       <c r="A47" s="144" t="n"/>
-      <c r="B47" s="144" t="inlineStr">
-        <is>
-          <t>K0, д.е.</t>
-        </is>
-      </c>
-      <c r="C47" s="144" t="n">
-        <v>0.8608268990399346</v>
-      </c>
+      <c r="B47" s="144" t="n"/>
+      <c r="C47" s="144" t="n"/>
       <c r="D47" s="144" t="n"/>
       <c r="E47" s="144" t="n"/>
       <c r="F47" s="144" t="n"/>
@@ -8555,14 +8549,8 @@
     </row>
     <row r="48" ht="16.5" customHeight="1">
       <c r="A48" s="144" t="n"/>
-      <c r="B48" s="144" t="inlineStr">
-        <is>
-          <t>q_zg, МПа</t>
-        </is>
-      </c>
-      <c r="C48" s="144" t="n">
-        <v>0.04304134495199673</v>
-      </c>
+      <c r="B48" s="144" t="n"/>
+      <c r="C48" s="144" t="n"/>
       <c r="D48" s="144" t="n"/>
       <c r="E48" s="144" t="n"/>
       <c r="F48" s="144" t="n"/>
@@ -8712,20 +8700,12 @@
         <f>B70/A70</f>
         <v/>
       </c>
-      <c r="F50" s="144" t="inlineStr">
-        <is>
-          <t>Точки модуля (полное напр.), МПа</t>
-        </is>
-      </c>
+      <c r="F50" s="144" t="n"/>
       <c r="G50" s="144" t="n"/>
       <c r="H50" s="144" t="n"/>
       <c r="I50" s="144" t="n"/>
-      <c r="J50" s="144" t="n">
-        <v>0.04304134495199673</v>
-      </c>
-      <c r="K50" s="144" t="n">
-        <v>0.06886615192319477</v>
-      </c>
+      <c r="J50" s="144" t="n"/>
+      <c r="K50" s="144" t="n"/>
       <c r="L50" s="144" t="n"/>
       <c r="N50" s="148">
         <f>J50</f>
@@ -8802,17 +8782,11 @@
         <f>A65/B65</f>
         <v/>
       </c>
-      <c r="F51" s="144" t="inlineStr">
-        <is>
-          <t>qf (полное напр.), МПа</t>
-        </is>
-      </c>
+      <c r="F51" s="144" t="n"/>
       <c r="G51" s="144" t="n"/>
       <c r="H51" s="144" t="n"/>
       <c r="I51" s="144" t="n"/>
-      <c r="J51" s="144" t="n">
-        <v>0.06355802365987898</v>
-      </c>
+      <c r="J51" s="144" t="n"/>
       <c r="K51" s="144" t="n"/>
       <c r="L51" s="144" t="n"/>
       <c r="M51" s="1" t="n"/>
@@ -9258,10 +9232,10 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>0.01355802365987897</v>
+        <v>0.01383552884441011</v>
       </c>
       <c r="B65" t="n">
-        <v>0.01209629923404826</v>
+        <v>0.01234388589087215</v>
       </c>
       <c r="C65" s="151">
         <f>MATCH(A65,F65:F1000,1)-A67</f>
@@ -9318,29 +9292,29 @@
         </is>
       </c>
       <c r="F66" s="170" t="n">
-        <v>-0.0006804623655823766</v>
+        <v>0.001414334083751974</v>
       </c>
       <c r="G66" s="171" t="n">
-        <v>0.0007227124096925179</v>
+        <v>0.0007867842421493569</v>
       </c>
       <c r="H66" s="171" t="n"/>
       <c r="J66" s="170" t="n">
-        <v>0.001287258029707153</v>
+        <v>0.004999999999999977</v>
       </c>
       <c r="K66" s="171" t="n">
-        <v>0.0007228675338896412</v>
+        <v>0.001062127976190471</v>
       </c>
       <c r="L66" s="172" t="n">
-        <v>0.004010044994719575</v>
+        <v>0.007508544836939246</v>
       </c>
       <c r="M66" s="170" t="n">
-        <v>0.000706512585044836</v>
+        <v>0.0007761733077941985</v>
       </c>
       <c r="N66" s="171" t="n">
-        <v>0.007025121816599922</v>
+        <v>0.001414334083751974</v>
       </c>
       <c r="O66" s="172" t="n">
-        <v>0.0007234440934172634</v>
+        <v>0.0007867842421493569</v>
       </c>
       <c r="Q66" s="151" t="inlineStr">
         <is>
@@ -9358,29 +9332,29 @@
         <v>2</v>
       </c>
       <c r="F67" s="170" t="n">
-        <v>0.001599223200772056</v>
+        <v>0.002682335762404203</v>
       </c>
       <c r="G67" s="171" t="n">
-        <v>0.001445424819385036</v>
+        <v>0.001573568484298714</v>
       </c>
       <c r="H67" s="171" t="n"/>
       <c r="J67" s="170" t="n">
-        <v>0.002914889647929984</v>
+        <v>0.006835569500795807</v>
       </c>
       <c r="K67" s="171" t="n">
-        <v>0.001445735067779282</v>
+        <v>0.001553245292693695</v>
       </c>
       <c r="L67" s="172" t="n">
-        <v>0.007394552614275574</v>
+        <v>0.01505929139982215</v>
       </c>
       <c r="M67" s="170" t="n">
-        <v>0.001413025170089672</v>
+        <v>0.001552346615588397</v>
       </c>
       <c r="N67" s="171" t="n">
-        <v>0.01368542574168685</v>
+        <v>0.002682335762404203</v>
       </c>
       <c r="O67" s="172" t="n">
-        <v>0.001446888186834527</v>
+        <v>0.001573568484298714</v>
       </c>
       <c r="Q67" s="151" t="inlineStr">
         <is>
@@ -9400,29 +9374,29 @@
         </is>
       </c>
       <c r="F68" s="170" t="n">
-        <v>0.001813032470300728</v>
+        <v>0.003865120137287237</v>
       </c>
       <c r="G68" s="171" t="n">
-        <v>0.002168137229077554</v>
+        <v>0.002360352726448071</v>
       </c>
       <c r="H68" s="171" t="n"/>
       <c r="J68" s="170" t="n">
-        <v>0.004270824944118123</v>
+        <v>0.009662318176452633</v>
       </c>
       <c r="K68" s="171" t="n">
-        <v>0.002168602601668923</v>
+        <v>0.002329867939040543</v>
       </c>
       <c r="L68" s="172" t="n">
-        <v>0.01100613685394902</v>
+        <v>0.02153409656986743</v>
       </c>
       <c r="M68" s="170" t="n">
-        <v>0.002119537755134508</v>
+        <v>0.002328519923382595</v>
       </c>
       <c r="N68" s="171" t="n">
-        <v>0.01919073136932775</v>
+        <v>0.003865120137287237</v>
       </c>
       <c r="O68" s="172" t="n">
-        <v>0.00217033228025179</v>
+        <v>0.002360352726448071</v>
       </c>
       <c r="Q68" s="151" t="inlineStr">
         <is>
@@ -9447,29 +9421,29 @@
         </is>
       </c>
       <c r="F69" s="170" t="n">
-        <v>0.003934941214241115</v>
+        <v>0.005223802309731615</v>
       </c>
       <c r="G69" s="171" t="n">
-        <v>0.002890849638770072</v>
+        <v>0.003147136968597428</v>
       </c>
       <c r="H69" s="171" t="n"/>
       <c r="J69" s="170" t="n">
-        <v>0.005342994007721202</v>
+        <v>0.01241982178189854</v>
       </c>
       <c r="K69" s="171" t="n">
-        <v>0.002891470135558565</v>
+        <v>0.003106490585387391</v>
       </c>
       <c r="L69" s="172" t="n">
-        <v>0.01489741170902101</v>
+        <v>0.02741481722829359</v>
       </c>
       <c r="M69" s="170" t="n">
-        <v>0.002826050340179344</v>
+        <v>0.003104693231176794</v>
       </c>
       <c r="N69" s="171" t="n">
-        <v>0.02400000000000002</v>
+        <v>0.005223802309731615</v>
       </c>
       <c r="O69" s="172" t="n">
-        <v>0.002801635514018694</v>
+        <v>0.003147136968597428</v>
       </c>
       <c r="Q69" s="151" t="inlineStr">
         <is>
@@ -9484,62 +9458,62 @@
     </row>
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="n">
-        <v>0.004032099744682753</v>
+        <v>0.003747187499999999</v>
       </c>
       <c r="B70" t="n">
-        <v>0.006456201742799504</v>
+        <v>0.005999999999999998</v>
       </c>
       <c r="F70" s="170" t="n">
-        <v>0.00493892520383063</v>
+        <v>0.005999999999999998</v>
       </c>
       <c r="G70" s="171" t="n">
-        <v>0.00361356204846259</v>
+        <v>0.003747187499999999</v>
       </c>
       <c r="H70" s="171" t="n"/>
       <c r="J70" s="170" t="n">
-        <v>0.006619326928188868</v>
+        <v>0.01537669761380628</v>
       </c>
       <c r="K70" s="171" t="n">
-        <v>0.003614337669448206</v>
+        <v>0.003883113231734239</v>
       </c>
       <c r="L70" s="172" t="n">
-        <v>0.01772099117477255</v>
+        <v>0.0314833102563194</v>
       </c>
       <c r="M70" s="170" t="n">
-        <v>0.00353256292522418</v>
+        <v>0.003880866538970993</v>
       </c>
       <c r="N70" s="171" t="n">
-        <v>0.02832506335653417</v>
+        <v>0.005999999999999998</v>
       </c>
       <c r="O70" s="172" t="n">
-        <v>0.003617220467086317</v>
+        <v>0.003747187499999999</v>
       </c>
     </row>
     <row r="71">
       <c r="F71" s="170" t="n">
-        <v>0.006456201742799504</v>
+        <v>0.007038568971316474</v>
       </c>
       <c r="G71" s="171" t="n">
-        <v>0.004032099744682753</v>
+        <v>0.004720705452896141</v>
       </c>
       <c r="H71" s="171" t="n"/>
       <c r="J71" s="170" t="n">
-        <v>0.007687753794970734</v>
+        <v>0.01850156296884847</v>
       </c>
       <c r="K71" s="171" t="n">
-        <v>0.004337205203337847</v>
+        <v>0.004659735878081086</v>
       </c>
       <c r="L71" s="172" t="n">
-        <v>0.01982948924648464</v>
+        <v>0.03552143253516338</v>
       </c>
       <c r="M71" s="170" t="n">
-        <v>0.004239075510269016</v>
+        <v>0.00465703984676519</v>
       </c>
       <c r="N71" s="171" t="n">
-        <v>0.0323265461214699</v>
+        <v>0.007038568971316474</v>
       </c>
       <c r="O71" s="172" t="n">
-        <v>0.00434066456050358</v>
+        <v>0.004720705452896141</v>
       </c>
     </row>
     <row r="72">
@@ -9554,29 +9528,29 @@
         </is>
       </c>
       <c r="F72" s="170" t="n">
-        <v>0.006589618060517569</v>
+        <v>0.008009054112218535</v>
       </c>
       <c r="G72" s="171" t="n">
-        <v>0.005058986867847626</v>
+        <v>0.005507489695045499</v>
       </c>
       <c r="H72" s="171" t="n"/>
       <c r="J72" s="170" t="n">
-        <v>0.008636204697516456</v>
+        <v>0.02066303514369783</v>
       </c>
       <c r="K72" s="171" t="n">
-        <v>0.005060072737227489</v>
+        <v>0.005436358524427934</v>
       </c>
       <c r="L72" s="172" t="n">
-        <v>0.02299999999999996</v>
+        <v>0.03799999999999998</v>
       </c>
       <c r="M72" s="170" t="n">
-        <v>0.005204427083333324</v>
+        <v>0.005159171195652171</v>
       </c>
       <c r="N72" s="171" t="n">
-        <v>0.03548959544208852</v>
+        <v>0.008009054112218535</v>
       </c>
       <c r="O72" s="172" t="n">
-        <v>0.005064108653920843</v>
+        <v>0.005507489695045499</v>
       </c>
     </row>
     <row r="73">
@@ -9600,29 +9574,29 @@
         <v/>
       </c>
       <c r="F73" s="170" t="n">
-        <v>0.008310657382125115</v>
+        <v>0.008836052822842062</v>
       </c>
       <c r="G73" s="171" t="n">
-        <v>0.005781699277540143</v>
+        <v>0.006294273937194855</v>
       </c>
       <c r="H73" s="171" t="n"/>
       <c r="J73" s="170" t="n">
-        <v>0.009452609725275653</v>
+        <v>0.02332973143502703</v>
       </c>
       <c r="K73" s="171" t="n">
-        <v>0.00578294027111713</v>
+        <v>0.006212981170774782</v>
       </c>
       <c r="L73" s="172" t="n">
-        <v>0.02385696464229672</v>
+        <v>0.04024110063353775</v>
       </c>
       <c r="M73" s="170" t="n">
-        <v>0.005652100680358688</v>
+        <v>0.006209386462353588</v>
       </c>
       <c r="N73" s="171" t="n">
-        <v>0.03874106829386759</v>
+        <v>0.008836052822842062</v>
       </c>
       <c r="O73" s="172" t="n">
-        <v>0.005787552747338107</v>
+        <v>0.006294273937194855</v>
       </c>
     </row>
     <row r="74">
@@ -9637,29 +9611,29 @@
         </is>
       </c>
       <c r="F74" s="170" t="n">
-        <v>0.007980201893239593</v>
+        <v>0.009420430115546809</v>
       </c>
       <c r="G74" s="171" t="n">
-        <v>0.006504411687232661</v>
+        <v>0.007081058179344212</v>
       </c>
       <c r="H74" s="171" t="n"/>
       <c r="J74" s="170" t="n">
-        <v>0.009999999999999995</v>
+        <v>0.02497026913950876</v>
       </c>
       <c r="K74" s="171" t="n">
-        <v>0.006245312499999997</v>
+        <v>0.00698960381712163</v>
       </c>
       <c r="L74" s="172" t="n">
-        <v>0.02504801207754956</v>
+        <v>0.04244503523251952</v>
       </c>
       <c r="M74" s="170" t="n">
-        <v>0.006358613265403525</v>
+        <v>0.006985559770147786</v>
       </c>
       <c r="N74" s="171" t="n">
-        <v>0.04190782165228452</v>
+        <v>0.009420430115546809</v>
       </c>
       <c r="O74" s="172" t="n">
-        <v>0.006510996840755371</v>
+        <v>0.007081058179344212</v>
       </c>
     </row>
     <row r="75">
@@ -9681,29 +9655,29 @@
         </is>
       </c>
       <c r="F75" s="170" t="n">
-        <v>0.007608623480710182</v>
+        <v>0.01036305100269253</v>
       </c>
       <c r="G75" s="171" t="n">
-        <v>0.00722712409692518</v>
+        <v>0.007867842421493569</v>
       </c>
       <c r="H75" s="171" t="n"/>
       <c r="J75" s="170" t="n">
-        <v>0.01079383530584836</v>
+        <v>0.0268532655538157</v>
       </c>
       <c r="K75" s="171" t="n">
-        <v>0.007228675338896412</v>
+        <v>0.007766226463468477</v>
       </c>
       <c r="L75" s="172" t="n">
-        <v>0.02634055284914913</v>
+        <v>0.04370153213142014</v>
       </c>
       <c r="M75" s="170" t="n">
-        <v>0.00706512585044836</v>
+        <v>0.007761733077941985</v>
       </c>
       <c r="N75" s="171" t="n">
-        <v>0.04451671249281675</v>
+        <v>0.01036305100269253</v>
       </c>
       <c r="O75" s="172" t="n">
-        <v>0.007234440934172634</v>
+        <v>0.007867842421493569</v>
       </c>
     </row>
     <row r="76">
@@ -9723,29 +9697,29 @@
         <v>0</v>
       </c>
       <c r="F76" s="170" t="n">
-        <v>0.008206294031386029</v>
+        <v>0.01086478049663896</v>
       </c>
       <c r="G76" s="171" t="n">
-        <v>0.007949836506617698</v>
+        <v>0.008654626663642926</v>
       </c>
       <c r="H76" s="171" t="n"/>
       <c r="J76" s="170" t="n">
-        <v>0.01118017175146375</v>
+        <v>0.02904733797462047</v>
       </c>
       <c r="K76" s="171" t="n">
-        <v>0.007951542872786054</v>
+        <v>0.008542849109815325</v>
       </c>
       <c r="L76" s="172" t="n">
-        <v>0.02721418532551356</v>
+        <v>0.04504640869277388</v>
       </c>
       <c r="M76" s="170" t="n">
-        <v>0.007771638435493196</v>
+        <v>0.008537906385736182</v>
       </c>
       <c r="N76" s="171" t="n">
-        <v>0.04617027607763036</v>
+        <v>0.01086478049663896</v>
       </c>
       <c r="O76" s="172" t="n">
-        <v>0.007699540782805763</v>
+        <v>0.008654626663642926</v>
       </c>
     </row>
     <row r="77" ht="15" customHeight="1">
@@ -9760,28 +9734,28 @@
         </is>
       </c>
       <c r="F77" t="n">
-        <v>0.008783585432116298</v>
+        <v>0.01152648360974584</v>
       </c>
       <c r="G77" t="n">
-        <v>0.008672548916310216</v>
+        <v>0.009441410905792282</v>
       </c>
       <c r="J77" t="n">
-        <v>0.01170954122723172</v>
+        <v>0.03000290246102022</v>
       </c>
       <c r="K77" t="n">
-        <v>0.008674410406675694</v>
+        <v>0.009104834877361046</v>
       </c>
       <c r="L77" t="n">
-        <v>0.02824850787506084</v>
+        <v>0.04617027607763036</v>
       </c>
       <c r="M77" t="n">
-        <v>0.008478151020538031</v>
+        <v>0.008954900693045834</v>
       </c>
       <c r="N77" t="n">
-        <v>0.04897025937333865</v>
+        <v>0.01152648360974584</v>
       </c>
       <c r="O77" t="n">
-        <v>0.008681329121007161</v>
+        <v>0.009441410905792282</v>
       </c>
     </row>
     <row r="78" ht="15" customHeight="1">
@@ -9800,28 +9774,28 @@
         <v/>
       </c>
       <c r="F78" t="n">
-        <v>0.01135086956975014</v>
+        <v>0.01234902535437291</v>
       </c>
       <c r="G78" t="n">
-        <v>0.009395261326002734</v>
+        <v>0.01022819514794164</v>
       </c>
       <c r="J78" t="n">
-        <v>0.01210462126433121</v>
+        <v>0.03131998770684224</v>
       </c>
       <c r="K78" t="n">
-        <v>0.009397277940565335</v>
+        <v>0.01009609440250902</v>
       </c>
       <c r="L78" t="n">
-        <v>0.02922311886620915</v>
+        <v>0.04798724725491416</v>
       </c>
       <c r="M78" t="n">
-        <v>0.009184663605582868</v>
+        <v>0.01009025300132458</v>
       </c>
       <c r="N78" t="n">
-        <v>0.05134044532996695</v>
+        <v>0.01234902535437291</v>
       </c>
       <c r="O78" t="n">
-        <v>0.009404773214424424</v>
+        <v>0.01022819514794164</v>
       </c>
     </row>
     <row r="79" ht="15" customHeight="1">
@@ -9842,28 +9816,28 @@
         <v/>
       </c>
       <c r="F79" t="n">
-        <v>0.01191851833113675</v>
+        <v>0.01293327074287995</v>
       </c>
       <c r="G79" t="n">
-        <v>0.01011797373569525</v>
+        <v>0.011014979390091</v>
       </c>
       <c r="J79" t="n">
-        <v>0.01248808939394121</v>
+        <v>0.03238932598546354</v>
       </c>
       <c r="K79" t="n">
-        <v>0.01012014547445498</v>
+        <v>0.01087271704885587</v>
       </c>
       <c r="L79" t="n">
-        <v>0.03000290246102022</v>
+        <v>0.0490840482638854</v>
       </c>
       <c r="M79" t="n">
-        <v>0.009698628456319372</v>
+        <v>0.01086642630911878</v>
       </c>
       <c r="N79" t="n">
-        <v>0.05401060653160566</v>
+        <v>0.01293327074287995</v>
       </c>
       <c r="O79" t="n">
-        <v>0.01012821730784169</v>
+        <v>0.011014979390091</v>
       </c>
     </row>
     <row r="80" ht="15" customHeight="1">
@@ -9873,28 +9847,28 @@
         </is>
       </c>
       <c r="F80" t="n">
-        <v>0.01149690360312525</v>
+        <v>0.01338008478762667</v>
       </c>
       <c r="G80" t="n">
-        <v>0.01084068614538777</v>
+        <v>0.01180176363224035</v>
       </c>
       <c r="J80" t="n">
-        <v>0.01288262314724067</v>
+        <v>0.03384121408595053</v>
       </c>
       <c r="K80" t="n">
-        <v>0.01084301300834462</v>
+        <v>0.01164933969520271</v>
       </c>
       <c r="L80" t="n">
-        <v>0.03112458875534121</v>
+        <v>0.0505928943132149</v>
       </c>
       <c r="M80" t="n">
-        <v>0.01059768877567254</v>
+        <v>0.01164259961691298</v>
       </c>
       <c r="N80" t="n">
-        <v>0.0564714439665534</v>
+        <v>0.01338008478762667</v>
       </c>
       <c r="O80" t="n">
-        <v>0.01085166140125895</v>
+        <v>0.01180176363224035</v>
       </c>
     </row>
     <row r="81" ht="15" customHeight="1">
@@ -9910,28 +9884,28 @@
         </is>
       </c>
       <c r="F81" t="n">
-        <v>0.01209639727256483</v>
+        <v>0.01383552884441011</v>
       </c>
       <c r="G81" t="n">
-        <v>0.01156339855508029</v>
+        <v>0.01234388589087215</v>
       </c>
       <c r="J81" t="n">
-        <v>0.01311090005540858</v>
+        <v>0.03497516271203865</v>
       </c>
       <c r="K81" t="n">
-        <v>0.01156588054223426</v>
+        <v>0.01242596234154956</v>
       </c>
       <c r="L81" t="n">
-        <v>0.03222674510786874</v>
+        <v>0.05191161491533297</v>
       </c>
       <c r="M81" t="n">
-        <v>0.01130420136071738</v>
+        <v>0.01241877292470718</v>
       </c>
       <c r="N81" t="n">
-        <v>0.05851365862310942</v>
+        <v>0.01383552884441011</v>
       </c>
       <c r="O81" t="n">
-        <v>0.01157510549467621</v>
+        <v>0.01234388589087215</v>
       </c>
     </row>
     <row r="82" ht="15" customHeight="1">
@@ -9944,28 +9918,28 @@
         <v/>
       </c>
       <c r="F82" t="n">
-        <v>0.01355802365987897</v>
+        <v>0.01449710595624418</v>
       </c>
       <c r="G82" t="n">
-        <v>0.01209629923404826</v>
+        <v>0.01337533211653907</v>
       </c>
       <c r="J82" t="n">
-        <v>0.01383552884441011</v>
+        <v>0.03609068256746309</v>
       </c>
       <c r="K82" t="n">
-        <v>0.01234388589087215</v>
+        <v>0.01320258498789641</v>
       </c>
       <c r="L82" t="n">
-        <v>0.03410741156333885</v>
+        <v>0.05303803958266973</v>
       </c>
       <c r="M82" t="n">
-        <v>0.01201071394576221</v>
+        <v>0.01319494623250137</v>
       </c>
       <c r="N82" t="n">
-        <v>0.06032795148957265</v>
+        <v>0.01449710595624418</v>
       </c>
       <c r="O82" t="n">
-        <v>0.01229854958809348</v>
+        <v>0.01337533211653907</v>
       </c>
     </row>
     <row r="83" ht="15" customHeight="1">
@@ -9975,28 +9949,28 @@
         </is>
       </c>
       <c r="F83" t="n">
-        <v>0.01441526175388705</v>
+        <v>0.01480328738718106</v>
       </c>
       <c r="G83" t="n">
-        <v>0.01300882337446532</v>
+        <v>0.01416211635868842</v>
       </c>
       <c r="J83" t="n">
-        <v>0.01416177521550072</v>
+        <v>0.0366872843559593</v>
       </c>
       <c r="K83" t="n">
-        <v>0.01301161561001354</v>
+        <v>0.01397920763424326</v>
       </c>
       <c r="L83" t="n">
-        <v>0.03515274820485631</v>
+        <v>0.05456999782765548</v>
       </c>
       <c r="M83" t="n">
-        <v>0.01271722653080705</v>
+        <v>0.01397111954029557</v>
       </c>
       <c r="N83" t="n">
-        <v>0.06340502355424205</v>
+        <v>0.01480328738718106</v>
       </c>
       <c r="O83" t="n">
-        <v>0.01302199368151074</v>
+        <v>0.01416211635868842</v>
       </c>
     </row>
     <row r="84" ht="15" customHeight="1">
@@ -10011,28 +9985,28 @@
         </is>
       </c>
       <c r="F84" t="n">
-        <v>0.01515607768766922</v>
+        <v>0.01540995703343366</v>
       </c>
       <c r="G84" t="n">
-        <v>0.01373153578415784</v>
+        <v>0.01494890060083778</v>
       </c>
       <c r="J84" t="n">
-        <v>0.01501328857329878</v>
+        <v>0.03766447878126258</v>
       </c>
       <c r="K84" t="n">
-        <v>0.01373448314390318</v>
+        <v>0.01475583028059011</v>
       </c>
       <c r="L84" t="n">
-        <v>0.03674891511552578</v>
+        <v>0.05660531916272049</v>
       </c>
       <c r="M84" t="n">
-        <v>0.01342373911585189</v>
+        <v>0.01474729284808977</v>
       </c>
       <c r="N84" t="n">
-        <v>0.06513557580541651</v>
+        <v>0.01540995703343366</v>
       </c>
       <c r="O84" t="n">
-        <v>0.013745437774928</v>
+        <v>0.01494890060083778</v>
       </c>
     </row>
     <row r="85" ht="15" customHeight="1">
@@ -10051,28 +10025,28 @@
         <v/>
       </c>
       <c r="F85" t="n">
-        <v>0.01594051641116059</v>
+        <v>0.01601635569631091</v>
       </c>
       <c r="G85" t="n">
-        <v>0.01445424819385036</v>
+        <v>0.01573568484298714</v>
       </c>
       <c r="J85" t="n">
-        <v>0.0155371869049622</v>
+        <v>0.03892177654710827</v>
       </c>
       <c r="K85" t="n">
-        <v>0.01445735067779282</v>
+        <v>0.01553245292693695</v>
       </c>
       <c r="L85" t="n">
-        <v>0.03868207237845203</v>
+        <v>0.05754183310029481</v>
       </c>
       <c r="M85" t="n">
-        <v>0.01413025170089672</v>
+        <v>0.01552346615588397</v>
       </c>
       <c r="N85" t="n">
-        <v>0.06731030923139508</v>
+        <v>0.01601635569631091</v>
       </c>
       <c r="O85" t="n">
-        <v>0.01446888186834527</v>
+        <v>0.01573568484298714</v>
       </c>
     </row>
     <row r="86" ht="15" customHeight="1">
@@ -10093,28 +10067,28 @@
         <v/>
       </c>
       <c r="F86" t="n">
-        <v>0.01675838711745564</v>
+        <v>0.01642172417712189</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01517696060354288</v>
+        <v>0.0165224690851365</v>
       </c>
       <c r="J86" t="n">
-        <v>0.01632046855456058</v>
+        <v>0.04035868835723175</v>
       </c>
       <c r="K86" t="n">
-        <v>0.01518021821168247</v>
+        <v>0.0163090755732838</v>
       </c>
       <c r="L86" t="n">
-        <v>0.04013838007673973</v>
+        <v>0.05907736915280887</v>
       </c>
       <c r="M86" t="n">
-        <v>0.01483676428594156</v>
+        <v>0.01629963946367817</v>
       </c>
       <c r="N86" t="n">
-        <v>0.06971992482047679</v>
+        <v>0.01642172417712189</v>
       </c>
       <c r="O86" t="n">
-        <v>0.01519232596176253</v>
+        <v>0.0165224690851365</v>
       </c>
     </row>
     <row r="87" ht="15" customHeight="1">
@@ -10124,28 +10098,28 @@
         </is>
       </c>
       <c r="F87" t="n">
-        <v>0.01659949899964885</v>
+        <v>0.01682530327717556</v>
       </c>
       <c r="G87" t="n">
-        <v>0.0158996730132354</v>
+        <v>0.01730925332728585</v>
       </c>
       <c r="J87" t="n">
-        <v>0.01715013186616351</v>
+        <v>0.04137472491536834</v>
       </c>
       <c r="K87" t="n">
-        <v>0.01590308574557211</v>
+        <v>0.01708569821963065</v>
       </c>
       <c r="L87" t="n">
-        <v>0.04170399829349358</v>
+        <v>0.06050975683269277</v>
       </c>
       <c r="M87" t="n">
-        <v>0.01554327687098639</v>
+        <v>0.01707581277147236</v>
       </c>
       <c r="N87" t="n">
-        <v>0.07195512356096051</v>
+        <v>0.01682530327717556</v>
       </c>
       <c r="O87" t="n">
-        <v>0.01591577005517979</v>
+        <v>0.01730925332728585</v>
       </c>
     </row>
     <row r="88" ht="15" customHeight="1">
@@ -10159,28 +10133,28 @@
       <c r="C88" s="139" t="n"/>
       <c r="D88" s="139" t="n"/>
       <c r="F88" t="n">
-        <v>0.0164536612508347</v>
+        <v>0.01732633379778099</v>
       </c>
       <c r="G88" t="n">
-        <v>0.01662238542292791</v>
+        <v>0.01809603756943521</v>
       </c>
       <c r="J88" t="n">
-        <v>0.01811317518384065</v>
+        <v>0.04236939692525335</v>
       </c>
       <c r="K88" t="n">
-        <v>0.01662595327946175</v>
+        <v>0.0178623208659775</v>
       </c>
       <c r="L88" t="n">
-        <v>0.04326508711181831</v>
+        <v>0.06173682565237693</v>
       </c>
       <c r="M88" t="n">
-        <v>0.01624978945603123</v>
+        <v>0.01785198607926657</v>
       </c>
       <c r="N88" t="n">
-        <v>0.07330660644114517</v>
+        <v>0.01732633379778099</v>
       </c>
       <c r="O88" t="n">
-        <v>0.01663921414859706</v>
+        <v>0.01809603756943521</v>
       </c>
     </row>
     <row r="89" ht="15" customHeight="1">
@@ -10193,4578 +10167,4578 @@
         <v/>
       </c>
       <c r="F89" t="n">
-        <v>0.01931068306410772</v>
+        <v>0.01782405654024714</v>
       </c>
       <c r="G89" t="n">
-        <v>0.01734509783262043</v>
+        <v>0.01888282181158456</v>
       </c>
       <c r="J89" t="n">
-        <v>0.01889659685166151</v>
+        <v>0.04274221509062223</v>
       </c>
       <c r="K89" t="n">
-        <v>0.01734882081335139</v>
+        <v>0.01863894351232434</v>
       </c>
       <c r="L89" t="n">
-        <v>0.04450780661481862</v>
+        <v>0.06325640512429132</v>
       </c>
       <c r="M89" t="n">
-        <v>0.01695630204107606</v>
+        <v>0.01862815938706076</v>
       </c>
       <c r="N89" t="n">
-        <v>0.07496507444932987</v>
+        <v>0.01782405654024714</v>
       </c>
       <c r="O89" t="n">
-        <v>0.01736265824201432</v>
+        <v>0.01888282181158456</v>
       </c>
     </row>
     <row r="90" ht="15" customHeight="1">
       <c r="F90" t="n">
-        <v>0.01916037363256235</v>
+        <v>0.01831771230588307</v>
       </c>
       <c r="G90" t="n">
-        <v>0.01806781024231295</v>
+        <v>0.01966960605373392</v>
       </c>
       <c r="J90" t="n">
-        <v>0.01978739521369575</v>
+        <v>0.0442926901152102</v>
       </c>
       <c r="K90" t="n">
-        <v>0.01807168834724103</v>
+        <v>0.01941556615867119</v>
       </c>
       <c r="L90" t="n">
-        <v>0.04631831688559923</v>
+        <v>0.06506632476086632</v>
       </c>
       <c r="M90" t="n">
-        <v>0.0176628146261209</v>
+        <v>0.01940433269485496</v>
       </c>
       <c r="N90" t="n">
-        <v>0.0770212285738136</v>
+        <v>0.01831771230588307</v>
       </c>
       <c r="O90" t="n">
-        <v>0.01808610233543159</v>
+        <v>0.01966960605373392</v>
       </c>
     </row>
     <row r="91" ht="15" customHeight="1">
       <c r="F91" t="n">
-        <v>0.02099254214929312</v>
+        <v>0.0189065418959978</v>
       </c>
       <c r="G91" t="n">
-        <v>0.01879052265200547</v>
+        <v>0.02045639029588328</v>
       </c>
       <c r="J91" t="n">
-        <v>0.020872568614013</v>
+        <v>0.04482033270275265</v>
       </c>
       <c r="K91" t="n">
-        <v>0.01879455588113067</v>
+        <v>0.02019218880501804</v>
       </c>
       <c r="L91" t="n">
-        <v>0.04788277800726484</v>
+        <v>0.06576441407453215</v>
       </c>
       <c r="M91" t="n">
-        <v>0.01836932721116574</v>
+        <v>0.02018050600264916</v>
       </c>
       <c r="N91" t="n">
-        <v>0.07846576980289521</v>
+        <v>0.0189065418959978</v>
       </c>
       <c r="O91" t="n">
-        <v>0.01880954642884885</v>
+        <v>0.02045639029588328</v>
       </c>
     </row>
     <row r="92" ht="15" customHeight="1">
       <c r="F92" t="n">
-        <v>0.02179699780739449</v>
+        <v>0.01938978611190031</v>
       </c>
       <c r="G92" t="n">
-        <v>0.01951323506169798</v>
+        <v>0.02124317453803264</v>
       </c>
       <c r="J92" t="n">
-        <v>0.0216391153966828</v>
+        <v>0.045924653556985</v>
       </c>
       <c r="K92" t="n">
-        <v>0.01951742341502031</v>
+        <v>0.02096881145136489</v>
       </c>
       <c r="L92" t="n">
-        <v>0.04868735006292021</v>
+        <v>0.06784850257771913</v>
       </c>
       <c r="M92" t="n">
-        <v>0.01907583979621057</v>
+        <v>0.02095667931044336</v>
       </c>
       <c r="N92" t="n">
-        <v>0.08068939912487377</v>
+        <v>0.01938978611190031</v>
       </c>
       <c r="O92" t="n">
-        <v>0.01953299052226611</v>
+        <v>0.02124317453803264</v>
       </c>
     </row>
     <row r="93" ht="15" customHeight="1">
       <c r="F93" t="n">
-        <v>0.02256354979996097</v>
+        <v>0.01986668575489964</v>
       </c>
       <c r="G93" t="n">
-        <v>0.0202359474713905</v>
+        <v>0.02202995878018199</v>
       </c>
       <c r="J93" t="n">
-        <v>0.02237403390577476</v>
+        <v>0.04660516338164247</v>
       </c>
       <c r="K93" t="n">
-        <v>0.02024029094890996</v>
+        <v>0.02174543409771174</v>
       </c>
       <c r="L93" t="n">
-        <v>0.05031819313566996</v>
+        <v>0.06931641978285735</v>
       </c>
       <c r="M93" t="n">
-        <v>0.01978235238125541</v>
+        <v>0.02173285261823756</v>
       </c>
       <c r="N93" t="n">
-        <v>0.08168281752804812</v>
+        <v>0.01986668575489964</v>
       </c>
       <c r="O93" t="n">
-        <v>0.02025643461568337</v>
+        <v>0.02202995878018199</v>
       </c>
     </row>
     <row r="94" ht="15" customHeight="1">
       <c r="F94" t="n">
-        <v>0.02328200732008703</v>
+        <v>0.02043648162630479</v>
       </c>
       <c r="G94" t="n">
-        <v>0.02095865988108302</v>
+        <v>0.02281674302233135</v>
       </c>
       <c r="J94" t="n">
-        <v>0.02326432248535852</v>
+        <v>0.04736137288046049</v>
       </c>
       <c r="K94" t="n">
-        <v>0.02096315848279959</v>
+        <v>0.02252205674405858</v>
       </c>
       <c r="L94" t="n">
-        <v>0.05146146730861884</v>
+        <v>0.06996599520237701</v>
       </c>
       <c r="M94" t="n">
-        <v>0.02048886496630024</v>
+        <v>0.02250902592603176</v>
       </c>
       <c r="N94" t="n">
-        <v>0.08253672600071743</v>
+        <v>0.02043648162630479</v>
       </c>
       <c r="O94" t="n">
-        <v>0.02097987870910064</v>
+        <v>0.02281674302233135</v>
       </c>
     </row>
     <row r="95" ht="15" customHeight="1">
       <c r="F95" t="n">
-        <v>0.02294217956086716</v>
+        <v>0.02089841452742479</v>
       </c>
       <c r="G95" t="n">
-        <v>0.02168137229077554</v>
+        <v>0.02360352726448071</v>
       </c>
       <c r="J95" t="n">
-        <v>0.02389697947950366</v>
+        <v>0.04849279275717439</v>
       </c>
       <c r="K95" t="n">
-        <v>0.02168602601668924</v>
+        <v>0.02329867939040543</v>
       </c>
       <c r="L95" t="n">
-        <v>0.05280333266487158</v>
+        <v>0.07179505834870853</v>
       </c>
       <c r="M95" t="n">
-        <v>0.02119537755134508</v>
+        <v>0.02328519923382595</v>
       </c>
       <c r="N95" t="n">
-        <v>0.08414182553118055</v>
+        <v>0.02089841452742479</v>
       </c>
       <c r="O95" t="n">
-        <v>0.0217033228025179</v>
+        <v>0.02360352726448071</v>
       </c>
     </row>
     <row r="96" ht="15" customHeight="1">
       <c r="F96" t="n">
-        <v>0.02453387571539584</v>
+        <v>0.02115172525956864</v>
       </c>
       <c r="G96" t="n">
-        <v>0.02240408470046805</v>
+        <v>0.02439031150663007</v>
       </c>
       <c r="J96" t="n">
-        <v>0.02455900323227976</v>
+        <v>0.04939893371551948</v>
       </c>
       <c r="K96" t="n">
-        <v>0.02240889355057888</v>
+        <v>0.02407530203675228</v>
       </c>
       <c r="L96" t="n">
-        <v>0.0538299492875329</v>
+        <v>0.07310143873428204</v>
       </c>
       <c r="M96" t="n">
-        <v>0.02190189013638992</v>
+        <v>0.02406137254162015</v>
       </c>
       <c r="N96" t="n">
-        <v>0.08468881710773646</v>
+        <v>0.02115172525956864</v>
       </c>
       <c r="O96" t="n">
-        <v>0.02242676689593517</v>
+        <v>0.02439031150663007</v>
       </c>
     </row>
     <row r="97" ht="15" customHeight="1">
       <c r="F97" t="n">
-        <v>0.02504690497676759</v>
+        <v>0.02159565462404536</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02312679711016057</v>
+        <v>0.02517709574877942</v>
       </c>
       <c r="J97" t="n">
-        <v>0.02523739208775647</v>
+        <v>0.05027930645923112</v>
       </c>
       <c r="K97" t="n">
-        <v>0.02313176108446852</v>
+        <v>0.02485192468309913</v>
       </c>
       <c r="L97" t="n">
-        <v>0.05442747725970748</v>
+        <v>0.07438296587152776</v>
       </c>
       <c r="M97" t="n">
-        <v>0.02260840272143475</v>
+        <v>0.02483754584941435</v>
       </c>
       <c r="N97" t="n">
-        <v>0.08546840171868419</v>
+        <v>0.02159565462404536</v>
       </c>
       <c r="O97" t="n">
-        <v>0.02315021098935243</v>
+        <v>0.02517709574877942</v>
       </c>
     </row>
     <row r="98" ht="15" customHeight="1">
       <c r="F98" t="n">
-        <v>0.02447107653807688</v>
+        <v>0.022129443422164</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02384950951985309</v>
+        <v>0.02596387999092878</v>
       </c>
       <c r="J98" t="n">
-        <v>0.02561914439000333</v>
+        <v>0.05063342169204463</v>
       </c>
       <c r="K98" t="n">
-        <v>0.02385462861835816</v>
+        <v>0.02562854732944598</v>
       </c>
       <c r="L98" t="n">
-        <v>0.05558207666449999</v>
+        <v>0.07543746927287592</v>
       </c>
       <c r="M98" t="n">
-        <v>0.02331491530647959</v>
+        <v>0.02561371915720855</v>
       </c>
       <c r="N98" t="n">
-        <v>0.0859712803523226</v>
+        <v>0.022129443422164</v>
       </c>
       <c r="O98" t="n">
-        <v>0.02387365508276969</v>
+        <v>0.02596387999092878</v>
       </c>
     </row>
     <row r="99" ht="15" customHeight="1">
       <c r="F99" t="n">
-        <v>0.02379619959241821</v>
+        <v>0.02245233245523351</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02457222192954561</v>
+        <v>0.02675066423307814</v>
       </c>
       <c r="J99" t="n">
-        <v>0.02599125848308999</v>
+        <v>0.05176079011769544</v>
       </c>
       <c r="K99" t="n">
-        <v>0.0245774961522478</v>
+        <v>0.02640516997579282</v>
       </c>
       <c r="L99" t="n">
-        <v>0.05587990758501524</v>
+        <v>0.07656277845075676</v>
       </c>
       <c r="M99" t="n">
-        <v>0.02402142789152442</v>
+        <v>0.02638989246500275</v>
       </c>
       <c r="N99" t="n">
-        <v>0.08628815399695083</v>
+        <v>0.02245233245523351</v>
       </c>
       <c r="O99" t="n">
-        <v>0.02459709917618695</v>
+        <v>0.02675066423307814</v>
       </c>
     </row>
     <row r="100" ht="15" customHeight="1">
       <c r="F100" t="n">
-        <v>0.02501208333288605</v>
+        <v>0.02286356252456295</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02529493433923813</v>
+        <v>0.02753744847522749</v>
       </c>
       <c r="J100" t="n">
-        <v>0.02624073271108604</v>
+        <v>0.05226092243991881</v>
       </c>
       <c r="K100" t="n">
-        <v>0.02530036368613744</v>
+        <v>0.02718179262213967</v>
       </c>
       <c r="L100" t="n">
-        <v>0.05610713010435789</v>
+        <v>0.07755672291760052</v>
       </c>
       <c r="M100" t="n">
-        <v>0.02472794047656926</v>
+        <v>0.02716606577279694</v>
       </c>
       <c r="N100" t="n">
-        <v>0.08710972364086766</v>
+        <v>0.02286356252456295</v>
       </c>
       <c r="O100" t="n">
-        <v>0.02532054326960422</v>
+        <v>0.02753744847522749</v>
       </c>
     </row>
     <row r="101" ht="15" customHeight="1">
       <c r="F101" t="n">
-        <v>0.02510853695257489</v>
+        <v>0.02346237443146135</v>
       </c>
       <c r="G101" t="n">
-        <v>0.02601764674893065</v>
+        <v>0.02832423271737685</v>
       </c>
       <c r="J101" t="n">
-        <v>0.02635456541806108</v>
+        <v>0.05303332936245012</v>
       </c>
       <c r="K101" t="n">
-        <v>0.02602323122002708</v>
+        <v>0.02795841526848652</v>
       </c>
       <c r="L101" t="n">
-        <v>0.0569499043056326</v>
+        <v>0.07881713218583741</v>
       </c>
       <c r="M101" t="n">
-        <v>0.0254344530616141</v>
+        <v>0.02794223908059114</v>
       </c>
       <c r="N101" t="n">
-        <v>0.08733283483896942</v>
+        <v>0.02346237443146135</v>
       </c>
       <c r="O101" t="n">
-        <v>0.02604398736302148</v>
+        <v>0.02832423271737685</v>
       </c>
     </row>
     <row r="102" ht="15" customHeight="1">
       <c r="F102" t="n">
-        <v>0.0250913960341284</v>
+        <v>0.02364800897723769</v>
       </c>
       <c r="G102" t="n">
-        <v>0.02674035915862316</v>
+        <v>0.02911101695952621</v>
       </c>
       <c r="J102" t="n">
-        <v>0.02643781366531207</v>
+        <v>0.05327752158902468</v>
       </c>
       <c r="K102" t="n">
-        <v>0.02674609875391672</v>
+        <v>0.02873503791483336</v>
       </c>
       <c r="L102" t="n">
-        <v>0.0566963880343869</v>
+        <v>0.07974183576789767</v>
       </c>
       <c r="M102" t="n">
-        <v>0.02614096564665893</v>
+        <v>0.02871841238838534</v>
       </c>
       <c r="N102" t="n">
-        <v>0.08650710436596815</v>
+        <v>0.02364800897723769</v>
       </c>
       <c r="O102" t="n">
-        <v>0.02676743145643875</v>
+        <v>0.02911101695952621</v>
       </c>
     </row>
     <row r="103" ht="15" customHeight="1">
       <c r="F103" t="n">
-        <v>0.02400011034395994</v>
+        <v>0.024119706963201</v>
       </c>
       <c r="G103" t="n">
-        <v>0.02746307156831568</v>
+        <v>0.02989780120167556</v>
       </c>
       <c r="J103" t="n">
-        <v>0.02643741251258308</v>
+        <v>0.05389300982337789</v>
       </c>
       <c r="K103" t="n">
-        <v>0.02746896628780637</v>
+        <v>0.02951166056118021</v>
       </c>
       <c r="L103" t="n">
-        <v>0.05677602014880911</v>
+        <v>0.08152866317621166</v>
       </c>
       <c r="M103" t="n">
-        <v>0.02684747823170377</v>
+        <v>0.02949458569617954</v>
       </c>
       <c r="N103" t="n">
-        <v>0.08675340183107166</v>
+        <v>0.024119706963201</v>
       </c>
       <c r="O103" t="n">
-        <v>0.02749087554985601</v>
+        <v>0.02989780120167556</v>
       </c>
     </row>
     <row r="104" ht="15" customHeight="1">
       <c r="F104" t="n">
-        <v>0.02484552943006214</v>
+        <v>0.02447670919066028</v>
       </c>
       <c r="G104" t="n">
-        <v>0.0281857839780082</v>
+        <v>0.03068458544382492</v>
       </c>
       <c r="J104" t="n">
-        <v>0.02606605095143495</v>
+        <v>0.05447930476924503</v>
       </c>
       <c r="K104" t="n">
-        <v>0.02819183382169601</v>
+        <v>0.03028828320752706</v>
       </c>
       <c r="L104" t="n">
-        <v>0.05621455981850543</v>
+        <v>0.08187544392320939</v>
       </c>
       <c r="M104" t="n">
-        <v>0.0275539908167486</v>
+        <v>0.03027075900397374</v>
       </c>
       <c r="N104" t="n">
-        <v>0.08578169887845227</v>
+        <v>0.02447670919066028</v>
       </c>
       <c r="O104" t="n">
-        <v>0.02821431964327327</v>
+        <v>0.03068458544382492</v>
       </c>
     </row>
     <row r="105" ht="15" customHeight="1">
       <c r="F105" t="n">
-        <v>0.02563684114537316</v>
+        <v>0.02481825646092459</v>
       </c>
       <c r="G105" t="n">
-        <v>0.02890849638770072</v>
+        <v>0.03147136968597428</v>
       </c>
       <c r="J105" t="n">
-        <v>0.02583406484644145</v>
+        <v>0.05523591713036149</v>
       </c>
       <c r="K105" t="n">
-        <v>0.02891470135558565</v>
+        <v>0.03106490585387391</v>
       </c>
       <c r="L105" t="n">
-        <v>0.05612732136836907</v>
+        <v>0.08368000752132121</v>
       </c>
       <c r="M105" t="n">
-        <v>0.02826050340179344</v>
+        <v>0.03104693231176794</v>
       </c>
       <c r="N105" t="n">
-        <v>0.08590196715228182</v>
+        <v>0.02481825646092459</v>
       </c>
       <c r="O105" t="n">
-        <v>0.02893776373669054</v>
+        <v>0.03147136968597428</v>
       </c>
     </row>
     <row r="106" ht="15" customHeight="1">
       <c r="F106" t="n">
-        <v>0.02338323334283127</v>
+        <v>0.02524358957530289</v>
       </c>
       <c r="G106" t="n">
-        <v>0.02963120879739323</v>
+        <v>0.03225815392812364</v>
       </c>
       <c r="J106" t="n">
-        <v>0.02565179006217636</v>
+        <v>0.05576235761046264</v>
       </c>
       <c r="K106" t="n">
-        <v>0.02963756888947529</v>
+        <v>0.03184152850022075</v>
       </c>
       <c r="L106" t="n">
-        <v>0.05522961912329308</v>
+        <v>0.08434018348297734</v>
       </c>
       <c r="M106" t="n">
-        <v>0.02896701598683827</v>
+        <v>0.03182310561956214</v>
       </c>
       <c r="N106" t="n">
-        <v>0.08502417829673259</v>
+        <v>0.02524358957530289</v>
       </c>
       <c r="O106" t="n">
-        <v>0.0296612078301078</v>
+        <v>0.03225815392812364</v>
       </c>
     </row>
     <row r="107" ht="15" customHeight="1">
       <c r="F107" t="n">
-        <v>0.0240938938753747</v>
+        <v>0.02535194933510423</v>
       </c>
       <c r="G107" t="n">
-        <v>0.03035392120708575</v>
+        <v>0.03304493817027299</v>
       </c>
       <c r="J107" t="n">
-        <v>0.0253295624632134</v>
+        <v>0.05655813691328374</v>
       </c>
       <c r="K107" t="n">
-        <v>0.03036043642336493</v>
+        <v>0.0326181511465676</v>
       </c>
       <c r="L107" t="n">
-        <v>0.05513676740817072</v>
+        <v>0.08525380132060806</v>
       </c>
       <c r="M107" t="n">
-        <v>0.02967352857188311</v>
+        <v>0.03259927892735633</v>
       </c>
       <c r="N107" t="n">
-        <v>0.08445830395597648</v>
+        <v>0.02535194933510423</v>
       </c>
       <c r="O107" t="n">
-        <v>0.03038465192352506</v>
+        <v>0.03304493817027299</v>
       </c>
     </row>
     <row r="108" ht="15" customHeight="1">
       <c r="F108" t="n">
-        <v>0.02277801059594168</v>
+        <v>0.02584257654163762</v>
       </c>
       <c r="G108" t="n">
-        <v>0.03107663361677827</v>
+        <v>0.03383172241242235</v>
       </c>
       <c r="J108" t="n">
-        <v>0.02497771791412638</v>
+        <v>0.05652276574256018</v>
       </c>
       <c r="K108" t="n">
-        <v>0.03108330395725457</v>
+        <v>0.03339477379291445</v>
       </c>
       <c r="L108" t="n">
-        <v>0.05416408054789509</v>
+        <v>0.08631869054664359</v>
       </c>
       <c r="M108" t="n">
-        <v>0.03038004115692795</v>
+        <v>0.03337545223515054</v>
       </c>
       <c r="N108" t="n">
-        <v>0.08411431577418566</v>
+        <v>0.02584257654163762</v>
       </c>
       <c r="O108" t="n">
-        <v>0.03110809601694233</v>
+        <v>0.03383172241242235</v>
       </c>
     </row>
     <row r="109" ht="15" customHeight="1">
       <c r="F109" t="n">
-        <v>0.02244477135747044</v>
+        <v>0.02601471199621205</v>
       </c>
       <c r="G109" t="n">
-        <v>0.03179934602647079</v>
+        <v>0.0346185066545717</v>
       </c>
       <c r="J109" t="n">
-        <v>0.02460659227948903</v>
+        <v>0.05735575480202731</v>
       </c>
       <c r="K109" t="n">
-        <v>0.03180617149114422</v>
+        <v>0.0341713964392613</v>
       </c>
       <c r="L109" t="n">
-        <v>0.05372687286735933</v>
+        <v>0.087032680673514</v>
       </c>
       <c r="M109" t="n">
-        <v>0.03108655374197278</v>
+        <v>0.03415162554294473</v>
       </c>
       <c r="N109" t="n">
-        <v>0.08330218539553225</v>
+        <v>0.02601471199621205</v>
       </c>
       <c r="O109" t="n">
-        <v>0.03183154011035959</v>
+        <v>0.0346185066545717</v>
       </c>
     </row>
     <row r="110" ht="15" customHeight="1">
       <c r="F110" t="n">
-        <v>0.02410336401289919</v>
+        <v>0.02616759650013659</v>
       </c>
       <c r="G110" t="n">
-        <v>0.03252205843616331</v>
+        <v>0.03540529089672106</v>
       </c>
       <c r="J110" t="n">
-        <v>0.02432652142387511</v>
+        <v>0.05755661479542051</v>
       </c>
       <c r="K110" t="n">
-        <v>0.03252903902503385</v>
+        <v>0.03494801908560814</v>
       </c>
       <c r="L110" t="n">
-        <v>0.05244045869145664</v>
+        <v>0.08769360121364972</v>
       </c>
       <c r="M110" t="n">
-        <v>0.03179306632701762</v>
+        <v>0.03492779885073893</v>
       </c>
       <c r="N110" t="n">
-        <v>0.08183188446418821</v>
+        <v>0.02616759650013659</v>
       </c>
       <c r="O110" t="n">
-        <v>0.03255498420377685</v>
+        <v>0.03540529089672106</v>
       </c>
     </row>
     <row r="111" ht="15" customHeight="1">
       <c r="F111" t="n">
-        <v>0.02176297641516619</v>
+        <v>0.02660047085472021</v>
       </c>
       <c r="G111" t="n">
-        <v>0.03324477084585582</v>
+        <v>0.03619207513887042</v>
       </c>
       <c r="J111" t="n">
-        <v>0.02384784121185839</v>
+        <v>0.05782485642647503</v>
       </c>
       <c r="K111" t="n">
-        <v>0.0332519065589235</v>
+        <v>0.03572464173195499</v>
       </c>
       <c r="L111" t="n">
-        <v>0.05202015234508015</v>
+        <v>0.08859928167948095</v>
       </c>
       <c r="M111" t="n">
-        <v>0.03249957891206245</v>
+        <v>0.03570397215853313</v>
       </c>
       <c r="N111" t="n">
-        <v>0.08071338462432576</v>
+        <v>0.02660047085472021</v>
       </c>
       <c r="O111" t="n">
-        <v>0.03327842829719412</v>
+        <v>0.03619207513887042</v>
       </c>
     </row>
     <row r="112" ht="15" customHeight="1">
       <c r="F112" t="n">
-        <v>0.02343279641720967</v>
+        <v>0.02671257586127196</v>
       </c>
       <c r="G112" t="n">
-        <v>0.03396748325554835</v>
+        <v>0.03697885938101977</v>
       </c>
       <c r="J112" t="n">
-        <v>0.02348088750801262</v>
+        <v>0.05805999039892629</v>
       </c>
       <c r="K112" t="n">
-        <v>0.03397477409281314</v>
+        <v>0.03650126437830184</v>
       </c>
       <c r="L112" t="n">
-        <v>0.05128126815312301</v>
+        <v>0.08904755158343786</v>
       </c>
       <c r="M112" t="n">
-        <v>0.03320609149710729</v>
+        <v>0.03648014546632733</v>
       </c>
       <c r="N112" t="n">
-        <v>0.08035665752011695</v>
+        <v>0.02671257586127196</v>
       </c>
       <c r="O112" t="n">
-        <v>0.03400187239061139</v>
+        <v>0.03697885938101977</v>
       </c>
     </row>
     <row r="113" ht="15" customHeight="1">
       <c r="F113" t="n">
-        <v>0.02312201187196784</v>
+        <v>0.0268031523211008</v>
       </c>
       <c r="G113" t="n">
-        <v>0.03469019566524086</v>
+        <v>0.03776564362316913</v>
       </c>
       <c r="J113" t="n">
-        <v>0.02313599617691159</v>
+        <v>0.05876152741650964</v>
       </c>
       <c r="K113" t="n">
-        <v>0.03469764162670277</v>
+        <v>0.03727788702464869</v>
       </c>
       <c r="L113" t="n">
-        <v>0.05033912044047839</v>
+        <v>0.08983624043795069</v>
       </c>
       <c r="M113" t="n">
-        <v>0.03391260408215212</v>
+        <v>0.03725631877412152</v>
       </c>
       <c r="N113" t="n">
-        <v>0.07967167479573384</v>
+        <v>0.0268031523211008</v>
       </c>
       <c r="O113" t="n">
-        <v>0.03472531648402864</v>
+        <v>0.03776564362316913</v>
       </c>
     </row>
     <row r="114" ht="15" customHeight="1">
       <c r="F114" t="n">
-        <v>0.02183981063237895</v>
+        <v>0.02697144103551578</v>
       </c>
       <c r="G114" t="n">
-        <v>0.03541290807493338</v>
+        <v>0.03855242786531848</v>
       </c>
       <c r="J114" t="n">
-        <v>0.02292350308312903</v>
+        <v>0.05902897818296035</v>
       </c>
       <c r="K114" t="n">
-        <v>0.03542050916059242</v>
+        <v>0.03805450967099554</v>
       </c>
       <c r="L114" t="n">
-        <v>0.04930902353203939</v>
+        <v>0.09036317775544966</v>
       </c>
       <c r="M114" t="n">
-        <v>0.03461911666719696</v>
+        <v>0.03803249208191573</v>
       </c>
       <c r="N114" t="n">
-        <v>0.07796840809534861</v>
+        <v>0.02697144103551578</v>
       </c>
       <c r="O114" t="n">
-        <v>0.03544876057744591</v>
+        <v>0.03855242786531848</v>
       </c>
     </row>
     <row r="115" ht="15" customHeight="1">
       <c r="F115" t="n">
-        <v>0.02259538055138121</v>
+        <v>0.02731668280582596</v>
       </c>
       <c r="G115" t="n">
-        <v>0.0361356204846259</v>
+        <v>0.03933921210746785</v>
       </c>
       <c r="J115" t="n">
-        <v>0.02245374409123868</v>
+        <v>0.05936185340201378</v>
       </c>
       <c r="K115" t="n">
-        <v>0.03614337669448206</v>
+        <v>0.03883113231734239</v>
       </c>
       <c r="L115" t="n">
-        <v>0.04830629175269924</v>
+        <v>0.09082619304836509</v>
       </c>
       <c r="M115" t="n">
-        <v>0.0353256292522418</v>
+        <v>0.03880866538970992</v>
       </c>
       <c r="N115" t="n">
-        <v>0.07765682906313315</v>
+        <v>0.02731668280582596</v>
       </c>
       <c r="O115" t="n">
-        <v>0.03617220467086317</v>
+        <v>0.03933921210746785</v>
       </c>
     </row>
     <row r="116" ht="15" customHeight="1">
       <c r="F116" t="n">
-        <v>0.02139790948191288</v>
+        <v>0.02743811843334028</v>
       </c>
       <c r="G116" t="n">
-        <v>0.03685833289431841</v>
+        <v>0.0401259963496172</v>
       </c>
       <c r="J116" t="n">
-        <v>0.02233705506581435</v>
+        <v>0.05955966377740537</v>
       </c>
       <c r="K116" t="n">
-        <v>0.0368662442283717</v>
+        <v>0.03960775496368923</v>
       </c>
       <c r="L116" t="n">
-        <v>0.04764623942735108</v>
+        <v>0.0909231158291271</v>
       </c>
       <c r="M116" t="n">
-        <v>0.03603214183728663</v>
+        <v>0.03958483869750412</v>
       </c>
       <c r="N116" t="n">
-        <v>0.07654690934325969</v>
+        <v>0.02743811843334028</v>
       </c>
       <c r="O116" t="n">
-        <v>0.03689564876428043</v>
+        <v>0.0401259963496172</v>
       </c>
     </row>
     <row r="117" ht="15" customHeight="1">
       <c r="F117" t="n">
-        <v>0.02125658527691218</v>
+        <v>0.02743498871936779</v>
       </c>
       <c r="G117" t="n">
-        <v>0.03758104530401093</v>
+        <v>0.04091278059176656</v>
       </c>
       <c r="J117" t="n">
-        <v>0.02228377187142978</v>
+        <v>0.05962192001287037</v>
       </c>
       <c r="K117" t="n">
-        <v>0.03758911176226134</v>
+        <v>0.04038437761003608</v>
       </c>
       <c r="L117" t="n">
-        <v>0.04724418088088805</v>
+        <v>0.091351775610166</v>
       </c>
       <c r="M117" t="n">
-        <v>0.03673865442233147</v>
+        <v>0.04036101200529832</v>
       </c>
       <c r="N117" t="n">
-        <v>0.07544862057990032</v>
+        <v>0.02743498871936779</v>
       </c>
       <c r="O117" t="n">
-        <v>0.0376190928576977</v>
+        <v>0.04091278059176656</v>
       </c>
     </row>
     <row r="118" ht="15" customHeight="1">
       <c r="F118" t="n">
-        <v>0.02218059578931732</v>
+        <v>0.0275065344652175</v>
       </c>
       <c r="G118" t="n">
-        <v>0.03830375771370345</v>
+        <v>0.04169956483391592</v>
       </c>
       <c r="J118" t="n">
-        <v>0.02210423037265873</v>
+        <v>0.05954813281214413</v>
       </c>
       <c r="K118" t="n">
-        <v>0.03831197929615099</v>
+        <v>0.04116100025638293</v>
       </c>
       <c r="L118" t="n">
-        <v>0.04621543043820328</v>
+        <v>0.09201000190391201</v>
       </c>
       <c r="M118" t="n">
-        <v>0.0374451670073763</v>
+        <v>0.04113718531309252</v>
       </c>
       <c r="N118" t="n">
-        <v>0.07387193441722706</v>
+        <v>0.0275065344652175</v>
       </c>
       <c r="O118" t="n">
-        <v>0.03834253695111496</v>
+        <v>0.04169956483391592</v>
       </c>
     </row>
     <row r="119" ht="15" customHeight="1">
       <c r="F119" t="n">
-        <v>0.02217329313477204</v>
+        <v>0.02767105768882022</v>
       </c>
       <c r="G119" t="n">
-        <v>0.03902647012339597</v>
+        <v>0.04248634907606528</v>
       </c>
       <c r="J119" t="n">
-        <v>0.02210016252943291</v>
+        <v>0.05973781287896204</v>
       </c>
       <c r="K119" t="n">
-        <v>0.03903484683004062</v>
+        <v>0.04193762290272977</v>
       </c>
       <c r="L119" t="n">
-        <v>0.04597530242418996</v>
+        <v>0.09159562422279538</v>
       </c>
       <c r="M119" t="n">
-        <v>0.03815167959242114</v>
+        <v>0.04191335862088672</v>
       </c>
       <c r="N119" t="n">
-        <v>0.07292682249941201</v>
+        <v>0.02767105768882022</v>
       </c>
       <c r="O119" t="n">
-        <v>0.03906598104453222</v>
+        <v>0.04248634907606528</v>
       </c>
     </row>
     <row r="120" ht="15" customHeight="1">
       <c r="F120" t="n">
-        <v>0.02120134195537445</v>
+        <v>0.02757061554161962</v>
       </c>
       <c r="G120" t="n">
-        <v>0.03974918253308848</v>
+        <v>0.04327313331821463</v>
       </c>
       <c r="J120" t="n">
-        <v>0.02213379095736988</v>
+        <v>0.06000580492204047</v>
       </c>
       <c r="K120" t="n">
-        <v>0.03975771436393027</v>
+        <v>0.04271424554907662</v>
       </c>
       <c r="L120" t="n">
-        <v>0.04563911116374125</v>
+        <v>0.09234055215526071</v>
       </c>
       <c r="M120" t="n">
-        <v>0.03885819217746598</v>
+        <v>0.04268953192868091</v>
       </c>
       <c r="N120" t="n">
-        <v>0.07222325647062738</v>
+        <v>0.02757061554161962</v>
       </c>
       <c r="O120" t="n">
-        <v>0.03978942513794949</v>
+        <v>0.04327313331821463</v>
       </c>
     </row>
     <row r="121" ht="15" customHeight="1">
       <c r="F121" t="n">
-        <v>0.02225633169118237</v>
+        <v>0.02767006263719354</v>
       </c>
       <c r="G121" t="n">
-        <v>0.04047189494278101</v>
+        <v>0.04405991756036399</v>
       </c>
       <c r="J121" t="n">
-        <v>0.02229747647247704</v>
+        <v>0.05980567455398253</v>
       </c>
       <c r="K121" t="n">
-        <v>0.04048058189781991</v>
+        <v>0.04349086819542347</v>
       </c>
       <c r="L121" t="n">
-        <v>0.04502217098175021</v>
+        <v>0.09174048875351615</v>
       </c>
       <c r="M121" t="n">
-        <v>0.03956470476251082</v>
+        <v>0.04346570523647511</v>
       </c>
       <c r="N121" t="n">
-        <v>0.07197120797504503</v>
+        <v>0.02767006263719354</v>
       </c>
       <c r="O121" t="n">
-        <v>0.04051286923136675</v>
+        <v>0.04405991756036399</v>
       </c>
     </row>
     <row r="122" ht="15" customHeight="1">
       <c r="F122" t="n">
-        <v>0.02133638169826588</v>
+        <v>0.02766618427806802</v>
       </c>
       <c r="G122" t="n">
-        <v>0.04119460735247352</v>
+        <v>0.04484670180251334</v>
       </c>
       <c r="J122" t="n">
-        <v>0.02218909481819752</v>
+        <v>0.05989006819794865</v>
       </c>
       <c r="K122" t="n">
-        <v>0.04120344943170955</v>
+        <v>0.04426749084177032</v>
       </c>
       <c r="L122" t="n">
-        <v>0.04523979620311014</v>
+        <v>0.09182461811570036</v>
       </c>
       <c r="M122" t="n">
-        <v>0.04027121734755566</v>
+        <v>0.04424187854426932</v>
       </c>
       <c r="N122" t="n">
-        <v>0.0707806486568372</v>
+        <v>0.02766618427806802</v>
       </c>
       <c r="O122" t="n">
-        <v>0.04123631332478402</v>
+        <v>0.04484670180251334</v>
       </c>
     </row>
     <row r="123" ht="15" customHeight="1">
       <c r="F123" t="n">
-        <v>0.02143961133269511</v>
+        <v>0.02745941131474178</v>
       </c>
       <c r="G123" t="n">
-        <v>0.04191731976216604</v>
+        <v>0.0456334860446627</v>
       </c>
       <c r="J123" t="n">
-        <v>0.02240652173797437</v>
+        <v>0.05934926641125221</v>
       </c>
       <c r="K123" t="n">
-        <v>0.04192631696559919</v>
+        <v>0.04504411348811716</v>
       </c>
       <c r="L123" t="n">
-        <v>0.04510483123703515</v>
+        <v>0.09158136028896741</v>
       </c>
       <c r="M123" t="n">
-        <v>0.04097772993260049</v>
+        <v>0.04501805185206351</v>
       </c>
       <c r="N123" t="n">
-        <v>0.07046155016017591</v>
+        <v>0.02745941131474178</v>
       </c>
       <c r="O123" t="n">
-        <v>0.04195975741820128</v>
+        <v>0.0456334860446627</v>
       </c>
     </row>
     <row r="124" ht="15" customHeight="1">
       <c r="F124" t="n">
-        <v>0.02256413995054018</v>
+        <v>0.02764977974765301</v>
       </c>
       <c r="G124" t="n">
-        <v>0.04264003217185856</v>
+        <v>0.04642027028681206</v>
       </c>
       <c r="J124" t="n">
-        <v>0.02264763297525069</v>
+        <v>0.05988442568389463</v>
       </c>
       <c r="K124" t="n">
-        <v>0.04264918449948883</v>
+        <v>0.04582073613446401</v>
       </c>
       <c r="L124" t="n">
-        <v>0.04498532635508534</v>
+        <v>0.09201156754172285</v>
       </c>
       <c r="M124" t="n">
-        <v>0.04168424251764533</v>
+        <v>0.0457942251598577</v>
       </c>
       <c r="N124" t="n">
-        <v>0.06962388412923332</v>
+        <v>0.02764977974765301</v>
       </c>
       <c r="O124" t="n">
-        <v>0.04268320151161854</v>
+        <v>0.04642027028681206</v>
       </c>
     </row>
     <row r="125" ht="15" customHeight="1">
       <c r="F125" t="n">
-        <v>0.02070808690787119</v>
+        <v>0.02743732557723989</v>
       </c>
       <c r="G125" t="n">
-        <v>0.04336274458155107</v>
+        <v>0.04720705452896141</v>
       </c>
       <c r="J125" t="n">
-        <v>0.02281030427346954</v>
+        <v>0.05959670250587712</v>
       </c>
       <c r="K125" t="n">
-        <v>0.04337205203337847</v>
+        <v>0.04659735878081086</v>
       </c>
       <c r="L125" t="n">
-        <v>0.04486140479554931</v>
+        <v>0.09141609214237223</v>
       </c>
       <c r="M125" t="n">
-        <v>0.04239075510269016</v>
+        <v>0.04657039846765191</v>
       </c>
       <c r="N125" t="n">
-        <v>0.06837762220818144</v>
+        <v>0.02743732557723989</v>
       </c>
       <c r="O125" t="n">
-        <v>0.0434066456050358</v>
+        <v>0.04720705452896141</v>
       </c>
     </row>
     <row r="126" ht="15" customHeight="1">
       <c r="F126" t="n">
-        <v>0.02086957156075828</v>
+        <v>0.0276220848039407</v>
       </c>
       <c r="G126" t="n">
-        <v>0.0440854569912436</v>
+        <v>0.04799383877111077</v>
       </c>
       <c r="J126" t="n">
-        <v>0.02299241137607401</v>
+        <v>0.05908725336720114</v>
       </c>
       <c r="K126" t="n">
-        <v>0.04409491956726812</v>
+        <v>0.04737398142715771</v>
       </c>
       <c r="L126" t="n">
-        <v>0.04562585743607064</v>
+        <v>0.09169578635932113</v>
       </c>
       <c r="M126" t="n">
-        <v>0.043097267687735</v>
+        <v>0.04734657177544611</v>
       </c>
       <c r="N126" t="n">
-        <v>0.06803273604119231</v>
+        <v>0.0276220848039407</v>
       </c>
       <c r="O126" t="n">
-        <v>0.04413008969845306</v>
+        <v>0.04799383877111077</v>
       </c>
     </row>
     <row r="127" ht="15" customHeight="1">
       <c r="F127" t="n">
-        <v>0.02104671326527156</v>
+        <v>0.02760409342819363</v>
       </c>
       <c r="G127" t="n">
-        <v>0.04480816940093611</v>
+        <v>0.04878062301326013</v>
       </c>
       <c r="J127" t="n">
-        <v>0.02319183002650718</v>
+        <v>0.05905723475786789</v>
       </c>
       <c r="K127" t="n">
-        <v>0.04481778710115775</v>
+        <v>0.04815060407350456</v>
       </c>
       <c r="L127" t="n">
-        <v>0.0459714751542929</v>
+        <v>0.09135150246097534</v>
       </c>
       <c r="M127" t="n">
-        <v>0.04380378027277983</v>
+        <v>0.04812274508324031</v>
       </c>
       <c r="N127" t="n">
-        <v>0.06819919727243817</v>
+        <v>0.02760409342819363</v>
       </c>
       <c r="O127" t="n">
-        <v>0.04485353379187033</v>
+        <v>0.04878062301326013</v>
       </c>
     </row>
     <row r="128" ht="15" customHeight="1">
       <c r="F128" t="n">
-        <v>0.02123763137748113</v>
+        <v>0.0275833874504369</v>
       </c>
       <c r="G128" t="n">
-        <v>0.04553088181062863</v>
+        <v>0.04956740725540949</v>
       </c>
       <c r="J128" t="n">
-        <v>0.02340643596821214</v>
+        <v>0.05930780316787881</v>
       </c>
       <c r="K128" t="n">
-        <v>0.0455406546350474</v>
+        <v>0.0489272267198514</v>
       </c>
       <c r="L128" t="n">
-        <v>0.04619104882785957</v>
+        <v>0.09158409271574025</v>
       </c>
       <c r="M128" t="n">
-        <v>0.04451029285782467</v>
+        <v>0.0488989183910345</v>
       </c>
       <c r="N128" t="n">
-        <v>0.06828697754609103</v>
+        <v>0.0275833874504369</v>
       </c>
       <c r="O128" t="n">
-        <v>0.0455769778852876</v>
+        <v>0.04956740725540949</v>
       </c>
     </row>
     <row r="129" ht="15" customHeight="1">
       <c r="F129" t="n">
-        <v>0.02144044525345714</v>
+        <v>0.0274600028711087</v>
       </c>
       <c r="G129" t="n">
-        <v>0.04625359422032115</v>
+        <v>0.05035419149755884</v>
       </c>
       <c r="J129" t="n">
-        <v>0.02363410494463195</v>
+        <v>0.0586401150872351</v>
       </c>
       <c r="K129" t="n">
-        <v>0.04626352216893704</v>
+        <v>0.04970384936619825</v>
       </c>
       <c r="L129" t="n">
-        <v>0.04687736933441433</v>
+        <v>0.09109440939202146</v>
       </c>
       <c r="M129" t="n">
-        <v>0.0452168054428695</v>
+        <v>0.0496750916988287</v>
       </c>
       <c r="N129" t="n">
-        <v>0.06730604850632294</v>
+        <v>0.0274600028711087</v>
       </c>
       <c r="O129" t="n">
-        <v>0.04630042197870485</v>
+        <v>0.05035419149755884</v>
       </c>
     </row>
     <row r="130" ht="15" customHeight="1">
       <c r="F130" t="n">
-        <v>0.02265327424926968</v>
+        <v>0.02753397569064729</v>
       </c>
       <c r="G130" t="n">
-        <v>0.04697630663001367</v>
+        <v>0.0511409757397082</v>
       </c>
       <c r="J130" t="n">
-        <v>0.02377271269920969</v>
+        <v>0.05865532700593817</v>
       </c>
       <c r="K130" t="n">
-        <v>0.04698638970282668</v>
+        <v>0.0504804720125451</v>
       </c>
       <c r="L130" t="n">
-        <v>0.04692322755160069</v>
+        <v>0.09068330475822461</v>
       </c>
       <c r="M130" t="n">
-        <v>0.04592331802791434</v>
+        <v>0.0504512650066229</v>
       </c>
       <c r="N130" t="n">
-        <v>0.06782435427179861</v>
+        <v>0.02753397569064729</v>
       </c>
       <c r="O130" t="n">
-        <v>0.04702386607212212</v>
+        <v>0.0511409757397082</v>
       </c>
     </row>
     <row r="131" ht="15" customHeight="1">
       <c r="F131" t="n">
-        <v>0.02187423772098888</v>
+        <v>0.02730534190949084</v>
       </c>
       <c r="G131" t="n">
-        <v>0.04769901903970619</v>
+        <v>0.05192775998185756</v>
       </c>
       <c r="J131" t="n">
-        <v>0.02402013497538848</v>
+        <v>0.0585545954139893</v>
       </c>
       <c r="K131" t="n">
-        <v>0.04770925723671632</v>
+        <v>0.05125709465889195</v>
       </c>
       <c r="L131" t="n">
-        <v>0.04762141435706219</v>
+        <v>0.09075163108275525</v>
       </c>
       <c r="M131" t="n">
-        <v>0.04662983061295917</v>
+        <v>0.0512274383144171</v>
       </c>
       <c r="N131" t="n">
-        <v>0.06790977385827712</v>
+        <v>0.02730534190949084</v>
       </c>
       <c r="O131" t="n">
-        <v>0.04774731016553938</v>
+        <v>0.05192775998185756</v>
       </c>
     </row>
     <row r="132" ht="15" customHeight="1">
       <c r="F132" t="n">
-        <v>0.02210145502468485</v>
+        <v>0.02727413752807763</v>
       </c>
       <c r="G132" t="n">
-        <v>0.0484217314493987</v>
+        <v>0.05271454422400691</v>
       </c>
       <c r="J132" t="n">
-        <v>0.02427424751661136</v>
+        <v>0.05823907680138982</v>
       </c>
       <c r="K132" t="n">
-        <v>0.04843212477060596</v>
+        <v>0.05203371730523879</v>
       </c>
       <c r="L132" t="n">
-        <v>0.04856472062844241</v>
+        <v>0.09080024063401904</v>
       </c>
       <c r="M132" t="n">
-        <v>0.04733634319800401</v>
+        <v>0.05200361162221129</v>
       </c>
       <c r="N132" t="n">
-        <v>0.06843694501305803</v>
+        <v>0.02727413752807763</v>
       </c>
       <c r="O132" t="n">
-        <v>0.04847075425895665</v>
+        <v>0.05271454422400691</v>
       </c>
     </row>
     <row r="133" ht="15" customHeight="1">
       <c r="F133" t="n">
-        <v>0.02333304551642771</v>
+        <v>0.02744039854684581</v>
       </c>
       <c r="G133" t="n">
-        <v>0.04914444385909122</v>
+        <v>0.05350132846615627</v>
       </c>
       <c r="J133" t="n">
-        <v>0.02463292606632145</v>
+        <v>0.05800992765814106</v>
       </c>
       <c r="K133" t="n">
-        <v>0.0491549923044956</v>
+        <v>0.05281033995158564</v>
       </c>
       <c r="L133" t="n">
-        <v>0.04944593724338495</v>
+        <v>0.09052998568042148</v>
       </c>
       <c r="M133" t="n">
-        <v>0.04804285578304884</v>
+        <v>0.0527797849300055</v>
       </c>
       <c r="N133" t="n">
-        <v>0.06937997012737418</v>
+        <v>0.02744039854684581</v>
       </c>
       <c r="O133" t="n">
-        <v>0.04919419835237391</v>
+        <v>0.05350132846615627</v>
       </c>
     </row>
     <row r="134" ht="15" customHeight="1">
       <c r="F134" t="n">
-        <v>0.02356712855228758</v>
+        <v>0.02720416096623364</v>
       </c>
       <c r="G134" t="n">
-        <v>0.04986715626878374</v>
+        <v>0.05428811270830564</v>
       </c>
       <c r="J134" t="n">
-        <v>0.02469404636796177</v>
+        <v>0.0578683044742444</v>
       </c>
       <c r="K134" t="n">
-        <v>0.04987785983838524</v>
+        <v>0.05358696259793249</v>
       </c>
       <c r="L134" t="n">
-        <v>0.04975785507953334</v>
+        <v>0.08994171849036819</v>
       </c>
       <c r="M134" t="n">
-        <v>0.04874936836809368</v>
+        <v>0.05355595823779969</v>
       </c>
       <c r="N134" t="n">
-        <v>0.07111295159245878</v>
+        <v>0.02720416096623364</v>
       </c>
       <c r="O134" t="n">
-        <v>0.04991764244579117</v>
+        <v>0.05428811270830564</v>
       </c>
     </row>
     <row r="135" ht="15" customHeight="1">
       <c r="F135" t="n">
-        <v>0.02280182348833457</v>
+        <v>0.02736546078667933</v>
       </c>
       <c r="G135" t="n">
-        <v>0.05058986867847626</v>
+        <v>0.05507489695045498</v>
       </c>
       <c r="J135" t="n">
-        <v>0.02505548416497547</v>
+        <v>0.05771536373970104</v>
       </c>
       <c r="K135" t="n">
-        <v>0.05060072737227489</v>
+        <v>0.05436358524427934</v>
       </c>
       <c r="L135" t="n">
-        <v>0.05049326501453114</v>
+        <v>0.08943629133226483</v>
       </c>
       <c r="M135" t="n">
-        <v>0.04945588095313852</v>
+        <v>0.05433213154559389</v>
       </c>
       <c r="N135" t="n">
-        <v>0.07240999179954466</v>
+        <v>0.02736546078667933</v>
       </c>
       <c r="O135" t="n">
-        <v>0.05064108653920844</v>
+        <v>0.05507489695045498</v>
       </c>
     </row>
     <row r="136" ht="15" customHeight="1">
       <c r="F136" t="n">
-        <v>0.02503524968063881</v>
+        <v>0.02712433400862108</v>
       </c>
       <c r="G136" t="n">
-        <v>0.05131258108816877</v>
+        <v>0.05586168119260435</v>
       </c>
       <c r="J136" t="n">
-        <v>0.02521511520080558</v>
+        <v>0.05715226194451242</v>
       </c>
       <c r="K136" t="n">
-        <v>0.05132359490616453</v>
+        <v>0.05514020789062619</v>
       </c>
       <c r="L136" t="n">
-        <v>0.05114495792602197</v>
+        <v>0.08871455647451687</v>
       </c>
       <c r="M136" t="n">
-        <v>0.05016239353818336</v>
+        <v>0.05510830485338809</v>
       </c>
       <c r="N136" t="n">
-        <v>0.07334519313986465</v>
+        <v>0.02712433400862108</v>
       </c>
       <c r="O136" t="n">
-        <v>0.0513645306326257</v>
+        <v>0.05586168119260435</v>
       </c>
     </row>
     <row r="137" ht="15" customHeight="1">
       <c r="F137" t="n">
-        <v>0.02426552648527041</v>
+        <v>0.02728081663249712</v>
       </c>
       <c r="G137" t="n">
-        <v>0.05203529349786129</v>
+        <v>0.05664846543475369</v>
       </c>
       <c r="J137" t="n">
-        <v>0.0254708152188952</v>
+        <v>0.05698015557867978</v>
       </c>
       <c r="K137" t="n">
-        <v>0.05204646244005417</v>
+        <v>0.05591683053697304</v>
       </c>
       <c r="L137" t="n">
-        <v>0.0522057246916493</v>
+        <v>0.08917736618553002</v>
       </c>
       <c r="M137" t="n">
-        <v>0.0508689061232282</v>
+        <v>0.05588447816118228</v>
       </c>
       <c r="N137" t="n">
-        <v>0.0742926580046519</v>
+        <v>0.02728081663249712</v>
       </c>
       <c r="O137" t="n">
-        <v>0.05208797472604296</v>
+        <v>0.05664846543475369</v>
       </c>
     </row>
     <row r="138" ht="15" customHeight="1">
       <c r="F138" t="n">
-        <v>0.02449077325829948</v>
+        <v>0.02723494465874565</v>
       </c>
       <c r="G138" t="n">
-        <v>0.05275800590755381</v>
+        <v>0.05743524967690306</v>
       </c>
       <c r="J138" t="n">
-        <v>0.02592045996268744</v>
+        <v>0.05680020113220446</v>
       </c>
       <c r="K138" t="n">
-        <v>0.05276932997394381</v>
+        <v>0.05669345318331988</v>
       </c>
       <c r="L138" t="n">
-        <v>0.05256835618905678</v>
+        <v>0.08892557273370977</v>
       </c>
       <c r="M138" t="n">
-        <v>0.05157541870827303</v>
+        <v>0.05666065146897649</v>
       </c>
       <c r="N138" t="n">
-        <v>0.07662648878513928</v>
+        <v>0.02723494465874565</v>
       </c>
       <c r="O138" t="n">
-        <v>0.05281141881946022</v>
+        <v>0.05743524967690306</v>
       </c>
     </row>
     <row r="139" ht="15" customHeight="1">
       <c r="F139" t="n">
-        <v>0.02370910935579614</v>
+        <v>0.02718675408780492</v>
       </c>
       <c r="G139" t="n">
-        <v>0.05348071831724632</v>
+        <v>0.05822203391905242</v>
       </c>
       <c r="J139" t="n">
-        <v>0.02596192517562532</v>
+        <v>0.05641355509508783</v>
       </c>
       <c r="K139" t="n">
-        <v>0.05349219750783345</v>
+        <v>0.05747007582966673</v>
       </c>
       <c r="L139" t="n">
-        <v>0.05372564329588791</v>
+        <v>0.0879600283874617</v>
       </c>
       <c r="M139" t="n">
-        <v>0.05228193129331787</v>
+        <v>0.05743682477677069</v>
       </c>
       <c r="N139" t="n">
-        <v>0.07762078787255983</v>
+        <v>0.02718675408780492</v>
       </c>
       <c r="O139" t="n">
-        <v>0.0535348629128775</v>
+        <v>0.05822203391905242</v>
       </c>
     </row>
     <row r="140" ht="15" customHeight="1">
       <c r="F140" t="n">
-        <v>0.02491865413383054</v>
+        <v>0.02703628092011311</v>
       </c>
       <c r="G140" t="n">
-        <v>0.05420343072693884</v>
+        <v>0.05900881816120176</v>
       </c>
       <c r="J140" t="n">
-        <v>0.02629308660115197</v>
+        <v>0.05652137395733117</v>
       </c>
       <c r="K140" t="n">
-        <v>0.05421506504172309</v>
+        <v>0.05824669847601358</v>
       </c>
       <c r="L140" t="n">
-        <v>0.05437037688978633</v>
+        <v>0.08728158541519143</v>
       </c>
       <c r="M140" t="n">
-        <v>0.0529884438783627</v>
+        <v>0.05821299808456488</v>
       </c>
       <c r="N140" t="n">
-        <v>0.07944965765814638</v>
+        <v>0.02703628092011311</v>
       </c>
       <c r="O140" t="n">
-        <v>0.05425830700629476</v>
+        <v>0.05900881816120176</v>
       </c>
     </row>
     <row r="141" ht="15" customHeight="1">
       <c r="F141" t="n">
-        <v>0.02611752694847273</v>
+        <v>0.02708356115610845</v>
       </c>
       <c r="G141" t="n">
-        <v>0.05492614313663136</v>
+        <v>0.05979560240335113</v>
       </c>
       <c r="J141" t="n">
-        <v>0.02641181998271044</v>
+        <v>0.05592481420893583</v>
       </c>
       <c r="K141" t="n">
-        <v>0.05493793257561273</v>
+        <v>0.05902332112236042</v>
       </c>
       <c r="L141" t="n">
-        <v>0.05499534784839552</v>
+        <v>0.08699109608530459</v>
       </c>
       <c r="M141" t="n">
-        <v>0.05369495646340754</v>
+        <v>0.05898917139235908</v>
       </c>
       <c r="N141" t="n">
-        <v>0.081187200533132</v>
+        <v>0.02708356115610845</v>
       </c>
       <c r="O141" t="n">
-        <v>0.05498175109971202</v>
+        <v>0.05979560240335113</v>
       </c>
     </row>
     <row r="142" ht="15" customHeight="1">
       <c r="F142" t="n">
-        <v>0.02530384715579289</v>
+        <v>0.02702863079622918</v>
       </c>
       <c r="G142" t="n">
-        <v>0.05564885554632388</v>
+        <v>0.06058238664550049</v>
       </c>
       <c r="J142" t="n">
-        <v>0.02681600106374385</v>
+        <v>0.0553250323399031</v>
       </c>
       <c r="K142" t="n">
-        <v>0.05566080010950238</v>
+        <v>0.05979994376870727</v>
       </c>
       <c r="L142" t="n">
-        <v>0.05609334704935909</v>
+        <v>0.08728941266620671</v>
       </c>
       <c r="M142" t="n">
-        <v>0.05440146904845237</v>
+        <v>0.05976534470015329</v>
       </c>
       <c r="N142" t="n">
-        <v>0.08260751888874962</v>
+        <v>0.02702863079622918</v>
       </c>
       <c r="O142" t="n">
-        <v>0.05570519519312928</v>
+        <v>0.06058238664550049</v>
       </c>
     </row>
     <row r="143" ht="15" customHeight="1">
       <c r="F143" t="n">
-        <v>0.02447573411186111</v>
+        <v>0.02687152584091348</v>
       </c>
       <c r="G143" t="n">
-        <v>0.0563715679560164</v>
+        <v>0.06136917088764984</v>
       </c>
       <c r="J143" t="n">
-        <v>0.02690350558769523</v>
+        <v>0.05522318484023431</v>
       </c>
       <c r="K143" t="n">
-        <v>0.05638366764339201</v>
+        <v>0.06057656641505412</v>
       </c>
       <c r="L143" t="n">
-        <v>0.0565571653703206</v>
+        <v>0.08617738742630338</v>
       </c>
       <c r="M143" t="n">
-        <v>0.05510798163349721</v>
+        <v>0.06054151800794747</v>
       </c>
       <c r="N143" t="n">
-        <v>0.08478471511623215</v>
+        <v>0.02687152584091348</v>
       </c>
       <c r="O143" t="n">
-        <v>0.05642863928654655</v>
+        <v>0.06136917088764984</v>
       </c>
     </row>
     <row r="144" ht="15" customHeight="1">
       <c r="F144" t="n">
-        <v>0.02663130717274751</v>
+        <v>0.0269122822905996</v>
       </c>
       <c r="G144" t="n">
-        <v>0.05709428036570892</v>
+        <v>0.0621559551297992</v>
       </c>
       <c r="J144" t="n">
-        <v>0.0270722092980077</v>
+        <v>0.0548204281999308</v>
       </c>
       <c r="K144" t="n">
-        <v>0.05710653517728165</v>
+        <v>0.06135318906140097</v>
       </c>
       <c r="L144" t="n">
-        <v>0.0572795936889236</v>
+        <v>0.08635587263400024</v>
       </c>
       <c r="M144" t="n">
-        <v>0.05581449421854204</v>
+        <v>0.06131769131574168</v>
       </c>
       <c r="N144" t="n">
-        <v>0.08549289160681256</v>
+        <v>0.0269122822905996</v>
       </c>
       <c r="O144" t="n">
-        <v>0.05715208337996381</v>
+        <v>0.0621559551297992</v>
       </c>
     </row>
     <row r="145" ht="15" customHeight="1">
       <c r="F145" t="n">
-        <v>0.02576868569452221</v>
+        <v>0.02675093614572573</v>
       </c>
       <c r="G145" t="n">
-        <v>0.05781699277540144</v>
+        <v>0.06294273937194855</v>
       </c>
       <c r="J145" t="n">
-        <v>0.02721998793812433</v>
+        <v>0.05501791890899388</v>
       </c>
       <c r="K145" t="n">
-        <v>0.0578294027111713</v>
+        <v>0.06212981170774782</v>
       </c>
       <c r="L145" t="n">
-        <v>0.05745342288281169</v>
+        <v>0.08542572055770281</v>
       </c>
       <c r="M145" t="n">
-        <v>0.05652100680358688</v>
+        <v>0.06209386462353588</v>
       </c>
       <c r="N145" t="n">
-        <v>0.08730615075172388</v>
+        <v>0.02675093614572573</v>
       </c>
       <c r="O145" t="n">
-        <v>0.05787552747338107</v>
+        <v>0.06294273937194855</v>
       </c>
     </row>
     <row r="146" ht="15" customHeight="1">
       <c r="F146" t="n">
-        <v>0.02588598903325532</v>
+        <v>0.02668752340673008</v>
       </c>
       <c r="G146" t="n">
-        <v>0.05853970518509396</v>
+        <v>0.06372952361409791</v>
       </c>
       <c r="J146" t="n">
-        <v>0.0273447172514882</v>
+        <v>0.05451681345742487</v>
       </c>
       <c r="K146" t="n">
-        <v>0.05855227024506093</v>
+        <v>0.06290643435409467</v>
       </c>
       <c r="L146" t="n">
-        <v>0.05787144382962842</v>
+        <v>0.08478778346581672</v>
       </c>
       <c r="M146" t="n">
-        <v>0.05722751938863171</v>
+        <v>0.06287003793133007</v>
       </c>
       <c r="N146" t="n">
-        <v>0.08889859494219909</v>
+        <v>0.02668752340673008</v>
       </c>
       <c r="O146" t="n">
-        <v>0.05859897156679833</v>
+        <v>0.06372952361409791</v>
       </c>
     </row>
     <row r="147" ht="15" customHeight="1">
       <c r="F147" t="n">
-        <v>0.02598133654501695</v>
+        <v>0.0266220800740509</v>
       </c>
       <c r="G147" t="n">
-        <v>0.05926241759478647</v>
+        <v>0.06451630785624728</v>
       </c>
       <c r="J147" t="n">
-        <v>0.02744427298154239</v>
+        <v>0.05391826833522512</v>
       </c>
       <c r="K147" t="n">
-        <v>0.05927513777895058</v>
+        <v>0.06368305700044151</v>
       </c>
       <c r="L147" t="n">
-        <v>0.0587264474070173</v>
+        <v>0.08434291362674756</v>
       </c>
       <c r="M147" t="n">
-        <v>0.05793403197367655</v>
+        <v>0.06364621123912427</v>
       </c>
       <c r="N147" t="n">
-        <v>0.09004432656947098</v>
+        <v>0.0266220800740509</v>
       </c>
       <c r="O147" t="n">
-        <v>0.05932241566021559</v>
+        <v>0.06451630785624728</v>
       </c>
     </row>
     <row r="148" ht="15" customHeight="1">
       <c r="F148" t="n">
-        <v>0.02505284758587725</v>
+        <v>0.02655464214812639</v>
       </c>
       <c r="G148" t="n">
-        <v>0.05998513000447898</v>
+        <v>0.06530309209839662</v>
       </c>
       <c r="J148" t="n">
-        <v>0.02751653087172998</v>
+        <v>0.05382344003239595</v>
       </c>
       <c r="K148" t="n">
-        <v>0.05999800531284022</v>
+        <v>0.06445967964678835</v>
       </c>
       <c r="L148" t="n">
-        <v>0.05871122449262201</v>
+        <v>0.0840919633089009</v>
       </c>
       <c r="M148" t="n">
-        <v>0.05864054455872139</v>
+        <v>0.06442238454691847</v>
       </c>
       <c r="N148" t="n">
-        <v>0.09021744802477266</v>
+        <v>0.02655464214812639</v>
       </c>
       <c r="O148" t="n">
-        <v>0.06004585975363286</v>
+        <v>0.06530309209839662</v>
       </c>
     </row>
     <row r="149" ht="15" customHeight="1">
       <c r="F149" t="n">
-        <v>0.02609864151190629</v>
+        <v>0.02648524562939476</v>
       </c>
       <c r="G149" t="n">
-        <v>0.06070784241417151</v>
+        <v>0.06608987634054599</v>
       </c>
       <c r="J149" t="n">
-        <v>0.02767105768882022</v>
+        <v>0.05353348503893862</v>
       </c>
       <c r="K149" t="n">
-        <v>0.06072087284672987</v>
+        <v>0.06523630229313521</v>
       </c>
       <c r="L149" t="n">
-        <v>0.05941856596408596</v>
+        <v>0.08413578478068234</v>
       </c>
       <c r="M149" t="n">
-        <v>0.05934705714376622</v>
+        <v>0.06519855785471267</v>
       </c>
       <c r="N149" t="n">
-        <v>0.09169206169933714</v>
+        <v>0.02648524562939476</v>
       </c>
       <c r="O149" t="n">
-        <v>0.06076930384705013</v>
+        <v>0.06608987634054599</v>
       </c>
     </row>
     <row r="150" ht="15" customHeight="1">
       <c r="F150" t="n">
-        <v>0.02711604731975793</v>
+        <v>0.02651392651829425</v>
       </c>
       <c r="G150" t="n">
-        <v>0.06143055482386402</v>
+        <v>0.06687666058269533</v>
       </c>
       <c r="J150" t="n">
-        <v>0.0274710509478065</v>
+        <v>0.05324955984485455</v>
       </c>
       <c r="K150" t="n">
-        <v>0.0614437403806195</v>
+        <v>0.06601292493948205</v>
       </c>
       <c r="L150" t="n">
-        <v>0.05924126269905286</v>
+        <v>0.08377523031049744</v>
       </c>
       <c r="M150" t="n">
-        <v>0.06005356972881106</v>
+        <v>0.06597473116250686</v>
       </c>
       <c r="N150" t="n">
-        <v>0.09234055215526071</v>
+        <v>0.02651392651829425</v>
       </c>
       <c r="O150" t="n">
-        <v>0.06149274794046739</v>
+        <v>0.06687666058269533</v>
       </c>
     </row>
     <row r="151" ht="15" customHeight="1">
       <c r="F151" t="n">
-        <v>0.02612476067509709</v>
+        <v>0.02624072081526305</v>
       </c>
       <c r="G151" t="n">
-        <v>0.06215326723355654</v>
+        <v>0.0676634448248447</v>
       </c>
       <c r="J151" t="n">
-        <v>0.02757068569500506</v>
+        <v>0.05307282094014495</v>
       </c>
       <c r="K151" t="n">
-        <v>0.06216660791450914</v>
+        <v>0.0667895475858289</v>
       </c>
       <c r="L151" t="n">
-        <v>0.06000580492204047</v>
+        <v>0.08331115216675178</v>
       </c>
       <c r="M151" t="n">
-        <v>0.0607600823138559</v>
+        <v>0.06675090447030108</v>
       </c>
       <c r="N151" t="n">
-        <v>0.09242792661400273</v>
+        <v>0.02624072081526305</v>
       </c>
       <c r="O151" t="n">
-        <v>0.06221619203388466</v>
+        <v>0.0676634448248447</v>
       </c>
     </row>
     <row r="152" ht="15" customHeight="1">
       <c r="F152" t="n">
-        <v>0.02513220330471012</v>
+        <v>0.02626566452073938</v>
       </c>
       <c r="G152" t="n">
-        <v>0.06287597964324906</v>
+        <v>0.06845022906699405</v>
       </c>
       <c r="J152" t="n">
-        <v>0.02766977139691226</v>
+        <v>0.05260442481481126</v>
       </c>
       <c r="K152" t="n">
-        <v>0.06288947544839879</v>
+        <v>0.06756617023217575</v>
       </c>
       <c r="L152" t="n">
-        <v>0.05940528171174198</v>
+        <v>0.08224440261785104</v>
       </c>
       <c r="M152" t="n">
-        <v>0.06146659489890074</v>
+        <v>0.06752707777809526</v>
       </c>
       <c r="N152" t="n">
-        <v>0.09310065286160329</v>
+        <v>0.02626566452073938</v>
       </c>
       <c r="O152" t="n">
-        <v>0.06293963612730191</v>
+        <v>0.06845022906699405</v>
       </c>
     </row>
     <row r="153" ht="15" customHeight="1">
       <c r="F153" t="n">
-        <v>0.02713943784377524</v>
+        <v>0.02628879363516147</v>
       </c>
       <c r="G153" t="n">
-        <v>0.06359869205294158</v>
+        <v>0.06923701330914341</v>
       </c>
       <c r="J153" t="n">
-        <v>0.02766831935611978</v>
+        <v>0.05244552795885471</v>
       </c>
       <c r="K153" t="n">
-        <v>0.06361234298228843</v>
+        <v>0.0683427928785226</v>
       </c>
       <c r="L153" t="n">
-        <v>0.05968588951112075</v>
+        <v>0.08167583393220068</v>
       </c>
       <c r="M153" t="n">
-        <v>0.06217310748394557</v>
+        <v>0.06830325108588946</v>
       </c>
       <c r="N153" t="n">
-        <v>0.09296585475155289</v>
+        <v>0.02628879363516147</v>
       </c>
       <c r="O153" t="n">
-        <v>0.06366308022071918</v>
+        <v>0.06923701330914341</v>
       </c>
     </row>
     <row r="154" ht="15" customHeight="1">
       <c r="F154" t="n">
-        <v>0.02514646452757912</v>
+        <v>0.02611014415896754</v>
       </c>
       <c r="G154" t="n">
-        <v>0.0643214044626341</v>
+        <v>0.07002379755129277</v>
       </c>
       <c r="J154" t="n">
-        <v>0.02756634087521921</v>
+        <v>0.0524972868622767</v>
       </c>
       <c r="K154" t="n">
-        <v>0.06433521051617806</v>
+        <v>0.06911941552486944</v>
       </c>
       <c r="L154" t="n">
-        <v>0.05933991897620375</v>
+        <v>0.08180629837820647</v>
       </c>
       <c r="M154" t="n">
-        <v>0.06287962006899039</v>
+        <v>0.06907942439368367</v>
       </c>
       <c r="N154" t="n">
-        <v>0.09402299137195674</v>
+        <v>0.02611014415896754</v>
       </c>
       <c r="O154" t="n">
-        <v>0.06438652431413644</v>
+        <v>0.07002379755129277</v>
       </c>
     </row>
     <row r="155" ht="15" customHeight="1">
       <c r="F155" t="n">
-        <v>0.02615328359140847</v>
+        <v>0.02602975209259577</v>
       </c>
       <c r="G155" t="n">
-        <v>0.06504411687232661</v>
+        <v>0.07081058179344213</v>
       </c>
       <c r="J155" t="n">
-        <v>0.02746384725680222</v>
+        <v>0.05226085801507849</v>
       </c>
       <c r="K155" t="n">
-        <v>0.06505807805006771</v>
+        <v>0.06989603817121628</v>
       </c>
       <c r="L155" t="n">
-        <v>0.05966926814550888</v>
+        <v>0.08073664822427368</v>
       </c>
       <c r="M155" t="n">
-        <v>0.06358613265403525</v>
+        <v>0.06985559770147785</v>
       </c>
       <c r="N155" t="n">
-        <v>0.09467152181092015</v>
+        <v>0.02602975209259577</v>
       </c>
       <c r="O155" t="n">
-        <v>0.0651099684075537</v>
+        <v>0.07081058179344213</v>
       </c>
     </row>
     <row r="156" ht="15" customHeight="1">
       <c r="F156" t="n">
-        <v>0.02715989527054993</v>
+        <v>0.02594765343648442</v>
       </c>
       <c r="G156" t="n">
-        <v>0.06576682928201913</v>
+        <v>0.07159736603559148</v>
       </c>
       <c r="J156" t="n">
-        <v>0.02766084980346042</v>
+        <v>0.05153544417512548</v>
       </c>
       <c r="K156" t="n">
-        <v>0.06578094558395735</v>
+        <v>0.07067266081756314</v>
       </c>
       <c r="L156" t="n">
-        <v>0.05967583505755411</v>
+        <v>0.08046773573880828</v>
       </c>
       <c r="M156" t="n">
-        <v>0.06429264523908007</v>
+        <v>0.07063177100927205</v>
       </c>
       <c r="N156" t="n">
-        <v>0.09451090515654831</v>
+        <v>0.02594765343648442</v>
       </c>
       <c r="O156" t="n">
-        <v>0.06583341250097097</v>
+        <v>0.07159736603559148</v>
       </c>
     </row>
     <row r="157" ht="15" customHeight="1">
       <c r="F157" t="n">
-        <v>0.02616629980029022</v>
+        <v>0.02586388419107169</v>
       </c>
       <c r="G157" t="n">
-        <v>0.06648954169171165</v>
+        <v>0.07238415027774084</v>
       </c>
       <c r="J157" t="n">
-        <v>0.02755735981778547</v>
+        <v>0.05171724915853623</v>
       </c>
       <c r="K157" t="n">
-        <v>0.06650381311784699</v>
+        <v>0.07144928346390998</v>
       </c>
       <c r="L157" t="n">
-        <v>0.05906151775085736</v>
+        <v>0.08040041319021557</v>
       </c>
       <c r="M157" t="n">
-        <v>0.06499915782412491</v>
+        <v>0.07140794431706626</v>
       </c>
       <c r="N157" t="n">
-        <v>0.09554060049694657</v>
+        <v>0.02586388419107169</v>
       </c>
       <c r="O157" t="n">
-        <v>0.06655685659438823</v>
+        <v>0.07238415027774084</v>
       </c>
     </row>
     <row r="158" ht="15" customHeight="1">
       <c r="F158" t="n">
-        <v>0.02717249741591598</v>
+        <v>0.0258784803567958</v>
       </c>
       <c r="G158" t="n">
-        <v>0.06721225410140416</v>
+        <v>0.07317093451989019</v>
       </c>
       <c r="J158" t="n">
-        <v>0.027453388602369</v>
+        <v>0.05130565805599707</v>
       </c>
       <c r="K158" t="n">
-        <v>0.06722668065173663</v>
+        <v>0.07222590611025684</v>
       </c>
       <c r="L158" t="n">
-        <v>0.05902821426393648</v>
+        <v>0.07973553284690132</v>
       </c>
       <c r="M158" t="n">
-        <v>0.06570567040916975</v>
+        <v>0.07218411762486045</v>
       </c>
       <c r="N158" t="n">
-        <v>0.09586006692022009</v>
+        <v>0.0258784803567958</v>
       </c>
       <c r="O158" t="n">
-        <v>0.06728030068780549</v>
+        <v>0.07317093451989019</v>
       </c>
     </row>
     <row r="159" ht="15" customHeight="1">
       <c r="F159" t="n">
-        <v>0.02717848835271392</v>
+        <v>0.02559147793409496</v>
       </c>
       <c r="G159" t="n">
-        <v>0.06793496651109669</v>
+        <v>0.07395771876203955</v>
       </c>
       <c r="J159" t="n">
-        <v>0.02754894745980264</v>
+        <v>0.05120017017360029</v>
       </c>
       <c r="K159" t="n">
-        <v>0.06794954818562628</v>
+        <v>0.07300252875660368</v>
       </c>
       <c r="L159" t="n">
-        <v>0.0590778226353095</v>
+        <v>0.07937394697727096</v>
       </c>
       <c r="M159" t="n">
-        <v>0.06641218299421459</v>
+        <v>0.07296029093265466</v>
       </c>
       <c r="N159" t="n">
-        <v>0.09606876351447413</v>
+        <v>0.02559147793409496</v>
       </c>
       <c r="O159" t="n">
-        <v>0.06800374478122277</v>
+        <v>0.07395771876203955</v>
       </c>
     </row>
     <row r="160" ht="15" customHeight="1">
       <c r="F160" t="n">
-        <v>0.02718427284597071</v>
+        <v>0.02550291292340738</v>
       </c>
       <c r="G160" t="n">
-        <v>0.06865767892078921</v>
+        <v>0.07474450300418892</v>
       </c>
       <c r="J160" t="n">
-        <v>0.02764404769267803</v>
+        <v>0.05080028481743812</v>
       </c>
       <c r="K160" t="n">
-        <v>0.06867241571951592</v>
+        <v>0.07377915140295054</v>
       </c>
       <c r="L160" t="n">
-        <v>0.05911224090349426</v>
+        <v>0.07921650784973022</v>
       </c>
       <c r="M160" t="n">
-        <v>0.06711869557925942</v>
+        <v>0.07373646424044886</v>
       </c>
       <c r="N160" t="n">
-        <v>0.09636614936781401</v>
+        <v>0.02550291292340738</v>
       </c>
       <c r="O160" t="n">
-        <v>0.06872718887464002</v>
+        <v>0.07474450300418892</v>
       </c>
     </row>
     <row r="161" ht="15" customHeight="1">
       <c r="F161" t="n">
-        <v>0.02518985113097304</v>
+        <v>0.02541282132517129</v>
       </c>
       <c r="G161" t="n">
-        <v>0.06938039133048172</v>
+        <v>0.07553128724633826</v>
       </c>
       <c r="J161" t="n">
-        <v>0.02743870060358679</v>
+        <v>0.05090550129360283</v>
       </c>
       <c r="K161" t="n">
-        <v>0.06939528325340555</v>
+        <v>0.07455577404929738</v>
       </c>
       <c r="L161" t="n">
-        <v>0.05863336710700867</v>
+        <v>0.07846406773268455</v>
       </c>
       <c r="M161" t="n">
-        <v>0.06782520816430425</v>
+        <v>0.07451263754824304</v>
       </c>
       <c r="N161" t="n">
-        <v>0.09685168356834506</v>
+        <v>0.02541282132517129</v>
       </c>
       <c r="O161" t="n">
-        <v>0.06945063296805729</v>
+        <v>0.07553128724633826</v>
       </c>
     </row>
     <row r="162" ht="15" customHeight="1">
       <c r="F162" t="n">
-        <v>0.02719522344300757</v>
+        <v>0.02552123913982492</v>
       </c>
       <c r="G162" t="n">
-        <v>0.07010310374017424</v>
+        <v>0.07631807148848763</v>
       </c>
       <c r="J162" t="n">
-        <v>0.0275329174951206</v>
+        <v>0.05051531890818664</v>
       </c>
       <c r="K162" t="n">
-        <v>0.07011815078729519</v>
+        <v>0.07533239669564423</v>
       </c>
       <c r="L162" t="n">
-        <v>0.05824309928437074</v>
+        <v>0.07781747889453972</v>
       </c>
       <c r="M162" t="n">
-        <v>0.0685317207493491</v>
+        <v>0.07528881085603725</v>
       </c>
       <c r="N162" t="n">
-        <v>0.0968248252041724</v>
+        <v>0.02552123913982492</v>
       </c>
       <c r="O162" t="n">
-        <v>0.07017407706147455</v>
+        <v>0.07631807148848763</v>
       </c>
     </row>
     <row r="163" ht="15" customHeight="1">
       <c r="F163" t="n">
-        <v>0.02720039001736097</v>
+        <v>0.02522820236780646</v>
       </c>
       <c r="G163" t="n">
-        <v>0.07082581614986676</v>
+        <v>0.07710485573063697</v>
       </c>
       <c r="J163" t="n">
-        <v>0.02762670966987105</v>
+        <v>0.0501292369672818</v>
       </c>
       <c r="K163" t="n">
-        <v>0.07084101832118483</v>
+        <v>0.07610901934199107</v>
       </c>
       <c r="L163" t="n">
-        <v>0.05854333547409835</v>
+        <v>0.0769775936037011</v>
       </c>
       <c r="M163" t="n">
-        <v>0.06923823333439393</v>
+        <v>0.07606498416383145</v>
       </c>
       <c r="N163" t="n">
-        <v>0.09728503336340133</v>
+        <v>0.02522820236780646</v>
       </c>
       <c r="O163" t="n">
-        <v>0.07089752115489181</v>
+        <v>0.07710485573063697</v>
       </c>
     </row>
     <row r="164" ht="15" customHeight="1">
       <c r="F164" t="n">
-        <v>0.02520535108931996</v>
+        <v>0.02523374700955414</v>
       </c>
       <c r="G164" t="n">
-        <v>0.07154852855955927</v>
+        <v>0.07789163997278634</v>
       </c>
       <c r="J164" t="n">
-        <v>0.02762008843042979</v>
+        <v>0.05044675477698057</v>
       </c>
       <c r="K164" t="n">
-        <v>0.07156388585507449</v>
+        <v>0.07688564198833792</v>
       </c>
       <c r="L164" t="n">
-        <v>0.05803597371470939</v>
+        <v>0.07684413268385321</v>
       </c>
       <c r="M164" t="n">
-        <v>0.06994474591943876</v>
+        <v>0.07684115747162565</v>
       </c>
       <c r="N164" t="n">
-        <v>0.09793176713413715</v>
+        <v>0.02523374700955414</v>
       </c>
       <c r="O164" t="n">
-        <v>0.07162096524830908</v>
+        <v>0.07789163997278634</v>
       </c>
     </row>
     <row r="165" ht="15" customHeight="1">
       <c r="F165" t="n">
-        <v>0.02521010689417118</v>
+        <v>0.02523790906550617</v>
       </c>
       <c r="G165" t="n">
-        <v>0.07227124096925179</v>
+        <v>0.07867842421493569</v>
       </c>
       <c r="J165" t="n">
-        <v>0.02751306507938847</v>
+        <v>0.05026737164337514</v>
       </c>
       <c r="K165" t="n">
-        <v>0.07228675338896412</v>
+        <v>0.07766226463468477</v>
       </c>
       <c r="L165" t="n">
-        <v>0.05812291204472184</v>
+        <v>0.07640258701751462</v>
       </c>
       <c r="M165" t="n">
-        <v>0.0706512585044836</v>
+        <v>0.07761733077941985</v>
       </c>
       <c r="N165" t="n">
-        <v>0.09806448560448511</v>
+        <v>0.02523790906550617</v>
       </c>
       <c r="O165" t="n">
-        <v>0.07234440934172634</v>
+        <v>0.07867842421493569</v>
       </c>
     </row>
     <row r="166" ht="15" customHeight="1">
       <c r="F166" t="n">
-        <v>0.02621465766720137</v>
+        <v>0.02504072453610078</v>
       </c>
       <c r="G166" t="n">
-        <v>0.07299395337894431</v>
+        <v>0.07946520845708505</v>
       </c>
       <c r="J166" t="n">
-        <v>0.02750565091933871</v>
+        <v>0.04949058687255783</v>
       </c>
       <c r="K166" t="n">
-        <v>0.07300962092285376</v>
+        <v>0.07843888728103161</v>
       </c>
       <c r="L166" t="n">
-        <v>0.05780604850265358</v>
+        <v>0.07604867023928202</v>
       </c>
       <c r="M166" t="n">
-        <v>0.07135777108952844</v>
+        <v>0.07839350408721404</v>
       </c>
       <c r="N166" t="n">
-        <v>0.09888264786255041</v>
+        <v>0.02504072453610078</v>
       </c>
       <c r="O166" t="n">
-        <v>0.0730678534351436</v>
+        <v>0.07946520845708505</v>
       </c>
     </row>
     <row r="167" ht="15" customHeight="1">
       <c r="F167" t="n">
-        <v>0.02521900364369712</v>
+        <v>0.02484222942177615</v>
       </c>
       <c r="G167" t="n">
-        <v>0.07371666578863682</v>
+        <v>0.0802519926992344</v>
       </c>
       <c r="J167" t="n">
-        <v>0.02749785725287215</v>
+        <v>0.0497158997706208</v>
       </c>
       <c r="K167" t="n">
-        <v>0.07373248845674341</v>
+        <v>0.07921550992737847</v>
       </c>
       <c r="L167" t="n">
-        <v>0.05718728112702257</v>
+        <v>0.07548286878818239</v>
       </c>
       <c r="M167" t="n">
-        <v>0.07206428367457327</v>
+        <v>0.07916967739500824</v>
       </c>
       <c r="N167" t="n">
-        <v>0.09848571299643827</v>
+        <v>0.02484222942177615</v>
       </c>
       <c r="O167" t="n">
-        <v>0.07379129752856087</v>
+        <v>0.0802519926992344</v>
       </c>
     </row>
     <row r="168" ht="15" customHeight="1">
       <c r="F168" t="n">
-        <v>0.02522314505894519</v>
+        <v>0.02484245972297054</v>
       </c>
       <c r="G168" t="n">
-        <v>0.07443937819832935</v>
+        <v>0.08103877694138377</v>
       </c>
       <c r="J168" t="n">
-        <v>0.02738969538258045</v>
+        <v>0.04924280964365635</v>
       </c>
       <c r="K168" t="n">
-        <v>0.07445535599063305</v>
+        <v>0.07999213257372531</v>
       </c>
       <c r="L168" t="n">
-        <v>0.05696850795634664</v>
+        <v>0.07530566910324271</v>
       </c>
       <c r="M168" t="n">
-        <v>0.07277079625961812</v>
+        <v>0.07994585070280244</v>
       </c>
       <c r="N168" t="n">
-        <v>0.09867314009425415</v>
+        <v>0.02484245972297054</v>
       </c>
       <c r="O168" t="n">
-        <v>0.07451474162197813</v>
+        <v>0.08103877694138377</v>
       </c>
     </row>
     <row r="169" ht="15" customHeight="1">
       <c r="F169" t="n">
-        <v>0.02622708214823221</v>
+        <v>0.02474145144012214</v>
       </c>
       <c r="G169" t="n">
-        <v>0.07516209060802187</v>
+        <v>0.08182556118353312</v>
       </c>
       <c r="J169" t="n">
-        <v>0.0273811766110552</v>
+        <v>0.04947081579775672</v>
       </c>
       <c r="K169" t="n">
-        <v>0.07517822352452268</v>
+        <v>0.08076875522007217</v>
       </c>
       <c r="L169" t="n">
-        <v>0.05675162702914385</v>
+        <v>0.07501755762349016</v>
       </c>
       <c r="M169" t="n">
-        <v>0.07347730884466294</v>
+        <v>0.08072202401059664</v>
       </c>
       <c r="N169" t="n">
-        <v>0.0997443882441032</v>
+        <v>0.02474145144012214</v>
       </c>
       <c r="O169" t="n">
-        <v>0.07523818571539539</v>
+        <v>0.08182556118353312</v>
       </c>
     </row>
     <row r="170" ht="15" customHeight="1">
       <c r="F170" t="n">
-        <v>0.0272308151468449</v>
+        <v>0.0245392405736692</v>
       </c>
       <c r="G170" t="n">
-        <v>0.07588480301771439</v>
+        <v>0.08261234542568248</v>
       </c>
       <c r="J170" t="n">
-        <v>0.02757231224088809</v>
+        <v>0.04939941753901414</v>
       </c>
       <c r="K170" t="n">
-        <v>0.07590109105841232</v>
+        <v>0.08154537786641901</v>
       </c>
       <c r="L170" t="n">
-        <v>0.05713853638393201</v>
+        <v>0.07371902078795145</v>
       </c>
       <c r="M170" t="n">
-        <v>0.07418382142970778</v>
+        <v>0.08149819731839085</v>
       </c>
       <c r="N170" t="n">
-        <v>0.09979891653409056</v>
+        <v>0.0245392405736692</v>
       </c>
       <c r="O170" t="n">
-        <v>0.07596162980881266</v>
+        <v>0.08261234542568248</v>
       </c>
     </row>
     <row r="171" ht="15" customHeight="1">
       <c r="F171" t="n">
-        <v>0.02623434429006988</v>
+        <v>0.0244358631240499</v>
       </c>
       <c r="G171" t="n">
-        <v>0.0766075154274069</v>
+        <v>0.08339912966783183</v>
       </c>
       <c r="J171" t="n">
-        <v>0.02746311357467071</v>
+        <v>0.04892811417352086</v>
       </c>
       <c r="K171" t="n">
-        <v>0.07662395859230198</v>
+        <v>0.08232200051276586</v>
       </c>
       <c r="L171" t="n">
-        <v>0.05633113405922913</v>
+        <v>0.07331054503565393</v>
       </c>
       <c r="M171" t="n">
-        <v>0.0748903340147526</v>
+        <v>0.08227437062618503</v>
       </c>
       <c r="N171" t="n">
-        <v>0.1002361840523217</v>
+        <v>0.0244358631240499</v>
       </c>
       <c r="O171" t="n">
-        <v>0.07668507390222992</v>
+        <v>0.08339912966783183</v>
       </c>
     </row>
     <row r="172" ht="15" customHeight="1">
       <c r="F172" t="n">
-        <v>0.02623766981319387</v>
+        <v>0.02443062530469096</v>
       </c>
       <c r="G172" t="n">
-        <v>0.07733022783709942</v>
+        <v>0.08418591390998119</v>
       </c>
       <c r="J172" t="n">
-        <v>0.0273535919149947</v>
+        <v>0.0488564050073691</v>
       </c>
       <c r="K172" t="n">
-        <v>0.07734682612619162</v>
+        <v>0.08309862315911269</v>
       </c>
       <c r="L172" t="n">
-        <v>0.05653131809355302</v>
+        <v>0.07319261680562433</v>
       </c>
       <c r="M172" t="n">
-        <v>0.07559684659979746</v>
+        <v>0.08305054393397923</v>
       </c>
       <c r="N172" t="n">
-        <v>0.09965564988690168</v>
+        <v>0.02443062530469096</v>
       </c>
       <c r="O172" t="n">
-        <v>0.07740851799564719</v>
+        <v>0.08418591390998119</v>
       </c>
     </row>
     <row r="173" ht="15" customHeight="1">
       <c r="F173" t="n">
-        <v>0.02624079195150358</v>
+        <v>0.02430659910319066</v>
       </c>
       <c r="G173" t="n">
-        <v>0.07805294024679194</v>
+        <v>0.08497269815213056</v>
       </c>
       <c r="J173" t="n">
-        <v>0.02734375856445173</v>
+        <v>0.04838378934665113</v>
       </c>
       <c r="K173" t="n">
-        <v>0.07806969366008125</v>
+        <v>0.08387524580545955</v>
       </c>
       <c r="L173" t="n">
-        <v>0.05634098652542172</v>
+        <v>0.07236572253688994</v>
       </c>
       <c r="M173" t="n">
-        <v>0.07630335918484228</v>
+        <v>0.08382671724177344</v>
       </c>
       <c r="N173" t="n">
-        <v>0.09995677312593593</v>
+        <v>0.02430659910319066</v>
       </c>
       <c r="O173" t="n">
-        <v>0.07813196208906445</v>
+        <v>0.08497269815213056</v>
       </c>
     </row>
     <row r="174" ht="15" customHeight="1">
       <c r="F174" t="n">
-        <v>0.02524371094028562</v>
+        <v>0.02405798937111195</v>
       </c>
       <c r="G174" t="n">
-        <v>0.07877565265648445</v>
+        <v>0.0857594823942799</v>
       </c>
       <c r="J174" t="n">
-        <v>0.0274336248256334</v>
+        <v>0.04810976649745921</v>
       </c>
       <c r="K174" t="n">
-        <v>0.07879256119397089</v>
+        <v>0.08465186845180639</v>
       </c>
       <c r="L174" t="n">
-        <v>0.05596203739335312</v>
+        <v>0.07203034866847757</v>
       </c>
       <c r="M174" t="n">
-        <v>0.07700987176988712</v>
+        <v>0.08460289054956763</v>
       </c>
       <c r="N174" t="n">
-        <v>0.1008390128575297</v>
+        <v>0.02405798937111195</v>
       </c>
       <c r="O174" t="n">
-        <v>0.07885540618248171</v>
+        <v>0.0857594823942799</v>
       </c>
     </row>
     <row r="175" ht="15" customHeight="1">
       <c r="F175" t="n">
-        <v>0.02524642701482673</v>
+        <v>0.02388655455733893</v>
       </c>
       <c r="G175" t="n">
-        <v>0.07949836506617697</v>
+        <v>0.08654626663642927</v>
       </c>
       <c r="J175" t="n">
-        <v>0.02742320200113137</v>
+        <v>0.04813383576588554</v>
       </c>
       <c r="K175" t="n">
-        <v>0.07951542872786053</v>
+        <v>0.08542849109815324</v>
       </c>
       <c r="L175" t="n">
-        <v>0.05589636873586512</v>
+        <v>0.07198698163941425</v>
       </c>
       <c r="M175" t="n">
-        <v>0.07771638435493196</v>
+        <v>0.08537906385736183</v>
       </c>
       <c r="N175" t="n">
-        <v>0.1011018281697881</v>
+        <v>0.02388655455733893</v>
       </c>
       <c r="O175" t="n">
-        <v>0.07957885027589898</v>
+        <v>0.08654626663642927</v>
       </c>
     </row>
     <row r="176" ht="15" customHeight="1">
       <c r="F176" t="n">
-        <v>0.02724894041041356</v>
+        <v>0.02369405311075566</v>
       </c>
       <c r="G176" t="n">
-        <v>0.08022107747586948</v>
+        <v>0.08733305087857862</v>
       </c>
       <c r="J176" t="n">
-        <v>0.02741250139353728</v>
+        <v>0.0483554964580224</v>
       </c>
       <c r="K176" t="n">
-        <v>0.08023829626175018</v>
+        <v>0.08620511374450009</v>
       </c>
       <c r="L176" t="n">
-        <v>0.05554587859147564</v>
+        <v>0.07093610788872712</v>
       </c>
       <c r="M176" t="n">
-        <v>0.0784228969399768</v>
+        <v>0.08615523716515604</v>
       </c>
       <c r="N176" t="n">
-        <v>0.1008446781508164</v>
+        <v>0.02369405311075566</v>
       </c>
       <c r="O176" t="n">
-        <v>0.08030229436931624</v>
+        <v>0.08733305087857862</v>
       </c>
     </row>
     <row r="177" ht="15" customHeight="1">
       <c r="F177" t="n">
-        <v>0.02725125136233279</v>
+        <v>0.02348224348024616</v>
       </c>
       <c r="G177" t="n">
-        <v>0.08094378988556201</v>
+        <v>0.08811983512072798</v>
       </c>
       <c r="J177" t="n">
-        <v>0.02740153430544275</v>
+        <v>0.04797424787996199</v>
       </c>
       <c r="K177" t="n">
-        <v>0.08096116379563982</v>
+        <v>0.08698173639084694</v>
       </c>
       <c r="L177" t="n">
-        <v>0.05531007733470883</v>
+        <v>0.07057821385544305</v>
       </c>
       <c r="M177" t="n">
-        <v>0.07912940952502164</v>
+        <v>0.08693141047295022</v>
       </c>
       <c r="N177" t="n">
-        <v>0.1011670218887201</v>
+        <v>0.02348224348024616</v>
       </c>
       <c r="O177" t="n">
-        <v>0.08102573846273349</v>
+        <v>0.08811983512072798</v>
       </c>
     </row>
     <row r="178" ht="15" customHeight="1">
       <c r="F178" t="n">
-        <v>0.02725336010587111</v>
+        <v>0.02325288411469451</v>
       </c>
       <c r="G178" t="n">
-        <v>0.08166650229525453</v>
+        <v>0.08890661936287733</v>
       </c>
       <c r="J178" t="n">
-        <v>0.02739031203943941</v>
+        <v>0.04738958933779663</v>
       </c>
       <c r="K178" t="n">
-        <v>0.08168403132952946</v>
+        <v>0.0877583590371938</v>
       </c>
       <c r="L178" t="n">
-        <v>0.05547446228958577</v>
+        <v>0.06991378597858922</v>
       </c>
       <c r="M178" t="n">
-        <v>0.07983592211006647</v>
+        <v>0.08770758378074443</v>
       </c>
       <c r="N178" t="n">
-        <v>0.1010683184716041</v>
+        <v>0.02325288411469451</v>
       </c>
       <c r="O178" t="n">
-        <v>0.08174918255615075</v>
+        <v>0.08890661936287733</v>
       </c>
     </row>
     <row r="179" ht="15" customHeight="1">
       <c r="F179" t="n">
-        <v>0.02625526687631519</v>
+        <v>0.02300773346298476</v>
       </c>
       <c r="G179" t="n">
-        <v>0.08238921470494705</v>
+        <v>0.08969340360502669</v>
       </c>
       <c r="J179" t="n">
-        <v>0.02747831333366361</v>
+        <v>0.04730102013761844</v>
       </c>
       <c r="K179" t="n">
-        <v>0.08240689886341911</v>
+        <v>0.08853498168354064</v>
       </c>
       <c r="L179" t="n">
-        <v>0.05503647513172619</v>
+        <v>0.06904331069719255</v>
       </c>
       <c r="M179" t="n">
-        <v>0.08054243469511131</v>
+        <v>0.08848375708853863</v>
       </c>
       <c r="N179" t="n">
-        <v>0.1008480269875741</v>
+        <v>0.02300773346298476</v>
       </c>
       <c r="O179" t="n">
-        <v>0.08247262664956803</v>
+        <v>0.08969340360502669</v>
       </c>
     </row>
     <row r="180" ht="15" customHeight="1">
       <c r="F180" t="n">
-        <v>0.02725697190895173</v>
+        <v>0.02294854997400098</v>
       </c>
       <c r="G180" t="n">
-        <v>0.08311192711463956</v>
+        <v>0.09048018784717604</v>
       </c>
       <c r="J180" t="n">
-        <v>0.02726242571559717</v>
+        <v>0.04700803958551983</v>
       </c>
       <c r="K180" t="n">
-        <v>0.08312976639730874</v>
+        <v>0.0893116043298875</v>
       </c>
       <c r="L180" t="n">
-        <v>0.05549638086213057</v>
+        <v>0.0683672744502799</v>
       </c>
       <c r="M180" t="n">
-        <v>0.08124894728015614</v>
+        <v>0.08925993039633282</v>
       </c>
       <c r="N180" t="n">
-        <v>0.1015056065247349</v>
+        <v>0.02294854997400098</v>
       </c>
       <c r="O180" t="n">
-        <v>0.0831960707429853</v>
+        <v>0.09048018784717604</v>
       </c>
     </row>
     <row r="181" ht="15" customHeight="1">
       <c r="F181" t="n">
-        <v>0.02625847543906738</v>
+        <v>0.0226770920966272</v>
       </c>
       <c r="G181" t="n">
-        <v>0.08383463952433208</v>
+        <v>0.09126697208932541</v>
       </c>
       <c r="J181" t="n">
-        <v>0.02744221629062335</v>
+        <v>0.04721014698759288</v>
       </c>
       <c r="K181" t="n">
-        <v>0.08385263393119838</v>
+        <v>0.09008822697623432</v>
       </c>
       <c r="L181" t="n">
-        <v>0.05505444448179972</v>
+        <v>0.06808616367687859</v>
       </c>
       <c r="M181" t="n">
-        <v>0.08195545986520097</v>
+        <v>0.09003610370412703</v>
       </c>
       <c r="N181" t="n">
-        <v>0.1013405161711921</v>
+        <v>0.0226770920966272</v>
       </c>
       <c r="O181" t="n">
-        <v>0.08391951483640256</v>
+        <v>0.09126697208932541</v>
       </c>
     </row>
     <row r="182" ht="15" customHeight="1">
       <c r="F182" t="n">
-        <v>0.02525977770194882</v>
+        <v>0.0221951182797475</v>
       </c>
       <c r="G182" t="n">
-        <v>0.0845573519340246</v>
+        <v>0.09205375633147476</v>
       </c>
       <c r="J182" t="n">
-        <v>0.02731777383306778</v>
+        <v>0.04690684164992995</v>
       </c>
       <c r="K182" t="n">
-        <v>0.08457550146508802</v>
+        <v>0.09086484962258118</v>
       </c>
       <c r="L182" t="n">
-        <v>0.05501093099173424</v>
+        <v>0.0671004648160155</v>
       </c>
       <c r="M182" t="n">
-        <v>0.08266197245024581</v>
+        <v>0.09081227701192122</v>
       </c>
       <c r="N182" t="n">
-        <v>0.1009522145390071</v>
+        <v>0.0221951182797475</v>
       </c>
       <c r="O182" t="n">
-        <v>0.08464295892981982</v>
+        <v>0.09205375633147476</v>
       </c>
     </row>
     <row r="183" ht="15" customHeight="1">
       <c r="F183" t="n">
-        <v>0.02726087893288278</v>
+        <v>0.02190438697224592</v>
       </c>
       <c r="G183" t="n">
-        <v>0.08528006434371711</v>
+        <v>0.09284054057362412</v>
       </c>
       <c r="J183" t="n">
-        <v>0.02728918711725614</v>
+        <v>0.04659762287862321</v>
       </c>
       <c r="K183" t="n">
-        <v>0.08529836899897766</v>
+        <v>0.09164147226892802</v>
       </c>
       <c r="L183" t="n">
-        <v>0.05486610539293482</v>
+        <v>0.06651066430671759</v>
       </c>
       <c r="M183" t="n">
-        <v>0.08336848503529065</v>
+        <v>0.09158845031971541</v>
       </c>
       <c r="N183" t="n">
-        <v>0.1007051944077341</v>
+        <v>0.02190438697224592</v>
       </c>
       <c r="O183" t="n">
-        <v>0.08536640302323709</v>
+        <v>0.09284054057362412</v>
       </c>
     </row>
     <row r="184" ht="15" customHeight="1">
       <c r="F184" t="n">
-        <v>0.02726177936715587</v>
+        <v>0.02180665662300654</v>
       </c>
       <c r="G184" t="n">
-        <v>0.08600277675340963</v>
+        <v>0.09362732481577347</v>
       </c>
       <c r="J184" t="n">
-        <v>0.02725654491751411</v>
+        <v>0.04668198997976494</v>
       </c>
       <c r="K184" t="n">
-        <v>0.08602123653286731</v>
+        <v>0.09241809491527488</v>
       </c>
       <c r="L184" t="n">
-        <v>0.05432023268640213</v>
+        <v>0.0664172485880119</v>
       </c>
       <c r="M184" t="n">
-        <v>0.08407499762033548</v>
+        <v>0.09236462362750962</v>
       </c>
       <c r="N184" t="n">
-        <v>0.1011679804922907</v>
+        <v>0.02180665662300654</v>
       </c>
       <c r="O184" t="n">
-        <v>0.08608984711665435</v>
+        <v>0.09362732481577347</v>
       </c>
     </row>
     <row r="185" ht="15" customHeight="1">
       <c r="F185" t="n">
-        <v>0.02526247924005482</v>
+        <v>0.02130368568091337</v>
       </c>
       <c r="G185" t="n">
-        <v>0.08672548916310215</v>
+        <v>0.09441410905792283</v>
       </c>
       <c r="J185" t="n">
-        <v>0.02721993600816734</v>
+        <v>0.04635944225944735</v>
       </c>
       <c r="K185" t="n">
-        <v>0.08674410406675695</v>
+        <v>0.09319471756162172</v>
       </c>
       <c r="L185" t="n">
-        <v>0.05457357787313674</v>
+        <v>0.06602070409892558</v>
       </c>
       <c r="M185" t="n">
-        <v>0.08478151020538033</v>
+        <v>0.09314079693530382</v>
       </c>
       <c r="N185" t="n">
-        <v>0.1008453009665956</v>
+        <v>0.02130368568091337</v>
       </c>
       <c r="O185" t="n">
-        <v>0.0868132912100716</v>
+        <v>0.09441410905792283</v>
       </c>
     </row>
     <row r="186" ht="15" customHeight="1">
       <c r="F186" t="n">
-        <v>0.02526297878686628</v>
+        <v>0.02119723259485053</v>
       </c>
       <c r="G186" t="n">
-        <v>0.08744820157279468</v>
+        <v>0.0952008933000722</v>
       </c>
       <c r="J186" t="n">
-        <v>0.02707944916354149</v>
+        <v>0.04612947902376277</v>
       </c>
       <c r="K186" t="n">
-        <v>0.08746697160064659</v>
+        <v>0.09397134020796857</v>
       </c>
       <c r="L186" t="n">
-        <v>0.0546264059541394</v>
+        <v>0.06502151727848543</v>
       </c>
       <c r="M186" t="n">
-        <v>0.08548802279042515</v>
+        <v>0.09391697024309802</v>
       </c>
       <c r="N186" t="n">
-        <v>0.1008418840045674</v>
+        <v>0.02119723259485053</v>
       </c>
       <c r="O186" t="n">
-        <v>0.08753673530348886</v>
+        <v>0.0952008933000722</v>
       </c>
     </row>
     <row r="187" ht="15" customHeight="1">
       <c r="F187" t="n">
-        <v>0.02726327824287695</v>
+        <v>0.02088905581370204</v>
       </c>
       <c r="G187" t="n">
-        <v>0.08817091398248719</v>
+        <v>0.09598767754222154</v>
       </c>
       <c r="J187" t="n">
-        <v>0.02713517315796223</v>
+        <v>0.04549159957880333</v>
       </c>
       <c r="K187" t="n">
-        <v>0.08818983913453624</v>
+        <v>0.09474796285431542</v>
       </c>
       <c r="L187" t="n">
-        <v>0.05407898193041069</v>
+        <v>0.06442017456571869</v>
       </c>
       <c r="M187" t="n">
-        <v>0.08619453537546999</v>
+        <v>0.09469314355089221</v>
       </c>
       <c r="N187" t="n">
-        <v>0.100462457780125</v>
+        <v>0.02088905581370204</v>
       </c>
       <c r="O187" t="n">
-        <v>0.08826017939690613</v>
+        <v>0.09598767754222154</v>
       </c>
     </row>
     <row r="188" ht="15" customHeight="1">
       <c r="F188" t="n">
-        <v>0.02626337782892491</v>
+        <v>0.02048091378635193</v>
       </c>
       <c r="G188" t="n">
-        <v>0.08889362639217971</v>
+        <v>0.09677446178437091</v>
       </c>
       <c r="J188" t="n">
-        <v>0.02718719676575521</v>
+        <v>0.04564530323066132</v>
       </c>
       <c r="K188" t="n">
-        <v>0.08891270666842586</v>
+        <v>0.09552458550066227</v>
       </c>
       <c r="L188" t="n">
-        <v>0.05433157080295137</v>
+        <v>0.06411716239965209</v>
       </c>
       <c r="M188" t="n">
-        <v>0.08690104796051483</v>
+        <v>0.09546931685868641</v>
       </c>
       <c r="N188" t="n">
-        <v>0.09961175046718718</v>
+        <v>0.02048091378635193</v>
       </c>
       <c r="O188" t="n">
-        <v>0.08898362349032339</v>
+        <v>0.09677446178437091</v>
       </c>
     </row>
     <row r="189" ht="15" customHeight="1">
       <c r="F189" t="n">
-        <v>0.02525415555341131</v>
+        <v>0.02017456496168429</v>
       </c>
       <c r="G189" t="n">
-        <v>0.08961633880187221</v>
+        <v>0.09756124602652026</v>
       </c>
       <c r="J189" t="n">
-        <v>0.02713560876124609</v>
+        <v>0.04499008928542905</v>
       </c>
       <c r="K189" t="n">
-        <v>0.08963557420231551</v>
+        <v>0.09630120814700911</v>
       </c>
       <c r="L189" t="n">
-        <v>0.05418443757276201</v>
+        <v>0.06351296721931293</v>
       </c>
       <c r="M189" t="n">
-        <v>0.08760756054555967</v>
+        <v>0.09624549016648061</v>
       </c>
       <c r="N189" t="n">
-        <v>0.09889449023967262</v>
+        <v>0.02017456496168429</v>
       </c>
       <c r="O189" t="n">
-        <v>0.08970706758374067</v>
+        <v>0.09756124602652026</v>
       </c>
     </row>
     <row r="190" ht="15" customHeight="1">
       <c r="F190" t="n">
-        <v>0.02722733248733916</v>
+        <v>0.0199717677885832</v>
       </c>
       <c r="G190" t="n">
-        <v>0.09033905121156474</v>
+        <v>0.09834803026866962</v>
       </c>
       <c r="J190" t="n">
-        <v>0.02698049791876052</v>
+        <v>0.04512545704919865</v>
       </c>
       <c r="K190" t="n">
-        <v>0.09035844173620515</v>
+        <v>0.09707783079335595</v>
       </c>
       <c r="L190" t="n">
-        <v>0.05343784724084333</v>
+        <v>0.06280807546372807</v>
       </c>
       <c r="M190" t="n">
-        <v>0.08831407313060451</v>
+        <v>0.09702166347427481</v>
       </c>
       <c r="N190" t="n">
-        <v>0.09821540527150002</v>
+        <v>0.0199717677885832</v>
       </c>
       <c r="O190" t="n">
-        <v>0.09043051167715793</v>
+        <v>0.09834803026866962</v>
       </c>
     </row>
     <row r="191" ht="15" customHeight="1">
       <c r="F191" t="n">
-        <v>0.02718410397910385</v>
+        <v>0.01967428071593268</v>
       </c>
       <c r="G191" t="n">
-        <v>0.09106176362125726</v>
+        <v>0.09913481451081897</v>
       </c>
       <c r="J191" t="n">
-        <v>0.0268219530126242</v>
+        <v>0.04505090582806245</v>
       </c>
       <c r="K191" t="n">
-        <v>0.09108130927009479</v>
+        <v>0.09785445343970281</v>
       </c>
       <c r="L191" t="n">
-        <v>0.05379206480819596</v>
+        <v>0.06180297357192455</v>
       </c>
       <c r="M191" t="n">
-        <v>0.08902058571564933</v>
+        <v>0.09779783678206901</v>
       </c>
       <c r="N191" t="n">
-        <v>0.09777922373658832</v>
+        <v>0.01967428071593268</v>
       </c>
       <c r="O191" t="n">
-        <v>0.0911539557705752</v>
+        <v>0.09913481451081897</v>
       </c>
     </row>
     <row r="192" ht="15" customHeight="1">
       <c r="F192" t="n">
-        <v>0.02712566537710084</v>
+        <v>0.01918386219261678</v>
       </c>
       <c r="G192" t="n">
-        <v>0.09178447603094977</v>
+        <v>0.09992159875296833</v>
       </c>
       <c r="J192" t="n">
-        <v>0.02696006281716279</v>
+        <v>0.04436593492811264</v>
       </c>
       <c r="K192" t="n">
-        <v>0.09180417680398444</v>
+        <v>0.09863107608604965</v>
       </c>
       <c r="L192" t="n">
-        <v>0.05324735527582053</v>
+        <v>0.06149814798292957</v>
       </c>
       <c r="M192" t="n">
-        <v>0.08972709830069418</v>
+        <v>0.0985740100898632</v>
       </c>
       <c r="N192" t="n">
-        <v>0.09749067380885612</v>
+        <v>0.01918386219261678</v>
       </c>
       <c r="O192" t="n">
-        <v>0.09187739986399246</v>
+        <v>0.09992159875296833</v>
       </c>
     </row>
     <row r="193" ht="15" customHeight="1">
       <c r="F193" t="n">
-        <v>0.02505321202972553</v>
+        <v>0.0190022706675196</v>
       </c>
       <c r="G193" t="n">
-        <v>0.09250718844064229</v>
+        <v>0.1007083829951177</v>
       </c>
       <c r="J193" t="n">
-        <v>0.0266949161067019</v>
+        <v>0.04447004365544152</v>
       </c>
       <c r="K193" t="n">
-        <v>0.09252704433787408</v>
+        <v>0.09940769873239651</v>
       </c>
       <c r="L193" t="n">
-        <v>0.05330398364471778</v>
+        <v>0.06119364044374659</v>
       </c>
       <c r="M193" t="n">
-        <v>0.09043361088573901</v>
+        <v>0.0993501833976574</v>
       </c>
       <c r="N193" t="n">
-        <v>0.09625448366222217</v>
+        <v>0.0190022706675196</v>
       </c>
       <c r="O193" t="n">
-        <v>0.09260084395740971</v>
+        <v>0.1007083829951177</v>
       </c>
     </row>
     <row r="194" ht="15" customHeight="1">
       <c r="F194" t="n">
-        <v>0.02596793928537338</v>
+        <v>0.01883126458952512</v>
       </c>
       <c r="G194" t="n">
-        <v>0.09322990085033482</v>
+        <v>0.1014951672372671</v>
       </c>
       <c r="J194" t="n">
-        <v>0.02672660165556726</v>
+        <v>0.04366273131614126</v>
       </c>
       <c r="K194" t="n">
-        <v>0.09324991187176372</v>
+        <v>0.1001843213787433</v>
       </c>
       <c r="L194" t="n">
-        <v>0.05306221491588828</v>
+        <v>0.06068646452726228</v>
       </c>
       <c r="M194" t="n">
-        <v>0.09114012347078385</v>
+        <v>0.1001263567054516</v>
       </c>
       <c r="N194" t="n">
-        <v>0.09617538147060528</v>
+        <v>0.01883126458952512</v>
       </c>
       <c r="O194" t="n">
-        <v>0.09332428805082697</v>
+        <v>0.1014951672372671</v>
       </c>
     </row>
     <row r="195" ht="15" customHeight="1">
       <c r="F195" t="n">
-        <v>0.02487104249243979</v>
+        <v>0.01857260240751749</v>
       </c>
       <c r="G195" t="n">
-        <v>0.09395261326002734</v>
+        <v>0.1022819514794164</v>
       </c>
       <c r="J195" t="n">
-        <v>0.02665520823808448</v>
+        <v>0.04324349721630419</v>
       </c>
       <c r="K195" t="n">
-        <v>0.09397277940565335</v>
+        <v>0.1009609440250902</v>
       </c>
       <c r="L195" t="n">
-        <v>0.05282231409033278</v>
+        <v>0.05957587206033527</v>
       </c>
       <c r="M195" t="n">
-        <v>0.09184663605582868</v>
+        <v>0.1009025300132458</v>
       </c>
       <c r="N195" t="n">
-        <v>0.0945580954079242</v>
+        <v>0.01857260240751749</v>
       </c>
       <c r="O195" t="n">
-        <v>0.09404773214424424</v>
+        <v>0.1022819514794164</v>
       </c>
     </row>
     <row r="196" ht="15" customHeight="1">
       <c r="F196" t="n">
-        <v>0.02476371699932022</v>
+        <v>0.0183280425703807</v>
       </c>
       <c r="G196" t="n">
-        <v>0.09467532566971985</v>
+        <v>0.1030687357215658</v>
       </c>
       <c r="J196" t="n">
-        <v>0.02648082462857924</v>
+        <v>0.04331184066202243</v>
       </c>
       <c r="K196" t="n">
-        <v>0.09469564693954299</v>
+        <v>0.101737566671437</v>
       </c>
       <c r="L196" t="n">
-        <v>0.05288454616905183</v>
+        <v>0.0591617393255609</v>
       </c>
       <c r="M196" t="n">
-        <v>0.09255314864087352</v>
+        <v>0.10167870332104</v>
       </c>
       <c r="N196" t="n">
-        <v>0.09440735364809766</v>
+        <v>0.0183280425703807</v>
       </c>
       <c r="O196" t="n">
-        <v>0.0947711762376615</v>
+        <v>0.1030687357215658</v>
       </c>
     </row>
     <row r="197" ht="15" customHeight="1">
       <c r="F197" t="n">
-        <v>0.02564715815441006</v>
+        <v>0.01789934352699883</v>
       </c>
       <c r="G197" t="n">
-        <v>0.09539803807941237</v>
+        <v>0.1038555199637151</v>
       </c>
       <c r="J197" t="n">
-        <v>0.02660353960137721</v>
+        <v>0.04316726095938833</v>
       </c>
       <c r="K197" t="n">
-        <v>0.09541851447343264</v>
+        <v>0.1025141893177839</v>
       </c>
       <c r="L197" t="n">
-        <v>0.05244917615304623</v>
+        <v>0.05844394260553482</v>
       </c>
       <c r="M197" t="n">
-        <v>0.09325966122591835</v>
+        <v>0.1024548766288342</v>
       </c>
       <c r="N197" t="n">
-        <v>0.09312788436504449</v>
+        <v>0.01789934352699883</v>
       </c>
       <c r="O197" t="n">
-        <v>0.09549462033107876</v>
+        <v>0.1038555199637151</v>
       </c>
     </row>
     <row r="198" ht="15" customHeight="1">
       <c r="F198" t="n">
-        <v>0.02652256130610476</v>
+        <v>0.01778675790851438</v>
       </c>
       <c r="G198" t="n">
-        <v>0.09612075048910489</v>
+        <v>0.1046423042058645</v>
       </c>
       <c r="J198" t="n">
-        <v>0.02642344193080405</v>
+        <v>0.04270925741449413</v>
       </c>
       <c r="K198" t="n">
-        <v>0.09614138200732229</v>
+        <v>0.1032908119641307</v>
       </c>
       <c r="L198" t="n">
-        <v>0.05281646904331649</v>
+        <v>0.05742235818285257</v>
       </c>
       <c r="M198" t="n">
-        <v>0.09396617381096319</v>
+        <v>0.1032310499366284</v>
       </c>
       <c r="N198" t="n">
-        <v>0.09262441573268332</v>
+        <v>0.01778675790851438</v>
       </c>
       <c r="O198" t="n">
-        <v>0.09621806442449604</v>
+        <v>0.1046423042058645</v>
       </c>
     </row>
     <row r="199" ht="15" customHeight="1">
       <c r="F199" t="n">
-        <v>0.02539112180279975</v>
+        <v>0.01757750821948224</v>
       </c>
       <c r="G199" t="n">
-        <v>0.0968434628987974</v>
+        <v>0.1054290884480138</v>
       </c>
       <c r="J199" t="n">
-        <v>0.02634062039118541</v>
+        <v>0.04223732933343202</v>
       </c>
       <c r="K199" t="n">
-        <v>0.09686424954121192</v>
+        <v>0.1040674346104776</v>
       </c>
       <c r="L199" t="n">
-        <v>0.05248668984086335</v>
+        <v>0.05769686234010951</v>
       </c>
       <c r="M199" t="n">
-        <v>0.09467268639600802</v>
+        <v>0.1040072232444226</v>
       </c>
       <c r="N199" t="n">
-        <v>0.09130167592493293</v>
+        <v>0.01757750821948224</v>
       </c>
       <c r="O199" t="n">
-        <v>0.09694150851791331</v>
+        <v>0.1054290884480138</v>
       </c>
     </row>
     <row r="200" ht="15" customHeight="1">
       <c r="F200" t="n">
-        <v>0.02525403499289047</v>
+        <v>0.01746862284913057</v>
       </c>
       <c r="G200" t="n">
-        <v>0.09756617530848992</v>
+        <v>0.1062158726901632</v>
       </c>
       <c r="J200" t="n">
-        <v>0.02635516375684697</v>
+        <v>0.04145097602229431</v>
       </c>
       <c r="K200" t="n">
-        <v>0.09758711707510156</v>
+        <v>0.1048440572568244</v>
       </c>
       <c r="L200" t="n">
-        <v>0.05236010354668746</v>
+        <v>0.05626733135990131</v>
       </c>
       <c r="M200" t="n">
-        <v>0.09537919898105286</v>
+        <v>0.1047833965522168</v>
       </c>
       <c r="N200" t="n">
-        <v>0.09036439311571209</v>
+        <v>0.01746862284913057</v>
       </c>
       <c r="O200" t="n">
-        <v>0.09766495261133057</v>
+        <v>0.1062158726901632</v>
       </c>
     </row>
     <row r="201" ht="15" customHeight="1">
       <c r="F201" t="n">
-        <v>0.02511249622477232</v>
+        <v>0.01706050829898144</v>
       </c>
       <c r="G201" t="n">
-        <v>0.09828888771818244</v>
+        <v>0.1070026569323125</v>
       </c>
       <c r="J201" t="n">
-        <v>0.02606716080211438</v>
+        <v>0.04110864376193585</v>
       </c>
       <c r="K201" t="n">
-        <v>0.09830998460899121</v>
+        <v>0.1056206799031713</v>
       </c>
       <c r="L201" t="n">
-        <v>0.05213697516178945</v>
+        <v>0.05563364152482342</v>
       </c>
       <c r="M201" t="n">
-        <v>0.09608571156609769</v>
+        <v>0.105559569860011</v>
       </c>
       <c r="N201" t="n">
-        <v>0.0897172954789397</v>
+        <v>0.01706050829898144</v>
       </c>
       <c r="O201" t="n">
-        <v>0.09838839670474782</v>
+        <v>0.1070026569323125</v>
       </c>
     </row>
     <row r="202" ht="15" customHeight="1">
       <c r="F202" t="n">
-        <v>0.02596770084684074</v>
+        <v>0.01695357107055689</v>
       </c>
       <c r="G202" t="n">
-        <v>0.09901160012787495</v>
+        <v>0.1077894411744619</v>
       </c>
       <c r="J202" t="n">
-        <v>0.0259767003013133</v>
+        <v>0.04091554061191446</v>
       </c>
       <c r="K202" t="n">
-        <v>0.09903285214288085</v>
+        <v>0.1063973025495181</v>
       </c>
       <c r="L202" t="n">
-        <v>0.05201756968717003</v>
+        <v>0.05559566911747138</v>
       </c>
       <c r="M202" t="n">
-        <v>0.09679222415114254</v>
+        <v>0.1063357431678052</v>
       </c>
       <c r="N202" t="n">
-        <v>0.08896511118853434</v>
+        <v>0.01695357107055689</v>
       </c>
       <c r="O202" t="n">
-        <v>0.09911184079816508</v>
+        <v>0.1077894411744619</v>
       </c>
     </row>
     <row r="203" ht="15" customHeight="1">
       <c r="F203" t="n">
-        <v>0.02382084420749116</v>
+        <v>0.016848217665379</v>
       </c>
       <c r="G203" t="n">
-        <v>0.09973431253756748</v>
+        <v>0.1085762254166113</v>
       </c>
       <c r="J203" t="n">
-        <v>0.02608387102876943</v>
+        <v>0.03988947260089848</v>
       </c>
       <c r="K203" t="n">
-        <v>0.09975571967677048</v>
+        <v>0.107173925195865</v>
       </c>
       <c r="L203" t="n">
-        <v>0.05180215212382985</v>
+        <v>0.05485329042044057</v>
       </c>
       <c r="M203" t="n">
-        <v>0.09749873673618736</v>
+        <v>0.1071119164755994</v>
       </c>
       <c r="N203" t="n">
-        <v>0.08771256841841474</v>
+        <v>0.016848217665379</v>
       </c>
       <c r="O203" t="n">
-        <v>0.09983528489158235</v>
+        <v>0.1085762254166113</v>
       </c>
     </row>
     <row r="204" ht="15" customHeight="1">
       <c r="F204" t="n">
-        <v>0.023673121655119</v>
+        <v>0.01664485458496985</v>
       </c>
       <c r="G204" t="n">
-        <v>0.10045702494726</v>
+        <v>0.1093630096587606</v>
       </c>
       <c r="J204" t="n">
-        <v>0.02598876175880835</v>
+        <v>0.0390539798884682</v>
       </c>
       <c r="K204" t="n">
-        <v>0.1004785872106601</v>
+        <v>0.1079505478422118</v>
       </c>
       <c r="L204" t="n">
-        <v>0.05209098747276952</v>
+        <v>0.05400638171632682</v>
       </c>
       <c r="M204" t="n">
-        <v>0.0982052493212322</v>
+        <v>0.1078880897833936</v>
       </c>
       <c r="N204" t="n">
-        <v>0.08626439534249974</v>
+        <v>0.01664485458496985</v>
       </c>
       <c r="O204" t="n">
-        <v>0.1005587289849996</v>
+        <v>0.1093630096587606</v>
       </c>
     </row>
     <row r="205" ht="15" customHeight="1">
       <c r="F205" t="n">
-        <v>0.0235257285381197</v>
+        <v>0.01634388833085143</v>
       </c>
       <c r="G205" t="n">
-        <v>0.1011797373569525</v>
+        <v>0.11014979390091</v>
       </c>
       <c r="J205" t="n">
-        <v>0.0258914612657558</v>
+        <v>0.03853260263420383</v>
       </c>
       <c r="K205" t="n">
-        <v>0.1012014547445498</v>
+        <v>0.1087271704885587</v>
       </c>
       <c r="L205" t="n">
-        <v>0.05178434073498969</v>
+        <v>0.05375481928772535</v>
       </c>
       <c r="M205" t="n">
-        <v>0.09891176190627704</v>
+        <v>0.1086642630911878</v>
       </c>
       <c r="N205" t="n">
-        <v>0.08592532013470811</v>
+        <v>0.01634388833085143</v>
       </c>
       <c r="O205" t="n">
-        <v>0.1012821730784169</v>
+        <v>0.11014979390091</v>
       </c>
     </row>
     <row r="206" ht="15" customHeight="1">
       <c r="F206" t="n">
-        <v>0.0253798602048887</v>
+        <v>0.01624572540454587</v>
       </c>
       <c r="G206" t="n">
-        <v>0.101902449766645</v>
+        <v>0.1109365781430593</v>
       </c>
       <c r="J206" t="n">
-        <v>0.02569205832393738</v>
+        <v>0.03754888099768552</v>
       </c>
       <c r="K206" t="n">
-        <v>0.1019243222784394</v>
+        <v>0.1095037931349055</v>
       </c>
       <c r="L206" t="n">
-        <v>0.05188247691149112</v>
+        <v>0.05309847941723178</v>
       </c>
       <c r="M206" t="n">
-        <v>0.09961827449132188</v>
+        <v>0.109440436398982</v>
       </c>
       <c r="N206" t="n">
-        <v>0.08500007096895856</v>
+        <v>0.01624572540454587</v>
       </c>
       <c r="O206" t="n">
-        <v>0.1020056171718341</v>
+        <v>0.1109365781430593</v>
       </c>
     </row>
     <row r="207" ht="15" customHeight="1">
       <c r="F207" t="n">
-        <v>0.02523671200382142</v>
+        <v>0.01585077230757519</v>
       </c>
       <c r="G207" t="n">
-        <v>0.1026251621763375</v>
+        <v>0.1117233623852087</v>
       </c>
       <c r="J207" t="n">
-        <v>0.02569064170767883</v>
+        <v>0.03592635513849357</v>
       </c>
       <c r="K207" t="n">
-        <v>0.1026471898123291</v>
+        <v>0.1102804157812524</v>
       </c>
       <c r="L207" t="n">
-        <v>0.05128566100327442</v>
+        <v>0.0523372383874417</v>
       </c>
       <c r="M207" t="n">
-        <v>0.1003247870763667</v>
+        <v>0.1102166097067762</v>
       </c>
       <c r="N207" t="n">
-        <v>0.08369337601916987</v>
+        <v>0.01585077230757519</v>
       </c>
       <c r="O207" t="n">
-        <v>0.1027290612652514</v>
+        <v>0.1117233623852087</v>
       </c>
     </row>
     <row r="208" ht="15" customHeight="1">
       <c r="F208" t="n">
-        <v>0.02509747928331326</v>
+        <v>0.01575943554146146</v>
       </c>
       <c r="G208" t="n">
-        <v>0.1033478745860301</v>
+        <v>0.112510146627358</v>
       </c>
       <c r="J208" t="n">
-        <v>0.02548730019130574</v>
+        <v>0.03518856521620814</v>
       </c>
       <c r="K208" t="n">
-        <v>0.1033700573462187</v>
+        <v>0.1110570384275992</v>
       </c>
       <c r="L208" t="n">
-        <v>0.05159415801134018</v>
+        <v>0.05097097248095045</v>
       </c>
       <c r="M208" t="n">
-        <v>0.1010312996614115</v>
+        <v>0.1109927830145704</v>
       </c>
       <c r="N208" t="n">
-        <v>0.08280996345926067</v>
+        <v>0.01575943554146146</v>
       </c>
       <c r="O208" t="n">
-        <v>0.1034525053586687</v>
+        <v>0.112510146627358</v>
       </c>
     </row>
     <row r="209" ht="15" customHeight="1">
       <c r="F209" t="n">
-        <v>0.02496335739175968</v>
+        <v>0.01547212160772674</v>
       </c>
       <c r="G209" t="n">
-        <v>0.1040705869957226</v>
+        <v>0.1132969308695074</v>
       </c>
       <c r="J209" t="n">
-        <v>0.0252821225491438</v>
+        <v>0.03425905139040947</v>
       </c>
       <c r="K209" t="n">
-        <v>0.1040929248801083</v>
+        <v>0.1118336610739461</v>
       </c>
       <c r="L209" t="n">
-        <v>0.05130823293668915</v>
+        <v>0.05089955798035367</v>
       </c>
       <c r="M209" t="n">
-        <v>0.1017378122464564</v>
+        <v>0.1117689563223646</v>
       </c>
       <c r="N209" t="n">
-        <v>0.08195456146314989</v>
+        <v>0.01547212160772674</v>
       </c>
       <c r="O209" t="n">
-        <v>0.1041759494520859</v>
+        <v>0.1132969308695074</v>
       </c>
     </row>
     <row r="210" ht="15" customHeight="1">
       <c r="F210" t="n">
-        <v>0.0228355416775561</v>
+        <v>0.01548923700789309</v>
       </c>
       <c r="G210" t="n">
-        <v>0.1047932994054151</v>
+        <v>0.1140837151116568</v>
       </c>
       <c r="J210" t="n">
-        <v>0.0253751975555187</v>
+        <v>0.03296135382067775</v>
       </c>
       <c r="K210" t="n">
-        <v>0.104815792413998</v>
+        <v>0.1126102837202929</v>
       </c>
       <c r="L210" t="n">
-        <v>0.051528150780322</v>
+        <v>0.0504228711682469</v>
       </c>
       <c r="M210" t="n">
-        <v>0.1024443248315012</v>
+        <v>0.1125451296301588</v>
       </c>
       <c r="N210" t="n">
-        <v>0.08123189820475624</v>
+        <v>0.01548923700789309</v>
       </c>
       <c r="O210" t="n">
-        <v>0.1048993935455032</v>
+        <v>0.1140837151116568</v>
       </c>
     </row>
     <row r="211" ht="15" customHeight="1">
       <c r="F211" t="n">
-        <v>0.02471522748909796</v>
+        <v>0.01531118824348257</v>
       </c>
       <c r="G211" t="n">
-        <v>0.1055160118151076</v>
+        <v>0.1148704993538061</v>
       </c>
       <c r="J211" t="n">
-        <v>0.02506661398475603</v>
+        <v>0.03221901266659324</v>
       </c>
       <c r="K211" t="n">
-        <v>0.1055386599478876</v>
+        <v>0.1133869063666398</v>
       </c>
       <c r="L211" t="n">
-        <v>0.05135417654323929</v>
+        <v>0.04964078832722563</v>
       </c>
       <c r="M211" t="n">
-        <v>0.1031508374165461</v>
+        <v>0.113321302937953</v>
       </c>
       <c r="N211" t="n">
-        <v>0.08004670185799839</v>
+        <v>0.01531118824348257</v>
       </c>
       <c r="O211" t="n">
-        <v>0.1056228376389204</v>
+        <v>0.1148704993538061</v>
       </c>
     </row>
     <row r="212" ht="15" customHeight="1">
       <c r="F212" t="n">
-        <v>0.02360361017478065</v>
+        <v>0.01513838181601726</v>
       </c>
       <c r="G212" t="n">
-        <v>0.1062387242248001</v>
+        <v>0.1156572835959555</v>
       </c>
       <c r="J212" t="n">
-        <v>0.02515646061118153</v>
+        <v>0.03155556808773613</v>
       </c>
       <c r="K212" t="n">
-        <v>0.1062615274817773</v>
+        <v>0.1141635290129866</v>
       </c>
       <c r="L212" t="n">
-        <v>0.05098657522644176</v>
+        <v>0.04885318573988529</v>
       </c>
       <c r="M212" t="n">
-        <v>0.1038573500015909</v>
+        <v>0.1140974762457472</v>
       </c>
       <c r="N212" t="n">
-        <v>0.0793037005967952</v>
+        <v>0.01513838181601726</v>
       </c>
       <c r="O212" t="n">
-        <v>0.1063462817323377</v>
+        <v>0.1156572835959555</v>
       </c>
     </row>
     <row r="213" ht="15" customHeight="1">
       <c r="F213" t="n">
-        <v>0.02250188508299964</v>
+        <v>0.01487122422701916</v>
       </c>
       <c r="G213" t="n">
-        <v>0.1069614366344926</v>
+        <v>0.1164440678381048</v>
       </c>
       <c r="J213" t="n">
-        <v>0.02494482620912082</v>
+        <v>0.03069456024368661</v>
       </c>
       <c r="K213" t="n">
-        <v>0.1069843950156669</v>
+        <v>0.1149401516593335</v>
       </c>
       <c r="L213" t="n">
-        <v>0.05092561183093003</v>
+        <v>0.04775993968882158</v>
       </c>
       <c r="M213" t="n">
-        <v>0.1045638625866357</v>
+        <v>0.1148736495535414</v>
       </c>
       <c r="N213" t="n">
-        <v>0.07860762259506532</v>
+        <v>0.01487122422701916</v>
       </c>
       <c r="O213" t="n">
-        <v>0.107069725825755</v>
+        <v>0.1164440678381048</v>
       </c>
     </row>
     <row r="214" ht="15" customHeight="1">
       <c r="F214" t="n">
-        <v>0.02241124756215036</v>
+        <v>0.01461012197801038</v>
       </c>
       <c r="G214" t="n">
-        <v>0.1076841490441852</v>
+        <v>0.1172308520802542</v>
       </c>
       <c r="J214" t="n">
-        <v>0.02483179955289956</v>
+        <v>0.02965952929402496</v>
       </c>
       <c r="K214" t="n">
-        <v>0.1077072625495566</v>
+        <v>0.1157167743056803</v>
       </c>
       <c r="L214" t="n">
-        <v>0.05107155135770478</v>
+        <v>0.04746092645662975</v>
       </c>
       <c r="M214" t="n">
-        <v>0.1052703751716806</v>
+        <v>0.1156498228613356</v>
       </c>
       <c r="N214" t="n">
-        <v>0.07796319602672758</v>
+        <v>0.01461012197801038</v>
       </c>
       <c r="O214" t="n">
-        <v>0.1077931699191723</v>
+        <v>0.1172308520802542</v>
       </c>
     </row>
     <row r="215" ht="15" customHeight="1">
       <c r="F215" t="n">
-        <v>0.02433289296062819</v>
+        <v>0.01455548157051298</v>
       </c>
       <c r="G215" t="n">
-        <v>0.1084068614538777</v>
+        <v>0.1180176363224035</v>
       </c>
       <c r="J215" t="n">
-        <v>0.02471746941684345</v>
+        <v>0.02965713207764412</v>
       </c>
       <c r="K215" t="n">
-        <v>0.1084301300834462</v>
+        <v>0.1164933969520272</v>
       </c>
       <c r="L215" t="n">
-        <v>0.05092465880776664</v>
+        <v>0.04685602232590558</v>
       </c>
       <c r="M215" t="n">
-        <v>0.1059768877567254</v>
+        <v>0.1164259961691298</v>
       </c>
       <c r="N215" t="n">
-        <v>0.0773751490657007</v>
+        <v>0.01455548157051298</v>
       </c>
       <c r="O215" t="n">
-        <v>0.1085166140125895</v>
+        <v>0.1180176363224035</v>
       </c>
     </row>
     <row r="216" ht="15" customHeight="1">
       <c r="F216" t="n">
-        <v>0.02326801662682861</v>
+        <v>0.01440770950604899</v>
       </c>
       <c r="G216" t="n">
-        <v>0.1091295738635702</v>
+        <v>0.1188044205645529</v>
       </c>
       <c r="J216" t="n">
-        <v>0.0246019245752781</v>
+        <v>0.02868079974605026</v>
       </c>
       <c r="K216" t="n">
-        <v>0.1091529976173358</v>
+        <v>0.117270019598374</v>
       </c>
       <c r="L216" t="n">
-        <v>0.05088519918211631</v>
+        <v>0.04564510357924445</v>
       </c>
       <c r="M216" t="n">
-        <v>0.1066834003417702</v>
+        <v>0.117202169476924</v>
       </c>
       <c r="N216" t="n">
-        <v>0.07684090124470949</v>
+        <v>0.01440770950604899</v>
       </c>
       <c r="O216" t="n">
-        <v>0.1092400581060068</v>
+        <v>0.1188044205645529</v>
       </c>
     </row>
     <row r="217" ht="15" customHeight="1">
       <c r="F217" t="n">
-        <v>0.02221781390914702</v>
+        <v>0.01436721228614049</v>
       </c>
       <c r="G217" t="n">
-        <v>0.1098522862732627</v>
+        <v>0.1195912048067023</v>
       </c>
       <c r="J217" t="n">
-        <v>0.02438525380252921</v>
+        <v>0.02880777208718929</v>
       </c>
       <c r="K217" t="n">
-        <v>0.1098758651512255</v>
+        <v>0.1180466422447208</v>
       </c>
       <c r="L217" t="n">
-        <v>0.05075343748175445</v>
+        <v>0.04502804649924197</v>
       </c>
       <c r="M217" t="n">
-        <v>0.1073899129268151</v>
+        <v>0.1179783427847182</v>
       </c>
       <c r="N217" t="n">
-        <v>0.07631713215502212</v>
+        <v>0.01436721228614049</v>
       </c>
       <c r="O217" t="n">
-        <v>0.109963502199424</v>
+        <v>0.1195912048067023</v>
       </c>
     </row>
     <row r="218" ht="15" customHeight="1">
       <c r="F218" t="n">
-        <v>0.02418348015597887</v>
+        <v>0.01423439641230953</v>
       </c>
       <c r="G218" t="n">
-        <v>0.1105749986829552</v>
+        <v>0.1203779890488516</v>
       </c>
       <c r="J218" t="n">
-        <v>0.02436754587292242</v>
+        <v>0.02773832349466904</v>
       </c>
       <c r="K218" t="n">
-        <v>0.1105987326851151</v>
+        <v>0.1188232648910677</v>
       </c>
       <c r="L218" t="n">
-        <v>0.05102963870768165</v>
+        <v>0.04400472736849342</v>
       </c>
       <c r="M218" t="n">
-        <v>0.1080964255118599</v>
+        <v>0.1187545160925123</v>
       </c>
       <c r="N218" t="n">
-        <v>0.07599603043220493</v>
+        <v>0.01423439641230953</v>
       </c>
       <c r="O218" t="n">
-        <v>0.1106869462928413</v>
+        <v>0.1203779890488516</v>
       </c>
     </row>
     <row r="219" ht="15" customHeight="1">
       <c r="F219" t="n">
-        <v>0.0241619702888444</v>
+        <v>0.0140096683860782</v>
       </c>
       <c r="G219" t="n">
-        <v>0.1112977110926478</v>
+        <v>0.121164773291001</v>
       </c>
       <c r="J219" t="n">
-        <v>0.02424756613333989</v>
+        <v>0.02777272836209752</v>
       </c>
       <c r="K219" t="n">
-        <v>0.1113216002190048</v>
+        <v>0.1195998875374145</v>
       </c>
       <c r="L219" t="n">
-        <v>0.05101406786089868</v>
+        <v>0.04327502246959464</v>
       </c>
       <c r="M219" t="n">
-        <v>0.1088029380969047</v>
+        <v>0.1195306894003066</v>
       </c>
       <c r="N219" t="n">
-        <v>0.07557774444526105</v>
+        <v>0.0140096683860782</v>
       </c>
       <c r="O219" t="n">
-        <v>0.1114103903862586</v>
+        <v>0.121164773291001</v>
       </c>
     </row>
     <row r="220" ht="15" customHeight="1">
       <c r="F220" t="n">
-        <v>0.02414161546825109</v>
+        <v>0.01399247299620046</v>
       </c>
       <c r="G220" t="n">
-        <v>0.1120204235023403</v>
+        <v>0.1219515575331503</v>
       </c>
       <c r="J220" t="n">
-        <v>0.02411935792549544</v>
+        <v>0.02741126108308259</v>
       </c>
       <c r="K220" t="n">
-        <v>0.1120444677528944</v>
+        <v>0.1203765101837614</v>
       </c>
       <c r="L220" t="n">
-        <v>0.05060698994240609</v>
+        <v>0.04343880808514095</v>
       </c>
       <c r="M220" t="n">
-        <v>0.1095094506819496</v>
+        <v>0.1203068627081008</v>
       </c>
       <c r="N220" t="n">
-        <v>0.07526242256319382</v>
+        <v>0.01399247299620046</v>
       </c>
       <c r="O220" t="n">
-        <v>0.1121338344796758</v>
+        <v>0.1219515575331503</v>
       </c>
     </row>
     <row r="221" ht="15" customHeight="1">
       <c r="F221" t="n">
-        <v>0.02312165731175701</v>
+        <v>0.01387671294226238</v>
       </c>
       <c r="G221" t="n">
-        <v>0.1127431359120328</v>
+        <v>0.1227383417752997</v>
       </c>
       <c r="J221" t="n">
-        <v>0.0240823127879138</v>
+        <v>0.02635419605123221</v>
       </c>
       <c r="K221" t="n">
-        <v>0.112767335286784</v>
+        <v>0.1211531328301082</v>
       </c>
       <c r="L221" t="n">
-        <v>0.05090663494009742</v>
+        <v>0.04219596049772795</v>
       </c>
       <c r="M221" t="n">
-        <v>0.1102159632669944</v>
+        <v>0.1210830360158949</v>
       </c>
       <c r="N221" t="n">
-        <v>0.07435021315500662</v>
+        <v>0.01387671294226238</v>
       </c>
       <c r="O221" t="n">
-        <v>0.1128572785730931</v>
+        <v>0.1227383417752997</v>
       </c>
     </row>
     <row r="222" ht="15" customHeight="1">
       <c r="F222" t="n">
-        <v>0.02310209861247552</v>
+        <v>0.01376131949122883</v>
       </c>
       <c r="G222" t="n">
-        <v>0.1134658483217253</v>
+        <v>0.123525126017449</v>
       </c>
       <c r="J222" t="n">
-        <v>0.02373657689371951</v>
+        <v>0.02620180766015423</v>
       </c>
       <c r="K222" t="n">
-        <v>0.1134902028206737</v>
+        <v>0.1219297554764551</v>
       </c>
       <c r="L222" t="n">
-        <v>0.05070705341685661</v>
+        <v>0.04144656814901043</v>
       </c>
       <c r="M222" t="n">
-        <v>0.1109224758520393</v>
+        <v>0.1218592093236892</v>
       </c>
       <c r="N222" t="n">
-        <v>0.07394126458970268</v>
+        <v>0.01376131949122883</v>
       </c>
       <c r="O222" t="n">
-        <v>0.1135807226665104</v>
+        <v>0.123525126017449</v>
       </c>
     </row>
     <row r="223" ht="15" customHeight="1">
       <c r="F223" t="n">
-        <v>0.02208294216351993</v>
+        <v>0.01344638484194005</v>
       </c>
       <c r="G223" t="n">
-        <v>0.1141885607314178</v>
+        <v>0.1243119102595984</v>
       </c>
       <c r="J223" t="n">
-        <v>0.02368229641603717</v>
+        <v>0.02555437030345659</v>
       </c>
       <c r="K223" t="n">
-        <v>0.1142130703545633</v>
+        <v>0.1227063781228019</v>
       </c>
       <c r="L223" t="n">
-        <v>0.05060793780107573</v>
+        <v>0.0410914485395521</v>
       </c>
       <c r="M223" t="n">
-        <v>0.1116289884370841</v>
+        <v>0.1226353826314834</v>
       </c>
       <c r="N223" t="n">
-        <v>0.07383572523628529</v>
+        <v>0.01344638484194005</v>
       </c>
       <c r="O223" t="n">
-        <v>0.1143041667599276</v>
+        <v>0.1243119102595984</v>
       </c>
     </row>
     <row r="224" ht="15" customHeight="1">
       <c r="F224" t="n">
-        <v>0.02406419075800357</v>
+        <v>0.0135320011932363</v>
       </c>
       <c r="G224" t="n">
-        <v>0.1149112731411104</v>
+        <v>0.1250986945017478</v>
       </c>
       <c r="J224" t="n">
-        <v>0.02361961752799133</v>
+        <v>0.02501215837474724</v>
       </c>
       <c r="K224" t="n">
-        <v>0.114935937888453</v>
+        <v>0.1234830007691488</v>
       </c>
       <c r="L224" t="n">
-        <v>0.05070939548004749</v>
+        <v>0.04003069702172152</v>
       </c>
       <c r="M224" t="n">
-        <v>0.1123355010221289</v>
+        <v>0.1234115559392776</v>
       </c>
       <c r="N224" t="n">
-        <v>0.07293374346375786</v>
+        <v>0.0135320011932363</v>
       </c>
       <c r="O224" t="n">
-        <v>0.1150276108533449</v>
+        <v>0.1250986945017478</v>
       </c>
     </row>
     <row r="225" ht="15" customHeight="1">
       <c r="F225" t="n">
-        <v>0.02204584718903973</v>
+        <v>0.01321826074395781</v>
       </c>
       <c r="G225" t="n">
-        <v>0.1156339855508029</v>
+        <v>0.1258854787438971</v>
       </c>
       <c r="J225" t="n">
-        <v>0.02324868640270648</v>
+        <v>0.02457544626763405</v>
       </c>
       <c r="K225" t="n">
-        <v>0.1156588054223426</v>
+        <v>0.1242596234154956</v>
       </c>
       <c r="L225" t="n">
-        <v>0.05111153384106479</v>
+        <v>0.03926431390740598</v>
       </c>
       <c r="M225" t="n">
-        <v>0.1130420136071738</v>
+        <v>0.1241877292470718</v>
       </c>
       <c r="N225" t="n">
-        <v>0.07313546764112339</v>
+        <v>0.01321826074395781</v>
       </c>
       <c r="O225" t="n">
-        <v>0.1157510549467621</v>
+        <v>0.1258854787438971</v>
       </c>
     </row>
     <row r="226" ht="15" customHeight="1">
       <c r="F226" t="n">
-        <v>0.02302791424974177</v>
+        <v>0.01330525569294481</v>
       </c>
       <c r="G226" t="n">
-        <v>0.1163566979604954</v>
+        <v>0.1266722629860465</v>
       </c>
       <c r="J226" t="n">
-        <v>0.02316964921330728</v>
+        <v>0.02414450837572499</v>
       </c>
       <c r="K226" t="n">
-        <v>0.1163816729562322</v>
+        <v>0.1250362460618425</v>
       </c>
       <c r="L226" t="n">
-        <v>0.05101446027142029</v>
+        <v>0.03859229950849252</v>
       </c>
       <c r="M226" t="n">
-        <v>0.1137485261922186</v>
+        <v>0.1249639025548659</v>
       </c>
       <c r="N226" t="n">
-        <v>0.07204104613738554</v>
+        <v>0.01330525569294481</v>
       </c>
       <c r="O226" t="n">
-        <v>0.1164744990401794</v>
+        <v>0.1266722629860465</v>
       </c>
     </row>
     <row r="227" ht="15" customHeight="1">
       <c r="F227" t="n">
-        <v>0.02201039473322301</v>
+        <v>0.01319307823903754</v>
       </c>
       <c r="G227" t="n">
-        <v>0.1170794103701879</v>
+        <v>0.1274590472281958</v>
       </c>
       <c r="J227" t="n">
-        <v>0.02308265213291823</v>
+        <v>0.02431961909262786</v>
       </c>
       <c r="K227" t="n">
-        <v>0.1171045404901219</v>
+        <v>0.1258128687081893</v>
       </c>
       <c r="L227" t="n">
-        <v>0.05061828215840683</v>
+        <v>0.03731465413686824</v>
       </c>
       <c r="M227" t="n">
-        <v>0.1144550387772634</v>
+        <v>0.1257400758626601</v>
       </c>
       <c r="N227" t="n">
-        <v>0.07165062732154731</v>
+        <v>0.01319307823903754</v>
       </c>
       <c r="O227" t="n">
-        <v>0.1171979431335967</v>
+        <v>0.1274590472281958</v>
       </c>
     </row>
     <row r="228" ht="15" customHeight="1">
       <c r="F228" t="n">
-        <v>0.02399329143259673</v>
+        <v>0.01308182058107624</v>
       </c>
       <c r="G228" t="n">
-        <v>0.1178021227798804</v>
+        <v>0.1282458314703452</v>
       </c>
       <c r="J228" t="n">
-        <v>0.02268784133466387</v>
+        <v>0.02340105281195073</v>
       </c>
       <c r="K228" t="n">
-        <v>0.1178274080240115</v>
+        <v>0.1265894913545361</v>
       </c>
       <c r="L228" t="n">
-        <v>0.0508231068893171</v>
+        <v>0.03693137810442049</v>
       </c>
       <c r="M228" t="n">
-        <v>0.1151615513623083</v>
+        <v>0.1265162491704543</v>
       </c>
       <c r="N228" t="n">
-        <v>0.0715643595626122</v>
+        <v>0.01308182058107624</v>
       </c>
       <c r="O228" t="n">
-        <v>0.1179213872270139</v>
+        <v>0.1282458314703452</v>
       </c>
     </row>
     <row r="229" ht="15" customHeight="1">
       <c r="F229" t="n">
-        <v>0.02197660714097627</v>
+        <v>0.01277157491790114</v>
       </c>
       <c r="G229" t="n">
-        <v>0.1185248351895729</v>
+        <v>0.1290326157124946</v>
       </c>
       <c r="J229" t="n">
-        <v>0.0224853629916688</v>
+        <v>0.02338908392730144</v>
       </c>
       <c r="K229" t="n">
-        <v>0.1185502755579012</v>
+        <v>0.127366114000883</v>
       </c>
       <c r="L229" t="n">
-        <v>0.05092904185144392</v>
+        <v>0.03614247172303636</v>
       </c>
       <c r="M229" t="n">
-        <v>0.1158680639473531</v>
+        <v>0.1272924224782485</v>
       </c>
       <c r="N229" t="n">
-        <v>0.07098239122958339</v>
+        <v>0.01277157491790114</v>
       </c>
       <c r="O229" t="n">
-        <v>0.1186448313204312</v>
+        <v>0.1290326157124946</v>
       </c>
     </row>
     <row r="230" ht="15" customHeight="1">
       <c r="F230" t="n">
-        <v>0.023960344651475</v>
+        <v>0.01276243344835251</v>
       </c>
       <c r="G230" t="n">
-        <v>0.1192475475992655</v>
+        <v>0.1298193999546439</v>
       </c>
       <c r="J230" t="n">
-        <v>0.02247536327705754</v>
+        <v>0.02268398683228784</v>
       </c>
       <c r="K230" t="n">
-        <v>0.1192731430917908</v>
+        <v>0.1281427366472299</v>
       </c>
       <c r="L230" t="n">
-        <v>0.0508361944320801</v>
+        <v>0.03564793530460286</v>
       </c>
       <c r="M230" t="n">
-        <v>0.1165745765323979</v>
+        <v>0.1280685957860427</v>
       </c>
       <c r="N230" t="n">
-        <v>0.07000487069146427</v>
+        <v>0.01276243344835251</v>
       </c>
       <c r="O230" t="n">
-        <v>0.1193682754138485</v>
+        <v>0.1298193999546439</v>
       </c>
     </row>
     <row r="231" ht="15" customHeight="1">
       <c r="F231" t="n">
-        <v>0.02294450675720617</v>
+        <v>0.01255448837127056</v>
       </c>
       <c r="G231" t="n">
-        <v>0.119970260008958</v>
+        <v>0.1306061841967932</v>
       </c>
       <c r="J231" t="n">
-        <v>0.02215798836395468</v>
+        <v>0.02208603592051797</v>
       </c>
       <c r="K231" t="n">
-        <v>0.1199960106256804</v>
+        <v>0.1289193592935767</v>
       </c>
       <c r="L231" t="n">
-        <v>0.05104467201851839</v>
+        <v>0.0341477691610072</v>
       </c>
       <c r="M231" t="n">
-        <v>0.1172810891174428</v>
+        <v>0.1288447690938369</v>
       </c>
       <c r="N231" t="n">
-        <v>0.069631946317258</v>
+        <v>0.01255448837127056</v>
       </c>
       <c r="O231" t="n">
-        <v>0.1200917195072657</v>
+        <v>0.1306061841967932</v>
       </c>
     </row>
     <row r="232" ht="15" customHeight="1">
       <c r="F232" t="n">
-        <v>0.02192909625128316</v>
+        <v>0.01264783188549555</v>
       </c>
       <c r="G232" t="n">
-        <v>0.1206929724186505</v>
+        <v>0.1313929684389426</v>
       </c>
       <c r="J232" t="n">
-        <v>0.02193338442548476</v>
+        <v>0.02189550558559963</v>
       </c>
       <c r="K232" t="n">
-        <v>0.1207188781595701</v>
+        <v>0.1296959819399236</v>
       </c>
       <c r="L232" t="n">
-        <v>0.05075458199805155</v>
+        <v>0.03404197360413669</v>
       </c>
       <c r="M232" t="n">
-        <v>0.1179876017024876</v>
+        <v>0.1296209424016311</v>
       </c>
       <c r="N232" t="n">
-        <v>0.06956376647596796</v>
+        <v>0.01264783188549555</v>
       </c>
       <c r="O232" t="n">
-        <v>0.120815163600683</v>
+        <v>0.1313929684389426</v>
       </c>
     </row>
     <row r="233" ht="15" customHeight="1">
       <c r="F233" t="n">
-        <v>0.02291411592681924</v>
+        <v>0.0124425561898677</v>
       </c>
       <c r="G233" t="n">
-        <v>0.121415684828343</v>
+        <v>0.132179752681092</v>
       </c>
       <c r="J233" t="n">
-        <v>0.02170169763477232</v>
+        <v>0.02191267022114085</v>
       </c>
       <c r="K233" t="n">
-        <v>0.1214417456934597</v>
+        <v>0.1304726045862704</v>
       </c>
       <c r="L233" t="n">
-        <v>0.05066603175797232</v>
+        <v>0.03333054894587839</v>
       </c>
       <c r="M233" t="n">
-        <v>0.1186941142875324</v>
+        <v>0.1303971157094253</v>
       </c>
       <c r="N233" t="n">
-        <v>0.06910047953659743</v>
+        <v>0.0124425561898677</v>
       </c>
       <c r="O233" t="n">
-        <v>0.1215386076941003</v>
+        <v>0.132179752681092</v>
       </c>
     </row>
     <row r="234" ht="15" customHeight="1">
       <c r="F234" t="n">
-        <v>0.02389956857692776</v>
+        <v>0.01233875348322726</v>
       </c>
       <c r="G234" t="n">
-        <v>0.1221383972380355</v>
+        <v>0.1329665369232413</v>
       </c>
       <c r="J234" t="n">
-        <v>0.02156307416494196</v>
+        <v>0.02103780422074941</v>
       </c>
       <c r="K234" t="n">
-        <v>0.1221646132273494</v>
+        <v>0.1312492272326173</v>
       </c>
       <c r="L234" t="n">
-        <v>0.05067912868557353</v>
+        <v>0.0322134954981193</v>
       </c>
       <c r="M234" t="n">
-        <v>0.1194006268725773</v>
+        <v>0.1311732890172196</v>
       </c>
       <c r="N234" t="n">
-        <v>0.06834223386814964</v>
+        <v>0.01233875348322726</v>
       </c>
       <c r="O234" t="n">
-        <v>0.1222620517875175</v>
+        <v>0.1329665369232413</v>
       </c>
     </row>
     <row r="235" ht="15" customHeight="1">
       <c r="F235" t="n">
-        <v>0.02288545699472206</v>
+        <v>0.01223651596441447</v>
       </c>
       <c r="G235" t="n">
-        <v>0.122861109647728</v>
+        <v>0.1337533211653907</v>
       </c>
       <c r="J235" t="n">
-        <v>0.02131766018911821</v>
+        <v>0.02067118197803339</v>
       </c>
       <c r="K235" t="n">
-        <v>0.122887480761239</v>
+        <v>0.1320258498789641</v>
       </c>
       <c r="L235" t="n">
-        <v>0.05109398016814792</v>
+        <v>0.03099081357274686</v>
       </c>
       <c r="M235" t="n">
-        <v>0.1201071394576221</v>
+        <v>0.1319494623250137</v>
       </c>
       <c r="N235" t="n">
-        <v>0.06838917783962806</v>
+        <v>0.01223651596441447</v>
       </c>
       <c r="O235" t="n">
-        <v>0.1229854958809348</v>
+        <v>0.1337533211653907</v>
       </c>
     </row>
     <row r="236" ht="15" customHeight="1">
       <c r="F236" t="n">
-        <v>0.02287178397331541</v>
+        <v>0.01213593583226957</v>
       </c>
       <c r="G236" t="n">
-        <v>0.1235838220574206</v>
+        <v>0.13454010540754</v>
       </c>
       <c r="J236" t="n">
-        <v>0.02106560188042561</v>
+        <v>0.02041307788660054</v>
       </c>
       <c r="K236" t="n">
-        <v>0.1236103482951287</v>
+        <v>0.132802472525311</v>
       </c>
       <c r="L236" t="n">
-        <v>0.05131069359298826</v>
+        <v>0.03056250348164796</v>
       </c>
       <c r="M236" t="n">
-        <v>0.120813652042667</v>
+        <v>0.1327256356328079</v>
       </c>
       <c r="N236" t="n">
-        <v>0.06794145982003585</v>
+        <v>0.01213593583226957</v>
       </c>
       <c r="O236" t="n">
-        <v>0.123708939974352</v>
+        <v>0.13454010540754</v>
       </c>
     </row>
     <row r="237" ht="15" customHeight="1">
       <c r="F237" t="n">
-        <v>0.0238585523058212</v>
+        <v>0.01213710528563279</v>
       </c>
       <c r="G237" t="n">
-        <v>0.1243065344671131</v>
+        <v>0.1353268896496894</v>
       </c>
       <c r="J237" t="n">
-        <v>0.02080704541198876</v>
+        <v>0.02026376634005889</v>
       </c>
       <c r="K237" t="n">
-        <v>0.1243332158290183</v>
+        <v>0.1335790951716578</v>
       </c>
       <c r="L237" t="n">
-        <v>0.05102937634738736</v>
+        <v>0.02922856553670983</v>
       </c>
       <c r="M237" t="n">
-        <v>0.1215201646277118</v>
+        <v>0.1335018089406022</v>
       </c>
       <c r="N237" t="n">
-        <v>0.06689922817837635</v>
+        <v>0.01213710528563279</v>
       </c>
       <c r="O237" t="n">
-        <v>0.1244323840677693</v>
+        <v>0.1353268896496894</v>
       </c>
     </row>
     <row r="238" ht="15" customHeight="1">
       <c r="F238" t="n">
-        <v>0.02384576478535268</v>
+        <v>0.01194011652334438</v>
       </c>
       <c r="G238" t="n">
-        <v>0.1250292468768056</v>
+        <v>0.1361136738918388</v>
       </c>
       <c r="J238" t="n">
-        <v>0.02044213695693219</v>
+        <v>0.01982352173201629</v>
       </c>
       <c r="K238" t="n">
-        <v>0.1250560833629079</v>
+        <v>0.1343557178180046</v>
       </c>
       <c r="L238" t="n">
-        <v>0.05115013581863792</v>
+        <v>0.02858900004981979</v>
       </c>
       <c r="M238" t="n">
-        <v>0.1222266772127566</v>
+        <v>0.1342779822483963</v>
       </c>
       <c r="N238" t="n">
-        <v>0.06706263128365281</v>
+        <v>0.01194011652334438</v>
       </c>
       <c r="O238" t="n">
-        <v>0.1251558281611866</v>
+        <v>0.1361136738918388</v>
       </c>
     </row>
     <row r="239" ht="15" customHeight="1">
       <c r="F239" t="n">
-        <v>0.02183342420502323</v>
+        <v>0.01174506174424458</v>
       </c>
       <c r="G239" t="n">
-        <v>0.1257519592864981</v>
+        <v>0.1369004581339881</v>
       </c>
       <c r="J239" t="n">
-        <v>0.02017102268838045</v>
+        <v>0.01959261845608071</v>
       </c>
       <c r="K239" t="n">
-        <v>0.1257789508967976</v>
+        <v>0.1351323404643515</v>
       </c>
       <c r="L239" t="n">
-        <v>0.05097307939403278</v>
+        <v>0.0277438073328648</v>
       </c>
       <c r="M239" t="n">
-        <v>0.1229331897978015</v>
+        <v>0.1350541555561905</v>
       </c>
       <c r="N239" t="n">
-        <v>0.0658318175048685</v>
+        <v>0.01174506174424458</v>
       </c>
       <c r="O239" t="n">
-        <v>0.1258792722546038</v>
+        <v>0.1369004581339881</v>
       </c>
     </row>
     <row r="240" ht="15" customHeight="1">
       <c r="F240" t="n">
-        <v>0.02282153335794612</v>
+        <v>0.01165203314717362</v>
       </c>
       <c r="G240" t="n">
-        <v>0.1264746716961906</v>
+        <v>0.1376872423761375</v>
       </c>
       <c r="J240" t="n">
-        <v>0.01979384877945811</v>
+        <v>0.01897133090586001</v>
       </c>
       <c r="K240" t="n">
-        <v>0.1265018184306872</v>
+        <v>0.1359089631106984</v>
       </c>
       <c r="L240" t="n">
-        <v>0.05139831446086471</v>
+        <v>0.02749298769773206</v>
       </c>
       <c r="M240" t="n">
-        <v>0.1236397023828463</v>
+        <v>0.1358303288639847</v>
       </c>
       <c r="N240" t="n">
-        <v>0.06610693521102684</v>
+        <v>0.01165203314717362</v>
       </c>
       <c r="O240" t="n">
-        <v>0.1266027163480211</v>
+        <v>0.1376872423761375</v>
       </c>
     </row>
     <row r="241" ht="15" customHeight="1">
       <c r="F241" t="n">
-        <v>0.02281009503723471</v>
+        <v>0.01166112293097174</v>
       </c>
       <c r="G241" t="n">
-        <v>0.1271973841058832</v>
+        <v>0.1384740266182868</v>
       </c>
       <c r="J241" t="n">
-        <v>0.01951076140328972</v>
+        <v>0.01865993347496217</v>
       </c>
       <c r="K241" t="n">
-        <v>0.1272246859645769</v>
+        <v>0.1366855857570452</v>
       </c>
       <c r="L241" t="n">
-        <v>0.05082594840642643</v>
+        <v>0.02663654145630878</v>
       </c>
       <c r="M241" t="n">
-        <v>0.1243462149678911</v>
+        <v>0.1366065021717789</v>
       </c>
       <c r="N241" t="n">
-        <v>0.06498813277113097</v>
+        <v>0.01166112293097174</v>
       </c>
       <c r="O241" t="n">
-        <v>0.1273261604414384</v>
+        <v>0.1384740266182868</v>
       </c>
     </row>
     <row r="242" ht="15" customHeight="1">
       <c r="F242" t="n">
-        <v>0.02179911203600231</v>
+        <v>0.01157242329447919</v>
       </c>
       <c r="G242" t="n">
-        <v>0.1279200965155757</v>
+        <v>0.1392608108604362</v>
       </c>
       <c r="J242" t="n">
-        <v>0.01942190673299986</v>
+        <v>0.01825870055699505</v>
       </c>
       <c r="K242" t="n">
-        <v>0.1279475534984665</v>
+        <v>0.137462208403392</v>
       </c>
       <c r="L242" t="n">
-        <v>0.05145608861801074</v>
+        <v>0.02497446892048194</v>
       </c>
       <c r="M242" t="n">
-        <v>0.125052727552936</v>
+        <v>0.1373826754795731</v>
       </c>
       <c r="N242" t="n">
-        <v>0.06517555855418439</v>
+        <v>0.01157242329447919</v>
       </c>
       <c r="O242" t="n">
-        <v>0.1280496045348556</v>
+        <v>0.1392608108604362</v>
       </c>
     </row>
     <row r="243" ht="15" customHeight="1">
       <c r="F243" t="n">
-        <v>0.02378858714736224</v>
+        <v>0.01158602643653621</v>
       </c>
       <c r="G243" t="n">
-        <v>0.1286428089252682</v>
+        <v>0.1400475951025855</v>
       </c>
       <c r="J243" t="n">
-        <v>0.01902743094171307</v>
+        <v>0.01856790654556653</v>
       </c>
       <c r="K243" t="n">
-        <v>0.1286704210323561</v>
+        <v>0.1382388310497389</v>
       </c>
       <c r="L243" t="n">
-        <v>0.05088884248291045</v>
+        <v>0.02420677040213898</v>
       </c>
       <c r="M243" t="n">
-        <v>0.1257592401379808</v>
+        <v>0.1381588487873673</v>
       </c>
       <c r="N243" t="n">
-        <v>0.06476936092919017</v>
+        <v>0.01158602643653621</v>
       </c>
       <c r="O243" t="n">
-        <v>0.1287730486282729</v>
+        <v>0.1400475951025855</v>
       </c>
     </row>
     <row r="244" ht="15" customHeight="1">
       <c r="F244" t="n">
-        <v>0.02377852316442785</v>
+        <v>0.01150202455598302</v>
       </c>
       <c r="G244" t="n">
-        <v>0.1293655213349607</v>
+        <v>0.1408343793447349</v>
       </c>
       <c r="J244" t="n">
-        <v>0.01882748020255388</v>
+        <v>0.01798782583428463</v>
       </c>
       <c r="K244" t="n">
-        <v>0.1293932885662458</v>
+        <v>0.1390154536960858</v>
       </c>
       <c r="L244" t="n">
-        <v>0.05092431738841827</v>
+        <v>0.02373344621316686</v>
       </c>
       <c r="M244" t="n">
-        <v>0.1264657527230257</v>
+        <v>0.1389350220951615</v>
       </c>
       <c r="N244" t="n">
-        <v>0.06446968826515176</v>
+        <v>0.01150202455598302</v>
       </c>
       <c r="O244" t="n">
-        <v>0.1294964927216901</v>
+        <v>0.1408343793447349</v>
       </c>
     </row>
     <row r="245" ht="15" customHeight="1">
       <c r="F245" t="n">
-        <v>0.0217689228803124</v>
+        <v>0.01132050985165987</v>
       </c>
       <c r="G245" t="n">
-        <v>0.1300882337446532</v>
+        <v>0.1416211635868843</v>
       </c>
       <c r="J245" t="n">
-        <v>0.01852220068864691</v>
+        <v>0.01741873281675724</v>
       </c>
       <c r="K245" t="n">
-        <v>0.1301161561001354</v>
+        <v>0.1397920763424326</v>
       </c>
       <c r="L245" t="n">
-        <v>0.05146262072182697</v>
+        <v>0.02315449666545277</v>
       </c>
       <c r="M245" t="n">
-        <v>0.1271722653080705</v>
+        <v>0.1397111954029557</v>
       </c>
       <c r="N245" t="n">
-        <v>0.06407668893107238</v>
+        <v>0.01132050985165987</v>
       </c>
       <c r="O245" t="n">
-        <v>0.1302199368151074</v>
+        <v>0.1416211635868843</v>
       </c>
     </row>
     <row r="246" ht="15" customHeight="1">
       <c r="F246" t="n">
-        <v>0.02375978908812925</v>
+        <v>0.01134157452240701</v>
       </c>
       <c r="G246" t="n">
-        <v>0.1308109461543457</v>
+        <v>0.1424079478290336</v>
       </c>
       <c r="J246" t="n">
-        <v>0.01811173857311664</v>
+        <v>0.01766090188659217</v>
       </c>
       <c r="K246" t="n">
-        <v>0.1308390236340251</v>
+        <v>0.1405686989887794</v>
       </c>
       <c r="L246" t="n">
-        <v>0.05110385987042937</v>
+        <v>0.02136992207088378</v>
       </c>
       <c r="M246" t="n">
-        <v>0.1278787778931153</v>
+        <v>0.1404873687107499</v>
       </c>
       <c r="N246" t="n">
-        <v>0.06349051129595534</v>
+        <v>0.01134157452240701</v>
       </c>
       <c r="O246" t="n">
-        <v>0.1309433809085247</v>
+        <v>0.1424079478290336</v>
       </c>
     </row>
     <row r="247" ht="15" customHeight="1">
       <c r="F247" t="n">
-        <v>0.02175112458099172</v>
+        <v>0.01106531076706468</v>
       </c>
       <c r="G247" t="n">
-        <v>0.1315336585640383</v>
+        <v>0.143194732071183</v>
       </c>
       <c r="J247" t="n">
-        <v>0.01789624002908768</v>
+        <v>0.01691460743739748</v>
       </c>
       <c r="K247" t="n">
-        <v>0.1315618911679147</v>
+        <v>0.1413453216351263</v>
       </c>
       <c r="L247" t="n">
-        <v>0.05164814222151823</v>
+        <v>0.02057972274134717</v>
       </c>
       <c r="M247" t="n">
-        <v>0.1285852904781601</v>
+        <v>0.1412635420185441</v>
       </c>
       <c r="N247" t="n">
-        <v>0.06291130372880394</v>
+        <v>0.01106531076706468</v>
       </c>
       <c r="O247" t="n">
-        <v>0.1316668250019419</v>
+        <v>0.143194732071183</v>
       </c>
     </row>
     <row r="248" ht="15" customHeight="1">
       <c r="F248" t="n">
-        <v>0.02374293215201313</v>
+        <v>0.01119181078447309</v>
       </c>
       <c r="G248" t="n">
-        <v>0.1322563709737308</v>
+        <v>0.1439815163133323</v>
       </c>
       <c r="J248" t="n">
-        <v>0.01737585122968457</v>
+        <v>0.01728012386278097</v>
       </c>
       <c r="K248" t="n">
-        <v>0.1322847587018043</v>
+        <v>0.1421219442814731</v>
       </c>
       <c r="L248" t="n">
-        <v>0.05159557516238633</v>
+        <v>0.01968389898873013</v>
       </c>
       <c r="M248" t="n">
-        <v>0.129291803063205</v>
+        <v>0.1420397153263383</v>
       </c>
       <c r="N248" t="n">
-        <v>0.0630392145986215</v>
+        <v>0.01119181078447309</v>
       </c>
       <c r="O248" t="n">
-        <v>0.1323902690953592</v>
+        <v>0.1439815163133323</v>
       </c>
     </row>
     <row r="249" ht="15" customHeight="1">
       <c r="F249" t="n">
-        <v>0.02373521459430682</v>
+        <v>0.01112116677347251</v>
       </c>
       <c r="G249" t="n">
-        <v>0.1329790833834233</v>
+        <v>0.1447683005554817</v>
       </c>
       <c r="J249" t="n">
-        <v>0.01725071834803191</v>
+        <v>0.01665772555635062</v>
       </c>
       <c r="K249" t="n">
-        <v>0.133007626235694</v>
+        <v>0.14289856692782</v>
       </c>
       <c r="L249" t="n">
-        <v>0.05134626608032639</v>
+        <v>0.01958245112491963</v>
       </c>
       <c r="M249" t="n">
-        <v>0.1299983156482498</v>
+        <v>0.1428158886341325</v>
       </c>
       <c r="N249" t="n">
-        <v>0.06187439227441122</v>
+        <v>0.01112116677347251</v>
       </c>
       <c r="O249" t="n">
-        <v>0.1331137131887765</v>
+        <v>0.1447683005554817</v>
       </c>
     </row>
     <row r="250" ht="15" customHeight="1">
       <c r="F250" t="n">
-        <v>0.02172797470098606</v>
+        <v>0.01085347093290317</v>
       </c>
       <c r="G250" t="n">
-        <v>0.1337017957931158</v>
+        <v>0.145555084797631</v>
       </c>
       <c r="J250" t="n">
-        <v>0.01672098755725418</v>
+        <v>0.01664768691171431</v>
       </c>
       <c r="K250" t="n">
-        <v>0.1337304937695836</v>
+        <v>0.1436751895741668</v>
       </c>
       <c r="L250" t="n">
-        <v>0.05120032236263122</v>
+        <v>0.01807537946180304</v>
       </c>
       <c r="M250" t="n">
-        <v>0.1307048282332947</v>
+        <v>0.1435920619419267</v>
       </c>
       <c r="N250" t="n">
-        <v>0.06171698512517654</v>
+        <v>0.01085347093290317</v>
       </c>
       <c r="O250" t="n">
-        <v>0.1338371572821937</v>
+        <v>0.145555084797631</v>
       </c>
     </row>
     <row r="251" ht="15" customHeight="1">
       <c r="F251" t="n">
-        <v>0.02372121526516423</v>
+        <v>0.01088881546160531</v>
       </c>
       <c r="G251" t="n">
-        <v>0.1344245082028083</v>
+        <v>0.1463418690397804</v>
       </c>
       <c r="J251" t="n">
-        <v>0.016386805030476</v>
+        <v>0.01645028232248</v>
       </c>
       <c r="K251" t="n">
-        <v>0.1344533613034733</v>
+        <v>0.1444518122205137</v>
       </c>
       <c r="L251" t="n">
-        <v>0.05125785139659361</v>
+        <v>0.0169626843112673</v>
       </c>
       <c r="M251" t="n">
-        <v>0.1314113408183395</v>
+        <v>0.1443682352497209</v>
       </c>
       <c r="N251" t="n">
-        <v>0.06136714151992062</v>
+        <v>0.01088881546160531</v>
       </c>
       <c r="O251" t="n">
-        <v>0.134560601375611</v>
+        <v>0.1463418690397804</v>
       </c>
     </row>
     <row r="252" ht="15" customHeight="1">
       <c r="F252" t="n">
-        <v>0.02271493907995462</v>
+        <v>0.01092729255841916</v>
       </c>
       <c r="G252" t="n">
-        <v>0.1351472206125008</v>
+        <v>0.1471286532819297</v>
       </c>
       <c r="J252" t="n">
-        <v>0.01604831694082187</v>
+        <v>0.01626578618225555</v>
       </c>
       <c r="K252" t="n">
-        <v>0.1351762288373629</v>
+        <v>0.1452284348668605</v>
       </c>
       <c r="L252" t="n">
-        <v>0.05171896056950631</v>
+        <v>0.01604436598519965</v>
       </c>
       <c r="M252" t="n">
-        <v>0.1321178534033843</v>
+        <v>0.1451444085575151</v>
       </c>
       <c r="N252" t="n">
-        <v>0.06132500982764688</v>
+        <v>0.01092729255841916</v>
       </c>
       <c r="O252" t="n">
-        <v>0.1352840454690283</v>
+        <v>0.1471286532819297</v>
       </c>
     </row>
     <row r="253" ht="15" customHeight="1">
       <c r="F253" t="n">
-        <v>0.02270914893847054</v>
+        <v>0.01066899442218498</v>
       </c>
       <c r="G253" t="n">
-        <v>0.1358699330221934</v>
+        <v>0.1479154375240791</v>
       </c>
       <c r="J253" t="n">
-        <v>0.0157056694614164</v>
+        <v>0.01619447288464892</v>
       </c>
       <c r="K253" t="n">
-        <v>0.1358990963712526</v>
+        <v>0.1460050575132074</v>
       </c>
       <c r="L253" t="n">
-        <v>0.05138375726866209</v>
+        <v>0.01512042479548731</v>
       </c>
       <c r="M253" t="n">
-        <v>0.1328243659884292</v>
+        <v>0.1459205818653093</v>
       </c>
       <c r="N253" t="n">
-        <v>0.0606907384173585</v>
+        <v>0.01066899442218498</v>
       </c>
       <c r="O253" t="n">
-        <v>0.1360074895624455</v>
+        <v>0.1479154375240791</v>
       </c>
     </row>
     <row r="254" ht="15" customHeight="1">
       <c r="F254" t="n">
-        <v>0.02170384763382534</v>
+        <v>0.01061401325174299</v>
       </c>
       <c r="G254" t="n">
-        <v>0.1365926454318859</v>
+        <v>0.1487022217662285</v>
       </c>
       <c r="J254" t="n">
-        <v>0.01545900876538413</v>
+        <v>0.01583661682326803</v>
       </c>
       <c r="K254" t="n">
-        <v>0.1366219639051422</v>
+        <v>0.1467816801595542</v>
       </c>
       <c r="L254" t="n">
-        <v>0.05205234888135374</v>
+        <v>0.01459086105401741</v>
       </c>
       <c r="M254" t="n">
-        <v>0.133530878573474</v>
+        <v>0.1466967551731035</v>
       </c>
       <c r="N254" t="n">
-        <v>0.06076447565805887</v>
+        <v>0.01061401325174299</v>
       </c>
       <c r="O254" t="n">
-        <v>0.1367309336558628</v>
+        <v>0.1487022217662285</v>
       </c>
     </row>
     <row r="255" ht="15" customHeight="1">
       <c r="F255" t="n">
-        <v>0.02169903795913234</v>
+        <v>0.01066244124593342</v>
       </c>
       <c r="G255" t="n">
-        <v>0.1373153578415784</v>
+        <v>0.1494890060083778</v>
       </c>
       <c r="J255" t="n">
-        <v>0.01510848102584959</v>
+        <v>0.01569249239172071</v>
       </c>
       <c r="K255" t="n">
-        <v>0.1373448314390318</v>
+        <v>0.1475583028059011</v>
       </c>
       <c r="L255" t="n">
-        <v>0.05172484279487399</v>
+        <v>0.0138556750726771</v>
       </c>
       <c r="M255" t="n">
-        <v>0.1342373911585188</v>
+        <v>0.1474729284808977</v>
       </c>
       <c r="N255" t="n">
-        <v>0.0602463699187511</v>
+        <v>0.01066244124593342</v>
       </c>
       <c r="O255" t="n">
-        <v>0.13745437774928</v>
+        <v>0.1494890060083778</v>
       </c>
     </row>
     <row r="256" ht="15" customHeight="1">
       <c r="F256" t="n">
-        <v>0.02269472270750485</v>
+        <v>0.01071437060359655</v>
       </c>
       <c r="G256" t="n">
-        <v>0.1380380702512709</v>
+        <v>0.1502757902505272</v>
       </c>
       <c r="J256" t="n">
-        <v>0.01485423241593739</v>
+        <v>0.01536237398361498</v>
       </c>
       <c r="K256" t="n">
-        <v>0.1380676989729215</v>
+        <v>0.1483349254522479</v>
       </c>
       <c r="L256" t="n">
-        <v>0.05170134639651566</v>
+        <v>0.01241486716335349</v>
       </c>
       <c r="M256" t="n">
-        <v>0.1349439037435637</v>
+        <v>0.1482491017886919</v>
       </c>
       <c r="N256" t="n">
-        <v>0.05973656956843876</v>
+        <v>0.01071437060359655</v>
       </c>
       <c r="O256" t="n">
-        <v>0.1381778218426973</v>
+        <v>0.1502757902505272</v>
       </c>
     </row>
     <row r="257" ht="15" customHeight="1">
       <c r="F257" t="n">
-        <v>0.02369090467205621</v>
+        <v>0.01046989352357258</v>
       </c>
       <c r="G257" t="n">
-        <v>0.1387607826609634</v>
+        <v>0.1510625744926765</v>
       </c>
       <c r="J257" t="n">
-        <v>0.01449640910877206</v>
+        <v>0.01524653599255871</v>
       </c>
       <c r="K257" t="n">
-        <v>0.1387905665068111</v>
+        <v>0.1491115480985948</v>
       </c>
       <c r="L257" t="n">
-        <v>0.05208196707357152</v>
+        <v>0.01166843763793363</v>
       </c>
       <c r="M257" t="n">
-        <v>0.1356504163286085</v>
+        <v>0.1490252750964861</v>
       </c>
       <c r="N257" t="n">
-        <v>0.05923522297612493</v>
+        <v>0.01046989352357258</v>
       </c>
       <c r="O257" t="n">
-        <v>0.1389012659361146</v>
+        <v>0.1510625744926765</v>
       </c>
     </row>
     <row r="258" ht="15" customHeight="1">
       <c r="F258" t="n">
-        <v>0.02268758664589968</v>
+        <v>0.01042910220470177</v>
       </c>
       <c r="G258" t="n">
-        <v>0.139483495070656</v>
+        <v>0.1518493587348259</v>
       </c>
       <c r="J258" t="n">
-        <v>0.01403515727747813</v>
+        <v>0.01564525281215984</v>
       </c>
       <c r="K258" t="n">
-        <v>0.1395134340407008</v>
+        <v>0.1498881707449416</v>
       </c>
       <c r="L258" t="n">
-        <v>0.05176681221333432</v>
+        <v>0.01121638680830489</v>
       </c>
       <c r="M258" t="n">
-        <v>0.1363569289136533</v>
+        <v>0.1498014484042803</v>
       </c>
       <c r="N258" t="n">
-        <v>0.05934247851081309</v>
+        <v>0.01042910220470177</v>
       </c>
       <c r="O258" t="n">
-        <v>0.1396247100295318</v>
+        <v>0.1518493587348259</v>
       </c>
     </row>
     <row r="259" ht="15" customHeight="1">
       <c r="F259" t="n">
-        <v>0.02368477142214866</v>
+        <v>0.01049208884582435</v>
       </c>
       <c r="G259" t="n">
-        <v>0.1402062074803485</v>
+        <v>0.1526361429769753</v>
       </c>
       <c r="J259" t="n">
-        <v>0.01377062309518019</v>
+        <v>0.0150587988360262</v>
       </c>
       <c r="K259" t="n">
-        <v>0.1402363015745904</v>
+        <v>0.1506647933912885</v>
       </c>
       <c r="L259" t="n">
-        <v>0.05225598920309679</v>
+        <v>0.009958714986354311</v>
       </c>
       <c r="M259" t="n">
-        <v>0.1370634414986982</v>
+        <v>0.1505776217120745</v>
       </c>
       <c r="N259" t="n">
-        <v>0.05905848454150636</v>
+        <v>0.01049208884582435</v>
       </c>
       <c r="O259" t="n">
-        <v>0.1403481541229491</v>
+        <v>0.1526361429769753</v>
       </c>
     </row>
     <row r="260" ht="15" customHeight="1">
       <c r="F260" t="n">
-        <v>0.02268246179391643</v>
+        <v>0.01055894564578056</v>
       </c>
       <c r="G260" t="n">
-        <v>0.140928919890041</v>
+        <v>0.1534229272191246</v>
       </c>
       <c r="J260" t="n">
-        <v>0.01330295273500279</v>
+        <v>0.01528744845776581</v>
       </c>
       <c r="K260" t="n">
-        <v>0.1409591691084801</v>
+        <v>0.1514414160376353</v>
       </c>
       <c r="L260" t="n">
-        <v>0.05194960543015181</v>
+        <v>0.00869542248396904</v>
       </c>
       <c r="M260" t="n">
-        <v>0.137769954083743</v>
+        <v>0.1513537950198687</v>
       </c>
       <c r="N260" t="n">
-        <v>0.05858338943720809</v>
+        <v>0.01055894564578056</v>
       </c>
       <c r="O260" t="n">
-        <v>0.1410715982163664</v>
+        <v>0.1534229272191246</v>
       </c>
     </row>
     <row r="261" ht="15" customHeight="1">
       <c r="F261" t="n">
-        <v>0.02168066055431634</v>
+        <v>0.01032976480341066</v>
       </c>
       <c r="G261" t="n">
-        <v>0.1416516322997335</v>
+        <v>0.1542097114612739</v>
       </c>
       <c r="J261" t="n">
-        <v>0.01283229237007048</v>
+        <v>0.01503147607098654</v>
       </c>
       <c r="K261" t="n">
-        <v>0.1416820366423697</v>
+        <v>0.1522180386839821</v>
       </c>
       <c r="L261" t="n">
-        <v>0.05264776828179207</v>
+        <v>0.007926509613036314</v>
       </c>
       <c r="M261" t="n">
-        <v>0.1384764666687879</v>
+        <v>0.1521299683276629</v>
       </c>
       <c r="N261" t="n">
-        <v>0.0582173415669216</v>
+        <v>0.01032976480341066</v>
       </c>
       <c r="O261" t="n">
-        <v>0.1417950423097836</v>
+        <v>0.1542097114612739</v>
       </c>
     </row>
     <row r="262" ht="15" customHeight="1">
       <c r="F262" t="n">
-        <v>0.02367937049646168</v>
+        <v>0.01050463851755486</v>
       </c>
       <c r="G262" t="n">
-        <v>0.142374344709426</v>
+        <v>0.1549964957034233</v>
       </c>
       <c r="J262" t="n">
-        <v>0.01255878817350783</v>
+        <v>0.01539115606929631</v>
       </c>
       <c r="K262" t="n">
-        <v>0.1424049041762593</v>
+        <v>0.152994661330329</v>
       </c>
       <c r="L262" t="n">
-        <v>0.05235058514531032</v>
+        <v>0.007051976685443218</v>
       </c>
       <c r="M262" t="n">
-        <v>0.1391829792538327</v>
+        <v>0.1529061416354571</v>
       </c>
       <c r="N262" t="n">
-        <v>0.05866048929965018</v>
+        <v>0.01050463851755486</v>
       </c>
       <c r="O262" t="n">
-        <v>0.1425184864032009</v>
+        <v>0.1549964957034233</v>
       </c>
     </row>
     <row r="263" ht="15" customHeight="1">
       <c r="F263" t="n">
-        <v>0.02367859441346578</v>
+        <v>0.0102836589870534</v>
       </c>
       <c r="G263" t="n">
-        <v>0.1430970571191185</v>
+        <v>0.1557832799455727</v>
       </c>
       <c r="J263" t="n">
-        <v>0.01228258631843938</v>
+        <v>0.01526676284630307</v>
       </c>
       <c r="K263" t="n">
-        <v>0.143127771710149</v>
+        <v>0.1537712839766758</v>
       </c>
       <c r="L263" t="n">
-        <v>0.05285816340799943</v>
+        <v>0.005671824013076865</v>
       </c>
       <c r="M263" t="n">
-        <v>0.1398894918388775</v>
+        <v>0.1536823149432513</v>
       </c>
       <c r="N263" t="n">
-        <v>0.05841298100439707</v>
+        <v>0.0102836589870534</v>
       </c>
       <c r="O263" t="n">
-        <v>0.1432419304966182</v>
+        <v>0.1557832799455727</v>
       </c>
     </row>
     <row r="264" ht="15" customHeight="1">
       <c r="F264" t="n">
-        <v>0.02167833509844195</v>
+        <v>0.01046691841074654</v>
       </c>
       <c r="G264" t="n">
-        <v>0.1438197695288111</v>
+        <v>0.156570064187722</v>
       </c>
       <c r="J264" t="n">
-        <v>0.01180383297798971</v>
+        <v>0.01495857079561463</v>
       </c>
       <c r="K264" t="n">
-        <v>0.1438506392440386</v>
+        <v>0.1545479066230227</v>
       </c>
       <c r="L264" t="n">
-        <v>0.05247061045715212</v>
+        <v>0.005186051907824507</v>
       </c>
       <c r="M264" t="n">
-        <v>0.1405960044239224</v>
+        <v>0.1544584882510455</v>
       </c>
       <c r="N264" t="n">
-        <v>0.05727496505016566</v>
+        <v>0.01046691841074654</v>
       </c>
       <c r="O264" t="n">
-        <v>0.1439653745900354</v>
+        <v>0.156570064187722</v>
       </c>
     </row>
     <row r="265" ht="15" customHeight="1"/>

--- a/prot/ООО Регионстрой/Трехосные_КД_ПП/1171.xlsx
+++ b/prot/ООО Регионстрой/Трехосные_КД_ПП/1171.xlsx
@@ -4884,7 +4884,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BF264"/>
+  <dimension ref="A1:BF464"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A3" zoomScale="70" zoomScaleNormal="40" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <selection activeCell="J22" sqref="J22"/>
@@ -8491,8 +8491,14 @@
     </row>
     <row r="47" ht="16.5" customHeight="1">
       <c r="A47" s="144" t="n"/>
-      <c r="B47" s="144" t="n"/>
-      <c r="C47" s="144" t="n"/>
+      <c r="B47" s="144" t="inlineStr">
+        <is>
+          <t>K0, д.е.</t>
+        </is>
+      </c>
+      <c r="C47" s="144" t="n">
+        <v>0.8608268990399346</v>
+      </c>
       <c r="D47" s="144" t="n"/>
       <c r="E47" s="144" t="n"/>
       <c r="F47" s="144" t="n"/>
@@ -8549,8 +8555,14 @@
     </row>
     <row r="48" ht="16.5" customHeight="1">
       <c r="A48" s="144" t="n"/>
-      <c r="B48" s="144" t="n"/>
-      <c r="C48" s="144" t="n"/>
+      <c r="B48" s="144" t="inlineStr">
+        <is>
+          <t>q_zg, МПа</t>
+        </is>
+      </c>
+      <c r="C48" s="144" t="n">
+        <v>0.04304134495199673</v>
+      </c>
       <c r="D48" s="144" t="n"/>
       <c r="E48" s="144" t="n"/>
       <c r="F48" s="144" t="n"/>
@@ -8700,12 +8712,20 @@
         <f>B70/A70</f>
         <v/>
       </c>
-      <c r="F50" s="144" t="n"/>
+      <c r="F50" s="144" t="inlineStr">
+        <is>
+          <t>Точки модуля (полное напр.), МПа</t>
+        </is>
+      </c>
       <c r="G50" s="144" t="n"/>
       <c r="H50" s="144" t="n"/>
       <c r="I50" s="144" t="n"/>
-      <c r="J50" s="144" t="n"/>
-      <c r="K50" s="144" t="n"/>
+      <c r="J50" s="144" t="n">
+        <v>0.04304134495199673</v>
+      </c>
+      <c r="K50" s="144" t="n">
+        <v>0.06886615192319477</v>
+      </c>
       <c r="L50" s="144" t="n"/>
       <c r="N50" s="148">
         <f>J50</f>
@@ -8782,11 +8802,17 @@
         <f>A65/B65</f>
         <v/>
       </c>
-      <c r="F51" s="144" t="n"/>
+      <c r="F51" s="144" t="inlineStr">
+        <is>
+          <t>qf (полное напр.), МПа</t>
+        </is>
+      </c>
       <c r="G51" s="144" t="n"/>
       <c r="H51" s="144" t="n"/>
       <c r="I51" s="144" t="n"/>
-      <c r="J51" s="144" t="n"/>
+      <c r="J51" s="144" t="n">
+        <v>0.08182480697119804</v>
+      </c>
       <c r="K51" s="144" t="n"/>
       <c r="L51" s="144" t="n"/>
       <c r="M51" s="1" t="n"/>
@@ -9232,10 +9258,10 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>0.01383552884441011</v>
+        <v>0.03182480697119804</v>
       </c>
       <c r="B65" t="n">
-        <v>0.01234388589087215</v>
+        <v>0.01687340998480787</v>
       </c>
       <c r="C65" s="151">
         <f>MATCH(A65,F65:F1000,1)-A67</f>
@@ -9292,29 +9318,29 @@
         </is>
       </c>
       <c r="F66" s="170" t="n">
-        <v>0.001414334083751974</v>
+        <v>4.119514965039706e-05</v>
       </c>
       <c r="G66" s="171" t="n">
-        <v>0.0007867842421493569</v>
+        <v>0.0006751102018667461</v>
       </c>
       <c r="H66" s="171" t="n"/>
       <c r="J66" s="170" t="n">
-        <v>0.004999999999999977</v>
+        <v>0.001450072543588858</v>
       </c>
       <c r="K66" s="171" t="n">
-        <v>0.001062127976190471</v>
+        <v>0.0007867842421493569</v>
       </c>
       <c r="L66" s="172" t="n">
-        <v>0.007508544836939246</v>
+        <v>0.003999999999999976</v>
       </c>
       <c r="M66" s="170" t="n">
-        <v>0.0007761733077941985</v>
+        <v>0.000832708333333328</v>
       </c>
       <c r="N66" s="171" t="n">
-        <v>0.001414334083751974</v>
+        <v>0.009105075069342605</v>
       </c>
       <c r="O66" s="172" t="n">
-        <v>0.0007867842421493569</v>
+        <v>0.0007722415493047282</v>
       </c>
       <c r="Q66" s="151" t="inlineStr">
         <is>
@@ -9332,29 +9358,29 @@
         <v>2</v>
       </c>
       <c r="F67" s="170" t="n">
-        <v>0.002682335762404203</v>
+        <v>0.0001654889109039825</v>
       </c>
       <c r="G67" s="171" t="n">
-        <v>0.001573568484298714</v>
+        <v>0.001350220403733492</v>
       </c>
       <c r="H67" s="171" t="n"/>
       <c r="J67" s="170" t="n">
-        <v>0.006835569500795807</v>
+        <v>0.002936682123068309</v>
       </c>
       <c r="K67" s="171" t="n">
-        <v>0.001553245292693695</v>
+        <v>0.001573568484298714</v>
       </c>
       <c r="L67" s="172" t="n">
-        <v>0.01505929139982215</v>
+        <v>0.006320286623790167</v>
       </c>
       <c r="M67" s="170" t="n">
-        <v>0.001552346615588397</v>
+        <v>0.001552133452407616</v>
       </c>
       <c r="N67" s="171" t="n">
-        <v>0.002682335762404203</v>
+        <v>0.01791057104050237</v>
       </c>
       <c r="O67" s="172" t="n">
-        <v>0.001573568484298714</v>
+        <v>0.001544483098609456</v>
       </c>
       <c r="Q67" s="151" t="inlineStr">
         <is>
@@ -9374,29 +9400,29 @@
         </is>
       </c>
       <c r="F68" s="170" t="n">
-        <v>0.003865120137287237</v>
+        <v>0.0003739437522143133</v>
       </c>
       <c r="G68" s="171" t="n">
-        <v>0.002360352726448071</v>
+        <v>0.002025330605600238</v>
       </c>
       <c r="H68" s="171" t="n"/>
       <c r="J68" s="170" t="n">
-        <v>0.009662318176452633</v>
+        <v>0.004341733640900007</v>
       </c>
       <c r="K68" s="171" t="n">
-        <v>0.002329867939040543</v>
+        <v>0.002360352726448071</v>
       </c>
       <c r="L68" s="172" t="n">
-        <v>0.02153409656986743</v>
+        <v>0.009831547462760298</v>
       </c>
       <c r="M68" s="170" t="n">
-        <v>0.002328519923382595</v>
+        <v>0.002328200178611424</v>
       </c>
       <c r="N68" s="171" t="n">
-        <v>0.003865120137287237</v>
+        <v>0.0261186087880681</v>
       </c>
       <c r="O68" s="172" t="n">
-        <v>0.002360352726448071</v>
+        <v>0.002316724647914185</v>
       </c>
       <c r="Q68" s="151" t="inlineStr">
         <is>
@@ -9421,29 +9447,29 @@
         </is>
       </c>
       <c r="F69" s="170" t="n">
-        <v>0.005223802309731615</v>
+        <v>0.0006676221420350015</v>
       </c>
       <c r="G69" s="171" t="n">
-        <v>0.003147136968597428</v>
+        <v>0.002700440807466984</v>
       </c>
       <c r="H69" s="171" t="n"/>
       <c r="J69" s="170" t="n">
-        <v>0.01241982178189854</v>
+        <v>0.005547131999545589</v>
       </c>
       <c r="K69" s="171" t="n">
-        <v>0.003106490585387391</v>
+        <v>0.003147136968597428</v>
       </c>
       <c r="L69" s="172" t="n">
-        <v>0.02741481722829359</v>
+        <v>0.01296874241187432</v>
       </c>
       <c r="M69" s="170" t="n">
-        <v>0.003104693231176794</v>
+        <v>0.003104266904815232</v>
       </c>
       <c r="N69" s="171" t="n">
-        <v>0.005223802309731615</v>
+        <v>0.03213130918662815</v>
       </c>
       <c r="O69" s="172" t="n">
-        <v>0.003147136968597428</v>
+        <v>0.003088966197218913</v>
       </c>
       <c r="Q69" s="151" t="inlineStr">
         <is>
@@ -9458,62 +9484,62 @@
     </row>
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="n">
-        <v>0.003747187499999999</v>
+        <v>0.01612839897873102</v>
       </c>
       <c r="B70" t="n">
-        <v>0.005999999999999998</v>
+        <v>0.02582480697119804</v>
       </c>
       <c r="F70" s="170" t="n">
-        <v>0.005999999999999998</v>
+        <v>0.001047586548819604</v>
       </c>
       <c r="G70" s="171" t="n">
-        <v>0.003747187499999999</v>
+        <v>0.00337555100933373</v>
       </c>
       <c r="H70" s="171" t="n"/>
       <c r="J70" s="170" t="n">
-        <v>0.01537669761380628</v>
+        <v>0.006834782101466673</v>
       </c>
       <c r="K70" s="171" t="n">
-        <v>0.003883113231734239</v>
+        <v>0.003933921210746785</v>
       </c>
       <c r="L70" s="172" t="n">
-        <v>0.0314833102563194</v>
+        <v>0.01559738675752922</v>
       </c>
       <c r="M70" s="170" t="n">
-        <v>0.003880866538970993</v>
+        <v>0.003880333631019041</v>
       </c>
       <c r="N70" s="171" t="n">
-        <v>0.005999999999999998</v>
+        <v>0.03785079311077122</v>
       </c>
       <c r="O70" s="172" t="n">
-        <v>0.003747187499999999</v>
+        <v>0.003861207746523641</v>
       </c>
     </row>
     <row r="71">
       <c r="F71" s="170" t="n">
-        <v>0.007038568971316474</v>
+        <v>0.001514899441021712</v>
       </c>
       <c r="G71" s="171" t="n">
-        <v>0.004720705452896141</v>
+        <v>0.004050661211200477</v>
       </c>
       <c r="H71" s="171" t="n"/>
       <c r="J71" s="170" t="n">
-        <v>0.01850156296884847</v>
+        <v>0.007886588849124923</v>
       </c>
       <c r="K71" s="171" t="n">
-        <v>0.004659735878081086</v>
+        <v>0.004720705452896141</v>
       </c>
       <c r="L71" s="172" t="n">
-        <v>0.03552143253516338</v>
+        <v>0.01838299578612215</v>
       </c>
       <c r="M71" s="170" t="n">
-        <v>0.00465703984676519</v>
+        <v>0.004656400357222848</v>
       </c>
       <c r="N71" s="171" t="n">
-        <v>0.007038568971316474</v>
+        <v>0.04199999999999998</v>
       </c>
       <c r="O71" s="172" t="n">
-        <v>0.004720705452896141</v>
+        <v>0.004857465277777776</v>
       </c>
     </row>
     <row r="72">
@@ -9528,29 +9554,29 @@
         </is>
       </c>
       <c r="F72" s="170" t="n">
-        <v>0.008009054112218535</v>
+        <v>0.002070623287094897</v>
       </c>
       <c r="G72" s="171" t="n">
-        <v>0.005507489695045499</v>
+        <v>0.004725771413067223</v>
       </c>
       <c r="H72" s="171" t="n"/>
       <c r="J72" s="170" t="n">
-        <v>0.02066303514369783</v>
+        <v>0.008999999999999994</v>
       </c>
       <c r="K72" s="171" t="n">
-        <v>0.005436358524427934</v>
+        <v>0.005620781249999996</v>
       </c>
       <c r="L72" s="172" t="n">
-        <v>0.03799999999999998</v>
+        <v>0.02139108478405005</v>
       </c>
       <c r="M72" s="170" t="n">
-        <v>0.005159171195652171</v>
+        <v>0.005432467083426657</v>
       </c>
       <c r="N72" s="171" t="n">
-        <v>0.008009054112218535</v>
+        <v>0.04245145274050682</v>
       </c>
       <c r="O72" s="172" t="n">
-        <v>0.005507489695045499</v>
+        <v>0.005405690845133098</v>
       </c>
     </row>
     <row r="73">
@@ -9574,29 +9600,29 @@
         <v/>
       </c>
       <c r="F73" s="170" t="n">
-        <v>0.008836052822842062</v>
+        <v>0.002715820555492736</v>
       </c>
       <c r="G73" s="171" t="n">
-        <v>0.006294273937194855</v>
+        <v>0.005400881614933969</v>
       </c>
       <c r="H73" s="171" t="n"/>
       <c r="J73" s="170" t="n">
-        <v>0.02332973143502703</v>
+        <v>0.009548165656950255</v>
       </c>
       <c r="K73" s="171" t="n">
-        <v>0.006212981170774782</v>
+        <v>0.006294273937194855</v>
       </c>
       <c r="L73" s="172" t="n">
-        <v>0.04024110063353775</v>
+        <v>0.02338716903770999</v>
       </c>
       <c r="M73" s="170" t="n">
-        <v>0.006209386462353588</v>
+        <v>0.006208533809630465</v>
       </c>
       <c r="N73" s="171" t="n">
-        <v>0.008836052822842062</v>
+        <v>0.04404240803848303</v>
       </c>
       <c r="O73" s="172" t="n">
-        <v>0.006294273937194855</v>
+        <v>0.006177932394437826</v>
       </c>
     </row>
     <row r="74">
@@ -9611,29 +9637,29 @@
         </is>
       </c>
       <c r="F74" s="170" t="n">
-        <v>0.009420430115546809</v>
+        <v>0.00345155371466882</v>
       </c>
       <c r="G74" s="171" t="n">
-        <v>0.007081058179344212</v>
+        <v>0.006075991816800716</v>
       </c>
       <c r="H74" s="171" t="n"/>
       <c r="J74" s="170" t="n">
-        <v>0.02497026913950876</v>
+        <v>0.01023981227844766</v>
       </c>
       <c r="K74" s="171" t="n">
-        <v>0.00698960381712163</v>
+        <v>0.007081058179344212</v>
       </c>
       <c r="L74" s="172" t="n">
-        <v>0.04244503523251952</v>
+        <v>0.02593676383349899</v>
       </c>
       <c r="M74" s="170" t="n">
-        <v>0.006985559770147786</v>
+        <v>0.006984600535834273</v>
       </c>
       <c r="N74" s="171" t="n">
-        <v>0.009420430115546809</v>
+        <v>0.04439574248601508</v>
       </c>
       <c r="O74" s="172" t="n">
-        <v>0.007081058179344212</v>
+        <v>0.006950173943742554</v>
       </c>
     </row>
     <row r="75">
@@ -9655,29 +9681,29 @@
         </is>
       </c>
       <c r="F75" s="170" t="n">
-        <v>0.01036305100269253</v>
+        <v>0.004278885233076721</v>
       </c>
       <c r="G75" s="171" t="n">
-        <v>0.007867842421493569</v>
+        <v>0.006751102018667461</v>
       </c>
       <c r="H75" s="171" t="n"/>
       <c r="J75" s="170" t="n">
-        <v>0.0268532655538157</v>
+        <v>0.01076973571421707</v>
       </c>
       <c r="K75" s="171" t="n">
-        <v>0.007766226463468477</v>
+        <v>0.007867842421493569</v>
       </c>
       <c r="L75" s="172" t="n">
-        <v>0.04370153213142014</v>
+        <v>0.02740538445781404</v>
       </c>
       <c r="M75" s="170" t="n">
-        <v>0.007761733077941985</v>
+        <v>0.007760667262038082</v>
       </c>
       <c r="N75" s="171" t="n">
-        <v>0.01036305100269253</v>
+        <v>0.04617027607763036</v>
       </c>
       <c r="O75" s="172" t="n">
-        <v>0.007867842421493569</v>
+        <v>0.007628248738520524</v>
       </c>
     </row>
     <row r="76">
@@ -9697,29 +9723,29 @@
         <v>0</v>
       </c>
       <c r="F76" s="170" t="n">
-        <v>0.01086478049663896</v>
+        <v>0.005198877579170022</v>
       </c>
       <c r="G76" s="171" t="n">
-        <v>0.008654626663642926</v>
+        <v>0.007426212220534207</v>
       </c>
       <c r="H76" s="171" t="n"/>
       <c r="J76" s="170" t="n">
-        <v>0.02904733797462047</v>
+        <v>0.01154729786480382</v>
       </c>
       <c r="K76" s="171" t="n">
-        <v>0.008542849109815325</v>
+        <v>0.008654626663642926</v>
       </c>
       <c r="L76" s="172" t="n">
-        <v>0.04504640869277388</v>
+        <v>0.03000290246102022</v>
       </c>
       <c r="M76" s="170" t="n">
-        <v>0.008537906385736182</v>
+        <v>0.008922738179813825</v>
       </c>
       <c r="N76" s="171" t="n">
-        <v>0.01086478049663896</v>
+        <v>0.04742206103552515</v>
       </c>
       <c r="O76" s="172" t="n">
-        <v>0.008654626663642926</v>
+        <v>0.008494657042352012</v>
       </c>
     </row>
     <row r="77" ht="15" customHeight="1">
@@ -9734,28 +9760,28 @@
         </is>
       </c>
       <c r="F77" t="n">
-        <v>0.01152648360974584</v>
+        <v>0.006212593221402302</v>
       </c>
       <c r="G77" t="n">
+        <v>0.008101322422400954</v>
+      </c>
+      <c r="J77" t="n">
+        <v>0.01208186063075321</v>
+      </c>
+      <c r="K77" t="n">
         <v>0.009441410905792282</v>
       </c>
-      <c r="J77" t="n">
-        <v>0.03000290246102022</v>
-      </c>
-      <c r="K77" t="n">
-        <v>0.009104834877361046</v>
-      </c>
       <c r="L77" t="n">
-        <v>0.04617027607763036</v>
+        <v>0.03060665897779663</v>
       </c>
       <c r="M77" t="n">
-        <v>0.008954900693045834</v>
+        <v>0.009312800714445697</v>
       </c>
       <c r="N77" t="n">
-        <v>0.01152648360974584</v>
+        <v>0.04847132716947616</v>
       </c>
       <c r="O77" t="n">
-        <v>0.009441410905792282</v>
+        <v>0.009266898591656738</v>
       </c>
     </row>
     <row r="78" ht="15" customHeight="1">
@@ -9774,28 +9800,28 @@
         <v/>
       </c>
       <c r="F78" t="n">
-        <v>0.01234902535437291</v>
+        <v>0.007321094628227144</v>
       </c>
       <c r="G78" t="n">
+        <v>0.008776432624267699</v>
+      </c>
+      <c r="J78" t="n">
+        <v>0.01248278591261059</v>
+      </c>
+      <c r="K78" t="n">
         <v>0.01022819514794164</v>
       </c>
-      <c r="J78" t="n">
-        <v>0.03131998770684224</v>
-      </c>
-      <c r="K78" t="n">
-        <v>0.01009609440250902</v>
-      </c>
       <c r="L78" t="n">
-        <v>0.04798724725491416</v>
+        <v>0.03169461984954375</v>
       </c>
       <c r="M78" t="n">
-        <v>0.01009025300132458</v>
+        <v>0.0100888674406495</v>
       </c>
       <c r="N78" t="n">
-        <v>0.01234902535437291</v>
+        <v>0.04904959505823486</v>
       </c>
       <c r="O78" t="n">
-        <v>0.01022819514794164</v>
+        <v>0.01003914014096147</v>
       </c>
     </row>
     <row r="79" ht="15" customHeight="1">
@@ -9816,28 +9842,28 @@
         <v/>
       </c>
       <c r="F79" t="n">
-        <v>0.01293327074287995</v>
+        <v>0.008525444268098113</v>
       </c>
       <c r="G79" t="n">
+        <v>0.009451542826134446</v>
+      </c>
+      <c r="J79" t="n">
+        <v>0.01295943561092128</v>
+      </c>
+      <c r="K79" t="n">
         <v>0.011014979390091</v>
       </c>
-      <c r="J79" t="n">
-        <v>0.03238932598546354</v>
-      </c>
-      <c r="K79" t="n">
-        <v>0.01087271704885587</v>
-      </c>
       <c r="L79" t="n">
-        <v>0.0490840482638854</v>
+        <v>0.03286455125326643</v>
       </c>
       <c r="M79" t="n">
-        <v>0.01086642630911878</v>
+        <v>0.01086493416685331</v>
       </c>
       <c r="N79" t="n">
-        <v>0.01293327074287995</v>
+        <v>0.05075436208341794</v>
       </c>
       <c r="O79" t="n">
-        <v>0.011014979390091</v>
+        <v>0.0108113816902662</v>
       </c>
     </row>
     <row r="80" ht="15" customHeight="1">
@@ -9847,28 +9873,28 @@
         </is>
       </c>
       <c r="F80" t="n">
-        <v>0.01338008478762667</v>
+        <v>0.009826704609468807</v>
       </c>
       <c r="G80" t="n">
+        <v>0.01012665302800119</v>
+      </c>
+      <c r="J80" t="n">
+        <v>0.0134211716262306</v>
+      </c>
+      <c r="K80" t="n">
         <v>0.01180176363224035</v>
       </c>
-      <c r="J80" t="n">
-        <v>0.03384121408595053</v>
-      </c>
-      <c r="K80" t="n">
-        <v>0.01164933969520271</v>
-      </c>
       <c r="L80" t="n">
-        <v>0.0505928943132149</v>
+        <v>0.03351601409801855</v>
       </c>
       <c r="M80" t="n">
-        <v>0.01164259961691298</v>
+        <v>0.01164100089305712</v>
       </c>
       <c r="N80" t="n">
-        <v>0.01338008478762667</v>
+        <v>0.05178312562664233</v>
       </c>
       <c r="O80" t="n">
-        <v>0.01180176363224035</v>
+        <v>0.01158362323957092</v>
       </c>
     </row>
     <row r="81" ht="15" customHeight="1">
@@ -9884,28 +9910,28 @@
         </is>
       </c>
       <c r="F81" t="n">
+        <v>0.0112259381207928</v>
+      </c>
+      <c r="G81" t="n">
+        <v>0.01080176322986794</v>
+      </c>
+      <c r="J81" t="n">
         <v>0.01383552884441011</v>
       </c>
-      <c r="G81" t="n">
+      <c r="K81" t="n">
         <v>0.01234388589087215</v>
       </c>
-      <c r="J81" t="n">
-        <v>0.03497516271203865</v>
-      </c>
-      <c r="K81" t="n">
-        <v>0.01242596234154956</v>
-      </c>
       <c r="L81" t="n">
-        <v>0.05191161491533297</v>
+        <v>0.03504856929285394</v>
       </c>
       <c r="M81" t="n">
-        <v>0.01241877292470718</v>
+        <v>0.01241706761926093</v>
       </c>
       <c r="N81" t="n">
-        <v>0.01383552884441011</v>
+        <v>0.05283338306952484</v>
       </c>
       <c r="O81" t="n">
-        <v>0.01234388589087215</v>
+        <v>0.01235586478887565</v>
       </c>
     </row>
     <row r="82" ht="15" customHeight="1">
@@ -9918,28 +9944,28 @@
         <v/>
       </c>
       <c r="F82" t="n">
-        <v>0.01449710595624418</v>
+        <v>0.01272420727052366</v>
       </c>
       <c r="G82" t="n">
+        <v>0.01147687343173468</v>
+      </c>
+      <c r="J82" t="n">
+        <v>0.01423877878079237</v>
+      </c>
+      <c r="K82" t="n">
         <v>0.01337533211653907</v>
       </c>
-      <c r="J82" t="n">
-        <v>0.03609068256746309</v>
-      </c>
-      <c r="K82" t="n">
-        <v>0.01320258498789641</v>
-      </c>
       <c r="L82" t="n">
-        <v>0.05303803958266973</v>
+        <v>0.03626177774682635</v>
       </c>
       <c r="M82" t="n">
-        <v>0.01319494623250137</v>
+        <v>0.01319313434546474</v>
       </c>
       <c r="N82" t="n">
-        <v>0.01449710595624418</v>
+        <v>0.05430263179368222</v>
       </c>
       <c r="O82" t="n">
-        <v>0.01337533211653907</v>
+        <v>0.01312810633818038</v>
       </c>
     </row>
     <row r="83" ht="15" customHeight="1">
@@ -9949,28 +9975,28 @@
         </is>
       </c>
       <c r="F83" t="n">
-        <v>0.01480328738718106</v>
+        <v>0.01432257452711498</v>
       </c>
       <c r="G83" t="n">
+        <v>0.01215198363360143</v>
+      </c>
+      <c r="J83" t="n">
+        <v>0.01480578406554396</v>
+      </c>
+      <c r="K83" t="n">
         <v>0.01416211635868842</v>
       </c>
-      <c r="J83" t="n">
-        <v>0.0366872843559593</v>
-      </c>
-      <c r="K83" t="n">
-        <v>0.01397920763424326</v>
-      </c>
       <c r="L83" t="n">
-        <v>0.05456999782765548</v>
+        <v>0.03695520036898967</v>
       </c>
       <c r="M83" t="n">
-        <v>0.01397111954029557</v>
+        <v>0.01396920107166855</v>
       </c>
       <c r="N83" t="n">
-        <v>0.01480328738718106</v>
+        <v>0.05578836918073149</v>
       </c>
       <c r="O83" t="n">
-        <v>0.01416211635868842</v>
+        <v>0.01390034788748511</v>
       </c>
     </row>
     <row r="84" ht="15" customHeight="1">
@@ -9985,28 +10011,28 @@
         </is>
       </c>
       <c r="F84" t="n">
-        <v>0.01540995703343366</v>
+        <v>0.01602210235902034</v>
       </c>
       <c r="G84" t="n">
+        <v>0.01282709383546818</v>
+      </c>
+      <c r="J84" t="n">
+        <v>0.01537767581918399</v>
+      </c>
+      <c r="K84" t="n">
         <v>0.01494890060083778</v>
       </c>
-      <c r="J84" t="n">
-        <v>0.03766447878126258</v>
-      </c>
-      <c r="K84" t="n">
-        <v>0.01475583028059011</v>
-      </c>
       <c r="L84" t="n">
-        <v>0.05660531916272049</v>
+        <v>0.03792839806839765</v>
       </c>
       <c r="M84" t="n">
-        <v>0.01474729284808977</v>
+        <v>0.01474526779787235</v>
       </c>
       <c r="N84" t="n">
-        <v>0.01540995703343366</v>
+        <v>0.05658809261228931</v>
       </c>
       <c r="O84" t="n">
-        <v>0.01494890060083778</v>
+        <v>0.01467258943678984</v>
       </c>
     </row>
     <row r="85" ht="15" customHeight="1">
@@ -10025,28 +10051,28 @@
         <v/>
       </c>
       <c r="F85" t="n">
-        <v>0.01601635569631091</v>
+        <v>0.01782385323469331</v>
       </c>
       <c r="G85" t="n">
+        <v>0.01350220403733492</v>
+      </c>
+      <c r="J85" t="n">
+        <v>0.01565351170055496</v>
+      </c>
+      <c r="K85" t="n">
         <v>0.01573568484298714</v>
       </c>
-      <c r="J85" t="n">
-        <v>0.03892177654710827</v>
-      </c>
-      <c r="K85" t="n">
-        <v>0.01553245292693695</v>
-      </c>
       <c r="L85" t="n">
-        <v>0.05754183310029481</v>
+        <v>0.03908093175410415</v>
       </c>
       <c r="M85" t="n">
-        <v>0.01552346615588397</v>
+        <v>0.01552133452407616</v>
       </c>
       <c r="N85" t="n">
-        <v>0.01601635569631091</v>
+        <v>0.05789929946997247</v>
       </c>
       <c r="O85" t="n">
-        <v>0.01573568484298714</v>
+        <v>0.01544483098609457</v>
       </c>
     </row>
     <row r="86" ht="15" customHeight="1">
@@ -10067,28 +10093,28 @@
         <v/>
       </c>
       <c r="F86" t="n">
-        <v>0.01642172417712189</v>
+        <v>0.01972888962258749</v>
       </c>
       <c r="G86" t="n">
+        <v>0.01417731423920167</v>
+      </c>
+      <c r="J86" t="n">
+        <v>0.01613234936849935</v>
+      </c>
+      <c r="K86" t="n">
         <v>0.0165224690851365</v>
       </c>
-      <c r="J86" t="n">
-        <v>0.04035868835723175</v>
-      </c>
-      <c r="K86" t="n">
-        <v>0.0163090755732838</v>
-      </c>
       <c r="L86" t="n">
-        <v>0.05907736915280887</v>
+        <v>0.04061236233516294</v>
       </c>
       <c r="M86" t="n">
-        <v>0.01629963946367817</v>
+        <v>0.01629740125027997</v>
       </c>
       <c r="N86" t="n">
-        <v>0.01642172417712189</v>
+        <v>0.05991948713539791</v>
       </c>
       <c r="O86" t="n">
-        <v>0.0165224690851365</v>
+        <v>0.01621707253539929</v>
       </c>
     </row>
     <row r="87" ht="15" customHeight="1">
@@ -10098,28 +10124,28 @@
         </is>
       </c>
       <c r="F87" t="n">
-        <v>0.01682530327717556</v>
+        <v>0.02173827399115643</v>
       </c>
       <c r="G87" t="n">
+        <v>0.01485242444106841</v>
+      </c>
+      <c r="J87" t="n">
+        <v>0.01661324648185965</v>
+      </c>
+      <c r="K87" t="n">
         <v>0.01730925332728585</v>
       </c>
-      <c r="J87" t="n">
-        <v>0.04137472491536834</v>
-      </c>
-      <c r="K87" t="n">
-        <v>0.01708569821963065</v>
-      </c>
       <c r="L87" t="n">
-        <v>0.06050975683269277</v>
+        <v>0.04142225072062788</v>
       </c>
       <c r="M87" t="n">
-        <v>0.01707581277147236</v>
+        <v>0.01707346797648378</v>
       </c>
       <c r="N87" t="n">
-        <v>0.01682530327717556</v>
+        <v>0.06084615299018242</v>
       </c>
       <c r="O87" t="n">
-        <v>0.01730925332728585</v>
+        <v>0.01698931408470402</v>
       </c>
     </row>
     <row r="88" ht="15" customHeight="1">
@@ -10133,28 +10159,28 @@
       <c r="C88" s="139" t="n"/>
       <c r="D88" s="139" t="n"/>
       <c r="F88" t="n">
-        <v>0.01732633379778099</v>
+        <v>0.02385306880885372</v>
       </c>
       <c r="G88" t="n">
+        <v>0.01552753464293516</v>
+      </c>
+      <c r="J88" t="n">
+        <v>0.01729526069947838</v>
+      </c>
+      <c r="K88" t="n">
         <v>0.01809603756943521</v>
       </c>
-      <c r="J88" t="n">
-        <v>0.04236939692525335</v>
-      </c>
-      <c r="K88" t="n">
-        <v>0.0178623208659775</v>
-      </c>
       <c r="L88" t="n">
-        <v>0.06173682565237693</v>
+        <v>0.04211015781955277</v>
       </c>
       <c r="M88" t="n">
-        <v>0.01785198607926657</v>
+        <v>0.01784953470268759</v>
       </c>
       <c r="N88" t="n">
-        <v>0.01732633379778099</v>
+        <v>0.06217679441594276</v>
       </c>
       <c r="O88" t="n">
-        <v>0.01809603756943521</v>
+        <v>0.01776155563400875</v>
       </c>
     </row>
     <row r="89" ht="15" customHeight="1">
@@ -10167,4780 +10193,6180 @@
         <v/>
       </c>
       <c r="F89" t="n">
-        <v>0.01782405654024714</v>
+        <v>0.02582480697119804</v>
       </c>
       <c r="G89" t="n">
+        <v>0.01612839897873102</v>
+      </c>
+      <c r="J89" t="n">
+        <v>0.01767744968019799</v>
+      </c>
+      <c r="K89" t="n">
         <v>0.01888282181158456</v>
       </c>
-      <c r="J89" t="n">
-        <v>0.04274221509062223</v>
-      </c>
-      <c r="K89" t="n">
-        <v>0.01863894351232434</v>
-      </c>
       <c r="L89" t="n">
-        <v>0.06325640512429132</v>
+        <v>0.04337564454099141</v>
       </c>
       <c r="M89" t="n">
-        <v>0.01862815938706076</v>
+        <v>0.01862560142889139</v>
       </c>
       <c r="N89" t="n">
-        <v>0.01782405654024714</v>
+        <v>0.06380890879429579</v>
       </c>
       <c r="O89" t="n">
-        <v>0.01888282181158456</v>
+        <v>0.01853379718331348</v>
       </c>
     </row>
     <row r="90" ht="15" customHeight="1">
       <c r="F90" t="n">
-        <v>0.01831771230588307</v>
+        <v>0.03182480697119804</v>
       </c>
       <c r="G90" t="n">
+        <v>0.01687340998480787</v>
+      </c>
+      <c r="J90" t="n">
+        <v>0.018058871082861</v>
+      </c>
+      <c r="K90" t="n">
         <v>0.01966960605373392</v>
       </c>
-      <c r="J90" t="n">
-        <v>0.0442926901152102</v>
-      </c>
-      <c r="K90" t="n">
-        <v>0.01941556615867119</v>
-      </c>
       <c r="L90" t="n">
-        <v>0.06506632476086632</v>
+        <v>0.04441827179399763</v>
       </c>
       <c r="M90" t="n">
-        <v>0.01940433269485496</v>
+        <v>0.0194016681550952</v>
       </c>
       <c r="N90" t="n">
-        <v>0.01831771230588307</v>
+        <v>0.0651399935068584</v>
       </c>
       <c r="O90" t="n">
-        <v>0.01966960605373392</v>
+        <v>0.0193060387326182</v>
       </c>
     </row>
     <row r="91" ht="15" customHeight="1">
       <c r="F91" t="n">
-        <v>0.0189065418959978</v>
+        <v>0.03289087960810195</v>
       </c>
       <c r="G91" t="n">
+        <v>0.0175528652485354</v>
+      </c>
+      <c r="J91" t="n">
+        <v>0.0185385825663099</v>
+      </c>
+      <c r="K91" t="n">
         <v>0.02045639029588328</v>
       </c>
-      <c r="J91" t="n">
-        <v>0.04482033270275265</v>
-      </c>
-      <c r="K91" t="n">
-        <v>0.02019218880501804</v>
-      </c>
       <c r="L91" t="n">
-        <v>0.06576441407453215</v>
+        <v>0.04543760048762524</v>
       </c>
       <c r="M91" t="n">
-        <v>0.02018050600264916</v>
+        <v>0.02017773488129901</v>
       </c>
       <c r="N91" t="n">
-        <v>0.0189065418959978</v>
+        <v>0.0663675459352473</v>
       </c>
       <c r="O91" t="n">
-        <v>0.02045639029588328</v>
+        <v>0.02007828028192293</v>
       </c>
     </row>
     <row r="92" ht="15" customHeight="1">
       <c r="F92" t="n">
-        <v>0.01938978611190031</v>
+        <v>0.03385461058863156</v>
       </c>
       <c r="G92" t="n">
+        <v>0.01822797545040215</v>
+      </c>
+      <c r="J92" t="n">
+        <v>0.0191156417893872</v>
+      </c>
+      <c r="K92" t="n">
         <v>0.02124317453803264</v>
       </c>
-      <c r="J92" t="n">
-        <v>0.045924653556985</v>
-      </c>
-      <c r="K92" t="n">
-        <v>0.02096881145136489</v>
-      </c>
       <c r="L92" t="n">
-        <v>0.06784850257771913</v>
+        <v>0.04603319153092802</v>
       </c>
       <c r="M92" t="n">
-        <v>0.02095667931044336</v>
+        <v>0.02095380160750282</v>
       </c>
       <c r="N92" t="n">
-        <v>0.01938978611190031</v>
+        <v>0.06768906346107939</v>
       </c>
       <c r="O92" t="n">
-        <v>0.02124317453803264</v>
+        <v>0.02085052183122766</v>
       </c>
     </row>
     <row r="93" ht="15" customHeight="1">
       <c r="F93" t="n">
-        <v>0.01986668575489964</v>
+        <v>0.03472859464651944</v>
       </c>
       <c r="G93" t="n">
+        <v>0.01890308565226889</v>
+      </c>
+      <c r="J93" t="n">
+        <v>0.01948910641093536</v>
+      </c>
+      <c r="K93" t="n">
         <v>0.02202995878018199</v>
       </c>
-      <c r="J93" t="n">
-        <v>0.04660516338164247</v>
-      </c>
-      <c r="K93" t="n">
-        <v>0.02174543409771174</v>
-      </c>
       <c r="L93" t="n">
-        <v>0.06931641978285735</v>
+        <v>0.04690460583295986</v>
       </c>
       <c r="M93" t="n">
-        <v>0.02173285261823756</v>
+        <v>0.02172986833370663</v>
       </c>
       <c r="N93" t="n">
-        <v>0.01986668575489964</v>
+        <v>0.06860204346597149</v>
       </c>
       <c r="O93" t="n">
-        <v>0.02202995878018199</v>
+        <v>0.02162276338053239</v>
       </c>
     </row>
     <row r="94" ht="15" customHeight="1">
       <c r="F94" t="n">
-        <v>0.02043648162630479</v>
+        <v>0.03551829094015268</v>
       </c>
       <c r="G94" t="n">
+        <v>0.01957819585413564</v>
+      </c>
+      <c r="J94" t="n">
+        <v>0.0201580340897969</v>
+      </c>
+      <c r="K94" t="n">
         <v>0.02281674302233135</v>
       </c>
-      <c r="J94" t="n">
-        <v>0.04736137288046049</v>
-      </c>
-      <c r="K94" t="n">
-        <v>0.02252205674405858</v>
-      </c>
       <c r="L94" t="n">
-        <v>0.06996599520237701</v>
+        <v>0.04785140430277451</v>
       </c>
       <c r="M94" t="n">
-        <v>0.02250902592603176</v>
+        <v>0.02250593505991044</v>
       </c>
       <c r="N94" t="n">
-        <v>0.02043648162630479</v>
+        <v>0.07040398333154041</v>
       </c>
       <c r="O94" t="n">
-        <v>0.02281674302233135</v>
+        <v>0.02239500492983712</v>
       </c>
     </row>
     <row r="95" ht="15" customHeight="1">
       <c r="F95" t="n">
-        <v>0.02089841452742479</v>
+        <v>0.03622915862791839</v>
       </c>
       <c r="G95" t="n">
+        <v>0.02025330605600239</v>
+      </c>
+      <c r="J95" t="n">
+        <v>0.02062148248481428</v>
+      </c>
+      <c r="K95" t="n">
         <v>0.02360352726448071</v>
       </c>
-      <c r="J95" t="n">
-        <v>0.04849279275717439</v>
-      </c>
-      <c r="K95" t="n">
-        <v>0.02329867939040543</v>
-      </c>
       <c r="L95" t="n">
-        <v>0.07179505834870853</v>
+        <v>0.04837314784942584</v>
       </c>
       <c r="M95" t="n">
-        <v>0.02328519923382595</v>
+        <v>0.02328200178611424</v>
       </c>
       <c r="N95" t="n">
-        <v>0.02089841452742479</v>
+        <v>0.07099238043940287</v>
       </c>
       <c r="O95" t="n">
-        <v>0.02360352726448071</v>
+        <v>0.02316724647914185</v>
       </c>
     </row>
     <row r="96" ht="15" customHeight="1">
       <c r="F96" t="n">
-        <v>0.02115172525956864</v>
+        <v>0.03686665686820361</v>
       </c>
       <c r="G96" t="n">
+        <v>0.02092841625786913</v>
+      </c>
+      <c r="J96" t="n">
+        <v>0.02087850925483002</v>
+      </c>
+      <c r="K96" t="n">
         <v>0.02439031150663007</v>
       </c>
-      <c r="J96" t="n">
-        <v>0.04939893371551948</v>
-      </c>
-      <c r="K96" t="n">
-        <v>0.02407530203675228</v>
-      </c>
       <c r="L96" t="n">
-        <v>0.07310143873428204</v>
+        <v>0.04946939738196759</v>
       </c>
       <c r="M96" t="n">
-        <v>0.02406137254162015</v>
+        <v>0.02405806851231805</v>
       </c>
       <c r="N96" t="n">
-        <v>0.02115172525956864</v>
+        <v>0.07226473217117585</v>
       </c>
       <c r="O96" t="n">
-        <v>0.02439031150663007</v>
+        <v>0.02393948802844658</v>
       </c>
     </row>
     <row r="97" ht="15" customHeight="1">
       <c r="F97" t="n">
-        <v>0.02159565462404536</v>
+        <v>0.03743624481939548</v>
       </c>
       <c r="G97" t="n">
+        <v>0.02160352645973588</v>
+      </c>
+      <c r="J97" t="n">
+        <v>0.02132817205868663</v>
+      </c>
+      <c r="K97" t="n">
         <v>0.02517709574877942</v>
       </c>
-      <c r="J97" t="n">
-        <v>0.05027930645923112</v>
-      </c>
-      <c r="K97" t="n">
-        <v>0.02485192468309913</v>
-      </c>
       <c r="L97" t="n">
-        <v>0.07438296587152776</v>
+        <v>0.05043971380945364</v>
       </c>
       <c r="M97" t="n">
-        <v>0.02483754584941435</v>
+        <v>0.02483413523852186</v>
       </c>
       <c r="N97" t="n">
-        <v>0.02159565462404536</v>
+        <v>0.07371853590847616</v>
       </c>
       <c r="O97" t="n">
-        <v>0.02517709574877942</v>
+        <v>0.0247117295777513</v>
       </c>
     </row>
     <row r="98" ht="15" customHeight="1">
       <c r="F98" t="n">
-        <v>0.022129443422164</v>
+        <v>0.03794338163988104</v>
       </c>
       <c r="G98" t="n">
+        <v>0.02227863666160262</v>
+      </c>
+      <c r="J98" t="n">
+        <v>0.02186952855522656</v>
+      </c>
+      <c r="K98" t="n">
         <v>0.02596387999092878</v>
       </c>
-      <c r="J98" t="n">
-        <v>0.05063342169204463</v>
-      </c>
-      <c r="K98" t="n">
-        <v>0.02562854732944598</v>
-      </c>
       <c r="L98" t="n">
-        <v>0.07543746927287592</v>
+        <v>0.05078365804093776</v>
       </c>
       <c r="M98" t="n">
-        <v>0.02561371915720855</v>
+        <v>0.02561020196472567</v>
       </c>
       <c r="N98" t="n">
-        <v>0.022129443422164</v>
+        <v>0.0747512890329205</v>
       </c>
       <c r="O98" t="n">
-        <v>0.02596387999092878</v>
+        <v>0.02548397112705603</v>
       </c>
     </row>
     <row r="99" ht="15" customHeight="1">
       <c r="F99" t="n">
-        <v>0.02245233245523351</v>
+        <v>0.03839352648804744</v>
       </c>
       <c r="G99" t="n">
+        <v>0.02295374686346937</v>
+      </c>
+      <c r="J99" t="n">
+        <v>0.02230163640329234</v>
+      </c>
+      <c r="K99" t="n">
         <v>0.02675066423307814</v>
       </c>
-      <c r="J99" t="n">
-        <v>0.05176079011769544</v>
-      </c>
-      <c r="K99" t="n">
-        <v>0.02640516997579282</v>
-      </c>
       <c r="L99" t="n">
-        <v>0.07656277845075676</v>
+        <v>0.05160079098547382</v>
       </c>
       <c r="M99" t="n">
-        <v>0.02638989246500275</v>
+        <v>0.02638626869092947</v>
       </c>
       <c r="N99" t="n">
-        <v>0.02245233245523351</v>
+        <v>0.07636048892612585</v>
       </c>
       <c r="O99" t="n">
-        <v>0.02675066423307814</v>
+        <v>0.02625621267636076</v>
       </c>
     </row>
     <row r="100" ht="15" customHeight="1">
       <c r="F100" t="n">
-        <v>0.02286356252456295</v>
+        <v>0.03879213852228169</v>
       </c>
       <c r="G100" t="n">
+        <v>0.02362885706533611</v>
+      </c>
+      <c r="J100" t="n">
+        <v>0.02262355326172644</v>
+      </c>
+      <c r="K100" t="n">
         <v>0.02753744847522749</v>
       </c>
-      <c r="J100" t="n">
-        <v>0.05226092243991881</v>
-      </c>
-      <c r="K100" t="n">
-        <v>0.02718179262213967</v>
-      </c>
       <c r="L100" t="n">
-        <v>0.07755672291760052</v>
+        <v>0.05199067355211556</v>
       </c>
       <c r="M100" t="n">
-        <v>0.02716606577279694</v>
+        <v>0.02716233541713329</v>
       </c>
       <c r="N100" t="n">
-        <v>0.02286356252456295</v>
+        <v>0.07704363296970895</v>
       </c>
       <c r="O100" t="n">
-        <v>0.02753744847522749</v>
+        <v>0.02702845422566549</v>
       </c>
     </row>
     <row r="101" ht="15" customHeight="1">
       <c r="F101" t="n">
-        <v>0.02346237443146135</v>
+        <v>0.03914467690097095</v>
       </c>
       <c r="G101" t="n">
+        <v>0.02430396726720286</v>
+      </c>
+      <c r="J101" t="n">
+        <v>0.02313433678937135</v>
+      </c>
+      <c r="K101" t="n">
         <v>0.02832423271737685</v>
       </c>
-      <c r="J101" t="n">
-        <v>0.05303332936245012</v>
-      </c>
-      <c r="K101" t="n">
-        <v>0.02795841526848652</v>
-      </c>
       <c r="L101" t="n">
-        <v>0.07881713218583741</v>
+        <v>0.05275286664991685</v>
       </c>
       <c r="M101" t="n">
-        <v>0.02794223908059114</v>
+        <v>0.02793840214333709</v>
       </c>
       <c r="N101" t="n">
-        <v>0.02346237443146135</v>
+        <v>0.07859821854528654</v>
       </c>
       <c r="O101" t="n">
-        <v>0.02832423271737685</v>
+        <v>0.02780069577497022</v>
       </c>
     </row>
     <row r="102" ht="15" customHeight="1">
       <c r="F102" t="n">
-        <v>0.02364800897723769</v>
+        <v>0.03945660078250226</v>
       </c>
       <c r="G102" t="n">
+        <v>0.0249790774690696</v>
+      </c>
+      <c r="J102" t="n">
+        <v>0.0234330446450696</v>
+      </c>
+      <c r="K102" t="n">
         <v>0.02911101695952621</v>
       </c>
-      <c r="J102" t="n">
-        <v>0.05327752158902468</v>
-      </c>
-      <c r="K102" t="n">
-        <v>0.02873503791483336</v>
-      </c>
       <c r="L102" t="n">
-        <v>0.07974183576789767</v>
+        <v>0.05368693118793147</v>
       </c>
       <c r="M102" t="n">
-        <v>0.02871841238838534</v>
+        <v>0.0287144688695409</v>
       </c>
       <c r="N102" t="n">
-        <v>0.02364800897723769</v>
+        <v>0.07942174303447558</v>
       </c>
       <c r="O102" t="n">
-        <v>0.02911101695952621</v>
+        <v>0.02857293732427495</v>
       </c>
     </row>
     <row r="103" ht="15" customHeight="1">
       <c r="F103" t="n">
-        <v>0.024119706963201</v>
+        <v>0.03973336932526272</v>
       </c>
       <c r="G103" t="n">
+        <v>0.02565418767093635</v>
+      </c>
+      <c r="J103" t="n">
+        <v>0.02401873448766365</v>
+      </c>
+      <c r="K103" t="n">
         <v>0.02989780120167556</v>
       </c>
-      <c r="J103" t="n">
-        <v>0.05389300982337789</v>
-      </c>
-      <c r="K103" t="n">
-        <v>0.02951166056118021</v>
-      </c>
       <c r="L103" t="n">
-        <v>0.08152866317621166</v>
+        <v>0.05449242807521326</v>
       </c>
       <c r="M103" t="n">
-        <v>0.02949458569617954</v>
+        <v>0.02949053559574471</v>
       </c>
       <c r="N103" t="n">
-        <v>0.024119706963201</v>
+        <v>0.0804117038188929</v>
       </c>
       <c r="O103" t="n">
-        <v>0.02989780120167556</v>
+        <v>0.02934517887357967</v>
       </c>
     </row>
     <row r="104" ht="15" customHeight="1">
       <c r="F104" t="n">
-        <v>0.02447670919066028</v>
+        <v>0.03998044168763943</v>
       </c>
       <c r="G104" t="n">
+        <v>0.0263292978728031</v>
+      </c>
+      <c r="J104" t="n">
+        <v>0.02429046397599599</v>
+      </c>
+      <c r="K104" t="n">
         <v>0.03068458544382492</v>
       </c>
-      <c r="J104" t="n">
-        <v>0.05447930476924503</v>
-      </c>
-      <c r="K104" t="n">
-        <v>0.03028828320752706</v>
-      </c>
       <c r="L104" t="n">
-        <v>0.08187544392320939</v>
+        <v>0.05456891822081603</v>
       </c>
       <c r="M104" t="n">
-        <v>0.03027075900397374</v>
+        <v>0.03026660232194852</v>
       </c>
       <c r="N104" t="n">
-        <v>0.02447670919066028</v>
+        <v>0.08226559828015523</v>
       </c>
       <c r="O104" t="n">
-        <v>0.03068458544382492</v>
+        <v>0.0301174204228844</v>
       </c>
     </row>
     <row r="105" ht="15" customHeight="1">
       <c r="F105" t="n">
-        <v>0.02481825646092459</v>
+        <v>0.04020327702801945</v>
       </c>
       <c r="G105" t="n">
+        <v>0.02700440807466984</v>
+      </c>
+      <c r="J105" t="n">
+        <v>0.02454729076890912</v>
+      </c>
+      <c r="K105" t="n">
         <v>0.03147136968597428</v>
       </c>
-      <c r="J105" t="n">
-        <v>0.05523591713036149</v>
-      </c>
-      <c r="K105" t="n">
-        <v>0.03106490585387391</v>
-      </c>
       <c r="L105" t="n">
-        <v>0.08368000752132121</v>
+        <v>0.05541596253379358</v>
       </c>
       <c r="M105" t="n">
-        <v>0.03104693231176794</v>
+        <v>0.03104266904815233</v>
       </c>
       <c r="N105" t="n">
-        <v>0.02481825646092459</v>
+        <v>0.08318092379987946</v>
       </c>
       <c r="O105" t="n">
-        <v>0.03147136968597428</v>
+        <v>0.03088966197218913</v>
       </c>
     </row>
     <row r="106" ht="15" customHeight="1">
       <c r="F106" t="n">
-        <v>0.02524358957530289</v>
+        <v>0.04040733450478989</v>
       </c>
       <c r="G106" t="n">
+        <v>0.02767951827653659</v>
+      </c>
+      <c r="J106" t="n">
+        <v>0.02488827252524554</v>
+      </c>
+      <c r="K106" t="n">
         <v>0.03225815392812364</v>
       </c>
-      <c r="J106" t="n">
-        <v>0.05576235761046264</v>
-      </c>
-      <c r="K106" t="n">
-        <v>0.03184152850022075</v>
-      </c>
       <c r="L106" t="n">
-        <v>0.08434018348297734</v>
+        <v>0.05553312192319976</v>
       </c>
       <c r="M106" t="n">
-        <v>0.03182310561956214</v>
+        <v>0.03181873577435614</v>
       </c>
       <c r="N106" t="n">
-        <v>0.02524358957530289</v>
+        <v>0.08435517775968232</v>
       </c>
       <c r="O106" t="n">
-        <v>0.03225815392812364</v>
+        <v>0.03166190352149386</v>
       </c>
     </row>
     <row r="107" ht="15" customHeight="1">
       <c r="F107" t="n">
-        <v>0.02535194933510423</v>
+        <v>0.04059807327633786</v>
       </c>
       <c r="G107" t="n">
+        <v>0.02835462847840334</v>
+      </c>
+      <c r="J107" t="n">
+        <v>0.02541246690384777</v>
+      </c>
+      <c r="K107" t="n">
         <v>0.03304493817027299</v>
       </c>
-      <c r="J107" t="n">
-        <v>0.05655813691328374</v>
-      </c>
-      <c r="K107" t="n">
-        <v>0.0326181511465676</v>
-      </c>
       <c r="L107" t="n">
-        <v>0.08525380132060806</v>
+        <v>0.05661995729808836</v>
       </c>
       <c r="M107" t="n">
-        <v>0.03259927892735633</v>
+        <v>0.03259480250055994</v>
       </c>
       <c r="N107" t="n">
-        <v>0.02535194933510423</v>
+        <v>0.08528585754118073</v>
       </c>
       <c r="O107" t="n">
-        <v>0.03304493817027299</v>
+        <v>0.03243414507079859</v>
       </c>
     </row>
     <row r="108" ht="15" customHeight="1">
       <c r="F108" t="n">
-        <v>0.02584257654163762</v>
+        <v>0.04078095250105041</v>
       </c>
       <c r="G108" t="n">
+        <v>0.02902973868027009</v>
+      </c>
+      <c r="J108" t="n">
+        <v>0.02551893156355824</v>
+      </c>
+      <c r="K108" t="n">
         <v>0.03383172241242235</v>
       </c>
-      <c r="J108" t="n">
-        <v>0.05652276574256018</v>
-      </c>
-      <c r="K108" t="n">
-        <v>0.03339477379291445</v>
-      </c>
       <c r="L108" t="n">
-        <v>0.08631869054664359</v>
+        <v>0.05657602956751318</v>
       </c>
       <c r="M108" t="n">
-        <v>0.03337545223515054</v>
+        <v>0.03337086922676374</v>
       </c>
       <c r="N108" t="n">
-        <v>0.02584257654163762</v>
+        <v>0.08547046052599144</v>
       </c>
       <c r="O108" t="n">
-        <v>0.03383172241242235</v>
+        <v>0.03320638662010331</v>
       </c>
     </row>
     <row r="109" ht="15" customHeight="1">
       <c r="F109" t="n">
-        <v>0.02601471199621205</v>
+        <v>0.04096143133731463</v>
       </c>
       <c r="G109" t="n">
+        <v>0.02970484888213683</v>
+      </c>
+      <c r="J109" t="n">
+        <v>0.02600672416321949</v>
+      </c>
+      <c r="K109" t="n">
         <v>0.0346185066545717</v>
       </c>
-      <c r="J109" t="n">
-        <v>0.05735575480202731</v>
-      </c>
-      <c r="K109" t="n">
-        <v>0.0341713964392613</v>
-      </c>
       <c r="L109" t="n">
-        <v>0.087032680673514</v>
+        <v>0.05700089964052804</v>
       </c>
       <c r="M109" t="n">
-        <v>0.03415162554294473</v>
+        <v>0.03414693595296756</v>
       </c>
       <c r="N109" t="n">
-        <v>0.02601471199621205</v>
+        <v>0.08630648409573138</v>
       </c>
       <c r="O109" t="n">
-        <v>0.0346185066545717</v>
+        <v>0.03397862816940805</v>
       </c>
     </row>
     <row r="110" ht="15" customHeight="1">
       <c r="F110" t="n">
-        <v>0.02616759650013659</v>
+        <v>0.04114496894351764</v>
       </c>
       <c r="G110" t="n">
+        <v>0.03037995908400358</v>
+      </c>
+      <c r="J110" t="n">
+        <v>0.026174902361674</v>
+      </c>
+      <c r="K110" t="n">
         <v>0.03540529089672106</v>
       </c>
-      <c r="J110" t="n">
-        <v>0.05755661479542051</v>
-      </c>
-      <c r="K110" t="n">
-        <v>0.03494801908560814</v>
-      </c>
       <c r="L110" t="n">
-        <v>0.08769360121364972</v>
+        <v>0.0573941284261868</v>
       </c>
       <c r="M110" t="n">
-        <v>0.03492779885073893</v>
+        <v>0.03492300267917137</v>
       </c>
       <c r="N110" t="n">
-        <v>0.02616759650013659</v>
+        <v>0.08739142563201724</v>
       </c>
       <c r="O110" t="n">
-        <v>0.03540529089672106</v>
+        <v>0.03475086971871277</v>
       </c>
     </row>
     <row r="111" ht="15" customHeight="1">
       <c r="F111" t="n">
-        <v>0.02660047085472021</v>
+        <v>0.04133702447804648</v>
       </c>
       <c r="G111" t="n">
+        <v>0.03105506928587033</v>
+      </c>
+      <c r="J111" t="n">
+        <v>0.02652252381776425</v>
+      </c>
+      <c r="K111" t="n">
         <v>0.03619207513887042</v>
       </c>
-      <c r="J111" t="n">
-        <v>0.05782485642647503</v>
-      </c>
-      <c r="K111" t="n">
-        <v>0.03572464173195499</v>
-      </c>
       <c r="L111" t="n">
-        <v>0.08859928167948095</v>
+        <v>0.05825527683354323</v>
       </c>
       <c r="M111" t="n">
-        <v>0.03570397215853313</v>
+        <v>0.03569906940537517</v>
       </c>
       <c r="N111" t="n">
-        <v>0.02660047085472021</v>
+        <v>0.08822278251646587</v>
       </c>
       <c r="O111" t="n">
-        <v>0.03619207513887042</v>
+        <v>0.0355231112680175</v>
       </c>
     </row>
     <row r="112" ht="15" customHeight="1">
       <c r="F112" t="n">
-        <v>0.02671257586127196</v>
+        <v>0.04154058536802503</v>
       </c>
       <c r="G112" t="n">
+        <v>0.03173017948773707</v>
+      </c>
+      <c r="J112" t="n">
+        <v>0.02674864619033275</v>
+      </c>
+      <c r="K112" t="n">
         <v>0.03697885938101977</v>
       </c>
-      <c r="J112" t="n">
-        <v>0.05805999039892629</v>
-      </c>
-      <c r="K112" t="n">
-        <v>0.03650126437830184</v>
-      </c>
       <c r="L112" t="n">
-        <v>0.08904755158343786</v>
+        <v>0.05848390577165113</v>
       </c>
       <c r="M112" t="n">
-        <v>0.03648014546632733</v>
+        <v>0.03647513613157898</v>
       </c>
       <c r="N112" t="n">
-        <v>0.02671257586127196</v>
+        <v>0.08839805213069429</v>
       </c>
       <c r="O112" t="n">
-        <v>0.03697885938101977</v>
+        <v>0.03629535281732223</v>
       </c>
     </row>
     <row r="113" ht="15" customHeight="1">
       <c r="F113" t="n">
-        <v>0.0268031523211008</v>
+        <v>0.04174434084718551</v>
       </c>
       <c r="G113" t="n">
+        <v>0.03240528968960382</v>
+      </c>
+      <c r="J113" t="n">
+        <v>0.026752327138222</v>
+      </c>
+      <c r="K113" t="n">
         <v>0.03776564362316913</v>
       </c>
-      <c r="J113" t="n">
-        <v>0.05876152741650964</v>
-      </c>
-      <c r="K113" t="n">
-        <v>0.03727788702464869</v>
-      </c>
       <c r="L113" t="n">
-        <v>0.08983624043795069</v>
+        <v>0.05877957614956436</v>
       </c>
       <c r="M113" t="n">
-        <v>0.03725631877412152</v>
+        <v>0.03725120285778279</v>
       </c>
       <c r="N113" t="n">
-        <v>0.0268031523211008</v>
+        <v>0.08891473185631904</v>
       </c>
       <c r="O113" t="n">
-        <v>0.03776564362316913</v>
+        <v>0.03706759436662695</v>
       </c>
     </row>
     <row r="114" ht="15" customHeight="1">
       <c r="F114" t="n">
-        <v>0.02697144103551578</v>
+        <v>0.04194602032478591</v>
       </c>
       <c r="G114" t="n">
+        <v>0.03308039989147056</v>
+      </c>
+      <c r="J114" t="n">
+        <v>0.02693262432027446</v>
+      </c>
+      <c r="K114" t="n">
         <v>0.03855242786531848</v>
       </c>
-      <c r="J114" t="n">
-        <v>0.05902897818296035</v>
-      </c>
-      <c r="K114" t="n">
-        <v>0.03805450967099554</v>
-      </c>
       <c r="L114" t="n">
-        <v>0.09036317775544966</v>
+        <v>0.05904184887633671</v>
       </c>
       <c r="M114" t="n">
-        <v>0.03803249208191573</v>
+        <v>0.0380272695839866</v>
       </c>
       <c r="N114" t="n">
-        <v>0.02697144103551578</v>
+        <v>0.09007031907495705</v>
       </c>
       <c r="O114" t="n">
-        <v>0.03855242786531848</v>
+        <v>0.03783983591593168</v>
       </c>
     </row>
     <row r="115" ht="15" customHeight="1">
       <c r="F115" t="n">
-        <v>0.02731668280582596</v>
+        <v>0.04214554932653853</v>
       </c>
       <c r="G115" t="n">
+        <v>0.03375551009333731</v>
+      </c>
+      <c r="J115" t="n">
+        <v>0.02728859539533268</v>
+      </c>
+      <c r="K115" t="n">
         <v>0.03933921210746785</v>
       </c>
-      <c r="J115" t="n">
-        <v>0.05936185340201378</v>
-      </c>
-      <c r="K115" t="n">
-        <v>0.03883113231734239</v>
-      </c>
       <c r="L115" t="n">
-        <v>0.09082619304836509</v>
+        <v>0.05937028486102194</v>
       </c>
       <c r="M115" t="n">
-        <v>0.03880866538970992</v>
+        <v>0.03880333631019041</v>
       </c>
       <c r="N115" t="n">
-        <v>0.02731668280582596</v>
+        <v>0.09036231116822524</v>
       </c>
       <c r="O115" t="n">
-        <v>0.03933921210746785</v>
+        <v>0.03861207746523641</v>
       </c>
     </row>
     <row r="116" ht="15" customHeight="1">
       <c r="F116" t="n">
-        <v>0.02743811843334028</v>
+        <v>0.0423428533781556</v>
       </c>
       <c r="G116" t="n">
+        <v>0.03443062029520405</v>
+      </c>
+      <c r="J116" t="n">
+        <v>0.02741929802223909</v>
+      </c>
+      <c r="K116" t="n">
         <v>0.0401259963496172</v>
       </c>
-      <c r="J116" t="n">
-        <v>0.05955966377740537</v>
-      </c>
-      <c r="K116" t="n">
-        <v>0.03960775496368923</v>
-      </c>
       <c r="L116" t="n">
-        <v>0.0909231158291271</v>
+        <v>0.059264445012674</v>
       </c>
       <c r="M116" t="n">
-        <v>0.03958483869750412</v>
+        <v>0.03957940303639421</v>
       </c>
       <c r="N116" t="n">
-        <v>0.02743811843334028</v>
+        <v>0.09058820551774038</v>
       </c>
       <c r="O116" t="n">
-        <v>0.0401259963496172</v>
+        <v>0.03938431901454114</v>
       </c>
     </row>
     <row r="117" ht="15" customHeight="1">
       <c r="F117" t="n">
-        <v>0.02743498871936779</v>
+        <v>0.04253785800534942</v>
       </c>
       <c r="G117" t="n">
+        <v>0.0351057304970708</v>
+      </c>
+      <c r="J117" t="n">
+        <v>0.02742378985983623</v>
+      </c>
+      <c r="K117" t="n">
         <v>0.04091278059176656</v>
       </c>
-      <c r="J117" t="n">
-        <v>0.05962192001287037</v>
-      </c>
-      <c r="K117" t="n">
-        <v>0.04038437761003608</v>
-      </c>
       <c r="L117" t="n">
-        <v>0.091351775610166</v>
+        <v>0.05972389024034658</v>
       </c>
       <c r="M117" t="n">
-        <v>0.04036101200529832</v>
+        <v>0.04035546976259802</v>
       </c>
       <c r="N117" t="n">
-        <v>0.02743498871936779</v>
+        <v>0.09134549950511917</v>
       </c>
       <c r="O117" t="n">
-        <v>0.04091278059176656</v>
+        <v>0.04015656056384587</v>
       </c>
     </row>
     <row r="118" ht="15" customHeight="1">
       <c r="F118" t="n">
-        <v>0.0275065344652175</v>
+        <v>0.04273048873383225</v>
       </c>
       <c r="G118" t="n">
+        <v>0.03578084069893755</v>
+      </c>
+      <c r="J118" t="n">
+        <v>0.02740112856696655</v>
+      </c>
+      <c r="K118" t="n">
         <v>0.04169956483391592</v>
       </c>
-      <c r="J118" t="n">
-        <v>0.05954813281214413</v>
-      </c>
-      <c r="K118" t="n">
-        <v>0.04116100025638293</v>
-      </c>
       <c r="L118" t="n">
-        <v>0.09201000190391201</v>
+        <v>0.05984818145309354</v>
       </c>
       <c r="M118" t="n">
-        <v>0.04113718531309252</v>
+        <v>0.04113153648880184</v>
       </c>
       <c r="N118" t="n">
-        <v>0.0275065344652175</v>
+        <v>0.09173169051197866</v>
       </c>
       <c r="O118" t="n">
-        <v>0.04169956483391592</v>
+        <v>0.04092880211315059</v>
       </c>
     </row>
     <row r="119" ht="15" customHeight="1">
       <c r="F119" t="n">
+        <v>0.04292067108931632</v>
+      </c>
+      <c r="G119" t="n">
+        <v>0.03645595090080429</v>
+      </c>
+      <c r="J119" t="n">
         <v>0.02767105768882022</v>
       </c>
-      <c r="G119" t="n">
+      <c r="K119" t="n">
         <v>0.04248634907606528</v>
       </c>
-      <c r="J119" t="n">
-        <v>0.05973781287896204</v>
-      </c>
-      <c r="K119" t="n">
-        <v>0.04193762290272977</v>
-      </c>
       <c r="L119" t="n">
-        <v>0.09159562422279538</v>
+        <v>0.05943687955996871</v>
       </c>
       <c r="M119" t="n">
-        <v>0.04191335862088672</v>
+        <v>0.04190760321500564</v>
       </c>
       <c r="N119" t="n">
-        <v>0.02767105768882022</v>
+        <v>0.09154427591993547</v>
       </c>
       <c r="O119" t="n">
-        <v>0.04248634907606528</v>
+        <v>0.04170104366245533</v>
       </c>
     </row>
     <row r="120" ht="15" customHeight="1">
       <c r="F120" t="n">
-        <v>0.02757061554161962</v>
+        <v>0.04310833059751392</v>
       </c>
       <c r="G120" t="n">
+        <v>0.03713106110267104</v>
+      </c>
+      <c r="J120" t="n">
+        <v>0.02767057722519682</v>
+      </c>
+      <c r="K120" t="n">
         <v>0.04327313331821463</v>
       </c>
-      <c r="J120" t="n">
+      <c r="L120" t="n">
         <v>0.06000580492204047</v>
       </c>
-      <c r="K120" t="n">
-        <v>0.04271424554907662</v>
-      </c>
-      <c r="L120" t="n">
+      <c r="M120" t="n">
+        <v>0.04268366994120944</v>
+      </c>
+      <c r="N120" t="n">
         <v>0.09234055215526071</v>
       </c>
-      <c r="M120" t="n">
-        <v>0.04268953192868091</v>
-      </c>
-      <c r="N120" t="n">
-        <v>0.02757061554161962</v>
-      </c>
       <c r="O120" t="n">
-        <v>0.04327313331821463</v>
+        <v>0.04247328521176005</v>
       </c>
     </row>
     <row r="121" ht="15" customHeight="1">
       <c r="F121" t="n">
-        <v>0.02767006263719354</v>
+        <v>0.04329339278413733</v>
       </c>
       <c r="G121" t="n">
+        <v>0.03780617130453778</v>
+      </c>
+      <c r="J121" t="n">
+        <v>0.02746607014710546</v>
+      </c>
+      <c r="K121" t="n">
         <v>0.04405991756036399</v>
       </c>
-      <c r="J121" t="n">
-        <v>0.05980567455398253</v>
-      </c>
-      <c r="K121" t="n">
-        <v>0.04349086819542347</v>
-      </c>
       <c r="L121" t="n">
-        <v>0.09174048875351615</v>
+        <v>0.06000576789606071</v>
       </c>
       <c r="M121" t="n">
-        <v>0.04346570523647511</v>
+        <v>0.04345973666741326</v>
       </c>
       <c r="N121" t="n">
-        <v>0.02767006263719354</v>
+        <v>0.09233861946560851</v>
       </c>
       <c r="O121" t="n">
-        <v>0.04405991756036399</v>
+        <v>0.04324552676106478</v>
       </c>
     </row>
     <row r="122" ht="15" customHeight="1">
       <c r="F122" t="n">
-        <v>0.02766618427806802</v>
+        <v>0.0434757831748988</v>
       </c>
       <c r="G122" t="n">
+        <v>0.03848128150640453</v>
+      </c>
+      <c r="J122" t="n">
+        <v>0.02744688905277543</v>
+      </c>
+      <c r="K122" t="n">
         <v>0.04484670180251334</v>
       </c>
-      <c r="J122" t="n">
-        <v>0.05989006819794865</v>
-      </c>
-      <c r="K122" t="n">
-        <v>0.04426749084177032</v>
-      </c>
       <c r="L122" t="n">
-        <v>0.09182461811570036</v>
+        <v>0.05989411756049698</v>
       </c>
       <c r="M122" t="n">
-        <v>0.04424187854426932</v>
+        <v>0.04423580339361706</v>
       </c>
       <c r="N122" t="n">
-        <v>0.02766618427806802</v>
+        <v>0.09192304193138834</v>
       </c>
       <c r="O122" t="n">
-        <v>0.04484670180251334</v>
+        <v>0.04401776831036951</v>
       </c>
     </row>
     <row r="123" ht="15" customHeight="1">
       <c r="F123" t="n">
-        <v>0.02745941131474178</v>
+        <v>0.04365542729551059</v>
       </c>
       <c r="G123" t="n">
+        <v>0.03915639170827128</v>
+      </c>
+      <c r="J123" t="n">
+        <v>0.02751392300607648</v>
+      </c>
+      <c r="K123" t="n">
         <v>0.0456334860446627</v>
       </c>
-      <c r="J123" t="n">
-        <v>0.05934926641125221</v>
-      </c>
-      <c r="K123" t="n">
-        <v>0.04504411348811716</v>
-      </c>
       <c r="L123" t="n">
-        <v>0.09158136028896741</v>
+        <v>0.05966214195796404</v>
       </c>
       <c r="M123" t="n">
-        <v>0.04501805185206351</v>
+        <v>0.04501187011982087</v>
       </c>
       <c r="N123" t="n">
-        <v>0.02745941131474178</v>
+        <v>0.0921510161440503</v>
       </c>
       <c r="O123" t="n">
-        <v>0.0456334860446627</v>
+        <v>0.04479000985967424</v>
       </c>
     </row>
     <row r="124" ht="15" customHeight="1">
       <c r="F124" t="n">
-        <v>0.02764977974765301</v>
+        <v>0.04383225067168498</v>
       </c>
       <c r="G124" t="n">
+        <v>0.03983150191013802</v>
+      </c>
+      <c r="J124" t="n">
+        <v>0.0275678201660307</v>
+      </c>
+      <c r="K124" t="n">
         <v>0.04642027028681206</v>
       </c>
-      <c r="J124" t="n">
-        <v>0.05988442568389463</v>
-      </c>
-      <c r="K124" t="n">
-        <v>0.04582073613446401</v>
-      </c>
       <c r="L124" t="n">
-        <v>0.09201156754172285</v>
+        <v>0.05991055807347231</v>
       </c>
       <c r="M124" t="n">
-        <v>0.0457942251598577</v>
+        <v>0.04578793684602468</v>
       </c>
       <c r="N124" t="n">
-        <v>0.02764977974765301</v>
+        <v>0.09202567786601645</v>
       </c>
       <c r="O124" t="n">
-        <v>0.04642027028681206</v>
+        <v>0.04556225140897897</v>
       </c>
     </row>
     <row r="125" ht="15" customHeight="1">
       <c r="F125" t="n">
-        <v>0.02743732557723989</v>
+        <v>0.04400617882913423</v>
       </c>
       <c r="G125" t="n">
+        <v>0.04050661211200477</v>
+      </c>
+      <c r="J125" t="n">
+        <v>0.02730922869166004</v>
+      </c>
+      <c r="K125" t="n">
         <v>0.04720705452896141</v>
       </c>
-      <c r="J125" t="n">
-        <v>0.05959670250587712</v>
-      </c>
-      <c r="K125" t="n">
-        <v>0.04659735878081086</v>
-      </c>
       <c r="L125" t="n">
-        <v>0.09141609214237223</v>
+        <v>0.05924008289203217</v>
       </c>
       <c r="M125" t="n">
-        <v>0.04657039846765191</v>
+        <v>0.04656400357222849</v>
       </c>
       <c r="N125" t="n">
-        <v>0.02743732557723989</v>
+        <v>0.09164960834812147</v>
       </c>
       <c r="O125" t="n">
-        <v>0.04720705452896141</v>
+        <v>0.04633449295828369</v>
       </c>
     </row>
     <row r="126" ht="15" customHeight="1">
       <c r="F126" t="n">
-        <v>0.0276220848039407</v>
+        <v>0.04417713729357062</v>
       </c>
       <c r="G126" t="n">
+        <v>0.04118172231387152</v>
+      </c>
+      <c r="J126" t="n">
+        <v>0.02723879674198661</v>
+      </c>
+      <c r="K126" t="n">
         <v>0.04799383877111077</v>
       </c>
-      <c r="J126" t="n">
-        <v>0.05908725336720114</v>
-      </c>
-      <c r="K126" t="n">
-        <v>0.04737398142715771</v>
-      </c>
       <c r="L126" t="n">
-        <v>0.09169578635932113</v>
+        <v>0.059451433398654</v>
       </c>
       <c r="M126" t="n">
-        <v>0.04734657177544611</v>
+        <v>0.04734007029843229</v>
       </c>
       <c r="N126" t="n">
-        <v>0.0276220848039407</v>
+        <v>0.09162538884120019</v>
       </c>
       <c r="O126" t="n">
-        <v>0.04799383877111077</v>
+        <v>0.04710673450758842</v>
       </c>
     </row>
     <row r="127" ht="15" customHeight="1">
       <c r="F127" t="n">
-        <v>0.02760409342819363</v>
+        <v>0.04434505159070638</v>
       </c>
       <c r="G127" t="n">
+        <v>0.04185683251573826</v>
+      </c>
+      <c r="J127" t="n">
+        <v>0.02735717247603242</v>
+      </c>
+      <c r="K127" t="n">
         <v>0.04878062301326013</v>
       </c>
-      <c r="J127" t="n">
-        <v>0.05905723475786789</v>
-      </c>
-      <c r="K127" t="n">
-        <v>0.04815060407350456</v>
-      </c>
       <c r="L127" t="n">
-        <v>0.09135150246097534</v>
+        <v>0.05924532657834822</v>
       </c>
       <c r="M127" t="n">
-        <v>0.04812274508324031</v>
+        <v>0.04811613702463611</v>
       </c>
       <c r="N127" t="n">
-        <v>0.02760409342819363</v>
+        <v>0.09115560059608729</v>
       </c>
       <c r="O127" t="n">
-        <v>0.04878062301326013</v>
+        <v>0.04787897605689315</v>
       </c>
     </row>
     <row r="128" ht="15" customHeight="1">
       <c r="F128" t="n">
-        <v>0.0275833874504369</v>
+        <v>0.04450984724625381</v>
       </c>
       <c r="G128" t="n">
+        <v>0.04253194271760501</v>
+      </c>
+      <c r="J128" t="n">
+        <v>0.02706500405281947</v>
+      </c>
+      <c r="K128" t="n">
         <v>0.04956740725540949</v>
       </c>
-      <c r="J128" t="n">
-        <v>0.05930780316787881</v>
-      </c>
-      <c r="K128" t="n">
-        <v>0.0489272267198514</v>
-      </c>
       <c r="L128" t="n">
-        <v>0.09158409271574025</v>
+        <v>0.05892247941612525</v>
       </c>
       <c r="M128" t="n">
-        <v>0.0488989183910345</v>
+        <v>0.04889220375083991</v>
       </c>
       <c r="N128" t="n">
-        <v>0.0275833874504369</v>
+        <v>0.09074282486361768</v>
       </c>
       <c r="O128" t="n">
-        <v>0.04956740725540949</v>
+        <v>0.04865121760619788</v>
       </c>
     </row>
     <row r="129" ht="15" customHeight="1">
       <c r="F129" t="n">
-        <v>0.0274600028711087</v>
+        <v>0.04467144978592515</v>
       </c>
       <c r="G129" t="n">
+        <v>0.04320705291947175</v>
+      </c>
+      <c r="J129" t="n">
+        <v>0.02706293963136983</v>
+      </c>
+      <c r="K129" t="n">
         <v>0.05035419149755884</v>
       </c>
-      <c r="J129" t="n">
-        <v>0.0586401150872351</v>
-      </c>
-      <c r="K129" t="n">
-        <v>0.04970384936619825</v>
-      </c>
       <c r="L129" t="n">
-        <v>0.09109440939202146</v>
+        <v>0.0593836088969954</v>
       </c>
       <c r="M129" t="n">
-        <v>0.0496750916988287</v>
+        <v>0.04966827047704372</v>
       </c>
       <c r="N129" t="n">
-        <v>0.0274600028711087</v>
+        <v>0.08998964289462597</v>
       </c>
       <c r="O129" t="n">
-        <v>0.05035419149755884</v>
+        <v>0.04942345915550261</v>
       </c>
     </row>
     <row r="130" ht="15" customHeight="1">
       <c r="F130" t="n">
-        <v>0.02753397569064729</v>
+        <v>0.04482978473543268</v>
       </c>
       <c r="G130" t="n">
+        <v>0.0438821631213385</v>
+      </c>
+      <c r="J130" t="n">
+        <v>0.0269516273707055</v>
+      </c>
+      <c r="K130" t="n">
         <v>0.0511409757397082</v>
       </c>
-      <c r="J130" t="n">
-        <v>0.05865532700593817</v>
-      </c>
-      <c r="K130" t="n">
-        <v>0.0504804720125451</v>
-      </c>
       <c r="L130" t="n">
-        <v>0.09068330475822461</v>
+        <v>0.05862943200596912</v>
       </c>
       <c r="M130" t="n">
-        <v>0.0504512650066229</v>
+        <v>0.05044433720324753</v>
       </c>
       <c r="N130" t="n">
-        <v>0.02753397569064729</v>
+        <v>0.08999863593994695</v>
       </c>
       <c r="O130" t="n">
-        <v>0.0511409757397082</v>
+        <v>0.05019570070480733</v>
       </c>
     </row>
     <row r="131" ht="15" customHeight="1">
       <c r="F131" t="n">
-        <v>0.02730534190949084</v>
+        <v>0.04498477762048866</v>
       </c>
       <c r="G131" t="n">
+        <v>0.04455727332320524</v>
+      </c>
+      <c r="J131" t="n">
+        <v>0.02673171542984853</v>
+      </c>
+      <c r="K131" t="n">
         <v>0.05192775998185756</v>
       </c>
-      <c r="J131" t="n">
-        <v>0.0585545954139893</v>
-      </c>
-      <c r="K131" t="n">
-        <v>0.05125709465889195</v>
-      </c>
       <c r="L131" t="n">
-        <v>0.09075163108275525</v>
+        <v>0.0589606657280568</v>
       </c>
       <c r="M131" t="n">
-        <v>0.0512274383144171</v>
+        <v>0.05122040392945133</v>
       </c>
       <c r="N131" t="n">
-        <v>0.02730534190949084</v>
+        <v>0.0894723852504154</v>
       </c>
       <c r="O131" t="n">
-        <v>0.05192775998185756</v>
+        <v>0.05096794225411207</v>
       </c>
     </row>
     <row r="132" ht="15" customHeight="1">
       <c r="F132" t="n">
-        <v>0.02727413752807763</v>
+        <v>0.04513635396680537</v>
       </c>
       <c r="G132" t="n">
+        <v>0.04523238352507199</v>
+      </c>
+      <c r="J132" t="n">
+        <v>0.02680385196782097</v>
+      </c>
+      <c r="K132" t="n">
         <v>0.05271454422400691</v>
       </c>
-      <c r="J132" t="n">
-        <v>0.05823907680138982</v>
-      </c>
-      <c r="K132" t="n">
-        <v>0.05203371730523879</v>
-      </c>
       <c r="L132" t="n">
-        <v>0.09080024063401904</v>
+        <v>0.05887802704826886</v>
       </c>
       <c r="M132" t="n">
-        <v>0.05200361162221129</v>
+        <v>0.05199647065565514</v>
       </c>
       <c r="N132" t="n">
-        <v>0.02727413752807763</v>
+        <v>0.08901347207686611</v>
       </c>
       <c r="O132" t="n">
-        <v>0.05271454422400691</v>
+        <v>0.05174018380341679</v>
       </c>
     </row>
     <row r="133" ht="15" customHeight="1">
       <c r="F133" t="n">
-        <v>0.02744039854684581</v>
+        <v>0.04528443930009505</v>
       </c>
       <c r="G133" t="n">
+        <v>0.04590749372693874</v>
+      </c>
+      <c r="J133" t="n">
+        <v>0.0264686851436448</v>
+      </c>
+      <c r="K133" t="n">
         <v>0.05350132846615627</v>
       </c>
-      <c r="J133" t="n">
-        <v>0.05800992765814106</v>
-      </c>
-      <c r="K133" t="n">
-        <v>0.05281033995158564</v>
-      </c>
       <c r="L133" t="n">
-        <v>0.09052998568042148</v>
+        <v>0.05838223295161565</v>
       </c>
       <c r="M133" t="n">
-        <v>0.0527797849300055</v>
+        <v>0.05277253738185895</v>
       </c>
       <c r="N133" t="n">
-        <v>0.02744039854684581</v>
+        <v>0.08842447767013373</v>
       </c>
       <c r="O133" t="n">
-        <v>0.05350132846615627</v>
+        <v>0.05251242535272152</v>
       </c>
     </row>
     <row r="134" ht="15" customHeight="1">
       <c r="F134" t="n">
-        <v>0.02720416096623364</v>
+        <v>0.04542895914606999</v>
       </c>
       <c r="G134" t="n">
+        <v>0.04658260392880548</v>
+      </c>
+      <c r="J134" t="n">
+        <v>0.0264268631163421</v>
+      </c>
+      <c r="K134" t="n">
         <v>0.05428811270830564</v>
       </c>
-      <c r="J134" t="n">
-        <v>0.0578683044742444</v>
-      </c>
-      <c r="K134" t="n">
-        <v>0.05358696259793249</v>
-      </c>
       <c r="L134" t="n">
-        <v>0.08994171849036819</v>
+        <v>0.05807400042310751</v>
       </c>
       <c r="M134" t="n">
-        <v>0.05355595823779969</v>
+        <v>0.05354860410806277</v>
       </c>
       <c r="N134" t="n">
-        <v>0.02720416096623364</v>
+        <v>0.08780798328105305</v>
       </c>
       <c r="O134" t="n">
-        <v>0.05428811270830564</v>
+        <v>0.05328466690202625</v>
       </c>
     </row>
     <row r="135" ht="15" customHeight="1">
       <c r="F135" t="n">
-        <v>0.02736546078667933</v>
+        <v>0.04556983903044245</v>
       </c>
       <c r="G135" t="n">
+        <v>0.04725771413067223</v>
+      </c>
+      <c r="J135" t="n">
+        <v>0.02617903404493488</v>
+      </c>
+      <c r="K135" t="n">
         <v>0.05507489695045498</v>
       </c>
-      <c r="J135" t="n">
-        <v>0.05771536373970104</v>
-      </c>
-      <c r="K135" t="n">
-        <v>0.05436358524427934</v>
-      </c>
       <c r="L135" t="n">
-        <v>0.08943629133226483</v>
+        <v>0.05805404644775497</v>
       </c>
       <c r="M135" t="n">
-        <v>0.05433213154559389</v>
+        <v>0.05432467083426657</v>
       </c>
       <c r="N135" t="n">
-        <v>0.02736546078667933</v>
+        <v>0.08726657016045891</v>
       </c>
       <c r="O135" t="n">
-        <v>0.05507489695045498</v>
+        <v>0.05405690845133098</v>
       </c>
     </row>
     <row r="136" ht="15" customHeight="1">
       <c r="F136" t="n">
-        <v>0.02712433400862108</v>
+        <v>0.04570700447892468</v>
       </c>
       <c r="G136" t="n">
+        <v>0.04793282433253897</v>
+      </c>
+      <c r="J136" t="n">
+        <v>0.02612584608844518</v>
+      </c>
+      <c r="K136" t="n">
         <v>0.05586168119260435</v>
       </c>
-      <c r="J136" t="n">
-        <v>0.05715226194451242</v>
-      </c>
-      <c r="K136" t="n">
-        <v>0.05514020789062619</v>
-      </c>
       <c r="L136" t="n">
-        <v>0.08871455647451687</v>
+        <v>0.05782308801056835</v>
       </c>
       <c r="M136" t="n">
-        <v>0.05510830485338809</v>
+        <v>0.05510073756047038</v>
       </c>
       <c r="N136" t="n">
-        <v>0.02712433400862108</v>
+        <v>0.08670281955918596</v>
       </c>
       <c r="O136" t="n">
-        <v>0.05586168119260435</v>
+        <v>0.05482915000063571</v>
       </c>
     </row>
     <row r="137" ht="15" customHeight="1">
       <c r="F137" t="n">
-        <v>0.02728081663249712</v>
+        <v>0.04584038101722896</v>
       </c>
       <c r="G137" t="n">
+        <v>0.04860793453440573</v>
+      </c>
+      <c r="J137" t="n">
+        <v>0.025967947405895</v>
+      </c>
+      <c r="K137" t="n">
         <v>0.05664846543475369</v>
       </c>
-      <c r="J137" t="n">
-        <v>0.05698015557867978</v>
-      </c>
-      <c r="K137" t="n">
-        <v>0.05591683053697304</v>
-      </c>
       <c r="L137" t="n">
-        <v>0.08917736618553002</v>
+        <v>0.05718184209655802</v>
       </c>
       <c r="M137" t="n">
-        <v>0.05588447816118228</v>
+        <v>0.05587680428667419</v>
       </c>
       <c r="N137" t="n">
-        <v>0.02728081663249712</v>
+        <v>0.08671931272806899</v>
       </c>
       <c r="O137" t="n">
-        <v>0.05664846543475369</v>
+        <v>0.05560139154994043</v>
       </c>
     </row>
     <row r="138" ht="15" customHeight="1">
       <c r="F138" t="n">
-        <v>0.02723494465874565</v>
+        <v>0.04596989417106755</v>
       </c>
       <c r="G138" t="n">
+        <v>0.04928304473627247</v>
+      </c>
+      <c r="J138" t="n">
+        <v>0.02580598615630643</v>
+      </c>
+      <c r="K138" t="n">
         <v>0.05743524967690306</v>
       </c>
-      <c r="J138" t="n">
-        <v>0.05680020113220446</v>
-      </c>
-      <c r="K138" t="n">
-        <v>0.05669345318331988</v>
-      </c>
       <c r="L138" t="n">
-        <v>0.08892557273370977</v>
+        <v>0.05713102569073444</v>
       </c>
       <c r="M138" t="n">
-        <v>0.05666065146897649</v>
+        <v>0.05665287101287799</v>
       </c>
       <c r="N138" t="n">
-        <v>0.02723494465874565</v>
+        <v>0.08601863091794276</v>
       </c>
       <c r="O138" t="n">
-        <v>0.05743524967690306</v>
+        <v>0.05637363309924517</v>
       </c>
     </row>
     <row r="139" ht="15" customHeight="1">
       <c r="F139" t="n">
-        <v>0.02718675408780492</v>
+        <v>0.04609546946615272</v>
       </c>
       <c r="G139" t="n">
+        <v>0.04995815493813921</v>
+      </c>
+      <c r="J139" t="n">
+        <v>0.02554061049870146</v>
+      </c>
+      <c r="K139" t="n">
         <v>0.05822203391905242</v>
       </c>
-      <c r="J139" t="n">
-        <v>0.05641355509508783</v>
-      </c>
-      <c r="K139" t="n">
-        <v>0.05747007582966673</v>
-      </c>
       <c r="L139" t="n">
-        <v>0.0879600283874617</v>
+        <v>0.05707135577810793</v>
       </c>
       <c r="M139" t="n">
-        <v>0.05743682477677069</v>
+        <v>0.0574289377390818</v>
       </c>
       <c r="N139" t="n">
-        <v>0.02718675408780492</v>
+        <v>0.08540335537964205</v>
       </c>
       <c r="O139" t="n">
-        <v>0.05822203391905242</v>
+        <v>0.05714587464854989</v>
       </c>
     </row>
     <row r="140" ht="15" customHeight="1">
       <c r="F140" t="n">
-        <v>0.02703628092011311</v>
+        <v>0.04621703242819677</v>
       </c>
       <c r="G140" t="n">
+        <v>0.05063326514000596</v>
+      </c>
+      <c r="J140" t="n">
+        <v>0.02537246859210213</v>
+      </c>
+      <c r="K140" t="n">
         <v>0.05900881816120176</v>
       </c>
-      <c r="J140" t="n">
-        <v>0.05652137395733117</v>
-      </c>
-      <c r="K140" t="n">
-        <v>0.05824669847601358</v>
-      </c>
       <c r="L140" t="n">
-        <v>0.08728158541519143</v>
+        <v>0.05680354934368895</v>
       </c>
       <c r="M140" t="n">
-        <v>0.05821299808456488</v>
+        <v>0.05820500446528561</v>
       </c>
       <c r="N140" t="n">
-        <v>0.02703628092011311</v>
+        <v>0.08437606736400161</v>
       </c>
       <c r="O140" t="n">
-        <v>0.05900881816120176</v>
+        <v>0.05791811619785462</v>
       </c>
     </row>
     <row r="141" ht="15" customHeight="1">
       <c r="F141" t="n">
-        <v>0.02708356115610845</v>
+        <v>0.04633450858291187</v>
       </c>
       <c r="G141" t="n">
+        <v>0.05130837534187271</v>
+      </c>
+      <c r="J141" t="n">
+        <v>0.02540220859553047</v>
+      </c>
+      <c r="K141" t="n">
         <v>0.05979560240335113</v>
       </c>
-      <c r="J141" t="n">
-        <v>0.05592481420893583</v>
-      </c>
-      <c r="K141" t="n">
-        <v>0.05902332112236042</v>
-      </c>
       <c r="L141" t="n">
-        <v>0.08699109608530459</v>
+        <v>0.05622832337248784</v>
       </c>
       <c r="M141" t="n">
-        <v>0.05898917139235908</v>
+        <v>0.05898107119148941</v>
       </c>
       <c r="N141" t="n">
-        <v>0.02708356115610845</v>
+        <v>0.08363934812185619</v>
       </c>
       <c r="O141" t="n">
-        <v>0.05979560240335113</v>
+        <v>0.05869035774715935</v>
       </c>
     </row>
     <row r="142" ht="15" customHeight="1">
       <c r="F142" t="n">
-        <v>0.02702863079622918</v>
+        <v>0.04644782345601037</v>
       </c>
       <c r="G142" t="n">
+        <v>0.05198348554373946</v>
+      </c>
+      <c r="J142" t="n">
+        <v>0.02503047866800852</v>
+      </c>
+      <c r="K142" t="n">
         <v>0.06058238664550049</v>
       </c>
-      <c r="J142" t="n">
-        <v>0.0553250323399031</v>
-      </c>
-      <c r="K142" t="n">
-        <v>0.05979994376870727</v>
-      </c>
       <c r="L142" t="n">
-        <v>0.08728941266620671</v>
+        <v>0.05604639484951501</v>
       </c>
       <c r="M142" t="n">
-        <v>0.05976534470015329</v>
+        <v>0.05975713791769322</v>
       </c>
       <c r="N142" t="n">
-        <v>0.02702863079622918</v>
+        <v>0.08319577890404051</v>
       </c>
       <c r="O142" t="n">
-        <v>0.06058238664550049</v>
+        <v>0.05946259929646408</v>
       </c>
     </row>
     <row r="143" ht="15" customHeight="1">
       <c r="F143" t="n">
-        <v>0.02687152584091348</v>
+        <v>0.04655690257320453</v>
       </c>
       <c r="G143" t="n">
+        <v>0.0526585957456062</v>
+      </c>
+      <c r="J143" t="n">
+        <v>0.02495792696855831</v>
+      </c>
+      <c r="K143" t="n">
         <v>0.06136917088764984</v>
       </c>
-      <c r="J143" t="n">
-        <v>0.05522318484023431</v>
-      </c>
-      <c r="K143" t="n">
-        <v>0.06057656641505412</v>
-      </c>
       <c r="L143" t="n">
-        <v>0.08617738742630338</v>
+        <v>0.05605848075978087</v>
       </c>
       <c r="M143" t="n">
-        <v>0.06054151800794747</v>
+        <v>0.06053320464389704</v>
       </c>
       <c r="N143" t="n">
-        <v>0.02687152584091348</v>
+        <v>0.08244794096138941</v>
       </c>
       <c r="O143" t="n">
-        <v>0.06136917088764984</v>
+        <v>0.06023484084576881</v>
       </c>
     </row>
     <row r="144" ht="15" customHeight="1">
       <c r="F144" t="n">
-        <v>0.0269122822905996</v>
+        <v>0.04666167146020658</v>
       </c>
       <c r="G144" t="n">
+        <v>0.05333370594747295</v>
+      </c>
+      <c r="J144" t="n">
+        <v>0.02478520165620188</v>
+      </c>
+      <c r="K144" t="n">
         <v>0.0621559551297992</v>
       </c>
-      <c r="J144" t="n">
-        <v>0.0548204281999308</v>
-      </c>
-      <c r="K144" t="n">
-        <v>0.06135318906140097</v>
-      </c>
       <c r="L144" t="n">
-        <v>0.08635587263400024</v>
+        <v>0.05546529808829581</v>
       </c>
       <c r="M144" t="n">
-        <v>0.06131769131574168</v>
+        <v>0.06130927137010084</v>
       </c>
       <c r="N144" t="n">
-        <v>0.0269122822905996</v>
+        <v>0.08179841554473755</v>
       </c>
       <c r="O144" t="n">
-        <v>0.0621559551297992</v>
+        <v>0.06100708239507353</v>
       </c>
     </row>
     <row r="145" ht="15" customHeight="1">
       <c r="F145" t="n">
-        <v>0.02675093614572573</v>
+        <v>0.04676205564272879</v>
       </c>
       <c r="G145" t="n">
+        <v>0.05400881614933969</v>
+      </c>
+      <c r="J145" t="n">
+        <v>0.02451295088996122</v>
+      </c>
+      <c r="K145" t="n">
         <v>0.06294273937194855</v>
       </c>
-      <c r="J145" t="n">
-        <v>0.05501791890899388</v>
-      </c>
-      <c r="K145" t="n">
-        <v>0.06212981170774782</v>
-      </c>
       <c r="L145" t="n">
-        <v>0.08542572055770281</v>
+        <v>0.05496756382007023</v>
       </c>
       <c r="M145" t="n">
-        <v>0.06209386462353588</v>
+        <v>0.06208533809630466</v>
       </c>
       <c r="N145" t="n">
-        <v>0.02675093614572573</v>
+        <v>0.0808497839049197</v>
       </c>
       <c r="O145" t="n">
-        <v>0.06294273937194855</v>
+        <v>0.06177932394437826</v>
       </c>
     </row>
     <row r="146" ht="15" customHeight="1">
       <c r="F146" t="n">
-        <v>0.02668752340673008</v>
+        <v>0.04685798064648345</v>
       </c>
       <c r="G146" t="n">
+        <v>0.05468392635120643</v>
+      </c>
+      <c r="J146" t="n">
+        <v>0.02444182282885841</v>
+      </c>
+      <c r="K146" t="n">
         <v>0.06372952361409791</v>
       </c>
-      <c r="J146" t="n">
-        <v>0.05451681345742487</v>
-      </c>
-      <c r="K146" t="n">
-        <v>0.06290643435409467</v>
-      </c>
       <c r="L146" t="n">
-        <v>0.08478778346581672</v>
+        <v>0.05486599494011446</v>
       </c>
       <c r="M146" t="n">
-        <v>0.06287003793133007</v>
+        <v>0.06286140482250846</v>
       </c>
       <c r="N146" t="n">
-        <v>0.02668752340673008</v>
+        <v>0.08080462729277066</v>
       </c>
       <c r="O146" t="n">
-        <v>0.06372952361409791</v>
+        <v>0.06255156549368299</v>
       </c>
     </row>
     <row r="147" ht="15" customHeight="1">
       <c r="F147" t="n">
-        <v>0.0266220800740509</v>
+        <v>0.04694937199718282</v>
       </c>
       <c r="G147" t="n">
+        <v>0.05535903655307318</v>
+      </c>
+      <c r="J147" t="n">
+        <v>0.02417246563191545</v>
+      </c>
+      <c r="K147" t="n">
         <v>0.06451630785624728</v>
       </c>
-      <c r="J147" t="n">
-        <v>0.05391826833522512</v>
-      </c>
-      <c r="K147" t="n">
-        <v>0.06368305700044151</v>
-      </c>
       <c r="L147" t="n">
-        <v>0.08434291362674756</v>
+        <v>0.054361308433439</v>
       </c>
       <c r="M147" t="n">
-        <v>0.06364621123912427</v>
+        <v>0.06363747154871227</v>
       </c>
       <c r="N147" t="n">
-        <v>0.0266220800740509</v>
+        <v>0.0797655269591252</v>
       </c>
       <c r="O147" t="n">
-        <v>0.06451630785624728</v>
+        <v>0.06332380704298772</v>
       </c>
     </row>
     <row r="148" ht="15" customHeight="1">
       <c r="F148" t="n">
-        <v>0.02655464214812639</v>
+        <v>0.04703615522053917</v>
       </c>
       <c r="G148" t="n">
+        <v>0.05603414675493993</v>
+      </c>
+      <c r="J148" t="n">
+        <v>0.0241055274581544</v>
+      </c>
+      <c r="K148" t="n">
         <v>0.06530309209839662</v>
       </c>
-      <c r="J148" t="n">
-        <v>0.05382344003239595</v>
-      </c>
-      <c r="K148" t="n">
-        <v>0.06445967964678835</v>
-      </c>
       <c r="L148" t="n">
-        <v>0.0840919633089009</v>
+        <v>0.05465422128505418</v>
       </c>
       <c r="M148" t="n">
-        <v>0.06442238454691847</v>
+        <v>0.06441353827491607</v>
       </c>
       <c r="N148" t="n">
-        <v>0.02655464214812639</v>
+        <v>0.07903506415481804</v>
       </c>
       <c r="O148" t="n">
-        <v>0.06530309209839662</v>
+        <v>0.06409604859229245</v>
       </c>
     </row>
     <row r="149" ht="15" customHeight="1">
       <c r="F149" t="n">
-        <v>0.02648524562939476</v>
+        <v>0.04711825584226473</v>
       </c>
       <c r="G149" t="n">
+        <v>0.05670925695680668</v>
+      </c>
+      <c r="J149" t="n">
+        <v>0.02394165646659728</v>
+      </c>
+      <c r="K149" t="n">
         <v>0.06608987634054599</v>
       </c>
-      <c r="J149" t="n">
-        <v>0.05353348503893862</v>
-      </c>
-      <c r="K149" t="n">
-        <v>0.06523630229313521</v>
-      </c>
       <c r="L149" t="n">
-        <v>0.08413578478068234</v>
+        <v>0.05434545047997036</v>
       </c>
       <c r="M149" t="n">
-        <v>0.06519855785471267</v>
+        <v>0.06518960500111988</v>
       </c>
       <c r="N149" t="n">
-        <v>0.02648524562939476</v>
+        <v>0.07831582013068389</v>
       </c>
       <c r="O149" t="n">
-        <v>0.06608987634054599</v>
+        <v>0.06486829014159717</v>
       </c>
     </row>
     <row r="150" ht="15" customHeight="1">
       <c r="F150" t="n">
-        <v>0.02651392651829425</v>
+        <v>0.04719559938807178</v>
       </c>
       <c r="G150" t="n">
+        <v>0.05738436715867343</v>
+      </c>
+      <c r="J150" t="n">
+        <v>0.0236815008162661</v>
+      </c>
+      <c r="K150" t="n">
         <v>0.06687666058269533</v>
       </c>
-      <c r="J150" t="n">
-        <v>0.05324955984485455</v>
-      </c>
-      <c r="K150" t="n">
-        <v>0.06601292493948205</v>
-      </c>
       <c r="L150" t="n">
-        <v>0.08377523031049744</v>
+        <v>0.053835713003198</v>
       </c>
       <c r="M150" t="n">
-        <v>0.06597473116250686</v>
+        <v>0.06596567172732369</v>
       </c>
       <c r="N150" t="n">
-        <v>0.02651392651829425</v>
+        <v>0.07851037613755762</v>
       </c>
       <c r="O150" t="n">
-        <v>0.06687666058269533</v>
+        <v>0.06564053169090191</v>
       </c>
     </row>
     <row r="151" ht="15" customHeight="1">
       <c r="F151" t="n">
-        <v>0.02624072081526305</v>
+        <v>0.04726811138367263</v>
       </c>
       <c r="G151" t="n">
+        <v>0.05805947736054017</v>
+      </c>
+      <c r="J151" t="n">
+        <v>0.02362570866618292</v>
+      </c>
+      <c r="K151" t="n">
         <v>0.0676634448248447</v>
       </c>
-      <c r="J151" t="n">
-        <v>0.05307282094014495</v>
-      </c>
-      <c r="K151" t="n">
-        <v>0.0667895475858289</v>
-      </c>
       <c r="L151" t="n">
-        <v>0.08331115216675178</v>
+        <v>0.05332572583974748</v>
       </c>
       <c r="M151" t="n">
-        <v>0.06675090447030108</v>
+        <v>0.06674173845352749</v>
       </c>
       <c r="N151" t="n">
-        <v>0.02624072081526305</v>
+        <v>0.07782131342627391</v>
       </c>
       <c r="O151" t="n">
-        <v>0.0676634448248447</v>
+        <v>0.06641277324020663</v>
       </c>
     </row>
     <row r="152" ht="15" customHeight="1">
       <c r="F152" t="n">
-        <v>0.02626566452073938</v>
+        <v>0.0473357173547795</v>
       </c>
       <c r="G152" t="n">
+        <v>0.05873458756240691</v>
+      </c>
+      <c r="J152" t="n">
+        <v>0.02337492817536976</v>
+      </c>
+      <c r="K152" t="n">
         <v>0.06845022906699405</v>
       </c>
-      <c r="J152" t="n">
-        <v>0.05260442481481126</v>
-      </c>
-      <c r="K152" t="n">
-        <v>0.06756617023217575</v>
-      </c>
       <c r="L152" t="n">
-        <v>0.08224440261785104</v>
+        <v>0.05291620597462915</v>
       </c>
       <c r="M152" t="n">
-        <v>0.06752707777809526</v>
+        <v>0.06751780517973131</v>
       </c>
       <c r="N152" t="n">
-        <v>0.02626566452073938</v>
+        <v>0.07655121324766745</v>
       </c>
       <c r="O152" t="n">
-        <v>0.06845022906699405</v>
+        <v>0.06718501478951136</v>
       </c>
     </row>
     <row r="153" ht="15" customHeight="1">
       <c r="F153" t="n">
-        <v>0.02628879363516147</v>
+        <v>0.04739834282710465</v>
       </c>
       <c r="G153" t="n">
+        <v>0.05940969776427366</v>
+      </c>
+      <c r="J153" t="n">
+        <v>0.02322980750284867</v>
+      </c>
+      <c r="K153" t="n">
         <v>0.06923701330914341</v>
       </c>
-      <c r="J153" t="n">
-        <v>0.05244552795885471</v>
-      </c>
-      <c r="K153" t="n">
-        <v>0.0683427928785226</v>
-      </c>
       <c r="L153" t="n">
-        <v>0.08167583393220068</v>
+        <v>0.05270787039285349</v>
       </c>
       <c r="M153" t="n">
-        <v>0.06830325108588946</v>
+        <v>0.06829387190593512</v>
       </c>
       <c r="N153" t="n">
-        <v>0.02628879363516147</v>
+        <v>0.07620265685257316</v>
       </c>
       <c r="O153" t="n">
-        <v>0.06923701330914341</v>
+        <v>0.06795725633881609</v>
       </c>
     </row>
     <row r="154" ht="15" customHeight="1">
       <c r="F154" t="n">
-        <v>0.02611014415896754</v>
+        <v>0.04745591332636038</v>
       </c>
       <c r="G154" t="n">
+        <v>0.06008480796614041</v>
+      </c>
+      <c r="J154" t="n">
+        <v>0.02319099480764165</v>
+      </c>
+      <c r="K154" t="n">
         <v>0.07002379755129277</v>
       </c>
-      <c r="J154" t="n">
-        <v>0.0524972868622767</v>
-      </c>
-      <c r="K154" t="n">
-        <v>0.06911941552486944</v>
-      </c>
       <c r="L154" t="n">
-        <v>0.08180629837820647</v>
+        <v>0.0523014360794308</v>
       </c>
       <c r="M154" t="n">
-        <v>0.06907942439368367</v>
+        <v>0.06906993863213892</v>
       </c>
       <c r="N154" t="n">
-        <v>0.02611014415896754</v>
+        <v>0.0759782254918257</v>
       </c>
       <c r="O154" t="n">
-        <v>0.07002379755129277</v>
+        <v>0.06872949788812081</v>
       </c>
     </row>
     <row r="155" ht="15" customHeight="1">
       <c r="F155" t="n">
-        <v>0.02602975209259577</v>
+        <v>0.04750835437825893</v>
       </c>
       <c r="G155" t="n">
+        <v>0.06075991816800715</v>
+      </c>
+      <c r="J155" t="n">
+        <v>0.02295913824877074</v>
+      </c>
+      <c r="K155" t="n">
         <v>0.07081058179344213</v>
       </c>
-      <c r="J155" t="n">
-        <v>0.05226085801507849</v>
-      </c>
-      <c r="K155" t="n">
-        <v>0.06989603817121628</v>
-      </c>
       <c r="L155" t="n">
-        <v>0.08073664822427368</v>
+        <v>0.05249762001937153</v>
       </c>
       <c r="M155" t="n">
-        <v>0.06985559770147785</v>
+        <v>0.06984600535834273</v>
       </c>
       <c r="N155" t="n">
-        <v>0.02602975209259577</v>
+        <v>0.07528050041625983</v>
       </c>
       <c r="O155" t="n">
-        <v>0.07081058179344213</v>
+        <v>0.06950173943742555</v>
       </c>
     </row>
     <row r="156" ht="15" customHeight="1">
       <c r="F156" t="n">
-        <v>0.02594765343648442</v>
+        <v>0.04755559150851259</v>
       </c>
       <c r="G156" t="n">
+        <v>0.0614350283698739</v>
+      </c>
+      <c r="J156" t="n">
+        <v>0.02283488598525799</v>
+      </c>
+      <c r="K156" t="n">
         <v>0.07159736603559148</v>
       </c>
-      <c r="J156" t="n">
-        <v>0.05153544417512548</v>
-      </c>
-      <c r="K156" t="n">
-        <v>0.07067266081756314</v>
-      </c>
       <c r="L156" t="n">
-        <v>0.08046773573880828</v>
+        <v>0.05169713919768607</v>
       </c>
       <c r="M156" t="n">
-        <v>0.07063177100927205</v>
+        <v>0.07062207208454654</v>
       </c>
       <c r="N156" t="n">
-        <v>0.02594765343648442</v>
+        <v>0.07471206287671028</v>
       </c>
       <c r="O156" t="n">
-        <v>0.07159736603559148</v>
+        <v>0.07027398098673028</v>
       </c>
     </row>
     <row r="157" ht="15" customHeight="1">
       <c r="F157" t="n">
-        <v>0.02586388419107169</v>
+        <v>0.0475975502428336</v>
       </c>
       <c r="G157" t="n">
+        <v>0.06211013857174065</v>
+      </c>
+      <c r="J157" t="n">
+        <v>0.02271888617612541</v>
+      </c>
+      <c r="K157" t="n">
         <v>0.07238415027774084</v>
       </c>
-      <c r="J157" t="n">
-        <v>0.05171724915853623</v>
-      </c>
-      <c r="K157" t="n">
-        <v>0.07144928346390998</v>
-      </c>
       <c r="L157" t="n">
-        <v>0.08040041319021557</v>
+        <v>0.05150071059938477</v>
       </c>
       <c r="M157" t="n">
-        <v>0.07140794431706626</v>
+        <v>0.07139813881075034</v>
       </c>
       <c r="N157" t="n">
-        <v>0.02586388419107169</v>
+        <v>0.07407549412401182</v>
       </c>
       <c r="O157" t="n">
-        <v>0.07238415027774084</v>
+        <v>0.071046222536035</v>
       </c>
     </row>
     <row r="158" ht="15" customHeight="1">
       <c r="F158" t="n">
-        <v>0.0258784803567958</v>
+        <v>0.04763415610693423</v>
       </c>
       <c r="G158" t="n">
+        <v>0.0627852487736074</v>
+      </c>
+      <c r="J158" t="n">
+        <v>0.02260943479295936</v>
+      </c>
+      <c r="K158" t="n">
         <v>0.07317093451989019</v>
       </c>
-      <c r="J158" t="n">
-        <v>0.05130565805599707</v>
-      </c>
-      <c r="K158" t="n">
-        <v>0.07222590611025684</v>
-      </c>
       <c r="L158" t="n">
-        <v>0.07973553284690132</v>
+        <v>0.05150409405364983</v>
       </c>
       <c r="M158" t="n">
-        <v>0.07218411762486045</v>
+        <v>0.07217420553695415</v>
       </c>
       <c r="N158" t="n">
-        <v>0.0258784803567958</v>
+        <v>0.0741663802400237</v>
       </c>
       <c r="O158" t="n">
-        <v>0.07317093451989019</v>
+        <v>0.07181846408533973</v>
       </c>
     </row>
     <row r="159" ht="15" customHeight="1">
       <c r="F159" t="n">
-        <v>0.02559147793409496</v>
+        <v>0.04766533462652677</v>
       </c>
       <c r="G159" t="n">
+        <v>0.06346035897547414</v>
+      </c>
+      <c r="J159" t="n">
+        <v>0.02270260828133563</v>
+      </c>
+      <c r="K159" t="n">
         <v>0.07395771876203955</v>
       </c>
-      <c r="J159" t="n">
-        <v>0.05120017017360029</v>
-      </c>
-      <c r="K159" t="n">
-        <v>0.07300252875660368</v>
-      </c>
       <c r="L159" t="n">
-        <v>0.07937394697727096</v>
+        <v>0.05089914746457275</v>
       </c>
       <c r="M159" t="n">
-        <v>0.07296029093265466</v>
+        <v>0.07295027226315796</v>
       </c>
       <c r="N159" t="n">
-        <v>0.02559147793409496</v>
+        <v>0.07387323965922848</v>
       </c>
       <c r="O159" t="n">
-        <v>0.07395771876203955</v>
+        <v>0.07259070563464447</v>
       </c>
     </row>
     <row r="160" ht="15" customHeight="1">
       <c r="F160" t="n">
-        <v>0.02550291292340738</v>
+        <v>0.04769101132732346</v>
       </c>
       <c r="G160" t="n">
+        <v>0.06413546917734088</v>
+      </c>
+      <c r="J160" t="n">
+        <v>0.02249817081822654</v>
+      </c>
+      <c r="K160" t="n">
         <v>0.07474450300418892</v>
       </c>
-      <c r="J160" t="n">
-        <v>0.05080028481743812</v>
-      </c>
-      <c r="K160" t="n">
-        <v>0.07377915140295054</v>
-      </c>
       <c r="L160" t="n">
-        <v>0.07921650784973022</v>
+        <v>0.05078584302485659</v>
       </c>
       <c r="M160" t="n">
-        <v>0.07373646424044886</v>
+        <v>0.07372633898936176</v>
       </c>
       <c r="N160" t="n">
-        <v>0.02550291292340738</v>
+        <v>0.0732946997823502</v>
       </c>
       <c r="O160" t="n">
-        <v>0.07474450300418892</v>
+        <v>0.07336294718394919</v>
       </c>
     </row>
     <row r="161" ht="15" customHeight="1">
       <c r="F161" t="n">
-        <v>0.02541282132517129</v>
+        <v>0.04771111173503655</v>
       </c>
       <c r="G161" t="n">
+        <v>0.06481057937920763</v>
+      </c>
+      <c r="J161" t="n">
+        <v>0.02229595864517277</v>
+      </c>
+      <c r="K161" t="n">
         <v>0.07553128724633826</v>
       </c>
-      <c r="J161" t="n">
-        <v>0.05090550129360283</v>
-      </c>
-      <c r="K161" t="n">
-        <v>0.07455577404929738</v>
-      </c>
       <c r="L161" t="n">
-        <v>0.07846406773268455</v>
+        <v>0.05046429751896561</v>
       </c>
       <c r="M161" t="n">
-        <v>0.07451263754824304</v>
+        <v>0.07450240571556557</v>
       </c>
       <c r="N161" t="n">
-        <v>0.02541282132517129</v>
+        <v>0.07302957284926354</v>
       </c>
       <c r="O161" t="n">
-        <v>0.07553128724633826</v>
+        <v>0.07413518873325391</v>
       </c>
     </row>
     <row r="162" ht="15" customHeight="1">
       <c r="F162" t="n">
-        <v>0.02552123913982492</v>
+        <v>0.04772556137537836</v>
       </c>
       <c r="G162" t="n">
+        <v>0.06548568958107437</v>
+      </c>
+      <c r="J162" t="n">
+        <v>0.02219580800371507</v>
+      </c>
+      <c r="K162" t="n">
         <v>0.07631807148848763</v>
       </c>
-      <c r="J162" t="n">
-        <v>0.05051531890818664</v>
-      </c>
-      <c r="K162" t="n">
-        <v>0.07533239669564423</v>
-      </c>
       <c r="L162" t="n">
-        <v>0.07781747889453972</v>
+        <v>0.0501346277313641</v>
       </c>
       <c r="M162" t="n">
-        <v>0.07528881085603725</v>
+        <v>0.0752784724417694</v>
       </c>
       <c r="N162" t="n">
-        <v>0.02552123913982492</v>
+        <v>0.07307667109984312</v>
       </c>
       <c r="O162" t="n">
-        <v>0.07631807148848763</v>
+        <v>0.07490743028255864</v>
       </c>
     </row>
     <row r="163" ht="15" customHeight="1">
       <c r="F163" t="n">
-        <v>0.02522820236780646</v>
+        <v>0.0477342857740611</v>
       </c>
       <c r="G163" t="n">
+        <v>0.06616079978294112</v>
+      </c>
+      <c r="J163" t="n">
+        <v>0.02229755513539416</v>
+      </c>
+      <c r="K163" t="n">
         <v>0.07710485573063697</v>
       </c>
-      <c r="J163" t="n">
-        <v>0.0501292369672818</v>
-      </c>
-      <c r="K163" t="n">
-        <v>0.07610901934199107</v>
-      </c>
       <c r="L163" t="n">
-        <v>0.0769775936037011</v>
+        <v>0.04999695044651642</v>
       </c>
       <c r="M163" t="n">
-        <v>0.07606498416383145</v>
+        <v>0.0760545391679732</v>
       </c>
       <c r="N163" t="n">
-        <v>0.02522820236780646</v>
+        <v>0.07233480677396364</v>
       </c>
       <c r="O163" t="n">
-        <v>0.07710485573063697</v>
+        <v>0.07567967183186336</v>
       </c>
     </row>
     <row r="164" ht="15" customHeight="1">
       <c r="F164" t="n">
-        <v>0.02523374700955414</v>
+        <v>0.04773721045679708</v>
       </c>
       <c r="G164" t="n">
+        <v>0.06683590998480787</v>
+      </c>
+      <c r="J164" t="n">
+        <v>0.02220103628175073</v>
+      </c>
+      <c r="K164" t="n">
         <v>0.07789163997278634</v>
       </c>
-      <c r="J164" t="n">
-        <v>0.05044675477698057</v>
-      </c>
-      <c r="K164" t="n">
-        <v>0.07688564198833792</v>
-      </c>
       <c r="L164" t="n">
-        <v>0.07684413268385321</v>
+        <v>0.04935138244888687</v>
       </c>
       <c r="M164" t="n">
-        <v>0.07684115747162565</v>
+        <v>0.07683060589417701</v>
       </c>
       <c r="N164" t="n">
-        <v>0.02523374700955414</v>
+        <v>0.07210279211149984</v>
       </c>
       <c r="O164" t="n">
-        <v>0.07789163997278634</v>
+        <v>0.07645191338116809</v>
       </c>
     </row>
     <row r="165" ht="15" customHeight="1">
       <c r="F165" t="n">
-        <v>0.02523790906550617</v>
+        <v>0.04773721045679708</v>
       </c>
       <c r="G165" t="n">
+        <v>0.06683590998480787</v>
+      </c>
+      <c r="J165" t="n">
+        <v>0.02210608768432555</v>
+      </c>
+      <c r="K165" t="n">
         <v>0.07867842421493569</v>
       </c>
-      <c r="J165" t="n">
-        <v>0.05026737164337514</v>
-      </c>
-      <c r="K165" t="n">
-        <v>0.07766226463468477</v>
-      </c>
       <c r="L165" t="n">
-        <v>0.07640258701751462</v>
+        <v>0.0488980405229397</v>
       </c>
       <c r="M165" t="n">
-        <v>0.07761733077941985</v>
+        <v>0.07760667262038082</v>
       </c>
       <c r="N165" t="n">
-        <v>0.02523790906550617</v>
+        <v>0.0720794393523263</v>
       </c>
       <c r="O165" t="n">
-        <v>0.07867842421493569</v>
+        <v>0.07722415493047281</v>
       </c>
     </row>
     <row r="166" ht="15" customHeight="1">
       <c r="F166" t="n">
-        <v>0.02504072453610078</v>
+        <v>0.04690531611550897</v>
       </c>
       <c r="G166" t="n">
+        <v>0.06683564145634385</v>
+      </c>
+      <c r="J166" t="n">
+        <v>0.0218125455846593</v>
+      </c>
+      <c r="K166" t="n">
         <v>0.07946520845708505</v>
       </c>
-      <c r="J166" t="n">
-        <v>0.04949058687255783</v>
-      </c>
-      <c r="K166" t="n">
-        <v>0.07843888728103161</v>
-      </c>
       <c r="L166" t="n">
-        <v>0.07604867023928202</v>
+        <v>0.0486370414531393</v>
       </c>
       <c r="M166" t="n">
-        <v>0.07839350408721404</v>
+        <v>0.07838273934658462</v>
       </c>
       <c r="N166" t="n">
-        <v>0.02504072453610078</v>
+        <v>0.07176356073631779</v>
       </c>
       <c r="O166" t="n">
-        <v>0.07946520845708505</v>
+        <v>0.07799639647977755</v>
       </c>
     </row>
     <row r="167" ht="15" customHeight="1">
       <c r="F167" t="n">
-        <v>0.02484222942177615</v>
+        <v>0.04608291741464538</v>
       </c>
       <c r="G167" t="n">
+        <v>0.06683537292787985</v>
+      </c>
+      <c r="J167" t="n">
+        <v>0.02192024622429271</v>
+      </c>
+      <c r="K167" t="n">
         <v>0.0802519926992344</v>
       </c>
-      <c r="J167" t="n">
-        <v>0.0497158997706208</v>
-      </c>
-      <c r="K167" t="n">
-        <v>0.07921550992737847</v>
-      </c>
       <c r="L167" t="n">
-        <v>0.07548286878818239</v>
+        <v>0.04826850202394992</v>
       </c>
       <c r="M167" t="n">
-        <v>0.07916967739500824</v>
+        <v>0.07915880607278843</v>
       </c>
       <c r="N167" t="n">
-        <v>0.02484222942177615</v>
+        <v>0.07065396850334882</v>
       </c>
       <c r="O167" t="n">
-        <v>0.0802519926992344</v>
+        <v>0.07876863802908228</v>
       </c>
     </row>
     <row r="168" ht="15" customHeight="1">
       <c r="F168" t="n">
-        <v>0.02484245972297054</v>
+        <v>0.04527050477009033</v>
       </c>
       <c r="G168" t="n">
+        <v>0.06683510439941581</v>
+      </c>
+      <c r="J168" t="n">
+        <v>0.02182902584476651</v>
+      </c>
+      <c r="K168" t="n">
         <v>0.08103877694138377</v>
       </c>
-      <c r="J168" t="n">
-        <v>0.04924280964365635</v>
-      </c>
-      <c r="K168" t="n">
-        <v>0.07999213257372531</v>
-      </c>
       <c r="L168" t="n">
-        <v>0.07530566910324271</v>
+        <v>0.0475925390198359</v>
       </c>
       <c r="M168" t="n">
-        <v>0.07994585070280244</v>
+        <v>0.07993487279899224</v>
       </c>
       <c r="N168" t="n">
-        <v>0.02484245972297054</v>
+        <v>0.07104947489329438</v>
       </c>
       <c r="O168" t="n">
-        <v>0.08103877694138377</v>
+        <v>0.079540879578387</v>
       </c>
     </row>
     <row r="169" ht="15" customHeight="1">
       <c r="F169" t="n">
-        <v>0.02474145144012214</v>
+        <v>0.0444685685978338</v>
       </c>
       <c r="G169" t="n">
+        <v>0.06683483587095181</v>
+      </c>
+      <c r="J169" t="n">
+        <v>0.02163872068762143</v>
+      </c>
+      <c r="K169" t="n">
         <v>0.08182556118353312</v>
       </c>
-      <c r="J169" t="n">
-        <v>0.04947081579775672</v>
-      </c>
-      <c r="K169" t="n">
-        <v>0.08076875522007217</v>
-      </c>
       <c r="L169" t="n">
-        <v>0.07501755762349016</v>
+        <v>0.04770926922526153</v>
       </c>
       <c r="M169" t="n">
-        <v>0.08072202401059664</v>
+        <v>0.08071093952519603</v>
       </c>
       <c r="N169" t="n">
-        <v>0.02474145144012214</v>
+        <v>0.06994889214602884</v>
       </c>
       <c r="O169" t="n">
-        <v>0.08182556118353312</v>
+        <v>0.08031312112769173</v>
       </c>
     </row>
     <row r="170" ht="15" customHeight="1">
       <c r="F170" t="n">
-        <v>0.0245392405736692</v>
+        <v>0.04367759931375938</v>
       </c>
       <c r="G170" t="n">
+        <v>0.06683456734248779</v>
+      </c>
+      <c r="J170" t="n">
+        <v>0.02154916699439816</v>
+      </c>
+      <c r="K170" t="n">
         <v>0.08261234542568248</v>
       </c>
-      <c r="J170" t="n">
-        <v>0.04939941753901414</v>
-      </c>
-      <c r="K170" t="n">
-        <v>0.08154537786641901</v>
-      </c>
       <c r="L170" t="n">
-        <v>0.07371902078795145</v>
+        <v>0.04701880942469105</v>
       </c>
       <c r="M170" t="n">
-        <v>0.08149819731839085</v>
+        <v>0.08148700625139985</v>
       </c>
       <c r="N170" t="n">
-        <v>0.0245392405736692</v>
+        <v>0.06965103250142701</v>
       </c>
       <c r="O170" t="n">
-        <v>0.08261234542568248</v>
+        <v>0.08108536267699647</v>
       </c>
     </row>
     <row r="171" ht="15" customHeight="1">
       <c r="F171" t="n">
-        <v>0.0244358631240499</v>
+        <v>0.04289808733378631</v>
       </c>
       <c r="G171" t="n">
+        <v>0.06683429881402377</v>
+      </c>
+      <c r="J171" t="n">
+        <v>0.02136020100663745</v>
+      </c>
+      <c r="K171" t="n">
         <v>0.08339912966783183</v>
       </c>
-      <c r="J171" t="n">
-        <v>0.04892811417352086</v>
-      </c>
-      <c r="K171" t="n">
-        <v>0.08232200051276586</v>
-      </c>
       <c r="L171" t="n">
-        <v>0.07331054503565393</v>
+        <v>0.04652127640258888</v>
       </c>
       <c r="M171" t="n">
-        <v>0.08227437062618503</v>
+        <v>0.08226307297760367</v>
       </c>
       <c r="N171" t="n">
-        <v>0.0244358631240499</v>
+        <v>0.06945470819936356</v>
       </c>
       <c r="O171" t="n">
-        <v>0.08339912966783183</v>
+        <v>0.08185760422630119</v>
       </c>
     </row>
     <row r="172" ht="15" customHeight="1">
       <c r="F172" t="n">
-        <v>0.02443062530469096</v>
+        <v>0.04213052307380061</v>
       </c>
       <c r="G172" t="n">
+        <v>0.06683403028555975</v>
+      </c>
+      <c r="J172" t="n">
+        <v>0.02127165896588001</v>
+      </c>
+      <c r="K172" t="n">
         <v>0.08418591390998119</v>
       </c>
-      <c r="J172" t="n">
-        <v>0.0488564050073691</v>
-      </c>
-      <c r="K172" t="n">
-        <v>0.08309862315911269</v>
-      </c>
       <c r="L172" t="n">
-        <v>0.07319261680562433</v>
+        <v>0.04621678694341927</v>
       </c>
       <c r="M172" t="n">
-        <v>0.08305054393397923</v>
+        <v>0.08303913970380747</v>
       </c>
       <c r="N172" t="n">
-        <v>0.02443062530469096</v>
+        <v>0.06965873147971313</v>
       </c>
       <c r="O172" t="n">
-        <v>0.08418591390998119</v>
+        <v>0.08262984577560592</v>
       </c>
     </row>
     <row r="173" ht="15" customHeight="1">
       <c r="F173" t="n">
-        <v>0.02430659910319066</v>
+        <v>0.04137539694978837</v>
       </c>
       <c r="G173" t="n">
+        <v>0.06683376175709572</v>
+      </c>
+      <c r="J173" t="n">
+        <v>0.02118337711366658</v>
+      </c>
+      <c r="K173" t="n">
         <v>0.08497269815213056</v>
       </c>
-      <c r="J173" t="n">
-        <v>0.04838378934665113</v>
-      </c>
-      <c r="K173" t="n">
-        <v>0.08387524580545955</v>
-      </c>
       <c r="L173" t="n">
-        <v>0.07236572253688994</v>
+        <v>0.04580545783164652</v>
       </c>
       <c r="M173" t="n">
-        <v>0.08382671724177344</v>
+        <v>0.08381520643001128</v>
       </c>
       <c r="N173" t="n">
-        <v>0.02430659910319066</v>
+        <v>0.06886191458235047</v>
       </c>
       <c r="O173" t="n">
-        <v>0.08497269815213056</v>
+        <v>0.08340208732491065</v>
       </c>
     </row>
     <row r="174" ht="15" customHeight="1">
       <c r="F174" t="n">
-        <v>0.02405798937111195</v>
+        <v>0.04063319937763511</v>
       </c>
       <c r="G174" t="n">
+        <v>0.06683349322863172</v>
+      </c>
+      <c r="J174" t="n">
+        <v>0.02119519169153787</v>
+      </c>
+      <c r="K174" t="n">
         <v>0.0857594823942799</v>
       </c>
-      <c r="J174" t="n">
-        <v>0.04810976649745921</v>
-      </c>
-      <c r="K174" t="n">
-        <v>0.08465186845180639</v>
-      </c>
       <c r="L174" t="n">
-        <v>0.07203034866847757</v>
+        <v>0.04558740585173501</v>
       </c>
       <c r="M174" t="n">
-        <v>0.08460289054956763</v>
+        <v>0.08459127315621509</v>
       </c>
       <c r="N174" t="n">
-        <v>0.02405798937111195</v>
+        <v>0.06926306974715024</v>
       </c>
       <c r="O174" t="n">
-        <v>0.0857594823942799</v>
+        <v>0.08417432887421537</v>
       </c>
     </row>
     <row r="175" ht="15" customHeight="1">
       <c r="F175" t="n">
-        <v>0.02388655455733893</v>
+        <v>0.03990442077326003</v>
       </c>
       <c r="G175" t="n">
+        <v>0.0668332247001677</v>
+      </c>
+      <c r="J175" t="n">
+        <v>0.0211069389410346</v>
+      </c>
+      <c r="K175" t="n">
         <v>0.08654626663642927</v>
       </c>
-      <c r="J175" t="n">
-        <v>0.04813383576588554</v>
-      </c>
-      <c r="K175" t="n">
-        <v>0.08542849109815324</v>
-      </c>
       <c r="L175" t="n">
-        <v>0.07198698163941425</v>
+        <v>0.04476274778814898</v>
       </c>
       <c r="M175" t="n">
-        <v>0.08537906385736183</v>
+        <v>0.08536733988241889</v>
       </c>
       <c r="N175" t="n">
-        <v>0.02388655455733893</v>
+        <v>0.06846100921398707</v>
       </c>
       <c r="O175" t="n">
-        <v>0.08654626663642927</v>
+        <v>0.08494657042352011</v>
       </c>
     </row>
     <row r="176" ht="15" customHeight="1">
       <c r="F176" t="n">
-        <v>0.02369405311075566</v>
+        <v>0.03918955155255153</v>
       </c>
       <c r="G176" t="n">
+        <v>0.06683295617170368</v>
+      </c>
+      <c r="J176" t="n">
+        <v>0.02111845510369746</v>
+      </c>
+      <c r="K176" t="n">
         <v>0.08733305087857862</v>
       </c>
-      <c r="J176" t="n">
-        <v>0.0483554964580224</v>
-      </c>
-      <c r="K176" t="n">
-        <v>0.08620511374450009</v>
-      </c>
       <c r="L176" t="n">
-        <v>0.07093610788872712</v>
+        <v>0.04473160042535271</v>
       </c>
       <c r="M176" t="n">
-        <v>0.08615523716515604</v>
+        <v>0.0861434066086227</v>
       </c>
       <c r="N176" t="n">
-        <v>0.02369405311075566</v>
+        <v>0.0683545452227356</v>
       </c>
       <c r="O176" t="n">
-        <v>0.08733305087857862</v>
+        <v>0.08571881197282483</v>
       </c>
     </row>
     <row r="177" ht="15" customHeight="1">
       <c r="F177" t="n">
-        <v>0.02348224348024616</v>
+        <v>0.03848908213149108</v>
       </c>
       <c r="G177" t="n">
+        <v>0.06683268764323966</v>
+      </c>
+      <c r="J177" t="n">
+        <v>0.02092957642106721</v>
+      </c>
+      <c r="K177" t="n">
         <v>0.08811983512072798</v>
       </c>
-      <c r="J177" t="n">
-        <v>0.04797424787996199</v>
-      </c>
-      <c r="K177" t="n">
-        <v>0.08698173639084694</v>
-      </c>
       <c r="L177" t="n">
-        <v>0.07057821385544305</v>
+        <v>0.04449408054781054</v>
       </c>
       <c r="M177" t="n">
-        <v>0.08693141047295022</v>
+        <v>0.08691947333482651</v>
       </c>
       <c r="N177" t="n">
-        <v>0.02348224348024616</v>
+        <v>0.06844249001327063</v>
       </c>
       <c r="O177" t="n">
-        <v>0.08811983512072798</v>
+        <v>0.08649105352212956</v>
       </c>
     </row>
     <row r="178" ht="15" customHeight="1">
       <c r="F178" t="n">
-        <v>0.02325288411469451</v>
+        <v>0.03780350292596647</v>
       </c>
       <c r="G178" t="n">
+        <v>0.06683241911477565</v>
+      </c>
+      <c r="J178" t="n">
+        <v>0.02084013913468458</v>
+      </c>
+      <c r="K178" t="n">
         <v>0.08890661936287733</v>
       </c>
-      <c r="J178" t="n">
-        <v>0.04738958933779663</v>
-      </c>
-      <c r="K178" t="n">
-        <v>0.0877583590371938</v>
-      </c>
       <c r="L178" t="n">
-        <v>0.06991378597858922</v>
+        <v>0.04385030493998679</v>
       </c>
       <c r="M178" t="n">
-        <v>0.08770758378074443</v>
+        <v>0.08769554006103031</v>
       </c>
       <c r="N178" t="n">
-        <v>0.02325288411469451</v>
+        <v>0.06752365582546677</v>
       </c>
       <c r="O178" t="n">
-        <v>0.08890661936287733</v>
+        <v>0.08726329507143429</v>
       </c>
     </row>
     <row r="179" ht="15" customHeight="1">
       <c r="F179" t="n">
-        <v>0.02300773346298476</v>
+        <v>0.03713330435189687</v>
       </c>
       <c r="G179" t="n">
+        <v>0.06683215058631163</v>
+      </c>
+      <c r="J179" t="n">
+        <v>0.02064997948609025</v>
+      </c>
+      <c r="K179" t="n">
         <v>0.08969340360502669</v>
       </c>
-      <c r="J179" t="n">
-        <v>0.04730102013761844</v>
-      </c>
-      <c r="K179" t="n">
-        <v>0.08853498168354064</v>
-      </c>
       <c r="L179" t="n">
-        <v>0.06904331069719255</v>
+        <v>0.04340039038634577</v>
       </c>
       <c r="M179" t="n">
-        <v>0.08848375708853863</v>
+        <v>0.08847160678723412</v>
       </c>
       <c r="N179" t="n">
-        <v>0.02300773346298476</v>
+        <v>0.0670968548991987</v>
       </c>
       <c r="O179" t="n">
-        <v>0.08969340360502669</v>
+        <v>0.08803553662073901</v>
       </c>
     </row>
     <row r="180" ht="15" customHeight="1">
       <c r="F180" t="n">
-        <v>0.02294854997400098</v>
+        <v>0.03647897682517339</v>
       </c>
       <c r="G180" t="n">
+        <v>0.06683188205784761</v>
+      </c>
+      <c r="J180" t="n">
+        <v>0.02055893371682499</v>
+      </c>
+      <c r="K180" t="n">
         <v>0.09048018784717604</v>
       </c>
-      <c r="J180" t="n">
-        <v>0.04700803958551983</v>
-      </c>
-      <c r="K180" t="n">
-        <v>0.0893116043298875</v>
-      </c>
       <c r="L180" t="n">
-        <v>0.0683672744502799</v>
+        <v>0.04264445367135175</v>
       </c>
       <c r="M180" t="n">
-        <v>0.08925993039633282</v>
+        <v>0.08924767351343794</v>
       </c>
       <c r="N180" t="n">
-        <v>0.02294854997400098</v>
+        <v>0.0668608994743411</v>
       </c>
       <c r="O180" t="n">
-        <v>0.09048018784717604</v>
+        <v>0.08880777817004375</v>
       </c>
     </row>
     <row r="181" ht="15" customHeight="1">
       <c r="F181" t="n">
-        <v>0.0226770920966272</v>
+        <v>0.03584101076177221</v>
       </c>
       <c r="G181" t="n">
+        <v>0.06683161352938359</v>
+      </c>
+      <c r="J181" t="n">
+        <v>0.02046683806842949</v>
+      </c>
+      <c r="K181" t="n">
         <v>0.09126697208932541</v>
       </c>
-      <c r="J181" t="n">
-        <v>0.04721014698759288</v>
-      </c>
-      <c r="K181" t="n">
-        <v>0.09008822697623432</v>
-      </c>
       <c r="L181" t="n">
-        <v>0.06808616367687859</v>
+        <v>0.04248261157946909</v>
       </c>
       <c r="M181" t="n">
-        <v>0.09003610370412703</v>
+        <v>0.09002374023964174</v>
       </c>
       <c r="N181" t="n">
-        <v>0.0226770920966272</v>
+        <v>0.06641460179076863</v>
       </c>
       <c r="O181" t="n">
-        <v>0.09126697208932541</v>
+        <v>0.08958001971934848</v>
       </c>
     </row>
     <row r="182" ht="15" customHeight="1">
       <c r="F182" t="n">
-        <v>0.0221951182797475</v>
+        <v>0.03521989657758371</v>
       </c>
       <c r="G182" t="n">
+        <v>0.06683134500091958</v>
+      </c>
+      <c r="J182" t="n">
+        <v>0.02037352878244446</v>
+      </c>
+      <c r="K182" t="n">
         <v>0.09205375633147476</v>
       </c>
-      <c r="J182" t="n">
-        <v>0.04690684164992995</v>
-      </c>
-      <c r="K182" t="n">
-        <v>0.09086484962258118</v>
-      </c>
       <c r="L182" t="n">
-        <v>0.0671004648160155</v>
+        <v>0.04171498089516204</v>
       </c>
       <c r="M182" t="n">
-        <v>0.09081227701192122</v>
+        <v>0.09079980696584555</v>
       </c>
       <c r="N182" t="n">
-        <v>0.0221951182797475</v>
+        <v>0.06615677408835591</v>
       </c>
       <c r="O182" t="n">
-        <v>0.09205375633147476</v>
+        <v>0.0903522612686532</v>
       </c>
     </row>
     <row r="183" ht="15" customHeight="1">
       <c r="F183" t="n">
-        <v>0.02190438697224592</v>
+        <v>0.0346161246885271</v>
       </c>
       <c r="G183" t="n">
+        <v>0.06683107647245556</v>
+      </c>
+      <c r="J183" t="n">
+        <v>0.02027884210041066</v>
+      </c>
+      <c r="K183" t="n">
         <v>0.09284054057362412</v>
       </c>
-      <c r="J183" t="n">
-        <v>0.04659762287862321</v>
-      </c>
-      <c r="K183" t="n">
-        <v>0.09164147226892802</v>
-      </c>
       <c r="L183" t="n">
-        <v>0.06651066430671759</v>
+        <v>0.04154167840289497</v>
       </c>
       <c r="M183" t="n">
-        <v>0.09158845031971541</v>
+        <v>0.09157587369204936</v>
       </c>
       <c r="N183" t="n">
-        <v>0.02190438697224592</v>
+        <v>0.06608622860697771</v>
       </c>
       <c r="O183" t="n">
-        <v>0.09284054057362412</v>
+        <v>0.09112450281795793</v>
       </c>
     </row>
     <row r="184" ht="15" customHeight="1">
       <c r="F184" t="n">
-        <v>0.02180665662300654</v>
+        <v>0.03403018551049648</v>
       </c>
       <c r="G184" t="n">
+        <v>0.06683080794399154</v>
+      </c>
+      <c r="J184" t="n">
+        <v>0.02028261426386878</v>
+      </c>
+      <c r="K184" t="n">
         <v>0.09362732481577347</v>
       </c>
-      <c r="J184" t="n">
-        <v>0.04668198997976494</v>
-      </c>
-      <c r="K184" t="n">
-        <v>0.09241809491527488</v>
-      </c>
       <c r="L184" t="n">
-        <v>0.0664172485880119</v>
+        <v>0.04106282088713215</v>
       </c>
       <c r="M184" t="n">
-        <v>0.09236462362750962</v>
+        <v>0.09235194041825316</v>
       </c>
       <c r="N184" t="n">
-        <v>0.02180665662300654</v>
+        <v>0.06600177758650877</v>
       </c>
       <c r="O184" t="n">
-        <v>0.09362732481577347</v>
+        <v>0.09189674436726265</v>
       </c>
     </row>
     <row r="185" ht="15" customHeight="1">
       <c r="F185" t="n">
-        <v>0.02130368568091337</v>
+        <v>0.03346256945946206</v>
       </c>
       <c r="G185" t="n">
+        <v>0.06683053941552752</v>
+      </c>
+      <c r="J185" t="n">
+        <v>0.02028468151435955</v>
+      </c>
+      <c r="K185" t="n">
         <v>0.09441410905792283</v>
       </c>
-      <c r="J185" t="n">
-        <v>0.04635944225944735</v>
-      </c>
-      <c r="K185" t="n">
-        <v>0.09319471756162172</v>
-      </c>
       <c r="L185" t="n">
-        <v>0.06602070409892558</v>
+        <v>0.04077852513233782</v>
       </c>
       <c r="M185" t="n">
-        <v>0.09314079693530382</v>
+        <v>0.09312800714445697</v>
       </c>
       <c r="N185" t="n">
-        <v>0.02130368568091337</v>
+        <v>0.06470223326682367</v>
       </c>
       <c r="O185" t="n">
-        <v>0.09441410905792283</v>
+        <v>0.09266898591656739</v>
       </c>
     </row>
     <row r="186" ht="15" customHeight="1">
       <c r="F186" t="n">
-        <v>0.02119723259485053</v>
+        <v>0.03291376695131718</v>
       </c>
       <c r="G186" t="n">
+        <v>0.0668302708870635</v>
+      </c>
+      <c r="J186" t="n">
+        <v>0.01998488009342368</v>
+      </c>
+      <c r="K186" t="n">
         <v>0.0952008933000722</v>
       </c>
-      <c r="J186" t="n">
-        <v>0.04612947902376277</v>
-      </c>
-      <c r="K186" t="n">
-        <v>0.09397134020796857</v>
-      </c>
       <c r="L186" t="n">
-        <v>0.06502151727848543</v>
+        <v>0.0402889079229764</v>
       </c>
       <c r="M186" t="n">
-        <v>0.09391697024309802</v>
+        <v>0.09390407387066078</v>
       </c>
       <c r="N186" t="n">
-        <v>0.02119723259485053</v>
+        <v>0.06448640788779708</v>
       </c>
       <c r="O186" t="n">
-        <v>0.0952008933000722</v>
+        <v>0.09344122746587212</v>
       </c>
     </row>
     <row r="187" ht="15" customHeight="1">
       <c r="F187" t="n">
-        <v>0.02088905581370204</v>
+        <v>0.03238426840198103</v>
       </c>
       <c r="G187" t="n">
+        <v>0.0668300023585995</v>
+      </c>
+      <c r="J187" t="n">
+        <v>0.01988304624260193</v>
+      </c>
+      <c r="K187" t="n">
         <v>0.09598767754222154</v>
       </c>
-      <c r="J187" t="n">
-        <v>0.04549159957880333</v>
-      </c>
-      <c r="K187" t="n">
-        <v>0.09474796285431542</v>
-      </c>
       <c r="L187" t="n">
-        <v>0.06442017456571869</v>
+        <v>0.03959408604351214</v>
       </c>
       <c r="M187" t="n">
-        <v>0.09469314355089221</v>
+        <v>0.09468014059686458</v>
       </c>
       <c r="N187" t="n">
-        <v>0.02088905581370204</v>
+        <v>0.0647531136893037</v>
       </c>
       <c r="O187" t="n">
-        <v>0.09598767754222154</v>
+        <v>0.09421346901517684</v>
       </c>
     </row>
     <row r="188" ht="15" customHeight="1">
       <c r="F188" t="n">
-        <v>0.02048091378635193</v>
+        <v>0.03187456422735107</v>
       </c>
       <c r="G188" t="n">
+        <v>0.06682973383013546</v>
+      </c>
+      <c r="J188" t="n">
+        <v>0.01987901620343499</v>
+      </c>
+      <c r="K188" t="n">
         <v>0.09677446178437091</v>
       </c>
-      <c r="J188" t="n">
-        <v>0.04564530323066132</v>
-      </c>
-      <c r="K188" t="n">
-        <v>0.09552458550066227</v>
-      </c>
       <c r="L188" t="n">
-        <v>0.06411716239965209</v>
+        <v>0.03909417627840936</v>
       </c>
       <c r="M188" t="n">
-        <v>0.09546931685868641</v>
+        <v>0.09545620732306839</v>
       </c>
       <c r="N188" t="n">
-        <v>0.02048091378635193</v>
+        <v>0.06430116291121823</v>
       </c>
       <c r="O188" t="n">
-        <v>0.09677446178437091</v>
+        <v>0.09498571056448157</v>
       </c>
     </row>
     <row r="189" ht="15" customHeight="1">
       <c r="F189" t="n">
-        <v>0.02017456496168429</v>
+        <v>0.0313851448433909</v>
       </c>
       <c r="G189" t="n">
+        <v>0.06682946530167146</v>
+      </c>
+      <c r="J189" t="n">
+        <v>0.01977262621746359</v>
+      </c>
+      <c r="K189" t="n">
         <v>0.09756124602652026</v>
       </c>
-      <c r="J189" t="n">
-        <v>0.04499008928542905</v>
-      </c>
-      <c r="K189" t="n">
-        <v>0.09630120814700911</v>
-      </c>
       <c r="L189" t="n">
-        <v>0.06351296721931293</v>
+        <v>0.03848929541213239</v>
       </c>
       <c r="M189" t="n">
-        <v>0.09624549016648061</v>
+        <v>0.09623227404927222</v>
       </c>
       <c r="N189" t="n">
-        <v>0.02017456496168429</v>
+        <v>0.0633293677934153</v>
       </c>
       <c r="O189" t="n">
-        <v>0.09756124602652026</v>
+        <v>0.09575795211378631</v>
       </c>
     </row>
     <row r="190" ht="15" customHeight="1">
       <c r="F190" t="n">
-        <v>0.0199717677885832</v>
+        <v>0.03091449813432718</v>
       </c>
       <c r="G190" t="n">
+        <v>0.06682919677320744</v>
+      </c>
+      <c r="J190" t="n">
+        <v>0.01956371252622843</v>
+      </c>
+      <c r="K190" t="n">
         <v>0.09834803026866962</v>
       </c>
-      <c r="J190" t="n">
-        <v>0.04512545704919865</v>
-      </c>
-      <c r="K190" t="n">
-        <v>0.09707783079335595</v>
-      </c>
       <c r="L190" t="n">
-        <v>0.06280807546372807</v>
+        <v>0.03767956022914551</v>
       </c>
       <c r="M190" t="n">
-        <v>0.09702166347427481</v>
+        <v>0.09700834077547602</v>
       </c>
       <c r="N190" t="n">
-        <v>0.0199717677885832</v>
+        <v>0.06313654057576967</v>
       </c>
       <c r="O190" t="n">
-        <v>0.09834803026866962</v>
+        <v>0.09653019366309103</v>
       </c>
     </row>
     <row r="191" ht="15" customHeight="1">
       <c r="F191" t="n">
-        <v>0.01967428071593268</v>
+        <v>0.03045109932605835</v>
       </c>
       <c r="G191" t="n">
+        <v>0.06682892824474343</v>
+      </c>
+      <c r="J191" t="n">
+        <v>0.01965211137127028</v>
+      </c>
+      <c r="K191" t="n">
         <v>0.09913481451081897</v>
       </c>
-      <c r="J191" t="n">
-        <v>0.04505090582806245</v>
-      </c>
-      <c r="K191" t="n">
-        <v>0.09785445343970281</v>
-      </c>
       <c r="L191" t="n">
-        <v>0.06180297357192455</v>
+        <v>0.037465087513913</v>
       </c>
       <c r="M191" t="n">
-        <v>0.09779783678206901</v>
+        <v>0.09778440750167983</v>
       </c>
       <c r="N191" t="n">
-        <v>0.01967428071593268</v>
+        <v>0.06232149349815591</v>
       </c>
       <c r="O191" t="n">
-        <v>0.09913481451081897</v>
+        <v>0.09730243521239576</v>
       </c>
     </row>
     <row r="192" ht="15" customHeight="1">
       <c r="F192" t="n">
-        <v>0.01918386219261678</v>
+        <v>0.02999343630281357</v>
       </c>
       <c r="G192" t="n">
+        <v>0.0668286597162794</v>
+      </c>
+      <c r="J192" t="n">
+        <v>0.01933765899412981</v>
+      </c>
+      <c r="K192" t="n">
         <v>0.09992159875296833</v>
       </c>
-      <c r="J192" t="n">
-        <v>0.04436593492811264</v>
-      </c>
-      <c r="K192" t="n">
-        <v>0.09863107608604965</v>
-      </c>
       <c r="L192" t="n">
-        <v>0.06149814798292957</v>
+        <v>0.03684599405089917</v>
       </c>
       <c r="M192" t="n">
-        <v>0.0985740100898632</v>
+        <v>0.09856047422788364</v>
       </c>
       <c r="N192" t="n">
-        <v>0.01918386219261678</v>
+        <v>0.0614830388004487</v>
       </c>
       <c r="O192" t="n">
-        <v>0.09992159875296833</v>
+        <v>0.09807467676170049</v>
       </c>
     </row>
     <row r="193" ht="15" customHeight="1">
       <c r="F193" t="n">
-        <v>0.0190022706675196</v>
+        <v>0.02954199948055188</v>
       </c>
       <c r="G193" t="n">
+        <v>0.06682839118781539</v>
+      </c>
+      <c r="J193" t="n">
+        <v>0.01942046226547553</v>
+      </c>
+      <c r="K193" t="n">
         <v>0.1007083829951177</v>
       </c>
-      <c r="J193" t="n">
-        <v>0.04447004365544152</v>
-      </c>
-      <c r="K193" t="n">
-        <v>0.09940769873239651</v>
-      </c>
       <c r="L193" t="n">
-        <v>0.06119364044374659</v>
+        <v>0.03610459073354189</v>
       </c>
       <c r="M193" t="n">
-        <v>0.0993501833976574</v>
+        <v>0.09933654095408744</v>
       </c>
       <c r="N193" t="n">
-        <v>0.0190022706675196</v>
+        <v>0.06077938709309477</v>
       </c>
       <c r="O193" t="n">
-        <v>0.1007083829951177</v>
+        <v>0.09884691831100521</v>
       </c>
     </row>
     <row r="194" ht="15" customHeight="1">
       <c r="F194" t="n">
-        <v>0.01883126458952512</v>
+        <v>0.02909727927517248</v>
       </c>
       <c r="G194" t="n">
+        <v>0.06682812265935137</v>
+      </c>
+      <c r="J194" t="n">
+        <v>0.01910084066863812</v>
+      </c>
+      <c r="K194" t="n">
         <v>0.1014951672372671</v>
       </c>
-      <c r="J194" t="n">
-        <v>0.04366273131614126</v>
-      </c>
-      <c r="K194" t="n">
-        <v>0.1001843213787433</v>
-      </c>
       <c r="L194" t="n">
-        <v>0.06068646452726228</v>
+        <v>0.03562114358065721</v>
       </c>
       <c r="M194" t="n">
-        <v>0.1001263567054516</v>
+        <v>0.1001126076802912</v>
       </c>
       <c r="N194" t="n">
-        <v>0.01883126458952512</v>
+        <v>0.06036282296394274</v>
       </c>
       <c r="O194" t="n">
-        <v>0.1014951672372671</v>
+        <v>0.09961915986030995</v>
       </c>
     </row>
     <row r="195" ht="15" customHeight="1">
       <c r="F195" t="n">
-        <v>0.01857260240751749</v>
+        <v>0.02865976610259455</v>
       </c>
       <c r="G195" t="n">
+        <v>0.06682785413088736</v>
+      </c>
+      <c r="J195" t="n">
+        <v>0.01897886490512653</v>
+      </c>
+      <c r="K195" t="n">
         <v>0.1022819514794164</v>
       </c>
-      <c r="J195" t="n">
-        <v>0.04324349721630419</v>
-      </c>
-      <c r="K195" t="n">
-        <v>0.1009609440250902</v>
-      </c>
       <c r="L195" t="n">
-        <v>0.05957587206033527</v>
+        <v>0.03509842235036917</v>
       </c>
       <c r="M195" t="n">
-        <v>0.1009025300132458</v>
+        <v>0.1008886744064951</v>
       </c>
       <c r="N195" t="n">
-        <v>0.01857260240751749</v>
+        <v>0.0599399634628987</v>
       </c>
       <c r="O195" t="n">
-        <v>0.1022819514794164</v>
+        <v>0.1003914014096147</v>
       </c>
     </row>
     <row r="196" ht="15" customHeight="1">
       <c r="F196" t="n">
-        <v>0.0183280425703807</v>
+        <v>0.02822995037871875</v>
       </c>
       <c r="G196" t="n">
+        <v>0.06682758560242333</v>
+      </c>
+      <c r="J196" t="n">
+        <v>0.01905460483764997</v>
+      </c>
+      <c r="K196" t="n">
         <v>0.1030687357215658</v>
       </c>
-      <c r="J196" t="n">
-        <v>0.04331184066202243</v>
-      </c>
-      <c r="K196" t="n">
-        <v>0.101737566671437</v>
-      </c>
       <c r="L196" t="n">
-        <v>0.0591617393255609</v>
+        <v>0.03473924621946423</v>
       </c>
       <c r="M196" t="n">
-        <v>0.10167870332104</v>
+        <v>0.1016647411326989</v>
       </c>
       <c r="N196" t="n">
-        <v>0.0183280425703807</v>
+        <v>0.05851760859252908</v>
       </c>
       <c r="O196" t="n">
-        <v>0.1030687357215658</v>
+        <v>0.1011636429589194</v>
       </c>
     </row>
     <row r="197" ht="15" customHeight="1">
       <c r="F197" t="n">
-        <v>0.01789934352699883</v>
+        <v>0.02780832251950176</v>
       </c>
       <c r="G197" t="n">
+        <v>0.06682731707395932</v>
+      </c>
+      <c r="J197" t="n">
+        <v>0.0187281303289176</v>
+      </c>
+      <c r="K197" t="n">
         <v>0.1038555199637151</v>
       </c>
-      <c r="J197" t="n">
-        <v>0.04316726095938833</v>
-      </c>
-      <c r="K197" t="n">
-        <v>0.1025141893177839</v>
-      </c>
       <c r="L197" t="n">
-        <v>0.05844394260553482</v>
+        <v>0.03384643436472867</v>
       </c>
       <c r="M197" t="n">
-        <v>0.1024548766288342</v>
+        <v>0.1024408078589027</v>
       </c>
       <c r="N197" t="n">
-        <v>0.01789934352699883</v>
+        <v>0.05790255835540031</v>
       </c>
       <c r="O197" t="n">
-        <v>0.1038555199637151</v>
+        <v>0.1019358845082241</v>
       </c>
     </row>
     <row r="198" ht="15" customHeight="1">
       <c r="F198" t="n">
-        <v>0.01778675790851438</v>
+        <v>0.0273953729408439</v>
       </c>
       <c r="G198" t="n">
+        <v>0.0668270485454953</v>
+      </c>
+      <c r="J198" t="n">
+        <v>0.01859951124163864</v>
+      </c>
+      <c r="K198" t="n">
         <v>0.1046423042058645</v>
       </c>
-      <c r="J198" t="n">
-        <v>0.04270925741449413</v>
-      </c>
-      <c r="K198" t="n">
-        <v>0.1032908119641307</v>
-      </c>
       <c r="L198" t="n">
-        <v>0.05742235818285257</v>
+        <v>0.03292280596294869</v>
       </c>
       <c r="M198" t="n">
-        <v>0.1032310499366284</v>
+        <v>0.1032168745851065</v>
       </c>
       <c r="N198" t="n">
-        <v>0.01778675790851438</v>
+        <v>0.05710161275407871</v>
       </c>
       <c r="O198" t="n">
-        <v>0.1046423042058645</v>
+        <v>0.1027081260575289</v>
       </c>
     </row>
     <row r="199" ht="15" customHeight="1">
       <c r="F199" t="n">
-        <v>0.01757750821948224</v>
+        <v>0.02699159205866435</v>
       </c>
       <c r="G199" t="n">
+        <v>0.06682678001703128</v>
+      </c>
+      <c r="J199" t="n">
+        <v>0.01866881743852229</v>
+      </c>
+      <c r="K199" t="n">
         <v>0.1054290884480138</v>
       </c>
-      <c r="J199" t="n">
-        <v>0.04223732933343202</v>
-      </c>
-      <c r="K199" t="n">
-        <v>0.1040674346104776</v>
-      </c>
       <c r="L199" t="n">
-        <v>0.05769686234010951</v>
+        <v>0.03227118019091074</v>
       </c>
       <c r="M199" t="n">
-        <v>0.1040072232444226</v>
+        <v>0.1039929413113103</v>
       </c>
       <c r="N199" t="n">
-        <v>0.01757750821948224</v>
+        <v>0.05522157179113063</v>
       </c>
       <c r="O199" t="n">
-        <v>0.1054290884480138</v>
+        <v>0.1034803676068336</v>
       </c>
     </row>
     <row r="200" ht="15" customHeight="1">
       <c r="F200" t="n">
-        <v>0.01746862284913057</v>
+        <v>0.02659747028886542</v>
       </c>
       <c r="G200" t="n">
+        <v>0.06682651148856726</v>
+      </c>
+      <c r="J200" t="n">
+        <v>0.01833611878227774</v>
+      </c>
+      <c r="K200" t="n">
         <v>0.1062158726901632</v>
       </c>
-      <c r="J200" t="n">
-        <v>0.04145097602229431</v>
-      </c>
-      <c r="K200" t="n">
-        <v>0.1048440572568244</v>
-      </c>
       <c r="L200" t="n">
-        <v>0.05626733135990131</v>
+        <v>0.03179437622540104</v>
       </c>
       <c r="M200" t="n">
-        <v>0.1047833965522168</v>
+        <v>0.1047690080375141</v>
       </c>
       <c r="N200" t="n">
-        <v>0.01746862284913057</v>
+        <v>0.05416923546912228</v>
       </c>
       <c r="O200" t="n">
-        <v>0.1062158726901632</v>
+        <v>0.1042526091561383</v>
       </c>
     </row>
     <row r="201" ht="15" customHeight="1">
       <c r="F201" t="n">
-        <v>0.01706050829898144</v>
+        <v>0.02621349804740061</v>
       </c>
       <c r="G201" t="n">
+        <v>0.06682624296010324</v>
+      </c>
+      <c r="J201" t="n">
+        <v>0.01820148513561419</v>
+      </c>
+      <c r="K201" t="n">
         <v>0.1070026569323125</v>
       </c>
-      <c r="J201" t="n">
-        <v>0.04110864376193585</v>
-      </c>
-      <c r="K201" t="n">
-        <v>0.1056206799031713</v>
-      </c>
       <c r="L201" t="n">
-        <v>0.05563364152482342</v>
+        <v>0.03079521324320603</v>
       </c>
       <c r="M201" t="n">
-        <v>0.105559569860011</v>
+        <v>0.1055450747637179</v>
       </c>
       <c r="N201" t="n">
-        <v>0.01706050829898144</v>
+        <v>0.05305140379062012</v>
       </c>
       <c r="O201" t="n">
-        <v>0.1070026569323125</v>
+        <v>0.105024850705443</v>
       </c>
     </row>
     <row r="202" ht="15" customHeight="1">
       <c r="F202" t="n">
-        <v>0.01695357107055689</v>
+        <v>0.02584016575017179</v>
       </c>
       <c r="G202" t="n">
+        <v>0.06682597443163923</v>
+      </c>
+      <c r="J202" t="n">
+        <v>0.01826498636124084</v>
+      </c>
+      <c r="K202" t="n">
         <v>0.1077894411744619</v>
       </c>
-      <c r="J202" t="n">
-        <v>0.04091554061191446</v>
-      </c>
-      <c r="K202" t="n">
-        <v>0.1063973025495181</v>
-      </c>
       <c r="L202" t="n">
-        <v>0.05559566911747138</v>
+        <v>0.02987651042111189</v>
       </c>
       <c r="M202" t="n">
-        <v>0.1063357431678052</v>
+        <v>0.1063211414899217</v>
       </c>
       <c r="N202" t="n">
-        <v>0.01695357107055689</v>
+        <v>0.05187487675819058</v>
       </c>
       <c r="O202" t="n">
-        <v>0.1077894411744619</v>
+        <v>0.1057970922547478</v>
       </c>
     </row>
     <row r="203" ht="15" customHeight="1">
       <c r="F203" t="n">
-        <v>0.016848217665379</v>
+        <v>0.02547796381309817</v>
       </c>
       <c r="G203" t="n">
+        <v>0.06682570590317521</v>
+      </c>
+      <c r="J203" t="n">
+        <v>0.01812669232186688</v>
+      </c>
+      <c r="K203" t="n">
         <v>0.1085762254166113</v>
       </c>
-      <c r="J203" t="n">
-        <v>0.03988947260089848</v>
-      </c>
-      <c r="K203" t="n">
-        <v>0.107173925195865</v>
-      </c>
       <c r="L203" t="n">
-        <v>0.05485329042044057</v>
+        <v>0.02904108693590499</v>
       </c>
       <c r="M203" t="n">
-        <v>0.1071119164755994</v>
+        <v>0.1070972082161255</v>
       </c>
       <c r="N203" t="n">
-        <v>0.016848217665379</v>
+        <v>0.04984645437439983</v>
       </c>
       <c r="O203" t="n">
-        <v>0.1085762254166113</v>
+        <v>0.1065693338040525</v>
       </c>
     </row>
     <row r="204" ht="15" customHeight="1">
       <c r="F204" t="n">
-        <v>0.01664485458496985</v>
+        <v>0.02512738265208395</v>
       </c>
       <c r="G204" t="n">
+        <v>0.06682543737471119</v>
+      </c>
+      <c r="J204" t="n">
+        <v>0.01778667288020148</v>
+      </c>
+      <c r="K204" t="n">
         <v>0.1093630096587606</v>
       </c>
-      <c r="J204" t="n">
-        <v>0.0390539798884682</v>
-      </c>
-      <c r="K204" t="n">
-        <v>0.1079505478422118</v>
-      </c>
       <c r="L204" t="n">
-        <v>0.05400638171632682</v>
+        <v>0.02829176196437166</v>
       </c>
       <c r="M204" t="n">
-        <v>0.1078880897833936</v>
+        <v>0.1078732749423293</v>
       </c>
       <c r="N204" t="n">
-        <v>0.01664485458496985</v>
+        <v>0.0488729366418143</v>
       </c>
       <c r="O204" t="n">
-        <v>0.1093630096587606</v>
+        <v>0.1073415753533572</v>
       </c>
     </row>
     <row r="205" ht="15" customHeight="1">
       <c r="F205" t="n">
-        <v>0.01634388833085143</v>
+        <v>0.02478891268307886</v>
       </c>
       <c r="G205" t="n">
+        <v>0.06682516884624717</v>
+      </c>
+      <c r="J205" t="n">
+        <v>0.0177449978989539</v>
+      </c>
+      <c r="K205" t="n">
         <v>0.11014979390091</v>
       </c>
-      <c r="J205" t="n">
-        <v>0.03853260263420383</v>
-      </c>
-      <c r="K205" t="n">
-        <v>0.1087271704885587</v>
-      </c>
       <c r="L205" t="n">
-        <v>0.05375481928772535</v>
+        <v>0.02743135468329821</v>
       </c>
       <c r="M205" t="n">
-        <v>0.1086642630911878</v>
+        <v>0.1086493416685331</v>
       </c>
       <c r="N205" t="n">
-        <v>0.01634388833085143</v>
+        <v>0.04716112356300023</v>
       </c>
       <c r="O205" t="n">
-        <v>0.11014979390091</v>
+        <v>0.108113816902662</v>
       </c>
     </row>
     <row r="206" ht="15" customHeight="1">
       <c r="F206" t="n">
-        <v>0.01624572540454587</v>
+        <v>0.02446304432198661</v>
       </c>
       <c r="G206" t="n">
+        <v>0.06682490031778317</v>
+      </c>
+      <c r="J206" t="n">
+        <v>0.01770173724083328</v>
+      </c>
+      <c r="K206" t="n">
         <v>0.1109365781430593</v>
       </c>
-      <c r="J206" t="n">
-        <v>0.03754888099768552</v>
-      </c>
-      <c r="K206" t="n">
-        <v>0.1095037931349055</v>
-      </c>
       <c r="L206" t="n">
-        <v>0.05309847941723178</v>
+        <v>0.02676268426947093</v>
       </c>
       <c r="M206" t="n">
-        <v>0.109440436398982</v>
+        <v>0.109425408394737</v>
       </c>
       <c r="N206" t="n">
-        <v>0.01624572540454587</v>
+        <v>0.04581781514052419</v>
       </c>
       <c r="O206" t="n">
-        <v>0.1109365781430593</v>
+        <v>0.1088860584519667</v>
       </c>
     </row>
     <row r="207" ht="15" customHeight="1">
       <c r="F207" t="n">
-        <v>0.01585077230757519</v>
+        <v>0.02415026798472641</v>
       </c>
       <c r="G207" t="n">
+        <v>0.06682463178931915</v>
+      </c>
+      <c r="J207" t="n">
+        <v>0.01755696076854882</v>
+      </c>
+      <c r="K207" t="n">
         <v>0.1117233623852087</v>
       </c>
-      <c r="J207" t="n">
-        <v>0.03592635513849357</v>
-      </c>
-      <c r="K207" t="n">
-        <v>0.1102804157812524</v>
-      </c>
       <c r="L207" t="n">
-        <v>0.0523372383874417</v>
+        <v>0.02598856989967618</v>
       </c>
       <c r="M207" t="n">
-        <v>0.1102166097067762</v>
+        <v>0.1102014751209408</v>
       </c>
       <c r="N207" t="n">
-        <v>0.01585077230757519</v>
+        <v>0.04424981137695233</v>
       </c>
       <c r="O207" t="n">
-        <v>0.1117233623852087</v>
+        <v>0.1096583000012714</v>
       </c>
     </row>
     <row r="208" ht="15" customHeight="1">
       <c r="F208" t="n">
-        <v>0.01575943554146146</v>
+        <v>0.02385107408720474</v>
       </c>
       <c r="G208" t="n">
+        <v>0.06682436326085513</v>
+      </c>
+      <c r="J208" t="n">
+        <v>0.01721073834480974</v>
+      </c>
+      <c r="K208" t="n">
         <v>0.112510146627358</v>
       </c>
-      <c r="J208" t="n">
-        <v>0.03518856521620814</v>
-      </c>
-      <c r="K208" t="n">
-        <v>0.1110570384275992</v>
-      </c>
       <c r="L208" t="n">
-        <v>0.05097097248095045</v>
+        <v>0.02451183075070024</v>
       </c>
       <c r="M208" t="n">
-        <v>0.1109927830145704</v>
+        <v>0.1109775418471446</v>
       </c>
       <c r="N208" t="n">
-        <v>0.01575943554146146</v>
+        <v>0.04286391227485103</v>
       </c>
       <c r="O208" t="n">
-        <v>0.112510146627358</v>
+        <v>0.1104305415505761</v>
       </c>
     </row>
     <row r="209" ht="15" customHeight="1">
       <c r="F209" t="n">
-        <v>0.01547212160772674</v>
+        <v>0.02356595304536688</v>
       </c>
       <c r="G209" t="n">
+        <v>0.06682409473239111</v>
+      </c>
+      <c r="J209" t="n">
+        <v>0.01706313983232526</v>
+      </c>
+      <c r="K209" t="n">
         <v>0.1132969308695074</v>
       </c>
-      <c r="J209" t="n">
-        <v>0.03425905139040947</v>
-      </c>
-      <c r="K209" t="n">
-        <v>0.1118336610739461</v>
-      </c>
       <c r="L209" t="n">
-        <v>0.05089955798035367</v>
+        <v>0.02363528599932943</v>
       </c>
       <c r="M209" t="n">
-        <v>0.1117689563223646</v>
+        <v>0.1117536085733484</v>
       </c>
       <c r="N209" t="n">
-        <v>0.01547212160772674</v>
+        <v>0.04126691783678671</v>
       </c>
       <c r="O209" t="n">
-        <v>0.1132969308695074</v>
+        <v>0.1112027830998809</v>
       </c>
     </row>
     <row r="210" ht="15" customHeight="1">
       <c r="F210" t="n">
-        <v>0.01548923700789309</v>
+        <v>0.02329539527511872</v>
       </c>
       <c r="G210" t="n">
+        <v>0.06682382620392709</v>
+      </c>
+      <c r="J210" t="n">
+        <v>0.0171142350938045</v>
+      </c>
+      <c r="K210" t="n">
         <v>0.1140837151116568</v>
       </c>
-      <c r="J210" t="n">
-        <v>0.03296135382067775</v>
-      </c>
-      <c r="K210" t="n">
-        <v>0.1126102837202929</v>
-      </c>
       <c r="L210" t="n">
-        <v>0.0504228711682469</v>
+        <v>0.02286175482235009</v>
       </c>
       <c r="M210" t="n">
-        <v>0.1125451296301588</v>
+        <v>0.1125296752995522</v>
       </c>
       <c r="N210" t="n">
-        <v>0.01548923700789309</v>
+        <v>0.03886562806532556</v>
       </c>
       <c r="O210" t="n">
-        <v>0.1140837151116568</v>
+        <v>0.1119750246491856</v>
       </c>
     </row>
     <row r="211" ht="15" customHeight="1">
       <c r="F211" t="n">
-        <v>0.01531118824348257</v>
+        <v>0.02303989119237947</v>
       </c>
       <c r="G211" t="n">
+        <v>0.06682355767546308</v>
+      </c>
+      <c r="J211" t="n">
+        <v>0.01676409399195671</v>
+      </c>
+      <c r="K211" t="n">
         <v>0.1148704993538061</v>
       </c>
-      <c r="J211" t="n">
-        <v>0.03221901266659324</v>
-      </c>
-      <c r="K211" t="n">
-        <v>0.1133869063666398</v>
-      </c>
       <c r="L211" t="n">
-        <v>0.04964078832722563</v>
+        <v>0.02209405639654846</v>
       </c>
       <c r="M211" t="n">
-        <v>0.113321302937953</v>
+        <v>0.113305742025756</v>
       </c>
       <c r="N211" t="n">
-        <v>0.01531118824348257</v>
+        <v>0.03786684296303416</v>
       </c>
       <c r="O211" t="n">
-        <v>0.1148704993538061</v>
+        <v>0.1127472661984903</v>
       </c>
     </row>
     <row r="212" ht="15" customHeight="1">
       <c r="F212" t="n">
-        <v>0.01513838181601726</v>
+        <v>0.02279993121305821</v>
       </c>
       <c r="G212" t="n">
+        <v>0.06682328914699905</v>
+      </c>
+      <c r="J212" t="n">
+        <v>0.01661278638949107</v>
+      </c>
+      <c r="K212" t="n">
         <v>0.1156572835959555</v>
       </c>
-      <c r="J212" t="n">
-        <v>0.03155556808773613</v>
-      </c>
-      <c r="K212" t="n">
-        <v>0.1141635290129866</v>
-      </c>
       <c r="L212" t="n">
-        <v>0.04885318573988529</v>
+        <v>0.02113500989871095</v>
       </c>
       <c r="M212" t="n">
-        <v>0.1140974762457472</v>
+        <v>0.1140818087519598</v>
       </c>
       <c r="N212" t="n">
-        <v>0.01513838181601726</v>
+        <v>0.03597736253247863</v>
       </c>
       <c r="O212" t="n">
-        <v>0.1156572835959555</v>
+        <v>0.113519507747795</v>
       </c>
     </row>
     <row r="213" ht="15" customHeight="1">
       <c r="F213" t="n">
-        <v>0.01487122422701916</v>
+        <v>0.02257600575309509</v>
       </c>
       <c r="G213" t="n">
+        <v>0.06682302061853504</v>
+      </c>
+      <c r="J213" t="n">
+        <v>0.01646038214911681</v>
+      </c>
+      <c r="K213" t="n">
         <v>0.1164440678381048</v>
       </c>
-      <c r="J213" t="n">
-        <v>0.03069456024368661</v>
-      </c>
-      <c r="K213" t="n">
-        <v>0.1149401516593335</v>
-      </c>
       <c r="L213" t="n">
-        <v>0.04775993968882158</v>
+        <v>0.02018743450562382</v>
       </c>
       <c r="M213" t="n">
-        <v>0.1148736495535414</v>
+        <v>0.1148578754781636</v>
       </c>
       <c r="N213" t="n">
-        <v>0.01487122422701916</v>
+        <v>0.03450398677622546</v>
       </c>
       <c r="O213" t="n">
-        <v>0.1164440678381048</v>
+        <v>0.1142917492970998</v>
       </c>
     </row>
     <row r="214" ht="15" customHeight="1">
       <c r="F214" t="n">
-        <v>0.01461012197801038</v>
+        <v>0.02236860522839853</v>
       </c>
       <c r="G214" t="n">
+        <v>0.06682275209007102</v>
+      </c>
+      <c r="J214" t="n">
+        <v>0.01630695113354308</v>
+      </c>
+      <c r="K214" t="n">
         <v>0.1172308520802542</v>
       </c>
-      <c r="J214" t="n">
-        <v>0.02965952929402496</v>
-      </c>
-      <c r="K214" t="n">
-        <v>0.1157167743056803</v>
-      </c>
       <c r="L214" t="n">
-        <v>0.04746092645662975</v>
+        <v>0.01945414939407342</v>
       </c>
       <c r="M214" t="n">
-        <v>0.1156498228613356</v>
+        <v>0.1156339422043674</v>
       </c>
       <c r="N214" t="n">
-        <v>0.01461012197801038</v>
+        <v>0.0330535156968409</v>
       </c>
       <c r="O214" t="n">
-        <v>0.1172308520802542</v>
+        <v>0.1150639908464045</v>
       </c>
     </row>
     <row r="215" ht="15" customHeight="1">
       <c r="F215" t="n">
-        <v>0.01455548157051298</v>
+        <v>0.02236860522839852</v>
       </c>
       <c r="G215" t="n">
+        <v>0.06682275209007102</v>
+      </c>
+      <c r="J215" t="n">
+        <v>0.01635256320547909</v>
+      </c>
+      <c r="K215" t="n">
         <v>0.1180176363224035</v>
       </c>
-      <c r="J215" t="n">
-        <v>0.02965713207764412</v>
-      </c>
-      <c r="K215" t="n">
-        <v>0.1164933969520272</v>
-      </c>
       <c r="L215" t="n">
-        <v>0.04685602232590558</v>
+        <v>0.01903797374084604</v>
       </c>
       <c r="M215" t="n">
-        <v>0.1164259961691298</v>
+        <v>0.1164100089305712</v>
       </c>
       <c r="N215" t="n">
-        <v>0.01455548157051298</v>
+        <v>0.03153274929689132</v>
       </c>
       <c r="O215" t="n">
-        <v>0.1180176363224035</v>
+        <v>0.1158362323957092</v>
       </c>
     </row>
     <row r="216" ht="15" customHeight="1">
       <c r="F216" t="n">
-        <v>0.01440770950604899</v>
+        <v>0.02178585556534112</v>
       </c>
       <c r="G216" t="n">
+        <v>0.0667364843567388</v>
+      </c>
+      <c r="J216" t="n">
+        <v>0.01599728822763404</v>
+      </c>
+      <c r="K216" t="n">
         <v>0.1188044205645529</v>
       </c>
-      <c r="J216" t="n">
-        <v>0.02868079974605026</v>
-      </c>
-      <c r="K216" t="n">
-        <v>0.117270019598374</v>
-      </c>
       <c r="L216" t="n">
-        <v>0.04564510357924445</v>
+        <v>0.01814172672272793</v>
       </c>
       <c r="M216" t="n">
-        <v>0.117202169476924</v>
+        <v>0.117186075656775</v>
       </c>
       <c r="N216" t="n">
-        <v>0.01440770950604899</v>
+        <v>0.03014848757894317</v>
       </c>
       <c r="O216" t="n">
-        <v>0.1188044205645529</v>
+        <v>0.116608473945014</v>
       </c>
     </row>
     <row r="217" ht="15" customHeight="1">
       <c r="F217" t="n">
-        <v>0.01436721228614049</v>
+        <v>0.02120984770588754</v>
       </c>
       <c r="G217" t="n">
+        <v>0.06665021662340656</v>
+      </c>
+      <c r="J217" t="n">
+        <v>0.01604119606271716</v>
+      </c>
+      <c r="K217" t="n">
         <v>0.1195912048067023</v>
       </c>
-      <c r="J217" t="n">
-        <v>0.02880777208718929</v>
-      </c>
-      <c r="K217" t="n">
-        <v>0.1180466422447208</v>
-      </c>
       <c r="L217" t="n">
-        <v>0.04502804649924197</v>
+        <v>0.01726822751650556</v>
       </c>
       <c r="M217" t="n">
-        <v>0.1179783427847182</v>
+        <v>0.1179621423829788</v>
       </c>
       <c r="N217" t="n">
-        <v>0.01436721228614049</v>
+        <v>0.02820753054556258</v>
       </c>
       <c r="O217" t="n">
-        <v>0.1195912048067023</v>
+        <v>0.1173807154943187</v>
       </c>
     </row>
     <row r="218" ht="15" customHeight="1">
       <c r="F218" t="n">
-        <v>0.01423439641230953</v>
+        <v>0.02064095958492398</v>
       </c>
       <c r="G218" t="n">
+        <v>0.06656394889007433</v>
+      </c>
+      <c r="J218" t="n">
+        <v>0.01568435657343757</v>
+      </c>
+      <c r="K218" t="n">
         <v>0.1203779890488516</v>
       </c>
-      <c r="J218" t="n">
-        <v>0.02773832349466904</v>
-      </c>
-      <c r="K218" t="n">
-        <v>0.1188232648910677</v>
-      </c>
       <c r="L218" t="n">
-        <v>0.04400472736849342</v>
+        <v>0.01682029529896512</v>
       </c>
       <c r="M218" t="n">
-        <v>0.1187545160925123</v>
+        <v>0.1187382091091826</v>
       </c>
       <c r="N218" t="n">
-        <v>0.01423439641230953</v>
+        <v>0.02721667819931611</v>
       </c>
       <c r="O218" t="n">
-        <v>0.1203779890488516</v>
+        <v>0.1181529570436234</v>
       </c>
     </row>
     <row r="219" ht="15" customHeight="1">
       <c r="F219" t="n">
-        <v>0.0140096683860782</v>
+        <v>0.02007956913733636</v>
       </c>
       <c r="G219" t="n">
+        <v>0.0664776811567421</v>
+      </c>
+      <c r="J219" t="n">
+        <v>0.01572683962250453</v>
+      </c>
+      <c r="K219" t="n">
         <v>0.121164773291001</v>
       </c>
-      <c r="J219" t="n">
-        <v>0.02777272836209752</v>
-      </c>
-      <c r="K219" t="n">
-        <v>0.1195998875374145</v>
-      </c>
       <c r="L219" t="n">
-        <v>0.04327502246959464</v>
+        <v>0.01580074924689298</v>
       </c>
       <c r="M219" t="n">
-        <v>0.1195306894003066</v>
+        <v>0.1195142758353864</v>
       </c>
       <c r="N219" t="n">
-        <v>0.0140096683860782</v>
+        <v>0.02568273054276993</v>
       </c>
       <c r="O219" t="n">
-        <v>0.121164773291001</v>
+        <v>0.1189251985929282</v>
       </c>
     </row>
     <row r="220" ht="15" customHeight="1">
       <c r="F220" t="n">
-        <v>0.01399247299620046</v>
+        <v>0.01952605429801089</v>
       </c>
       <c r="G220" t="n">
+        <v>0.06639141342340987</v>
+      </c>
+      <c r="J220" t="n">
+        <v>0.01546871507262722</v>
+      </c>
+      <c r="K220" t="n">
         <v>0.1219515575331503</v>
       </c>
-      <c r="J220" t="n">
-        <v>0.02741126108308259</v>
-      </c>
-      <c r="K220" t="n">
-        <v>0.1203765101837614</v>
-      </c>
       <c r="L220" t="n">
-        <v>0.04343880808514095</v>
+        <v>0.01501240853707542</v>
       </c>
       <c r="M220" t="n">
-        <v>0.1203068627081008</v>
+        <v>0.1202903425615903</v>
       </c>
       <c r="N220" t="n">
-        <v>0.01399247299620046</v>
+        <v>0.02481248757849053</v>
       </c>
       <c r="O220" t="n">
-        <v>0.1219515575331503</v>
+        <v>0.1196974401422329</v>
       </c>
     </row>
     <row r="221" ht="15" customHeight="1">
       <c r="F221" t="n">
-        <v>0.01387671294226238</v>
+        <v>0.01898079300183354</v>
       </c>
       <c r="G221" t="n">
+        <v>0.06630514569007766</v>
+      </c>
+      <c r="J221" t="n">
+        <v>0.01521005278651481</v>
+      </c>
+      <c r="K221" t="n">
         <v>0.1227383417752997</v>
       </c>
-      <c r="J221" t="n">
-        <v>0.02635419605123221</v>
-      </c>
-      <c r="K221" t="n">
-        <v>0.1211531328301082</v>
-      </c>
       <c r="L221" t="n">
-        <v>0.04219596049772795</v>
+        <v>0.01435809234629878</v>
       </c>
       <c r="M221" t="n">
-        <v>0.1210830360158949</v>
+        <v>0.1210664092877941</v>
       </c>
       <c r="N221" t="n">
-        <v>0.01387671294226238</v>
+        <v>0.02321274930904421</v>
       </c>
       <c r="O221" t="n">
-        <v>0.1227383417752997</v>
+        <v>0.1204696816915376</v>
       </c>
     </row>
     <row r="222" ht="15" customHeight="1">
       <c r="F222" t="n">
-        <v>0.01376131949122883</v>
+        <v>0.01844416318369029</v>
       </c>
       <c r="G222" t="n">
+        <v>0.06621887795674541</v>
+      </c>
+      <c r="J222" t="n">
+        <v>0.01515092262687655</v>
+      </c>
+      <c r="K222" t="n">
         <v>0.123525126017449</v>
       </c>
-      <c r="J222" t="n">
-        <v>0.02620180766015423</v>
-      </c>
-      <c r="K222" t="n">
-        <v>0.1219297554764551</v>
-      </c>
       <c r="L222" t="n">
-        <v>0.04144656814901043</v>
+        <v>0.01354061985134941</v>
       </c>
       <c r="M222" t="n">
-        <v>0.1218592093236892</v>
+        <v>0.1218424760139979</v>
       </c>
       <c r="N222" t="n">
-        <v>0.01376131949122883</v>
+        <v>0.02169031573699726</v>
       </c>
       <c r="O222" t="n">
-        <v>0.123525126017449</v>
+        <v>0.1212419232408423</v>
       </c>
     </row>
     <row r="223" ht="15" customHeight="1">
       <c r="F223" t="n">
-        <v>0.01344638484194005</v>
+        <v>0.01791654277846735</v>
       </c>
       <c r="G223" t="n">
+        <v>0.06613261022341319</v>
+      </c>
+      <c r="J223" t="n">
+        <v>0.01499139445642157</v>
+      </c>
+      <c r="K223" t="n">
         <v>0.1243119102595984</v>
       </c>
-      <c r="J223" t="n">
-        <v>0.02555437030345659</v>
-      </c>
-      <c r="K223" t="n">
-        <v>0.1227063781228019</v>
-      </c>
       <c r="L223" t="n">
-        <v>0.0410914485395521</v>
+        <v>0.01306281022901357</v>
       </c>
       <c r="M223" t="n">
-        <v>0.1226353826314834</v>
+        <v>0.1226185427402017</v>
       </c>
       <c r="N223" t="n">
-        <v>0.01344638484194005</v>
+        <v>0.02075198686491608</v>
       </c>
       <c r="O223" t="n">
-        <v>0.1243119102595984</v>
+        <v>0.1220141647901471</v>
       </c>
     </row>
     <row r="224" ht="15" customHeight="1">
       <c r="F224" t="n">
-        <v>0.0135320011932363</v>
+        <v>0.01739830972105063</v>
       </c>
       <c r="G224" t="n">
+        <v>0.06604634249008096</v>
+      </c>
+      <c r="J224" t="n">
+        <v>0.01493153813785913</v>
+      </c>
+      <c r="K224" t="n">
         <v>0.1250986945017478</v>
       </c>
-      <c r="J224" t="n">
-        <v>0.02501215837474724</v>
-      </c>
-      <c r="K224" t="n">
-        <v>0.1234830007691488</v>
-      </c>
       <c r="L224" t="n">
-        <v>0.04003069702172152</v>
+        <v>0.01262748265607758</v>
       </c>
       <c r="M224" t="n">
-        <v>0.1234115559392776</v>
+        <v>0.1233946094664055</v>
       </c>
       <c r="N224" t="n">
-        <v>0.0135320011932363</v>
+        <v>0.02040456269536706</v>
       </c>
       <c r="O224" t="n">
-        <v>0.1250986945017478</v>
+        <v>0.1227864063394518</v>
       </c>
     </row>
     <row r="225" ht="15" customHeight="1">
       <c r="F225" t="n">
-        <v>0.01321826074395781</v>
+        <v>0.01688984194632633</v>
       </c>
       <c r="G225" t="n">
+        <v>0.06596007475674873</v>
+      </c>
+      <c r="J225" t="n">
+        <v>0.0147714235338984</v>
+      </c>
+      <c r="K225" t="n">
         <v>0.1258854787438971</v>
       </c>
-      <c r="J225" t="n">
-        <v>0.02457544626763405</v>
-      </c>
-      <c r="K225" t="n">
-        <v>0.1242596234154956</v>
-      </c>
       <c r="L225" t="n">
-        <v>0.03926431390740598</v>
+        <v>0.0124374563093278</v>
       </c>
       <c r="M225" t="n">
-        <v>0.1241877292470718</v>
+        <v>0.1241706761926093</v>
       </c>
       <c r="N225" t="n">
-        <v>0.01321826074395781</v>
+        <v>0.01895484323091623</v>
       </c>
       <c r="O225" t="n">
-        <v>0.1258854787438971</v>
+        <v>0.1235586478887565</v>
       </c>
     </row>
     <row r="226" ht="15" customHeight="1">
       <c r="F226" t="n">
-        <v>0.01330525569294481</v>
+        <v>0.01639151738918044</v>
       </c>
       <c r="G226" t="n">
+        <v>0.0658738070234165</v>
+      </c>
+      <c r="J226" t="n">
+        <v>0.01451112050724856</v>
+      </c>
+      <c r="K226" t="n">
         <v>0.1266722629860465</v>
       </c>
-      <c r="J226" t="n">
-        <v>0.02414450837572499</v>
-      </c>
-      <c r="K226" t="n">
-        <v>0.1250362460618425</v>
-      </c>
       <c r="L226" t="n">
-        <v>0.03859229950849252</v>
+        <v>0.01189555036555046</v>
       </c>
       <c r="M226" t="n">
-        <v>0.1249639025548659</v>
+        <v>0.1249467429188131</v>
       </c>
       <c r="N226" t="n">
-        <v>0.01330525569294481</v>
+        <v>0.01810962847413039</v>
       </c>
       <c r="O226" t="n">
-        <v>0.1266722629860465</v>
+        <v>0.1243308894380612</v>
       </c>
     </row>
     <row r="227" ht="15" customHeight="1">
       <c r="F227" t="n">
-        <v>0.01319307823903754</v>
+        <v>0.01590371398449894</v>
       </c>
       <c r="G227" t="n">
+        <v>0.06578753929008427</v>
+      </c>
+      <c r="J227" t="n">
+        <v>0.01445069892061883</v>
+      </c>
+      <c r="K227" t="n">
         <v>0.1274590472281958</v>
       </c>
-      <c r="J227" t="n">
-        <v>0.02431961909262786</v>
-      </c>
-      <c r="K227" t="n">
-        <v>0.1258128687081893</v>
-      </c>
       <c r="L227" t="n">
-        <v>0.03731465413686824</v>
+        <v>0.01150458400153195</v>
       </c>
       <c r="M227" t="n">
-        <v>0.1257400758626601</v>
+        <v>0.1257228096450169</v>
       </c>
       <c r="N227" t="n">
-        <v>0.01319307823903754</v>
+        <v>0.01837571842757568</v>
       </c>
       <c r="O227" t="n">
-        <v>0.1274590472281958</v>
+        <v>0.125103130987366</v>
       </c>
     </row>
     <row r="228" ht="15" customHeight="1">
       <c r="F228" t="n">
-        <v>0.01308182058107624</v>
+        <v>0.01542680966716802</v>
       </c>
       <c r="G228" t="n">
+        <v>0.06570127155675204</v>
+      </c>
+      <c r="J228" t="n">
+        <v>0.0141902286367184</v>
+      </c>
+      <c r="K228" t="n">
         <v>0.1282458314703452</v>
       </c>
-      <c r="J228" t="n">
-        <v>0.02340105281195073</v>
-      </c>
-      <c r="K228" t="n">
-        <v>0.1265894913545361</v>
-      </c>
       <c r="L228" t="n">
-        <v>0.03693137810442049</v>
+        <v>0.01096737639405859</v>
       </c>
       <c r="M228" t="n">
-        <v>0.1265162491704543</v>
+        <v>0.1264988763712207</v>
       </c>
       <c r="N228" t="n">
-        <v>0.01308182058107624</v>
+        <v>0.01725991309381841</v>
       </c>
       <c r="O228" t="n">
-        <v>0.1282458314703452</v>
+        <v>0.1258753725366707</v>
       </c>
     </row>
     <row r="229" ht="15" customHeight="1">
       <c r="F229" t="n">
-        <v>0.01277157491790114</v>
+        <v>0.01496118237207369</v>
       </c>
       <c r="G229" t="n">
+        <v>0.06561500382341982</v>
+      </c>
+      <c r="J229" t="n">
+        <v>0.01402977951825644</v>
+      </c>
+      <c r="K229" t="n">
         <v>0.1290326157124946</v>
       </c>
-      <c r="J229" t="n">
-        <v>0.02338908392730144</v>
-      </c>
-      <c r="K229" t="n">
-        <v>0.127366114000883</v>
-      </c>
       <c r="L229" t="n">
-        <v>0.03614247172303636</v>
+        <v>0.01058674671991661</v>
       </c>
       <c r="M229" t="n">
-        <v>0.1272924224782485</v>
+        <v>0.1272749430974245</v>
       </c>
       <c r="N229" t="n">
-        <v>0.01277157491790114</v>
+        <v>0.01716901247542485</v>
       </c>
       <c r="O229" t="n">
-        <v>0.1290326157124946</v>
+        <v>0.1266476140859754</v>
       </c>
     </row>
     <row r="230" ht="15" customHeight="1">
       <c r="F230" t="n">
-        <v>0.01276243344835251</v>
+        <v>0.01450721003410191</v>
       </c>
       <c r="G230" t="n">
+        <v>0.06552873609008758</v>
+      </c>
+      <c r="J230" t="n">
+        <v>0.01386941542948271</v>
+      </c>
+      <c r="K230" t="n">
         <v>0.1298193999546439</v>
       </c>
-      <c r="J230" t="n">
-        <v>0.02268398683228784</v>
-      </c>
-      <c r="K230" t="n">
-        <v>0.1281427366472299</v>
-      </c>
       <c r="L230" t="n">
-        <v>0.03564793530460286</v>
+        <v>0.01036519998544905</v>
       </c>
       <c r="M230" t="n">
-        <v>0.1280685957860427</v>
+        <v>0.1280510098236284</v>
       </c>
       <c r="N230" t="n">
-        <v>0.01276243344835251</v>
+        <v>0.01640905074145455</v>
       </c>
       <c r="O230" t="n">
-        <v>0.1298193999546439</v>
+        <v>0.1274198556352802</v>
       </c>
     </row>
     <row r="231" ht="15" customHeight="1">
       <c r="F231" t="n">
-        <v>0.01255448837127056</v>
+        <v>0.01406527058813888</v>
       </c>
       <c r="G231" t="n">
+        <v>0.06544246835675535</v>
+      </c>
+      <c r="J231" t="n">
+        <v>0.0136084835034683</v>
+      </c>
+      <c r="K231" t="n">
         <v>0.1306061841967932</v>
       </c>
-      <c r="J231" t="n">
-        <v>0.02208603592051797</v>
-      </c>
-      <c r="K231" t="n">
-        <v>0.1289193592935767</v>
-      </c>
       <c r="L231" t="n">
-        <v>0.0341477691610072</v>
+        <v>0.01046984621444177</v>
       </c>
       <c r="M231" t="n">
-        <v>0.1288447690938369</v>
+        <v>0.1288270765498321</v>
       </c>
       <c r="N231" t="n">
-        <v>0.01255448837127056</v>
+        <v>0.0161056666725426</v>
       </c>
       <c r="O231" t="n">
-        <v>0.1306061841967932</v>
+        <v>0.1281920971845849</v>
       </c>
     </row>
     <row r="232" ht="15" customHeight="1">
       <c r="F232" t="n">
-        <v>0.01264783188549555</v>
+        <v>0.01363574196907055</v>
       </c>
       <c r="G232" t="n">
+        <v>0.06535620062342312</v>
+      </c>
+      <c r="J232" t="n">
+        <v>0.01364651344742107</v>
+      </c>
+      <c r="K232" t="n">
         <v>0.1313929684389426</v>
       </c>
-      <c r="J232" t="n">
-        <v>0.02189550558559963</v>
-      </c>
-      <c r="K232" t="n">
-        <v>0.1296959819399236</v>
-      </c>
       <c r="L232" t="n">
-        <v>0.03404197360413669</v>
+        <v>0.01007732335918635</v>
       </c>
       <c r="M232" t="n">
-        <v>0.1296209424016311</v>
+        <v>0.1296031432760359</v>
       </c>
       <c r="N232" t="n">
-        <v>0.01264783188549555</v>
+        <v>0.01600642582761774</v>
       </c>
       <c r="O232" t="n">
-        <v>0.1313929684389426</v>
+        <v>0.1289643387338896</v>
       </c>
     </row>
     <row r="233" ht="15" customHeight="1">
       <c r="F233" t="n">
-        <v>0.0124425561898677</v>
+        <v>0.01321900211178306</v>
       </c>
       <c r="G233" t="n">
+        <v>0.06526993289009089</v>
+      </c>
+      <c r="J233" t="n">
+        <v>0.01328351501041558</v>
+      </c>
+      <c r="K233" t="n">
         <v>0.132179752681092</v>
       </c>
-      <c r="J233" t="n">
-        <v>0.02191267022114085</v>
-      </c>
-      <c r="K233" t="n">
-        <v>0.1304726045862704</v>
-      </c>
       <c r="L233" t="n">
-        <v>0.03333054894587839</v>
+        <v>0.009787816082438505</v>
       </c>
       <c r="M233" t="n">
-        <v>0.1303971157094253</v>
+        <v>0.1303792100022398</v>
       </c>
       <c r="N233" t="n">
-        <v>0.0124425561898677</v>
+        <v>0.01601144685836159</v>
       </c>
       <c r="O233" t="n">
-        <v>0.132179752681092</v>
+        <v>0.1297365802831943</v>
       </c>
     </row>
     <row r="234" ht="15" customHeight="1">
       <c r="F234" t="n">
-        <v>0.01233875348322726</v>
+        <v>0.01281542895116242</v>
       </c>
       <c r="G234" t="n">
+        <v>0.06518366515675866</v>
+      </c>
+      <c r="J234" t="n">
+        <v>0.01321949794152644</v>
+      </c>
+      <c r="K234" t="n">
         <v>0.1329665369232413</v>
       </c>
-      <c r="J234" t="n">
-        <v>0.02103780422074941</v>
-      </c>
-      <c r="K234" t="n">
-        <v>0.1312492272326173</v>
-      </c>
       <c r="L234" t="n">
-        <v>0.0322134954981193</v>
+        <v>0.01000150904695379</v>
       </c>
       <c r="M234" t="n">
-        <v>0.1311732890172196</v>
+        <v>0.1311552767284436</v>
       </c>
       <c r="N234" t="n">
-        <v>0.01233875348322726</v>
+        <v>0.01572084841645566</v>
       </c>
       <c r="O234" t="n">
-        <v>0.1329665369232413</v>
+        <v>0.1305088218324991</v>
       </c>
     </row>
     <row r="235" ht="15" customHeight="1">
       <c r="F235" t="n">
-        <v>0.01223651596441447</v>
+        <v>0.01242540042209465</v>
       </c>
       <c r="G235" t="n">
+        <v>0.06509739742342643</v>
+      </c>
+      <c r="J235" t="n">
+        <v>0.01315447198982825</v>
+      </c>
+      <c r="K235" t="n">
         <v>0.1337533211653907</v>
       </c>
-      <c r="J235" t="n">
-        <v>0.02067118197803339</v>
-      </c>
-      <c r="K235" t="n">
-        <v>0.1320258498789641</v>
-      </c>
       <c r="L235" t="n">
-        <v>0.03099081357274686</v>
+        <v>0.009718586915487853</v>
       </c>
       <c r="M235" t="n">
-        <v>0.1319494623250137</v>
+        <v>0.1319313434546474</v>
       </c>
       <c r="N235" t="n">
-        <v>0.01223651596441447</v>
+        <v>0.01593474915358145</v>
       </c>
       <c r="O235" t="n">
-        <v>0.1337533211653907</v>
+        <v>0.1312810633818038</v>
       </c>
     </row>
     <row r="236" ht="15" customHeight="1">
       <c r="F236" t="n">
-        <v>0.01213593583226957</v>
+        <v>0.01204929445946588</v>
       </c>
       <c r="G236" t="n">
+        <v>0.0650111296900942</v>
+      </c>
+      <c r="J236" t="n">
+        <v>0.01298844690439557</v>
+      </c>
+      <c r="K236" t="n">
         <v>0.13454010540754</v>
       </c>
-      <c r="J236" t="n">
-        <v>0.02041307788660054</v>
-      </c>
-      <c r="K236" t="n">
-        <v>0.132802472525311</v>
-      </c>
       <c r="L236" t="n">
-        <v>0.03056250348164796</v>
+        <v>0.009439234350796383</v>
       </c>
       <c r="M236" t="n">
-        <v>0.1327256356328079</v>
+        <v>0.1327074101808512</v>
       </c>
       <c r="N236" t="n">
-        <v>0.01213593583226957</v>
+        <v>0.01535326772142087</v>
       </c>
       <c r="O236" t="n">
-        <v>0.13454010540754</v>
+        <v>0.1320533049311085</v>
       </c>
     </row>
     <row r="237" ht="15" customHeight="1">
       <c r="F237" t="n">
-        <v>0.01213710528563279</v>
+        <v>0.0116874889981621</v>
       </c>
       <c r="G237" t="n">
+        <v>0.06492486195676198</v>
+      </c>
+      <c r="J237" t="n">
+        <v>0.01272143243430301</v>
+      </c>
+      <c r="K237" t="n">
         <v>0.1353268896496894</v>
       </c>
-      <c r="J237" t="n">
-        <v>0.02026376634005889</v>
-      </c>
-      <c r="K237" t="n">
-        <v>0.1335790951716578</v>
-      </c>
       <c r="L237" t="n">
-        <v>0.02922856553670983</v>
+        <v>0.009463636015634991</v>
       </c>
       <c r="M237" t="n">
-        <v>0.1335018089406022</v>
+        <v>0.133483476907055</v>
       </c>
       <c r="N237" t="n">
-        <v>0.01213710528563279</v>
+        <v>0.0157765227716552</v>
       </c>
       <c r="O237" t="n">
-        <v>0.1353268896496894</v>
+        <v>0.1328255464804133</v>
       </c>
     </row>
     <row r="238" ht="15" customHeight="1">
       <c r="F238" t="n">
-        <v>0.01194011652334438</v>
+        <v>0.01134036197306945</v>
       </c>
       <c r="G238" t="n">
+        <v>0.06483859422342975</v>
+      </c>
+      <c r="J238" t="n">
+        <v>0.01255343832862518</v>
+      </c>
+      <c r="K238" t="n">
         <v>0.1361136738918388</v>
       </c>
-      <c r="J238" t="n">
-        <v>0.01982352173201629</v>
-      </c>
-      <c r="K238" t="n">
-        <v>0.1343557178180046</v>
-      </c>
       <c r="L238" t="n">
-        <v>0.02858900004981979</v>
+        <v>0.008991976572759297</v>
       </c>
       <c r="M238" t="n">
-        <v>0.1342779822483963</v>
+        <v>0.1342595436332588</v>
       </c>
       <c r="N238" t="n">
-        <v>0.01194011652334438</v>
+        <v>0.01550463295596616</v>
       </c>
       <c r="O238" t="n">
-        <v>0.1361136738918388</v>
+        <v>0.133597788029718</v>
       </c>
     </row>
     <row r="239" ht="15" customHeight="1">
       <c r="F239" t="n">
-        <v>0.01174506174424458</v>
+        <v>0.01100829131907393</v>
       </c>
       <c r="G239" t="n">
+        <v>0.06475232649009752</v>
+      </c>
+      <c r="J239" t="n">
+        <v>0.01248447433643665</v>
+      </c>
+      <c r="K239" t="n">
         <v>0.1369004581339881</v>
       </c>
-      <c r="J239" t="n">
-        <v>0.01959261845608071</v>
-      </c>
-      <c r="K239" t="n">
-        <v>0.1351323404643515</v>
-      </c>
       <c r="L239" t="n">
-        <v>0.0277438073328648</v>
+        <v>0.008824440684924939</v>
       </c>
       <c r="M239" t="n">
-        <v>0.1350541555561905</v>
+        <v>0.1350356103594626</v>
       </c>
       <c r="N239" t="n">
-        <v>0.01174506174424458</v>
+        <v>0.01463771692603533</v>
       </c>
       <c r="O239" t="n">
-        <v>0.1369004581339881</v>
+        <v>0.1343700295790227</v>
       </c>
     </row>
     <row r="240" ht="15" customHeight="1">
       <c r="F240" t="n">
-        <v>0.01165203314717362</v>
+        <v>0.01069011173694349</v>
       </c>
       <c r="G240" t="n">
+        <v>0.06466605875676529</v>
+      </c>
+      <c r="J240" t="n">
+        <v>0.01211455020681203</v>
+      </c>
+      <c r="K240" t="n">
         <v>0.1376872423761375</v>
       </c>
-      <c r="J240" t="n">
-        <v>0.01897133090586001</v>
-      </c>
-      <c r="K240" t="n">
-        <v>0.1359089631106984</v>
-      </c>
       <c r="L240" t="n">
-        <v>0.02749298769773206</v>
+        <v>0.008561213014887603</v>
       </c>
       <c r="M240" t="n">
-        <v>0.1358303288639847</v>
+        <v>0.1358116770856664</v>
       </c>
       <c r="N240" t="n">
-        <v>0.01165203314717362</v>
+        <v>0.01447589333354427</v>
       </c>
       <c r="O240" t="n">
-        <v>0.1376872423761375</v>
+        <v>0.1351422711283274</v>
       </c>
     </row>
     <row r="241" ht="15" customHeight="1">
       <c r="F241" t="n">
-        <v>0.01166112293097174</v>
+        <v>0.0103769417568559</v>
       </c>
       <c r="G241" t="n">
+        <v>0.06457979102343306</v>
+      </c>
+      <c r="J241" t="n">
+        <v>0.01204367568882592</v>
+      </c>
+      <c r="K241" t="n">
         <v>0.1384740266182868</v>
       </c>
-      <c r="J241" t="n">
-        <v>0.01865993347496217</v>
-      </c>
-      <c r="K241" t="n">
-        <v>0.1366855857570452</v>
-      </c>
       <c r="L241" t="n">
-        <v>0.02663654145630878</v>
+        <v>0.00840247822540291</v>
       </c>
       <c r="M241" t="n">
-        <v>0.1366065021717789</v>
+        <v>0.1365877438118702</v>
       </c>
       <c r="N241" t="n">
-        <v>0.01166112293097174</v>
+        <v>0.01501928083017462</v>
       </c>
       <c r="O241" t="n">
-        <v>0.1384740266182868</v>
+        <v>0.1359145126776322</v>
       </c>
     </row>
     <row r="242" ht="15" customHeight="1">
       <c r="F242" t="n">
-        <v>0.01157242329447919</v>
+        <v>0.01006761607957912</v>
       </c>
       <c r="G242" t="n">
+        <v>0.06449352329010083</v>
+      </c>
+      <c r="J242" t="n">
+        <v>0.01177186053155289</v>
+      </c>
+      <c r="K242" t="n">
         <v>0.1392608108604362</v>
       </c>
-      <c r="J242" t="n">
-        <v>0.01825870055699505</v>
-      </c>
-      <c r="K242" t="n">
-        <v>0.137462208403392</v>
-      </c>
       <c r="L242" t="n">
-        <v>0.02497446892048194</v>
+        <v>0.008148420979226467</v>
       </c>
       <c r="M242" t="n">
-        <v>0.1373826754795731</v>
+        <v>0.137363810538074</v>
       </c>
       <c r="N242" t="n">
-        <v>0.01157242329447919</v>
+        <v>0.01476799806760787</v>
       </c>
       <c r="O242" t="n">
-        <v>0.1392608108604362</v>
+        <v>0.1366867542269369</v>
       </c>
     </row>
     <row r="243" ht="15" customHeight="1">
       <c r="F243" t="n">
-        <v>0.01158602643653621</v>
+        <v>0.009762512639999152</v>
       </c>
       <c r="G243" t="n">
+        <v>0.0644072555567686</v>
+      </c>
+      <c r="J243" t="n">
+        <v>0.01159911448406754</v>
+      </c>
+      <c r="K243" t="n">
         <v>0.1400475951025855</v>
       </c>
-      <c r="J243" t="n">
-        <v>0.01856790654556653</v>
-      </c>
-      <c r="K243" t="n">
-        <v>0.1382388310497389</v>
-      </c>
       <c r="L243" t="n">
-        <v>0.02420677040213898</v>
+        <v>0.008099225939113913</v>
       </c>
       <c r="M243" t="n">
-        <v>0.1381588487873673</v>
+        <v>0.1381398772642778</v>
       </c>
       <c r="N243" t="n">
-        <v>0.01158602643653621</v>
+        <v>0.01412216369752572</v>
       </c>
       <c r="O243" t="n">
-        <v>0.1400475951025855</v>
+        <v>0.1374589957762416</v>
       </c>
     </row>
     <row r="244" ht="15" customHeight="1">
       <c r="F244" t="n">
-        <v>0.01150202455598302</v>
+        <v>0.009462009373002143</v>
       </c>
       <c r="G244" t="n">
+        <v>0.06432098782343637</v>
+      </c>
+      <c r="J244" t="n">
+        <v>0.01162544729544449</v>
+      </c>
+      <c r="K244" t="n">
         <v>0.1408343793447349</v>
       </c>
-      <c r="J244" t="n">
-        <v>0.01798782583428463</v>
-      </c>
-      <c r="K244" t="n">
-        <v>0.1390154536960858</v>
-      </c>
       <c r="L244" t="n">
-        <v>0.02373344621316686</v>
+        <v>0.008055077767820912</v>
       </c>
       <c r="M244" t="n">
-        <v>0.1389350220951615</v>
+        <v>0.1389159439904817</v>
       </c>
       <c r="N244" t="n">
-        <v>0.01150202455598302</v>
+        <v>0.01468189637160977</v>
       </c>
       <c r="O244" t="n">
-        <v>0.1408343793447349</v>
+        <v>0.1382312373255463</v>
       </c>
     </row>
     <row r="245" ht="15" customHeight="1">
       <c r="F245" t="n">
-        <v>0.01132050985165987</v>
+        <v>0.00916648421347406</v>
       </c>
       <c r="G245" t="n">
+        <v>0.06423472009010414</v>
+      </c>
+      <c r="J245" t="n">
+        <v>0.01135086871475829</v>
+      </c>
+      <c r="K245" t="n">
         <v>0.1416211635868843</v>
       </c>
-      <c r="J245" t="n">
-        <v>0.01741873281675724</v>
-      </c>
-      <c r="K245" t="n">
-        <v>0.1397920763424326</v>
-      </c>
       <c r="L245" t="n">
-        <v>0.02315449666545277</v>
+        <v>0.008216161128103139</v>
       </c>
       <c r="M245" t="n">
-        <v>0.1397111954029557</v>
+        <v>0.1396920107166855</v>
       </c>
       <c r="N245" t="n">
-        <v>0.01132050985165987</v>
+        <v>0.01434731474154144</v>
       </c>
       <c r="O245" t="n">
-        <v>0.1416211635868843</v>
+        <v>0.1390034788748511</v>
       </c>
     </row>
     <row r="246" ht="15" customHeight="1">
       <c r="F246" t="n">
-        <v>0.01134157452240701</v>
+        <v>0.008876315096301039</v>
       </c>
       <c r="G246" t="n">
+        <v>0.06414845235677191</v>
+      </c>
+      <c r="J246" t="n">
+        <v>0.01127538849108357</v>
+      </c>
+      <c r="K246" t="n">
         <v>0.1424079478290336</v>
       </c>
-      <c r="J246" t="n">
-        <v>0.01766090188659217</v>
-      </c>
-      <c r="K246" t="n">
-        <v>0.1405686989887794</v>
-      </c>
       <c r="L246" t="n">
-        <v>0.02136992207088378</v>
+        <v>0.008082660682716153</v>
       </c>
       <c r="M246" t="n">
-        <v>0.1404873687107499</v>
+        <v>0.1404680774428893</v>
       </c>
       <c r="N246" t="n">
-        <v>0.01134157452240701</v>
+        <v>0.0145185374590025</v>
       </c>
       <c r="O246" t="n">
-        <v>0.1424079478290336</v>
+        <v>0.1397757204241558</v>
       </c>
     </row>
     <row r="247" ht="15" customHeight="1">
       <c r="F247" t="n">
-        <v>0.01106531076706468</v>
+        <v>0.008591879956369099</v>
       </c>
       <c r="G247" t="n">
+        <v>0.06406218462343968</v>
+      </c>
+      <c r="J247" t="n">
+        <v>0.01109901637349489</v>
+      </c>
+      <c r="K247" t="n">
         <v>0.143194732071183</v>
       </c>
-      <c r="J247" t="n">
-        <v>0.01691460743739748</v>
-      </c>
-      <c r="K247" t="n">
-        <v>0.1413453216351263</v>
-      </c>
       <c r="L247" t="n">
-        <v>0.02057972274134717</v>
+        <v>0.008054761094415608</v>
       </c>
       <c r="M247" t="n">
-        <v>0.1412635420185441</v>
+        <v>0.1412441441690931</v>
       </c>
       <c r="N247" t="n">
-        <v>0.01106531076706468</v>
+        <v>0.01369568317567449</v>
       </c>
       <c r="O247" t="n">
-        <v>0.143194732071183</v>
+        <v>0.1405479619734606</v>
       </c>
     </row>
     <row r="248" ht="15" customHeight="1">
       <c r="F248" t="n">
-        <v>0.01119181078447309</v>
+        <v>0.008313556728564264</v>
       </c>
       <c r="G248" t="n">
+        <v>0.06397591689010745</v>
+      </c>
+      <c r="J248" t="n">
+        <v>0.01092176211106687</v>
+      </c>
+      <c r="K248" t="n">
         <v>0.1439815163133323</v>
       </c>
-      <c r="J248" t="n">
-        <v>0.01728012386278097</v>
-      </c>
-      <c r="K248" t="n">
-        <v>0.1421219442814731</v>
-      </c>
       <c r="L248" t="n">
-        <v>0.01968389898873013</v>
+        <v>0.007332647025957206</v>
       </c>
       <c r="M248" t="n">
-        <v>0.1420397153263383</v>
+        <v>0.1420202108952969</v>
       </c>
       <c r="N248" t="n">
-        <v>0.01119181078447309</v>
+        <v>0.01337887054323894</v>
       </c>
       <c r="O248" t="n">
-        <v>0.1439815163133323</v>
+        <v>0.1413202035227653</v>
       </c>
     </row>
     <row r="249" ht="15" customHeight="1">
       <c r="F249" t="n">
-        <v>0.01112116677347251</v>
+        <v>0.008041723347772665</v>
       </c>
       <c r="G249" t="n">
+        <v>0.06388964915677522</v>
+      </c>
+      <c r="J249" t="n">
+        <v>0.01054363545287409</v>
+      </c>
+      <c r="K249" t="n">
         <v>0.1447683005554817</v>
       </c>
-      <c r="J249" t="n">
-        <v>0.01665772555635062</v>
-      </c>
-      <c r="K249" t="n">
-        <v>0.14289856692782</v>
-      </c>
       <c r="L249" t="n">
-        <v>0.01958245112491963</v>
+        <v>0.007616503140096487</v>
       </c>
       <c r="M249" t="n">
-        <v>0.1428158886341325</v>
+        <v>0.1427962776215007</v>
       </c>
       <c r="N249" t="n">
-        <v>0.01112116677347251</v>
+        <v>0.01356821821337756</v>
       </c>
       <c r="O249" t="n">
-        <v>0.1447683005554817</v>
+        <v>0.14209244507207</v>
       </c>
     </row>
     <row r="250" ht="15" customHeight="1">
       <c r="F250" t="n">
-        <v>0.01085347093290317</v>
+        <v>0.007776757748880279</v>
       </c>
       <c r="G250" t="n">
+        <v>0.063803381423443</v>
+      </c>
+      <c r="J250" t="n">
+        <v>0.01056464614799116</v>
+      </c>
+      <c r="K250" t="n">
         <v>0.145555084797631</v>
       </c>
-      <c r="J250" t="n">
-        <v>0.01664768691171431</v>
-      </c>
-      <c r="K250" t="n">
-        <v>0.1436751895741668</v>
-      </c>
       <c r="L250" t="n">
-        <v>0.01807537946180304</v>
+        <v>0.007106514099589178</v>
       </c>
       <c r="M250" t="n">
-        <v>0.1435920619419267</v>
+        <v>0.1435723443477045</v>
       </c>
       <c r="N250" t="n">
-        <v>0.01085347093290317</v>
+        <v>0.01316384483777167</v>
       </c>
       <c r="O250" t="n">
-        <v>0.145555084797631</v>
+        <v>0.1428646866213747</v>
       </c>
     </row>
     <row r="251" ht="15" customHeight="1">
       <c r="F251" t="n">
-        <v>0.01088881546160531</v>
+        <v>0.007519037866773229</v>
       </c>
       <c r="G251" t="n">
+        <v>0.06371711369011077</v>
+      </c>
+      <c r="J251" t="n">
+        <v>0.01038480394549266</v>
+      </c>
+      <c r="K251" t="n">
         <v>0.1463418690397804</v>
       </c>
-      <c r="J251" t="n">
-        <v>0.01645028232248</v>
-      </c>
-      <c r="K251" t="n">
-        <v>0.1444518122205137</v>
-      </c>
       <c r="L251" t="n">
-        <v>0.0169626843112673</v>
+        <v>0.007002864567190875</v>
       </c>
       <c r="M251" t="n">
-        <v>0.1443682352497209</v>
+        <v>0.1443484110739083</v>
       </c>
       <c r="N251" t="n">
-        <v>0.01088881546160531</v>
+        <v>0.01376586906810318</v>
       </c>
       <c r="O251" t="n">
-        <v>0.1463418690397804</v>
+        <v>0.1436369281706795</v>
       </c>
     </row>
     <row r="252" ht="15" customHeight="1">
       <c r="F252" t="n">
-        <v>0.01092729255841916</v>
+        <v>0.007268941636337546</v>
       </c>
       <c r="G252" t="n">
+        <v>0.06363084595677854</v>
+      </c>
+      <c r="J252" t="n">
+        <v>0.01010411859445318</v>
+      </c>
+      <c r="K252" t="n">
         <v>0.1471286532819297</v>
       </c>
-      <c r="J252" t="n">
-        <v>0.01626578618225555</v>
-      </c>
-      <c r="K252" t="n">
-        <v>0.1452284348668605</v>
-      </c>
       <c r="L252" t="n">
-        <v>0.01604436598519965</v>
+        <v>0.007305739205657219</v>
       </c>
       <c r="M252" t="n">
-        <v>0.1451444085575151</v>
+        <v>0.1451244778001121</v>
       </c>
       <c r="N252" t="n">
-        <v>0.01092729255841916</v>
+        <v>0.01317440955605359</v>
       </c>
       <c r="O252" t="n">
-        <v>0.1471286532819297</v>
+        <v>0.1444091697199842</v>
       </c>
     </row>
     <row r="253" ht="15" customHeight="1">
       <c r="F253" t="n">
-        <v>0.01066899442218498</v>
+        <v>0.00702684699245925</v>
       </c>
       <c r="G253" t="n">
+        <v>0.06354457822344631</v>
+      </c>
+      <c r="J253" t="n">
+        <v>0.01002259984394731</v>
+      </c>
+      <c r="K253" t="n">
         <v>0.1479154375240791</v>
       </c>
-      <c r="J253" t="n">
-        <v>0.01619447288464892</v>
-      </c>
-      <c r="K253" t="n">
-        <v>0.1460050575132074</v>
-      </c>
       <c r="L253" t="n">
-        <v>0.01512042479548731</v>
+        <v>0.007315322677743874</v>
       </c>
       <c r="M253" t="n">
-        <v>0.1459205818653093</v>
+        <v>0.1459005445263159</v>
       </c>
       <c r="N253" t="n">
-        <v>0.01066899442218498</v>
+        <v>0.01328958495330435</v>
       </c>
       <c r="O253" t="n">
-        <v>0.1479154375240791</v>
+        <v>0.1451814112692889</v>
       </c>
     </row>
     <row r="254" ht="15" customHeight="1">
       <c r="F254" t="n">
-        <v>0.01061401325174299</v>
+        <v>0.006793131870024463</v>
       </c>
       <c r="G254" t="n">
+        <v>0.06345831049011408</v>
+      </c>
+      <c r="J254" t="n">
+        <v>0.009740257443049669</v>
+      </c>
+      <c r="K254" t="n">
         <v>0.1487022217662285</v>
       </c>
-      <c r="J254" t="n">
-        <v>0.01583661682326803</v>
-      </c>
-      <c r="K254" t="n">
-        <v>0.1467816801595542</v>
-      </c>
       <c r="L254" t="n">
-        <v>0.01459086105401741</v>
+        <v>0.007131799646206416</v>
       </c>
       <c r="M254" t="n">
-        <v>0.1466967551731035</v>
+        <v>0.1466766112525197</v>
       </c>
       <c r="N254" t="n">
-        <v>0.01061401325174299</v>
+        <v>0.01291151391153716</v>
       </c>
       <c r="O254" t="n">
-        <v>0.1487022217662285</v>
+        <v>0.1459536528185936</v>
       </c>
     </row>
     <row r="255" ht="15" customHeight="1">
       <c r="F255" t="n">
-        <v>0.01066244124593342</v>
+        <v>0.006568174203919176</v>
       </c>
       <c r="G255" t="n">
+        <v>0.06337204275678184</v>
+      </c>
+      <c r="J255" t="n">
+        <v>0.009457101140834832</v>
+      </c>
+      <c r="K255" t="n">
         <v>0.1494890060083778</v>
       </c>
-      <c r="J255" t="n">
-        <v>0.01569249239172071</v>
-      </c>
-      <c r="K255" t="n">
-        <v>0.1475583028059011</v>
-      </c>
       <c r="L255" t="n">
-        <v>0.0138556750726771</v>
+        <v>0.007055354773800565</v>
       </c>
       <c r="M255" t="n">
-        <v>0.1474729284808977</v>
+        <v>0.1474526779787235</v>
       </c>
       <c r="N255" t="n">
-        <v>0.01066244124593342</v>
+        <v>0.01324031508243356</v>
       </c>
       <c r="O255" t="n">
-        <v>0.1494890060083778</v>
+        <v>0.1467258943678984</v>
       </c>
     </row>
     <row r="256" ht="15" customHeight="1">
       <c r="F256" t="n">
-        <v>0.01071437060359655</v>
+        <v>0.006352351929029505</v>
       </c>
       <c r="G256" t="n">
+        <v>0.06328577502344962</v>
+      </c>
+      <c r="J256" t="n">
+        <v>0.009473140686377397</v>
+      </c>
+      <c r="K256" t="n">
         <v>0.1502757902505272</v>
       </c>
-      <c r="J256" t="n">
-        <v>0.01536237398361498</v>
-      </c>
-      <c r="K256" t="n">
-        <v>0.1483349254522479</v>
-      </c>
       <c r="L256" t="n">
-        <v>0.01241486716335349</v>
+        <v>0.007186172723281925</v>
       </c>
       <c r="M256" t="n">
-        <v>0.1482491017886919</v>
+        <v>0.1482287447049273</v>
       </c>
       <c r="N256" t="n">
-        <v>0.01071437060359655</v>
+        <v>0.01277610711767518</v>
       </c>
       <c r="O256" t="n">
-        <v>0.1502757902505272</v>
+        <v>0.1474981359172031</v>
       </c>
     </row>
     <row r="257" ht="15" customHeight="1">
       <c r="F257" t="n">
-        <v>0.01046989352357258</v>
+        <v>0.00614604298024149</v>
       </c>
       <c r="G257" t="n">
+        <v>0.06319950729011739</v>
+      </c>
+      <c r="J257" t="n">
+        <v>0.009188385828751935</v>
+      </c>
+      <c r="K257" t="n">
         <v>0.1510625744926765</v>
       </c>
-      <c r="J257" t="n">
-        <v>0.01524653599255871</v>
-      </c>
-      <c r="K257" t="n">
-        <v>0.1491115480985948</v>
-      </c>
       <c r="L257" t="n">
-        <v>0.01166843763793363</v>
+        <v>0.00702443815740611</v>
       </c>
       <c r="M257" t="n">
-        <v>0.1490252750964861</v>
+        <v>0.1490048114311311</v>
       </c>
       <c r="N257" t="n">
-        <v>0.01046989352357258</v>
+        <v>0.01341900866894369</v>
       </c>
       <c r="O257" t="n">
-        <v>0.1510625744926765</v>
+        <v>0.1482703774665078</v>
       </c>
     </row>
     <row r="258" ht="15" customHeight="1">
       <c r="F258" t="n">
-        <v>0.01042910220470177</v>
+        <v>0.005949625292441134</v>
       </c>
       <c r="G258" t="n">
+        <v>0.06311323955678516</v>
+      </c>
+      <c r="J258" t="n">
+        <v>0.009002846317033068</v>
+      </c>
+      <c r="K258" t="n">
         <v>0.1518493587348259</v>
       </c>
-      <c r="J258" t="n">
-        <v>0.01564525281215984</v>
-      </c>
-      <c r="K258" t="n">
-        <v>0.1498881707449416</v>
-      </c>
       <c r="L258" t="n">
-        <v>0.01121638680830489</v>
+        <v>0.007070335738928735</v>
       </c>
       <c r="M258" t="n">
-        <v>0.1498014484042803</v>
+        <v>0.149780878157335</v>
       </c>
       <c r="N258" t="n">
-        <v>0.01042910220470177</v>
+        <v>0.01296913838792052</v>
       </c>
       <c r="O258" t="n">
-        <v>0.1518493587348259</v>
+        <v>0.1490426190158126</v>
       </c>
     </row>
     <row r="259" ht="15" customHeight="1">
       <c r="F259" t="n">
-        <v>0.01049208884582435</v>
+        <v>0.005763476800514561</v>
       </c>
       <c r="G259" t="n">
+        <v>0.06302697182345293</v>
+      </c>
+      <c r="J259" t="n">
+        <v>0.008816531900295382</v>
+      </c>
+      <c r="K259" t="n">
         <v>0.1526361429769753</v>
       </c>
-      <c r="J259" t="n">
-        <v>0.0150587988360262</v>
-      </c>
-      <c r="K259" t="n">
-        <v>0.1506647933912885</v>
-      </c>
       <c r="L259" t="n">
-        <v>0.009958714986354311</v>
+        <v>0.006524050130605558</v>
       </c>
       <c r="M259" t="n">
-        <v>0.1505776217120745</v>
+        <v>0.1505569448835388</v>
       </c>
       <c r="N259" t="n">
-        <v>0.01049208884582435</v>
+        <v>0.01342661492628733</v>
       </c>
       <c r="O259" t="n">
-        <v>0.1526361429769753</v>
+        <v>0.1498148605651173</v>
       </c>
     </row>
     <row r="260" ht="15" customHeight="1">
       <c r="F260" t="n">
-        <v>0.01055894564578056</v>
+        <v>0.005587975439347803</v>
       </c>
       <c r="G260" t="n">
+        <v>0.0629407040901207</v>
+      </c>
+      <c r="J260" t="n">
+        <v>0.008529452327613471</v>
+      </c>
+      <c r="K260" t="n">
         <v>0.1534229272191246</v>
       </c>
-      <c r="J260" t="n">
-        <v>0.01528744845776581</v>
-      </c>
-      <c r="K260" t="n">
-        <v>0.1514414160376353</v>
-      </c>
       <c r="L260" t="n">
-        <v>0.00869542248396904</v>
+        <v>0.006785765995192067</v>
       </c>
       <c r="M260" t="n">
-        <v>0.1513537950198687</v>
+        <v>0.1513330116097426</v>
       </c>
       <c r="N260" t="n">
-        <v>0.01055894564578056</v>
+        <v>0.01309155693572561</v>
       </c>
       <c r="O260" t="n">
-        <v>0.1534229272191246</v>
+        <v>0.150587102114422</v>
       </c>
     </row>
     <row r="261" ht="15" customHeight="1">
       <c r="F261" t="n">
-        <v>0.01032976480341066</v>
+        <v>0.0054234991438269</v>
       </c>
       <c r="G261" t="n">
+        <v>0.06285443635678847</v>
+      </c>
+      <c r="J261" t="n">
+        <v>0.008441617348061918</v>
+      </c>
+      <c r="K261" t="n">
         <v>0.1542097114612739</v>
       </c>
-      <c r="J261" t="n">
-        <v>0.01503147607098654</v>
-      </c>
-      <c r="K261" t="n">
-        <v>0.1522180386839821</v>
-      </c>
       <c r="L261" t="n">
-        <v>0.007926509613036314</v>
+        <v>0.00635566799544407</v>
       </c>
       <c r="M261" t="n">
-        <v>0.1521299683276629</v>
+        <v>0.1521090783359464</v>
       </c>
       <c r="N261" t="n">
-        <v>0.01032976480341066</v>
+        <v>0.01266408306791722</v>
       </c>
       <c r="O261" t="n">
-        <v>0.1542097114612739</v>
+        <v>0.1513593436637267</v>
       </c>
     </row>
     <row r="262" ht="15" customHeight="1">
       <c r="F262" t="n">
-        <v>0.01050463851755486</v>
+        <v>0.00527042584883794</v>
       </c>
       <c r="G262" t="n">
+        <v>0.06276816862345624</v>
+      </c>
+      <c r="J262" t="n">
+        <v>0.008353036710715335</v>
+      </c>
+      <c r="K262" t="n">
         <v>0.1549964957034233</v>
       </c>
-      <c r="J262" t="n">
-        <v>0.01539115606929631</v>
-      </c>
-      <c r="K262" t="n">
-        <v>0.152994661330329</v>
-      </c>
       <c r="L262" t="n">
-        <v>0.007051976685443218</v>
+        <v>0.00653394079411701</v>
       </c>
       <c r="M262" t="n">
-        <v>0.1529061416354571</v>
+        <v>0.1528851450621502</v>
       </c>
       <c r="N262" t="n">
-        <v>0.01050463851755486</v>
+        <v>0.01324431197454345</v>
       </c>
       <c r="O262" t="n">
-        <v>0.1549964957034233</v>
+        <v>0.1521315852130315</v>
       </c>
     </row>
     <row r="263" ht="15" customHeight="1">
       <c r="F263" t="n">
-        <v>0.0102836589870534</v>
+        <v>0.00512913348926694</v>
       </c>
       <c r="G263" t="n">
+        <v>0.062681900890124</v>
+      </c>
+      <c r="J263" t="n">
+        <v>0.007963720164648302</v>
+      </c>
+      <c r="K263" t="n">
         <v>0.1557832799455727</v>
       </c>
-      <c r="J263" t="n">
-        <v>0.01526676284630307</v>
-      </c>
-      <c r="K263" t="n">
-        <v>0.1537712839766758</v>
-      </c>
       <c r="L263" t="n">
-        <v>0.005671824013076865</v>
+        <v>0.006620769053966663</v>
       </c>
       <c r="M263" t="n">
-        <v>0.1536823149432513</v>
+        <v>0.153661211788354</v>
       </c>
       <c r="N263" t="n">
-        <v>0.0102836589870534</v>
+        <v>0.01313236230728609</v>
       </c>
       <c r="O263" t="n">
-        <v>0.1557832799455727</v>
+        <v>0.1529038267623362</v>
       </c>
     </row>
     <row r="264" ht="15" customHeight="1">
       <c r="F264" t="n">
-        <v>0.01046691841074654</v>
+        <v>0.004999999999999998</v>
       </c>
       <c r="G264" t="n">
+        <v>0.06259563315679179</v>
+      </c>
+      <c r="J264" t="n">
+        <v>0.007873677458935406</v>
+      </c>
+      <c r="K264" t="n">
         <v>0.156570064187722</v>
       </c>
-      <c r="J264" t="n">
-        <v>0.01495857079561463</v>
-      </c>
-      <c r="K264" t="n">
-        <v>0.1545479066230227</v>
-      </c>
       <c r="L264" t="n">
-        <v>0.005186051907824507</v>
+        <v>0.006616337437748643</v>
       </c>
       <c r="M264" t="n">
-        <v>0.1544584882510455</v>
+        <v>0.1544372785145578</v>
       </c>
       <c r="N264" t="n">
-        <v>0.01046691841074654</v>
+        <v>0.01282835271782662</v>
       </c>
       <c r="O264" t="n">
-        <v>0.156570064187722</v>
-      </c>
-    </row>
-    <row r="265" ht="15" customHeight="1"/>
-    <row r="266" ht="15" customHeight="1"/>
-    <row r="267" ht="15" customHeight="1"/>
-    <row r="268" ht="15" customHeight="1"/>
-    <row r="269" ht="15" customHeight="1"/>
-    <row r="270" ht="15" customHeight="1"/>
-    <row r="271" ht="15" customHeight="1"/>
-    <row r="272" ht="15" customHeight="1"/>
-    <row r="273" ht="15" customHeight="1"/>
-    <row r="274" ht="15" customHeight="1"/>
-    <row r="275" ht="15" customHeight="1"/>
-    <row r="276" ht="15" customHeight="1"/>
-    <row r="277" ht="15" customHeight="1"/>
-    <row r="278" ht="15" customHeight="1"/>
-    <row r="279" ht="15" customHeight="1"/>
-    <row r="280" ht="15" customHeight="1"/>
-    <row r="281" ht="15" customHeight="1"/>
-    <row r="282" ht="15" customHeight="1"/>
-    <row r="283" ht="15" customHeight="1"/>
-    <row r="284" ht="15" customHeight="1"/>
-    <row r="285" ht="15" customHeight="1"/>
-    <row r="286" ht="15" customHeight="1"/>
-    <row r="287" ht="15" customHeight="1"/>
-    <row r="288" ht="15" customHeight="1"/>
-    <row r="289" ht="15" customHeight="1"/>
-    <row r="290" ht="15" customHeight="1"/>
-    <row r="291" ht="15" customHeight="1"/>
-    <row r="292" ht="15" customHeight="1"/>
-    <row r="293" ht="15" customHeight="1"/>
-    <row r="294" ht="15" customHeight="1"/>
-    <row r="295" ht="15" customHeight="1"/>
-    <row r="296" ht="15" customHeight="1"/>
-    <row r="297" ht="15" customHeight="1"/>
-    <row r="298" ht="15" customHeight="1"/>
-    <row r="299" ht="15" customHeight="1"/>
-    <row r="300" ht="15" customHeight="1"/>
-    <row r="301" ht="15" customHeight="1"/>
-    <row r="302" ht="15" customHeight="1"/>
-    <row r="303" ht="15" customHeight="1"/>
-    <row r="304" ht="15" customHeight="1"/>
-    <row r="305" ht="15" customHeight="1"/>
-    <row r="306" ht="15" customHeight="1"/>
-    <row r="307" ht="15" customHeight="1"/>
-    <row r="308" ht="15" customHeight="1"/>
-    <row r="309" ht="15" customHeight="1"/>
-    <row r="310" ht="15" customHeight="1"/>
-    <row r="311" ht="15" customHeight="1"/>
-    <row r="312" ht="15" customHeight="1"/>
-    <row r="313" ht="15" customHeight="1"/>
-    <row r="314" ht="15" customHeight="1"/>
-    <row r="315" ht="15" customHeight="1"/>
-    <row r="316" ht="15" customHeight="1"/>
-    <row r="317" ht="15" customHeight="1"/>
-    <row r="318" ht="15" customHeight="1"/>
-    <row r="319" ht="15" customHeight="1"/>
-    <row r="320" ht="15" customHeight="1"/>
-    <row r="321" ht="15" customHeight="1"/>
-    <row r="322" ht="15" customHeight="1"/>
-    <row r="323" ht="15" customHeight="1"/>
-    <row r="324" ht="15" customHeight="1"/>
-    <row r="325" ht="15" customHeight="1"/>
-    <row r="326" ht="15" customHeight="1"/>
-    <row r="327" ht="15" customHeight="1"/>
-    <row r="328" ht="15" customHeight="1"/>
-    <row r="329" ht="15" customHeight="1"/>
-    <row r="330" ht="15" customHeight="1"/>
-    <row r="331" ht="15" customHeight="1"/>
-    <row r="332" ht="15" customHeight="1"/>
-    <row r="333" ht="15" customHeight="1"/>
-    <row r="334" ht="15" customHeight="1"/>
-    <row r="335" ht="15" customHeight="1"/>
-    <row r="336" ht="15" customHeight="1"/>
-    <row r="337" ht="15" customHeight="1"/>
-    <row r="338" ht="15" customHeight="1"/>
-    <row r="339" ht="15" customHeight="1"/>
-    <row r="340" ht="15" customHeight="1"/>
-    <row r="341" ht="15" customHeight="1"/>
-    <row r="342" ht="15" customHeight="1"/>
-    <row r="343" ht="15" customHeight="1"/>
-    <row r="344" ht="15" customHeight="1"/>
-    <row r="345" ht="15" customHeight="1"/>
-    <row r="346" ht="15" customHeight="1"/>
-    <row r="347" ht="15" customHeight="1"/>
-    <row r="348" ht="15" customHeight="1"/>
-    <row r="349" ht="15" customHeight="1"/>
-    <row r="350" ht="15" customHeight="1"/>
-    <row r="351" ht="15" customHeight="1"/>
-    <row r="352" ht="15" customHeight="1"/>
-    <row r="353" ht="15" customHeight="1"/>
-    <row r="354" ht="15" customHeight="1"/>
-    <row r="355" ht="15" customHeight="1"/>
-    <row r="356" ht="15" customHeight="1"/>
-    <row r="357" ht="15" customHeight="1"/>
-    <row r="358" ht="15" customHeight="1"/>
-    <row r="359" ht="15" customHeight="1"/>
-    <row r="360" ht="15" customHeight="1"/>
-    <row r="361" ht="15" customHeight="1"/>
-    <row r="362" ht="15" customHeight="1"/>
-    <row r="363" ht="15" customHeight="1"/>
-    <row r="364" ht="15" customHeight="1"/>
-    <row r="365" ht="15" customHeight="1"/>
-    <row r="366" ht="15" customHeight="1"/>
-    <row r="367" ht="15" customHeight="1"/>
-    <row r="368" ht="15" customHeight="1"/>
-    <row r="369" ht="15" customHeight="1"/>
-    <row r="370" ht="15" customHeight="1"/>
-    <row r="371" ht="15" customHeight="1"/>
-    <row r="372" ht="15" customHeight="1"/>
-    <row r="373" ht="15" customHeight="1"/>
-    <row r="374" ht="15" customHeight="1"/>
-    <row r="375" ht="15" customHeight="1"/>
-    <row r="376" ht="15" customHeight="1"/>
-    <row r="377" ht="15" customHeight="1"/>
-    <row r="378" ht="15" customHeight="1"/>
-    <row r="379" ht="15" customHeight="1"/>
-    <row r="380" ht="15" customHeight="1"/>
-    <row r="381" ht="15" customHeight="1"/>
-    <row r="382" ht="15" customHeight="1"/>
-    <row r="383" ht="15" customHeight="1"/>
-    <row r="384" ht="15" customHeight="1"/>
-    <row r="385" ht="15" customHeight="1"/>
-    <row r="386" ht="15" customHeight="1"/>
-    <row r="387" ht="15" customHeight="1"/>
-    <row r="388" ht="15" customHeight="1"/>
-    <row r="389" ht="15" customHeight="1"/>
-    <row r="390" ht="15" customHeight="1"/>
-    <row r="391" ht="15" customHeight="1"/>
-    <row r="392" ht="15" customHeight="1"/>
-    <row r="393" ht="15" customHeight="1"/>
-    <row r="394" ht="15" customHeight="1"/>
-    <row r="395" ht="15" customHeight="1"/>
-    <row r="396" ht="15" customHeight="1"/>
-    <row r="397" ht="15" customHeight="1"/>
-    <row r="398" ht="15" customHeight="1"/>
-    <row r="399" ht="15" customHeight="1"/>
-    <row r="400" ht="15" customHeight="1"/>
-    <row r="401" ht="15" customHeight="1"/>
-    <row r="402" ht="15" customHeight="1"/>
-    <row r="403" ht="15" customHeight="1"/>
-    <row r="404" ht="15" customHeight="1"/>
-    <row r="405" ht="15" customHeight="1"/>
-    <row r="406" ht="15" customHeight="1"/>
-    <row r="407" ht="15" customHeight="1"/>
-    <row r="408" ht="15" customHeight="1"/>
-    <row r="409" ht="15" customHeight="1"/>
-    <row r="410" ht="15" customHeight="1"/>
-    <row r="411" ht="15" customHeight="1"/>
-    <row r="412" ht="15" customHeight="1"/>
-    <row r="413" ht="15" customHeight="1"/>
-    <row r="414" ht="15" customHeight="1"/>
-    <row r="415" ht="15" customHeight="1"/>
-    <row r="416" ht="15" customHeight="1"/>
-    <row r="417" ht="15" customHeight="1"/>
-    <row r="418" ht="15" customHeight="1"/>
-    <row r="419" ht="15" customHeight="1"/>
-    <row r="420" ht="15" customHeight="1"/>
-    <row r="421" ht="15" customHeight="1"/>
-    <row r="422" ht="15" customHeight="1"/>
-    <row r="423" ht="15" customHeight="1"/>
-    <row r="424" ht="15" customHeight="1"/>
-    <row r="425" ht="15" customHeight="1"/>
-    <row r="426" ht="15" customHeight="1"/>
-    <row r="427" ht="15" customHeight="1"/>
-    <row r="428" ht="15" customHeight="1"/>
-    <row r="429" ht="15" customHeight="1"/>
-    <row r="430" ht="15" customHeight="1"/>
-    <row r="431" ht="15" customHeight="1"/>
-    <row r="432" ht="15" customHeight="1"/>
-    <row r="433" ht="15" customHeight="1"/>
-    <row r="434" ht="15" customHeight="1"/>
-    <row r="435" ht="15" customHeight="1"/>
-    <row r="436" ht="15" customHeight="1"/>
-    <row r="437" ht="15" customHeight="1"/>
-    <row r="438" ht="15" customHeight="1"/>
-    <row r="439" ht="15" customHeight="1"/>
-    <row r="440" ht="15" customHeight="1"/>
-    <row r="441" ht="15" customHeight="1"/>
-    <row r="442" ht="15" customHeight="1"/>
-    <row r="443" ht="15" customHeight="1"/>
-    <row r="444" ht="15" customHeight="1"/>
-    <row r="445" ht="15" customHeight="1"/>
-    <row r="446" ht="15" customHeight="1"/>
-    <row r="447" ht="15" customHeight="1"/>
-    <row r="448" ht="15" customHeight="1"/>
-    <row r="449" ht="15" customHeight="1"/>
-    <row r="450" ht="15" customHeight="1"/>
-    <row r="451" ht="15" customHeight="1"/>
-    <row r="452" ht="15" customHeight="1"/>
-    <row r="453" ht="15" customHeight="1"/>
-    <row r="454" ht="15" customHeight="1"/>
-    <row r="455" ht="15" customHeight="1"/>
-    <row r="456" ht="15" customHeight="1"/>
-    <row r="457" ht="15" customHeight="1"/>
-    <row r="458" ht="15" customHeight="1"/>
-    <row r="459" ht="15" customHeight="1"/>
-    <row r="460" ht="15" customHeight="1"/>
-    <row r="461" ht="15" customHeight="1"/>
-    <row r="462" ht="15" customHeight="1"/>
-    <row r="463" ht="15" customHeight="1"/>
-    <row r="464" ht="15" customHeight="1"/>
+        <v>0.1536760683116409</v>
+      </c>
+    </row>
+    <row r="265" ht="15" customHeight="1">
+      <c r="F265" t="n">
+        <v>0.004999999999999998</v>
+      </c>
+      <c r="G265" t="n">
+        <v>0.06258247526205493</v>
+      </c>
+    </row>
+    <row r="266" ht="15" customHeight="1">
+      <c r="F266" t="n">
+        <v>0.005615033032866937</v>
+      </c>
+      <c r="G266" t="n">
+        <v>0.06258274379051895</v>
+      </c>
+    </row>
+    <row r="267" ht="15" customHeight="1">
+      <c r="F267" t="n">
+        <v>0.006226359398048248</v>
+      </c>
+      <c r="G267" t="n">
+        <v>0.06258301231898296</v>
+      </c>
+    </row>
+    <row r="268" ht="15" customHeight="1">
+      <c r="F268" t="n">
+        <v>0.006833931650542732</v>
+      </c>
+      <c r="G268" t="n">
+        <v>0.06258328084744699</v>
+      </c>
+    </row>
+    <row r="269" ht="15" customHeight="1">
+      <c r="F269" t="n">
+        <v>0.007437702345269893</v>
+      </c>
+      <c r="G269" t="n">
+        <v>0.062583549375911</v>
+      </c>
+    </row>
+    <row r="270" ht="15" customHeight="1">
+      <c r="F270" t="n">
+        <v>0.008037624037228693</v>
+      </c>
+      <c r="G270" t="n">
+        <v>0.06258381790437502</v>
+      </c>
+    </row>
+    <row r="271" ht="15" customHeight="1">
+      <c r="F271" t="n">
+        <v>0.008633649281391535</v>
+      </c>
+      <c r="G271" t="n">
+        <v>0.06258408643283904</v>
+      </c>
+    </row>
+    <row r="272" ht="15" customHeight="1">
+      <c r="F272" t="n">
+        <v>0.009225730632756536</v>
+      </c>
+      <c r="G272" t="n">
+        <v>0.06258435496130306</v>
+      </c>
+    </row>
+    <row r="273" ht="15" customHeight="1">
+      <c r="F273" t="n">
+        <v>0.009813820646244566</v>
+      </c>
+      <c r="G273" t="n">
+        <v>0.06258462348976708</v>
+      </c>
+    </row>
+    <row r="274" ht="15" customHeight="1">
+      <c r="F274" t="n">
+        <v>0.0103978718768539</v>
+      </c>
+      <c r="G274" t="n">
+        <v>0.06258489201823109</v>
+      </c>
+    </row>
+    <row r="275" ht="15" customHeight="1">
+      <c r="F275" t="n">
+        <v>0.01097783687955695</v>
+      </c>
+      <c r="G275" t="n">
+        <v>0.06258516054669511</v>
+      </c>
+    </row>
+    <row r="276" ht="15" customHeight="1">
+      <c r="F276" t="n">
+        <v>0.0115536682093511</v>
+      </c>
+      <c r="G276" t="n">
+        <v>0.06258542907515913</v>
+      </c>
+    </row>
+    <row r="277" ht="15" customHeight="1">
+      <c r="F277" t="n">
+        <v>0.01212531842115865</v>
+      </c>
+      <c r="G277" t="n">
+        <v>0.06258569760362315</v>
+      </c>
+    </row>
+    <row r="278" ht="15" customHeight="1">
+      <c r="F278" t="n">
+        <v>0.01269274006997718</v>
+      </c>
+      <c r="G278" t="n">
+        <v>0.06258596613208715</v>
+      </c>
+    </row>
+    <row r="279" ht="15" customHeight="1">
+      <c r="F279" t="n">
+        <v>0.0132558857107791</v>
+      </c>
+      <c r="G279" t="n">
+        <v>0.06258623466055117</v>
+      </c>
+    </row>
+    <row r="280" ht="15" customHeight="1">
+      <c r="F280" t="n">
+        <v>0.01381470789856104</v>
+      </c>
+      <c r="G280" t="n">
+        <v>0.06258650318901519</v>
+      </c>
+    </row>
+    <row r="281" ht="15" customHeight="1">
+      <c r="F281" t="n">
+        <v>0.01436915918824679</v>
+      </c>
+      <c r="G281" t="n">
+        <v>0.06258677171747921</v>
+      </c>
+    </row>
+    <row r="282" ht="15" customHeight="1">
+      <c r="F282" t="n">
+        <v>0.01491919213483318</v>
+      </c>
+      <c r="G282" t="n">
+        <v>0.06258704024594323</v>
+      </c>
+    </row>
+    <row r="283" ht="15" customHeight="1">
+      <c r="F283" t="n">
+        <v>0.01546475929329262</v>
+      </c>
+      <c r="G283" t="n">
+        <v>0.06258730877440724</v>
+      </c>
+    </row>
+    <row r="284" ht="15" customHeight="1">
+      <c r="F284" t="n">
+        <v>0.016005813218621</v>
+      </c>
+      <c r="G284" t="n">
+        <v>0.06258757730287128</v>
+      </c>
+    </row>
+    <row r="285" ht="15" customHeight="1">
+      <c r="F285" t="n">
+        <v>0.01654230646574361</v>
+      </c>
+      <c r="G285" t="n">
+        <v>0.06258784583133528</v>
+      </c>
+    </row>
+    <row r="286" ht="15" customHeight="1">
+      <c r="F286" t="n">
+        <v>0.01707419158965653</v>
+      </c>
+      <c r="G286" t="n">
+        <v>0.0625881143597993</v>
+      </c>
+    </row>
+    <row r="287" ht="15" customHeight="1">
+      <c r="F287" t="n">
+        <v>0.01760142114533218</v>
+      </c>
+      <c r="G287" t="n">
+        <v>0.06258838288826331</v>
+      </c>
+    </row>
+    <row r="288" ht="15" customHeight="1">
+      <c r="F288" t="n">
+        <v>0.0181239476877656</v>
+      </c>
+      <c r="G288" t="n">
+        <v>0.06258865141672734</v>
+      </c>
+    </row>
+    <row r="289" ht="15" customHeight="1">
+      <c r="F289" t="n">
+        <v>0.01864172377188374</v>
+      </c>
+      <c r="G289" t="n">
+        <v>0.06258891994519135</v>
+      </c>
+    </row>
+    <row r="290" ht="15" customHeight="1">
+      <c r="F290" t="n">
+        <v>0.01915489568654447</v>
+      </c>
+      <c r="G290" t="n">
+        <v>0.06258918847365537</v>
+      </c>
+    </row>
+    <row r="291" ht="15" customHeight="1">
+      <c r="F291" t="n">
+        <v>0.01966457838989599</v>
+      </c>
+      <c r="G291" t="n">
+        <v>0.06258945700211938</v>
+      </c>
+    </row>
+    <row r="292" ht="15" customHeight="1">
+      <c r="F292" t="n">
+        <v>0.02017091817079533</v>
+      </c>
+      <c r="G292" t="n">
+        <v>0.06258972553058341</v>
+      </c>
+    </row>
+    <row r="293" ht="15" customHeight="1">
+      <c r="F293" t="n">
+        <v>0.02067386758417081</v>
+      </c>
+      <c r="G293" t="n">
+        <v>0.06258999405904742</v>
+      </c>
+    </row>
+    <row r="294" ht="15" customHeight="1">
+      <c r="F294" t="n">
+        <v>0.021173379185017</v>
+      </c>
+      <c r="G294" t="n">
+        <v>0.06259026258751144</v>
+      </c>
+    </row>
+    <row r="295" ht="15" customHeight="1">
+      <c r="F295" t="n">
+        <v>0.02166940552830627</v>
+      </c>
+      <c r="G295" t="n">
+        <v>0.06259053111597546</v>
+      </c>
+    </row>
+    <row r="296" ht="15" customHeight="1">
+      <c r="F296" t="n">
+        <v>0.02216189916903243</v>
+      </c>
+      <c r="G296" t="n">
+        <v>0.06259079964443948</v>
+      </c>
+    </row>
+    <row r="297" ht="15" customHeight="1">
+      <c r="F297" t="n">
+        <v>0.02265081266212501</v>
+      </c>
+      <c r="G297" t="n">
+        <v>0.0625910681729035</v>
+      </c>
+    </row>
+    <row r="298" ht="15" customHeight="1">
+      <c r="F298" t="n">
+        <v>0.02313609856257794</v>
+      </c>
+      <c r="G298" t="n">
+        <v>0.0625913367013675</v>
+      </c>
+    </row>
+    <row r="299" ht="15" customHeight="1">
+      <c r="F299" t="n">
+        <v>0.02361770942536365</v>
+      </c>
+      <c r="G299" t="n">
+        <v>0.06259160522983152</v>
+      </c>
+    </row>
+    <row r="300" ht="15" customHeight="1">
+      <c r="F300" t="n">
+        <v>0.02409559780547527</v>
+      </c>
+      <c r="G300" t="n">
+        <v>0.06259187375829554</v>
+      </c>
+    </row>
+    <row r="301" ht="15" customHeight="1">
+      <c r="F301" t="n">
+        <v>0.02456971625784361</v>
+      </c>
+      <c r="G301" t="n">
+        <v>0.06259214228675956</v>
+      </c>
+    </row>
+    <row r="302" ht="15" customHeight="1">
+      <c r="F302" t="n">
+        <v>0.02504001733746195</v>
+      </c>
+      <c r="G302" t="n">
+        <v>0.06259241081522357</v>
+      </c>
+    </row>
+    <row r="303" ht="15" customHeight="1">
+      <c r="F303" t="n">
+        <v>0.02550645359930275</v>
+      </c>
+      <c r="G303" t="n">
+        <v>0.06259267934368759</v>
+      </c>
+    </row>
+    <row r="304" ht="15" customHeight="1">
+      <c r="F304" t="n">
+        <v>0.02596897759835844</v>
+      </c>
+      <c r="G304" t="n">
+        <v>0.06259294787215161</v>
+      </c>
+    </row>
+    <row r="305" ht="15" customHeight="1">
+      <c r="F305" t="n">
+        <v>0.02642754188956119</v>
+      </c>
+      <c r="G305" t="n">
+        <v>0.06259321640061563</v>
+      </c>
+    </row>
+    <row r="306" ht="15" customHeight="1">
+      <c r="F306" t="n">
+        <v>0.02688209902790362</v>
+      </c>
+      <c r="G306" t="n">
+        <v>0.06259348492907964</v>
+      </c>
+    </row>
+    <row r="307" ht="15" customHeight="1">
+      <c r="F307" t="n">
+        <v>0.0273326015683582</v>
+      </c>
+      <c r="G307" t="n">
+        <v>0.06259375345754366</v>
+      </c>
+    </row>
+    <row r="308" ht="15" customHeight="1">
+      <c r="F308" t="n">
+        <v>0.0277790020659166</v>
+      </c>
+      <c r="G308" t="n">
+        <v>0.06259402198600768</v>
+      </c>
+    </row>
+    <row r="309" ht="15" customHeight="1">
+      <c r="F309" t="n">
+        <v>0.02822125307551242</v>
+      </c>
+      <c r="G309" t="n">
+        <v>0.0625942905144717</v>
+      </c>
+    </row>
+    <row r="310" ht="15" customHeight="1">
+      <c r="F310" t="n">
+        <v>0.02865930715213761</v>
+      </c>
+      <c r="G310" t="n">
+        <v>0.06259455904293572</v>
+      </c>
+    </row>
+    <row r="311" ht="15" customHeight="1">
+      <c r="F311" t="n">
+        <v>0.02909311685076459</v>
+      </c>
+      <c r="G311" t="n">
+        <v>0.06259482757139972</v>
+      </c>
+    </row>
+    <row r="312" ht="15" customHeight="1">
+      <c r="F312" t="n">
+        <v>0.02952263472638435</v>
+      </c>
+      <c r="G312" t="n">
+        <v>0.06259509609986376</v>
+      </c>
+    </row>
+    <row r="313" ht="15" customHeight="1">
+      <c r="F313" t="n">
+        <v>0.02994781333393193</v>
+      </c>
+      <c r="G313" t="n">
+        <v>0.06259536462832777</v>
+      </c>
+    </row>
+    <row r="314" ht="15" customHeight="1">
+      <c r="F314" t="n">
+        <v>0.03036860522839854</v>
+      </c>
+      <c r="G314" t="n">
+        <v>0.06259563315679179</v>
+      </c>
+    </row>
+    <row r="315" ht="15" customHeight="1">
+      <c r="F315" t="n">
+        <v>0.03036860522839854</v>
+      </c>
+      <c r="G315" t="n">
+        <v>0.06258247526205493</v>
+      </c>
+    </row>
+    <row r="316" ht="15" customHeight="1">
+      <c r="F316" t="n">
+        <v>0.03081249401984395</v>
+      </c>
+      <c r="G316" t="n">
+        <v>0.0626692800523152</v>
+      </c>
+    </row>
+    <row r="317" ht="15" customHeight="1">
+      <c r="F317" t="n">
+        <v>0.03125197971447708</v>
+      </c>
+      <c r="G317" t="n">
+        <v>0.06275608484257547</v>
+      </c>
+    </row>
+    <row r="318" ht="15" customHeight="1">
+      <c r="F318" t="n">
+        <v>0.03168692264694525</v>
+      </c>
+      <c r="G318" t="n">
+        <v>0.06284288963283573</v>
+      </c>
+    </row>
+    <row r="319" ht="15" customHeight="1">
+      <c r="F319" t="n">
+        <v>0.03211718315189582</v>
+      </c>
+      <c r="G319" t="n">
+        <v>0.062929694423096</v>
+      </c>
+    </row>
+    <row r="320" ht="15" customHeight="1">
+      <c r="F320" t="n">
+        <v>0.03254262156397602</v>
+      </c>
+      <c r="G320" t="n">
+        <v>0.06301649921335625</v>
+      </c>
+    </row>
+    <row r="321" ht="15" customHeight="1">
+      <c r="F321" t="n">
+        <v>0.03296309821783337</v>
+      </c>
+      <c r="G321" t="n">
+        <v>0.06310330400361652</v>
+      </c>
+    </row>
+    <row r="322" ht="15" customHeight="1">
+      <c r="F322" t="n">
+        <v>0.03337847344811509</v>
+      </c>
+      <c r="G322" t="n">
+        <v>0.06319010879387678</v>
+      </c>
+    </row>
+    <row r="323" ht="15" customHeight="1">
+      <c r="F323" t="n">
+        <v>0.03378860758946855</v>
+      </c>
+      <c r="G323" t="n">
+        <v>0.06327691358413705</v>
+      </c>
+    </row>
+    <row r="324" ht="15" customHeight="1">
+      <c r="F324" t="n">
+        <v>0.03419336097654108</v>
+      </c>
+      <c r="G324" t="n">
+        <v>0.06336371837439732</v>
+      </c>
+    </row>
+    <row r="325" ht="15" customHeight="1">
+      <c r="F325" t="n">
+        <v>0.03459259394398002</v>
+      </c>
+      <c r="G325" t="n">
+        <v>0.06345052316465757</v>
+      </c>
+    </row>
+    <row r="326" ht="15" customHeight="1">
+      <c r="F326" t="n">
+        <v>0.03498616682643271</v>
+      </c>
+      <c r="G326" t="n">
+        <v>0.06353732795491784</v>
+      </c>
+    </row>
+    <row r="327" ht="15" customHeight="1">
+      <c r="F327" t="n">
+        <v>0.03537393995854648</v>
+      </c>
+      <c r="G327" t="n">
+        <v>0.06362413274517811</v>
+      </c>
+    </row>
+    <row r="328" ht="15" customHeight="1">
+      <c r="F328" t="n">
+        <v>0.03575577367496861</v>
+      </c>
+      <c r="G328" t="n">
+        <v>0.06371093753543837</v>
+      </c>
+    </row>
+    <row r="329" ht="15" customHeight="1">
+      <c r="F329" t="n">
+        <v>0.03613152831034657</v>
+      </c>
+      <c r="G329" t="n">
+        <v>0.06379774232569863</v>
+      </c>
+    </row>
+    <row r="330" ht="15" customHeight="1">
+      <c r="F330" t="n">
+        <v>0.03650106419932762</v>
+      </c>
+      <c r="G330" t="n">
+        <v>0.0638845471159589</v>
+      </c>
+    </row>
+    <row r="331" ht="15" customHeight="1">
+      <c r="F331" t="n">
+        <v>0.03686424167655909</v>
+      </c>
+      <c r="G331" t="n">
+        <v>0.06397135190621916</v>
+      </c>
+    </row>
+    <row r="332" ht="15" customHeight="1">
+      <c r="F332" t="n">
+        <v>0.03722092107668833</v>
+      </c>
+      <c r="G332" t="n">
+        <v>0.06405815669647942</v>
+      </c>
+    </row>
+    <row r="333" ht="15" customHeight="1">
+      <c r="F333" t="n">
+        <v>0.03757096273436267</v>
+      </c>
+      <c r="G333" t="n">
+        <v>0.06414496148673969</v>
+      </c>
+    </row>
+    <row r="334" ht="15" customHeight="1">
+      <c r="F334" t="n">
+        <v>0.03791422698422948</v>
+      </c>
+      <c r="G334" t="n">
+        <v>0.06423176627699996</v>
+      </c>
+    </row>
+    <row r="335" ht="15" customHeight="1">
+      <c r="F335" t="n">
+        <v>0.03825057416093607</v>
+      </c>
+      <c r="G335" t="n">
+        <v>0.06431857106726022</v>
+      </c>
+    </row>
+    <row r="336" ht="15" customHeight="1">
+      <c r="F336" t="n">
+        <v>0.03857986459912972</v>
+      </c>
+      <c r="G336" t="n">
+        <v>0.06440537585752047</v>
+      </c>
+    </row>
+    <row r="337" ht="15" customHeight="1">
+      <c r="F337" t="n">
+        <v>0.03890195863345789</v>
+      </c>
+      <c r="G337" t="n">
+        <v>0.06449218064778074</v>
+      </c>
+    </row>
+    <row r="338" ht="15" customHeight="1">
+      <c r="F338" t="n">
+        <v>0.03921671659856785</v>
+      </c>
+      <c r="G338" t="n">
+        <v>0.06457898543804101</v>
+      </c>
+    </row>
+    <row r="339" ht="15" customHeight="1">
+      <c r="F339" t="n">
+        <v>0.03952399882910693</v>
+      </c>
+      <c r="G339" t="n">
+        <v>0.06466579022830127</v>
+      </c>
+    </row>
+    <row r="340" ht="15" customHeight="1">
+      <c r="F340" t="n">
+        <v>0.03982423595991253</v>
+      </c>
+      <c r="G340" t="n">
+        <v>0.06475259501856154</v>
+      </c>
+    </row>
+    <row r="341" ht="15" customHeight="1">
+      <c r="F341" t="n">
+        <v>0.0401207101267722</v>
+      </c>
+      <c r="G341" t="n">
+        <v>0.06483939980882181</v>
+      </c>
+    </row>
+    <row r="342" ht="15" customHeight="1">
+      <c r="F342" t="n">
+        <v>0.04041385196452333</v>
+      </c>
+      <c r="G342" t="n">
+        <v>0.06492620459908206</v>
+      </c>
+    </row>
+    <row r="343" ht="15" customHeight="1">
+      <c r="F343" t="n">
+        <v>0.04070352180781325</v>
+      </c>
+      <c r="G343" t="n">
+        <v>0.06501300938934233</v>
+      </c>
+    </row>
+    <row r="344" ht="15" customHeight="1">
+      <c r="F344" t="n">
+        <v>0.04098957999128928</v>
+      </c>
+      <c r="G344" t="n">
+        <v>0.06509981417960259</v>
+      </c>
+    </row>
+    <row r="345" ht="15" customHeight="1">
+      <c r="F345" t="n">
+        <v>0.04127188684959879</v>
+      </c>
+      <c r="G345" t="n">
+        <v>0.06518661896986284</v>
+      </c>
+    </row>
+    <row r="346" ht="15" customHeight="1">
+      <c r="F346" t="n">
+        <v>0.04155030271738911</v>
+      </c>
+      <c r="G346" t="n">
+        <v>0.06527342376012311</v>
+      </c>
+    </row>
+    <row r="347" ht="15" customHeight="1">
+      <c r="F347" t="n">
+        <v>0.04182468792930758</v>
+      </c>
+      <c r="G347" t="n">
+        <v>0.06536022855038338</v>
+      </c>
+    </row>
+    <row r="348" ht="15" customHeight="1">
+      <c r="F348" t="n">
+        <v>0.04209490282000152</v>
+      </c>
+      <c r="G348" t="n">
+        <v>0.06544703334064365</v>
+      </c>
+    </row>
+    <row r="349" ht="15" customHeight="1">
+      <c r="F349" t="n">
+        <v>0.04236080772411827</v>
+      </c>
+      <c r="G349" t="n">
+        <v>0.06553383813090391</v>
+      </c>
+    </row>
+    <row r="350" ht="15" customHeight="1">
+      <c r="F350" t="n">
+        <v>0.04262226297630519</v>
+      </c>
+      <c r="G350" t="n">
+        <v>0.06562064292116418</v>
+      </c>
+    </row>
+    <row r="351" ht="15" customHeight="1">
+      <c r="F351" t="n">
+        <v>0.04287912891120959</v>
+      </c>
+      <c r="G351" t="n">
+        <v>0.06570744771142445</v>
+      </c>
+    </row>
+    <row r="352" ht="15" customHeight="1">
+      <c r="F352" t="n">
+        <v>0.0431312658634788</v>
+      </c>
+      <c r="G352" t="n">
+        <v>0.06579425250168469</v>
+      </c>
+    </row>
+    <row r="353" ht="15" customHeight="1">
+      <c r="F353" t="n">
+        <v>0.0433785341677602</v>
+      </c>
+      <c r="G353" t="n">
+        <v>0.06588105729194496</v>
+      </c>
+    </row>
+    <row r="354" ht="15" customHeight="1">
+      <c r="F354" t="n">
+        <v>0.04362079415870109</v>
+      </c>
+      <c r="G354" t="n">
+        <v>0.06596786208220523</v>
+      </c>
+    </row>
+    <row r="355" ht="15" customHeight="1">
+      <c r="F355" t="n">
+        <v>0.04385790617094883</v>
+      </c>
+      <c r="G355" t="n">
+        <v>0.06605466687246549</v>
+      </c>
+    </row>
+    <row r="356" ht="15" customHeight="1">
+      <c r="F356" t="n">
+        <v>0.04408973053915077</v>
+      </c>
+      <c r="G356" t="n">
+        <v>0.06614147166272576</v>
+      </c>
+    </row>
+    <row r="357" ht="15" customHeight="1">
+      <c r="F357" t="n">
+        <v>0.04431612759795419</v>
+      </c>
+      <c r="G357" t="n">
+        <v>0.06622827645298603</v>
+      </c>
+    </row>
+    <row r="358" ht="15" customHeight="1">
+      <c r="F358" t="n">
+        <v>0.04453695768200649</v>
+      </c>
+      <c r="G358" t="n">
+        <v>0.0663150812432463</v>
+      </c>
+    </row>
+    <row r="359" ht="15" customHeight="1">
+      <c r="F359" t="n">
+        <v>0.04475208112595499</v>
+      </c>
+      <c r="G359" t="n">
+        <v>0.06640188603350655</v>
+      </c>
+    </row>
+    <row r="360" ht="15" customHeight="1">
+      <c r="F360" t="n">
+        <v>0.04496135826444696</v>
+      </c>
+      <c r="G360" t="n">
+        <v>0.06648869082376681</v>
+      </c>
+    </row>
+    <row r="361" ht="15" customHeight="1">
+      <c r="F361" t="n">
+        <v>0.04516464943212985</v>
+      </c>
+      <c r="G361" t="n">
+        <v>0.06657549561402708</v>
+      </c>
+    </row>
+    <row r="362" ht="15" customHeight="1">
+      <c r="F362" t="n">
+        <v>0.04536181496365093</v>
+      </c>
+      <c r="G362" t="n">
+        <v>0.06666230040428733</v>
+      </c>
+    </row>
+    <row r="363" ht="15" customHeight="1">
+      <c r="F363" t="n">
+        <v>0.04555271519365755</v>
+      </c>
+      <c r="G363" t="n">
+        <v>0.0667491051945476</v>
+      </c>
+    </row>
+    <row r="364" ht="15" customHeight="1">
+      <c r="F364" t="n">
+        <v>0.04573721045679707</v>
+      </c>
+      <c r="G364" t="n">
+        <v>0.06683590998480787</v>
+      </c>
+    </row>
+    <row r="365" ht="15" customHeight="1">
+      <c r="F365" t="n">
+        <v>0.03782480697119805</v>
+      </c>
+      <c r="G365" t="n">
+        <v>0.06683590998480787</v>
+      </c>
+    </row>
+    <row r="366" ht="15" customHeight="1">
+      <c r="F366" t="n">
+        <v>0.04595562060683144</v>
+      </c>
+      <c r="G366" t="n">
+        <v>0.06868638399133178</v>
+      </c>
+    </row>
+    <row r="367" ht="15" customHeight="1">
+      <c r="F367" t="n">
+        <v>0.04615752121643599</v>
+      </c>
+      <c r="G367" t="n">
+        <v>0.0705368579978557</v>
+      </c>
+    </row>
+    <row r="368" ht="15" customHeight="1">
+      <c r="F368" t="n">
+        <v>0.04634356110375448</v>
+      </c>
+      <c r="G368" t="n">
+        <v>0.07238733200437961</v>
+      </c>
+    </row>
+    <row r="369" ht="15" customHeight="1">
+      <c r="F369" t="n">
+        <v>0.04651438908693063</v>
+      </c>
+      <c r="G369" t="n">
+        <v>0.07423780601090352</v>
+      </c>
+    </row>
+    <row r="370" ht="15" customHeight="1">
+      <c r="F370" t="n">
+        <v>0.04667065398410817</v>
+      </c>
+      <c r="G370" t="n">
+        <v>0.07608828001742743</v>
+      </c>
+    </row>
+    <row r="371" ht="15" customHeight="1">
+      <c r="F371" t="n">
+        <v>0.04681300461343089</v>
+      </c>
+      <c r="G371" t="n">
+        <v>0.07793875402395134</v>
+      </c>
+    </row>
+    <row r="372" ht="15" customHeight="1">
+      <c r="F372" t="n">
+        <v>0.04694208979304251</v>
+      </c>
+      <c r="G372" t="n">
+        <v>0.07978922803047525</v>
+      </c>
+    </row>
+    <row r="373" ht="15" customHeight="1">
+      <c r="F373" t="n">
+        <v>0.04705855834108678</v>
+      </c>
+      <c r="G373" t="n">
+        <v>0.08163970203699918</v>
+      </c>
+    </row>
+    <row r="374" ht="15" customHeight="1">
+      <c r="F374" t="n">
+        <v>0.04716305907570743</v>
+      </c>
+      <c r="G374" t="n">
+        <v>0.08349017604352307</v>
+      </c>
+    </row>
+    <row r="375" ht="15" customHeight="1">
+      <c r="F375" t="n">
+        <v>0.04725624081504822</v>
+      </c>
+      <c r="G375" t="n">
+        <v>0.08534065005004698</v>
+      </c>
+    </row>
+    <row r="376" ht="15" customHeight="1">
+      <c r="F376" t="n">
+        <v>0.04733875237725291</v>
+      </c>
+      <c r="G376" t="n">
+        <v>0.0871911240565709</v>
+      </c>
+    </row>
+    <row r="377" ht="15" customHeight="1">
+      <c r="F377" t="n">
+        <v>0.04741124258046523</v>
+      </c>
+      <c r="G377" t="n">
+        <v>0.08904159806309481</v>
+      </c>
+    </row>
+    <row r="378" ht="15" customHeight="1">
+      <c r="F378" t="n">
+        <v>0.04747436024282892</v>
+      </c>
+      <c r="G378" t="n">
+        <v>0.09089207206961873</v>
+      </c>
+    </row>
+    <row r="379" ht="15" customHeight="1">
+      <c r="F379" t="n">
+        <v>0.04752875418248775</v>
+      </c>
+      <c r="G379" t="n">
+        <v>0.09274254607614264</v>
+      </c>
+    </row>
+    <row r="380" ht="15" customHeight="1">
+      <c r="F380" t="n">
+        <v>0.04757507321758542</v>
+      </c>
+      <c r="G380" t="n">
+        <v>0.09459302008266655</v>
+      </c>
+    </row>
+    <row r="381" ht="15" customHeight="1">
+      <c r="F381" t="n">
+        <v>0.04761396616626572</v>
+      </c>
+      <c r="G381" t="n">
+        <v>0.09644349408919047</v>
+      </c>
+    </row>
+    <row r="382" ht="15" customHeight="1">
+      <c r="F382" t="n">
+        <v>0.04764608184667238</v>
+      </c>
+      <c r="G382" t="n">
+        <v>0.09829396809571436</v>
+      </c>
+    </row>
+    <row r="383" ht="15" customHeight="1">
+      <c r="F383" t="n">
+        <v>0.04767206907694915</v>
+      </c>
+      <c r="G383" t="n">
+        <v>0.1001444421022383</v>
+      </c>
+    </row>
+    <row r="384" ht="15" customHeight="1">
+      <c r="F384" t="n">
+        <v>0.04769257667523975</v>
+      </c>
+      <c r="G384" t="n">
+        <v>0.1019949161087622</v>
+      </c>
+    </row>
+    <row r="385" ht="15" customHeight="1">
+      <c r="F385" t="n">
+        <v>0.04770825345968795</v>
+      </c>
+      <c r="G385" t="n">
+        <v>0.1038453901152861</v>
+      </c>
+    </row>
+    <row r="386" ht="15" customHeight="1">
+      <c r="F386" t="n">
+        <v>0.04771974824843751</v>
+      </c>
+      <c r="G386" t="n">
+        <v>0.10569586412181</v>
+      </c>
+    </row>
+    <row r="387" ht="15" customHeight="1">
+      <c r="F387" t="n">
+        <v>0.04772770985963214</v>
+      </c>
+      <c r="G387" t="n">
+        <v>0.1075463381283339</v>
+      </c>
+    </row>
+    <row r="388" ht="15" customHeight="1">
+      <c r="F388" t="n">
+        <v>0.04773278711141562</v>
+      </c>
+      <c r="G388" t="n">
+        <v>0.1093968121348578</v>
+      </c>
+    </row>
+    <row r="389" ht="15" customHeight="1">
+      <c r="F389" t="n">
+        <v>0.04773562882193167</v>
+      </c>
+      <c r="G389" t="n">
+        <v>0.1112472861413818</v>
+      </c>
+    </row>
+    <row r="390" ht="15" customHeight="1">
+      <c r="F390" t="n">
+        <v>0.04773688380932404</v>
+      </c>
+      <c r="G390" t="n">
+        <v>0.1130977601479057</v>
+      </c>
+    </row>
+    <row r="391" ht="15" customHeight="1">
+      <c r="F391" t="n">
+        <v>0.04773720089173646</v>
+      </c>
+      <c r="G391" t="n">
+        <v>0.1149482341544296</v>
+      </c>
+    </row>
+    <row r="392" ht="15" customHeight="1">
+      <c r="F392" t="n">
+        <v>0.04772807441062468</v>
+      </c>
+      <c r="G392" t="n">
+        <v>0.1167987081609535</v>
+      </c>
+    </row>
+    <row r="393" ht="15" customHeight="1">
+      <c r="F393" t="n">
+        <v>0.0476668937988378</v>
+      </c>
+      <c r="G393" t="n">
+        <v>0.1186491821674774</v>
+      </c>
+    </row>
+    <row r="394" ht="15" customHeight="1">
+      <c r="F394" t="n">
+        <v>0.04755135851050293</v>
+      </c>
+      <c r="G394" t="n">
+        <v>0.1204996561740013</v>
+      </c>
+    </row>
+    <row r="395" ht="15" customHeight="1">
+      <c r="F395" t="n">
+        <v>0.04738518136884586</v>
+      </c>
+      <c r="G395" t="n">
+        <v>0.1223501301805252</v>
+      </c>
+    </row>
+    <row r="396" ht="15" customHeight="1">
+      <c r="F396" t="n">
+        <v>0.04717207519709243</v>
+      </c>
+      <c r="G396" t="n">
+        <v>0.1242006041870491</v>
+      </c>
+    </row>
+    <row r="397" ht="15" customHeight="1">
+      <c r="F397" t="n">
+        <v>0.04691575281846836</v>
+      </c>
+      <c r="G397" t="n">
+        <v>0.1260510781935731</v>
+      </c>
+    </row>
+    <row r="398" ht="15" customHeight="1">
+      <c r="F398" t="n">
+        <v>0.04661992705619947</v>
+      </c>
+      <c r="G398" t="n">
+        <v>0.127901552200097</v>
+      </c>
+    </row>
+    <row r="399" ht="15" customHeight="1">
+      <c r="F399" t="n">
+        <v>0.04628831073351158</v>
+      </c>
+      <c r="G399" t="n">
+        <v>0.1297520262066209</v>
+      </c>
+    </row>
+    <row r="400" ht="15" customHeight="1">
+      <c r="F400" t="n">
+        <v>0.04592461667363042</v>
+      </c>
+      <c r="G400" t="n">
+        <v>0.1316025002131448</v>
+      </c>
+    </row>
+    <row r="401" ht="15" customHeight="1">
+      <c r="F401" t="n">
+        <v>0.04553255769978181</v>
+      </c>
+      <c r="G401" t="n">
+        <v>0.1334529742196687</v>
+      </c>
+    </row>
+    <row r="402" ht="15" customHeight="1">
+      <c r="F402" t="n">
+        <v>0.04511584663519156</v>
+      </c>
+      <c r="G402" t="n">
+        <v>0.1353034482261926</v>
+      </c>
+    </row>
+    <row r="403" ht="15" customHeight="1">
+      <c r="F403" t="n">
+        <v>0.04467819630308541</v>
+      </c>
+      <c r="G403" t="n">
+        <v>0.1371539222327165</v>
+      </c>
+    </row>
+    <row r="404" ht="15" customHeight="1">
+      <c r="F404" t="n">
+        <v>0.04422331952668917</v>
+      </c>
+      <c r="G404" t="n">
+        <v>0.1390043962392404</v>
+      </c>
+    </row>
+    <row r="405" ht="15" customHeight="1">
+      <c r="F405" t="n">
+        <v>0.04375492912922863</v>
+      </c>
+      <c r="G405" t="n">
+        <v>0.1408548702457643</v>
+      </c>
+    </row>
+    <row r="406" ht="15" customHeight="1">
+      <c r="F406" t="n">
+        <v>0.04327673793392959</v>
+      </c>
+      <c r="G406" t="n">
+        <v>0.1427053442522883</v>
+      </c>
+    </row>
+    <row r="407" ht="15" customHeight="1">
+      <c r="F407" t="n">
+        <v>0.04279245876401782</v>
+      </c>
+      <c r="G407" t="n">
+        <v>0.1445558182588122</v>
+      </c>
+    </row>
+    <row r="408" ht="15" customHeight="1">
+      <c r="F408" t="n">
+        <v>0.04230580444271911</v>
+      </c>
+      <c r="G408" t="n">
+        <v>0.1464062922653361</v>
+      </c>
+    </row>
+    <row r="409" ht="15" customHeight="1">
+      <c r="F409" t="n">
+        <v>0.04182048779325927</v>
+      </c>
+      <c r="G409" t="n">
+        <v>0.14825676627186</v>
+      </c>
+    </row>
+    <row r="410" ht="15" customHeight="1">
+      <c r="F410" t="n">
+        <v>0.04134022163886406</v>
+      </c>
+      <c r="G410" t="n">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="411" ht="15" customHeight="1">
+      <c r="F411" t="n">
+        <v>0.04086871880275929</v>
+      </c>
+      <c r="G411" t="n">
+        <v>0.1519577142849078</v>
+      </c>
+    </row>
+    <row r="412" ht="15" customHeight="1">
+      <c r="F412" t="n">
+        <v>0.04040969210817073</v>
+      </c>
+      <c r="G412" t="n">
+        <v>0.1538081882914317</v>
+      </c>
+    </row>
+    <row r="413" ht="15" customHeight="1">
+      <c r="F413" t="n">
+        <v>0.03996685437832418</v>
+      </c>
+      <c r="G413" t="n">
+        <v>0.1556586622979557</v>
+      </c>
+    </row>
+    <row r="414" ht="15" customHeight="1">
+      <c r="F414" t="n">
+        <v>0.03954391843644544</v>
+      </c>
+      <c r="G414" t="n">
+        <v>0.1575091363044795</v>
+      </c>
+    </row>
+    <row r="415" ht="15" customHeight="1">
+      <c r="F415" t="n">
+        <v>0.03914459710576027</v>
+      </c>
+      <c r="G415" t="n">
+        <v>0.1593596103110035</v>
+      </c>
+    </row>
+    <row r="416" ht="15" customHeight="1">
+      <c r="F416" t="n">
+        <v>0.03875708473031762</v>
+      </c>
+      <c r="G416" t="n">
+        <v>0.1612100843175274</v>
+      </c>
+    </row>
+    <row r="417" ht="15" customHeight="1">
+      <c r="F417" t="n">
+        <v>0.0383566690470939</v>
+      </c>
+      <c r="G417" t="n">
+        <v>0.1630605583240513</v>
+      </c>
+    </row>
+    <row r="418" ht="15" customHeight="1">
+      <c r="F418" t="n">
+        <v>0.03794439705315392</v>
+      </c>
+      <c r="G418" t="n">
+        <v>0.1649110323305752</v>
+      </c>
+    </row>
+    <row r="419" ht="15" customHeight="1">
+      <c r="F419" t="n">
+        <v>0.03752180971201399</v>
+      </c>
+      <c r="G419" t="n">
+        <v>0.1667615063370991</v>
+      </c>
+    </row>
+    <row r="420" ht="15" customHeight="1">
+      <c r="F420" t="n">
+        <v>0.0370904479871904</v>
+      </c>
+      <c r="G420" t="n">
+        <v>0.168611980343623</v>
+      </c>
+    </row>
+    <row r="421" ht="15" customHeight="1">
+      <c r="F421" t="n">
+        <v>0.03665185284219951</v>
+      </c>
+      <c r="G421" t="n">
+        <v>0.1704624543501469</v>
+      </c>
+    </row>
+    <row r="422" ht="15" customHeight="1">
+      <c r="F422" t="n">
+        <v>0.03620756524055756</v>
+      </c>
+      <c r="G422" t="n">
+        <v>0.1723129283566708</v>
+      </c>
+    </row>
+    <row r="423" ht="15" customHeight="1">
+      <c r="F423" t="n">
+        <v>0.03575912614578095</v>
+      </c>
+      <c r="G423" t="n">
+        <v>0.1741634023631947</v>
+      </c>
+    </row>
+    <row r="424" ht="15" customHeight="1">
+      <c r="F424" t="n">
+        <v>0.03530807652138594</v>
+      </c>
+      <c r="G424" t="n">
+        <v>0.1760138763697187</v>
+      </c>
+    </row>
+    <row r="425" ht="15" customHeight="1">
+      <c r="F425" t="n">
+        <v>0.03485595733088883</v>
+      </c>
+      <c r="G425" t="n">
+        <v>0.1778643503762426</v>
+      </c>
+    </row>
+    <row r="426" ht="15" customHeight="1">
+      <c r="F426" t="n">
+        <v>0.03440430953780601</v>
+      </c>
+      <c r="G426" t="n">
+        <v>0.1797148243827665</v>
+      </c>
+    </row>
+    <row r="427" ht="15" customHeight="1">
+      <c r="F427" t="n">
+        <v>0.03395467410565371</v>
+      </c>
+      <c r="G427" t="n">
+        <v>0.1815652983892904</v>
+      </c>
+    </row>
+    <row r="428" ht="15" customHeight="1">
+      <c r="F428" t="n">
+        <v>0.03350859199794828</v>
+      </c>
+      <c r="G428" t="n">
+        <v>0.1834157723958143</v>
+      </c>
+    </row>
+    <row r="429" ht="15" customHeight="1">
+      <c r="F429" t="n">
+        <v>0.03306760417820604</v>
+      </c>
+      <c r="G429" t="n">
+        <v>0.1852662464023382</v>
+      </c>
+    </row>
+    <row r="430" ht="15" customHeight="1">
+      <c r="F430" t="n">
+        <v>0.03263325160994327</v>
+      </c>
+      <c r="G430" t="n">
+        <v>0.1871167204088622</v>
+      </c>
+    </row>
+    <row r="431" ht="15" customHeight="1">
+      <c r="F431" t="n">
+        <v>0.03220707525667634</v>
+      </c>
+      <c r="G431" t="n">
+        <v>0.1889671944153861</v>
+      </c>
+    </row>
+    <row r="432" ht="15" customHeight="1">
+      <c r="F432" t="n">
+        <v>0.03179061608192153</v>
+      </c>
+      <c r="G432" t="n">
+        <v>0.19081766842191</v>
+      </c>
+    </row>
+    <row r="433" ht="15" customHeight="1">
+      <c r="F433" t="n">
+        <v>0.03138541504919514</v>
+      </c>
+      <c r="G433" t="n">
+        <v>0.1926681424284339</v>
+      </c>
+    </row>
+    <row r="434" ht="15" customHeight="1">
+      <c r="F434" t="n">
+        <v>0.0309930131220135</v>
+      </c>
+      <c r="G434" t="n">
+        <v>0.1945186164349578</v>
+      </c>
+    </row>
+    <row r="435" ht="15" customHeight="1">
+      <c r="F435" t="n">
+        <v>0.03061495126389293</v>
+      </c>
+      <c r="G435" t="n">
+        <v>0.1963690904414817</v>
+      </c>
+    </row>
+    <row r="436" ht="15" customHeight="1">
+      <c r="F436" t="n">
+        <v>0.03025277043834975</v>
+      </c>
+      <c r="G436" t="n">
+        <v>0.1982195644480056</v>
+      </c>
+    </row>
+    <row r="437" ht="15" customHeight="1">
+      <c r="F437" t="n">
+        <v>0.02990801160890027</v>
+      </c>
+      <c r="G437" t="n">
+        <v>0.2000700384545295</v>
+      </c>
+    </row>
+    <row r="438" ht="15" customHeight="1">
+      <c r="F438" t="n">
+        <v>0.02958221573906077</v>
+      </c>
+      <c r="G438" t="n">
+        <v>0.2019205124610534</v>
+      </c>
+    </row>
+    <row r="439" ht="15" customHeight="1">
+      <c r="F439" t="n">
+        <v>0.02927692379234759</v>
+      </c>
+      <c r="G439" t="n">
+        <v>0.2037709864675773</v>
+      </c>
+    </row>
+    <row r="440" ht="15" customHeight="1">
+      <c r="F440" t="n">
+        <v>0.02899367673227706</v>
+      </c>
+      <c r="G440" t="n">
+        <v>0.2056214604741013</v>
+      </c>
+    </row>
+    <row r="441" ht="15" customHeight="1">
+      <c r="F441" t="n">
+        <v>0.02873373492907911</v>
+      </c>
+      <c r="G441" t="n">
+        <v>0.2074719344806252</v>
+      </c>
+    </row>
+    <row r="442" ht="15" customHeight="1">
+      <c r="F442" t="n">
+        <v>0.02848425870176326</v>
+      </c>
+      <c r="G442" t="n">
+        <v>0.2093224084871491</v>
+      </c>
+    </row>
+    <row r="443" ht="15" customHeight="1">
+      <c r="F443" t="n">
+        <v>0.02823789312566225</v>
+      </c>
+      <c r="G443" t="n">
+        <v>0.211172882493673</v>
+      </c>
+    </row>
+    <row r="444" ht="15" customHeight="1">
+      <c r="F444" t="n">
+        <v>0.02799504199739603</v>
+      </c>
+      <c r="G444" t="n">
+        <v>0.2130233565001969</v>
+      </c>
+    </row>
+    <row r="445" ht="15" customHeight="1">
+      <c r="F445" t="n">
+        <v>0.02775610911358459</v>
+      </c>
+      <c r="G445" t="n">
+        <v>0.2148738305067208</v>
+      </c>
+    </row>
+    <row r="446" ht="15" customHeight="1">
+      <c r="F446" t="n">
+        <v>0.02752149827084791</v>
+      </c>
+      <c r="G446" t="n">
+        <v>0.2167243045132448</v>
+      </c>
+    </row>
+    <row r="447" ht="15" customHeight="1">
+      <c r="F447" t="n">
+        <v>0.02729161326580596</v>
+      </c>
+      <c r="G447" t="n">
+        <v>0.2185747785197686</v>
+      </c>
+    </row>
+    <row r="448" ht="15" customHeight="1">
+      <c r="F448" t="n">
+        <v>0.02706685789507874</v>
+      </c>
+      <c r="G448" t="n">
+        <v>0.2204252525262925</v>
+      </c>
+    </row>
+    <row r="449" ht="15" customHeight="1">
+      <c r="F449" t="n">
+        <v>0.02684763595528619</v>
+      </c>
+      <c r="G449" t="n">
+        <v>0.2222757265328165</v>
+      </c>
+    </row>
+    <row r="450" ht="15" customHeight="1">
+      <c r="F450" t="n">
+        <v>0.02663435124304831</v>
+      </c>
+      <c r="G450" t="n">
+        <v>0.2241262005393404</v>
+      </c>
+    </row>
+    <row r="451" ht="15" customHeight="1">
+      <c r="F451" t="n">
+        <v>0.02642740755498508</v>
+      </c>
+      <c r="G451" t="n">
+        <v>0.2259766745458643</v>
+      </c>
+    </row>
+    <row r="452" ht="15" customHeight="1">
+      <c r="F452" t="n">
+        <v>0.02622720868771648</v>
+      </c>
+      <c r="G452" t="n">
+        <v>0.2278271485523882</v>
+      </c>
+    </row>
+    <row r="453" ht="15" customHeight="1">
+      <c r="F453" t="n">
+        <v>0.02603415843786246</v>
+      </c>
+      <c r="G453" t="n">
+        <v>0.2296776225589121</v>
+      </c>
+    </row>
+    <row r="454" ht="15" customHeight="1">
+      <c r="F454" t="n">
+        <v>0.02584866060204303</v>
+      </c>
+      <c r="G454" t="n">
+        <v>0.231528096565436</v>
+      </c>
+    </row>
+    <row r="455" ht="15" customHeight="1">
+      <c r="F455" t="n">
+        <v>0.02567111897687818</v>
+      </c>
+      <c r="G455" t="n">
+        <v>0.2333785705719599</v>
+      </c>
+    </row>
+    <row r="456" ht="15" customHeight="1">
+      <c r="F456" t="n">
+        <v>0.02550193735898783</v>
+      </c>
+      <c r="G456" t="n">
+        <v>0.2352290445784838</v>
+      </c>
+    </row>
+    <row r="457" ht="15" customHeight="1">
+      <c r="F457" t="n">
+        <v>0.02534151954499202</v>
+      </c>
+      <c r="G457" t="n">
+        <v>0.2370795185850078</v>
+      </c>
+    </row>
+    <row r="458" ht="15" customHeight="1">
+      <c r="F458" t="n">
+        <v>0.0251902693315107</v>
+      </c>
+      <c r="G458" t="n">
+        <v>0.2389299925915316</v>
+      </c>
+    </row>
+    <row r="459" ht="15" customHeight="1">
+      <c r="F459" t="n">
+        <v>0.02504859051516384</v>
+      </c>
+      <c r="G459" t="n">
+        <v>0.2407804665980556</v>
+      </c>
+    </row>
+    <row r="460" ht="15" customHeight="1">
+      <c r="F460" t="n">
+        <v>0.02491688689257144</v>
+      </c>
+      <c r="G460" t="n">
+        <v>0.2426309406045795</v>
+      </c>
+    </row>
+    <row r="461" ht="15" customHeight="1">
+      <c r="F461" t="n">
+        <v>0.02479556226035346</v>
+      </c>
+      <c r="G461" t="n">
+        <v>0.2444814146111034</v>
+      </c>
+    </row>
+    <row r="462" ht="15" customHeight="1">
+      <c r="F462" t="n">
+        <v>0.02468502041512988</v>
+      </c>
+      <c r="G462" t="n">
+        <v>0.2463318886176273</v>
+      </c>
+    </row>
+    <row r="463" ht="15" customHeight="1">
+      <c r="F463" t="n">
+        <v>0.0245856651535207</v>
+      </c>
+      <c r="G463" t="n">
+        <v>0.2481823626241512</v>
+      </c>
+    </row>
+    <row r="464" ht="15" customHeight="1">
+      <c r="F464" t="n">
+        <v>0.02449790027214584</v>
+      </c>
+      <c r="G464" t="n">
+        <v>0.2500328366306752</v>
+      </c>
+    </row>
     <row r="465" ht="15" customHeight="1"/>
     <row r="466" ht="15" customHeight="1"/>
     <row r="467" ht="15" customHeight="1"/>

--- a/prot/ООО Регионстрой/Трехосные_КД_ПП/1171.xlsx
+++ b/prot/ООО Регионстрой/Трехосные_КД_ПП/1171.xlsx
@@ -4884,7 +4884,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BF464"/>
+  <dimension ref="A1:BF264"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A3" zoomScale="70" zoomScaleNormal="40" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <selection activeCell="J22" sqref="J22"/>
@@ -8811,7 +8811,7 @@
       <c r="H51" s="144" t="n"/>
       <c r="I51" s="144" t="n"/>
       <c r="J51" s="144" t="n">
-        <v>0.08182480697119804</v>
+        <v>0.06355802365987898</v>
       </c>
       <c r="K51" s="144" t="n"/>
       <c r="L51" s="144" t="n"/>
@@ -9258,10 +9258,10 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>0.03182480697119804</v>
+        <v>0.01355802365987897</v>
       </c>
       <c r="B65" t="n">
-        <v>0.01687340998480787</v>
+        <v>0.01209629923404826</v>
       </c>
       <c r="C65" s="151">
         <f>MATCH(A65,F65:F1000,1)-A67</f>
@@ -9318,29 +9318,29 @@
         </is>
       </c>
       <c r="F66" s="170" t="n">
-        <v>4.119514965039706e-05</v>
+        <v>0.002938707478156402</v>
       </c>
       <c r="G66" s="171" t="n">
-        <v>0.0006751102018667461</v>
+        <v>0.001643007576639692</v>
       </c>
       <c r="H66" s="171" t="n"/>
       <c r="J66" s="170" t="n">
-        <v>0.001450072543588858</v>
+        <v>0.002888383156092578</v>
       </c>
       <c r="K66" s="171" t="n">
-        <v>0.0007867842421493569</v>
+        <v>0.001652834983126887</v>
       </c>
       <c r="L66" s="172" t="n">
-        <v>0.003999999999999976</v>
+        <v>0.0129012480582387</v>
       </c>
       <c r="M66" s="170" t="n">
-        <v>0.000832708333333328</v>
+        <v>0.002463985497361433</v>
       </c>
       <c r="N66" s="171" t="n">
-        <v>0.009105075069342605</v>
+        <v>0.01341148481162607</v>
       </c>
       <c r="O66" s="172" t="n">
-        <v>0.0007722415493047282</v>
+        <v>0.00165897522919418</v>
       </c>
       <c r="Q66" s="151" t="inlineStr">
         <is>
@@ -9358,29 +9358,29 @@
         <v>2</v>
       </c>
       <c r="F67" s="170" t="n">
-        <v>0.0001654889109039825</v>
+        <v>0.006456201742799504</v>
       </c>
       <c r="G67" s="171" t="n">
-        <v>0.001350220403733492</v>
+        <v>0.004032099744682753</v>
       </c>
       <c r="H67" s="171" t="n"/>
       <c r="J67" s="170" t="n">
-        <v>0.002936682123068309</v>
+        <v>0.005596836511874523</v>
       </c>
       <c r="K67" s="171" t="n">
-        <v>0.001573568484298714</v>
+        <v>0.003305669966253774</v>
       </c>
       <c r="L67" s="172" t="n">
-        <v>0.006320286623790167</v>
+        <v>0.01509459283765482</v>
       </c>
       <c r="M67" s="170" t="n">
-        <v>0.001552133452407616</v>
+        <v>0.00329400913197919</v>
       </c>
       <c r="N67" s="171" t="n">
-        <v>0.01791057104050237</v>
+        <v>0.02262343527803889</v>
       </c>
       <c r="O67" s="172" t="n">
-        <v>0.001544483098609456</v>
+        <v>0.003071530937714724</v>
       </c>
       <c r="Q67" s="151" t="inlineStr">
         <is>
@@ -9400,29 +9400,29 @@
         </is>
       </c>
       <c r="F68" s="170" t="n">
-        <v>0.0003739437522143133</v>
+        <v>0.006472796866818911</v>
       </c>
       <c r="G68" s="171" t="n">
-        <v>0.002025330605600238</v>
+        <v>0.004929022729919076</v>
       </c>
       <c r="H68" s="171" t="n"/>
       <c r="J68" s="170" t="n">
-        <v>0.004341733640900007</v>
+        <v>0.007499999999999993</v>
       </c>
       <c r="K68" s="171" t="n">
-        <v>0.002360352726448071</v>
+        <v>0.004683984374999996</v>
       </c>
       <c r="L68" s="172" t="n">
-        <v>0.009831547462760298</v>
+        <v>0.01825865483457295</v>
       </c>
       <c r="M68" s="170" t="n">
-        <v>0.002328200178611424</v>
+        <v>0.004941013697968785</v>
       </c>
       <c r="N68" s="171" t="n">
-        <v>0.0261186087880681</v>
+        <v>0.02800389722639673</v>
       </c>
       <c r="O68" s="172" t="n">
-        <v>0.002316724647914185</v>
+        <v>0.00497692568758254</v>
       </c>
       <c r="Q68" s="151" t="inlineStr">
         <is>
@@ -9447,29 +9447,29 @@
         </is>
       </c>
       <c r="F69" s="170" t="n">
-        <v>0.0006676221420350015</v>
+        <v>0.009158664242045041</v>
       </c>
       <c r="G69" s="171" t="n">
-        <v>0.002700440807466984</v>
+        <v>0.006572030306558768</v>
       </c>
       <c r="H69" s="171" t="n"/>
       <c r="J69" s="170" t="n">
-        <v>0.005547131999545589</v>
+        <v>0.009217422996560615</v>
       </c>
       <c r="K69" s="171" t="n">
-        <v>0.003147136968597428</v>
+        <v>0.006611339932507548</v>
       </c>
       <c r="L69" s="172" t="n">
-        <v>0.01296874241187432</v>
+        <v>0.02168833008108514</v>
       </c>
       <c r="M69" s="170" t="n">
-        <v>0.003104266904815232</v>
+        <v>0.00658801826395838</v>
       </c>
       <c r="N69" s="171" t="n">
-        <v>0.03213130918662815</v>
+        <v>0.03201169459918335</v>
       </c>
       <c r="O69" s="172" t="n">
-        <v>0.003088966197218913</v>
+        <v>0.006635900916776719</v>
       </c>
       <c r="Q69" s="151" t="inlineStr">
         <is>
@@ -9484,62 +9484,62 @@
     </row>
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="n">
-        <v>0.01612839897873102</v>
+        <v>0.004032099744682753</v>
       </c>
       <c r="B70" t="n">
-        <v>0.02582480697119804</v>
+        <v>0.006456201742799504</v>
       </c>
       <c r="F70" s="170" t="n">
-        <v>0.001047586548819604</v>
+        <v>0.009644961049651526</v>
       </c>
       <c r="G70" s="171" t="n">
-        <v>0.00337555100933373</v>
+        <v>0.00821503788319846</v>
       </c>
       <c r="H70" s="171" t="n"/>
       <c r="J70" s="170" t="n">
-        <v>0.006834782101466673</v>
+        <v>0.01042614519294467</v>
       </c>
       <c r="K70" s="171" t="n">
-        <v>0.003933921210746785</v>
+        <v>0.008264174915634435</v>
       </c>
       <c r="L70" s="172" t="n">
-        <v>0.01559738675752922</v>
+        <v>0.02350017206859187</v>
       </c>
       <c r="M70" s="170" t="n">
-        <v>0.003880333631019041</v>
+        <v>0.008235022829947975</v>
       </c>
       <c r="N70" s="171" t="n">
-        <v>0.03785079311077122</v>
+        <v>0.03534860666214557</v>
       </c>
       <c r="O70" s="172" t="n">
-        <v>0.003861207746523641</v>
+        <v>0.008294876145970898</v>
       </c>
     </row>
     <row r="71">
       <c r="F71" s="170" t="n">
-        <v>0.001514899441021712</v>
+        <v>0.01196537940214901</v>
       </c>
       <c r="G71" s="171" t="n">
-        <v>0.004050661211200477</v>
+        <v>0.009858045459838153</v>
       </c>
       <c r="H71" s="171" t="n"/>
       <c r="J71" s="170" t="n">
-        <v>0.007886588849124923</v>
+        <v>0.01136889745421343</v>
       </c>
       <c r="K71" s="171" t="n">
-        <v>0.004720705452896141</v>
+        <v>0.009917009898761322</v>
       </c>
       <c r="L71" s="172" t="n">
-        <v>0.01838299578612215</v>
+        <v>0.02591073428849344</v>
       </c>
       <c r="M71" s="170" t="n">
-        <v>0.004656400357222848</v>
+        <v>0.009882027395937571</v>
       </c>
       <c r="N71" s="171" t="n">
-        <v>0.04199999999999998</v>
+        <v>0.03737801814401065</v>
       </c>
       <c r="O71" s="172" t="n">
-        <v>0.004857465277777776</v>
+        <v>0.009953851375165079</v>
       </c>
     </row>
     <row r="72">
@@ -9554,29 +9554,29 @@
         </is>
       </c>
       <c r="F72" s="170" t="n">
-        <v>0.002070623287094897</v>
+        <v>0.01355802365987897</v>
       </c>
       <c r="G72" s="171" t="n">
-        <v>0.004725771413067223</v>
+        <v>0.01209629923404826</v>
       </c>
       <c r="H72" s="171" t="n"/>
       <c r="J72" s="170" t="n">
-        <v>0.008999999999999994</v>
+        <v>0.01221945778510507</v>
       </c>
       <c r="K72" s="171" t="n">
-        <v>0.005620781249999996</v>
+        <v>0.01156984488188821</v>
       </c>
       <c r="L72" s="172" t="n">
-        <v>0.02139108478405005</v>
+        <v>0.02793657023219046</v>
       </c>
       <c r="M72" s="170" t="n">
-        <v>0.005432467083426657</v>
+        <v>0.01152903196192717</v>
       </c>
       <c r="N72" s="171" t="n">
-        <v>0.04245145274050682</v>
+        <v>0.0396633137735064</v>
       </c>
       <c r="O72" s="172" t="n">
-        <v>0.005405690845133098</v>
+        <v>0.01161282660435926</v>
       </c>
     </row>
     <row r="73">
@@ -9600,29 +9600,29 @@
         <v/>
       </c>
       <c r="F73" s="170" t="n">
-        <v>0.002715820555492736</v>
+        <v>0.01225793804443746</v>
       </c>
       <c r="G73" s="171" t="n">
-        <v>0.005400881614933969</v>
+        <v>0.01314406061311754</v>
       </c>
       <c r="H73" s="171" t="n"/>
       <c r="J73" s="170" t="n">
-        <v>0.009548165656950255</v>
+        <v>0.01335160419035775</v>
       </c>
       <c r="K73" s="171" t="n">
-        <v>0.006294273937194855</v>
+        <v>0.0132226798650151</v>
       </c>
       <c r="L73" s="172" t="n">
-        <v>0.02338716903770999</v>
+        <v>0.03000290246102022</v>
       </c>
       <c r="M73" s="170" t="n">
-        <v>0.006208533809630465</v>
+        <v>0.01289170011467889</v>
       </c>
       <c r="N73" s="171" t="n">
-        <v>0.04404240803848303</v>
+        <v>0.04246787827936044</v>
       </c>
       <c r="O73" s="172" t="n">
-        <v>0.006177932394437826</v>
+        <v>0.01327180183355344</v>
       </c>
     </row>
     <row r="74">
@@ -9637,29 +9637,29 @@
         </is>
       </c>
       <c r="F74" s="170" t="n">
-        <v>0.00345155371466882</v>
+        <v>0.01334562213772279</v>
       </c>
       <c r="G74" s="171" t="n">
-        <v>0.006075991816800716</v>
+        <v>0.01478706818975723</v>
       </c>
       <c r="H74" s="171" t="n"/>
       <c r="J74" s="170" t="n">
-        <v>0.01023981227844766</v>
+        <v>0.01383552884441011</v>
       </c>
       <c r="K74" s="171" t="n">
-        <v>0.007081058179344212</v>
+        <v>0.01405195312499999</v>
       </c>
       <c r="L74" s="172" t="n">
-        <v>0.02593676383349899</v>
+        <v>0.03235595107843994</v>
       </c>
       <c r="M74" s="170" t="n">
-        <v>0.006984600535834273</v>
+        <v>0.01482304109390636</v>
       </c>
       <c r="N74" s="171" t="n">
-        <v>0.04439574248601508</v>
+        <v>0.04617027607763036</v>
       </c>
       <c r="O74" s="172" t="n">
-        <v>0.006950173943742554</v>
+        <v>0.01527386209239129</v>
       </c>
     </row>
     <row r="75">
@@ -9681,29 +9681,29 @@
         </is>
       </c>
       <c r="F75" s="170" t="n">
-        <v>0.004278885233076721</v>
+        <v>0.01641375452788151</v>
       </c>
       <c r="G75" s="171" t="n">
-        <v>0.006751102018667461</v>
+        <v>0.01643007576639692</v>
       </c>
       <c r="H75" s="171" t="n"/>
       <c r="J75" s="170" t="n">
-        <v>0.01076973571421707</v>
+        <v>0.01534729125444663</v>
       </c>
       <c r="K75" s="171" t="n">
-        <v>0.007867842421493569</v>
+        <v>0.01652834983126887</v>
       </c>
       <c r="L75" s="172" t="n">
-        <v>0.02740538445781404</v>
+        <v>0.0343413675309498</v>
       </c>
       <c r="M75" s="170" t="n">
-        <v>0.007760667262038082</v>
+        <v>0.01647004565989595</v>
       </c>
       <c r="N75" s="171" t="n">
-        <v>0.04617027607763036</v>
+        <v>0.04864080560246875</v>
       </c>
       <c r="O75" s="172" t="n">
-        <v>0.007628248738520524</v>
+        <v>0.0165897522919418</v>
       </c>
     </row>
     <row r="76">
@@ -9723,29 +9723,29 @@
         <v>0</v>
       </c>
       <c r="F76" s="170" t="n">
-        <v>0.005198877579170022</v>
+        <v>0.01545379357972693</v>
       </c>
       <c r="G76" s="171" t="n">
-        <v>0.007426212220534207</v>
+        <v>0.01807308334303661</v>
       </c>
       <c r="H76" s="171" t="n"/>
       <c r="J76" s="170" t="n">
-        <v>0.01154729786480382</v>
+        <v>0.01628219173220584</v>
       </c>
       <c r="K76" s="171" t="n">
-        <v>0.008654626663642926</v>
+        <v>0.01818118481439576</v>
       </c>
       <c r="L76" s="172" t="n">
-        <v>0.03000290246102022</v>
+        <v>0.03661995530247592</v>
       </c>
       <c r="M76" s="170" t="n">
-        <v>0.008922738179813825</v>
+        <v>0.01811705022588555</v>
       </c>
       <c r="N76" s="171" t="n">
-        <v>0.04742206103552515</v>
+        <v>0.05120478739512391</v>
       </c>
       <c r="O76" s="172" t="n">
-        <v>0.008494657042352012</v>
+        <v>0.01824872752113598</v>
       </c>
     </row>
     <row r="77" ht="15" customHeight="1">
@@ -9760,28 +9760,28 @@
         </is>
       </c>
       <c r="F77" t="n">
-        <v>0.006212593221402302</v>
+        <v>0.01745719765807235</v>
       </c>
       <c r="G77" t="n">
-        <v>0.008101322422400954</v>
+        <v>0.01971609091967631</v>
       </c>
       <c r="J77" t="n">
-        <v>0.01208186063075321</v>
+        <v>0.01742123082767444</v>
       </c>
       <c r="K77" t="n">
-        <v>0.009441410905792282</v>
+        <v>0.01983401979752264</v>
       </c>
       <c r="L77" t="n">
-        <v>0.03060665897779663</v>
+        <v>0.0392652755436097</v>
       </c>
       <c r="M77" t="n">
-        <v>0.009312800714445697</v>
+        <v>0.01976405479187514</v>
       </c>
       <c r="N77" t="n">
-        <v>0.04847132716947616</v>
+        <v>0.05478146691097652</v>
       </c>
       <c r="O77" t="n">
-        <v>0.009266898591656738</v>
+        <v>0.01990770275033016</v>
       </c>
     </row>
     <row r="78" ht="15" customHeight="1">
@@ -9800,28 +9800,28 @@
         <v/>
       </c>
       <c r="F78" t="n">
-        <v>0.007321094628227144</v>
+        <v>0.01741542512773104</v>
       </c>
       <c r="G78" t="n">
-        <v>0.008776432624267699</v>
+        <v>0.021359098496316</v>
       </c>
       <c r="J78" t="n">
-        <v>0.01248278591261059</v>
+        <v>0.01825017893044714</v>
       </c>
       <c r="K78" t="n">
-        <v>0.01022819514794164</v>
+        <v>0.02148685478064953</v>
       </c>
       <c r="L78" t="n">
-        <v>0.03169461984954375</v>
+        <v>0.0415508894049425</v>
       </c>
       <c r="M78" t="n">
-        <v>0.0100888674406495</v>
+        <v>0.02141105935786473</v>
       </c>
       <c r="N78" t="n">
-        <v>0.04904959505823486</v>
+        <v>0.05841300948554118</v>
       </c>
       <c r="O78" t="n">
-        <v>0.01003914014096147</v>
+        <v>0.02156667797952434</v>
       </c>
     </row>
     <row r="79" ht="15" customHeight="1">
@@ -9842,28 +9842,28 @@
         <v/>
       </c>
       <c r="F79" t="n">
-        <v>0.008525444268098113</v>
+        <v>0.0183199343535163</v>
       </c>
       <c r="G79" t="n">
-        <v>0.009451542826134446</v>
+        <v>0.02300210607295569</v>
       </c>
       <c r="J79" t="n">
-        <v>0.01295943561092128</v>
+        <v>0.01925480643011863</v>
       </c>
       <c r="K79" t="n">
-        <v>0.011014979390091</v>
+        <v>0.02313968976377642</v>
       </c>
       <c r="L79" t="n">
-        <v>0.03286455125326643</v>
+        <v>0.04315035803706566</v>
       </c>
       <c r="M79" t="n">
-        <v>0.01086493416685331</v>
+        <v>0.02305806392385433</v>
       </c>
       <c r="N79" t="n">
-        <v>0.05075436208341794</v>
+        <v>0.06124158045433253</v>
       </c>
       <c r="O79" t="n">
-        <v>0.0108113816902662</v>
+        <v>0.02322565320871852</v>
       </c>
     </row>
     <row r="80" ht="15" customHeight="1">
@@ -9873,28 +9873,28 @@
         </is>
       </c>
       <c r="F80" t="n">
-        <v>0.009826704609468807</v>
+        <v>0.02016218370024141</v>
       </c>
       <c r="G80" t="n">
-        <v>0.01012665302800119</v>
+        <v>0.02464511364959538</v>
       </c>
       <c r="J80" t="n">
-        <v>0.0134211716262306</v>
+        <v>0.02042088371628362</v>
       </c>
       <c r="K80" t="n">
-        <v>0.01180176363224035</v>
+        <v>0.0247925247469033</v>
       </c>
       <c r="L80" t="n">
-        <v>0.03351601409801855</v>
+        <v>0.04553724259057046</v>
       </c>
       <c r="M80" t="n">
-        <v>0.01164100089305712</v>
+        <v>0.02470506848984392</v>
       </c>
       <c r="N80" t="n">
-        <v>0.05178312562664233</v>
+        <v>0.06540934515286534</v>
       </c>
       <c r="O80" t="n">
-        <v>0.01158362323957092</v>
+        <v>0.0248846284379127</v>
       </c>
     </row>
     <row r="81" ht="15" customHeight="1">
@@ -9910,28 +9910,28 @@
         </is>
       </c>
       <c r="F81" t="n">
-        <v>0.0112259381207928</v>
+        <v>0.02093363153271966</v>
       </c>
       <c r="G81" t="n">
-        <v>0.01080176322986794</v>
+        <v>0.02628812122623507</v>
       </c>
       <c r="J81" t="n">
-        <v>0.01383552884441011</v>
+        <v>0.02133418117853685</v>
       </c>
       <c r="K81" t="n">
-        <v>0.01234388589087215</v>
+        <v>0.02644535973003019</v>
       </c>
       <c r="L81" t="n">
-        <v>0.03504856929285394</v>
+        <v>0.0474851042160484</v>
       </c>
       <c r="M81" t="n">
-        <v>0.01241706761926093</v>
+        <v>0.02635207305583352</v>
       </c>
       <c r="N81" t="n">
-        <v>0.05283338306952484</v>
+        <v>0.06815846891665406</v>
       </c>
       <c r="O81" t="n">
-        <v>0.01235586478887565</v>
+        <v>0.02654360366710688</v>
       </c>
     </row>
     <row r="82" ht="15" customHeight="1">
@@ -9944,28 +9944,28 @@
         <v/>
       </c>
       <c r="F82" t="n">
-        <v>0.01272420727052366</v>
+        <v>0.02262573621576435</v>
       </c>
       <c r="G82" t="n">
-        <v>0.01147687343173468</v>
+        <v>0.02793112880287476</v>
       </c>
       <c r="J82" t="n">
-        <v>0.01423877878079237</v>
+        <v>0.02208046920647296</v>
       </c>
       <c r="K82" t="n">
-        <v>0.01337533211653907</v>
+        <v>0.02809819471315708</v>
       </c>
       <c r="L82" t="n">
-        <v>0.03626177774682635</v>
+        <v>0.04916750406409071</v>
       </c>
       <c r="M82" t="n">
-        <v>0.01319313434546474</v>
+        <v>0.02799907762182311</v>
       </c>
       <c r="N82" t="n">
-        <v>0.05430263179368222</v>
+        <v>0.07123111708121349</v>
       </c>
       <c r="O82" t="n">
-        <v>0.01312810633818038</v>
+        <v>0.02820257889630106</v>
       </c>
     </row>
     <row r="83" ht="15" customHeight="1">
@@ -9975,28 +9975,28 @@
         </is>
       </c>
       <c r="F83" t="n">
-        <v>0.01432257452711498</v>
+        <v>0.02222995611418879</v>
       </c>
       <c r="G83" t="n">
-        <v>0.01215198363360143</v>
+        <v>0.02957413637951446</v>
       </c>
       <c r="J83" t="n">
-        <v>0.01480578406554396</v>
+        <v>0.02294551818968669</v>
       </c>
       <c r="K83" t="n">
-        <v>0.01416211635868842</v>
+        <v>0.02975102969628397</v>
       </c>
       <c r="L83" t="n">
-        <v>0.03695520036898967</v>
+        <v>0.05075800328528882</v>
       </c>
       <c r="M83" t="n">
-        <v>0.01396920107166855</v>
+        <v>0.02964608218781271</v>
       </c>
       <c r="N83" t="n">
-        <v>0.05578836918073149</v>
+        <v>0.07426945498205834</v>
       </c>
       <c r="O83" t="n">
-        <v>0.01390034788748511</v>
+        <v>0.02986155412549523</v>
       </c>
     </row>
     <row r="84" ht="15" customHeight="1">
@@ -10011,28 +10011,28 @@
         </is>
       </c>
       <c r="F84" t="n">
-        <v>0.01602210235902034</v>
+        <v>0.02273774959280623</v>
       </c>
       <c r="G84" t="n">
-        <v>0.01282709383546818</v>
+        <v>0.03121714395615415</v>
       </c>
       <c r="J84" t="n">
-        <v>0.01537767581918399</v>
+        <v>0.02351509851777275</v>
       </c>
       <c r="K84" t="n">
-        <v>0.01494890060083778</v>
+        <v>0.03140386467941085</v>
       </c>
       <c r="L84" t="n">
-        <v>0.03792839806839765</v>
+        <v>0.05143016303023407</v>
       </c>
       <c r="M84" t="n">
-        <v>0.01474526779787235</v>
+        <v>0.0312930867538023</v>
       </c>
       <c r="N84" t="n">
-        <v>0.05658809261228931</v>
+        <v>0.07631564795470303</v>
       </c>
       <c r="O84" t="n">
-        <v>0.01467258943678984</v>
+        <v>0.03152052935468942</v>
       </c>
     </row>
     <row r="85" ht="15" customHeight="1">
@@ -10051,28 +10051,28 @@
         <v/>
       </c>
       <c r="F85" t="n">
-        <v>0.01782385323469331</v>
+        <v>0.02314057501643</v>
       </c>
       <c r="G85" t="n">
-        <v>0.01350220403733492</v>
+        <v>0.03286015153279384</v>
       </c>
       <c r="J85" t="n">
-        <v>0.01565351170055496</v>
+        <v>0.02397498058032582</v>
       </c>
       <c r="K85" t="n">
-        <v>0.01573568484298714</v>
+        <v>0.03305669966253774</v>
       </c>
       <c r="L85" t="n">
-        <v>0.03908093175410415</v>
+        <v>0.05265754444951778</v>
       </c>
       <c r="M85" t="n">
-        <v>0.01552133452407616</v>
+        <v>0.0329400913197919</v>
       </c>
       <c r="N85" t="n">
-        <v>0.05789929946997247</v>
+        <v>0.07941186133466244</v>
       </c>
       <c r="O85" t="n">
-        <v>0.01544483098609457</v>
+        <v>0.03317950458388359</v>
       </c>
     </row>
     <row r="86" ht="15" customHeight="1">
@@ -10093,28 +10093,28 @@
         <v/>
       </c>
       <c r="F86" t="n">
-        <v>0.01972888962258749</v>
+        <v>0.02246824981778093</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01417731423920167</v>
+        <v>0.03450315910943353</v>
       </c>
       <c r="J86" t="n">
-        <v>0.01613234936849935</v>
+        <v>0.02451093476694065</v>
       </c>
       <c r="K86" t="n">
-        <v>0.0165224690851365</v>
+        <v>0.03470953464566463</v>
       </c>
       <c r="L86" t="n">
-        <v>0.04061236233516294</v>
+        <v>0.05343596401419121</v>
       </c>
       <c r="M86" t="n">
-        <v>0.01629740125027997</v>
+        <v>0.0345870958857815</v>
       </c>
       <c r="N86" t="n">
-        <v>0.05991948713539791</v>
+        <v>0.08060026045745111</v>
       </c>
       <c r="O86" t="n">
-        <v>0.01621707253539929</v>
+        <v>0.03483847981307777</v>
       </c>
     </row>
     <row r="87" ht="15" customHeight="1">
@@ -10124,28 +10124,28 @@
         </is>
       </c>
       <c r="F87" t="n">
-        <v>0.02173827399115643</v>
+        <v>0.02478548635188783</v>
       </c>
       <c r="G87" t="n">
-        <v>0.01485242444106841</v>
+        <v>0.03614616668607323</v>
       </c>
       <c r="J87" t="n">
-        <v>0.01661324648185965</v>
+        <v>0.02494975525572461</v>
       </c>
       <c r="K87" t="n">
-        <v>0.01730925332728585</v>
+        <v>0.03636236962879151</v>
       </c>
       <c r="L87" t="n">
-        <v>0.04142225072062788</v>
+        <v>0.05424891099642232</v>
       </c>
       <c r="M87" t="n">
-        <v>0.01707346797648378</v>
+        <v>0.03623410045177109</v>
       </c>
       <c r="N87" t="n">
-        <v>0.06084615299018242</v>
+        <v>0.08242632359518015</v>
       </c>
       <c r="O87" t="n">
-        <v>0.01698931408470402</v>
+        <v>0.03649745504227195</v>
       </c>
     </row>
     <row r="88" ht="15" customHeight="1">
@@ -10159,28 +10159,28 @@
       <c r="C88" s="139" t="n"/>
       <c r="D88" s="139" t="n"/>
       <c r="F88" t="n">
-        <v>0.02385306880885372</v>
+        <v>0.02509156313147388</v>
       </c>
       <c r="G88" t="n">
-        <v>0.01552753464293516</v>
+        <v>0.03778917426271292</v>
       </c>
       <c r="J88" t="n">
-        <v>0.01729526069947838</v>
+        <v>0.025175993694165</v>
       </c>
       <c r="K88" t="n">
-        <v>0.01809603756943521</v>
+        <v>0.0380152046119184</v>
       </c>
       <c r="L88" t="n">
-        <v>0.04211015781955277</v>
+        <v>0.0551390953649506</v>
       </c>
       <c r="M88" t="n">
-        <v>0.01784953470268759</v>
+        <v>0.03788110501776068</v>
       </c>
       <c r="N88" t="n">
-        <v>0.06217679441594276</v>
+        <v>0.08294005378320868</v>
       </c>
       <c r="O88" t="n">
-        <v>0.01776155563400875</v>
+        <v>0.03815643027146613</v>
       </c>
     </row>
     <row r="89" ht="15" customHeight="1">
@@ -10193,6180 +10193,4780 @@
         <v/>
       </c>
       <c r="F89" t="n">
-        <v>0.02582480697119804</v>
+        <v>0.02538433564077131</v>
       </c>
       <c r="G89" t="n">
-        <v>0.01612839897873102</v>
+        <v>0.03943218183935261</v>
       </c>
       <c r="J89" t="n">
-        <v>0.01767744968019799</v>
+        <v>0.02559082407251735</v>
       </c>
       <c r="K89" t="n">
-        <v>0.01888282181158456</v>
+        <v>0.03966803959504529</v>
       </c>
       <c r="L89" t="n">
-        <v>0.04337564454099141</v>
+        <v>0.05560173674619656</v>
       </c>
       <c r="M89" t="n">
-        <v>0.01862560142889139</v>
+        <v>0.03952810958375028</v>
       </c>
       <c r="N89" t="n">
-        <v>0.06380890879429579</v>
+        <v>0.08412032825258536</v>
       </c>
       <c r="O89" t="n">
-        <v>0.01853379718331348</v>
+        <v>0.03981540550066032</v>
       </c>
     </row>
     <row r="90" ht="15" customHeight="1">
       <c r="F90" t="n">
-        <v>0.03182480697119804</v>
+        <v>0.02366165936401233</v>
       </c>
       <c r="G90" t="n">
-        <v>0.01687340998480787</v>
+        <v>0.0410751894159923</v>
       </c>
       <c r="J90" t="n">
-        <v>0.018058871082861</v>
+        <v>0.02579201847684105</v>
       </c>
       <c r="K90" t="n">
-        <v>0.01966960605373392</v>
+        <v>0.04132087457817217</v>
       </c>
       <c r="L90" t="n">
-        <v>0.04441827179399763</v>
+        <v>0.0560320547665806</v>
       </c>
       <c r="M90" t="n">
-        <v>0.0194016681550952</v>
+        <v>0.04117511414973987</v>
       </c>
       <c r="N90" t="n">
-        <v>0.0651399935068584</v>
+        <v>0.08515962910696223</v>
       </c>
       <c r="O90" t="n">
-        <v>0.0193060387326182</v>
+        <v>0.04147438072985449</v>
       </c>
     </row>
     <row r="91" ht="15" customHeight="1">
       <c r="F91" t="n">
-        <v>0.03289087960810195</v>
+        <v>0.02492138978542916</v>
       </c>
       <c r="G91" t="n">
-        <v>0.0175528652485354</v>
+        <v>0.042718196992632</v>
       </c>
       <c r="J91" t="n">
-        <v>0.0185385825663099</v>
+        <v>0.02597734899319554</v>
       </c>
       <c r="K91" t="n">
-        <v>0.02045639029588328</v>
+        <v>0.04297370956129906</v>
       </c>
       <c r="L91" t="n">
-        <v>0.04543760048762524</v>
+        <v>0.05652526905252334</v>
       </c>
       <c r="M91" t="n">
-        <v>0.02017773488129901</v>
+        <v>0.04282211871572947</v>
       </c>
       <c r="N91" t="n">
-        <v>0.0663675459352473</v>
+        <v>0.0860504384499915</v>
       </c>
       <c r="O91" t="n">
-        <v>0.02007828028192293</v>
+        <v>0.04313335595904868</v>
       </c>
     </row>
     <row r="92" ht="15" customHeight="1">
       <c r="F92" t="n">
-        <v>0.03385461058863156</v>
+        <v>0.02416138238925402</v>
       </c>
       <c r="G92" t="n">
-        <v>0.01822797545040215</v>
+        <v>0.04436120456927168</v>
       </c>
       <c r="J92" t="n">
-        <v>0.0191156417893872</v>
+        <v>0.02644458770764023</v>
       </c>
       <c r="K92" t="n">
-        <v>0.02124317453803264</v>
+        <v>0.04462654454442595</v>
       </c>
       <c r="L92" t="n">
-        <v>0.04603319153092802</v>
+        <v>0.05737659923044514</v>
       </c>
       <c r="M92" t="n">
-        <v>0.02095380160750282</v>
+        <v>0.04446912328171906</v>
       </c>
       <c r="N92" t="n">
-        <v>0.06768906346107939</v>
+        <v>0.08758523838532506</v>
       </c>
       <c r="O92" t="n">
-        <v>0.02085052183122766</v>
+        <v>0.04479233118824286</v>
       </c>
     </row>
     <row r="93" ht="15" customHeight="1">
       <c r="F93" t="n">
-        <v>0.03472859464651944</v>
+        <v>0.02537949265971914</v>
       </c>
       <c r="G93" t="n">
-        <v>0.01890308565226889</v>
+        <v>0.04600421214591138</v>
       </c>
       <c r="J93" t="n">
-        <v>0.01948910641093536</v>
+        <v>0.02669150670623452</v>
       </c>
       <c r="K93" t="n">
-        <v>0.02202995878018199</v>
+        <v>0.04627937952755283</v>
       </c>
       <c r="L93" t="n">
-        <v>0.04690460583295986</v>
+        <v>0.05788126492676654</v>
       </c>
       <c r="M93" t="n">
-        <v>0.02172986833370663</v>
+        <v>0.04611612784770866</v>
       </c>
       <c r="N93" t="n">
-        <v>0.06860204346597149</v>
+        <v>0.08775651101661508</v>
       </c>
       <c r="O93" t="n">
-        <v>0.02162276338053239</v>
+        <v>0.04645130641743703</v>
       </c>
     </row>
     <row r="94" ht="15" customHeight="1">
       <c r="F94" t="n">
-        <v>0.03551829094015268</v>
+        <v>0.02557357608105675</v>
       </c>
       <c r="G94" t="n">
-        <v>0.01957819585413564</v>
+        <v>0.04764721972255107</v>
       </c>
       <c r="J94" t="n">
-        <v>0.0201580340897969</v>
+        <v>0.02671587807503786</v>
       </c>
       <c r="K94" t="n">
-        <v>0.02281674302233135</v>
+        <v>0.04793221451067972</v>
       </c>
       <c r="L94" t="n">
-        <v>0.04785140430277451</v>
+        <v>0.05823448576790802</v>
       </c>
       <c r="M94" t="n">
-        <v>0.02250593505991044</v>
+        <v>0.04776313241369825</v>
       </c>
       <c r="N94" t="n">
-        <v>0.07040398333154041</v>
+        <v>0.08855673844751355</v>
       </c>
       <c r="O94" t="n">
-        <v>0.02239500492983712</v>
+        <v>0.04811028164663121</v>
       </c>
     </row>
     <row r="95" ht="15" customHeight="1">
       <c r="F95" t="n">
-        <v>0.03622915862791839</v>
+        <v>0.02674148813749904</v>
       </c>
       <c r="G95" t="n">
-        <v>0.02025330605600239</v>
+        <v>0.04929022729919076</v>
       </c>
       <c r="J95" t="n">
-        <v>0.02062148248481428</v>
+        <v>0.02711547390010964</v>
       </c>
       <c r="K95" t="n">
-        <v>0.02360352726448071</v>
+        <v>0.04958504949380661</v>
       </c>
       <c r="L95" t="n">
-        <v>0.04837314784942584</v>
+        <v>0.05863148138029001</v>
       </c>
       <c r="M95" t="n">
-        <v>0.02328200178611424</v>
+        <v>0.04941013697968785</v>
       </c>
       <c r="N95" t="n">
-        <v>0.07099238043940287</v>
+        <v>0.08957840278167273</v>
       </c>
       <c r="O95" t="n">
-        <v>0.02316724647914185</v>
+        <v>0.0497692568758254</v>
       </c>
     </row>
     <row r="96" ht="15" customHeight="1">
       <c r="F96" t="n">
-        <v>0.03686665686820361</v>
+        <v>0.02588108431327824</v>
       </c>
       <c r="G96" t="n">
-        <v>0.02092841625786913</v>
+        <v>0.05093323487583045</v>
       </c>
       <c r="J96" t="n">
-        <v>0.02087850925483002</v>
+        <v>0.02728806626750932</v>
       </c>
       <c r="K96" t="n">
-        <v>0.02439031150663007</v>
+        <v>0.0512378844769335</v>
       </c>
       <c r="L96" t="n">
-        <v>0.04946939738196759</v>
+        <v>0.05926747139033312</v>
       </c>
       <c r="M96" t="n">
-        <v>0.02405806851231805</v>
+        <v>0.05105714154567744</v>
       </c>
       <c r="N96" t="n">
-        <v>0.07226473217117585</v>
+        <v>0.09001398612274453</v>
       </c>
       <c r="O96" t="n">
-        <v>0.02393948802844658</v>
+        <v>0.05142823210501957</v>
       </c>
     </row>
     <row r="97" ht="15" customHeight="1">
       <c r="F97" t="n">
-        <v>0.03743624481939548</v>
+        <v>0.02599022009262657</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02160352645973588</v>
+        <v>0.05257624245247015</v>
       </c>
       <c r="J97" t="n">
-        <v>0.02132817205868663</v>
+        <v>0.02733142726329625</v>
       </c>
       <c r="K97" t="n">
-        <v>0.02517709574877942</v>
+        <v>0.05289071946006038</v>
       </c>
       <c r="L97" t="n">
-        <v>0.05043971380945364</v>
+        <v>0.05953767542445773</v>
       </c>
       <c r="M97" t="n">
-        <v>0.02483413523852186</v>
+        <v>0.05270414611166704</v>
       </c>
       <c r="N97" t="n">
-        <v>0.07371853590847616</v>
+        <v>0.09115597057438091</v>
       </c>
       <c r="O97" t="n">
-        <v>0.0247117295777513</v>
+        <v>0.05308720733421375</v>
       </c>
     </row>
     <row r="98" ht="15" customHeight="1">
       <c r="F98" t="n">
-        <v>0.03794338163988104</v>
+        <v>0.02706675095977629</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02227863666160262</v>
+        <v>0.05421925002910983</v>
       </c>
       <c r="J98" t="n">
-        <v>0.02186952855522656</v>
+        <v>0.02754332897352993</v>
       </c>
       <c r="K98" t="n">
-        <v>0.02596387999092878</v>
+        <v>0.05454355444318727</v>
       </c>
       <c r="L98" t="n">
-        <v>0.05078365804093776</v>
+        <v>0.05923731310908437</v>
       </c>
       <c r="M98" t="n">
-        <v>0.02561020196472567</v>
+        <v>0.05435115067765663</v>
       </c>
       <c r="N98" t="n">
-        <v>0.0747512890329205</v>
+        <v>0.09159683824023412</v>
       </c>
       <c r="O98" t="n">
-        <v>0.02548397112705603</v>
+        <v>0.05474618256340793</v>
       </c>
     </row>
     <row r="99" ht="15" customHeight="1">
       <c r="F99" t="n">
-        <v>0.03839352648804744</v>
+        <v>0.02711604731975793</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02295374686346937</v>
+        <v>0.05586225760574953</v>
       </c>
       <c r="J99" t="n">
-        <v>0.02230163640329234</v>
+        <v>0.0275215434842697</v>
       </c>
       <c r="K99" t="n">
-        <v>0.02675066423307814</v>
+        <v>0.05619638942631415</v>
       </c>
       <c r="L99" t="n">
-        <v>0.05160079098547382</v>
+        <v>0.06000580492204047</v>
       </c>
       <c r="M99" t="n">
-        <v>0.02638626869092947</v>
+        <v>0.05599815524364622</v>
       </c>
       <c r="N99" t="n">
-        <v>0.07636048892612585</v>
+        <v>0.09142907122395616</v>
       </c>
       <c r="O99" t="n">
-        <v>0.02625621267636076</v>
+        <v>0.05640515779260211</v>
       </c>
     </row>
     <row r="100" ht="15" customHeight="1">
       <c r="F100" t="n">
-        <v>0.03879213852228169</v>
+        <v>0.02611477785865591</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02362885706533611</v>
+        <v>0.05750526518238921</v>
       </c>
       <c r="J100" t="n">
-        <v>0.02262355326172644</v>
+        <v>0.02767105768882022</v>
       </c>
       <c r="K100" t="n">
-        <v>0.02753744847522749</v>
+        <v>0.05784922440944105</v>
       </c>
       <c r="L100" t="n">
-        <v>0.05199067355211556</v>
+        <v>0.05960576793552561</v>
       </c>
       <c r="M100" t="n">
-        <v>0.02716233541713329</v>
+        <v>0.05764515980963583</v>
       </c>
       <c r="N100" t="n">
-        <v>0.07704363296970895</v>
+        <v>0.09234055215526071</v>
       </c>
       <c r="O100" t="n">
-        <v>0.02702845422566549</v>
+        <v>0.05806413302179629</v>
       </c>
     </row>
     <row r="101" ht="15" customHeight="1">
       <c r="F101" t="n">
-        <v>0.03914467690097095</v>
+        <v>0.0250989546292418</v>
       </c>
       <c r="G101" t="n">
-        <v>0.02430396726720286</v>
+        <v>0.05914827275902891</v>
       </c>
       <c r="J101" t="n">
-        <v>0.02313433678937135</v>
+        <v>0.02766958141626777</v>
       </c>
       <c r="K101" t="n">
-        <v>0.02832423271737685</v>
+        <v>0.05950205939256793</v>
       </c>
       <c r="L101" t="n">
-        <v>0.05275286664991685</v>
+        <v>0.05968655781265722</v>
       </c>
       <c r="M101" t="n">
-        <v>0.02793840214333709</v>
+        <v>0.05929216437562542</v>
       </c>
       <c r="N101" t="n">
-        <v>0.07859821854528654</v>
+        <v>0.0920375615596149</v>
       </c>
       <c r="O101" t="n">
-        <v>0.02780069577497022</v>
+        <v>0.05972310825099047</v>
       </c>
     </row>
     <row r="102" ht="15" customHeight="1">
       <c r="F102" t="n">
-        <v>0.03945660078250226</v>
+        <v>0.02506593338044903</v>
       </c>
       <c r="G102" t="n">
-        <v>0.0249790774690696</v>
+        <v>0.0607912803356686</v>
       </c>
       <c r="J102" t="n">
-        <v>0.0234330446450696</v>
+        <v>0.02755282763549191</v>
       </c>
       <c r="K102" t="n">
-        <v>0.02911101695952621</v>
+        <v>0.06115489437569482</v>
       </c>
       <c r="L102" t="n">
-        <v>0.05368693118793147</v>
+        <v>0.05942808891188658</v>
       </c>
       <c r="M102" t="n">
-        <v>0.0287144688695409</v>
+        <v>0.06093916894161501</v>
       </c>
       <c r="N102" t="n">
-        <v>0.07942174303447558</v>
+        <v>0.09222070184257813</v>
       </c>
       <c r="O102" t="n">
-        <v>0.02857293732427495</v>
+        <v>0.06138208348018465</v>
       </c>
     </row>
     <row r="103" ht="15" customHeight="1">
       <c r="F103" t="n">
-        <v>0.03973336932526272</v>
+        <v>0.02501684433393164</v>
       </c>
       <c r="G103" t="n">
-        <v>0.02565418767093635</v>
+        <v>0.0624342879123083</v>
       </c>
       <c r="J103" t="n">
-        <v>0.02401873448766365</v>
+        <v>0.02751834946067559</v>
       </c>
       <c r="K103" t="n">
-        <v>0.02989780120167556</v>
+        <v>0.0628077293588217</v>
       </c>
       <c r="L103" t="n">
-        <v>0.05449242807521326</v>
+        <v>0.05973289946537266</v>
       </c>
       <c r="M103" t="n">
-        <v>0.02949053559574471</v>
+        <v>0.06258617350760461</v>
       </c>
       <c r="N103" t="n">
-        <v>0.0804117038188929</v>
+        <v>0.09144036586049653</v>
       </c>
       <c r="O103" t="n">
-        <v>0.02934517887357967</v>
+        <v>0.06304105870937883</v>
       </c>
     </row>
     <row r="104" ht="15" customHeight="1">
       <c r="F104" t="n">
-        <v>0.03998044168763943</v>
+        <v>0.02495281771134366</v>
       </c>
       <c r="G104" t="n">
-        <v>0.0263292978728031</v>
+        <v>0.06407729548894799</v>
       </c>
       <c r="J104" t="n">
-        <v>0.02429046397599599</v>
+        <v>0.02756732106671494</v>
       </c>
       <c r="K104" t="n">
-        <v>0.03068458544382492</v>
+        <v>0.06446056434194858</v>
       </c>
       <c r="L104" t="n">
-        <v>0.05456891822081603</v>
+        <v>0.05970350886785011</v>
       </c>
       <c r="M104" t="n">
-        <v>0.03026660232194852</v>
+        <v>0.0642331780735942</v>
       </c>
       <c r="N104" t="n">
-        <v>0.08226559828015523</v>
+        <v>0.09170202831216911</v>
       </c>
       <c r="O104" t="n">
-        <v>0.0301174204228844</v>
+        <v>0.064700033938573</v>
       </c>
     </row>
     <row r="105" ht="15" customHeight="1">
       <c r="F105" t="n">
-        <v>0.04020327702801945</v>
+        <v>0.02687498373433912</v>
       </c>
       <c r="G105" t="n">
-        <v>0.02700440807466984</v>
+        <v>0.06572030306558768</v>
       </c>
       <c r="J105" t="n">
-        <v>0.02454729076890912</v>
+        <v>0.02740091662850615</v>
       </c>
       <c r="K105" t="n">
-        <v>0.03147136968597428</v>
+        <v>0.06611339932507548</v>
       </c>
       <c r="L105" t="n">
-        <v>0.05541596253379358</v>
+        <v>0.05944243651405373</v>
       </c>
       <c r="M105" t="n">
-        <v>0.03104266904815233</v>
+        <v>0.0658801826395838</v>
       </c>
       <c r="N105" t="n">
-        <v>0.08318092379987946</v>
+        <v>0.09120965134577547</v>
       </c>
       <c r="O105" t="n">
-        <v>0.03088966197218913</v>
+        <v>0.06635900916776719</v>
       </c>
     </row>
     <row r="106" ht="15" customHeight="1">
       <c r="F106" t="n">
-        <v>0.04040733450478989</v>
+        <v>0.02678447262457203</v>
       </c>
       <c r="G106" t="n">
-        <v>0.02767951827653659</v>
+        <v>0.06736331064222738</v>
       </c>
       <c r="J106" t="n">
-        <v>0.02488827252524554</v>
+        <v>0.02722031032094535</v>
       </c>
       <c r="K106" t="n">
-        <v>0.03225815392812364</v>
+        <v>0.06776623430820236</v>
       </c>
       <c r="L106" t="n">
-        <v>0.05553312192319976</v>
+        <v>0.05875220179871826</v>
       </c>
       <c r="M106" t="n">
-        <v>0.03181873577435614</v>
+        <v>0.06752718720557339</v>
       </c>
       <c r="N106" t="n">
-        <v>0.08435517775968232</v>
+        <v>0.09086719710949487</v>
       </c>
       <c r="O106" t="n">
-        <v>0.03166190352149386</v>
+        <v>0.06801798439696137</v>
       </c>
     </row>
     <row r="107" ht="15" customHeight="1">
       <c r="F107" t="n">
-        <v>0.04059807327633786</v>
+        <v>0.02468241460369643</v>
       </c>
       <c r="G107" t="n">
-        <v>0.02835462847840334</v>
+        <v>0.06900631821886706</v>
       </c>
       <c r="J107" t="n">
-        <v>0.02541246690384777</v>
+        <v>0.02712667631892873</v>
       </c>
       <c r="K107" t="n">
-        <v>0.03304493817027299</v>
+        <v>0.06941906929132925</v>
       </c>
       <c r="L107" t="n">
-        <v>0.05661995729808836</v>
+        <v>0.05893532411657837</v>
       </c>
       <c r="M107" t="n">
-        <v>0.03259480250055994</v>
+        <v>0.06917419177156299</v>
       </c>
       <c r="N107" t="n">
-        <v>0.08528585754118073</v>
+        <v>0.09057862775150682</v>
       </c>
       <c r="O107" t="n">
-        <v>0.03243414507079859</v>
+        <v>0.06967695962615554</v>
       </c>
     </row>
     <row r="108" ht="15" customHeight="1">
       <c r="F108" t="n">
-        <v>0.04078095250105041</v>
+        <v>0.02656993989336633</v>
       </c>
       <c r="G108" t="n">
-        <v>0.02902973868027009</v>
+        <v>0.07064932579550676</v>
       </c>
       <c r="J108" t="n">
-        <v>0.02551893156355824</v>
+        <v>0.02712118879735244</v>
       </c>
       <c r="K108" t="n">
-        <v>0.03383172241242235</v>
+        <v>0.07107190427445613</v>
       </c>
       <c r="L108" t="n">
-        <v>0.05657602956751318</v>
+        <v>0.05869432286236881</v>
       </c>
       <c r="M108" t="n">
-        <v>0.03337086922676374</v>
+        <v>0.07082119633755257</v>
       </c>
       <c r="N108" t="n">
-        <v>0.08547046052599144</v>
+        <v>0.09014790541999096</v>
       </c>
       <c r="O108" t="n">
-        <v>0.03320638662010331</v>
+        <v>0.07133593485534973</v>
       </c>
     </row>
     <row r="109" ht="15" customHeight="1">
       <c r="F109" t="n">
-        <v>0.04096143133731463</v>
+        <v>0.02644817871523577</v>
       </c>
       <c r="G109" t="n">
-        <v>0.02970484888213683</v>
+        <v>0.07229233337214645</v>
       </c>
       <c r="J109" t="n">
-        <v>0.02600672416321949</v>
+        <v>0.02710502193111262</v>
       </c>
       <c r="K109" t="n">
-        <v>0.0346185066545717</v>
+        <v>0.07272473925758302</v>
       </c>
       <c r="L109" t="n">
-        <v>0.05700089964052804</v>
+        <v>0.05813171743082438</v>
       </c>
       <c r="M109" t="n">
-        <v>0.03414693595296756</v>
+        <v>0.07246820090354218</v>
       </c>
       <c r="N109" t="n">
-        <v>0.08630648409573138</v>
+        <v>0.09017899226312664</v>
       </c>
       <c r="O109" t="n">
-        <v>0.03397862816940805</v>
+        <v>0.07299491008454391</v>
       </c>
     </row>
     <row r="110" ht="15" customHeight="1">
       <c r="F110" t="n">
-        <v>0.04114496894351764</v>
+        <v>0.02431826129095877</v>
       </c>
       <c r="G110" t="n">
-        <v>0.03037995908400358</v>
+        <v>0.07393534094878614</v>
       </c>
       <c r="J110" t="n">
-        <v>0.026174902361674</v>
+        <v>0.02687934989510549</v>
       </c>
       <c r="K110" t="n">
-        <v>0.03540529089672106</v>
+        <v>0.0743775742407099</v>
       </c>
       <c r="L110" t="n">
-        <v>0.0573941284261868</v>
+        <v>0.05835002721667976</v>
       </c>
       <c r="M110" t="n">
-        <v>0.03492300267917137</v>
+        <v>0.07411520546953178</v>
       </c>
       <c r="N110" t="n">
-        <v>0.08739142563201724</v>
+        <v>0.08947585042909328</v>
       </c>
       <c r="O110" t="n">
-        <v>0.03475086971871277</v>
+        <v>0.07465388531373808</v>
       </c>
     </row>
     <row r="111" ht="15" customHeight="1">
       <c r="F111" t="n">
-        <v>0.04133702447804648</v>
+        <v>0.02618131784218936</v>
       </c>
       <c r="G111" t="n">
-        <v>0.03105506928587033</v>
+        <v>0.07557834852542583</v>
       </c>
       <c r="J111" t="n">
-        <v>0.02652252381776425</v>
+        <v>0.02684534686422714</v>
       </c>
       <c r="K111" t="n">
-        <v>0.03619207513887042</v>
+        <v>0.0760304092238368</v>
       </c>
       <c r="L111" t="n">
-        <v>0.05825527683354323</v>
+        <v>0.05775177161466971</v>
       </c>
       <c r="M111" t="n">
-        <v>0.03569906940537517</v>
+        <v>0.07576221003552136</v>
       </c>
       <c r="N111" t="n">
-        <v>0.08822278251646587</v>
+        <v>0.08894244206607044</v>
       </c>
       <c r="O111" t="n">
-        <v>0.0355231112680175</v>
+        <v>0.07631286054293226</v>
       </c>
     </row>
     <row r="112" ht="15" customHeight="1">
       <c r="F112" t="n">
-        <v>0.04154058536802503</v>
+        <v>0.02403847859058155</v>
       </c>
       <c r="G112" t="n">
-        <v>0.03173017948773707</v>
+        <v>0.07722135610206553</v>
       </c>
       <c r="J112" t="n">
-        <v>0.02674864619033275</v>
+        <v>0.02650418701337377</v>
       </c>
       <c r="K112" t="n">
-        <v>0.03697885938101977</v>
+        <v>0.07768324420696368</v>
       </c>
       <c r="L112" t="n">
-        <v>0.05848390577165113</v>
+        <v>0.05763947001952896</v>
       </c>
       <c r="M112" t="n">
-        <v>0.03647513613157898</v>
+        <v>0.07740921460151096</v>
       </c>
       <c r="N112" t="n">
-        <v>0.08839805213069429</v>
+        <v>0.08868272932223764</v>
       </c>
       <c r="O112" t="n">
-        <v>0.03629535281732223</v>
+        <v>0.07797183577212645</v>
       </c>
     </row>
     <row r="113" ht="15" customHeight="1">
       <c r="F113" t="n">
-        <v>0.04174434084718551</v>
+        <v>0.02489087375778939</v>
       </c>
       <c r="G113" t="n">
-        <v>0.03240528968960382</v>
+        <v>0.07886436367870522</v>
       </c>
       <c r="J113" t="n">
-        <v>0.026752327138222</v>
+        <v>0.02645704451744156</v>
       </c>
       <c r="K113" t="n">
-        <v>0.03776564362316913</v>
+        <v>0.07933607919009057</v>
       </c>
       <c r="L113" t="n">
-        <v>0.05877957614956436</v>
+        <v>0.05681564182599219</v>
       </c>
       <c r="M113" t="n">
-        <v>0.03725120285778279</v>
+        <v>0.07905621916750057</v>
       </c>
       <c r="N113" t="n">
-        <v>0.08891473185631904</v>
+        <v>0.08850067434577419</v>
       </c>
       <c r="O113" t="n">
-        <v>0.03706759436662695</v>
+        <v>0.07963081100132063</v>
       </c>
     </row>
     <row r="114" ht="15" customHeight="1">
       <c r="F114" t="n">
-        <v>0.04194602032478591</v>
+        <v>0.02373963356546688</v>
       </c>
       <c r="G114" t="n">
-        <v>0.03308039989147056</v>
+        <v>0.08050737125534491</v>
       </c>
       <c r="J114" t="n">
-        <v>0.02693262432027446</v>
+        <v>0.02620509355132665</v>
       </c>
       <c r="K114" t="n">
-        <v>0.03855242786531848</v>
+        <v>0.08098891417321745</v>
       </c>
       <c r="L114" t="n">
-        <v>0.05904184887633671</v>
+        <v>0.05698280642879419</v>
       </c>
       <c r="M114" t="n">
-        <v>0.0380272695839866</v>
+        <v>0.08070322373349015</v>
       </c>
       <c r="N114" t="n">
-        <v>0.09007031907495705</v>
+        <v>0.08790023928485968</v>
       </c>
       <c r="O114" t="n">
-        <v>0.03783983591593168</v>
+        <v>0.08128978623051482</v>
       </c>
     </row>
     <row r="115" ht="15" customHeight="1">
       <c r="F115" t="n">
-        <v>0.04214554932653853</v>
+        <v>0.02558588823526806</v>
       </c>
       <c r="G115" t="n">
-        <v>0.03375551009333731</v>
+        <v>0.0821503788319846</v>
       </c>
       <c r="J115" t="n">
-        <v>0.02728859539533268</v>
+        <v>0.02614950828992521</v>
       </c>
       <c r="K115" t="n">
-        <v>0.03933921210746785</v>
+        <v>0.08264174915634434</v>
       </c>
       <c r="L115" t="n">
-        <v>0.05937028486102194</v>
+        <v>0.05644348322266973</v>
       </c>
       <c r="M115" t="n">
-        <v>0.03880333631019041</v>
+        <v>0.08235022829947974</v>
       </c>
       <c r="N115" t="n">
-        <v>0.09036231116822524</v>
+        <v>0.08748538628767355</v>
       </c>
       <c r="O115" t="n">
-        <v>0.03861207746523641</v>
+        <v>0.08294876145970899</v>
       </c>
     </row>
     <row r="116" ht="15" customHeight="1">
       <c r="F116" t="n">
-        <v>0.0423428533781556</v>
+        <v>0.02343076798884696</v>
       </c>
       <c r="G116" t="n">
-        <v>0.03443062029520405</v>
+        <v>0.0837933864086243</v>
       </c>
       <c r="J116" t="n">
-        <v>0.02741929802223909</v>
+        <v>0.02609146290813338</v>
       </c>
       <c r="K116" t="n">
-        <v>0.0401259963496172</v>
+        <v>0.08429458413947123</v>
       </c>
       <c r="L116" t="n">
-        <v>0.059264445012674</v>
+        <v>0.05620019160235346</v>
       </c>
       <c r="M116" t="n">
-        <v>0.03957940303639421</v>
+        <v>0.08399723286546934</v>
       </c>
       <c r="N116" t="n">
-        <v>0.09058820551774038</v>
+        <v>0.08726007750239534</v>
       </c>
       <c r="O116" t="n">
-        <v>0.03938431901454114</v>
+        <v>0.08460773668890317</v>
       </c>
     </row>
     <row r="117" ht="15" customHeight="1">
       <c r="F117" t="n">
-        <v>0.04253785800534942</v>
+        <v>0.0232754030478576</v>
       </c>
       <c r="G117" t="n">
-        <v>0.0351057304970708</v>
+        <v>0.08543639398526399</v>
       </c>
       <c r="J117" t="n">
-        <v>0.02742378985983623</v>
+        <v>0.02593213158084735</v>
       </c>
       <c r="K117" t="n">
-        <v>0.04091278059176656</v>
+        <v>0.08594741912259812</v>
       </c>
       <c r="L117" t="n">
-        <v>0.05972389024034658</v>
+        <v>0.05585545096258016</v>
       </c>
       <c r="M117" t="n">
-        <v>0.04035546976259802</v>
+        <v>0.08564423743145894</v>
       </c>
       <c r="N117" t="n">
-        <v>0.09134549950511917</v>
+        <v>0.08612827507720444</v>
       </c>
       <c r="O117" t="n">
-        <v>0.04015656056384587</v>
+        <v>0.08626671191809736</v>
       </c>
     </row>
     <row r="118" ht="15" customHeight="1">
       <c r="F118" t="n">
-        <v>0.04273048873383225</v>
+        <v>0.02512092363395401</v>
       </c>
       <c r="G118" t="n">
-        <v>0.03578084069893755</v>
+        <v>0.08707940156190368</v>
       </c>
       <c r="J118" t="n">
-        <v>0.02740112856696655</v>
+        <v>0.02567268848296327</v>
       </c>
       <c r="K118" t="n">
-        <v>0.04169956483391592</v>
+        <v>0.087600254105725</v>
       </c>
       <c r="L118" t="n">
-        <v>0.05984818145309354</v>
+        <v>0.05531178069808457</v>
       </c>
       <c r="M118" t="n">
-        <v>0.04113153648880184</v>
+        <v>0.08729124199744853</v>
       </c>
       <c r="N118" t="n">
-        <v>0.09173169051197866</v>
+        <v>0.0860939411602803</v>
       </c>
       <c r="O118" t="n">
-        <v>0.04092880211315059</v>
+        <v>0.08792568714729153</v>
       </c>
     </row>
     <row r="119" ht="15" customHeight="1">
       <c r="F119" t="n">
-        <v>0.04292067108931632</v>
+        <v>0.02496779595553112</v>
       </c>
       <c r="G119" t="n">
-        <v>0.03645595090080429</v>
+        <v>0.08872240913854336</v>
       </c>
       <c r="J119" t="n">
-        <v>0.02767105768882022</v>
+        <v>0.0256143077893773</v>
       </c>
       <c r="K119" t="n">
-        <v>0.04248634907606528</v>
+        <v>0.08925308908885189</v>
       </c>
       <c r="L119" t="n">
-        <v>0.05943687955996871</v>
+        <v>0.05537170020360146</v>
       </c>
       <c r="M119" t="n">
-        <v>0.04190760321500564</v>
+        <v>0.08893824656343811</v>
       </c>
       <c r="N119" t="n">
-        <v>0.09154427591993547</v>
+        <v>0.08566103789980239</v>
       </c>
       <c r="O119" t="n">
-        <v>0.04170104366245533</v>
+        <v>0.08958466237648571</v>
       </c>
     </row>
     <row r="120" ht="15" customHeight="1">
       <c r="F120" t="n">
-        <v>0.04310833059751392</v>
+        <v>0.02279854600748026</v>
       </c>
       <c r="G120" t="n">
-        <v>0.03713106110267104</v>
+        <v>0.09036541671518306</v>
       </c>
       <c r="J120" t="n">
-        <v>0.02767057722519682</v>
+        <v>0.02525633672191344</v>
       </c>
       <c r="K120" t="n">
-        <v>0.04327313331821463</v>
+        <v>0.09090592407197877</v>
       </c>
       <c r="L120" t="n">
-        <v>0.06000580492204047</v>
+        <v>0.05471439960777902</v>
       </c>
       <c r="M120" t="n">
-        <v>0.04268366994120944</v>
+        <v>0.09058525112942772</v>
       </c>
       <c r="N120" t="n">
-        <v>0.09234055215526071</v>
+        <v>0.08453352744395032</v>
       </c>
       <c r="O120" t="n">
-        <v>0.04247328521176005</v>
+        <v>0.09124363760567988</v>
       </c>
     </row>
     <row r="121" ht="15" customHeight="1">
       <c r="F121" t="n">
-        <v>0.04329339278413733</v>
+        <v>0.02360773015449161</v>
       </c>
       <c r="G121" t="n">
-        <v>0.03780617130453778</v>
+        <v>0.09200842429182275</v>
       </c>
       <c r="J121" t="n">
-        <v>0.02746607014710546</v>
+        <v>0.02527922499319683</v>
       </c>
       <c r="K121" t="n">
-        <v>0.04405991756036399</v>
+        <v>0.09255875905510566</v>
       </c>
       <c r="L121" t="n">
-        <v>0.06000576789606071</v>
+        <v>0.05410688530424884</v>
       </c>
       <c r="M121" t="n">
-        <v>0.04345973666741326</v>
+        <v>0.09223225569541732</v>
       </c>
       <c r="N121" t="n">
-        <v>0.09233861946560851</v>
+        <v>0.08428263326128321</v>
       </c>
       <c r="O121" t="n">
-        <v>0.04324552676106478</v>
+        <v>0.09290261283487407</v>
       </c>
     </row>
     <row r="122" ht="15" customHeight="1">
       <c r="F122" t="n">
-        <v>0.0434757831748988</v>
+        <v>0.02439903079381524</v>
       </c>
       <c r="G122" t="n">
-        <v>0.03848128150640453</v>
+        <v>0.09365143186846243</v>
       </c>
       <c r="J122" t="n">
-        <v>0.02744688905277543</v>
+        <v>0.02488039204150586</v>
       </c>
       <c r="K122" t="n">
-        <v>0.04484670180251334</v>
+        <v>0.09421159403823255</v>
       </c>
       <c r="L122" t="n">
-        <v>0.05989411756049698</v>
+        <v>0.0541567546991325</v>
       </c>
       <c r="M122" t="n">
-        <v>0.04423580339361706</v>
+        <v>0.0938792602614069</v>
       </c>
       <c r="N122" t="n">
-        <v>0.09192304193138834</v>
+        <v>0.08335356970831281</v>
       </c>
       <c r="O122" t="n">
-        <v>0.04401776831036951</v>
+        <v>0.09456158806406825</v>
       </c>
     </row>
     <row r="123" ht="15" customHeight="1">
       <c r="F123" t="n">
-        <v>0.04365542729551059</v>
+        <v>0.02317613032270132</v>
       </c>
       <c r="G123" t="n">
-        <v>0.03915639170827128</v>
+        <v>0.09529443944510213</v>
       </c>
       <c r="J123" t="n">
-        <v>0.02751392300607648</v>
+        <v>0.02486366346900754</v>
       </c>
       <c r="K123" t="n">
-        <v>0.0456334860446627</v>
+        <v>0.09586442902135944</v>
       </c>
       <c r="L123" t="n">
-        <v>0.05966214195796404</v>
+        <v>0.05327221628163226</v>
       </c>
       <c r="M123" t="n">
-        <v>0.04501187011982087</v>
+        <v>0.0955262648273965</v>
       </c>
       <c r="N123" t="n">
-        <v>0.0921510161440503</v>
+        <v>0.08285755776980158</v>
       </c>
       <c r="O123" t="n">
-        <v>0.04479000985967424</v>
+        <v>0.09622056329326242</v>
       </c>
     </row>
     <row r="124" ht="15" customHeight="1">
       <c r="F124" t="n">
-        <v>0.04383225067168498</v>
+        <v>0.02294271113839991</v>
       </c>
       <c r="G124" t="n">
-        <v>0.03983150191013802</v>
+        <v>0.09693744702174183</v>
       </c>
       <c r="J124" t="n">
-        <v>0.0275678201660307</v>
+        <v>0.02453286487786878</v>
       </c>
       <c r="K124" t="n">
-        <v>0.04642027028681206</v>
+        <v>0.09751726400448632</v>
       </c>
       <c r="L124" t="n">
-        <v>0.05991055807347231</v>
+        <v>0.05276147854095029</v>
       </c>
       <c r="M124" t="n">
-        <v>0.04578793684602468</v>
+        <v>0.09717326939338611</v>
       </c>
       <c r="N124" t="n">
-        <v>0.09202567786601645</v>
+        <v>0.08220750659813475</v>
       </c>
       <c r="O124" t="n">
-        <v>0.04556225140897897</v>
+        <v>0.09787953852245661</v>
       </c>
     </row>
     <row r="125" ht="15" customHeight="1">
       <c r="F125" t="n">
-        <v>0.04400617882913423</v>
+        <v>0.02170245563816118</v>
       </c>
       <c r="G125" t="n">
-        <v>0.04050661211200477</v>
+        <v>0.09858045459838152</v>
       </c>
       <c r="J125" t="n">
-        <v>0.02730922869166004</v>
+        <v>0.02429182187025659</v>
       </c>
       <c r="K125" t="n">
-        <v>0.04720705452896141</v>
+        <v>0.09917009898761321</v>
       </c>
       <c r="L125" t="n">
-        <v>0.05924008289203217</v>
+        <v>0.05253274996628876</v>
       </c>
       <c r="M125" t="n">
-        <v>0.04656400357222849</v>
+        <v>0.09882027395937569</v>
       </c>
       <c r="N125" t="n">
-        <v>0.09164960834812147</v>
+        <v>0.08141632534569698</v>
       </c>
       <c r="O125" t="n">
-        <v>0.04633449295828369</v>
+        <v>0.09953851375165079</v>
       </c>
     </row>
     <row r="126" ht="15" customHeight="1">
       <c r="F126" t="n">
-        <v>0.04417713729357062</v>
+        <v>0.0224590462192352</v>
       </c>
       <c r="G126" t="n">
-        <v>0.04118172231387152</v>
+        <v>0.1002234621750212</v>
       </c>
       <c r="J126" t="n">
-        <v>0.02723879674198661</v>
+        <v>0.0239443600483379</v>
       </c>
       <c r="K126" t="n">
-        <v>0.04799383877111077</v>
+        <v>0.1008229339707401</v>
       </c>
       <c r="L126" t="n">
-        <v>0.059451433398654</v>
+        <v>0.05159423904684984</v>
       </c>
       <c r="M126" t="n">
-        <v>0.04734007029843229</v>
+        <v>0.1004672785253653</v>
       </c>
       <c r="N126" t="n">
-        <v>0.09162538884120019</v>
+        <v>0.0809969231648735</v>
       </c>
       <c r="O126" t="n">
-        <v>0.04710673450758842</v>
+        <v>0.101197488980845</v>
       </c>
     </row>
     <row r="127" ht="15" customHeight="1">
       <c r="F127" t="n">
-        <v>0.04434505159070638</v>
+        <v>0.02321616527887211</v>
       </c>
       <c r="G127" t="n">
-        <v>0.04185683251573826</v>
+        <v>0.1018664697516609</v>
       </c>
       <c r="J127" t="n">
-        <v>0.02735717247603242</v>
+        <v>0.02379430501427966</v>
       </c>
       <c r="K127" t="n">
-        <v>0.04878062301326013</v>
+        <v>0.102475768953867</v>
       </c>
       <c r="L127" t="n">
-        <v>0.05924532657834822</v>
+        <v>0.05135415427183573</v>
       </c>
       <c r="M127" t="n">
-        <v>0.04811613702463611</v>
+        <v>0.1021142830913549</v>
       </c>
       <c r="N127" t="n">
-        <v>0.09115560059608729</v>
+        <v>0.07966220920804928</v>
       </c>
       <c r="O127" t="n">
-        <v>0.04787897605689315</v>
+        <v>0.1028564642100391</v>
       </c>
     </row>
     <row r="128" ht="15" customHeight="1">
       <c r="F128" t="n">
-        <v>0.04450984724625381</v>
+        <v>0.02097749521432201</v>
       </c>
       <c r="G128" t="n">
-        <v>0.04253194271760501</v>
+        <v>0.1035094773283006</v>
       </c>
       <c r="J128" t="n">
-        <v>0.02706500405281947</v>
+        <v>0.02344548237024882</v>
       </c>
       <c r="K128" t="n">
-        <v>0.04956740725540949</v>
+        <v>0.1041286039369939</v>
       </c>
       <c r="L128" t="n">
-        <v>0.05892247941612525</v>
+        <v>0.05102070413044862</v>
       </c>
       <c r="M128" t="n">
-        <v>0.04889220375083991</v>
+        <v>0.1037612876573445</v>
       </c>
       <c r="N128" t="n">
-        <v>0.09074282486361768</v>
+        <v>0.07852509262760921</v>
       </c>
       <c r="O128" t="n">
-        <v>0.04865121760619788</v>
+        <v>0.1045154394392333</v>
       </c>
     </row>
     <row r="129" ht="15" customHeight="1">
       <c r="F129" t="n">
-        <v>0.04467144978592515</v>
+        <v>0.02174671842283504</v>
       </c>
       <c r="G129" t="n">
-        <v>0.04320705291947175</v>
+        <v>0.1051524849049403</v>
       </c>
       <c r="J129" t="n">
-        <v>0.02706293963136983</v>
+        <v>0.02330171771841237</v>
       </c>
       <c r="K129" t="n">
-        <v>0.05035419149755884</v>
+        <v>0.1057814389201208</v>
       </c>
       <c r="L129" t="n">
-        <v>0.0593836088969954</v>
+        <v>0.05050209711189069</v>
       </c>
       <c r="M129" t="n">
-        <v>0.04966827047704372</v>
+        <v>0.1054082922233341</v>
       </c>
       <c r="N129" t="n">
-        <v>0.08998964289462597</v>
+        <v>0.07779848257593841</v>
       </c>
       <c r="O129" t="n">
-        <v>0.04942345915550261</v>
+        <v>0.1061744146684275</v>
       </c>
     </row>
     <row r="130" ht="15" customHeight="1">
       <c r="F130" t="n">
-        <v>0.04482978473543268</v>
+        <v>0.02052676730594325</v>
       </c>
       <c r="G130" t="n">
-        <v>0.0438821631213385</v>
+        <v>0.10679549248158</v>
       </c>
       <c r="J130" t="n">
-        <v>0.0269516273707055</v>
+        <v>0.02306683666093723</v>
       </c>
       <c r="K130" t="n">
-        <v>0.0511409757397082</v>
+        <v>0.1074342739032476</v>
       </c>
       <c r="L130" t="n">
-        <v>0.05862943200596912</v>
+        <v>0.04950654170536406</v>
       </c>
       <c r="M130" t="n">
-        <v>0.05044433720324753</v>
+        <v>0.1070552967893237</v>
       </c>
       <c r="N130" t="n">
-        <v>0.08999863593994695</v>
+        <v>0.07769528820542171</v>
       </c>
       <c r="O130" t="n">
-        <v>0.05019570070480733</v>
+        <v>0.1078333898976217</v>
       </c>
     </row>
     <row r="131" ht="15" customHeight="1">
       <c r="F131" t="n">
-        <v>0.04498477762048866</v>
+        <v>0.02129522157450835</v>
       </c>
       <c r="G131" t="n">
-        <v>0.04455727332320524</v>
+        <v>0.1084385000582197</v>
       </c>
       <c r="J131" t="n">
-        <v>0.02673171542984853</v>
+        <v>0.02284142226487146</v>
       </c>
       <c r="K131" t="n">
-        <v>0.05192775998185756</v>
+        <v>0.1090871088863745</v>
       </c>
       <c r="L131" t="n">
-        <v>0.0589606657280568</v>
+        <v>0.0490087845055098</v>
       </c>
       <c r="M131" t="n">
-        <v>0.05122040392945133</v>
+        <v>0.1087023013553133</v>
       </c>
       <c r="N131" t="n">
-        <v>0.0894723852504154</v>
+        <v>0.07612841866844422</v>
       </c>
       <c r="O131" t="n">
-        <v>0.05096794225411207</v>
+        <v>0.1094923651268159</v>
       </c>
     </row>
     <row r="132" ht="15" customHeight="1">
       <c r="F132" t="n">
-        <v>0.04513635396680537</v>
+        <v>0.02004401807143925</v>
       </c>
       <c r="G132" t="n">
-        <v>0.04523238352507199</v>
+        <v>0.1100815076348594</v>
       </c>
       <c r="J132" t="n">
-        <v>0.02680385196782097</v>
+        <v>0.022499094987809</v>
       </c>
       <c r="K132" t="n">
-        <v>0.05271454422400691</v>
+        <v>0.1107399438695014</v>
       </c>
       <c r="L132" t="n">
-        <v>0.05887802704826886</v>
+        <v>0.04836431877719763</v>
       </c>
       <c r="M132" t="n">
-        <v>0.05199647065565514</v>
+        <v>0.1103493059213029</v>
       </c>
       <c r="N132" t="n">
-        <v>0.08901347207686611</v>
+        <v>0.07585438436323755</v>
       </c>
       <c r="O132" t="n">
-        <v>0.05174018380341679</v>
+        <v>0.11115134035601</v>
       </c>
     </row>
     <row r="133" ht="15" customHeight="1">
       <c r="F133" t="n">
-        <v>0.04528443930009505</v>
+        <v>0.01977842814947828</v>
       </c>
       <c r="G133" t="n">
-        <v>0.04590749372693874</v>
+        <v>0.1117245152114991</v>
       </c>
       <c r="J133" t="n">
-        <v>0.0264686851436448</v>
+        <v>0.02223761260180737</v>
       </c>
       <c r="K133" t="n">
-        <v>0.05350132846615627</v>
+        <v>0.1123927788526283</v>
       </c>
       <c r="L133" t="n">
-        <v>0.05838223295161565</v>
+        <v>0.04788409773483046</v>
       </c>
       <c r="M133" t="n">
-        <v>0.05277253738185895</v>
+        <v>0.1119963104872924</v>
       </c>
       <c r="N133" t="n">
-        <v>0.08842447767013373</v>
+        <v>0.07450761216365376</v>
       </c>
       <c r="O133" t="n">
-        <v>0.05251242535272152</v>
+        <v>0.1128103155852042</v>
       </c>
     </row>
     <row r="134" ht="15" customHeight="1">
       <c r="F134" t="n">
-        <v>0.04542895914606999</v>
+        <v>0.01950372316136776</v>
       </c>
       <c r="G134" t="n">
-        <v>0.04658260392880548</v>
+        <v>0.1133675227881387</v>
       </c>
       <c r="J134" t="n">
-        <v>0.0264268631163421</v>
+        <v>0.02196245145748928</v>
       </c>
       <c r="K134" t="n">
-        <v>0.05428811270830564</v>
+        <v>0.1140456138357552</v>
       </c>
       <c r="L134" t="n">
-        <v>0.05807400042310751</v>
+        <v>0.04717987183310599</v>
       </c>
       <c r="M134" t="n">
-        <v>0.05354860410806277</v>
+        <v>0.1136433150532821</v>
       </c>
       <c r="N134" t="n">
-        <v>0.08780798328105305</v>
+        <v>0.07360589309227239</v>
       </c>
       <c r="O134" t="n">
-        <v>0.05328466690202625</v>
+        <v>0.1144692908143984</v>
       </c>
     </row>
     <row r="135" ht="15" customHeight="1">
       <c r="F135" t="n">
-        <v>0.04556983903044245</v>
+        <v>0.02022517445984996</v>
       </c>
       <c r="G135" t="n">
-        <v>0.04725771413067223</v>
+        <v>0.1150105303647784</v>
       </c>
       <c r="J135" t="n">
-        <v>0.02617903404493488</v>
+        <v>0.02167908790547744</v>
       </c>
       <c r="K135" t="n">
-        <v>0.05507489695045498</v>
+        <v>0.1156984488188821</v>
       </c>
       <c r="L135" t="n">
-        <v>0.05805404644775497</v>
+        <v>0.04696339152672177</v>
       </c>
       <c r="M135" t="n">
-        <v>0.05432467083426657</v>
+        <v>0.1152903196192717</v>
       </c>
       <c r="N135" t="n">
-        <v>0.08726657016045891</v>
+        <v>0.07326770660451437</v>
       </c>
       <c r="O135" t="n">
-        <v>0.05405690845133098</v>
+        <v>0.1161282660435926</v>
       </c>
     </row>
     <row r="136" ht="15" customHeight="1">
       <c r="F136" t="n">
-        <v>0.04570700447892468</v>
+        <v>0.02094805339766718</v>
       </c>
       <c r="G136" t="n">
-        <v>0.04793282433253897</v>
+        <v>0.1166535379414181</v>
       </c>
       <c r="J136" t="n">
-        <v>0.02612584608844518</v>
+        <v>0.02139299829639459</v>
       </c>
       <c r="K136" t="n">
-        <v>0.05586168119260435</v>
+        <v>0.117351283802009</v>
       </c>
       <c r="L136" t="n">
-        <v>0.05782308801056835</v>
+        <v>0.04614640727037542</v>
       </c>
       <c r="M136" t="n">
-        <v>0.05510073756047038</v>
+        <v>0.1169373241852612</v>
       </c>
       <c r="N136" t="n">
-        <v>0.08670281955918596</v>
+        <v>0.07201153215580036</v>
       </c>
       <c r="O136" t="n">
-        <v>0.05482915000063571</v>
+        <v>0.1177872412727868</v>
       </c>
     </row>
     <row r="137" ht="15" customHeight="1">
       <c r="F137" t="n">
-        <v>0.04584038101722896</v>
+        <v>0.01867763132756173</v>
       </c>
       <c r="G137" t="n">
-        <v>0.04860793453440573</v>
+        <v>0.1182965455180578</v>
       </c>
       <c r="J137" t="n">
-        <v>0.025967947405895</v>
+        <v>0.02130965898086343</v>
       </c>
       <c r="K137" t="n">
-        <v>0.05664846543475369</v>
+        <v>0.1190041187851359</v>
       </c>
       <c r="L137" t="n">
-        <v>0.05718184209655802</v>
+        <v>0.0453406695187645</v>
       </c>
       <c r="M137" t="n">
-        <v>0.05587680428667419</v>
+        <v>0.1185843287512508</v>
       </c>
       <c r="N137" t="n">
-        <v>0.08671931272806899</v>
+        <v>0.07145584920155146</v>
       </c>
       <c r="O137" t="n">
-        <v>0.05560139154994043</v>
+        <v>0.1194462165019809</v>
       </c>
     </row>
     <row r="138" ht="15" customHeight="1">
       <c r="F138" t="n">
-        <v>0.04596989417106755</v>
+        <v>0.01841917960227592</v>
       </c>
       <c r="G138" t="n">
-        <v>0.04928304473627247</v>
+        <v>0.1199395530946975</v>
       </c>
       <c r="J138" t="n">
-        <v>0.02580598615630643</v>
+        <v>0.02103454630950664</v>
       </c>
       <c r="K138" t="n">
-        <v>0.05743524967690306</v>
+        <v>0.1206569537682627</v>
       </c>
       <c r="L138" t="n">
-        <v>0.05713102569073444</v>
+        <v>0.04515792872658672</v>
       </c>
       <c r="M138" t="n">
-        <v>0.05665287101287799</v>
+        <v>0.1202313333172404</v>
       </c>
       <c r="N138" t="n">
-        <v>0.08601863091794276</v>
+        <v>0.0703191371971883</v>
       </c>
       <c r="O138" t="n">
-        <v>0.05637363309924517</v>
+        <v>0.1211051917311751</v>
       </c>
     </row>
     <row r="139" ht="15" customHeight="1">
       <c r="F139" t="n">
-        <v>0.04609546946615272</v>
+        <v>0.01917796957455205</v>
       </c>
       <c r="G139" t="n">
-        <v>0.04995815493813921</v>
+        <v>0.1215825606713372</v>
       </c>
       <c r="J139" t="n">
-        <v>0.02554061049870146</v>
+        <v>0.02057313663294699</v>
       </c>
       <c r="K139" t="n">
-        <v>0.05822203391905242</v>
+        <v>0.1223097887513896</v>
       </c>
       <c r="L139" t="n">
-        <v>0.05707135577810793</v>
+        <v>0.04430993534853966</v>
       </c>
       <c r="M139" t="n">
-        <v>0.0574289377390818</v>
+        <v>0.12187833788323</v>
       </c>
       <c r="N139" t="n">
-        <v>0.08540335537964205</v>
+        <v>0.06901987559813216</v>
       </c>
       <c r="O139" t="n">
-        <v>0.05714587464854989</v>
+        <v>0.1227641669603693</v>
       </c>
     </row>
     <row r="140" ht="15" customHeight="1">
       <c r="F140" t="n">
-        <v>0.04621703242819677</v>
+        <v>0.01895927259713243</v>
       </c>
       <c r="G140" t="n">
-        <v>0.05063326514000596</v>
+        <v>0.1232255682479769</v>
       </c>
       <c r="J140" t="n">
-        <v>0.02537246859210213</v>
+        <v>0.02033090630180713</v>
       </c>
       <c r="K140" t="n">
-        <v>0.05900881816120176</v>
+        <v>0.1239626237345165</v>
       </c>
       <c r="L140" t="n">
-        <v>0.05680354934368895</v>
+        <v>0.04370843983932091</v>
       </c>
       <c r="M140" t="n">
-        <v>0.05820500446528561</v>
+        <v>0.1235253424492196</v>
       </c>
       <c r="N140" t="n">
-        <v>0.08437606736400161</v>
+        <v>0.0679765438598034</v>
       </c>
       <c r="O140" t="n">
-        <v>0.05791811619785462</v>
+        <v>0.1244231421895635</v>
       </c>
     </row>
     <row r="141" ht="15" customHeight="1">
       <c r="F141" t="n">
-        <v>0.04633450858291187</v>
+        <v>0.01976836002275933</v>
       </c>
       <c r="G141" t="n">
-        <v>0.05130837534187271</v>
+        <v>0.1248685758246166</v>
       </c>
       <c r="J141" t="n">
-        <v>0.02540220859553047</v>
+        <v>0.02031333166670983</v>
       </c>
       <c r="K141" t="n">
-        <v>0.05979560240335113</v>
+        <v>0.1256154587176434</v>
       </c>
       <c r="L141" t="n">
-        <v>0.05622832337248784</v>
+        <v>0.04386519265362804</v>
       </c>
       <c r="M141" t="n">
-        <v>0.05898107119148941</v>
+        <v>0.1251723470152092</v>
       </c>
       <c r="N141" t="n">
-        <v>0.08363934812185619</v>
+        <v>0.06760762143762317</v>
       </c>
       <c r="O141" t="n">
-        <v>0.05869035774715935</v>
+        <v>0.1260821174187577</v>
       </c>
     </row>
     <row r="142" ht="15" customHeight="1">
       <c r="F142" t="n">
-        <v>0.04644782345601037</v>
+        <v>0.01861050320417507</v>
       </c>
       <c r="G142" t="n">
-        <v>0.05198348554373946</v>
+        <v>0.1265115834012563</v>
       </c>
       <c r="J142" t="n">
-        <v>0.02503047866800852</v>
+        <v>0.01992588907827776</v>
       </c>
       <c r="K142" t="n">
-        <v>0.06058238664550049</v>
+        <v>0.1272682937007703</v>
       </c>
       <c r="L142" t="n">
-        <v>0.05604639484951501</v>
+        <v>0.04339194424615872</v>
       </c>
       <c r="M142" t="n">
-        <v>0.05975713791769322</v>
+        <v>0.1268193515811988</v>
       </c>
       <c r="N142" t="n">
-        <v>0.08319577890404051</v>
+        <v>0.06713158778701228</v>
       </c>
       <c r="O142" t="n">
-        <v>0.05946259929646408</v>
+        <v>0.1277410926479518</v>
       </c>
     </row>
     <row r="143" ht="15" customHeight="1">
       <c r="F143" t="n">
-        <v>0.04655690257320453</v>
+        <v>0.01949097349412197</v>
       </c>
       <c r="G143" t="n">
-        <v>0.0526585957456062</v>
+        <v>0.128154590977896</v>
       </c>
       <c r="J143" t="n">
-        <v>0.02495792696855831</v>
+        <v>0.01977405488713364</v>
       </c>
       <c r="K143" t="n">
-        <v>0.06136917088764984</v>
+        <v>0.1289211286838972</v>
       </c>
       <c r="L143" t="n">
-        <v>0.05605848075978087</v>
+        <v>0.04290044507161056</v>
       </c>
       <c r="M143" t="n">
-        <v>0.06053320464389704</v>
+        <v>0.1284663561471884</v>
       </c>
       <c r="N143" t="n">
-        <v>0.08244794096138941</v>
+        <v>0.06616692236339167</v>
       </c>
       <c r="O143" t="n">
-        <v>0.06023484084576881</v>
+        <v>0.129400067877146</v>
       </c>
     </row>
     <row r="144" ht="15" customHeight="1">
       <c r="F144" t="n">
-        <v>0.04666167146020658</v>
+        <v>0.01941504224534229</v>
       </c>
       <c r="G144" t="n">
-        <v>0.05333370594747295</v>
+        <v>0.1297975985545357</v>
       </c>
       <c r="J144" t="n">
-        <v>0.02478520165620188</v>
+        <v>0.01966330544390023</v>
       </c>
       <c r="K144" t="n">
-        <v>0.0621559551297992</v>
+        <v>0.1305739636670241</v>
       </c>
       <c r="L144" t="n">
-        <v>0.05546529808829581</v>
+        <v>0.04300244558468114</v>
       </c>
       <c r="M144" t="n">
-        <v>0.06130927137010084</v>
+        <v>0.130113360713178</v>
       </c>
       <c r="N144" t="n">
-        <v>0.08179841554473755</v>
+        <v>0.06563210462218205</v>
       </c>
       <c r="O144" t="n">
-        <v>0.06100708239507353</v>
+        <v>0.1310590431063402</v>
       </c>
     </row>
     <row r="145" ht="15" customHeight="1">
       <c r="F145" t="n">
-        <v>0.04676205564272879</v>
+        <v>0.01738798081057836</v>
       </c>
       <c r="G145" t="n">
-        <v>0.05400881614933969</v>
+        <v>0.1314406061311754</v>
       </c>
       <c r="J145" t="n">
-        <v>0.02451295088996122</v>
+        <v>0.01979911709920017</v>
       </c>
       <c r="K145" t="n">
-        <v>0.06294273937194855</v>
+        <v>0.132226798650151</v>
       </c>
       <c r="L145" t="n">
-        <v>0.05496756382007023</v>
+        <v>0.0429096962400681</v>
       </c>
       <c r="M145" t="n">
-        <v>0.06208533809630466</v>
+        <v>0.1317603652791676</v>
       </c>
       <c r="N145" t="n">
-        <v>0.0808497839049197</v>
+        <v>0.06584561401880445</v>
       </c>
       <c r="O145" t="n">
-        <v>0.06177932394437826</v>
+        <v>0.1327180183355344</v>
       </c>
     </row>
     <row r="146" ht="15" customHeight="1">
       <c r="F146" t="n">
-        <v>0.04685798064648345</v>
+        <v>0.01739174006117652</v>
       </c>
       <c r="G146" t="n">
-        <v>0.05468392635120643</v>
+        <v>0.1330836137078151</v>
       </c>
       <c r="J146" t="n">
-        <v>0.02444182282885841</v>
+        <v>0.01978511697983512</v>
       </c>
       <c r="K146" t="n">
-        <v>0.06372952361409791</v>
+        <v>0.1338796336332778</v>
       </c>
       <c r="L146" t="n">
-        <v>0.05486599494011446</v>
+        <v>0.04260835119485359</v>
       </c>
       <c r="M146" t="n">
-        <v>0.06286140482250846</v>
+        <v>0.1334073698451572</v>
       </c>
       <c r="N146" t="n">
-        <v>0.08080462729277066</v>
+        <v>0.0653259300086797</v>
       </c>
       <c r="O146" t="n">
-        <v>0.06255156549368299</v>
+        <v>0.1343769935647285</v>
       </c>
     </row>
     <row r="147" ht="15" customHeight="1">
       <c r="F147" t="n">
-        <v>0.04694937199718282</v>
+        <v>0.01940303131600132</v>
       </c>
       <c r="G147" t="n">
-        <v>0.05535903655307318</v>
+        <v>0.1347266212844548</v>
       </c>
       <c r="J147" t="n">
-        <v>0.02417246563191545</v>
+        <v>0.01959131967119165</v>
       </c>
       <c r="K147" t="n">
-        <v>0.06451630785624728</v>
+        <v>0.1355324686164047</v>
       </c>
       <c r="L147" t="n">
-        <v>0.054361308433439</v>
+        <v>0.04242871400050038</v>
       </c>
       <c r="M147" t="n">
-        <v>0.06363747154871227</v>
+        <v>0.1350543744111468</v>
       </c>
       <c r="N147" t="n">
-        <v>0.0797655269591252</v>
+        <v>0.06513301742887406</v>
       </c>
       <c r="O147" t="n">
-        <v>0.06332380704298772</v>
+        <v>0.1360359687939227</v>
       </c>
     </row>
     <row r="148" ht="15" customHeight="1">
       <c r="F148" t="n">
-        <v>0.04703615522053917</v>
+        <v>0.01942146127919297</v>
       </c>
       <c r="G148" t="n">
-        <v>0.05603414675493993</v>
+        <v>0.1363696288610944</v>
       </c>
       <c r="J148" t="n">
-        <v>0.0241055274581544</v>
+        <v>0.01960517452520365</v>
       </c>
       <c r="K148" t="n">
-        <v>0.06530309209839662</v>
+        <v>0.1371853035995316</v>
       </c>
       <c r="L148" t="n">
-        <v>0.05465422128505418</v>
+        <v>0.0425651963521653</v>
       </c>
       <c r="M148" t="n">
-        <v>0.06441353827491607</v>
+        <v>0.1367013789771364</v>
       </c>
       <c r="N148" t="n">
-        <v>0.07903506415481804</v>
+        <v>0.06576849611335922</v>
       </c>
       <c r="O148" t="n">
-        <v>0.06409604859229245</v>
+        <v>0.1376949440231169</v>
       </c>
     </row>
     <row r="149" ht="15" customHeight="1">
       <c r="F149" t="n">
-        <v>0.04711825584226473</v>
+        <v>0.01944664261367215</v>
       </c>
       <c r="G149" t="n">
-        <v>0.05670925695680668</v>
+        <v>0.1380126364377341</v>
       </c>
       <c r="J149" t="n">
-        <v>0.02394165646659728</v>
+        <v>0.01962627914162218</v>
       </c>
       <c r="K149" t="n">
-        <v>0.06608987634054599</v>
+        <v>0.1388381385826585</v>
       </c>
       <c r="L149" t="n">
-        <v>0.05434545047997036</v>
+        <v>0.04281693483071758</v>
       </c>
       <c r="M149" t="n">
-        <v>0.06518960500111988</v>
+        <v>0.138348383543126</v>
       </c>
       <c r="N149" t="n">
-        <v>0.07831582013068389</v>
+        <v>0.06572893091563814</v>
       </c>
       <c r="O149" t="n">
-        <v>0.06486829014159717</v>
+        <v>0.1393539192523111</v>
       </c>
     </row>
     <row r="150" ht="15" customHeight="1">
       <c r="F150" t="n">
-        <v>0.04719559938807178</v>
+        <v>0.01847818798235953</v>
       </c>
       <c r="G150" t="n">
-        <v>0.05738436715867343</v>
+        <v>0.1396556440143738</v>
       </c>
       <c r="J150" t="n">
-        <v>0.0236815008162661</v>
+        <v>0.01965423112019839</v>
       </c>
       <c r="K150" t="n">
-        <v>0.06687666058269533</v>
+        <v>0.1404909735657854</v>
       </c>
       <c r="L150" t="n">
-        <v>0.053835713003198</v>
+        <v>0.04278306601702631</v>
       </c>
       <c r="M150" t="n">
-        <v>0.06596567172732369</v>
+        <v>0.1399953881091156</v>
       </c>
       <c r="N150" t="n">
-        <v>0.07851037613755762</v>
+        <v>0.06581296397205777</v>
       </c>
       <c r="O150" t="n">
-        <v>0.06564053169090191</v>
+        <v>0.1410128944815053</v>
       </c>
     </row>
     <row r="151" ht="15" customHeight="1">
       <c r="F151" t="n">
-        <v>0.04726811138367263</v>
+        <v>0.01751571004817582</v>
       </c>
       <c r="G151" t="n">
-        <v>0.05805947736054017</v>
+        <v>0.1412986515910135</v>
       </c>
       <c r="J151" t="n">
-        <v>0.02362570866618292</v>
+        <v>0.01978862806068334</v>
       </c>
       <c r="K151" t="n">
-        <v>0.0676634448248447</v>
+        <v>0.1421438085489123</v>
       </c>
       <c r="L151" t="n">
-        <v>0.05332572583974748</v>
+        <v>0.04276272649196056</v>
       </c>
       <c r="M151" t="n">
-        <v>0.06674173845352749</v>
+        <v>0.1416423926751051</v>
       </c>
       <c r="N151" t="n">
-        <v>0.07782131342627391</v>
+        <v>0.06621923741896546</v>
       </c>
       <c r="O151" t="n">
-        <v>0.06641277324020663</v>
+        <v>0.1426718697106995</v>
       </c>
     </row>
     <row r="152" ht="15" customHeight="1">
       <c r="F152" t="n">
-        <v>0.0473357173547795</v>
+        <v>0.01955882147404168</v>
       </c>
       <c r="G152" t="n">
-        <v>0.05873458756240691</v>
+        <v>0.1429416591676532</v>
       </c>
       <c r="J152" t="n">
-        <v>0.02337492817536976</v>
+        <v>0.01982906756282815</v>
       </c>
       <c r="K152" t="n">
-        <v>0.06845022906699405</v>
+        <v>0.1437966435320392</v>
       </c>
       <c r="L152" t="n">
-        <v>0.05291620597462915</v>
+        <v>0.04315505283638957</v>
       </c>
       <c r="M152" t="n">
-        <v>0.06751780517973131</v>
+        <v>0.1432893972410948</v>
       </c>
       <c r="N152" t="n">
-        <v>0.07655121324766745</v>
+        <v>0.06644639339270814</v>
       </c>
       <c r="O152" t="n">
-        <v>0.06718501478951136</v>
+        <v>0.1443308449398936</v>
       </c>
     </row>
     <row r="153" ht="15" customHeight="1">
       <c r="F153" t="n">
-        <v>0.04739834282710465</v>
+        <v>0.01860713492287778</v>
       </c>
       <c r="G153" t="n">
-        <v>0.05940969776427366</v>
+        <v>0.1445846667442929</v>
       </c>
       <c r="J153" t="n">
-        <v>0.02322980750284867</v>
+        <v>0.01977514722638392</v>
       </c>
       <c r="K153" t="n">
-        <v>0.06923701330914341</v>
+        <v>0.145449478515166</v>
       </c>
       <c r="L153" t="n">
-        <v>0.05270787039285349</v>
+        <v>0.04335918163118244</v>
       </c>
       <c r="M153" t="n">
-        <v>0.06829387190593512</v>
+        <v>0.1449364018070844</v>
       </c>
       <c r="N153" t="n">
-        <v>0.07620265685257316</v>
+        <v>0.06589307402963313</v>
       </c>
       <c r="O153" t="n">
-        <v>0.06795725633881609</v>
+        <v>0.1459898201690878</v>
       </c>
     </row>
     <row r="154" ht="15" customHeight="1">
       <c r="F154" t="n">
-        <v>0.04745591332636038</v>
+        <v>0.01866026305760483</v>
       </c>
       <c r="G154" t="n">
-        <v>0.06008480796614041</v>
+        <v>0.1462276743209326</v>
       </c>
       <c r="J154" t="n">
-        <v>0.02319099480764165</v>
+        <v>0.01982646465110176</v>
       </c>
       <c r="K154" t="n">
-        <v>0.07002379755129277</v>
+        <v>0.1471023134982929</v>
       </c>
       <c r="L154" t="n">
-        <v>0.0523014360794308</v>
+        <v>0.04347424945720826</v>
       </c>
       <c r="M154" t="n">
-        <v>0.06906993863213892</v>
+        <v>0.1465834063730739</v>
       </c>
       <c r="N154" t="n">
-        <v>0.0759782254918257</v>
+        <v>0.06655792146608758</v>
       </c>
       <c r="O154" t="n">
-        <v>0.06872949788812081</v>
+        <v>0.147648795398282</v>
       </c>
     </row>
     <row r="155" ht="15" customHeight="1">
       <c r="F155" t="n">
-        <v>0.04750835437825893</v>
+        <v>0.01971781854114348</v>
       </c>
       <c r="G155" t="n">
-        <v>0.06075991816800715</v>
+        <v>0.1478706818975723</v>
       </c>
       <c r="J155" t="n">
-        <v>0.02295913824877074</v>
+        <v>0.01988261743673275</v>
       </c>
       <c r="K155" t="n">
-        <v>0.07081058179344213</v>
+        <v>0.1487551484814198</v>
       </c>
       <c r="L155" t="n">
-        <v>0.05249762001937153</v>
+        <v>0.04339939289533623</v>
       </c>
       <c r="M155" t="n">
-        <v>0.06984600535834273</v>
+        <v>0.1482304109390636</v>
       </c>
       <c r="N155" t="n">
-        <v>0.07528050041625983</v>
+        <v>0.06693957783841847</v>
       </c>
       <c r="O155" t="n">
-        <v>0.06950173943742555</v>
+        <v>0.1493077706274762</v>
       </c>
     </row>
     <row r="156" ht="15" customHeight="1">
       <c r="F156" t="n">
-        <v>0.04755559150851259</v>
+        <v>0.01977941403641446</v>
       </c>
       <c r="G156" t="n">
-        <v>0.0614350283698739</v>
+        <v>0.149513689474212</v>
       </c>
       <c r="J156" t="n">
-        <v>0.02283488598525799</v>
+        <v>0.02014320318302804</v>
       </c>
       <c r="K156" t="n">
-        <v>0.07159736603559148</v>
+        <v>0.1504079834645467</v>
       </c>
       <c r="L156" t="n">
-        <v>0.05169713919768607</v>
+        <v>0.04373374852643544</v>
       </c>
       <c r="M156" t="n">
-        <v>0.07062207208454654</v>
+        <v>0.1498774155050532</v>
       </c>
       <c r="N156" t="n">
-        <v>0.07471206287671028</v>
+        <v>0.06673668528297311</v>
       </c>
       <c r="O156" t="n">
-        <v>0.07027398098673028</v>
+        <v>0.1509667458566704</v>
       </c>
     </row>
     <row r="157" ht="15" customHeight="1">
       <c r="F157" t="n">
-        <v>0.0475975502428336</v>
+        <v>0.0198446721639125</v>
       </c>
       <c r="G157" t="n">
-        <v>0.06211013857174065</v>
+        <v>0.1511566970508517</v>
       </c>
       <c r="J157" t="n">
-        <v>0.02271888617612541</v>
+        <v>0.02010781948973868</v>
       </c>
       <c r="K157" t="n">
-        <v>0.07238415027774084</v>
+        <v>0.1520608184476736</v>
       </c>
       <c r="L157" t="n">
-        <v>0.05150071059938477</v>
+        <v>0.04377645293137505</v>
       </c>
       <c r="M157" t="n">
-        <v>0.07139813881075034</v>
+        <v>0.1515244200710427</v>
       </c>
       <c r="N157" t="n">
-        <v>0.07407549412401182</v>
+        <v>0.06694788593609863</v>
       </c>
       <c r="O157" t="n">
-        <v>0.071046222536035</v>
+        <v>0.1526257210858645</v>
       </c>
     </row>
     <row r="158" ht="15" customHeight="1">
       <c r="F158" t="n">
-        <v>0.04763415610693423</v>
+        <v>0.01994679100871753</v>
       </c>
       <c r="G158" t="n">
-        <v>0.0627852487736074</v>
+        <v>0.1527997046274913</v>
       </c>
       <c r="J158" t="n">
-        <v>0.02260943479295936</v>
+        <v>0.02008110756932237</v>
       </c>
       <c r="K158" t="n">
-        <v>0.07317093451989019</v>
+        <v>0.1537136534308005</v>
       </c>
       <c r="L158" t="n">
-        <v>0.05150409405364983</v>
+        <v>0.04376871004703725</v>
       </c>
       <c r="M158" t="n">
-        <v>0.07217420553695415</v>
+        <v>0.1531714246370323</v>
       </c>
       <c r="N158" t="n">
-        <v>0.0741663802400237</v>
+        <v>0.06687182193414221</v>
       </c>
       <c r="O158" t="n">
-        <v>0.07181846408533973</v>
+        <v>0.1542846963150587</v>
       </c>
     </row>
     <row r="159" ht="15" customHeight="1">
       <c r="F159" t="n">
-        <v>0.04766533462652677</v>
+        <v>0.01810912213009739</v>
       </c>
       <c r="G159" t="n">
-        <v>0.06346035897547414</v>
+        <v>0.1544427122041311</v>
       </c>
       <c r="J159" t="n">
-        <v>0.02270260828133563</v>
+        <v>0.02031013796884899</v>
       </c>
       <c r="K159" t="n">
-        <v>0.07395771876203955</v>
+        <v>0.1553664884139274</v>
       </c>
       <c r="L159" t="n">
-        <v>0.05089914746457275</v>
+        <v>0.0437969987395769</v>
       </c>
       <c r="M159" t="n">
-        <v>0.07295027226315796</v>
+        <v>0.1548184292030219</v>
       </c>
       <c r="N159" t="n">
-        <v>0.07387323965922848</v>
+        <v>0.06741718186484019</v>
       </c>
       <c r="O159" t="n">
-        <v>0.07259070563464447</v>
+        <v>0.1559436715442529</v>
       </c>
     </row>
     <row r="160" ht="15" customHeight="1">
       <c r="F160" t="n">
-        <v>0.04769101132732346</v>
+        <v>0.01831997275649886</v>
       </c>
       <c r="G160" t="n">
-        <v>0.06413546917734088</v>
+        <v>0.1560857197807707</v>
       </c>
       <c r="J160" t="n">
-        <v>0.02249817081822654</v>
+        <v>0.02049685881852167</v>
       </c>
       <c r="K160" t="n">
-        <v>0.07474450300418892</v>
+        <v>0.1570193233970543</v>
       </c>
       <c r="L160" t="n">
-        <v>0.05078584302485659</v>
+        <v>0.04443982221761725</v>
       </c>
       <c r="M160" t="n">
-        <v>0.07372633898936176</v>
+        <v>0.1564654337690115</v>
       </c>
       <c r="N160" t="n">
-        <v>0.0732946997823502</v>
+        <v>0.06817240240512668</v>
       </c>
       <c r="O160" t="n">
-        <v>0.07336294718394919</v>
+        <v>0.1576026467734471</v>
       </c>
     </row>
     <row r="161" ht="15" customHeight="1">
       <c r="F161" t="n">
-        <v>0.04771111173503655</v>
+        <v>0.02056765011636869</v>
       </c>
       <c r="G161" t="n">
-        <v>0.06481057937920763</v>
+        <v>0.1577287273574104</v>
       </c>
       <c r="J161" t="n">
-        <v>0.02229595864517277</v>
+        <v>0.02072912262605382</v>
       </c>
       <c r="K161" t="n">
-        <v>0.07553128724633826</v>
+        <v>0.1586721583801811</v>
       </c>
       <c r="L161" t="n">
-        <v>0.05046429751896561</v>
+        <v>0.04497111594153388</v>
       </c>
       <c r="M161" t="n">
-        <v>0.07450240571556557</v>
+        <v>0.1581124383350011</v>
       </c>
       <c r="N161" t="n">
-        <v>0.07302957284926354</v>
+        <v>0.06909651320592686</v>
       </c>
       <c r="O161" t="n">
-        <v>0.07413518873325391</v>
+        <v>0.1592616220026413</v>
       </c>
     </row>
     <row r="162" ht="15" customHeight="1">
       <c r="F162" t="n">
-        <v>0.04772556137537836</v>
+        <v>0.01984046143815355</v>
       </c>
       <c r="G162" t="n">
-        <v>0.06548568958107437</v>
+        <v>0.1593717349340501</v>
       </c>
       <c r="J162" t="n">
-        <v>0.02219580800371507</v>
+        <v>0.02099478189915888</v>
       </c>
       <c r="K162" t="n">
-        <v>0.07631807148848763</v>
+        <v>0.160324993363308</v>
       </c>
       <c r="L162" t="n">
-        <v>0.0501346277313641</v>
+        <v>0.04596481537170238</v>
       </c>
       <c r="M162" t="n">
-        <v>0.0752784724417694</v>
+        <v>0.1597594429009907</v>
       </c>
       <c r="N162" t="n">
-        <v>0.07307667109984312</v>
+        <v>0.06944852364088194</v>
       </c>
       <c r="O162" t="n">
-        <v>0.07490743028255864</v>
+        <v>0.1609205972318354</v>
       </c>
     </row>
     <row r="163" ht="15" customHeight="1">
       <c r="F163" t="n">
-        <v>0.0477342857740611</v>
+        <v>0.02012671395030027</v>
       </c>
       <c r="G163" t="n">
-        <v>0.06616079978294112</v>
+        <v>0.1610147425106898</v>
       </c>
       <c r="J163" t="n">
-        <v>0.02229755513539416</v>
+        <v>0.02118168914555024</v>
       </c>
       <c r="K163" t="n">
-        <v>0.07710485573063697</v>
+        <v>0.1619778283464349</v>
       </c>
       <c r="L163" t="n">
-        <v>0.04999695044651642</v>
+        <v>0.04629485596849828</v>
       </c>
       <c r="M163" t="n">
-        <v>0.0760545391679732</v>
+        <v>0.1614064474669803</v>
       </c>
       <c r="N163" t="n">
-        <v>0.07233480677396364</v>
+        <v>0.07078744308363322</v>
       </c>
       <c r="O163" t="n">
-        <v>0.07567967183186336</v>
+        <v>0.1625795724610296</v>
       </c>
     </row>
     <row r="164" ht="15" customHeight="1">
       <c r="F164" t="n">
-        <v>0.04773721045679708</v>
+        <v>0.02041471488125553</v>
       </c>
       <c r="G164" t="n">
-        <v>0.06683590998480787</v>
+        <v>0.1626577500873295</v>
       </c>
       <c r="J164" t="n">
-        <v>0.02220103628175073</v>
+        <v>0.02157769687294138</v>
       </c>
       <c r="K164" t="n">
-        <v>0.07789163997278634</v>
+        <v>0.1636306633295618</v>
       </c>
       <c r="L164" t="n">
-        <v>0.04935138244888687</v>
+        <v>0.04683517319229713</v>
       </c>
       <c r="M164" t="n">
-        <v>0.07683060589417701</v>
+        <v>0.1630534520329699</v>
       </c>
       <c r="N164" t="n">
-        <v>0.07210279211149984</v>
+        <v>0.07127228090782184</v>
       </c>
       <c r="O164" t="n">
-        <v>0.07645191338116809</v>
+        <v>0.1642385476902238</v>
       </c>
     </row>
     <row r="165" ht="15" customHeight="1">
       <c r="F165" t="n">
-        <v>0.04773721045679708</v>
+        <v>0.02069277145946607</v>
       </c>
       <c r="G165" t="n">
-        <v>0.06683590998480787</v>
+        <v>0.1643007576639692</v>
       </c>
       <c r="J165" t="n">
-        <v>0.02210608768432555</v>
+        <v>0.02187065758904565</v>
       </c>
       <c r="K165" t="n">
-        <v>0.07867842421493569</v>
+        <v>0.1652834983126887</v>
       </c>
       <c r="L165" t="n">
-        <v>0.0488980405229397</v>
+        <v>0.04725970250347455</v>
       </c>
       <c r="M165" t="n">
-        <v>0.07760667262038082</v>
+        <v>0.1647004565989595</v>
       </c>
       <c r="N165" t="n">
-        <v>0.0720794393523263</v>
+        <v>0.07286204648708922</v>
       </c>
       <c r="O165" t="n">
-        <v>0.07722415493047281</v>
+        <v>0.165897522919418</v>
       </c>
     </row>
     <row r="166" ht="15" customHeight="1">
       <c r="F166" t="n">
-        <v>0.04690531611550897</v>
+        <v>0.01994919091337865</v>
       </c>
       <c r="G166" t="n">
-        <v>0.06683564145634385</v>
+        <v>0.1659437652406089</v>
       </c>
       <c r="J166" t="n">
-        <v>0.0218125455846593</v>
+        <v>0.02224842380157653</v>
       </c>
       <c r="K166" t="n">
-        <v>0.07946520845708505</v>
+        <v>0.1669363332958156</v>
       </c>
       <c r="L166" t="n">
-        <v>0.0486370414531393</v>
+        <v>0.047942379362406</v>
       </c>
       <c r="M166" t="n">
-        <v>0.07838273934658462</v>
+        <v>0.1663474611649491</v>
       </c>
       <c r="N166" t="n">
-        <v>0.07176356073631779</v>
+        <v>0.07301574919507636</v>
       </c>
       <c r="O166" t="n">
-        <v>0.07799639647977755</v>
+        <v>0.1675564981486122</v>
       </c>
     </row>
     <row r="167" ht="15" customHeight="1">
       <c r="F167" t="n">
-        <v>0.04608291741464538</v>
+        <v>0.02117233095148709</v>
       </c>
       <c r="G167" t="n">
-        <v>0.06683537292787985</v>
+        <v>0.1675867728172486</v>
       </c>
       <c r="J167" t="n">
-        <v>0.02192024622429271</v>
+        <v>0.02249884801824743</v>
       </c>
       <c r="K167" t="n">
-        <v>0.0802519926992344</v>
+        <v>0.1685891682789425</v>
       </c>
       <c r="L167" t="n">
-        <v>0.04826850202394992</v>
+        <v>0.04885713922946719</v>
       </c>
       <c r="M167" t="n">
-        <v>0.07915880607278843</v>
+        <v>0.1679944657309387</v>
       </c>
       <c r="N167" t="n">
-        <v>0.07065396850334882</v>
+        <v>0.07479239840542473</v>
       </c>
       <c r="O167" t="n">
-        <v>0.07876863802908228</v>
+        <v>0.1692154733778063</v>
       </c>
     </row>
     <row r="168" ht="15" customHeight="1">
       <c r="F168" t="n">
-        <v>0.04527050477009033</v>
+        <v>0.02037421053672716</v>
       </c>
       <c r="G168" t="n">
-        <v>0.06683510439941581</v>
+        <v>0.1692297803938883</v>
       </c>
       <c r="J168" t="n">
-        <v>0.02182902584476651</v>
+        <v>0.02261452388492149</v>
       </c>
       <c r="K168" t="n">
-        <v>0.08103877694138377</v>
+        <v>0.1702420032620694</v>
       </c>
       <c r="L168" t="n">
-        <v>0.0475925390198359</v>
+        <v>0.0490091655149088</v>
       </c>
       <c r="M168" t="n">
-        <v>0.07993487279899224</v>
+        <v>0.1696414702969283</v>
       </c>
       <c r="N168" t="n">
-        <v>0.07104947489329438</v>
+        <v>0.07465193566799039</v>
       </c>
       <c r="O168" t="n">
-        <v>0.079540879578387</v>
+        <v>0.1708744486070005</v>
       </c>
     </row>
     <row r="169" ht="15" customHeight="1">
       <c r="F169" t="n">
-        <v>0.0444685685978338</v>
+        <v>0.02257105308905239</v>
       </c>
       <c r="G169" t="n">
-        <v>0.06683483587095181</v>
+        <v>0.170872787970528</v>
       </c>
       <c r="J169" t="n">
-        <v>0.02163872068762143</v>
+        <v>0.02271950414819048</v>
       </c>
       <c r="K169" t="n">
-        <v>0.08182556118353312</v>
+        <v>0.1718948382451962</v>
       </c>
       <c r="L169" t="n">
-        <v>0.04770926922526153</v>
+        <v>0.04934834592390699</v>
       </c>
       <c r="M169" t="n">
-        <v>0.08071093952519603</v>
+        <v>0.1712884748629179</v>
       </c>
       <c r="N169" t="n">
-        <v>0.06994889214602884</v>
+        <v>0.07624480803093753</v>
       </c>
       <c r="O169" t="n">
-        <v>0.08031312112769173</v>
+        <v>0.1725334238361947</v>
       </c>
     </row>
     <row r="170" ht="15" customHeight="1">
       <c r="F170" t="n">
-        <v>0.04367759931375938</v>
+        <v>0.0217632295383692</v>
       </c>
       <c r="G170" t="n">
-        <v>0.06683456734248779</v>
+        <v>0.1725157955471677</v>
       </c>
       <c r="J170" t="n">
-        <v>0.02154916699439816</v>
+        <v>0.02311944800301048</v>
       </c>
       <c r="K170" t="n">
-        <v>0.08261234542568248</v>
+        <v>0.1735476732283231</v>
       </c>
       <c r="L170" t="n">
-        <v>0.04701880942469105</v>
+        <v>0.05017695966411637</v>
       </c>
       <c r="M170" t="n">
-        <v>0.08148700625139985</v>
+        <v>0.1729354794289074</v>
       </c>
       <c r="N170" t="n">
-        <v>0.06965103250142701</v>
+        <v>0.07672029116265727</v>
       </c>
       <c r="O170" t="n">
-        <v>0.08108536267699647</v>
+        <v>0.1741923990653889</v>
       </c>
     </row>
     <row r="171" ht="15" customHeight="1">
       <c r="F171" t="n">
-        <v>0.04289808733378631</v>
+        <v>0.02195111081458396</v>
       </c>
       <c r="G171" t="n">
-        <v>0.06683429881402377</v>
+        <v>0.1741588031238074</v>
       </c>
       <c r="J171" t="n">
-        <v>0.02136020100663745</v>
+        <v>0.02311474080439817</v>
       </c>
       <c r="K171" t="n">
-        <v>0.08339912966783183</v>
+        <v>0.17520050821145</v>
       </c>
       <c r="L171" t="n">
-        <v>0.04652127640258888</v>
+        <v>0.05049583358118248</v>
       </c>
       <c r="M171" t="n">
-        <v>0.08226307297760367</v>
+        <v>0.1745824839948971</v>
       </c>
       <c r="N171" t="n">
-        <v>0.06945470819936356</v>
+        <v>0.07707968540919047</v>
       </c>
       <c r="O171" t="n">
-        <v>0.08185760422630119</v>
+        <v>0.1758513742945831</v>
       </c>
     </row>
     <row r="172" ht="15" customHeight="1">
       <c r="F172" t="n">
-        <v>0.04213052307380061</v>
+        <v>0.02213506784760303</v>
       </c>
       <c r="G172" t="n">
-        <v>0.06683403028555975</v>
+        <v>0.175801810700447</v>
       </c>
       <c r="J172" t="n">
-        <v>0.02127165896588001</v>
+        <v>0.02330576790737021</v>
       </c>
       <c r="K172" t="n">
-        <v>0.08418591390998119</v>
+        <v>0.1768533431945769</v>
       </c>
       <c r="L172" t="n">
-        <v>0.04621678694341927</v>
+        <v>0.0511057945207509</v>
       </c>
       <c r="M172" t="n">
-        <v>0.08303913970380747</v>
+        <v>0.1762294885608867</v>
       </c>
       <c r="N172" t="n">
-        <v>0.06965873147971313</v>
+        <v>0.07802429111657855</v>
       </c>
       <c r="O172" t="n">
-        <v>0.08262984577560592</v>
+        <v>0.1775103495237772</v>
       </c>
     </row>
     <row r="173" ht="15" customHeight="1">
       <c r="F173" t="n">
-        <v>0.04137539694978837</v>
+        <v>0.02131547156733283</v>
       </c>
       <c r="G173" t="n">
-        <v>0.06683376175709572</v>
+        <v>0.1774448182770867</v>
       </c>
       <c r="J173" t="n">
-        <v>0.02118337711366658</v>
+        <v>0.02359291466694327</v>
       </c>
       <c r="K173" t="n">
-        <v>0.08497269815213056</v>
+        <v>0.1785061781777038</v>
       </c>
       <c r="L173" t="n">
-        <v>0.04580545783164652</v>
+        <v>0.051107669328467</v>
       </c>
       <c r="M173" t="n">
-        <v>0.08381520643001128</v>
+        <v>0.1778764931268762</v>
       </c>
       <c r="N173" t="n">
-        <v>0.06886191458235047</v>
+        <v>0.07855540863086208</v>
       </c>
       <c r="O173" t="n">
-        <v>0.08340208732491065</v>
+        <v>0.1791693247529714</v>
       </c>
     </row>
     <row r="174" ht="15" customHeight="1">
       <c r="F174" t="n">
-        <v>0.04063319937763511</v>
+        <v>0.02249269290367973</v>
       </c>
       <c r="G174" t="n">
-        <v>0.06683349322863172</v>
+        <v>0.1790878258537264</v>
       </c>
       <c r="J174" t="n">
-        <v>0.02119519169153787</v>
+        <v>0.02377656643813394</v>
       </c>
       <c r="K174" t="n">
-        <v>0.0857594823942799</v>
+        <v>0.1801590131608307</v>
       </c>
       <c r="L174" t="n">
-        <v>0.04558740585173501</v>
+        <v>0.05180228484997645</v>
       </c>
       <c r="M174" t="n">
-        <v>0.08459127315621509</v>
+        <v>0.1795234976928659</v>
       </c>
       <c r="N174" t="n">
-        <v>0.06926306974715024</v>
+        <v>0.07867433829808235</v>
       </c>
       <c r="O174" t="n">
-        <v>0.08417432887421537</v>
+        <v>0.1808282999821656</v>
       </c>
     </row>
     <row r="175" ht="15" customHeight="1">
       <c r="F175" t="n">
-        <v>0.03990442077326003</v>
+        <v>0.0216671027865501</v>
       </c>
       <c r="G175" t="n">
-        <v>0.0668332247001677</v>
+        <v>0.1807308334303661</v>
       </c>
       <c r="J175" t="n">
-        <v>0.0211069389410346</v>
+        <v>0.02405710857595893</v>
       </c>
       <c r="K175" t="n">
-        <v>0.08654626663642927</v>
+        <v>0.1818118481439575</v>
       </c>
       <c r="L175" t="n">
-        <v>0.04476274778814898</v>
+        <v>0.05199046793092463</v>
       </c>
       <c r="M175" t="n">
-        <v>0.08536733988241889</v>
+        <v>0.1811705022588554</v>
       </c>
       <c r="N175" t="n">
-        <v>0.06846100921398707</v>
+        <v>0.0800823804642804</v>
       </c>
       <c r="O175" t="n">
-        <v>0.08494657042352011</v>
+        <v>0.1824872752113598</v>
       </c>
     </row>
     <row r="176" ht="15" customHeight="1">
       <c r="F176" t="n">
-        <v>0.03918955155255153</v>
+        <v>0.02183907214585034</v>
       </c>
       <c r="G176" t="n">
-        <v>0.06683295617170368</v>
+        <v>0.1823738410070058</v>
       </c>
       <c r="J176" t="n">
-        <v>0.02111845510369746</v>
+        <v>0.02413492643543487</v>
       </c>
       <c r="K176" t="n">
-        <v>0.08733305087857862</v>
+        <v>0.1834646831270844</v>
       </c>
       <c r="L176" t="n">
-        <v>0.04473160042535271</v>
+        <v>0.05207304541695715</v>
       </c>
       <c r="M176" t="n">
-        <v>0.0861434066086227</v>
+        <v>0.182817506824845</v>
       </c>
       <c r="N176" t="n">
-        <v>0.0683545452227356</v>
+        <v>0.08008083547549705</v>
       </c>
       <c r="O176" t="n">
-        <v>0.08571881197282483</v>
+        <v>0.184146250440554</v>
       </c>
     </row>
     <row r="177" ht="15" customHeight="1">
       <c r="F177" t="n">
-        <v>0.03848908213149108</v>
+        <v>0.02400897191148681</v>
       </c>
       <c r="G177" t="n">
-        <v>0.06683268764323966</v>
+        <v>0.1840168485836455</v>
       </c>
       <c r="J177" t="n">
-        <v>0.02092957642106721</v>
+        <v>0.02421040537157843</v>
       </c>
       <c r="K177" t="n">
-        <v>0.08811983512072798</v>
+        <v>0.1851175181102113</v>
       </c>
       <c r="L177" t="n">
-        <v>0.04449408054781054</v>
+        <v>0.05295084415371945</v>
       </c>
       <c r="M177" t="n">
-        <v>0.08691947333482651</v>
+        <v>0.1844645113908346</v>
       </c>
       <c r="N177" t="n">
-        <v>0.06844249001327063</v>
+        <v>0.0807710036777734</v>
       </c>
       <c r="O177" t="n">
-        <v>0.08649105352212956</v>
+        <v>0.1858052256697481</v>
       </c>
     </row>
     <row r="178" ht="15" customHeight="1">
       <c r="F178" t="n">
-        <v>0.03780350292596647</v>
+        <v>0.02317717301336591</v>
       </c>
       <c r="G178" t="n">
-        <v>0.06683241911477565</v>
+        <v>0.1856598561602852</v>
       </c>
       <c r="J178" t="n">
-        <v>0.02084013913468458</v>
+        <v>0.02448393073940626</v>
       </c>
       <c r="K178" t="n">
-        <v>0.08890661936287733</v>
+        <v>0.1867703530933382</v>
       </c>
       <c r="L178" t="n">
-        <v>0.04385030493998679</v>
+        <v>0.05322469098685703</v>
       </c>
       <c r="M178" t="n">
-        <v>0.08769554006103031</v>
+        <v>0.1861115159568242</v>
       </c>
       <c r="N178" t="n">
-        <v>0.06752365582546677</v>
+        <v>0.08145418541715055</v>
       </c>
       <c r="O178" t="n">
-        <v>0.08726329507143429</v>
+        <v>0.1874642008989423</v>
       </c>
     </row>
     <row r="179" ht="15" customHeight="1">
       <c r="F179" t="n">
-        <v>0.03713330435189687</v>
+        <v>0.02434903080703279</v>
       </c>
       <c r="G179" t="n">
-        <v>0.06683215058631163</v>
+        <v>0.1873028637369249</v>
       </c>
       <c r="J179" t="n">
-        <v>0.02064997948609025</v>
+        <v>0.02475669466876283</v>
       </c>
       <c r="K179" t="n">
-        <v>0.08969340360502669</v>
+        <v>0.1884231880764651</v>
       </c>
       <c r="L179" t="n">
-        <v>0.04340039038634577</v>
+        <v>0.05340180195242383</v>
       </c>
       <c r="M179" t="n">
-        <v>0.08847160678723412</v>
+        <v>0.1877585205228138</v>
       </c>
       <c r="N179" t="n">
-        <v>0.0670968548991987</v>
+        <v>0.0815316810396694</v>
       </c>
       <c r="O179" t="n">
-        <v>0.08803553662073901</v>
+        <v>0.1891231761281365</v>
       </c>
     </row>
     <row r="180" ht="15" customHeight="1">
       <c r="F180" t="n">
-        <v>0.03647897682517339</v>
+        <v>0.02353061862199863</v>
       </c>
       <c r="G180" t="n">
-        <v>0.06683188205784761</v>
+        <v>0.1889458713135646</v>
       </c>
       <c r="J180" t="n">
-        <v>0.02055893371682499</v>
+        <v>0.02493873881803725</v>
       </c>
       <c r="K180" t="n">
-        <v>0.09048018784717604</v>
+        <v>0.190076023059592</v>
       </c>
       <c r="L180" t="n">
-        <v>0.04264445367135175</v>
+        <v>0.05360121595473366</v>
       </c>
       <c r="M180" t="n">
-        <v>0.08924767351343794</v>
+        <v>0.1894055250888034</v>
       </c>
       <c r="N180" t="n">
-        <v>0.0668608994743411</v>
+        <v>0.08262945003835248</v>
       </c>
       <c r="O180" t="n">
-        <v>0.08880777817004375</v>
+        <v>0.1907821513573307</v>
       </c>
     </row>
     <row r="181" ht="15" customHeight="1">
       <c r="F181" t="n">
-        <v>0.03584101076177221</v>
+        <v>0.02371582394664742</v>
       </c>
       <c r="G181" t="n">
-        <v>0.06683161352938359</v>
+        <v>0.1905888788902043</v>
       </c>
       <c r="J181" t="n">
-        <v>0.02046683806842949</v>
+        <v>0.02512782500682269</v>
       </c>
       <c r="K181" t="n">
-        <v>0.09126697208932541</v>
+        <v>0.1917288580427189</v>
       </c>
       <c r="L181" t="n">
-        <v>0.04248261157946909</v>
+        <v>0.05441156971428832</v>
       </c>
       <c r="M181" t="n">
-        <v>0.09002374023964174</v>
+        <v>0.191052529654793</v>
       </c>
       <c r="N181" t="n">
-        <v>0.06641460179076863</v>
+        <v>0.08335783861895518</v>
       </c>
       <c r="O181" t="n">
-        <v>0.08958001971934848</v>
+        <v>0.1924411265865248</v>
       </c>
     </row>
     <row r="182" ht="15" customHeight="1">
       <c r="F182" t="n">
-        <v>0.03521989657758371</v>
+        <v>0.02489827485940706</v>
       </c>
       <c r="G182" t="n">
-        <v>0.06683134500091958</v>
+        <v>0.192231886466844</v>
       </c>
       <c r="J182" t="n">
-        <v>0.02037352878244446</v>
+        <v>0.02521733351559459</v>
       </c>
       <c r="K182" t="n">
-        <v>0.09205375633147476</v>
+        <v>0.1933816930258458</v>
       </c>
       <c r="L182" t="n">
-        <v>0.04171498089516204</v>
+        <v>0.05481865948122902</v>
       </c>
       <c r="M182" t="n">
-        <v>0.09079980696584555</v>
+        <v>0.1926995342207826</v>
       </c>
       <c r="N182" t="n">
-        <v>0.06615677408835591</v>
+        <v>0.08409450917611655</v>
       </c>
       <c r="O182" t="n">
-        <v>0.0903522612686532</v>
+        <v>0.194100101815719</v>
       </c>
     </row>
     <row r="183" ht="15" customHeight="1">
       <c r="F183" t="n">
-        <v>0.0346161246885271</v>
+        <v>0.02507159943870547</v>
       </c>
       <c r="G183" t="n">
-        <v>0.06683107647245556</v>
+        <v>0.1938748940434837</v>
       </c>
       <c r="J183" t="n">
-        <v>0.02027884210041066</v>
+        <v>0.02550064462482836</v>
       </c>
       <c r="K183" t="n">
-        <v>0.09284054057362412</v>
+        <v>0.1950345280089726</v>
       </c>
       <c r="L183" t="n">
-        <v>0.04154167840289497</v>
+        <v>0.05480828150569689</v>
       </c>
       <c r="M183" t="n">
-        <v>0.09157587369204936</v>
+        <v>0.1943465387867722</v>
       </c>
       <c r="N183" t="n">
-        <v>0.06608622860697771</v>
+        <v>0.08401712405830902</v>
       </c>
       <c r="O183" t="n">
-        <v>0.09112450281795793</v>
+        <v>0.1957590770449132</v>
       </c>
     </row>
     <row r="184" ht="15" customHeight="1">
       <c r="F184" t="n">
-        <v>0.03403018551049648</v>
+        <v>0.0242294257629706</v>
       </c>
       <c r="G184" t="n">
-        <v>0.06683080794399154</v>
+        <v>0.1955179016201234</v>
       </c>
       <c r="J184" t="n">
-        <v>0.02028261426386878</v>
+        <v>0.02547113861499946</v>
       </c>
       <c r="K184" t="n">
-        <v>0.09362732481577347</v>
+        <v>0.1966873629920995</v>
       </c>
       <c r="L184" t="n">
-        <v>0.04106282088713215</v>
+        <v>0.05556623203783306</v>
       </c>
       <c r="M184" t="n">
-        <v>0.09235194041825316</v>
+        <v>0.1959935433527618</v>
       </c>
       <c r="N184" t="n">
-        <v>0.06600177758650877</v>
+        <v>0.08540334561400509</v>
       </c>
       <c r="O184" t="n">
-        <v>0.09189674436726265</v>
+        <v>0.1974180522741074</v>
       </c>
     </row>
     <row r="185" ht="15" customHeight="1">
       <c r="F185" t="n">
-        <v>0.03346256945946206</v>
+        <v>0.02336538191063035</v>
       </c>
       <c r="G185" t="n">
-        <v>0.06683053941552752</v>
+        <v>0.197160909196763</v>
       </c>
       <c r="J185" t="n">
-        <v>0.02028468151435955</v>
+        <v>0.02572219576658331</v>
       </c>
       <c r="K185" t="n">
-        <v>0.09441410905792283</v>
+        <v>0.1983401979752264</v>
       </c>
       <c r="L185" t="n">
-        <v>0.04077852513233782</v>
+        <v>0.05607830732777874</v>
       </c>
       <c r="M185" t="n">
-        <v>0.09312800714445697</v>
+        <v>0.1976405479187514</v>
       </c>
       <c r="N185" t="n">
-        <v>0.06470223326682367</v>
+        <v>0.08533083619167714</v>
       </c>
       <c r="O185" t="n">
-        <v>0.09266898591656739</v>
+        <v>0.1990770275033016</v>
       </c>
     </row>
     <row r="186" ht="15" customHeight="1">
       <c r="F186" t="n">
-        <v>0.03291376695131718</v>
+        <v>0.02347309596011269</v>
       </c>
       <c r="G186" t="n">
-        <v>0.0668302708870635</v>
+        <v>0.1988039167734027</v>
       </c>
       <c r="J186" t="n">
-        <v>0.01998488009342368</v>
+        <v>0.02574719636005535</v>
       </c>
       <c r="K186" t="n">
-        <v>0.0952008933000722</v>
+        <v>0.1999930329583533</v>
       </c>
       <c r="L186" t="n">
-        <v>0.0402889079229764</v>
+        <v>0.05593030362567508</v>
       </c>
       <c r="M186" t="n">
-        <v>0.09390407387066078</v>
+        <v>0.199287552484741</v>
       </c>
       <c r="N186" t="n">
-        <v>0.06448640788779708</v>
+        <v>0.08627725813979764</v>
       </c>
       <c r="O186" t="n">
-        <v>0.09344122746587212</v>
+        <v>0.2007360027324958</v>
       </c>
     </row>
     <row r="187" ht="15" customHeight="1">
       <c r="F187" t="n">
-        <v>0.03238426840198103</v>
+        <v>0.02354864614473844</v>
       </c>
       <c r="G187" t="n">
-        <v>0.0668300023585995</v>
+        <v>0.2004469243500424</v>
       </c>
       <c r="J187" t="n">
-        <v>0.01988304624260193</v>
+        <v>0.025839520675891</v>
       </c>
       <c r="K187" t="n">
-        <v>0.09598767754222154</v>
+        <v>0.2016458679414802</v>
       </c>
       <c r="L187" t="n">
-        <v>0.03959408604351214</v>
+        <v>0.05640924438034453</v>
       </c>
       <c r="M187" t="n">
-        <v>0.09468014059686458</v>
+        <v>0.2009345570507306</v>
       </c>
       <c r="N187" t="n">
-        <v>0.0647531136893037</v>
+        <v>0.086220273806839</v>
       </c>
       <c r="O187" t="n">
-        <v>0.09421346901517684</v>
+        <v>0.2023949779616899</v>
       </c>
     </row>
     <row r="188" ht="15" customHeight="1">
       <c r="F188" t="n">
-        <v>0.03187456422735107</v>
+        <v>0.02561537226039556</v>
       </c>
       <c r="G188" t="n">
-        <v>0.06682973383013546</v>
+        <v>0.2020899319266821</v>
       </c>
       <c r="J188" t="n">
-        <v>0.01987901620343499</v>
+        <v>0.02590889830705055</v>
       </c>
       <c r="K188" t="n">
-        <v>0.09677446178437091</v>
+        <v>0.2032987029246071</v>
       </c>
       <c r="L188" t="n">
-        <v>0.03909417627840936</v>
+        <v>0.05605786566589613</v>
       </c>
       <c r="M188" t="n">
-        <v>0.09545620732306839</v>
+        <v>0.2025815616167202</v>
       </c>
       <c r="N188" t="n">
-        <v>0.06430116291121823</v>
+        <v>0.086362824093771</v>
       </c>
       <c r="O188" t="n">
-        <v>0.09498571056448157</v>
+        <v>0.2040539531908841</v>
       </c>
     </row>
     <row r="189" ht="15" customHeight="1">
       <c r="F189" t="n">
-        <v>0.0313851448433909</v>
+        <v>0.02368062595479604</v>
       </c>
       <c r="G189" t="n">
-        <v>0.06682946530167146</v>
+        <v>0.2037329395033218</v>
       </c>
       <c r="J189" t="n">
-        <v>0.01977262621746359</v>
+        <v>0.02617657147704748</v>
       </c>
       <c r="K189" t="n">
-        <v>0.09756124602652026</v>
+        <v>0.204951537907734</v>
       </c>
       <c r="L189" t="n">
-        <v>0.03848929541213239</v>
+        <v>0.05630322236047161</v>
       </c>
       <c r="M189" t="n">
-        <v>0.09623227404927222</v>
+        <v>0.2042285661827098</v>
       </c>
       <c r="N189" t="n">
-        <v>0.0633293677934153</v>
+        <v>0.08639092028280793</v>
       </c>
       <c r="O189" t="n">
-        <v>0.09575795211378631</v>
+        <v>0.2057129284200783</v>
       </c>
     </row>
     <row r="190" ht="15" customHeight="1">
       <c r="F190" t="n">
-        <v>0.03091449813432718</v>
+        <v>0.02474438377840619</v>
       </c>
       <c r="G190" t="n">
-        <v>0.06682919677320744</v>
+        <v>0.2053759470799615</v>
       </c>
       <c r="J190" t="n">
-        <v>0.01956371252622843</v>
+        <v>0.02624271070688818</v>
       </c>
       <c r="K190" t="n">
-        <v>0.09834803026866962</v>
+        <v>0.2066043728908609</v>
       </c>
       <c r="L190" t="n">
-        <v>0.03767956022914551</v>
+        <v>0.05674526219234954</v>
       </c>
       <c r="M190" t="n">
-        <v>0.09700834077547602</v>
+        <v>0.2058755707486994</v>
       </c>
       <c r="N190" t="n">
-        <v>0.06313654057576967</v>
+        <v>0.08681388230568121</v>
       </c>
       <c r="O190" t="n">
-        <v>0.09653019366309103</v>
+        <v>0.2073719036492725</v>
       </c>
     </row>
     <row r="191" ht="15" customHeight="1">
       <c r="F191" t="n">
-        <v>0.03045109932605835</v>
+        <v>0.02580662228169247</v>
       </c>
       <c r="G191" t="n">
-        <v>0.06682892824474343</v>
+        <v>0.2070189546566012</v>
       </c>
       <c r="J191" t="n">
-        <v>0.01965211137127028</v>
+        <v>0.02630729163510903</v>
       </c>
       <c r="K191" t="n">
-        <v>0.09913481451081897</v>
+        <v>0.2082572078739877</v>
       </c>
       <c r="L191" t="n">
-        <v>0.037465087513913</v>
+        <v>0.05668393288980841</v>
       </c>
       <c r="M191" t="n">
-        <v>0.09778440750167983</v>
+        <v>0.207522575314689</v>
       </c>
       <c r="N191" t="n">
-        <v>0.06232149349815591</v>
+        <v>0.08743162795681042</v>
       </c>
       <c r="O191" t="n">
-        <v>0.09730243521239576</v>
+        <v>0.2090308788784666</v>
       </c>
     </row>
     <row r="192" ht="15" customHeight="1">
       <c r="F192" t="n">
-        <v>0.02999343630281357</v>
+        <v>0.0248673180151212</v>
       </c>
       <c r="G192" t="n">
-        <v>0.0668286597162794</v>
+        <v>0.2086619622332409</v>
       </c>
       <c r="J192" t="n">
-        <v>0.01933765899412981</v>
+        <v>0.02617028990024645</v>
       </c>
       <c r="K192" t="n">
-        <v>0.09992159875296833</v>
+        <v>0.2099100428571146</v>
       </c>
       <c r="L192" t="n">
-        <v>0.03684599405089917</v>
+        <v>0.05691918218112677</v>
       </c>
       <c r="M192" t="n">
-        <v>0.09856047422788364</v>
+        <v>0.2091695798806786</v>
       </c>
       <c r="N192" t="n">
-        <v>0.0614830388004487</v>
+        <v>0.08744407503061546</v>
       </c>
       <c r="O192" t="n">
-        <v>0.09807467676170049</v>
+        <v>0.2106898541076608</v>
       </c>
     </row>
     <row r="193" ht="15" customHeight="1">
       <c r="F193" t="n">
-        <v>0.02954199948055188</v>
+        <v>0.02592644752915881</v>
       </c>
       <c r="G193" t="n">
-        <v>0.06682839118781539</v>
+        <v>0.2103049698098806</v>
       </c>
       <c r="J193" t="n">
-        <v>0.01942046226547553</v>
+        <v>0.02633168114083681</v>
       </c>
       <c r="K193" t="n">
-        <v>0.1007083829951177</v>
+        <v>0.2115628778402415</v>
       </c>
       <c r="L193" t="n">
-        <v>0.03610459073354189</v>
+        <v>0.05685095779458307</v>
       </c>
       <c r="M193" t="n">
-        <v>0.09933654095408744</v>
+        <v>0.2108165844466681</v>
       </c>
       <c r="N193" t="n">
-        <v>0.06077938709309477</v>
+        <v>0.08785114132151595</v>
       </c>
       <c r="O193" t="n">
-        <v>0.09884691831100521</v>
+        <v>0.212348829336855</v>
       </c>
     </row>
     <row r="194" ht="15" customHeight="1">
       <c r="F194" t="n">
-        <v>0.02909727927517248</v>
+        <v>0.02498398737427165</v>
       </c>
       <c r="G194" t="n">
-        <v>0.06682812265935137</v>
+        <v>0.2119479773865203</v>
       </c>
       <c r="J194" t="n">
-        <v>0.01910084066863812</v>
+        <v>0.02649144099541649</v>
       </c>
       <c r="K194" t="n">
-        <v>0.1014951672372671</v>
+        <v>0.2132157128233684</v>
       </c>
       <c r="L194" t="n">
-        <v>0.03562114358065721</v>
+        <v>0.05697920745845583</v>
       </c>
       <c r="M194" t="n">
-        <v>0.1001126076802912</v>
+        <v>0.2124635890126577</v>
       </c>
       <c r="N194" t="n">
-        <v>0.06036282296394274</v>
+        <v>0.0874527446239316</v>
       </c>
       <c r="O194" t="n">
-        <v>0.09961915986030995</v>
+        <v>0.2140078045660492</v>
       </c>
     </row>
     <row r="195" ht="15" customHeight="1">
       <c r="F195" t="n">
-        <v>0.02865976610259455</v>
+        <v>0.02503991410092615</v>
       </c>
       <c r="G195" t="n">
-        <v>0.06682785413088736</v>
+        <v>0.21359098496316</v>
       </c>
       <c r="J195" t="n">
-        <v>0.01897886490512653</v>
+        <v>0.02654954510252187</v>
       </c>
       <c r="K195" t="n">
-        <v>0.1022819514794164</v>
+        <v>0.2148685478064953</v>
       </c>
       <c r="L195" t="n">
-        <v>0.03509842235036917</v>
+        <v>0.05750387890102363</v>
       </c>
       <c r="M195" t="n">
-        <v>0.1008886744064951</v>
+        <v>0.2141105935786473</v>
       </c>
       <c r="N195" t="n">
-        <v>0.0599399634628987</v>
+        <v>0.08834880273228218</v>
       </c>
       <c r="O195" t="n">
-        <v>0.1003914014096147</v>
+        <v>0.2156667797952434</v>
       </c>
     </row>
     <row r="196" ht="15" customHeight="1">
       <c r="F196" t="n">
-        <v>0.02822995037871875</v>
+        <v>0.02509420425958866</v>
       </c>
       <c r="G196" t="n">
-        <v>0.06682758560242333</v>
+        <v>0.2152339925397997</v>
       </c>
       <c r="J196" t="n">
-        <v>0.01905460483764997</v>
+        <v>0.02660596910068938</v>
       </c>
       <c r="K196" t="n">
-        <v>0.1030687357215658</v>
+        <v>0.2165213827896222</v>
       </c>
       <c r="L196" t="n">
-        <v>0.03473924621946423</v>
+        <v>0.05742491985056483</v>
       </c>
       <c r="M196" t="n">
-        <v>0.1016647411326989</v>
+        <v>0.2157575981446369</v>
       </c>
       <c r="N196" t="n">
-        <v>0.05851760859252908</v>
+        <v>0.08813923344098729</v>
       </c>
       <c r="O196" t="n">
-        <v>0.1011636429589194</v>
+        <v>0.2173257550244375</v>
       </c>
     </row>
     <row r="197" ht="15" customHeight="1">
       <c r="F197" t="n">
-        <v>0.02780832251950176</v>
+        <v>0.02414683440072556</v>
       </c>
       <c r="G197" t="n">
-        <v>0.06682731707395932</v>
+        <v>0.2168770001164393</v>
       </c>
       <c r="J197" t="n">
-        <v>0.0187281303289176</v>
+        <v>0.02666068862845539</v>
       </c>
       <c r="K197" t="n">
-        <v>0.1038555199637151</v>
+        <v>0.2181742177727491</v>
       </c>
       <c r="L197" t="n">
-        <v>0.03384643436472867</v>
+        <v>0.05784227803535807</v>
       </c>
       <c r="M197" t="n">
-        <v>0.1024408078589027</v>
+        <v>0.2174046027106265</v>
       </c>
       <c r="N197" t="n">
-        <v>0.05790255835540031</v>
+        <v>0.08852395454446665</v>
       </c>
       <c r="O197" t="n">
-        <v>0.1019358845082241</v>
+        <v>0.2189847302536317</v>
       </c>
     </row>
     <row r="198" ht="15" customHeight="1">
       <c r="F198" t="n">
-        <v>0.0273953729408439</v>
+        <v>0.02519778107480327</v>
       </c>
       <c r="G198" t="n">
-        <v>0.0668270485454953</v>
+        <v>0.218520007693079</v>
       </c>
       <c r="J198" t="n">
-        <v>0.01859951124163864</v>
+        <v>0.02671367932435628</v>
       </c>
       <c r="K198" t="n">
-        <v>0.1046423042058645</v>
+        <v>0.2198270527558759</v>
       </c>
       <c r="L198" t="n">
-        <v>0.03292280596294869</v>
+        <v>0.05765590118368183</v>
       </c>
       <c r="M198" t="n">
-        <v>0.1032168745851065</v>
+        <v>0.2190516072766161</v>
       </c>
       <c r="N198" t="n">
-        <v>0.05710161275407871</v>
+        <v>0.08910288383714016</v>
       </c>
       <c r="O198" t="n">
-        <v>0.1027081260575289</v>
+        <v>0.2206437054828259</v>
       </c>
     </row>
     <row r="199" ht="15" customHeight="1">
       <c r="F199" t="n">
-        <v>0.02699159205866435</v>
+        <v>0.02424702083228816</v>
       </c>
       <c r="G199" t="n">
-        <v>0.06682678001703128</v>
+        <v>0.2201630152697187</v>
       </c>
       <c r="J199" t="n">
-        <v>0.01866881743852229</v>
+        <v>0.02656491682692842</v>
       </c>
       <c r="K199" t="n">
-        <v>0.1054290884480138</v>
+        <v>0.2214798877390028</v>
       </c>
       <c r="L199" t="n">
-        <v>0.03227118019091074</v>
+        <v>0.05786573702381462</v>
       </c>
       <c r="M199" t="n">
-        <v>0.1039929413113103</v>
+        <v>0.2206986118426057</v>
       </c>
       <c r="N199" t="n">
-        <v>0.05522157179113063</v>
+        <v>0.08837593911342734</v>
       </c>
       <c r="O199" t="n">
-        <v>0.1034803676068336</v>
+        <v>0.2223026807120201</v>
       </c>
     </row>
     <row r="200" ht="15" customHeight="1">
       <c r="F200" t="n">
-        <v>0.02659747028886542</v>
+        <v>0.02629453022364659</v>
       </c>
       <c r="G200" t="n">
-        <v>0.06682651148856726</v>
+        <v>0.2218060228463584</v>
       </c>
       <c r="J200" t="n">
-        <v>0.01833611878227774</v>
+        <v>0.02681437677470824</v>
       </c>
       <c r="K200" t="n">
-        <v>0.1062158726901632</v>
+        <v>0.2231327227221297</v>
       </c>
       <c r="L200" t="n">
-        <v>0.03179437622540104</v>
+        <v>0.05797173328403496</v>
       </c>
       <c r="M200" t="n">
-        <v>0.1047690080375141</v>
+        <v>0.2223456164085953</v>
       </c>
       <c r="N200" t="n">
-        <v>0.05416923546912228</v>
+        <v>0.08924303816774809</v>
       </c>
       <c r="O200" t="n">
-        <v>0.1042526091561383</v>
+        <v>0.2239616559412143</v>
       </c>
     </row>
     <row r="201" ht="15" customHeight="1">
       <c r="F201" t="n">
-        <v>0.02621349804740061</v>
+        <v>0.02534028579934499</v>
       </c>
       <c r="G201" t="n">
-        <v>0.06682624296010324</v>
+        <v>0.2234490304229981</v>
       </c>
       <c r="J201" t="n">
-        <v>0.01820148513561419</v>
+        <v>0.02666203480623211</v>
       </c>
       <c r="K201" t="n">
-        <v>0.1070026569323125</v>
+        <v>0.2247855577052566</v>
       </c>
       <c r="L201" t="n">
-        <v>0.03079521324320603</v>
+        <v>0.05787383769262128</v>
       </c>
       <c r="M201" t="n">
-        <v>0.1055450747637179</v>
+        <v>0.2239926209745849</v>
       </c>
       <c r="N201" t="n">
-        <v>0.05305140379062012</v>
+        <v>0.08960409879452186</v>
       </c>
       <c r="O201" t="n">
-        <v>0.105024850705443</v>
+        <v>0.2256206311704085</v>
       </c>
     </row>
     <row r="202" ht="15" customHeight="1">
       <c r="F202" t="n">
-        <v>0.02584016575017179</v>
+        <v>0.02438426410984969</v>
       </c>
       <c r="G202" t="n">
-        <v>0.06682597443163923</v>
+        <v>0.2250920379996378</v>
       </c>
       <c r="J202" t="n">
-        <v>0.01826498636124084</v>
+        <v>0.02680786656003643</v>
       </c>
       <c r="K202" t="n">
-        <v>0.1077894411744619</v>
+        <v>0.2264383926883835</v>
       </c>
       <c r="L202" t="n">
-        <v>0.02987651042111189</v>
+        <v>0.05797199797785224</v>
       </c>
       <c r="M202" t="n">
-        <v>0.1063211414899217</v>
+        <v>0.2256396255405745</v>
       </c>
       <c r="N202" t="n">
-        <v>0.05187487675819058</v>
+        <v>0.08885903878816864</v>
       </c>
       <c r="O202" t="n">
-        <v>0.1057970922547478</v>
+        <v>0.2272796063996026</v>
       </c>
     </row>
     <row r="203" ht="15" customHeight="1">
       <c r="F203" t="n">
-        <v>0.02547796381309817</v>
+        <v>0.02642644170562713</v>
       </c>
       <c r="G203" t="n">
-        <v>0.06682570590317521</v>
+        <v>0.2267350455762775</v>
       </c>
       <c r="J203" t="n">
-        <v>0.01812669232186688</v>
+        <v>0.02695184767465757</v>
       </c>
       <c r="K203" t="n">
-        <v>0.1085762254166113</v>
+        <v>0.2280912276715104</v>
       </c>
       <c r="L203" t="n">
-        <v>0.02904108693590499</v>
+        <v>0.05846616186800621</v>
       </c>
       <c r="M203" t="n">
-        <v>0.1070972082161255</v>
+        <v>0.2272866301065641</v>
       </c>
       <c r="N203" t="n">
-        <v>0.04984645437439983</v>
+        <v>0.08930777594310796</v>
       </c>
       <c r="O203" t="n">
-        <v>0.1065693338040525</v>
+        <v>0.2289385816287968</v>
       </c>
     </row>
     <row r="204" ht="15" customHeight="1">
       <c r="F204" t="n">
-        <v>0.02512738265208395</v>
+        <v>0.02546679513714368</v>
       </c>
       <c r="G204" t="n">
-        <v>0.06682543737471119</v>
+        <v>0.2283780531529172</v>
       </c>
       <c r="J204" t="n">
-        <v>0.01778667288020148</v>
+        <v>0.02679395378863193</v>
       </c>
       <c r="K204" t="n">
-        <v>0.1093630096587606</v>
+        <v>0.2297440626546373</v>
       </c>
       <c r="L204" t="n">
-        <v>0.02829176196437166</v>
+        <v>0.0582562770913618</v>
       </c>
       <c r="M204" t="n">
-        <v>0.1078732749423293</v>
+        <v>0.2289336346725537</v>
       </c>
       <c r="N204" t="n">
-        <v>0.0488729366418143</v>
+        <v>0.08935022805375958</v>
       </c>
       <c r="O204" t="n">
-        <v>0.1073415753533572</v>
+        <v>0.230597556857991</v>
       </c>
     </row>
     <row r="205" ht="15" customHeight="1">
       <c r="F205" t="n">
-        <v>0.02478891268307886</v>
+        <v>0.0245053009548657</v>
       </c>
       <c r="G205" t="n">
-        <v>0.06682516884624717</v>
+        <v>0.2300210607295569</v>
       </c>
       <c r="J205" t="n">
-        <v>0.0177449978989539</v>
+        <v>0.02683416054049589</v>
       </c>
       <c r="K205" t="n">
-        <v>0.11014979390091</v>
+        <v>0.2313968976377642</v>
       </c>
       <c r="L205" t="n">
-        <v>0.02743135468329821</v>
+        <v>0.05844229137619741</v>
       </c>
       <c r="M205" t="n">
-        <v>0.1086493416685331</v>
+        <v>0.2305806392385433</v>
       </c>
       <c r="N205" t="n">
-        <v>0.04716112356300023</v>
+        <v>0.0892863129145432</v>
       </c>
       <c r="O205" t="n">
-        <v>0.108113816902662</v>
+        <v>0.2322565320871852</v>
       </c>
     </row>
     <row r="206" ht="15" customHeight="1">
       <c r="F206" t="n">
-        <v>0.02446304432198661</v>
+        <v>0.02554193570925959</v>
       </c>
       <c r="G206" t="n">
-        <v>0.06682490031778317</v>
+        <v>0.2316640683061966</v>
       </c>
       <c r="J206" t="n">
-        <v>0.01770173724083328</v>
+        <v>0.02707244356878587</v>
       </c>
       <c r="K206" t="n">
-        <v>0.1109365781430593</v>
+        <v>0.2330497326208911</v>
       </c>
       <c r="L206" t="n">
-        <v>0.02676268426947093</v>
+        <v>0.05872415245079168</v>
       </c>
       <c r="M206" t="n">
-        <v>0.109425408394737</v>
+        <v>0.2322276438045329</v>
       </c>
       <c r="N206" t="n">
-        <v>0.04581781514052419</v>
+        <v>0.08951594831987858</v>
       </c>
       <c r="O206" t="n">
-        <v>0.1088860584519667</v>
+        <v>0.2339155073163793</v>
       </c>
     </row>
     <row r="207" ht="15" customHeight="1">
       <c r="F207" t="n">
-        <v>0.02415026798472641</v>
+        <v>0.02557667595079174</v>
       </c>
       <c r="G207" t="n">
-        <v>0.06682463178931915</v>
+        <v>0.2333070758828363</v>
       </c>
       <c r="J207" t="n">
-        <v>0.01755696076854882</v>
+        <v>0.0271087785120382</v>
       </c>
       <c r="K207" t="n">
-        <v>0.1117233623852087</v>
+        <v>0.2347025676040179</v>
       </c>
       <c r="L207" t="n">
-        <v>0.02598856989967618</v>
+        <v>0.05880180804342303</v>
       </c>
       <c r="M207" t="n">
-        <v>0.1102014751209408</v>
+        <v>0.2338746483705225</v>
       </c>
       <c r="N207" t="n">
-        <v>0.04424981137695233</v>
+        <v>0.09023905206418548</v>
       </c>
       <c r="O207" t="n">
-        <v>0.1096583000012714</v>
+        <v>0.2355744825455735</v>
       </c>
     </row>
     <row r="208" ht="15" customHeight="1">
       <c r="F208" t="n">
-        <v>0.02385107408720474</v>
+        <v>0.02560949822992855</v>
       </c>
       <c r="G208" t="n">
-        <v>0.06682436326085513</v>
+        <v>0.234950083459476</v>
       </c>
       <c r="J208" t="n">
-        <v>0.01721073834480974</v>
+        <v>0.02694314100878929</v>
       </c>
       <c r="K208" t="n">
-        <v>0.112510146627358</v>
+        <v>0.2363554025871448</v>
       </c>
       <c r="L208" t="n">
-        <v>0.02451183075070024</v>
+        <v>0.05857520588237003</v>
       </c>
       <c r="M208" t="n">
-        <v>0.1109775418471446</v>
+        <v>0.2355216529365121</v>
       </c>
       <c r="N208" t="n">
-        <v>0.04286391227485103</v>
+        <v>0.08995554194188343</v>
       </c>
       <c r="O208" t="n">
-        <v>0.1104305415505761</v>
+        <v>0.2372334577747677</v>
       </c>
     </row>
     <row r="209" ht="15" customHeight="1">
       <c r="F209" t="n">
-        <v>0.02356595304536688</v>
+        <v>0.02664037909713637</v>
       </c>
       <c r="G209" t="n">
-        <v>0.06682409473239111</v>
+        <v>0.2365930910361156</v>
       </c>
       <c r="J209" t="n">
-        <v>0.01706313983232526</v>
+        <v>0.02707550669757558</v>
       </c>
       <c r="K209" t="n">
-        <v>0.1132969308695074</v>
+        <v>0.2380082375702717</v>
       </c>
       <c r="L209" t="n">
-        <v>0.02363528599932943</v>
+        <v>0.05864429369591112</v>
       </c>
       <c r="M209" t="n">
-        <v>0.1117536085733484</v>
+        <v>0.2371686575025017</v>
       </c>
       <c r="N209" t="n">
-        <v>0.04126691783678671</v>
+        <v>0.08976533574739232</v>
       </c>
       <c r="O209" t="n">
-        <v>0.1112027830998809</v>
+        <v>0.2388924330039619</v>
       </c>
     </row>
     <row r="210" ht="15" customHeight="1">
       <c r="F210" t="n">
-        <v>0.02329539527511872</v>
+        <v>0.02466929510288162</v>
       </c>
       <c r="G210" t="n">
-        <v>0.06682382620392709</v>
+        <v>0.2382360986127553</v>
       </c>
       <c r="J210" t="n">
-        <v>0.0171142350938045</v>
+        <v>0.02710585121693342</v>
       </c>
       <c r="K210" t="n">
-        <v>0.1140837151116568</v>
+        <v>0.2396610725533986</v>
       </c>
       <c r="L210" t="n">
-        <v>0.02286175482235009</v>
+        <v>0.05880901921232484</v>
       </c>
       <c r="M210" t="n">
-        <v>0.1125296752995522</v>
+        <v>0.2388156620684913</v>
       </c>
       <c r="N210" t="n">
-        <v>0.03886562806532556</v>
+        <v>0.09056835127513191</v>
       </c>
       <c r="O210" t="n">
-        <v>0.1119750246491856</v>
+        <v>0.240551408233156</v>
       </c>
     </row>
     <row r="211" ht="15" customHeight="1">
       <c r="F211" t="n">
-        <v>0.02303989119237947</v>
+        <v>0.02569622279763064</v>
       </c>
       <c r="G211" t="n">
-        <v>0.06682355767546308</v>
+        <v>0.239879106189395</v>
       </c>
       <c r="J211" t="n">
-        <v>0.01676409399195671</v>
+        <v>0.02723415020539917</v>
       </c>
       <c r="K211" t="n">
-        <v>0.1148704993538061</v>
+        <v>0.2413139075365255</v>
       </c>
       <c r="L211" t="n">
-        <v>0.02209405639654846</v>
+        <v>0.05856933015988974</v>
       </c>
       <c r="M211" t="n">
-        <v>0.113305742025756</v>
+        <v>0.2404626666344808</v>
       </c>
       <c r="N211" t="n">
-        <v>0.03786684296303416</v>
+        <v>0.09006450631952162</v>
       </c>
       <c r="O211" t="n">
-        <v>0.1127472661984903</v>
+        <v>0.2422103834623502</v>
       </c>
     </row>
     <row r="212" ht="15" customHeight="1">
       <c r="F212" t="n">
-        <v>0.02279993121305821</v>
+        <v>0.02572113873184987</v>
       </c>
       <c r="G212" t="n">
-        <v>0.06682328914699905</v>
+        <v>0.2415221137660347</v>
       </c>
       <c r="J212" t="n">
-        <v>0.01661278638949107</v>
+        <v>0.02716037930150927</v>
       </c>
       <c r="K212" t="n">
-        <v>0.1156572835959555</v>
+        <v>0.2429667425196524</v>
       </c>
       <c r="L212" t="n">
-        <v>0.02113500989871095</v>
+        <v>0.05872517426688426</v>
       </c>
       <c r="M212" t="n">
-        <v>0.1140818087519598</v>
+        <v>0.2421096712004704</v>
       </c>
       <c r="N212" t="n">
-        <v>0.03597736253247863</v>
+        <v>0.09085371867498143</v>
       </c>
       <c r="O212" t="n">
-        <v>0.113519507747795</v>
+        <v>0.2438693586915444</v>
       </c>
     </row>
     <row r="213" ht="15" customHeight="1">
       <c r="F213" t="n">
-        <v>0.02257600575309509</v>
+        <v>0.02574401945600566</v>
       </c>
       <c r="G213" t="n">
-        <v>0.06682302061853504</v>
+        <v>0.2431651213426744</v>
       </c>
       <c r="J213" t="n">
-        <v>0.01646038214911681</v>
+        <v>0.02728451414380008</v>
       </c>
       <c r="K213" t="n">
-        <v>0.1164440678381048</v>
+        <v>0.2446195775027793</v>
       </c>
       <c r="L213" t="n">
-        <v>0.02018743450562382</v>
+        <v>0.05857649926158698</v>
       </c>
       <c r="M213" t="n">
-        <v>0.1148578754781636</v>
+        <v>0.24375667576646</v>
       </c>
       <c r="N213" t="n">
-        <v>0.03450398677622546</v>
+        <v>0.090935906135931</v>
       </c>
       <c r="O213" t="n">
-        <v>0.1142917492970998</v>
+        <v>0.2455283339207386</v>
       </c>
     </row>
     <row r="214" ht="15" customHeight="1">
       <c r="F214" t="n">
-        <v>0.02236860522839853</v>
+        <v>0.02676484152056442</v>
       </c>
       <c r="G214" t="n">
-        <v>0.06682275209007102</v>
+        <v>0.2448081289193141</v>
       </c>
       <c r="J214" t="n">
-        <v>0.01630695113354308</v>
+        <v>0.02710653037080799</v>
       </c>
       <c r="K214" t="n">
-        <v>0.1172308520802542</v>
+        <v>0.2462724124859061</v>
       </c>
       <c r="L214" t="n">
-        <v>0.01945414939407342</v>
+        <v>0.05882325287227635</v>
       </c>
       <c r="M214" t="n">
-        <v>0.1156339422043674</v>
+        <v>0.2454036803324496</v>
       </c>
       <c r="N214" t="n">
-        <v>0.0330535156968409</v>
+        <v>0.09061098649679</v>
       </c>
       <c r="O214" t="n">
-        <v>0.1150639908464045</v>
+        <v>0.2471873091499328</v>
       </c>
     </row>
     <row r="215" ht="15" customHeight="1">
       <c r="F215" t="n">
-        <v>0.02236860522839852</v>
+        <v>0.0257835814759925</v>
       </c>
       <c r="G215" t="n">
-        <v>0.06682275209007102</v>
+        <v>0.2464511364959538</v>
       </c>
       <c r="J215" t="n">
-        <v>0.01635256320547909</v>
+        <v>0.0273264036210694</v>
       </c>
       <c r="K215" t="n">
-        <v>0.1180176363224035</v>
+        <v>0.247925247469033</v>
       </c>
       <c r="L215" t="n">
-        <v>0.01903797374084604</v>
+        <v>0.05896538282723093</v>
       </c>
       <c r="M215" t="n">
-        <v>0.1164100089305712</v>
+        <v>0.2470506848984393</v>
       </c>
       <c r="N215" t="n">
-        <v>0.03153274929689132</v>
+        <v>0.09027887755197816</v>
       </c>
       <c r="O215" t="n">
-        <v>0.1158362323957092</v>
+        <v>0.248846284379127</v>
       </c>
     </row>
     <row r="216" ht="15" customHeight="1">
       <c r="F216" t="n">
-        <v>0.02178585556534112</v>
+        <v>0.02480021587275633</v>
       </c>
       <c r="G216" t="n">
-        <v>0.0667364843567388</v>
+        <v>0.2480941440725935</v>
       </c>
       <c r="J216" t="n">
-        <v>0.01599728822763404</v>
+        <v>0.02714410953312069</v>
       </c>
       <c r="K216" t="n">
-        <v>0.1188044205645529</v>
+        <v>0.2495780824521599</v>
       </c>
       <c r="L216" t="n">
-        <v>0.01814172672272793</v>
+        <v>0.05920283685472924</v>
       </c>
       <c r="M216" t="n">
-        <v>0.117186075656775</v>
+        <v>0.2486976894644288</v>
       </c>
       <c r="N216" t="n">
-        <v>0.03014848757894317</v>
+        <v>0.09103949709591524</v>
       </c>
       <c r="O216" t="n">
-        <v>0.116608473945014</v>
+        <v>0.2505052596083212</v>
       </c>
     </row>
     <row r="217" ht="15" customHeight="1">
       <c r="F217" t="n">
-        <v>0.02120984770588754</v>
+        <v>0.02581472126132225</v>
       </c>
       <c r="G217" t="n">
-        <v>0.06665021662340656</v>
+        <v>0.2497371516492332</v>
       </c>
       <c r="J217" t="n">
-        <v>0.01604119606271716</v>
+        <v>0.02715962374549825</v>
       </c>
       <c r="K217" t="n">
-        <v>0.1195912048067023</v>
+        <v>0.2512309174352868</v>
       </c>
       <c r="L217" t="n">
-        <v>0.01726822751650556</v>
+        <v>0.05933556268304968</v>
       </c>
       <c r="M217" t="n">
-        <v>0.1179621423829788</v>
+        <v>0.2503446940304184</v>
       </c>
       <c r="N217" t="n">
-        <v>0.02820753054556258</v>
+        <v>0.09039276292302084</v>
       </c>
       <c r="O217" t="n">
-        <v>0.1173807154943187</v>
+        <v>0.2521642348375153</v>
       </c>
     </row>
     <row r="218" ht="15" customHeight="1">
       <c r="F218" t="n">
-        <v>0.02064095958492398</v>
+        <v>0.02582707419215669</v>
       </c>
       <c r="G218" t="n">
-        <v>0.06656394889007433</v>
+        <v>0.2513801592258729</v>
       </c>
       <c r="J218" t="n">
-        <v>0.01568435657343757</v>
+        <v>0.02717292189673849</v>
       </c>
       <c r="K218" t="n">
-        <v>0.1203779890488516</v>
+        <v>0.2528837524184137</v>
       </c>
       <c r="L218" t="n">
-        <v>0.01682029529896512</v>
+        <v>0.0589635080404709</v>
       </c>
       <c r="M218" t="n">
-        <v>0.1187382091091826</v>
+        <v>0.251991698596408</v>
       </c>
       <c r="N218" t="n">
-        <v>0.02721667819931611</v>
+        <v>0.09043859282771483</v>
       </c>
       <c r="O218" t="n">
-        <v>0.1181529570436234</v>
+        <v>0.2538232100667095</v>
       </c>
     </row>
     <row r="219" ht="15" customHeight="1">
       <c r="F219" t="n">
-        <v>0.02007956913733636</v>
+        <v>0.02583725121572599</v>
       </c>
       <c r="G219" t="n">
-        <v>0.0664776811567421</v>
+        <v>0.2530231668025126</v>
       </c>
       <c r="J219" t="n">
-        <v>0.01572683962250453</v>
+        <v>0.02728397962537776</v>
       </c>
       <c r="K219" t="n">
-        <v>0.121164773291001</v>
+        <v>0.2545365874015406</v>
       </c>
       <c r="L219" t="n">
-        <v>0.01580074924689298</v>
+        <v>0.05918662065527133</v>
       </c>
       <c r="M219" t="n">
-        <v>0.1195142758353864</v>
+        <v>0.2536387031623976</v>
       </c>
       <c r="N219" t="n">
-        <v>0.02568273054276993</v>
+        <v>0.09127690460441684</v>
       </c>
       <c r="O219" t="n">
-        <v>0.1189251985929282</v>
+        <v>0.2554821852959037</v>
       </c>
     </row>
     <row r="220" ht="15" customHeight="1">
       <c r="F220" t="n">
-        <v>0.01952605429801089</v>
+        <v>0.02584522888249655</v>
       </c>
       <c r="G220" t="n">
-        <v>0.06639141342340987</v>
+        <v>0.2546661743791522</v>
       </c>
       <c r="J220" t="n">
-        <v>0.01546871507262722</v>
+        <v>0.02739277256995248</v>
       </c>
       <c r="K220" t="n">
-        <v>0.1219515575331503</v>
+        <v>0.2561894223846675</v>
       </c>
       <c r="L220" t="n">
-        <v>0.01501240853707542</v>
+        <v>0.05930484825572951</v>
       </c>
       <c r="M220" t="n">
-        <v>0.1202903425615903</v>
+        <v>0.2552857077283872</v>
       </c>
       <c r="N220" t="n">
-        <v>0.02481248757849053</v>
+        <v>0.09070761604754651</v>
       </c>
       <c r="O220" t="n">
-        <v>0.1196974401422329</v>
+        <v>0.2571411605250978</v>
       </c>
     </row>
     <row r="221" ht="15" customHeight="1">
       <c r="F221" t="n">
-        <v>0.01898079300183354</v>
+        <v>0.0258509837429348</v>
       </c>
       <c r="G221" t="n">
-        <v>0.06630514569007766</v>
+        <v>0.2563091819557919</v>
       </c>
       <c r="J221" t="n">
-        <v>0.01521005278651481</v>
+        <v>0.02739927636899904</v>
       </c>
       <c r="K221" t="n">
-        <v>0.1227383417752997</v>
+        <v>0.2578422573677943</v>
       </c>
       <c r="L221" t="n">
-        <v>0.01435809234629878</v>
+        <v>0.05901813857012395</v>
       </c>
       <c r="M221" t="n">
-        <v>0.1210664092877941</v>
+        <v>0.2569327122943768</v>
       </c>
       <c r="N221" t="n">
-        <v>0.02321274930904421</v>
+        <v>0.09053064495152363</v>
       </c>
       <c r="O221" t="n">
-        <v>0.1204696816915376</v>
+        <v>0.258800135754292</v>
       </c>
     </row>
     <row r="222" ht="15" customHeight="1">
       <c r="F222" t="n">
-        <v>0.01844416318369029</v>
+        <v>0.02485449234750705</v>
       </c>
       <c r="G222" t="n">
-        <v>0.06621887795674541</v>
+        <v>0.2579521895324317</v>
       </c>
       <c r="J222" t="n">
-        <v>0.01515092262687655</v>
+        <v>0.02740346666105378</v>
       </c>
       <c r="K222" t="n">
-        <v>0.123525126017449</v>
+        <v>0.2594950923509212</v>
       </c>
       <c r="L222" t="n">
-        <v>0.01354061985134941</v>
+        <v>0.05882643932673315</v>
       </c>
       <c r="M222" t="n">
-        <v>0.1218424760139979</v>
+        <v>0.2585797168603664</v>
       </c>
       <c r="N222" t="n">
-        <v>0.02169031573699726</v>
+        <v>0.090945909110768</v>
       </c>
       <c r="O222" t="n">
-        <v>0.1212419232408423</v>
+        <v>0.2604591109834862</v>
       </c>
     </row>
     <row r="223" ht="15" customHeight="1">
       <c r="F223" t="n">
-        <v>0.01791654277846735</v>
+        <v>0.02485573124667973</v>
       </c>
       <c r="G223" t="n">
-        <v>0.06613261022341319</v>
+        <v>0.2595951971090714</v>
       </c>
       <c r="J223" t="n">
-        <v>0.01499139445642157</v>
+        <v>0.02740531908465316</v>
       </c>
       <c r="K223" t="n">
-        <v>0.1243119102595984</v>
+        <v>0.2611479273340481</v>
       </c>
       <c r="L223" t="n">
-        <v>0.01306281022901357</v>
+        <v>0.05892969825383562</v>
       </c>
       <c r="M223" t="n">
-        <v>0.1226185427402017</v>
+        <v>0.260226721426356</v>
       </c>
       <c r="N223" t="n">
-        <v>0.02075198686491608</v>
+        <v>0.09125332631969918</v>
       </c>
       <c r="O223" t="n">
-        <v>0.1220141647901471</v>
+        <v>0.2621180862126804</v>
       </c>
     </row>
     <row r="224" ht="15" customHeight="1">
       <c r="F224" t="n">
-        <v>0.01739830972105063</v>
+        <v>0.0268234878688663</v>
       </c>
       <c r="G224" t="n">
-        <v>0.06604634249008096</v>
+        <v>0.261238204685711</v>
       </c>
       <c r="J224" t="n">
-        <v>0.01493153813785913</v>
+        <v>0.02728673930939787</v>
       </c>
       <c r="K224" t="n">
-        <v>0.1250986945017478</v>
+        <v>0.262800762317175</v>
       </c>
       <c r="L224" t="n">
-        <v>0.01262748265607758</v>
+        <v>0.0592719574527179</v>
       </c>
       <c r="M224" t="n">
-        <v>0.1233946094664055</v>
+        <v>0.2618737259923456</v>
       </c>
       <c r="N224" t="n">
-        <v>0.02040456269536706</v>
+        <v>0.09061478536462503</v>
       </c>
       <c r="O224" t="n">
-        <v>0.1227864063394518</v>
+        <v>0.2637770614418746</v>
       </c>
     </row>
     <row r="225" ht="15" customHeight="1">
       <c r="F225" t="n">
-        <v>0.01688984194632633</v>
+        <v>0.02472571260677128</v>
       </c>
       <c r="G225" t="n">
-        <v>0.06596007475674873</v>
+        <v>0.2628812122623507</v>
       </c>
       <c r="J225" t="n">
-        <v>0.0147714235338984</v>
+        <v>0.02730160189348946</v>
       </c>
       <c r="K225" t="n">
-        <v>0.1258854787438971</v>
+        <v>0.2644535973003019</v>
       </c>
       <c r="L225" t="n">
-        <v>0.0124374563093278</v>
+        <v>0.05876834290108104</v>
       </c>
       <c r="M225" t="n">
-        <v>0.1241706761926093</v>
+        <v>0.2635207305583352</v>
       </c>
       <c r="N225" t="n">
-        <v>0.01895484323091623</v>
+        <v>0.09046221715237018</v>
       </c>
       <c r="O225" t="n">
-        <v>0.1235586478887565</v>
+        <v>0.2654360366710687</v>
       </c>
     </row>
     <row r="226" ht="15" customHeight="1">
       <c r="F226" t="n">
-        <v>0.01639151738918044</v>
+        <v>0.0245696537323843</v>
       </c>
       <c r="G226" t="n">
-        <v>0.0658738070234165</v>
+        <v>0.2645242198389904</v>
       </c>
       <c r="J226" t="n">
-        <v>0.01451112050724856</v>
+        <v>0.0269545132278716</v>
       </c>
       <c r="K226" t="n">
-        <v>0.1266722629860465</v>
+        <v>0.2661064322834288</v>
       </c>
       <c r="L226" t="n">
-        <v>0.01189555036555046</v>
+        <v>0.05873358044160154</v>
       </c>
       <c r="M226" t="n">
-        <v>0.1249467429188131</v>
+        <v>0.2651677351243247</v>
       </c>
       <c r="N226" t="n">
-        <v>0.01810962847413039</v>
+        <v>0.08989767451590996</v>
       </c>
       <c r="O226" t="n">
-        <v>0.1243308894380612</v>
+        <v>0.2670950119002629</v>
       </c>
     </row>
     <row r="227" ht="15" customHeight="1">
       <c r="F227" t="n">
-        <v>0.01590371398449894</v>
+        <v>0.02536262148263264</v>
       </c>
       <c r="G227" t="n">
-        <v>0.06578753929008427</v>
+        <v>0.2661672274156301</v>
       </c>
       <c r="J227" t="n">
-        <v>0.01445069892061883</v>
+        <v>0.02675306783761326</v>
       </c>
       <c r="K227" t="n">
-        <v>0.1274590472281958</v>
+        <v>0.2677592672665557</v>
       </c>
       <c r="L227" t="n">
-        <v>0.01150458400153195</v>
+        <v>0.05798396543754608</v>
       </c>
       <c r="M227" t="n">
-        <v>0.1257228096450169</v>
+        <v>0.2668147396903144</v>
       </c>
       <c r="N227" t="n">
-        <v>0.01837571842757568</v>
+        <v>0.08994678450090393</v>
       </c>
       <c r="O227" t="n">
-        <v>0.125103130987366</v>
+        <v>0.2687539871294571</v>
       </c>
     </row>
     <row r="228" ht="15" customHeight="1">
       <c r="F228" t="n">
-        <v>0.01542680966716802</v>
+        <v>0.02411192609444355</v>
       </c>
       <c r="G228" t="n">
-        <v>0.06570127155675204</v>
+        <v>0.2678102349922698</v>
       </c>
       <c r="J228" t="n">
-        <v>0.0141902286367184</v>
+        <v>0.02670486024778346</v>
       </c>
       <c r="K228" t="n">
-        <v>0.1282458314703452</v>
+        <v>0.2694121022496826</v>
       </c>
       <c r="L228" t="n">
-        <v>0.01096737639405859</v>
+        <v>0.05783579325218136</v>
       </c>
       <c r="M228" t="n">
-        <v>0.1264988763712207</v>
+        <v>0.268461744256304</v>
       </c>
       <c r="N228" t="n">
-        <v>0.01725991309381841</v>
+        <v>0.08923517415301119</v>
       </c>
       <c r="O228" t="n">
-        <v>0.1258753725366707</v>
+        <v>0.2704129623586513</v>
       </c>
     </row>
     <row r="229" ht="15" customHeight="1">
       <c r="F229" t="n">
-        <v>0.01496118237207369</v>
+        <v>0.0258248778047443</v>
       </c>
       <c r="G229" t="n">
-        <v>0.06561500382341982</v>
+        <v>0.2694532425689095</v>
       </c>
       <c r="J229" t="n">
-        <v>0.01402977951825644</v>
+        <v>0.02621748498345108</v>
       </c>
       <c r="K229" t="n">
-        <v>0.1290326157124946</v>
+        <v>0.2710649372328094</v>
       </c>
       <c r="L229" t="n">
-        <v>0.01058674671991661</v>
+        <v>0.05690535924877402</v>
       </c>
       <c r="M229" t="n">
-        <v>0.1272749430974245</v>
+        <v>0.2701087488222936</v>
       </c>
       <c r="N229" t="n">
-        <v>0.01716901247542485</v>
+        <v>0.08818847051789125</v>
       </c>
       <c r="O229" t="n">
-        <v>0.1266476140859754</v>
+        <v>0.2720719375878455</v>
       </c>
     </row>
     <row r="230" ht="15" customHeight="1">
       <c r="F230" t="n">
-        <v>0.01450721003410191</v>
+        <v>0.02350878685046213</v>
       </c>
       <c r="G230" t="n">
-        <v>0.06552873609008758</v>
+        <v>0.2710962501455492</v>
       </c>
       <c r="J230" t="n">
-        <v>0.01386941542948271</v>
+        <v>0.02599853656968514</v>
       </c>
       <c r="K230" t="n">
-        <v>0.1298193999546439</v>
+        <v>0.2727177722159363</v>
       </c>
       <c r="L230" t="n">
-        <v>0.01036519998544905</v>
+        <v>0.05650895879059073</v>
       </c>
       <c r="M230" t="n">
-        <v>0.1280510098236284</v>
+        <v>0.2717557533882832</v>
       </c>
       <c r="N230" t="n">
-        <v>0.01640905074145455</v>
+        <v>0.08633230064120329</v>
       </c>
       <c r="O230" t="n">
-        <v>0.1274198556352802</v>
+        <v>0.2737309128170397</v>
       </c>
     </row>
     <row r="231" ht="15" customHeight="1">
       <c r="F231" t="n">
-        <v>0.01406527058813888</v>
+        <v>0.02317096346852433</v>
       </c>
       <c r="G231" t="n">
-        <v>0.06544246835675535</v>
+        <v>0.2727392577221889</v>
       </c>
       <c r="J231" t="n">
-        <v>0.0136084835034683</v>
+        <v>0.0255556095315546</v>
       </c>
       <c r="K231" t="n">
-        <v>0.1306061841967932</v>
+        <v>0.2743706071990633</v>
       </c>
       <c r="L231" t="n">
-        <v>0.01046984621444177</v>
+        <v>0.05576288724089817</v>
       </c>
       <c r="M231" t="n">
-        <v>0.1288270765498321</v>
+        <v>0.2734027579542728</v>
       </c>
       <c r="N231" t="n">
-        <v>0.0161056666725426</v>
+        <v>0.0854922915686066</v>
       </c>
       <c r="O231" t="n">
-        <v>0.1281920971845849</v>
+        <v>0.2753898880462338</v>
       </c>
     </row>
     <row r="232" ht="15" customHeight="1">
       <c r="F232" t="n">
-        <v>0.01363574196907055</v>
+        <v>0.02481871789585815</v>
       </c>
       <c r="G232" t="n">
-        <v>0.06535620062342312</v>
+        <v>0.2743822652988285</v>
       </c>
       <c r="J232" t="n">
-        <v>0.01364651344742107</v>
+        <v>0.02519629839412843</v>
       </c>
       <c r="K232" t="n">
-        <v>0.1313929684389426</v>
+        <v>0.2760234421821901</v>
       </c>
       <c r="L232" t="n">
-        <v>0.01007732335918635</v>
+        <v>0.05438343996296305</v>
       </c>
       <c r="M232" t="n">
-        <v>0.1296031432760359</v>
+        <v>0.2750497625202623</v>
       </c>
       <c r="N232" t="n">
-        <v>0.01600642582761774</v>
+        <v>0.0845940703457605</v>
       </c>
       <c r="O232" t="n">
-        <v>0.1289643387338896</v>
+        <v>0.277048863275428</v>
       </c>
     </row>
     <row r="233" ht="15" customHeight="1">
       <c r="F233" t="n">
-        <v>0.01321900211178306</v>
+        <v>0.02445936036939083</v>
       </c>
       <c r="G233" t="n">
-        <v>0.06526993289009089</v>
+        <v>0.2760252728754682</v>
       </c>
       <c r="J233" t="n">
-        <v>0.01328351501041558</v>
+        <v>0.02502819768247559</v>
       </c>
       <c r="K233" t="n">
-        <v>0.132179752681092</v>
+        <v>0.277676277165317</v>
       </c>
       <c r="L233" t="n">
-        <v>0.009787816082438505</v>
+        <v>0.05358691232005194</v>
       </c>
       <c r="M233" t="n">
-        <v>0.1303792100022398</v>
+        <v>0.276696767086252</v>
       </c>
       <c r="N233" t="n">
-        <v>0.01601144685836159</v>
+        <v>0.0828632640183245</v>
       </c>
       <c r="O233" t="n">
-        <v>0.1297365802831943</v>
+        <v>0.2787078385046222</v>
       </c>
     </row>
     <row r="234" ht="15" customHeight="1">
       <c r="F234" t="n">
-        <v>0.01281542895116242</v>
+        <v>0.02310020112604965</v>
       </c>
       <c r="G234" t="n">
-        <v>0.06518366515675866</v>
+        <v>0.277668280452108</v>
       </c>
       <c r="J234" t="n">
-        <v>0.01321949794152644</v>
+        <v>0.02455890192166506</v>
       </c>
       <c r="K234" t="n">
-        <v>0.1329665369232413</v>
+        <v>0.2793291121484439</v>
       </c>
       <c r="L234" t="n">
-        <v>0.01000150904695379</v>
+        <v>0.05288959967543161</v>
       </c>
       <c r="M234" t="n">
-        <v>0.1311552767284436</v>
+        <v>0.2783437716522416</v>
       </c>
       <c r="N234" t="n">
-        <v>0.01572084841645566</v>
+        <v>0.08222549963195769</v>
       </c>
       <c r="O234" t="n">
-        <v>0.1305088218324991</v>
+        <v>0.2803668137338164</v>
       </c>
     </row>
     <row r="235" ht="15" customHeight="1">
       <c r="F235" t="n">
-        <v>0.01242540042209465</v>
+        <v>0.02174855040276188</v>
       </c>
       <c r="G235" t="n">
-        <v>0.06509739742342643</v>
+        <v>0.2793112880287477</v>
       </c>
       <c r="J235" t="n">
-        <v>0.01315447198982825</v>
+        <v>0.0241960056367658</v>
       </c>
       <c r="K235" t="n">
-        <v>0.1337533211653907</v>
+        <v>0.2809819471315708</v>
       </c>
       <c r="L235" t="n">
-        <v>0.009718586915487853</v>
+        <v>0.05200779739236877</v>
       </c>
       <c r="M235" t="n">
-        <v>0.1319313434546474</v>
+        <v>0.2799907762182312</v>
       </c>
       <c r="N235" t="n">
-        <v>0.01593474915358145</v>
+        <v>0.08080640423231938</v>
       </c>
       <c r="O235" t="n">
-        <v>0.1312810633818038</v>
+        <v>0.2820257889630106</v>
       </c>
     </row>
     <row r="236" ht="15" customHeight="1">
       <c r="F236" t="n">
-        <v>0.01204929445946588</v>
+        <v>0.02341171843645477</v>
       </c>
       <c r="G236" t="n">
-        <v>0.0650111296900942</v>
+        <v>0.2809542956053873</v>
       </c>
       <c r="J236" t="n">
-        <v>0.01298844690439557</v>
+        <v>0.02374710335284676</v>
       </c>
       <c r="K236" t="n">
-        <v>0.13454010540754</v>
+        <v>0.2826347821146977</v>
       </c>
       <c r="L236" t="n">
-        <v>0.009439234350796383</v>
+        <v>0.05135780083412997</v>
       </c>
       <c r="M236" t="n">
-        <v>0.1327074101808512</v>
+        <v>0.2816377807842207</v>
       </c>
       <c r="N236" t="n">
-        <v>0.01535326772142087</v>
+        <v>0.07943160486506901</v>
       </c>
       <c r="O236" t="n">
-        <v>0.1320533049311085</v>
+        <v>0.2836847641922047</v>
       </c>
     </row>
     <row r="237" ht="15" customHeight="1">
       <c r="F237" t="n">
-        <v>0.0116874889981621</v>
+        <v>0.02209701546405556</v>
       </c>
       <c r="G237" t="n">
-        <v>0.06492486195676198</v>
+        <v>0.282597303182027</v>
       </c>
       <c r="J237" t="n">
-        <v>0.01272143243430301</v>
+        <v>0.02361978959497694</v>
       </c>
       <c r="K237" t="n">
-        <v>0.1353268896496894</v>
+        <v>0.2842876170978245</v>
       </c>
       <c r="L237" t="n">
-        <v>0.009463636015634991</v>
+        <v>0.05055590536398197</v>
       </c>
       <c r="M237" t="n">
-        <v>0.133483476907055</v>
+        <v>0.2832847853502103</v>
       </c>
       <c r="N237" t="n">
-        <v>0.0157765227716552</v>
+        <v>0.0784267285758658</v>
       </c>
       <c r="O237" t="n">
-        <v>0.1328255464804133</v>
+        <v>0.2853437394213989</v>
       </c>
     </row>
     <row r="238" ht="15" customHeight="1">
       <c r="F238" t="n">
-        <v>0.01134036197306945</v>
+        <v>0.02280891566118717</v>
       </c>
       <c r="G238" t="n">
-        <v>0.06483859422342975</v>
+        <v>0.2842403107586667</v>
       </c>
       <c r="J238" t="n">
-        <v>0.01255343832862518</v>
+        <v>0.02332059716712398</v>
       </c>
       <c r="K238" t="n">
-        <v>0.1361136738918388</v>
+        <v>0.2859404520809514</v>
       </c>
       <c r="L238" t="n">
-        <v>0.008991976572759297</v>
+        <v>0.05041398720241067</v>
       </c>
       <c r="M238" t="n">
-        <v>0.1342595436332588</v>
+        <v>0.2849317899161999</v>
       </c>
       <c r="N238" t="n">
-        <v>0.01550463295596616</v>
+        <v>0.07771614086816792</v>
       </c>
       <c r="O238" t="n">
-        <v>0.133597788029718</v>
+        <v>0.2870027146505931</v>
       </c>
     </row>
     <row r="239" ht="15" customHeight="1">
       <c r="F239" t="n">
-        <v>0.01100829131907393</v>
+        <v>0.02252581668716975</v>
       </c>
       <c r="G239" t="n">
-        <v>0.06475232649009752</v>
+        <v>0.2858833183353064</v>
       </c>
       <c r="J239" t="n">
-        <v>0.01248447433643665</v>
+        <v>0.02293014338622854</v>
       </c>
       <c r="K239" t="n">
-        <v>0.1369004581339881</v>
+        <v>0.2875932870640783</v>
       </c>
       <c r="L239" t="n">
-        <v>0.008824440684924939</v>
+        <v>0.0492861335179057</v>
       </c>
       <c r="M239" t="n">
-        <v>0.1350356103594626</v>
+        <v>0.2865787944821895</v>
       </c>
       <c r="N239" t="n">
-        <v>0.01463771692603533</v>
+        <v>0.076343622460877</v>
       </c>
       <c r="O239" t="n">
-        <v>0.1343700295790227</v>
+        <v>0.2886616898797872</v>
       </c>
     </row>
     <row r="240" ht="15" customHeight="1">
       <c r="F240" t="n">
-        <v>0.01069011173694349</v>
+        <v>0.02124163710671733</v>
       </c>
       <c r="G240" t="n">
-        <v>0.06466605875676529</v>
+        <v>0.2875263259119461</v>
       </c>
       <c r="J240" t="n">
-        <v>0.01211455020681203</v>
+        <v>0.02253857632443824</v>
       </c>
       <c r="K240" t="n">
-        <v>0.1376872423761375</v>
+        <v>0.2892461220472052</v>
       </c>
       <c r="L240" t="n">
-        <v>0.008561213014887603</v>
+        <v>0.04915587922459638</v>
       </c>
       <c r="M240" t="n">
-        <v>0.1358116770856664</v>
+        <v>0.2882257990481791</v>
       </c>
       <c r="N240" t="n">
-        <v>0.01447589333354427</v>
+        <v>0.07506736690872046</v>
       </c>
       <c r="O240" t="n">
-        <v>0.1351422711283274</v>
+        <v>0.2903206651089814</v>
       </c>
     </row>
     <row r="241" ht="15" customHeight="1">
       <c r="F241" t="n">
-        <v>0.0103769417568559</v>
+        <v>0.02195635960160753</v>
       </c>
       <c r="G241" t="n">
-        <v>0.06457979102343306</v>
+        <v>0.2891693334885858</v>
       </c>
       <c r="J241" t="n">
-        <v>0.01204367568882592</v>
+        <v>0.02224587799004159</v>
       </c>
       <c r="K241" t="n">
-        <v>0.1384740266182868</v>
+        <v>0.2908989570303321</v>
       </c>
       <c r="L241" t="n">
-        <v>0.00840247822540291</v>
+        <v>0.0484231857181629</v>
       </c>
       <c r="M241" t="n">
-        <v>0.1365877438118702</v>
+        <v>0.2898728036141687</v>
       </c>
       <c r="N241" t="n">
-        <v>0.01501928083017462</v>
+        <v>0.07448731350027687</v>
       </c>
       <c r="O241" t="n">
-        <v>0.1359145126776322</v>
+        <v>0.2919796403381756</v>
       </c>
     </row>
     <row r="242" ht="15" customHeight="1">
       <c r="F242" t="n">
-        <v>0.01006761607957912</v>
+        <v>0.02066996685361799</v>
       </c>
       <c r="G242" t="n">
-        <v>0.06449352329010083</v>
+        <v>0.2908123410652255</v>
       </c>
       <c r="J242" t="n">
-        <v>0.01177186053155289</v>
+        <v>0.02215203039132702</v>
       </c>
       <c r="K242" t="n">
-        <v>0.1392608108604362</v>
+        <v>0.292551792013459</v>
       </c>
       <c r="L242" t="n">
-        <v>0.008148420979226467</v>
+        <v>0.0477880143942854</v>
       </c>
       <c r="M242" t="n">
-        <v>0.137363810538074</v>
+        <v>0.2915198081801583</v>
       </c>
       <c r="N242" t="n">
-        <v>0.01476799806760787</v>
+        <v>0.07350340152412482</v>
       </c>
       <c r="O242" t="n">
-        <v>0.1366867542269369</v>
+        <v>0.2936386155673698</v>
       </c>
     </row>
     <row r="243" ht="15" customHeight="1">
       <c r="F243" t="n">
-        <v>0.009762512639999152</v>
+        <v>0.02138244154452636</v>
       </c>
       <c r="G243" t="n">
-        <v>0.0644072555567686</v>
+        <v>0.2924553486418652</v>
       </c>
       <c r="J243" t="n">
-        <v>0.01159911448406754</v>
+        <v>0.02165701553658306</v>
       </c>
       <c r="K243" t="n">
-        <v>0.1400475951025855</v>
+        <v>0.2942046269965858</v>
       </c>
       <c r="L243" t="n">
-        <v>0.008099225939113913</v>
+        <v>0.04735032664864397</v>
       </c>
       <c r="M243" t="n">
-        <v>0.1381398772642778</v>
+        <v>0.2931668127461479</v>
       </c>
       <c r="N243" t="n">
-        <v>0.01412216369752572</v>
+        <v>0.07241557026884266</v>
       </c>
       <c r="O243" t="n">
-        <v>0.1374589957762416</v>
+        <v>0.295297590796564</v>
       </c>
     </row>
     <row r="244" ht="15" customHeight="1">
       <c r="F244" t="n">
-        <v>0.009462009373002143</v>
+        <v>0.02009376635611023</v>
       </c>
       <c r="G244" t="n">
-        <v>0.06432098782343637</v>
+        <v>0.2940983562185049</v>
       </c>
       <c r="J244" t="n">
-        <v>0.01162544729544449</v>
+        <v>0.02156081543409816</v>
       </c>
       <c r="K244" t="n">
-        <v>0.1408343793447349</v>
+        <v>0.2958574619797127</v>
       </c>
       <c r="L244" t="n">
-        <v>0.008055077767820912</v>
+        <v>0.04641008387691878</v>
       </c>
       <c r="M244" t="n">
-        <v>0.1389159439904817</v>
+        <v>0.2948138173121375</v>
       </c>
       <c r="N244" t="n">
-        <v>0.01468189637160977</v>
+        <v>0.07132375902300891</v>
       </c>
       <c r="O244" t="n">
-        <v>0.1382312373255463</v>
+        <v>0.2969565660257582</v>
       </c>
     </row>
     <row r="245" ht="15" customHeight="1">
       <c r="F245" t="n">
-        <v>0.00916648421347406</v>
+        <v>0.01980392397014725</v>
       </c>
       <c r="G245" t="n">
-        <v>0.06423472009010414</v>
+        <v>0.2957413637951445</v>
       </c>
       <c r="J245" t="n">
-        <v>0.01135086871475829</v>
+        <v>0.02116341209216081</v>
       </c>
       <c r="K245" t="n">
-        <v>0.1416211635868843</v>
+        <v>0.2975102969628396</v>
       </c>
       <c r="L245" t="n">
-        <v>0.008216161128103139</v>
+        <v>0.04576724747478988</v>
       </c>
       <c r="M245" t="n">
-        <v>0.1396920107166855</v>
+        <v>0.2964608218781271</v>
       </c>
       <c r="N245" t="n">
-        <v>0.01434731474154144</v>
+        <v>0.07012790707520217</v>
       </c>
       <c r="O245" t="n">
-        <v>0.1390034788748511</v>
+        <v>0.2986155412549523</v>
       </c>
     </row>
     <row r="246" ht="15" customHeight="1">
       <c r="F246" t="n">
-        <v>0.008876315096301039</v>
+        <v>0.01851289706841506</v>
       </c>
       <c r="G246" t="n">
-        <v>0.06414845235677191</v>
+        <v>0.2973843713717843</v>
       </c>
       <c r="J246" t="n">
-        <v>0.01127538849108357</v>
+        <v>0.02076478751905948</v>
       </c>
       <c r="K246" t="n">
-        <v>0.1424079478290336</v>
+        <v>0.2991631319459665</v>
       </c>
       <c r="L246" t="n">
-        <v>0.008082660682716153</v>
+        <v>0.0448217788379375</v>
       </c>
       <c r="M246" t="n">
-        <v>0.1404680774428893</v>
+        <v>0.2981078264441167</v>
       </c>
       <c r="N246" t="n">
-        <v>0.0145185374590025</v>
+        <v>0.06982795371400075</v>
       </c>
       <c r="O246" t="n">
-        <v>0.1397757204241558</v>
+        <v>0.3002745164841465</v>
       </c>
     </row>
     <row r="247" ht="15" customHeight="1">
       <c r="F247" t="n">
-        <v>0.008591879956369099</v>
+        <v>0.02022066833269127</v>
       </c>
       <c r="G247" t="n">
-        <v>0.06406218462343968</v>
+        <v>0.2990273789484239</v>
       </c>
       <c r="J247" t="n">
-        <v>0.01109901637349489</v>
+        <v>0.02046492372308266</v>
       </c>
       <c r="K247" t="n">
-        <v>0.143194732071183</v>
+        <v>0.3008159669290935</v>
       </c>
       <c r="L247" t="n">
-        <v>0.008054761094415608</v>
+        <v>0.04417363936204177</v>
       </c>
       <c r="M247" t="n">
-        <v>0.1412441441690931</v>
+        <v>0.2997548310101063</v>
       </c>
       <c r="N247" t="n">
-        <v>0.01369568317567449</v>
+        <v>0.06902383822798325</v>
       </c>
       <c r="O247" t="n">
-        <v>0.1405479619734606</v>
+        <v>0.3019334917133407</v>
       </c>
     </row>
     <row r="248" ht="15" customHeight="1">
       <c r="F248" t="n">
-        <v>0.008313556728564264</v>
+        <v>0.01992722044475353</v>
       </c>
       <c r="G248" t="n">
-        <v>0.06397591689010745</v>
+        <v>0.3006703865250636</v>
       </c>
       <c r="J248" t="n">
-        <v>0.01092176211106687</v>
+        <v>0.02026380271251885</v>
       </c>
       <c r="K248" t="n">
-        <v>0.1439815163133323</v>
+        <v>0.3024688019122203</v>
       </c>
       <c r="L248" t="n">
-        <v>0.007332647025957206</v>
+        <v>0.04362279044278275</v>
       </c>
       <c r="M248" t="n">
-        <v>0.1420202108952969</v>
+        <v>0.3014018355760958</v>
       </c>
       <c r="N248" t="n">
-        <v>0.01337887054323894</v>
+        <v>0.06771549990572828</v>
       </c>
       <c r="O248" t="n">
-        <v>0.1413202035227653</v>
+        <v>0.3035924669425349</v>
       </c>
     </row>
     <row r="249" ht="15" customHeight="1">
       <c r="F249" t="n">
-        <v>0.008041723347772665</v>
+        <v>0.01963253608637946</v>
       </c>
       <c r="G249" t="n">
-        <v>0.06388964915677522</v>
+        <v>0.3023133941017033</v>
       </c>
       <c r="J249" t="n">
-        <v>0.01054363545287409</v>
+        <v>0.0198614064956565</v>
       </c>
       <c r="K249" t="n">
-        <v>0.1447683005554817</v>
+        <v>0.3041216368953472</v>
       </c>
       <c r="L249" t="n">
-        <v>0.007616503140096487</v>
+        <v>0.04306919347584062</v>
       </c>
       <c r="M249" t="n">
-        <v>0.1427962776215007</v>
+        <v>0.3030488401420854</v>
       </c>
       <c r="N249" t="n">
-        <v>0.01356821821337756</v>
+        <v>0.06620287803581409</v>
       </c>
       <c r="O249" t="n">
-        <v>0.14209244507207</v>
+        <v>0.3052514421717291</v>
       </c>
     </row>
     <row r="250" ht="15" customHeight="1">
       <c r="F250" t="n">
-        <v>0.007776757748880279</v>
+        <v>0.01733659793934669</v>
       </c>
       <c r="G250" t="n">
-        <v>0.063803381423443</v>
+        <v>0.303956401678343</v>
       </c>
       <c r="J250" t="n">
-        <v>0.01056464614799116</v>
+        <v>0.01975771708078408</v>
       </c>
       <c r="K250" t="n">
-        <v>0.145555084797631</v>
+        <v>0.3057744718784741</v>
       </c>
       <c r="L250" t="n">
-        <v>0.007106514099589178</v>
+        <v>0.04261280985689553</v>
       </c>
       <c r="M250" t="n">
-        <v>0.1435723443477045</v>
+        <v>0.304695844708075</v>
       </c>
       <c r="N250" t="n">
-        <v>0.01316384483777167</v>
+        <v>0.06518591190681933</v>
       </c>
       <c r="O250" t="n">
-        <v>0.1428646866213747</v>
+        <v>0.3069104174009232</v>
       </c>
     </row>
     <row r="251" ht="15" customHeight="1">
       <c r="F251" t="n">
-        <v>0.007519037866773229</v>
+        <v>0.01703938868543286</v>
       </c>
       <c r="G251" t="n">
-        <v>0.06371711369011077</v>
+        <v>0.3055994092549827</v>
       </c>
       <c r="J251" t="n">
-        <v>0.01038480394549266</v>
+        <v>0.01925271647619012</v>
       </c>
       <c r="K251" t="n">
-        <v>0.1463418690397804</v>
+        <v>0.307427306861601</v>
       </c>
       <c r="L251" t="n">
-        <v>0.007002864567190875</v>
+        <v>0.04175360098162756</v>
       </c>
       <c r="M251" t="n">
-        <v>0.1443484110739083</v>
+        <v>0.3063428492740647</v>
       </c>
       <c r="N251" t="n">
-        <v>0.01376586906810318</v>
+        <v>0.06406454080732249</v>
       </c>
       <c r="O251" t="n">
-        <v>0.1436369281706795</v>
+        <v>0.3085693926301174</v>
       </c>
     </row>
     <row r="252" ht="15" customHeight="1">
       <c r="F252" t="n">
-        <v>0.007268941636337546</v>
+        <v>0.01874089100641559</v>
       </c>
       <c r="G252" t="n">
-        <v>0.06363084595677854</v>
+        <v>0.3072424168316224</v>
       </c>
       <c r="J252" t="n">
-        <v>0.01010411859445318</v>
+        <v>0.01904638669016308</v>
       </c>
       <c r="K252" t="n">
-        <v>0.1471286532819297</v>
+        <v>0.3090801418447279</v>
       </c>
       <c r="L252" t="n">
-        <v>0.007305739205657219</v>
+        <v>0.04149152824571686</v>
       </c>
       <c r="M252" t="n">
-        <v>0.1451244778001121</v>
+        <v>0.3079898538400543</v>
       </c>
       <c r="N252" t="n">
-        <v>0.01317440955605359</v>
+        <v>0.06313870402590199</v>
       </c>
       <c r="O252" t="n">
-        <v>0.1444091697199842</v>
+        <v>0.3102283678593116</v>
       </c>
     </row>
     <row r="253" ht="15" customHeight="1">
       <c r="F253" t="n">
-        <v>0.00702684699245925</v>
+        <v>0.0174410875840725</v>
       </c>
       <c r="G253" t="n">
-        <v>0.06354457822344631</v>
+        <v>0.3088854244082621</v>
       </c>
       <c r="J253" t="n">
-        <v>0.01002259984394731</v>
+        <v>0.0187387097309914</v>
       </c>
       <c r="K253" t="n">
-        <v>0.1479154375240791</v>
+        <v>0.3107329768278547</v>
       </c>
       <c r="L253" t="n">
-        <v>0.007315322677743874</v>
+        <v>0.0402265530448436</v>
       </c>
       <c r="M253" t="n">
-        <v>0.1459005445263159</v>
+        <v>0.3096368584060438</v>
       </c>
       <c r="N253" t="n">
-        <v>0.01328958495330435</v>
+        <v>0.0623083408511364</v>
       </c>
       <c r="O253" t="n">
-        <v>0.1451814112692889</v>
+        <v>0.3118873430885058</v>
       </c>
     </row>
     <row r="254" ht="15" customHeight="1">
       <c r="F254" t="n">
-        <v>0.006793131870024463</v>
+        <v>0.01813996110018125</v>
       </c>
       <c r="G254" t="n">
-        <v>0.06345831049011408</v>
+        <v>0.3105284319849018</v>
       </c>
       <c r="J254" t="n">
-        <v>0.009740257443049669</v>
+        <v>0.01832966760696358</v>
       </c>
       <c r="K254" t="n">
-        <v>0.1487022217662285</v>
+        <v>0.3123858118109816</v>
       </c>
       <c r="L254" t="n">
-        <v>0.007131799646206416</v>
+        <v>0.03955863677468788</v>
       </c>
       <c r="M254" t="n">
-        <v>0.1466766112525197</v>
+        <v>0.3112838629720334</v>
       </c>
       <c r="N254" t="n">
-        <v>0.01291151391153716</v>
+        <v>0.06147339057160411</v>
       </c>
       <c r="O254" t="n">
-        <v>0.1459536528185936</v>
+        <v>0.3135463183177</v>
       </c>
     </row>
     <row r="255" ht="15" customHeight="1">
       <c r="F255" t="n">
-        <v>0.006568174203919176</v>
+        <v>0.01783749423651945</v>
       </c>
       <c r="G255" t="n">
-        <v>0.06337204275678184</v>
+        <v>0.3121714395615415</v>
       </c>
       <c r="J255" t="n">
-        <v>0.009457101140834832</v>
+        <v>0.01811924232636813</v>
       </c>
       <c r="K255" t="n">
-        <v>0.1494890060083778</v>
+        <v>0.3140386467941085</v>
       </c>
       <c r="L255" t="n">
-        <v>0.007055354773800565</v>
+        <v>0.03888774083092983</v>
       </c>
       <c r="M255" t="n">
-        <v>0.1474526779787235</v>
+        <v>0.312930867538023</v>
       </c>
       <c r="N255" t="n">
-        <v>0.01324031508243356</v>
+        <v>0.06033379247588372</v>
       </c>
       <c r="O255" t="n">
-        <v>0.1467258943678984</v>
+        <v>0.3152052935468941</v>
       </c>
     </row>
     <row r="256" ht="15" customHeight="1">
       <c r="F256" t="n">
-        <v>0.006352351929029505</v>
+        <v>0.01653366967486473</v>
       </c>
       <c r="G256" t="n">
-        <v>0.06328577502344962</v>
+        <v>0.3138144471381812</v>
       </c>
       <c r="J256" t="n">
-        <v>0.009473140686377397</v>
+        <v>0.01790741589749353</v>
       </c>
       <c r="K256" t="n">
-        <v>0.1502757902505272</v>
+        <v>0.3156914817772354</v>
       </c>
       <c r="L256" t="n">
-        <v>0.007186172723281925</v>
+        <v>0.03831382660924959</v>
       </c>
       <c r="M256" t="n">
-        <v>0.1482287447049273</v>
+        <v>0.3145778721040126</v>
       </c>
       <c r="N256" t="n">
-        <v>0.01277610711767518</v>
+        <v>0.0589894858525537</v>
       </c>
       <c r="O256" t="n">
-        <v>0.1474981359172031</v>
+        <v>0.3168642687760883</v>
       </c>
     </row>
     <row r="257" ht="15" customHeight="1">
       <c r="F257" t="n">
-        <v>0.00614604298024149</v>
+        <v>0.01622847009699473</v>
       </c>
       <c r="G257" t="n">
-        <v>0.06319950729011739</v>
+        <v>0.3154574547148209</v>
       </c>
       <c r="J257" t="n">
-        <v>0.009188385828751935</v>
+        <v>0.01739417032862821</v>
       </c>
       <c r="K257" t="n">
-        <v>0.1510625744926765</v>
+        <v>0.3173443167603623</v>
       </c>
       <c r="L257" t="n">
-        <v>0.00702443815740611</v>
+        <v>0.03813685550532725</v>
       </c>
       <c r="M257" t="n">
-        <v>0.1490048114311311</v>
+        <v>0.3162248766700023</v>
       </c>
       <c r="N257" t="n">
-        <v>0.01341900866894369</v>
+        <v>0.05784040999019247</v>
       </c>
       <c r="O257" t="n">
-        <v>0.1482703774665078</v>
+        <v>0.3185232440052825</v>
       </c>
     </row>
     <row r="258" ht="15" customHeight="1">
       <c r="F258" t="n">
-        <v>0.005949625292441134</v>
+        <v>0.01692187818468707</v>
       </c>
       <c r="G258" t="n">
-        <v>0.06311323955678516</v>
+        <v>0.3171004622914605</v>
       </c>
       <c r="J258" t="n">
-        <v>0.009002846317033068</v>
+        <v>0.0172794876280607</v>
       </c>
       <c r="K258" t="n">
-        <v>0.1518493587348259</v>
+        <v>0.3189971517434891</v>
       </c>
       <c r="L258" t="n">
-        <v>0.007070335738928735</v>
+        <v>0.03745678891484303</v>
       </c>
       <c r="M258" t="n">
-        <v>0.149780878157335</v>
+        <v>0.3178718812359918</v>
       </c>
       <c r="N258" t="n">
-        <v>0.01296913838792052</v>
+        <v>0.05708650417737865</v>
       </c>
       <c r="O258" t="n">
-        <v>0.1490426190158126</v>
+        <v>0.3201822192344767</v>
       </c>
     </row>
     <row r="259" ht="15" customHeight="1">
       <c r="F259" t="n">
-        <v>0.005763476800514561</v>
+        <v>0.01661387661971937</v>
       </c>
       <c r="G259" t="n">
-        <v>0.06302697182345293</v>
+        <v>0.3187434698681003</v>
       </c>
       <c r="J259" t="n">
-        <v>0.008816531900295382</v>
+        <v>0.01676334980407945</v>
       </c>
       <c r="K259" t="n">
-        <v>0.1526361429769753</v>
+        <v>0.320649986726616</v>
       </c>
       <c r="L259" t="n">
-        <v>0.006524050130605558</v>
+        <v>0.03627358823347701</v>
       </c>
       <c r="M259" t="n">
-        <v>0.1505569448835388</v>
+        <v>0.3195188858019814</v>
       </c>
       <c r="N259" t="n">
-        <v>0.01342661492628733</v>
+        <v>0.05652770770269061</v>
       </c>
       <c r="O259" t="n">
-        <v>0.1498148605651173</v>
+        <v>0.3218411944636709</v>
       </c>
     </row>
     <row r="260" ht="15" customHeight="1">
       <c r="F260" t="n">
-        <v>0.005587975439347803</v>
+        <v>0.01530444808386929</v>
       </c>
       <c r="G260" t="n">
-        <v>0.0629407040901207</v>
+        <v>0.32038647744474</v>
       </c>
       <c r="J260" t="n">
-        <v>0.008529452327613471</v>
+        <v>0.01664573886497296</v>
       </c>
       <c r="K260" t="n">
-        <v>0.1534229272191246</v>
+        <v>0.3223028217097429</v>
       </c>
       <c r="L260" t="n">
-        <v>0.006785765995192067</v>
+        <v>0.03608721485690936</v>
       </c>
       <c r="M260" t="n">
-        <v>0.1513330116097426</v>
+        <v>0.321165890367971</v>
       </c>
       <c r="N260" t="n">
-        <v>0.01309155693572561</v>
+        <v>0.05546395985470692</v>
       </c>
       <c r="O260" t="n">
-        <v>0.150587102114422</v>
+        <v>0.323500169692865</v>
       </c>
     </row>
     <row r="261" ht="15" customHeight="1">
       <c r="F261" t="n">
-        <v>0.0054234991438269</v>
+        <v>0.01499357525891445</v>
       </c>
       <c r="G261" t="n">
-        <v>0.06285443635678847</v>
+        <v>0.3220294850213796</v>
       </c>
       <c r="J261" t="n">
-        <v>0.008441617348061918</v>
+        <v>0.01612663681902968</v>
       </c>
       <c r="K261" t="n">
-        <v>0.1542097114612739</v>
+        <v>0.3239556566928698</v>
       </c>
       <c r="L261" t="n">
-        <v>0.00635566799544407</v>
+        <v>0.03509763018082016</v>
       </c>
       <c r="M261" t="n">
-        <v>0.1521090783359464</v>
+        <v>0.3228128949339606</v>
       </c>
       <c r="N261" t="n">
-        <v>0.01266408306791722</v>
+        <v>0.05439519992200609</v>
       </c>
       <c r="O261" t="n">
-        <v>0.1513593436637267</v>
+        <v>0.3251591449220593</v>
       </c>
     </row>
     <row r="262" ht="15" customHeight="1">
       <c r="F262" t="n">
-        <v>0.00527042584883794</v>
+        <v>0.01368124082663248</v>
       </c>
       <c r="G262" t="n">
-        <v>0.06276816862345624</v>
+        <v>0.3236724925980193</v>
       </c>
       <c r="J262" t="n">
-        <v>0.008353036710715335</v>
+        <v>0.01600602567453814</v>
       </c>
       <c r="K262" t="n">
-        <v>0.1549964957034233</v>
+        <v>0.3256084916759967</v>
       </c>
       <c r="L262" t="n">
-        <v>0.00653394079411701</v>
+        <v>0.03460479560088955</v>
       </c>
       <c r="M262" t="n">
-        <v>0.1528851450621502</v>
+        <v>0.3244598994999502</v>
       </c>
       <c r="N262" t="n">
-        <v>0.01324431197454345</v>
+        <v>0.05272136719316645</v>
       </c>
       <c r="O262" t="n">
-        <v>0.1521315852130315</v>
+        <v>0.3268181201512534</v>
       </c>
     </row>
     <row r="263" ht="15" customHeight="1">
       <c r="F263" t="n">
-        <v>0.00512913348926694</v>
+        <v>0.01336742746880098</v>
       </c>
       <c r="G263" t="n">
-        <v>0.062681900890124</v>
+        <v>0.325315500174659</v>
       </c>
       <c r="J263" t="n">
-        <v>0.007963720164648302</v>
+        <v>0.01558388743978678</v>
       </c>
       <c r="K263" t="n">
-        <v>0.1557832799455727</v>
+        <v>0.3272613266591236</v>
       </c>
       <c r="L263" t="n">
-        <v>0.006620769053966663</v>
+        <v>0.03370867251279766</v>
       </c>
       <c r="M263" t="n">
-        <v>0.153661211788354</v>
+        <v>0.3261069040659398</v>
       </c>
       <c r="N263" t="n">
-        <v>0.01313236230728609</v>
+        <v>0.0516424009567667</v>
       </c>
       <c r="O263" t="n">
-        <v>0.1529038267623362</v>
+        <v>0.3284770953804476</v>
       </c>
     </row>
     <row r="264" ht="15" customHeight="1">
       <c r="F264" t="n">
-        <v>0.004999999999999998</v>
+        <v>0.01505211786719762</v>
       </c>
       <c r="G264" t="n">
-        <v>0.06259563315679179</v>
+        <v>0.3269585077512987</v>
       </c>
       <c r="J264" t="n">
-        <v>0.007873677458935406</v>
+        <v>0.0152602041230641</v>
       </c>
       <c r="K264" t="n">
-        <v>0.156570064187722</v>
+        <v>0.3289141616422505</v>
       </c>
       <c r="L264" t="n">
-        <v>0.006616337437748643</v>
+        <v>0.03330922231222466</v>
       </c>
       <c r="M264" t="n">
-        <v>0.1544372785145578</v>
+        <v>0.3277539086319294</v>
       </c>
       <c r="N264" t="n">
-        <v>0.01282835271782662</v>
+        <v>0.05035824050138521</v>
       </c>
       <c r="O264" t="n">
-        <v>0.1536760683116409</v>
-      </c>
-    </row>
-    <row r="265" ht="15" customHeight="1">
-      <c r="F265" t="n">
-        <v>0.004999999999999998</v>
-      </c>
-      <c r="G265" t="n">
-        <v>0.06258247526205493</v>
-      </c>
-    </row>
-    <row r="266" ht="15" customHeight="1">
-      <c r="F266" t="n">
-        <v>0.005615033032866937</v>
-      </c>
-      <c r="G266" t="n">
-        <v>0.06258274379051895</v>
-      </c>
-    </row>
-    <row r="267" ht="15" customHeight="1">
-      <c r="F267" t="n">
-        <v>0.006226359398048248</v>
-      </c>
-      <c r="G267" t="n">
-        <v>0.06258301231898296</v>
-      </c>
-    </row>
-    <row r="268" ht="15" customHeight="1">
-      <c r="F268" t="n">
-        <v>0.006833931650542732</v>
-      </c>
-      <c r="G268" t="n">
-        <v>0.06258328084744699</v>
-      </c>
-    </row>
-    <row r="269" ht="15" customHeight="1">
-      <c r="F269" t="n">
-        <v>0.007437702345269893</v>
-      </c>
-      <c r="G269" t="n">
-        <v>0.062583549375911</v>
-      </c>
-    </row>
-    <row r="270" ht="15" customHeight="1">
-      <c r="F270" t="n">
-        <v>0.008037624037228693</v>
-      </c>
-      <c r="G270" t="n">
-        <v>0.06258381790437502</v>
-      </c>
-    </row>
-    <row r="271" ht="15" customHeight="1">
-      <c r="F271" t="n">
-        <v>0.008633649281391535</v>
-      </c>
-      <c r="G271" t="n">
-        <v>0.06258408643283904</v>
-      </c>
-    </row>
-    <row r="272" ht="15" customHeight="1">
-      <c r="F272" t="n">
-        <v>0.009225730632756536</v>
-      </c>
-      <c r="G272" t="n">
-        <v>0.06258435496130306</v>
-      </c>
-    </row>
-    <row r="273" ht="15" customHeight="1">
-      <c r="F273" t="n">
-        <v>0.009813820646244566</v>
-      </c>
-      <c r="G273" t="n">
-        <v>0.06258462348976708</v>
-      </c>
-    </row>
-    <row r="274" ht="15" customHeight="1">
-      <c r="F274" t="n">
-        <v>0.0103978718768539</v>
-      </c>
-      <c r="G274" t="n">
-        <v>0.06258489201823109</v>
-      </c>
-    </row>
-    <row r="275" ht="15" customHeight="1">
-      <c r="F275" t="n">
-        <v>0.01097783687955695</v>
-      </c>
-      <c r="G275" t="n">
-        <v>0.06258516054669511</v>
-      </c>
-    </row>
-    <row r="276" ht="15" customHeight="1">
-      <c r="F276" t="n">
-        <v>0.0115536682093511</v>
-      </c>
-      <c r="G276" t="n">
-        <v>0.06258542907515913</v>
-      </c>
-    </row>
-    <row r="277" ht="15" customHeight="1">
-      <c r="F277" t="n">
-        <v>0.01212531842115865</v>
-      </c>
-      <c r="G277" t="n">
-        <v>0.06258569760362315</v>
-      </c>
-    </row>
-    <row r="278" ht="15" customHeight="1">
-      <c r="F278" t="n">
-        <v>0.01269274006997718</v>
-      </c>
-      <c r="G278" t="n">
-        <v>0.06258596613208715</v>
-      </c>
-    </row>
-    <row r="279" ht="15" customHeight="1">
-      <c r="F279" t="n">
-        <v>0.0132558857107791</v>
-      </c>
-      <c r="G279" t="n">
-        <v>0.06258623466055117</v>
-      </c>
-    </row>
-    <row r="280" ht="15" customHeight="1">
-      <c r="F280" t="n">
-        <v>0.01381470789856104</v>
-      </c>
-      <c r="G280" t="n">
-        <v>0.06258650318901519</v>
-      </c>
-    </row>
-    <row r="281" ht="15" customHeight="1">
-      <c r="F281" t="n">
-        <v>0.01436915918824679</v>
-      </c>
-      <c r="G281" t="n">
-        <v>0.06258677171747921</v>
-      </c>
-    </row>
-    <row r="282" ht="15" customHeight="1">
-      <c r="F282" t="n">
-        <v>0.01491919213483318</v>
-      </c>
-      <c r="G282" t="n">
-        <v>0.06258704024594323</v>
-      </c>
-    </row>
-    <row r="283" ht="15" customHeight="1">
-      <c r="F283" t="n">
-        <v>0.01546475929329262</v>
-      </c>
-      <c r="G283" t="n">
-        <v>0.06258730877440724</v>
-      </c>
-    </row>
-    <row r="284" ht="15" customHeight="1">
-      <c r="F284" t="n">
-        <v>0.016005813218621</v>
-      </c>
-      <c r="G284" t="n">
-        <v>0.06258757730287128</v>
-      </c>
-    </row>
-    <row r="285" ht="15" customHeight="1">
-      <c r="F285" t="n">
-        <v>0.01654230646574361</v>
-      </c>
-      <c r="G285" t="n">
-        <v>0.06258784583133528</v>
-      </c>
-    </row>
-    <row r="286" ht="15" customHeight="1">
-      <c r="F286" t="n">
-        <v>0.01707419158965653</v>
-      </c>
-      <c r="G286" t="n">
-        <v>0.0625881143597993</v>
-      </c>
-    </row>
-    <row r="287" ht="15" customHeight="1">
-      <c r="F287" t="n">
-        <v>0.01760142114533218</v>
-      </c>
-      <c r="G287" t="n">
-        <v>0.06258838288826331</v>
-      </c>
-    </row>
-    <row r="288" ht="15" customHeight="1">
-      <c r="F288" t="n">
-        <v>0.0181239476877656</v>
-      </c>
-      <c r="G288" t="n">
-        <v>0.06258865141672734</v>
-      </c>
-    </row>
-    <row r="289" ht="15" customHeight="1">
-      <c r="F289" t="n">
-        <v>0.01864172377188374</v>
-      </c>
-      <c r="G289" t="n">
-        <v>0.06258891994519135</v>
-      </c>
-    </row>
-    <row r="290" ht="15" customHeight="1">
-      <c r="F290" t="n">
-        <v>0.01915489568654447</v>
-      </c>
-      <c r="G290" t="n">
-        <v>0.06258918847365537</v>
-      </c>
-    </row>
-    <row r="291" ht="15" customHeight="1">
-      <c r="F291" t="n">
-        <v>0.01966457838989599</v>
-      </c>
-      <c r="G291" t="n">
-        <v>0.06258945700211938</v>
-      </c>
-    </row>
-    <row r="292" ht="15" customHeight="1">
-      <c r="F292" t="n">
-        <v>0.02017091817079533</v>
-      </c>
-      <c r="G292" t="n">
-        <v>0.06258972553058341</v>
-      </c>
-    </row>
-    <row r="293" ht="15" customHeight="1">
-      <c r="F293" t="n">
-        <v>0.02067386758417081</v>
-      </c>
-      <c r="G293" t="n">
-        <v>0.06258999405904742</v>
-      </c>
-    </row>
-    <row r="294" ht="15" customHeight="1">
-      <c r="F294" t="n">
-        <v>0.021173379185017</v>
-      </c>
-      <c r="G294" t="n">
-        <v>0.06259026258751144</v>
-      </c>
-    </row>
-    <row r="295" ht="15" customHeight="1">
-      <c r="F295" t="n">
-        <v>0.02166940552830627</v>
-      </c>
-      <c r="G295" t="n">
-        <v>0.06259053111597546</v>
-      </c>
-    </row>
-    <row r="296" ht="15" customHeight="1">
-      <c r="F296" t="n">
-        <v>0.02216189916903243</v>
-      </c>
-      <c r="G296" t="n">
-        <v>0.06259079964443948</v>
-      </c>
-    </row>
-    <row r="297" ht="15" customHeight="1">
-      <c r="F297" t="n">
-        <v>0.02265081266212501</v>
-      </c>
-      <c r="G297" t="n">
-        <v>0.0625910681729035</v>
-      </c>
-    </row>
-    <row r="298" ht="15" customHeight="1">
-      <c r="F298" t="n">
-        <v>0.02313609856257794</v>
-      </c>
-      <c r="G298" t="n">
-        <v>0.0625913367013675</v>
-      </c>
-    </row>
-    <row r="299" ht="15" customHeight="1">
-      <c r="F299" t="n">
-        <v>0.02361770942536365</v>
-      </c>
-      <c r="G299" t="n">
-        <v>0.06259160522983152</v>
-      </c>
-    </row>
-    <row r="300" ht="15" customHeight="1">
-      <c r="F300" t="n">
-        <v>0.02409559780547527</v>
-      </c>
-      <c r="G300" t="n">
-        <v>0.06259187375829554</v>
-      </c>
-    </row>
-    <row r="301" ht="15" customHeight="1">
-      <c r="F301" t="n">
-        <v>0.02456971625784361</v>
-      </c>
-      <c r="G301" t="n">
-        <v>0.06259214228675956</v>
-      </c>
-    </row>
-    <row r="302" ht="15" customHeight="1">
-      <c r="F302" t="n">
-        <v>0.02504001733746195</v>
-      </c>
-      <c r="G302" t="n">
-        <v>0.06259241081522357</v>
-      </c>
-    </row>
-    <row r="303" ht="15" customHeight="1">
-      <c r="F303" t="n">
-        <v>0.02550645359930275</v>
-      </c>
-      <c r="G303" t="n">
-        <v>0.06259267934368759</v>
-      </c>
-    </row>
-    <row r="304" ht="15" customHeight="1">
-      <c r="F304" t="n">
-        <v>0.02596897759835844</v>
-      </c>
-      <c r="G304" t="n">
-        <v>0.06259294787215161</v>
-      </c>
-    </row>
-    <row r="305" ht="15" customHeight="1">
-      <c r="F305" t="n">
-        <v>0.02642754188956119</v>
-      </c>
-      <c r="G305" t="n">
-        <v>0.06259321640061563</v>
-      </c>
-    </row>
-    <row r="306" ht="15" customHeight="1">
-      <c r="F306" t="n">
-        <v>0.02688209902790362</v>
-      </c>
-      <c r="G306" t="n">
-        <v>0.06259348492907964</v>
-      </c>
-    </row>
-    <row r="307" ht="15" customHeight="1">
-      <c r="F307" t="n">
-        <v>0.0273326015683582</v>
-      </c>
-      <c r="G307" t="n">
-        <v>0.06259375345754366</v>
-      </c>
-    </row>
-    <row r="308" ht="15" customHeight="1">
-      <c r="F308" t="n">
-        <v>0.0277790020659166</v>
-      </c>
-      <c r="G308" t="n">
-        <v>0.06259402198600768</v>
-      </c>
-    </row>
-    <row r="309" ht="15" customHeight="1">
-      <c r="F309" t="n">
-        <v>0.02822125307551242</v>
-      </c>
-      <c r="G309" t="n">
-        <v>0.0625942905144717</v>
-      </c>
-    </row>
-    <row r="310" ht="15" customHeight="1">
-      <c r="F310" t="n">
-        <v>0.02865930715213761</v>
-      </c>
-      <c r="G310" t="n">
-        <v>0.06259455904293572</v>
-      </c>
-    </row>
-    <row r="311" ht="15" customHeight="1">
-      <c r="F311" t="n">
-        <v>0.02909311685076459</v>
-      </c>
-      <c r="G311" t="n">
-        <v>0.06259482757139972</v>
-      </c>
-    </row>
-    <row r="312" ht="15" customHeight="1">
-      <c r="F312" t="n">
-        <v>0.02952263472638435</v>
-      </c>
-      <c r="G312" t="n">
-        <v>0.06259509609986376</v>
-      </c>
-    </row>
-    <row r="313" ht="15" customHeight="1">
-      <c r="F313" t="n">
-        <v>0.02994781333393193</v>
-      </c>
-      <c r="G313" t="n">
-        <v>0.06259536462832777</v>
-      </c>
-    </row>
-    <row r="314" ht="15" customHeight="1">
-      <c r="F314" t="n">
-        <v>0.03036860522839854</v>
-      </c>
-      <c r="G314" t="n">
-        <v>0.06259563315679179</v>
-      </c>
-    </row>
-    <row r="315" ht="15" customHeight="1">
-      <c r="F315" t="n">
-        <v>0.03036860522839854</v>
-      </c>
-      <c r="G315" t="n">
-        <v>0.06258247526205493</v>
-      </c>
-    </row>
-    <row r="316" ht="15" customHeight="1">
-      <c r="F316" t="n">
-        <v>0.03081249401984395</v>
-      </c>
-      <c r="G316" t="n">
-        <v>0.0626692800523152</v>
-      </c>
-    </row>
-    <row r="317" ht="15" customHeight="1">
-      <c r="F317" t="n">
-        <v>0.03125197971447708</v>
-      </c>
-      <c r="G317" t="n">
-        <v>0.06275608484257547</v>
-      </c>
-    </row>
-    <row r="318" ht="15" customHeight="1">
-      <c r="F318" t="n">
-        <v>0.03168692264694525</v>
-      </c>
-      <c r="G318" t="n">
-        <v>0.06284288963283573</v>
-      </c>
-    </row>
-    <row r="319" ht="15" customHeight="1">
-      <c r="F319" t="n">
-        <v>0.03211718315189582</v>
-      </c>
-      <c r="G319" t="n">
-        <v>0.062929694423096</v>
-      </c>
-    </row>
-    <row r="320" ht="15" customHeight="1">
-      <c r="F320" t="n">
-        <v>0.03254262156397602</v>
-      </c>
-      <c r="G320" t="n">
-        <v>0.06301649921335625</v>
-      </c>
-    </row>
-    <row r="321" ht="15" customHeight="1">
-      <c r="F321" t="n">
-        <v>0.03296309821783337</v>
-      </c>
-      <c r="G321" t="n">
-        <v>0.06310330400361652</v>
-      </c>
-    </row>
-    <row r="322" ht="15" customHeight="1">
-      <c r="F322" t="n">
-        <v>0.03337847344811509</v>
-      </c>
-      <c r="G322" t="n">
-        <v>0.06319010879387678</v>
-      </c>
-    </row>
-    <row r="323" ht="15" customHeight="1">
-      <c r="F323" t="n">
-        <v>0.03378860758946855</v>
-      </c>
-      <c r="G323" t="n">
-        <v>0.06327691358413705</v>
-      </c>
-    </row>
-    <row r="324" ht="15" customHeight="1">
-      <c r="F324" t="n">
-        <v>0.03419336097654108</v>
-      </c>
-      <c r="G324" t="n">
-        <v>0.06336371837439732</v>
-      </c>
-    </row>
-    <row r="325" ht="15" customHeight="1">
-      <c r="F325" t="n">
-        <v>0.03459259394398002</v>
-      </c>
-      <c r="G325" t="n">
-        <v>0.06345052316465757</v>
-      </c>
-    </row>
-    <row r="326" ht="15" customHeight="1">
-      <c r="F326" t="n">
-        <v>0.03498616682643271</v>
-      </c>
-      <c r="G326" t="n">
-        <v>0.06353732795491784</v>
-      </c>
-    </row>
-    <row r="327" ht="15" customHeight="1">
-      <c r="F327" t="n">
-        <v>0.03537393995854648</v>
-      </c>
-      <c r="G327" t="n">
-        <v>0.06362413274517811</v>
-      </c>
-    </row>
-    <row r="328" ht="15" customHeight="1">
-      <c r="F328" t="n">
-        <v>0.03575577367496861</v>
-      </c>
-      <c r="G328" t="n">
-        <v>0.06371093753543837</v>
-      </c>
-    </row>
-    <row r="329" ht="15" customHeight="1">
-      <c r="F329" t="n">
-        <v>0.03613152831034657</v>
-      </c>
-      <c r="G329" t="n">
-        <v>0.06379774232569863</v>
-      </c>
-    </row>
-    <row r="330" ht="15" customHeight="1">
-      <c r="F330" t="n">
-        <v>0.03650106419932762</v>
-      </c>
-      <c r="G330" t="n">
-        <v>0.0638845471159589</v>
-      </c>
-    </row>
-    <row r="331" ht="15" customHeight="1">
-      <c r="F331" t="n">
-        <v>0.03686424167655909</v>
-      </c>
-      <c r="G331" t="n">
-        <v>0.06397135190621916</v>
-      </c>
-    </row>
-    <row r="332" ht="15" customHeight="1">
-      <c r="F332" t="n">
-        <v>0.03722092107668833</v>
-      </c>
-      <c r="G332" t="n">
-        <v>0.06405815669647942</v>
-      </c>
-    </row>
-    <row r="333" ht="15" customHeight="1">
-      <c r="F333" t="n">
-        <v>0.03757096273436267</v>
-      </c>
-      <c r="G333" t="n">
-        <v>0.06414496148673969</v>
-      </c>
-    </row>
-    <row r="334" ht="15" customHeight="1">
-      <c r="F334" t="n">
-        <v>0.03791422698422948</v>
-      </c>
-      <c r="G334" t="n">
-        <v>0.06423176627699996</v>
-      </c>
-    </row>
-    <row r="335" ht="15" customHeight="1">
-      <c r="F335" t="n">
-        <v>0.03825057416093607</v>
-      </c>
-      <c r="G335" t="n">
-        <v>0.06431857106726022</v>
-      </c>
-    </row>
-    <row r="336" ht="15" customHeight="1">
-      <c r="F336" t="n">
-        <v>0.03857986459912972</v>
-      </c>
-      <c r="G336" t="n">
-        <v>0.06440537585752047</v>
-      </c>
-    </row>
-    <row r="337" ht="15" customHeight="1">
-      <c r="F337" t="n">
-        <v>0.03890195863345789</v>
-      </c>
-      <c r="G337" t="n">
-        <v>0.06449218064778074</v>
-      </c>
-    </row>
-    <row r="338" ht="15" customHeight="1">
-      <c r="F338" t="n">
-        <v>0.03921671659856785</v>
-      </c>
-      <c r="G338" t="n">
-        <v>0.06457898543804101</v>
-      </c>
-    </row>
-    <row r="339" ht="15" customHeight="1">
-      <c r="F339" t="n">
-        <v>0.03952399882910693</v>
-      </c>
-      <c r="G339" t="n">
-        <v>0.06466579022830127</v>
-      </c>
-    </row>
-    <row r="340" ht="15" customHeight="1">
-      <c r="F340" t="n">
-        <v>0.03982423595991253</v>
-      </c>
-      <c r="G340" t="n">
-        <v>0.06475259501856154</v>
-      </c>
-    </row>
-    <row r="341" ht="15" customHeight="1">
-      <c r="F341" t="n">
-        <v>0.0401207101267722</v>
-      </c>
-      <c r="G341" t="n">
-        <v>0.06483939980882181</v>
-      </c>
-    </row>
-    <row r="342" ht="15" customHeight="1">
-      <c r="F342" t="n">
-        <v>0.04041385196452333</v>
-      </c>
-      <c r="G342" t="n">
-        <v>0.06492620459908206</v>
-      </c>
-    </row>
-    <row r="343" ht="15" customHeight="1">
-      <c r="F343" t="n">
-        <v>0.04070352180781325</v>
-      </c>
-      <c r="G343" t="n">
-        <v>0.06501300938934233</v>
-      </c>
-    </row>
-    <row r="344" ht="15" customHeight="1">
-      <c r="F344" t="n">
-        <v>0.04098957999128928</v>
-      </c>
-      <c r="G344" t="n">
-        <v>0.06509981417960259</v>
-      </c>
-    </row>
-    <row r="345" ht="15" customHeight="1">
-      <c r="F345" t="n">
-        <v>0.04127188684959879</v>
-      </c>
-      <c r="G345" t="n">
-        <v>0.06518661896986284</v>
-      </c>
-    </row>
-    <row r="346" ht="15" customHeight="1">
-      <c r="F346" t="n">
-        <v>0.04155030271738911</v>
-      </c>
-      <c r="G346" t="n">
-        <v>0.06527342376012311</v>
-      </c>
-    </row>
-    <row r="347" ht="15" customHeight="1">
-      <c r="F347" t="n">
-        <v>0.04182468792930758</v>
-      </c>
-      <c r="G347" t="n">
-        <v>0.06536022855038338</v>
-      </c>
-    </row>
-    <row r="348" ht="15" customHeight="1">
-      <c r="F348" t="n">
-        <v>0.04209490282000152</v>
-      </c>
-      <c r="G348" t="n">
-        <v>0.06544703334064365</v>
-      </c>
-    </row>
-    <row r="349" ht="15" customHeight="1">
-      <c r="F349" t="n">
-        <v>0.04236080772411827</v>
-      </c>
-      <c r="G349" t="n">
-        <v>0.06553383813090391</v>
-      </c>
-    </row>
-    <row r="350" ht="15" customHeight="1">
-      <c r="F350" t="n">
-        <v>0.04262226297630519</v>
-      </c>
-      <c r="G350" t="n">
-        <v>0.06562064292116418</v>
-      </c>
-    </row>
-    <row r="351" ht="15" customHeight="1">
-      <c r="F351" t="n">
-        <v>0.04287912891120959</v>
-      </c>
-      <c r="G351" t="n">
-        <v>0.06570744771142445</v>
-      </c>
-    </row>
-    <row r="352" ht="15" customHeight="1">
-      <c r="F352" t="n">
-        <v>0.0431312658634788</v>
-      </c>
-      <c r="G352" t="n">
-        <v>0.06579425250168469</v>
-      </c>
-    </row>
-    <row r="353" ht="15" customHeight="1">
-      <c r="F353" t="n">
-        <v>0.0433785341677602</v>
-      </c>
-      <c r="G353" t="n">
-        <v>0.06588105729194496</v>
-      </c>
-    </row>
-    <row r="354" ht="15" customHeight="1">
-      <c r="F354" t="n">
-        <v>0.04362079415870109</v>
-      </c>
-      <c r="G354" t="n">
-        <v>0.06596786208220523</v>
-      </c>
-    </row>
-    <row r="355" ht="15" customHeight="1">
-      <c r="F355" t="n">
-        <v>0.04385790617094883</v>
-      </c>
-      <c r="G355" t="n">
-        <v>0.06605466687246549</v>
-      </c>
-    </row>
-    <row r="356" ht="15" customHeight="1">
-      <c r="F356" t="n">
-        <v>0.04408973053915077</v>
-      </c>
-      <c r="G356" t="n">
-        <v>0.06614147166272576</v>
-      </c>
-    </row>
-    <row r="357" ht="15" customHeight="1">
-      <c r="F357" t="n">
-        <v>0.04431612759795419</v>
-      </c>
-      <c r="G357" t="n">
-        <v>0.06622827645298603</v>
-      </c>
-    </row>
-    <row r="358" ht="15" customHeight="1">
-      <c r="F358" t="n">
-        <v>0.04453695768200649</v>
-      </c>
-      <c r="G358" t="n">
-        <v>0.0663150812432463</v>
-      </c>
-    </row>
-    <row r="359" ht="15" customHeight="1">
-      <c r="F359" t="n">
-        <v>0.04475208112595499</v>
-      </c>
-      <c r="G359" t="n">
-        <v>0.06640188603350655</v>
-      </c>
-    </row>
-    <row r="360" ht="15" customHeight="1">
-      <c r="F360" t="n">
-        <v>0.04496135826444696</v>
-      </c>
-      <c r="G360" t="n">
-        <v>0.06648869082376681</v>
-      </c>
-    </row>
-    <row r="361" ht="15" customHeight="1">
-      <c r="F361" t="n">
-        <v>0.04516464943212985</v>
-      </c>
-      <c r="G361" t="n">
-        <v>0.06657549561402708</v>
-      </c>
-    </row>
-    <row r="362" ht="15" customHeight="1">
-      <c r="F362" t="n">
-        <v>0.04536181496365093</v>
-      </c>
-      <c r="G362" t="n">
-        <v>0.06666230040428733</v>
-      </c>
-    </row>
-    <row r="363" ht="15" customHeight="1">
-      <c r="F363" t="n">
-        <v>0.04555271519365755</v>
-      </c>
-      <c r="G363" t="n">
-        <v>0.0667491051945476</v>
-      </c>
-    </row>
-    <row r="364" ht="15" customHeight="1">
-      <c r="F364" t="n">
-        <v>0.04573721045679707</v>
-      </c>
-      <c r="G364" t="n">
-        <v>0.06683590998480787</v>
-      </c>
-    </row>
-    <row r="365" ht="15" customHeight="1">
-      <c r="F365" t="n">
-        <v>0.03782480697119805</v>
-      </c>
-      <c r="G365" t="n">
-        <v>0.06683590998480787</v>
-      </c>
-    </row>
-    <row r="366" ht="15" customHeight="1">
-      <c r="F366" t="n">
-        <v>0.04595562060683144</v>
-      </c>
-      <c r="G366" t="n">
-        <v>0.06868638399133178</v>
-      </c>
-    </row>
-    <row r="367" ht="15" customHeight="1">
-      <c r="F367" t="n">
-        <v>0.04615752121643599</v>
-      </c>
-      <c r="G367" t="n">
-        <v>0.0705368579978557</v>
-      </c>
-    </row>
-    <row r="368" ht="15" customHeight="1">
-      <c r="F368" t="n">
-        <v>0.04634356110375448</v>
-      </c>
-      <c r="G368" t="n">
-        <v>0.07238733200437961</v>
-      </c>
-    </row>
-    <row r="369" ht="15" customHeight="1">
-      <c r="F369" t="n">
-        <v>0.04651438908693063</v>
-      </c>
-      <c r="G369" t="n">
-        <v>0.07423780601090352</v>
-      </c>
-    </row>
-    <row r="370" ht="15" customHeight="1">
-      <c r="F370" t="n">
-        <v>0.04667065398410817</v>
-      </c>
-      <c r="G370" t="n">
-        <v>0.07608828001742743</v>
-      </c>
-    </row>
-    <row r="371" ht="15" customHeight="1">
-      <c r="F371" t="n">
-        <v>0.04681300461343089</v>
-      </c>
-      <c r="G371" t="n">
-        <v>0.07793875402395134</v>
-      </c>
-    </row>
-    <row r="372" ht="15" customHeight="1">
-      <c r="F372" t="n">
-        <v>0.04694208979304251</v>
-      </c>
-      <c r="G372" t="n">
-        <v>0.07978922803047525</v>
-      </c>
-    </row>
-    <row r="373" ht="15" customHeight="1">
-      <c r="F373" t="n">
-        <v>0.04705855834108678</v>
-      </c>
-      <c r="G373" t="n">
-        <v>0.08163970203699918</v>
-      </c>
-    </row>
-    <row r="374" ht="15" customHeight="1">
-      <c r="F374" t="n">
-        <v>0.04716305907570743</v>
-      </c>
-      <c r="G374" t="n">
-        <v>0.08349017604352307</v>
-      </c>
-    </row>
-    <row r="375" ht="15" customHeight="1">
-      <c r="F375" t="n">
-        <v>0.04725624081504822</v>
-      </c>
-      <c r="G375" t="n">
-        <v>0.08534065005004698</v>
-      </c>
-    </row>
-    <row r="376" ht="15" customHeight="1">
-      <c r="F376" t="n">
-        <v>0.04733875237725291</v>
-      </c>
-      <c r="G376" t="n">
-        <v>0.0871911240565709</v>
-      </c>
-    </row>
-    <row r="377" ht="15" customHeight="1">
-      <c r="F377" t="n">
-        <v>0.04741124258046523</v>
-      </c>
-      <c r="G377" t="n">
-        <v>0.08904159806309481</v>
-      </c>
-    </row>
-    <row r="378" ht="15" customHeight="1">
-      <c r="F378" t="n">
-        <v>0.04747436024282892</v>
-      </c>
-      <c r="G378" t="n">
-        <v>0.09089207206961873</v>
-      </c>
-    </row>
-    <row r="379" ht="15" customHeight="1">
-      <c r="F379" t="n">
-        <v>0.04752875418248775</v>
-      </c>
-      <c r="G379" t="n">
-        <v>0.09274254607614264</v>
-      </c>
-    </row>
-    <row r="380" ht="15" customHeight="1">
-      <c r="F380" t="n">
-        <v>0.04757507321758542</v>
-      </c>
-      <c r="G380" t="n">
-        <v>0.09459302008266655</v>
-      </c>
-    </row>
-    <row r="381" ht="15" customHeight="1">
-      <c r="F381" t="n">
-        <v>0.04761396616626572</v>
-      </c>
-      <c r="G381" t="n">
-        <v>0.09644349408919047</v>
-      </c>
-    </row>
-    <row r="382" ht="15" customHeight="1">
-      <c r="F382" t="n">
-        <v>0.04764608184667238</v>
-      </c>
-      <c r="G382" t="n">
-        <v>0.09829396809571436</v>
-      </c>
-    </row>
-    <row r="383" ht="15" customHeight="1">
-      <c r="F383" t="n">
-        <v>0.04767206907694915</v>
-      </c>
-      <c r="G383" t="n">
-        <v>0.1001444421022383</v>
-      </c>
-    </row>
-    <row r="384" ht="15" customHeight="1">
-      <c r="F384" t="n">
-        <v>0.04769257667523975</v>
-      </c>
-      <c r="G384" t="n">
-        <v>0.1019949161087622</v>
-      </c>
-    </row>
-    <row r="385" ht="15" customHeight="1">
-      <c r="F385" t="n">
-        <v>0.04770825345968795</v>
-      </c>
-      <c r="G385" t="n">
-        <v>0.1038453901152861</v>
-      </c>
-    </row>
-    <row r="386" ht="15" customHeight="1">
-      <c r="F386" t="n">
-        <v>0.04771974824843751</v>
-      </c>
-      <c r="G386" t="n">
-        <v>0.10569586412181</v>
-      </c>
-    </row>
-    <row r="387" ht="15" customHeight="1">
-      <c r="F387" t="n">
-        <v>0.04772770985963214</v>
-      </c>
-      <c r="G387" t="n">
-        <v>0.1075463381283339</v>
-      </c>
-    </row>
-    <row r="388" ht="15" customHeight="1">
-      <c r="F388" t="n">
-        <v>0.04773278711141562</v>
-      </c>
-      <c r="G388" t="n">
-        <v>0.1093968121348578</v>
-      </c>
-    </row>
-    <row r="389" ht="15" customHeight="1">
-      <c r="F389" t="n">
-        <v>0.04773562882193167</v>
-      </c>
-      <c r="G389" t="n">
-        <v>0.1112472861413818</v>
-      </c>
-    </row>
-    <row r="390" ht="15" customHeight="1">
-      <c r="F390" t="n">
-        <v>0.04773688380932404</v>
-      </c>
-      <c r="G390" t="n">
-        <v>0.1130977601479057</v>
-      </c>
-    </row>
-    <row r="391" ht="15" customHeight="1">
-      <c r="F391" t="n">
-        <v>0.04773720089173646</v>
-      </c>
-      <c r="G391" t="n">
-        <v>0.1149482341544296</v>
-      </c>
-    </row>
-    <row r="392" ht="15" customHeight="1">
-      <c r="F392" t="n">
-        <v>0.04772807441062468</v>
-      </c>
-      <c r="G392" t="n">
-        <v>0.1167987081609535</v>
-      </c>
-    </row>
-    <row r="393" ht="15" customHeight="1">
-      <c r="F393" t="n">
-        <v>0.0476668937988378</v>
-      </c>
-      <c r="G393" t="n">
-        <v>0.1186491821674774</v>
-      </c>
-    </row>
-    <row r="394" ht="15" customHeight="1">
-      <c r="F394" t="n">
-        <v>0.04755135851050293</v>
-      </c>
-      <c r="G394" t="n">
-        <v>0.1204996561740013</v>
-      </c>
-    </row>
-    <row r="395" ht="15" customHeight="1">
-      <c r="F395" t="n">
-        <v>0.04738518136884586</v>
-      </c>
-      <c r="G395" t="n">
-        <v>0.1223501301805252</v>
-      </c>
-    </row>
-    <row r="396" ht="15" customHeight="1">
-      <c r="F396" t="n">
-        <v>0.04717207519709243</v>
-      </c>
-      <c r="G396" t="n">
-        <v>0.1242006041870491</v>
-      </c>
-    </row>
-    <row r="397" ht="15" customHeight="1">
-      <c r="F397" t="n">
-        <v>0.04691575281846836</v>
-      </c>
-      <c r="G397" t="n">
-        <v>0.1260510781935731</v>
-      </c>
-    </row>
-    <row r="398" ht="15" customHeight="1">
-      <c r="F398" t="n">
-        <v>0.04661992705619947</v>
-      </c>
-      <c r="G398" t="n">
-        <v>0.127901552200097</v>
-      </c>
-    </row>
-    <row r="399" ht="15" customHeight="1">
-      <c r="F399" t="n">
-        <v>0.04628831073351158</v>
-      </c>
-      <c r="G399" t="n">
-        <v>0.1297520262066209</v>
-      </c>
-    </row>
-    <row r="400" ht="15" customHeight="1">
-      <c r="F400" t="n">
-        <v>0.04592461667363042</v>
-      </c>
-      <c r="G400" t="n">
-        <v>0.1316025002131448</v>
-      </c>
-    </row>
-    <row r="401" ht="15" customHeight="1">
-      <c r="F401" t="n">
-        <v>0.04553255769978181</v>
-      </c>
-      <c r="G401" t="n">
-        <v>0.1334529742196687</v>
-      </c>
-    </row>
-    <row r="402" ht="15" customHeight="1">
-      <c r="F402" t="n">
-        <v>0.04511584663519156</v>
-      </c>
-      <c r="G402" t="n">
-        <v>0.1353034482261926</v>
-      </c>
-    </row>
-    <row r="403" ht="15" customHeight="1">
-      <c r="F403" t="n">
-        <v>0.04467819630308541</v>
-      </c>
-      <c r="G403" t="n">
-        <v>0.1371539222327165</v>
-      </c>
-    </row>
-    <row r="404" ht="15" customHeight="1">
-      <c r="F404" t="n">
-        <v>0.04422331952668917</v>
-      </c>
-      <c r="G404" t="n">
-        <v>0.1390043962392404</v>
-      </c>
-    </row>
-    <row r="405" ht="15" customHeight="1">
-      <c r="F405" t="n">
-        <v>0.04375492912922863</v>
-      </c>
-      <c r="G405" t="n">
-        <v>0.1408548702457643</v>
-      </c>
-    </row>
-    <row r="406" ht="15" customHeight="1">
-      <c r="F406" t="n">
-        <v>0.04327673793392959</v>
-      </c>
-      <c r="G406" t="n">
-        <v>0.1427053442522883</v>
-      </c>
-    </row>
-    <row r="407" ht="15" customHeight="1">
-      <c r="F407" t="n">
-        <v>0.04279245876401782</v>
-      </c>
-      <c r="G407" t="n">
-        <v>0.1445558182588122</v>
-      </c>
-    </row>
-    <row r="408" ht="15" customHeight="1">
-      <c r="F408" t="n">
-        <v>0.04230580444271911</v>
-      </c>
-      <c r="G408" t="n">
-        <v>0.1464062922653361</v>
-      </c>
-    </row>
-    <row r="409" ht="15" customHeight="1">
-      <c r="F409" t="n">
-        <v>0.04182048779325927</v>
-      </c>
-      <c r="G409" t="n">
-        <v>0.14825676627186</v>
-      </c>
-    </row>
-    <row r="410" ht="15" customHeight="1">
-      <c r="F410" t="n">
-        <v>0.04134022163886406</v>
-      </c>
-      <c r="G410" t="n">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="411" ht="15" customHeight="1">
-      <c r="F411" t="n">
-        <v>0.04086871880275929</v>
-      </c>
-      <c r="G411" t="n">
-        <v>0.1519577142849078</v>
-      </c>
-    </row>
-    <row r="412" ht="15" customHeight="1">
-      <c r="F412" t="n">
-        <v>0.04040969210817073</v>
-      </c>
-      <c r="G412" t="n">
-        <v>0.1538081882914317</v>
-      </c>
-    </row>
-    <row r="413" ht="15" customHeight="1">
-      <c r="F413" t="n">
-        <v>0.03996685437832418</v>
-      </c>
-      <c r="G413" t="n">
-        <v>0.1556586622979557</v>
-      </c>
-    </row>
-    <row r="414" ht="15" customHeight="1">
-      <c r="F414" t="n">
-        <v>0.03954391843644544</v>
-      </c>
-      <c r="G414" t="n">
-        <v>0.1575091363044795</v>
-      </c>
-    </row>
-    <row r="415" ht="15" customHeight="1">
-      <c r="F415" t="n">
-        <v>0.03914459710576027</v>
-      </c>
-      <c r="G415" t="n">
-        <v>0.1593596103110035</v>
-      </c>
-    </row>
-    <row r="416" ht="15" customHeight="1">
-      <c r="F416" t="n">
-        <v>0.03875708473031762</v>
-      </c>
-      <c r="G416" t="n">
-        <v>0.1612100843175274</v>
-      </c>
-    </row>
-    <row r="417" ht="15" customHeight="1">
-      <c r="F417" t="n">
-        <v>0.0383566690470939</v>
-      </c>
-      <c r="G417" t="n">
-        <v>0.1630605583240513</v>
-      </c>
-    </row>
-    <row r="418" ht="15" customHeight="1">
-      <c r="F418" t="n">
-        <v>0.03794439705315392</v>
-      </c>
-      <c r="G418" t="n">
-        <v>0.1649110323305752</v>
-      </c>
-    </row>
-    <row r="419" ht="15" customHeight="1">
-      <c r="F419" t="n">
-        <v>0.03752180971201399</v>
-      </c>
-      <c r="G419" t="n">
-        <v>0.1667615063370991</v>
-      </c>
-    </row>
-    <row r="420" ht="15" customHeight="1">
-      <c r="F420" t="n">
-        <v>0.0370904479871904</v>
-      </c>
-      <c r="G420" t="n">
-        <v>0.168611980343623</v>
-      </c>
-    </row>
-    <row r="421" ht="15" customHeight="1">
-      <c r="F421" t="n">
-        <v>0.03665185284219951</v>
-      </c>
-      <c r="G421" t="n">
-        <v>0.1704624543501469</v>
-      </c>
-    </row>
-    <row r="422" ht="15" customHeight="1">
-      <c r="F422" t="n">
-        <v>0.03620756524055756</v>
-      </c>
-      <c r="G422" t="n">
-        <v>0.1723129283566708</v>
-      </c>
-    </row>
-    <row r="423" ht="15" customHeight="1">
-      <c r="F423" t="n">
-        <v>0.03575912614578095</v>
-      </c>
-      <c r="G423" t="n">
-        <v>0.1741634023631947</v>
-      </c>
-    </row>
-    <row r="424" ht="15" customHeight="1">
-      <c r="F424" t="n">
-        <v>0.03530807652138594</v>
-      </c>
-      <c r="G424" t="n">
-        <v>0.1760138763697187</v>
-      </c>
-    </row>
-    <row r="425" ht="15" customHeight="1">
-      <c r="F425" t="n">
-        <v>0.03485595733088883</v>
-      </c>
-      <c r="G425" t="n">
-        <v>0.1778643503762426</v>
-      </c>
-    </row>
-    <row r="426" ht="15" customHeight="1">
-      <c r="F426" t="n">
-        <v>0.03440430953780601</v>
-      </c>
-      <c r="G426" t="n">
-        <v>0.1797148243827665</v>
-      </c>
-    </row>
-    <row r="427" ht="15" customHeight="1">
-      <c r="F427" t="n">
-        <v>0.03395467410565371</v>
-      </c>
-      <c r="G427" t="n">
-        <v>0.1815652983892904</v>
-      </c>
-    </row>
-    <row r="428" ht="15" customHeight="1">
-      <c r="F428" t="n">
-        <v>0.03350859199794828</v>
-      </c>
-      <c r="G428" t="n">
-        <v>0.1834157723958143</v>
-      </c>
-    </row>
-    <row r="429" ht="15" customHeight="1">
-      <c r="F429" t="n">
-        <v>0.03306760417820604</v>
-      </c>
-      <c r="G429" t="n">
-        <v>0.1852662464023382</v>
-      </c>
-    </row>
-    <row r="430" ht="15" customHeight="1">
-      <c r="F430" t="n">
-        <v>0.03263325160994327</v>
-      </c>
-      <c r="G430" t="n">
-        <v>0.1871167204088622</v>
-      </c>
-    </row>
-    <row r="431" ht="15" customHeight="1">
-      <c r="F431" t="n">
-        <v>0.03220707525667634</v>
-      </c>
-      <c r="G431" t="n">
-        <v>0.1889671944153861</v>
-      </c>
-    </row>
-    <row r="432" ht="15" customHeight="1">
-      <c r="F432" t="n">
-        <v>0.03179061608192153</v>
-      </c>
-      <c r="G432" t="n">
-        <v>0.19081766842191</v>
-      </c>
-    </row>
-    <row r="433" ht="15" customHeight="1">
-      <c r="F433" t="n">
-        <v>0.03138541504919514</v>
-      </c>
-      <c r="G433" t="n">
-        <v>0.1926681424284339</v>
-      </c>
-    </row>
-    <row r="434" ht="15" customHeight="1">
-      <c r="F434" t="n">
-        <v>0.0309930131220135</v>
-      </c>
-      <c r="G434" t="n">
-        <v>0.1945186164349578</v>
-      </c>
-    </row>
-    <row r="435" ht="15" customHeight="1">
-      <c r="F435" t="n">
-        <v>0.03061495126389293</v>
-      </c>
-      <c r="G435" t="n">
-        <v>0.1963690904414817</v>
-      </c>
-    </row>
-    <row r="436" ht="15" customHeight="1">
-      <c r="F436" t="n">
-        <v>0.03025277043834975</v>
-      </c>
-      <c r="G436" t="n">
-        <v>0.1982195644480056</v>
-      </c>
-    </row>
-    <row r="437" ht="15" customHeight="1">
-      <c r="F437" t="n">
-        <v>0.02990801160890027</v>
-      </c>
-      <c r="G437" t="n">
-        <v>0.2000700384545295</v>
-      </c>
-    </row>
-    <row r="438" ht="15" customHeight="1">
-      <c r="F438" t="n">
-        <v>0.02958221573906077</v>
-      </c>
-      <c r="G438" t="n">
-        <v>0.2019205124610534</v>
-      </c>
-    </row>
-    <row r="439" ht="15" customHeight="1">
-      <c r="F439" t="n">
-        <v>0.02927692379234759</v>
-      </c>
-      <c r="G439" t="n">
-        <v>0.2037709864675773</v>
-      </c>
-    </row>
-    <row r="440" ht="15" customHeight="1">
-      <c r="F440" t="n">
-        <v>0.02899367673227706</v>
-      </c>
-      <c r="G440" t="n">
-        <v>0.2056214604741013</v>
-      </c>
-    </row>
-    <row r="441" ht="15" customHeight="1">
-      <c r="F441" t="n">
-        <v>0.02873373492907911</v>
-      </c>
-      <c r="G441" t="n">
-        <v>0.2074719344806252</v>
-      </c>
-    </row>
-    <row r="442" ht="15" customHeight="1">
-      <c r="F442" t="n">
-        <v>0.02848425870176326</v>
-      </c>
-      <c r="G442" t="n">
-        <v>0.2093224084871491</v>
-      </c>
-    </row>
-    <row r="443" ht="15" customHeight="1">
-      <c r="F443" t="n">
-        <v>0.02823789312566225</v>
-      </c>
-      <c r="G443" t="n">
-        <v>0.211172882493673</v>
-      </c>
-    </row>
-    <row r="444" ht="15" customHeight="1">
-      <c r="F444" t="n">
-        <v>0.02799504199739603</v>
-      </c>
-      <c r="G444" t="n">
-        <v>0.2130233565001969</v>
-      </c>
-    </row>
-    <row r="445" ht="15" customHeight="1">
-      <c r="F445" t="n">
-        <v>0.02775610911358459</v>
-      </c>
-      <c r="G445" t="n">
-        <v>0.2148738305067208</v>
-      </c>
-    </row>
-    <row r="446" ht="15" customHeight="1">
-      <c r="F446" t="n">
-        <v>0.02752149827084791</v>
-      </c>
-      <c r="G446" t="n">
-        <v>0.2167243045132448</v>
-      </c>
-    </row>
-    <row r="447" ht="15" customHeight="1">
-      <c r="F447" t="n">
-        <v>0.02729161326580596</v>
-      </c>
-      <c r="G447" t="n">
-        <v>0.2185747785197686</v>
-      </c>
-    </row>
-    <row r="448" ht="15" customHeight="1">
-      <c r="F448" t="n">
-        <v>0.02706685789507874</v>
-      </c>
-      <c r="G448" t="n">
-        <v>0.2204252525262925</v>
-      </c>
-    </row>
-    <row r="449" ht="15" customHeight="1">
-      <c r="F449" t="n">
-        <v>0.02684763595528619</v>
-      </c>
-      <c r="G449" t="n">
-        <v>0.2222757265328165</v>
-      </c>
-    </row>
-    <row r="450" ht="15" customHeight="1">
-      <c r="F450" t="n">
-        <v>0.02663435124304831</v>
-      </c>
-      <c r="G450" t="n">
-        <v>0.2241262005393404</v>
-      </c>
-    </row>
-    <row r="451" ht="15" customHeight="1">
-      <c r="F451" t="n">
-        <v>0.02642740755498508</v>
-      </c>
-      <c r="G451" t="n">
-        <v>0.2259766745458643</v>
-      </c>
-    </row>
-    <row r="452" ht="15" customHeight="1">
-      <c r="F452" t="n">
-        <v>0.02622720868771648</v>
-      </c>
-      <c r="G452" t="n">
-        <v>0.2278271485523882</v>
-      </c>
-    </row>
-    <row r="453" ht="15" customHeight="1">
-      <c r="F453" t="n">
-        <v>0.02603415843786246</v>
-      </c>
-      <c r="G453" t="n">
-        <v>0.2296776225589121</v>
-      </c>
-    </row>
-    <row r="454" ht="15" customHeight="1">
-      <c r="F454" t="n">
-        <v>0.02584866060204303</v>
-      </c>
-      <c r="G454" t="n">
-        <v>0.231528096565436</v>
-      </c>
-    </row>
-    <row r="455" ht="15" customHeight="1">
-      <c r="F455" t="n">
-        <v>0.02567111897687818</v>
-      </c>
-      <c r="G455" t="n">
-        <v>0.2333785705719599</v>
-      </c>
-    </row>
-    <row r="456" ht="15" customHeight="1">
-      <c r="F456" t="n">
-        <v>0.02550193735898783</v>
-      </c>
-      <c r="G456" t="n">
-        <v>0.2352290445784838</v>
-      </c>
-    </row>
-    <row r="457" ht="15" customHeight="1">
-      <c r="F457" t="n">
-        <v>0.02534151954499202</v>
-      </c>
-      <c r="G457" t="n">
-        <v>0.2370795185850078</v>
-      </c>
-    </row>
-    <row r="458" ht="15" customHeight="1">
-      <c r="F458" t="n">
-        <v>0.0251902693315107</v>
-      </c>
-      <c r="G458" t="n">
-        <v>0.2389299925915316</v>
-      </c>
-    </row>
-    <row r="459" ht="15" customHeight="1">
-      <c r="F459" t="n">
-        <v>0.02504859051516384</v>
-      </c>
-      <c r="G459" t="n">
-        <v>0.2407804665980556</v>
-      </c>
-    </row>
-    <row r="460" ht="15" customHeight="1">
-      <c r="F460" t="n">
-        <v>0.02491688689257144</v>
-      </c>
-      <c r="G460" t="n">
-        <v>0.2426309406045795</v>
-      </c>
-    </row>
-    <row r="461" ht="15" customHeight="1">
-      <c r="F461" t="n">
-        <v>0.02479556226035346</v>
-      </c>
-      <c r="G461" t="n">
-        <v>0.2444814146111034</v>
-      </c>
-    </row>
-    <row r="462" ht="15" customHeight="1">
-      <c r="F462" t="n">
-        <v>0.02468502041512988</v>
-      </c>
-      <c r="G462" t="n">
-        <v>0.2463318886176273</v>
-      </c>
-    </row>
-    <row r="463" ht="15" customHeight="1">
-      <c r="F463" t="n">
-        <v>0.0245856651535207</v>
-      </c>
-      <c r="G463" t="n">
-        <v>0.2481823626241512</v>
-      </c>
-    </row>
-    <row r="464" ht="15" customHeight="1">
-      <c r="F464" t="n">
-        <v>0.02449790027214584</v>
-      </c>
-      <c r="G464" t="n">
-        <v>0.2500328366306752</v>
-      </c>
-    </row>
+        <v>0.3301360706096417</v>
+      </c>
+    </row>
+    <row r="265" ht="15" customHeight="1"/>
+    <row r="266" ht="15" customHeight="1"/>
+    <row r="267" ht="15" customHeight="1"/>
+    <row r="268" ht="15" customHeight="1"/>
+    <row r="269" ht="15" customHeight="1"/>
+    <row r="270" ht="15" customHeight="1"/>
+    <row r="271" ht="15" customHeight="1"/>
+    <row r="272" ht="15" customHeight="1"/>
+    <row r="273" ht="15" customHeight="1"/>
+    <row r="274" ht="15" customHeight="1"/>
+    <row r="275" ht="15" customHeight="1"/>
+    <row r="276" ht="15" customHeight="1"/>
+    <row r="277" ht="15" customHeight="1"/>
+    <row r="278" ht="15" customHeight="1"/>
+    <row r="279" ht="15" customHeight="1"/>
+    <row r="280" ht="15" customHeight="1"/>
+    <row r="281" ht="15" customHeight="1"/>
+    <row r="282" ht="15" customHeight="1"/>
+    <row r="283" ht="15" customHeight="1"/>
+    <row r="284" ht="15" customHeight="1"/>
+    <row r="285" ht="15" customHeight="1"/>
+    <row r="286" ht="15" customHeight="1"/>
+    <row r="287" ht="15" customHeight="1"/>
+    <row r="288" ht="15" customHeight="1"/>
+    <row r="289" ht="15" customHeight="1"/>
+    <row r="290" ht="15" customHeight="1"/>
+    <row r="291" ht="15" customHeight="1"/>
+    <row r="292" ht="15" customHeight="1"/>
+    <row r="293" ht="15" customHeight="1"/>
+    <row r="294" ht="15" customHeight="1"/>
+    <row r="295" ht="15" customHeight="1"/>
+    <row r="296" ht="15" customHeight="1"/>
+    <row r="297" ht="15" customHeight="1"/>
+    <row r="298" ht="15" customHeight="1"/>
+    <row r="299" ht="15" customHeight="1"/>
+    <row r="300" ht="15" customHeight="1"/>
+    <row r="301" ht="15" customHeight="1"/>
+    <row r="302" ht="15" customHeight="1"/>
+    <row r="303" ht="15" customHeight="1"/>
+    <row r="304" ht="15" customHeight="1"/>
+    <row r="305" ht="15" customHeight="1"/>
+    <row r="306" ht="15" customHeight="1"/>
+    <row r="307" ht="15" customHeight="1"/>
+    <row r="308" ht="15" customHeight="1"/>
+    <row r="309" ht="15" customHeight="1"/>
+    <row r="310" ht="15" customHeight="1"/>
+    <row r="311" ht="15" customHeight="1"/>
+    <row r="312" ht="15" customHeight="1"/>
+    <row r="313" ht="15" customHeight="1"/>
+    <row r="314" ht="15" customHeight="1"/>
+    <row r="315" ht="15" customHeight="1"/>
+    <row r="316" ht="15" customHeight="1"/>
+    <row r="317" ht="15" customHeight="1"/>
+    <row r="318" ht="15" customHeight="1"/>
+    <row r="319" ht="15" customHeight="1"/>
+    <row r="320" ht="15" customHeight="1"/>
+    <row r="321" ht="15" customHeight="1"/>
+    <row r="322" ht="15" customHeight="1"/>
+    <row r="323" ht="15" customHeight="1"/>
+    <row r="324" ht="15" customHeight="1"/>
+    <row r="325" ht="15" customHeight="1"/>
+    <row r="326" ht="15" customHeight="1"/>
+    <row r="327" ht="15" customHeight="1"/>
+    <row r="328" ht="15" customHeight="1"/>
+    <row r="329" ht="15" customHeight="1"/>
+    <row r="330" ht="15" customHeight="1"/>
+    <row r="331" ht="15" customHeight="1"/>
+    <row r="332" ht="15" customHeight="1"/>
+    <row r="333" ht="15" customHeight="1"/>
+    <row r="334" ht="15" customHeight="1"/>
+    <row r="335" ht="15" customHeight="1"/>
+    <row r="336" ht="15" customHeight="1"/>
+    <row r="337" ht="15" customHeight="1"/>
+    <row r="338" ht="15" customHeight="1"/>
+    <row r="339" ht="15" customHeight="1"/>
+    <row r="340" ht="15" customHeight="1"/>
+    <row r="341" ht="15" customHeight="1"/>
+    <row r="342" ht="15" customHeight="1"/>
+    <row r="343" ht="15" customHeight="1"/>
+    <row r="344" ht="15" customHeight="1"/>
+    <row r="345" ht="15" customHeight="1"/>
+    <row r="346" ht="15" customHeight="1"/>
+    <row r="347" ht="15" customHeight="1"/>
+    <row r="348" ht="15" customHeight="1"/>
+    <row r="349" ht="15" customHeight="1"/>
+    <row r="350" ht="15" customHeight="1"/>
+    <row r="351" ht="15" customHeight="1"/>
+    <row r="352" ht="15" customHeight="1"/>
+    <row r="353" ht="15" customHeight="1"/>
+    <row r="354" ht="15" customHeight="1"/>
+    <row r="355" ht="15" customHeight="1"/>
+    <row r="356" ht="15" customHeight="1"/>
+    <row r="357" ht="15" customHeight="1"/>
+    <row r="358" ht="15" customHeight="1"/>
+    <row r="359" ht="15" customHeight="1"/>
+    <row r="360" ht="15" customHeight="1"/>
+    <row r="361" ht="15" customHeight="1"/>
+    <row r="362" ht="15" customHeight="1"/>
+    <row r="363" ht="15" customHeight="1"/>
+    <row r="364" ht="15" customHeight="1"/>
+    <row r="365" ht="15" customHeight="1"/>
+    <row r="366" ht="15" customHeight="1"/>
+    <row r="367" ht="15" customHeight="1"/>
+    <row r="368" ht="15" customHeight="1"/>
+    <row r="369" ht="15" customHeight="1"/>
+    <row r="370" ht="15" customHeight="1"/>
+    <row r="371" ht="15" customHeight="1"/>
+    <row r="372" ht="15" customHeight="1"/>
+    <row r="373" ht="15" customHeight="1"/>
+    <row r="374" ht="15" customHeight="1"/>
+    <row r="375" ht="15" customHeight="1"/>
+    <row r="376" ht="15" customHeight="1"/>
+    <row r="377" ht="15" customHeight="1"/>
+    <row r="378" ht="15" customHeight="1"/>
+    <row r="379" ht="15" customHeight="1"/>
+    <row r="380" ht="15" customHeight="1"/>
+    <row r="381" ht="15" customHeight="1"/>
+    <row r="382" ht="15" customHeight="1"/>
+    <row r="383" ht="15" customHeight="1"/>
+    <row r="384" ht="15" customHeight="1"/>
+    <row r="385" ht="15" customHeight="1"/>
+    <row r="386" ht="15" customHeight="1"/>
+    <row r="387" ht="15" customHeight="1"/>
+    <row r="388" ht="15" customHeight="1"/>
+    <row r="389" ht="15" customHeight="1"/>
+    <row r="390" ht="15" customHeight="1"/>
+    <row r="391" ht="15" customHeight="1"/>
+    <row r="392" ht="15" customHeight="1"/>
+    <row r="393" ht="15" customHeight="1"/>
+    <row r="394" ht="15" customHeight="1"/>
+    <row r="395" ht="15" customHeight="1"/>
+    <row r="396" ht="15" customHeight="1"/>
+    <row r="397" ht="15" customHeight="1"/>
+    <row r="398" ht="15" customHeight="1"/>
+    <row r="399" ht="15" customHeight="1"/>
+    <row r="400" ht="15" customHeight="1"/>
+    <row r="401" ht="15" customHeight="1"/>
+    <row r="402" ht="15" customHeight="1"/>
+    <row r="403" ht="15" customHeight="1"/>
+    <row r="404" ht="15" customHeight="1"/>
+    <row r="405" ht="15" customHeight="1"/>
+    <row r="406" ht="15" customHeight="1"/>
+    <row r="407" ht="15" customHeight="1"/>
+    <row r="408" ht="15" customHeight="1"/>
+    <row r="409" ht="15" customHeight="1"/>
+    <row r="410" ht="15" customHeight="1"/>
+    <row r="411" ht="15" customHeight="1"/>
+    <row r="412" ht="15" customHeight="1"/>
+    <row r="413" ht="15" customHeight="1"/>
+    <row r="414" ht="15" customHeight="1"/>
+    <row r="415" ht="15" customHeight="1"/>
+    <row r="416" ht="15" customHeight="1"/>
+    <row r="417" ht="15" customHeight="1"/>
+    <row r="418" ht="15" customHeight="1"/>
+    <row r="419" ht="15" customHeight="1"/>
+    <row r="420" ht="15" customHeight="1"/>
+    <row r="421" ht="15" customHeight="1"/>
+    <row r="422" ht="15" customHeight="1"/>
+    <row r="423" ht="15" customHeight="1"/>
+    <row r="424" ht="15" customHeight="1"/>
+    <row r="425" ht="15" customHeight="1"/>
+    <row r="426" ht="15" customHeight="1"/>
+    <row r="427" ht="15" customHeight="1"/>
+    <row r="428" ht="15" customHeight="1"/>
+    <row r="429" ht="15" customHeight="1"/>
+    <row r="430" ht="15" customHeight="1"/>
+    <row r="431" ht="15" customHeight="1"/>
+    <row r="432" ht="15" customHeight="1"/>
+    <row r="433" ht="15" customHeight="1"/>
+    <row r="434" ht="15" customHeight="1"/>
+    <row r="435" ht="15" customHeight="1"/>
+    <row r="436" ht="15" customHeight="1"/>
+    <row r="437" ht="15" customHeight="1"/>
+    <row r="438" ht="15" customHeight="1"/>
+    <row r="439" ht="15" customHeight="1"/>
+    <row r="440" ht="15" customHeight="1"/>
+    <row r="441" ht="15" customHeight="1"/>
+    <row r="442" ht="15" customHeight="1"/>
+    <row r="443" ht="15" customHeight="1"/>
+    <row r="444" ht="15" customHeight="1"/>
+    <row r="445" ht="15" customHeight="1"/>
+    <row r="446" ht="15" customHeight="1"/>
+    <row r="447" ht="15" customHeight="1"/>
+    <row r="448" ht="15" customHeight="1"/>
+    <row r="449" ht="15" customHeight="1"/>
+    <row r="450" ht="15" customHeight="1"/>
+    <row r="451" ht="15" customHeight="1"/>
+    <row r="452" ht="15" customHeight="1"/>
+    <row r="453" ht="15" customHeight="1"/>
+    <row r="454" ht="15" customHeight="1"/>
+    <row r="455" ht="15" customHeight="1"/>
+    <row r="456" ht="15" customHeight="1"/>
+    <row r="457" ht="15" customHeight="1"/>
+    <row r="458" ht="15" customHeight="1"/>
+    <row r="459" ht="15" customHeight="1"/>
+    <row r="460" ht="15" customHeight="1"/>
+    <row r="461" ht="15" customHeight="1"/>
+    <row r="462" ht="15" customHeight="1"/>
+    <row r="463" ht="15" customHeight="1"/>
+    <row r="464" ht="15" customHeight="1"/>
     <row r="465" ht="15" customHeight="1"/>
     <row r="466" ht="15" customHeight="1"/>
     <row r="467" ht="15" customHeight="1"/>

--- a/prot/ООО Регионстрой/Трехосные_КД_ПП/1171.xlsx
+++ b/prot/ООО Регионстрой/Трехосные_КД_ПП/1171.xlsx
@@ -4884,7 +4884,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BF264"/>
+  <dimension ref="A1:BF464"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A3" zoomScale="70" zoomScaleNormal="40" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <selection activeCell="J22" sqref="J22"/>
@@ -9318,29 +9318,29 @@
         </is>
       </c>
       <c r="F66" s="170" t="n">
-        <v>0.002938707478156402</v>
+        <v>0.001146249951461231</v>
       </c>
       <c r="G66" s="171" t="n">
-        <v>0.001643007576639692</v>
+        <v>0.0006268565579196794</v>
       </c>
       <c r="H66" s="171" t="n"/>
       <c r="J66" s="170" t="n">
-        <v>0.002888383156092578</v>
+        <v>0.001387705065976207</v>
       </c>
       <c r="K66" s="171" t="n">
-        <v>0.001652834983126887</v>
+        <v>0.0008492260880070078</v>
       </c>
       <c r="L66" s="172" t="n">
-        <v>0.0129012480582387</v>
+        <v>0.004602199986894873</v>
       </c>
       <c r="M66" s="170" t="n">
-        <v>0.002463985497361433</v>
+        <v>0.0008334211295325109</v>
       </c>
       <c r="N66" s="171" t="n">
-        <v>0.01341148481162607</v>
+        <v>0.005771155976320552</v>
       </c>
       <c r="O66" s="172" t="n">
-        <v>0.00165897522919418</v>
+        <v>0.0008331960005464677</v>
       </c>
       <c r="Q66" s="151" t="inlineStr">
         <is>
@@ -9358,29 +9358,29 @@
         <v>2</v>
       </c>
       <c r="F67" s="170" t="n">
-        <v>0.006456201742799504</v>
+        <v>0.002265114994485125</v>
       </c>
       <c r="G67" s="171" t="n">
-        <v>0.004032099744682753</v>
+        <v>0.001253713115839359</v>
       </c>
       <c r="H67" s="171" t="n"/>
       <c r="J67" s="170" t="n">
-        <v>0.005596836511874523</v>
+        <v>0.003111363960849052</v>
       </c>
       <c r="K67" s="171" t="n">
-        <v>0.003305669966253774</v>
+        <v>0.001698452176014016</v>
       </c>
       <c r="L67" s="172" t="n">
-        <v>0.01509459283765482</v>
+        <v>0.008513991450794928</v>
       </c>
       <c r="M67" s="170" t="n">
-        <v>0.00329400913197919</v>
+        <v>0.001666842259065022</v>
       </c>
       <c r="N67" s="171" t="n">
-        <v>0.02262343527803889</v>
+        <v>0.01250882063117337</v>
       </c>
       <c r="O67" s="172" t="n">
-        <v>0.003071530937714724</v>
+        <v>0.001666392001092935</v>
       </c>
       <c r="Q67" s="151" t="inlineStr">
         <is>
@@ -9400,29 +9400,29 @@
         </is>
       </c>
       <c r="F68" s="170" t="n">
-        <v>0.006472796866818911</v>
+        <v>0.003339613245748857</v>
       </c>
       <c r="G68" s="171" t="n">
-        <v>0.004929022729919076</v>
+        <v>0.001880569673759038</v>
       </c>
       <c r="H68" s="171" t="n"/>
       <c r="J68" s="170" t="n">
-        <v>0.007499999999999993</v>
+        <v>0.004439485498157744</v>
       </c>
       <c r="K68" s="171" t="n">
-        <v>0.004683984374999996</v>
+        <v>0.002547678264021024</v>
       </c>
       <c r="L68" s="172" t="n">
-        <v>0.01825865483457295</v>
+        <v>0.01230212122514068</v>
       </c>
       <c r="M68" s="170" t="n">
-        <v>0.004941013697968785</v>
+        <v>0.002500263388597533</v>
       </c>
       <c r="N68" s="171" t="n">
-        <v>0.02800389722639673</v>
+        <v>0.01939151595260474</v>
       </c>
       <c r="O68" s="172" t="n">
-        <v>0.00497692568758254</v>
+        <v>0.00269124615495004</v>
       </c>
       <c r="Q68" s="151" t="inlineStr">
         <is>
@@ -9447,29 +9447,29 @@
         </is>
       </c>
       <c r="F69" s="170" t="n">
-        <v>0.009158664242045041</v>
+        <v>0.004352762821929639</v>
       </c>
       <c r="G69" s="171" t="n">
-        <v>0.006572030306558768</v>
+        <v>0.002507426231678718</v>
       </c>
       <c r="H69" s="171" t="n"/>
       <c r="J69" s="170" t="n">
-        <v>0.009217422996560615</v>
+        <v>0.005740578491441516</v>
       </c>
       <c r="K69" s="171" t="n">
-        <v>0.006611339932507548</v>
+        <v>0.003396904352028031</v>
       </c>
       <c r="L69" s="172" t="n">
-        <v>0.02168833008108514</v>
+        <v>0.01553333614337266</v>
       </c>
       <c r="M69" s="170" t="n">
-        <v>0.00658801826395838</v>
+        <v>0.003333684518130044</v>
       </c>
       <c r="N69" s="171" t="n">
-        <v>0.03201169459918335</v>
+        <v>0.02260067441613756</v>
       </c>
       <c r="O69" s="172" t="n">
-        <v>0.006635900916776719</v>
+        <v>0.003332784002185871</v>
       </c>
       <c r="Q69" s="151" t="inlineStr">
         <is>
@@ -9490,56 +9490,56 @@
         <v>0.006456201742799504</v>
       </c>
       <c r="F70" s="170" t="n">
-        <v>0.009644961049651526</v>
+        <v>0.005287581839704639</v>
       </c>
       <c r="G70" s="171" t="n">
-        <v>0.00821503788319846</v>
+        <v>0.003134282789598397</v>
       </c>
       <c r="H70" s="171" t="n"/>
       <c r="J70" s="170" t="n">
-        <v>0.01042614519294467</v>
+        <v>0.006883151754239578</v>
       </c>
       <c r="K70" s="171" t="n">
-        <v>0.008264174915634435</v>
+        <v>0.00424613044003504</v>
       </c>
       <c r="L70" s="172" t="n">
-        <v>0.02350017206859187</v>
+        <v>0.01770171245200192</v>
       </c>
       <c r="M70" s="170" t="n">
-        <v>0.008235022829947975</v>
+        <v>0.003799062750786708</v>
       </c>
       <c r="N70" s="171" t="n">
-        <v>0.03534860666214557</v>
+        <v>0.02655034608706663</v>
       </c>
       <c r="O70" s="172" t="n">
-        <v>0.008294876145970898</v>
+        <v>0.004165980002732338</v>
       </c>
     </row>
     <row r="71">
       <c r="F71" s="170" t="n">
-        <v>0.01196537940214901</v>
+        <v>0.006456201742799504</v>
       </c>
       <c r="G71" s="171" t="n">
-        <v>0.009858045459838153</v>
+        <v>0.004032099744682753</v>
       </c>
       <c r="H71" s="171" t="n"/>
       <c r="J71" s="170" t="n">
-        <v>0.01136889745421343</v>
+        <v>0.007499999999999993</v>
       </c>
       <c r="K71" s="171" t="n">
-        <v>0.009917009898761322</v>
+        <v>0.004683984374999996</v>
       </c>
       <c r="L71" s="172" t="n">
-        <v>0.02591073428849344</v>
+        <v>0.02074354049947286</v>
       </c>
       <c r="M71" s="170" t="n">
-        <v>0.009882027395937571</v>
+        <v>0.005000526777195066</v>
       </c>
       <c r="N71" s="171" t="n">
-        <v>0.03737801814401065</v>
+        <v>0.03030208714271909</v>
       </c>
       <c r="O71" s="172" t="n">
-        <v>0.009953851375165079</v>
+        <v>0.004999176003278806</v>
       </c>
     </row>
     <row r="72">
@@ -9554,29 +9554,29 @@
         </is>
       </c>
       <c r="F72" s="170" t="n">
-        <v>0.01355802365987897</v>
+        <v>0.006874017327524337</v>
       </c>
       <c r="G72" s="171" t="n">
-        <v>0.01209629923404826</v>
+        <v>0.004387995905437756</v>
       </c>
       <c r="H72" s="171" t="n"/>
       <c r="J72" s="170" t="n">
-        <v>0.01221945778510507</v>
+        <v>0.008713936692438792</v>
       </c>
       <c r="K72" s="171" t="n">
-        <v>0.01156984488188821</v>
+        <v>0.005944582616049055</v>
       </c>
       <c r="L72" s="172" t="n">
-        <v>0.02793657023219046</v>
+        <v>0.02281516931785543</v>
       </c>
       <c r="M72" s="170" t="n">
-        <v>0.01152903196192717</v>
+        <v>0.005833947906727577</v>
       </c>
       <c r="N72" s="171" t="n">
-        <v>0.0396633137735064</v>
+        <v>0.03427339986142192</v>
       </c>
       <c r="O72" s="172" t="n">
-        <v>0.01161282660435926</v>
+        <v>0.005832372003825274</v>
       </c>
     </row>
     <row r="73">
@@ -9600,29 +9600,29 @@
         <v/>
       </c>
       <c r="F73" s="170" t="n">
-        <v>0.01225793804443746</v>
+        <v>0.007606725591130195</v>
       </c>
       <c r="G73" s="171" t="n">
-        <v>0.01314406061311754</v>
+        <v>0.005014852463357435</v>
       </c>
       <c r="H73" s="171" t="n"/>
       <c r="J73" s="170" t="n">
-        <v>0.01335160419035775</v>
+        <v>0.009403063360699425</v>
       </c>
       <c r="K73" s="171" t="n">
-        <v>0.0132226798650151</v>
+        <v>0.006793808704056063</v>
       </c>
       <c r="L73" s="172" t="n">
-        <v>0.03000290246102022</v>
+        <v>0.02458317131257168</v>
       </c>
       <c r="M73" s="170" t="n">
-        <v>0.01289170011467889</v>
+        <v>0.006667369036260087</v>
       </c>
       <c r="N73" s="171" t="n">
-        <v>0.04246787827936044</v>
+        <v>0.03688178652150198</v>
       </c>
       <c r="O73" s="172" t="n">
-        <v>0.01327180183355344</v>
+        <v>0.006665568004371742</v>
       </c>
     </row>
     <row r="74">
@@ -9637,29 +9637,29 @@
         </is>
       </c>
       <c r="F74" s="170" t="n">
-        <v>0.01334562213772279</v>
+        <v>0.008329472230659746</v>
       </c>
       <c r="G74" s="171" t="n">
-        <v>0.01478706818975723</v>
+        <v>0.005641709021277115</v>
       </c>
       <c r="H74" s="171" t="n"/>
       <c r="J74" s="170" t="n">
-        <v>0.01383552884441011</v>
+        <v>0.0101302376037838</v>
       </c>
       <c r="K74" s="171" t="n">
-        <v>0.01405195312499999</v>
+        <v>0.00764303479206307</v>
       </c>
       <c r="L74" s="172" t="n">
-        <v>0.03235595107843994</v>
+        <v>0.02659558655260338</v>
       </c>
       <c r="M74" s="170" t="n">
-        <v>0.01482304109390636</v>
+        <v>0.007500790165792599</v>
       </c>
       <c r="N74" s="171" t="n">
-        <v>0.04617027607763036</v>
+        <v>0.03984474940128635</v>
       </c>
       <c r="O74" s="172" t="n">
-        <v>0.01527386209239129</v>
+        <v>0.007498764004918209</v>
       </c>
     </row>
     <row r="75">
@@ -9681,29 +9681,29 @@
         </is>
       </c>
       <c r="F75" s="170" t="n">
-        <v>0.01641375452788151</v>
+        <v>0.009035402904589776</v>
       </c>
       <c r="G75" s="171" t="n">
-        <v>0.01643007576639692</v>
+        <v>0.006268565579196794</v>
       </c>
       <c r="H75" s="171" t="n"/>
       <c r="J75" s="170" t="n">
-        <v>0.01534729125444663</v>
+        <v>0.01090867993978339</v>
       </c>
       <c r="K75" s="171" t="n">
-        <v>0.01652834983126887</v>
+        <v>0.008492260880070079</v>
       </c>
       <c r="L75" s="172" t="n">
-        <v>0.0343413675309498</v>
+        <v>0.02780045510693263</v>
       </c>
       <c r="M75" s="170" t="n">
-        <v>0.01647004565989595</v>
+        <v>0.008334211295325111</v>
       </c>
       <c r="N75" s="171" t="n">
-        <v>0.04864080560246875</v>
+        <v>0.04297979077910197</v>
       </c>
       <c r="O75" s="172" t="n">
-        <v>0.0165897522919418</v>
+        <v>0.008331960005464677</v>
       </c>
     </row>
     <row r="76">
@@ -9723,29 +9723,29 @@
         <v>0</v>
       </c>
       <c r="F76" s="170" t="n">
-        <v>0.01545379357972693</v>
+        <v>0.009717663271397045</v>
       </c>
       <c r="G76" s="171" t="n">
-        <v>0.01807308334303661</v>
+        <v>0.006895422137116474</v>
       </c>
       <c r="H76" s="171" t="n"/>
       <c r="J76" s="170" t="n">
-        <v>0.01628219173220584</v>
+        <v>0.01155161088678964</v>
       </c>
       <c r="K76" s="171" t="n">
-        <v>0.01818118481439576</v>
+        <v>0.009341486968077087</v>
       </c>
       <c r="L76" s="172" t="n">
-        <v>0.03661995530247592</v>
+        <v>0.03000290246102022</v>
       </c>
       <c r="M76" s="170" t="n">
-        <v>0.01811705022588555</v>
+        <v>0.009198699154447241</v>
       </c>
       <c r="N76" s="171" t="n">
-        <v>0.05120478739512391</v>
+        <v>0.04617027607763036</v>
       </c>
       <c r="O76" s="172" t="n">
-        <v>0.01824872752113598</v>
+        <v>0.009153898486224629</v>
       </c>
     </row>
     <row r="77" ht="15" customHeight="1">
@@ -9760,28 +9760,28 @@
         </is>
       </c>
       <c r="F77" t="n">
-        <v>0.01745719765807235</v>
+        <v>0.01036939898955832</v>
       </c>
       <c r="G77" t="n">
-        <v>0.01971609091967631</v>
+        <v>0.007522278695036154</v>
       </c>
       <c r="J77" t="n">
-        <v>0.01742123082767444</v>
+        <v>0.012172250962894</v>
       </c>
       <c r="K77" t="n">
-        <v>0.01983401979752264</v>
+        <v>0.01019071305608409</v>
       </c>
       <c r="L77" t="n">
-        <v>0.0392652755436097</v>
+        <v>0.03149431206559852</v>
       </c>
       <c r="M77" t="n">
-        <v>0.01976405479187514</v>
+        <v>0.01000105355439013</v>
       </c>
       <c r="N77" t="n">
-        <v>0.05478146691097652</v>
+        <v>0.04874787836054312</v>
       </c>
       <c r="O77" t="n">
-        <v>0.01990770275033016</v>
+        <v>0.009998352006557612</v>
       </c>
     </row>
     <row r="78" ht="15" customHeight="1">
@@ -9800,28 +9800,28 @@
         <v/>
       </c>
       <c r="F78" t="n">
-        <v>0.01741542512773104</v>
+        <v>0.01098375571755037</v>
       </c>
       <c r="G78" t="n">
-        <v>0.021359098496316</v>
+        <v>0.008149135252955832</v>
       </c>
       <c r="J78" t="n">
-        <v>0.01825017893044714</v>
+        <v>0.01288382068618793</v>
       </c>
       <c r="K78" t="n">
-        <v>0.02148685478064953</v>
+        <v>0.0110399391440911</v>
       </c>
       <c r="L78" t="n">
-        <v>0.0415508894049425</v>
+        <v>0.03247491055699836</v>
       </c>
       <c r="M78" t="n">
-        <v>0.02141105935786473</v>
+        <v>0.01083447468392264</v>
       </c>
       <c r="N78" t="n">
-        <v>0.05841300948554118</v>
+        <v>0.05061451124275512</v>
       </c>
       <c r="O78" t="n">
-        <v>0.02156667797952434</v>
+        <v>0.01083154800710408</v>
       </c>
     </row>
     <row r="79" ht="15" customHeight="1">
@@ -9842,28 +9842,28 @@
         <v/>
       </c>
       <c r="F79" t="n">
-        <v>0.0183199343535163</v>
+        <v>0.01155387911384995</v>
       </c>
       <c r="G79" t="n">
-        <v>0.02300210607295569</v>
+        <v>0.008775991810875511</v>
       </c>
       <c r="J79" t="n">
-        <v>0.01925480643011863</v>
+        <v>0.01339954057476289</v>
       </c>
       <c r="K79" t="n">
-        <v>0.02313968976377642</v>
+        <v>0.01188916523209811</v>
       </c>
       <c r="L79" t="n">
-        <v>0.04315035803706566</v>
+        <v>0.03467969102390231</v>
       </c>
       <c r="M79" t="n">
-        <v>0.02305806392385433</v>
+        <v>0.01166789581345515</v>
       </c>
       <c r="N79" t="n">
-        <v>0.06124158045433253</v>
+        <v>0.05359371782617506</v>
       </c>
       <c r="O79" t="n">
-        <v>0.02322565320871852</v>
+        <v>0.01166474400765055</v>
       </c>
     </row>
     <row r="80" ht="15" customHeight="1">
@@ -9873,28 +9873,28 @@
         </is>
       </c>
       <c r="F80" t="n">
-        <v>0.02016218370024141</v>
+        <v>0.01207291483693384</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02464511364959538</v>
+        <v>0.009402848368795191</v>
       </c>
       <c r="J80" t="n">
-        <v>0.02042088371628362</v>
+        <v>0.01383552884441011</v>
       </c>
       <c r="K80" t="n">
-        <v>0.0247925247469033</v>
+        <v>0.01234388589087215</v>
       </c>
       <c r="L80" t="n">
-        <v>0.04553724259057046</v>
+        <v>0.03580069711581199</v>
       </c>
       <c r="M80" t="n">
-        <v>0.02470506848984392</v>
+        <v>0.01250131694298766</v>
       </c>
       <c r="N80" t="n">
-        <v>0.06540934515286534</v>
+        <v>0.05647488363967856</v>
       </c>
       <c r="O80" t="n">
-        <v>0.0248846284379127</v>
+        <v>0.01249794000819702</v>
       </c>
     </row>
     <row r="81" ht="15" customHeight="1">
@@ -9910,28 +9910,28 @@
         </is>
       </c>
       <c r="F81" t="n">
-        <v>0.02093363153271966</v>
+        <v>0.01253400854527881</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02628812122623507</v>
+        <v>0.01002970492671487</v>
       </c>
       <c r="J81" t="n">
-        <v>0.02133418117853685</v>
+        <v>0.01469603954075854</v>
       </c>
       <c r="K81" t="n">
-        <v>0.02644535973003019</v>
+        <v>0.01358761740811213</v>
       </c>
       <c r="L81" t="n">
-        <v>0.0474851042160484</v>
+        <v>0.03732997248222888</v>
       </c>
       <c r="M81" t="n">
-        <v>0.02635207305583352</v>
+        <v>0.01333473807252017</v>
       </c>
       <c r="N81" t="n">
-        <v>0.06815846891665406</v>
+        <v>0.05874739421214087</v>
       </c>
       <c r="O81" t="n">
-        <v>0.02654360366710688</v>
+        <v>0.01333113600874348</v>
       </c>
     </row>
     <row r="82" ht="15" customHeight="1">
@@ -9944,28 +9944,28 @@
         <v/>
       </c>
       <c r="F82" t="n">
-        <v>0.02262573621576435</v>
+        <v>0.01293030589736161</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02793112880287476</v>
+        <v>0.01065656148463455</v>
       </c>
       <c r="J82" t="n">
-        <v>0.02208046920647296</v>
+        <v>0.01528486733674185</v>
       </c>
       <c r="K82" t="n">
-        <v>0.02809819471315708</v>
+        <v>0.01443684349611913</v>
       </c>
       <c r="L82" t="n">
-        <v>0.04916750406409071</v>
+        <v>0.03935956077265448</v>
       </c>
       <c r="M82" t="n">
-        <v>0.02799907762182311</v>
+        <v>0.01416815920205269</v>
       </c>
       <c r="N82" t="n">
-        <v>0.07123111708121349</v>
+        <v>0.06100063507243758</v>
       </c>
       <c r="O82" t="n">
-        <v>0.02820257889630106</v>
+        <v>0.01416433200928995</v>
       </c>
     </row>
     <row r="83" ht="15" customHeight="1">
@@ -9975,28 +9975,28 @@
         </is>
       </c>
       <c r="F83" t="n">
-        <v>0.02222995611418879</v>
+        <v>0.01325495255165902</v>
       </c>
       <c r="G83" t="n">
-        <v>0.02957413637951446</v>
+        <v>0.01128341804255423</v>
       </c>
       <c r="J83" t="n">
-        <v>0.02294551818968669</v>
+        <v>0.01619500930044936</v>
       </c>
       <c r="K83" t="n">
-        <v>0.02975102969628397</v>
+        <v>0.01528606958412614</v>
       </c>
       <c r="L83" t="n">
-        <v>0.05075800328528882</v>
+        <v>0.04078150563659039</v>
       </c>
       <c r="M83" t="n">
-        <v>0.02964608218781271</v>
+        <v>0.0150015803315852</v>
       </c>
       <c r="N83" t="n">
-        <v>0.07426945498205834</v>
+        <v>0.06372399174944393</v>
       </c>
       <c r="O83" t="n">
-        <v>0.02986155412549523</v>
+        <v>0.01499752800983642</v>
       </c>
     </row>
     <row r="84" ht="15" customHeight="1">
@@ -10011,28 +10011,28 @@
         </is>
       </c>
       <c r="F84" t="n">
-        <v>0.02273774959280623</v>
+        <v>0.01355802365987897</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03121714395615415</v>
+        <v>0.01209629923404826</v>
       </c>
       <c r="J84" t="n">
-        <v>0.02351509851777275</v>
+        <v>0.01672174231879602</v>
       </c>
       <c r="K84" t="n">
-        <v>0.03140386467941085</v>
+        <v>0.01613529567213315</v>
       </c>
       <c r="L84" t="n">
-        <v>0.05143016303023407</v>
+        <v>0.0423878507235381</v>
       </c>
       <c r="M84" t="n">
-        <v>0.0312930867538023</v>
+        <v>0.01583500146111771</v>
       </c>
       <c r="N84" t="n">
-        <v>0.07631564795470303</v>
+        <v>0.06580684977203544</v>
       </c>
       <c r="O84" t="n">
-        <v>0.03152052935468942</v>
+        <v>0.01583072401038289</v>
       </c>
     </row>
     <row r="85" ht="15" customHeight="1">
@@ -10051,28 +10051,28 @@
         <v/>
       </c>
       <c r="F85" t="n">
-        <v>0.02314057501643</v>
+        <v>0.01368324663078153</v>
       </c>
       <c r="G85" t="n">
-        <v>0.03286015153279384</v>
+        <v>0.01253713115839359</v>
       </c>
       <c r="J85" t="n">
-        <v>0.02397498058032582</v>
+        <v>0.01766034327869685</v>
       </c>
       <c r="K85" t="n">
-        <v>0.03305669966253774</v>
+        <v>0.01698452176014016</v>
       </c>
       <c r="L85" t="n">
-        <v>0.05265754444951778</v>
+        <v>0.04417063968299911</v>
       </c>
       <c r="M85" t="n">
-        <v>0.0329400913197919</v>
+        <v>0.01666842259065022</v>
       </c>
       <c r="N85" t="n">
-        <v>0.07941186133466244</v>
+        <v>0.06843859466908747</v>
       </c>
       <c r="O85" t="n">
-        <v>0.03317950458388359</v>
+        <v>0.01666392001092935</v>
       </c>
     </row>
     <row r="86" ht="15" customHeight="1">
@@ -10093,28 +10093,28 @@
         <v/>
       </c>
       <c r="F86" t="n">
-        <v>0.02246824981778093</v>
+        <v>0.0138591211258533</v>
       </c>
       <c r="G86" t="n">
-        <v>0.03450315910943353</v>
+        <v>0.01316398771631327</v>
       </c>
       <c r="J86" t="n">
-        <v>0.02451093476694065</v>
+        <v>0.01820608906706681</v>
       </c>
       <c r="K86" t="n">
-        <v>0.03470953464566463</v>
+        <v>0.01783374784814716</v>
       </c>
       <c r="L86" t="n">
-        <v>0.05343596401419121</v>
+        <v>0.04532191616447495</v>
       </c>
       <c r="M86" t="n">
-        <v>0.0345870958857815</v>
+        <v>0.01750184372018273</v>
       </c>
       <c r="N86" t="n">
-        <v>0.08060026045745111</v>
+        <v>0.07130861196947541</v>
       </c>
       <c r="O86" t="n">
-        <v>0.03483847981307777</v>
+        <v>0.01749711601147582</v>
       </c>
     </row>
     <row r="87" ht="15" customHeight="1">
@@ -10124,28 +10124,28 @@
         </is>
       </c>
       <c r="F87" t="n">
-        <v>0.02478548635188783</v>
+        <v>0.0140324307297585</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03614616668607323</v>
+        <v>0.01379084427423295</v>
       </c>
       <c r="J87" t="n">
-        <v>0.02494975525572461</v>
+        <v>0.01915425657082086</v>
       </c>
       <c r="K87" t="n">
-        <v>0.03636236962879151</v>
+        <v>0.01868297393615417</v>
       </c>
       <c r="L87" t="n">
-        <v>0.05424891099642232</v>
+        <v>0.04683372381746714</v>
       </c>
       <c r="M87" t="n">
-        <v>0.03623410045177109</v>
+        <v>0.01833526484971524</v>
       </c>
       <c r="N87" t="n">
-        <v>0.08242632359518015</v>
+        <v>0.07290628720207465</v>
       </c>
       <c r="O87" t="n">
-        <v>0.03649745504227195</v>
+        <v>0.01833031201202229</v>
       </c>
     </row>
     <row r="88" ht="15" customHeight="1">
@@ -10159,28 +10159,28 @@
       <c r="C88" s="139" t="n"/>
       <c r="D88" s="139" t="n"/>
       <c r="F88" t="n">
-        <v>0.02509156313147388</v>
+        <v>0.01420318381555993</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03778917426271292</v>
+        <v>0.01441770083215262</v>
       </c>
       <c r="J88" t="n">
-        <v>0.025175993694165</v>
+        <v>0.01970012267687399</v>
       </c>
       <c r="K88" t="n">
-        <v>0.0380152046119184</v>
+        <v>0.01953220002416118</v>
       </c>
       <c r="L88" t="n">
-        <v>0.0551390953649506</v>
+        <v>0.04879810629147724</v>
       </c>
       <c r="M88" t="n">
-        <v>0.03788110501776068</v>
+        <v>0.01916868597924775</v>
       </c>
       <c r="N88" t="n">
-        <v>0.08294005378320868</v>
+        <v>0.0758210058957608</v>
       </c>
       <c r="O88" t="n">
-        <v>0.03815643027146613</v>
+        <v>0.01916350801256876</v>
       </c>
     </row>
     <row r="89" ht="15" customHeight="1">
@@ -10193,4780 +10193,6180 @@
         <v/>
       </c>
       <c r="F89" t="n">
-        <v>0.02538433564077131</v>
+        <v>0.0143713887563204</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03943218183935261</v>
+        <v>0.01504455739007231</v>
       </c>
       <c r="J89" t="n">
-        <v>0.02559082407251735</v>
+        <v>0.02043896427214119</v>
       </c>
       <c r="K89" t="n">
-        <v>0.03966803959504529</v>
+        <v>0.02038142611216819</v>
       </c>
       <c r="L89" t="n">
-        <v>0.05560173674619656</v>
+        <v>0.05020710723600674</v>
       </c>
       <c r="M89" t="n">
-        <v>0.03952810958375028</v>
+        <v>0.02000210710878026</v>
       </c>
       <c r="N89" t="n">
-        <v>0.08412032825258536</v>
+        <v>0.07714215357940901</v>
       </c>
       <c r="O89" t="n">
-        <v>0.03981540550066032</v>
+        <v>0.01999670401311522</v>
       </c>
     </row>
     <row r="90" ht="15" customHeight="1">
       <c r="F90" t="n">
-        <v>0.02366165936401233</v>
+        <v>0.01453705392510268</v>
       </c>
       <c r="G90" t="n">
-        <v>0.0410751894159923</v>
+        <v>0.01567141394799199</v>
       </c>
       <c r="J90" t="n">
-        <v>0.02579201847684105</v>
+        <v>0.02136605824353742</v>
       </c>
       <c r="K90" t="n">
-        <v>0.04132087457817217</v>
+        <v>0.0212306522001752</v>
       </c>
       <c r="L90" t="n">
-        <v>0.0560320547665806</v>
+        <v>0.05125277030055717</v>
       </c>
       <c r="M90" t="n">
-        <v>0.04117511414973987</v>
+        <v>0.02083552823831277</v>
       </c>
       <c r="N90" t="n">
-        <v>0.08515962910696223</v>
+        <v>0.0795591157818949</v>
       </c>
       <c r="O90" t="n">
-        <v>0.04147438072985449</v>
+        <v>0.02082990001366169</v>
       </c>
     </row>
     <row r="91" ht="15" customHeight="1">
       <c r="F91" t="n">
-        <v>0.02492138978542916</v>
+        <v>0.01470018769496956</v>
       </c>
       <c r="G91" t="n">
-        <v>0.042718196992632</v>
+        <v>0.01629827050591166</v>
       </c>
       <c r="J91" t="n">
-        <v>0.02597734899319554</v>
+        <v>0.02207668147797767</v>
       </c>
       <c r="K91" t="n">
-        <v>0.04297370956129906</v>
+        <v>0.0220798782881822</v>
       </c>
       <c r="L91" t="n">
-        <v>0.05652526905252334</v>
+        <v>0.05232713913463011</v>
       </c>
       <c r="M91" t="n">
-        <v>0.04282211871572947</v>
+        <v>0.02166894936784529</v>
       </c>
       <c r="N91" t="n">
-        <v>0.0860504384499915</v>
+        <v>0.08156127803209368</v>
       </c>
       <c r="O91" t="n">
-        <v>0.04313335595904868</v>
+        <v>0.02166309601420816</v>
       </c>
     </row>
     <row r="92" ht="15" customHeight="1">
       <c r="F92" t="n">
-        <v>0.02416138238925402</v>
+        <v>0.01486079843898385</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04436120456927168</v>
+        <v>0.01692512706383134</v>
       </c>
       <c r="J92" t="n">
-        <v>0.02644458770764023</v>
+        <v>0.02256611086237688</v>
       </c>
       <c r="K92" t="n">
-        <v>0.04462654454442595</v>
+        <v>0.02292910437618921</v>
       </c>
       <c r="L92" t="n">
-        <v>0.05737659923044514</v>
+        <v>0.05352225738772698</v>
       </c>
       <c r="M92" t="n">
-        <v>0.04446912328171906</v>
+        <v>0.0225023704973778</v>
       </c>
       <c r="N92" t="n">
-        <v>0.08758523838532506</v>
+        <v>0.08343802585888094</v>
       </c>
       <c r="O92" t="n">
-        <v>0.04479233118824286</v>
+        <v>0.02249629201475463</v>
       </c>
     </row>
     <row r="93" ht="15" customHeight="1">
       <c r="F93" t="n">
-        <v>0.02537949265971914</v>
+        <v>0.01501889453020833</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04600421214591138</v>
+        <v>0.01755198362175102</v>
       </c>
       <c r="J93" t="n">
-        <v>0.02669150670623452</v>
+        <v>0.02322962328365007</v>
       </c>
       <c r="K93" t="n">
-        <v>0.04627937952755283</v>
+        <v>0.02377833046419622</v>
       </c>
       <c r="L93" t="n">
-        <v>0.05788126492676654</v>
+        <v>0.05503016870934938</v>
       </c>
       <c r="M93" t="n">
-        <v>0.04611612784770866</v>
+        <v>0.02333579162691031</v>
       </c>
       <c r="N93" t="n">
-        <v>0.08775651101661508</v>
+        <v>0.0849787447911321</v>
       </c>
       <c r="O93" t="n">
-        <v>0.04645130641743703</v>
+        <v>0.0233294880153011</v>
       </c>
     </row>
     <row r="94" ht="15" customHeight="1">
       <c r="F94" t="n">
-        <v>0.02557357608105675</v>
+        <v>0.0151744843417058</v>
       </c>
       <c r="G94" t="n">
-        <v>0.04764721972255107</v>
+        <v>0.0181788401796707</v>
       </c>
       <c r="J94" t="n">
-        <v>0.02671587807503786</v>
+        <v>0.0238624956287122</v>
       </c>
       <c r="K94" t="n">
-        <v>0.04793221451067972</v>
+        <v>0.02462755655220323</v>
       </c>
       <c r="L94" t="n">
-        <v>0.05823448576790802</v>
+        <v>0.05574291674899878</v>
       </c>
       <c r="M94" t="n">
-        <v>0.04776313241369825</v>
+        <v>0.02416921275644282</v>
       </c>
       <c r="N94" t="n">
-        <v>0.08855673844751355</v>
+        <v>0.08637282035772248</v>
       </c>
       <c r="O94" t="n">
-        <v>0.04811028164663121</v>
+        <v>0.02416268401584756</v>
       </c>
     </row>
     <row r="95" ht="15" customHeight="1">
       <c r="F95" t="n">
-        <v>0.02674148813749904</v>
+        <v>0.01532757624653903</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04929022729919076</v>
+        <v>0.01880569673759038</v>
       </c>
       <c r="J95" t="n">
-        <v>0.02711547390010964</v>
+        <v>0.02446000478447827</v>
       </c>
       <c r="K95" t="n">
-        <v>0.04958504949380661</v>
+        <v>0.02547678264021024</v>
       </c>
       <c r="L95" t="n">
-        <v>0.05863148138029001</v>
+        <v>0.05665254515617679</v>
       </c>
       <c r="M95" t="n">
-        <v>0.04941013697968785</v>
+        <v>0.02500263388597533</v>
       </c>
       <c r="N95" t="n">
-        <v>0.08957840278167273</v>
+        <v>0.08790963808752744</v>
       </c>
       <c r="O95" t="n">
-        <v>0.0497692568758254</v>
+        <v>0.02499588001639403</v>
       </c>
     </row>
     <row r="96" ht="15" customHeight="1">
       <c r="F96" t="n">
-        <v>0.02588108431327824</v>
+        <v>0.01547817861777086</v>
       </c>
       <c r="G96" t="n">
-        <v>0.05093323487583045</v>
+        <v>0.01943255329551006</v>
       </c>
       <c r="J96" t="n">
-        <v>0.02728806626750932</v>
+        <v>0.0250174276378632</v>
       </c>
       <c r="K96" t="n">
-        <v>0.0512378844769335</v>
+        <v>0.02632600872821724</v>
       </c>
       <c r="L96" t="n">
-        <v>0.05926747139033312</v>
+        <v>0.05795109758038486</v>
       </c>
       <c r="M96" t="n">
-        <v>0.05105714154567744</v>
+        <v>0.02583605501550784</v>
       </c>
       <c r="N96" t="n">
-        <v>0.09001398612274453</v>
+        <v>0.0884785835094225</v>
       </c>
       <c r="O96" t="n">
-        <v>0.05142823210501957</v>
+        <v>0.0258290760169405</v>
       </c>
     </row>
     <row r="97" ht="15" customHeight="1">
       <c r="F97" t="n">
-        <v>0.02599022009262657</v>
+        <v>0.01562629982846402</v>
       </c>
       <c r="G97" t="n">
-        <v>0.05257624245247015</v>
+        <v>0.02005940985342974</v>
       </c>
       <c r="J97" t="n">
-        <v>0.02733142726329625</v>
+        <v>0.02553004107578202</v>
       </c>
       <c r="K97" t="n">
-        <v>0.05289071946006038</v>
+        <v>0.02717523481622425</v>
       </c>
       <c r="L97" t="n">
-        <v>0.05953767542445773</v>
+        <v>0.05803061767112455</v>
       </c>
       <c r="M97" t="n">
-        <v>0.05270414611166704</v>
+        <v>0.02666947614504035</v>
       </c>
       <c r="N97" t="n">
-        <v>0.09115597057438091</v>
+        <v>0.0897690421522831</v>
       </c>
       <c r="O97" t="n">
-        <v>0.05308720733421375</v>
+        <v>0.02666227201748697</v>
       </c>
     </row>
     <row r="98" ht="15" customHeight="1">
       <c r="F98" t="n">
-        <v>0.02706675095977629</v>
+        <v>0.01577194825168135</v>
       </c>
       <c r="G98" t="n">
-        <v>0.05421925002910983</v>
+        <v>0.02068626641134942</v>
       </c>
       <c r="J98" t="n">
-        <v>0.02754332897352993</v>
+        <v>0.02599312198514969</v>
       </c>
       <c r="K98" t="n">
-        <v>0.05454355444318727</v>
+        <v>0.02802446090423126</v>
       </c>
       <c r="L98" t="n">
-        <v>0.05923731310908437</v>
+        <v>0.05868314907789732</v>
       </c>
       <c r="M98" t="n">
-        <v>0.05435115067765663</v>
+        <v>0.02750289727457286</v>
       </c>
       <c r="N98" t="n">
-        <v>0.09159683824023412</v>
+        <v>0.09067039954498451</v>
       </c>
       <c r="O98" t="n">
-        <v>0.05474618256340793</v>
+        <v>0.02749546801803343</v>
       </c>
     </row>
     <row r="99" ht="15" customHeight="1">
       <c r="F99" t="n">
-        <v>0.02711604731975793</v>
+        <v>0.01591513226048562</v>
       </c>
       <c r="G99" t="n">
-        <v>0.05586225760574953</v>
+        <v>0.0213131229692691</v>
       </c>
       <c r="J99" t="n">
-        <v>0.0275215434842697</v>
+        <v>0.02660194725288119</v>
       </c>
       <c r="K99" t="n">
-        <v>0.05619638942631415</v>
+        <v>0.02887368699223826</v>
       </c>
       <c r="L99" t="n">
-        <v>0.06000580492204047</v>
+        <v>0.05960073545020478</v>
       </c>
       <c r="M99" t="n">
-        <v>0.05599815524364622</v>
+        <v>0.02833631840410537</v>
       </c>
       <c r="N99" t="n">
-        <v>0.09142907122395616</v>
+        <v>0.09097204121640223</v>
       </c>
       <c r="O99" t="n">
-        <v>0.05640515779260211</v>
+        <v>0.0283286640185799</v>
       </c>
     </row>
     <row r="100" ht="15" customHeight="1">
       <c r="F100" t="n">
-        <v>0.02611477785865591</v>
+        <v>0.01605586022793963</v>
       </c>
       <c r="G100" t="n">
-        <v>0.05750526518238921</v>
+        <v>0.02193997952718878</v>
       </c>
       <c r="J100" t="n">
-        <v>0.02767105768882022</v>
+        <v>0.02675179376589147</v>
       </c>
       <c r="K100" t="n">
-        <v>0.05784922440944105</v>
+        <v>0.02972291308024528</v>
       </c>
       <c r="L100" t="n">
-        <v>0.05960576793552561</v>
+        <v>0.05937542043754843</v>
       </c>
       <c r="M100" t="n">
-        <v>0.05764515980963583</v>
+        <v>0.02916973953363788</v>
       </c>
       <c r="N100" t="n">
-        <v>0.09234055215526071</v>
+        <v>0.09136335269541168</v>
       </c>
       <c r="O100" t="n">
-        <v>0.05806413302179629</v>
+        <v>0.02916186001912637</v>
       </c>
     </row>
     <row r="101" ht="15" customHeight="1">
       <c r="F101" t="n">
-        <v>0.0250989546292418</v>
+        <v>0.01619414052710617</v>
       </c>
       <c r="G101" t="n">
-        <v>0.05914827275902891</v>
+        <v>0.02256683608510846</v>
       </c>
       <c r="J101" t="n">
-        <v>0.02766958141626777</v>
+        <v>0.02723793841109556</v>
       </c>
       <c r="K101" t="n">
-        <v>0.05950205939256793</v>
+        <v>0.03057213916825228</v>
       </c>
       <c r="L101" t="n">
-        <v>0.05968655781265722</v>
+        <v>0.06000580492204047</v>
       </c>
       <c r="M101" t="n">
-        <v>0.05929216437562542</v>
+        <v>0.03000316066317039</v>
       </c>
       <c r="N101" t="n">
-        <v>0.0920375615596149</v>
+        <v>0.09234055215526071</v>
       </c>
       <c r="O101" t="n">
-        <v>0.05972310825099047</v>
+        <v>0.02999505601967284</v>
       </c>
     </row>
     <row r="102" ht="15" customHeight="1">
       <c r="F102" t="n">
-        <v>0.02506593338044903</v>
+        <v>0.01632998153104803</v>
       </c>
       <c r="G102" t="n">
-        <v>0.0607912803356686</v>
+        <v>0.02319369264302814</v>
       </c>
       <c r="J102" t="n">
-        <v>0.02755282763549191</v>
+        <v>0.02735565807540837</v>
       </c>
       <c r="K102" t="n">
-        <v>0.06115489437569482</v>
+        <v>0.03142136525625929</v>
       </c>
       <c r="L102" t="n">
-        <v>0.05942808891188658</v>
+        <v>0.05970580492204047</v>
       </c>
       <c r="M102" t="n">
-        <v>0.06093916894161501</v>
+        <v>0.03083658179270291</v>
       </c>
       <c r="N102" t="n">
-        <v>0.09222070184257813</v>
+        <v>0.09154055215526069</v>
       </c>
       <c r="O102" t="n">
-        <v>0.06138208348018465</v>
+        <v>0.0308282520202193</v>
       </c>
     </row>
     <row r="103" ht="15" customHeight="1">
       <c r="F103" t="n">
-        <v>0.02501684433393164</v>
+        <v>0.01646339161282801</v>
       </c>
       <c r="G103" t="n">
-        <v>0.0624342879123083</v>
+        <v>0.02382054920094782</v>
       </c>
       <c r="J103" t="n">
-        <v>0.02751834946067559</v>
+        <v>0.02750022964574493</v>
       </c>
       <c r="K103" t="n">
-        <v>0.0628077293588217</v>
+        <v>0.0322705913442663</v>
       </c>
       <c r="L103" t="n">
-        <v>0.05973289946537266</v>
+        <v>0.05940580492204048</v>
       </c>
       <c r="M103" t="n">
-        <v>0.06258617350760461</v>
+        <v>0.03167000292223542</v>
       </c>
       <c r="N103" t="n">
-        <v>0.09144036586049653</v>
+        <v>0.09234055215526071</v>
       </c>
       <c r="O103" t="n">
-        <v>0.06304105870937883</v>
+        <v>0.03166144802076577</v>
       </c>
     </row>
     <row r="104" ht="15" customHeight="1">
       <c r="F104" t="n">
-        <v>0.02495281771134366</v>
+        <v>0.01659437914550889</v>
       </c>
       <c r="G104" t="n">
-        <v>0.06407729548894799</v>
+        <v>0.0244474057588675</v>
       </c>
       <c r="J104" t="n">
-        <v>0.02756732106671494</v>
+        <v>0.02767105768882022</v>
       </c>
       <c r="K104" t="n">
-        <v>0.06446056434194858</v>
+        <v>0.0331198174322733</v>
       </c>
       <c r="L104" t="n">
-        <v>0.05970350886785011</v>
+        <v>0.05960580492204046</v>
       </c>
       <c r="M104" t="n">
-        <v>0.0642331780735942</v>
+        <v>0.03250342405176793</v>
       </c>
       <c r="N104" t="n">
-        <v>0.09170202831216911</v>
+        <v>0.0919405521552607</v>
       </c>
       <c r="O104" t="n">
-        <v>0.064700033938573</v>
+        <v>0.03249464402131224</v>
       </c>
     </row>
     <row r="105" ht="15" customHeight="1">
       <c r="F105" t="n">
-        <v>0.02687498373433912</v>
+        <v>0.01672295250215346</v>
       </c>
       <c r="G105" t="n">
-        <v>0.06572030306558768</v>
+        <v>0.02507426231678718</v>
       </c>
       <c r="J105" t="n">
-        <v>0.02740091662850615</v>
+        <v>0.02757105768882022</v>
       </c>
       <c r="K105" t="n">
-        <v>0.06611339932507548</v>
+        <v>0.03396904352028032</v>
       </c>
       <c r="L105" t="n">
-        <v>0.05944243651405373</v>
+        <v>0.05940580492204048</v>
       </c>
       <c r="M105" t="n">
-        <v>0.0658801826395838</v>
+        <v>0.03333684518130044</v>
       </c>
       <c r="N105" t="n">
-        <v>0.09120965134577547</v>
+        <v>0.0914405521552607</v>
       </c>
       <c r="O105" t="n">
-        <v>0.06635900916776719</v>
+        <v>0.03332784002185871</v>
       </c>
     </row>
     <row r="106" ht="15" customHeight="1">
       <c r="F106" t="n">
-        <v>0.02678447262457203</v>
+        <v>0.01684912005582453</v>
       </c>
       <c r="G106" t="n">
-        <v>0.06736331064222738</v>
+        <v>0.02570111887470686</v>
       </c>
       <c r="J106" t="n">
-        <v>0.02722031032094535</v>
+        <v>0.02747105768882022</v>
       </c>
       <c r="K106" t="n">
-        <v>0.06776623430820236</v>
+        <v>0.03481826960828732</v>
       </c>
       <c r="L106" t="n">
-        <v>0.05875220179871826</v>
+        <v>0.05990580492204048</v>
       </c>
       <c r="M106" t="n">
-        <v>0.06752718720557339</v>
+        <v>0.03417026631083295</v>
       </c>
       <c r="N106" t="n">
-        <v>0.09086719710949487</v>
+        <v>0.09204055215526069</v>
       </c>
       <c r="O106" t="n">
-        <v>0.06801798439696137</v>
+        <v>0.03416103602240518</v>
       </c>
     </row>
     <row r="107" ht="15" customHeight="1">
       <c r="F107" t="n">
-        <v>0.02468241460369643</v>
+        <v>0.01697289017958489</v>
       </c>
       <c r="G107" t="n">
-        <v>0.06900631821886706</v>
+        <v>0.02632797543262654</v>
       </c>
       <c r="J107" t="n">
-        <v>0.02712667631892873</v>
+        <v>0.02757105768882022</v>
       </c>
       <c r="K107" t="n">
-        <v>0.06941906929132925</v>
+        <v>0.03566749569629433</v>
       </c>
       <c r="L107" t="n">
-        <v>0.05893532411657837</v>
+        <v>0.05940580492204048</v>
       </c>
       <c r="M107" t="n">
-        <v>0.06917419177156299</v>
+        <v>0.03500368744036546</v>
       </c>
       <c r="N107" t="n">
-        <v>0.09057862775150682</v>
+        <v>0.09164055215526073</v>
       </c>
       <c r="O107" t="n">
-        <v>0.06967695962615554</v>
+        <v>0.03499423202295165</v>
       </c>
     </row>
     <row r="108" ht="15" customHeight="1">
       <c r="F108" t="n">
-        <v>0.02656993989336633</v>
+        <v>0.01709427124649731</v>
       </c>
       <c r="G108" t="n">
-        <v>0.07064932579550676</v>
+        <v>0.02695483199054622</v>
       </c>
       <c r="J108" t="n">
-        <v>0.02712118879735244</v>
+        <v>0.02757105768882022</v>
       </c>
       <c r="K108" t="n">
-        <v>0.07107190427445613</v>
+        <v>0.03651672178430134</v>
       </c>
       <c r="L108" t="n">
-        <v>0.05869432286236881</v>
+        <v>0.05980580492204046</v>
       </c>
       <c r="M108" t="n">
-        <v>0.07082119633755257</v>
+        <v>0.03583710856989797</v>
       </c>
       <c r="N108" t="n">
-        <v>0.09014790541999096</v>
+        <v>0.0919405521552607</v>
       </c>
       <c r="O108" t="n">
-        <v>0.07133593485534973</v>
+        <v>0.03582742802349811</v>
       </c>
     </row>
     <row r="109" ht="15" customHeight="1">
       <c r="F109" t="n">
-        <v>0.02644817871523577</v>
+        <v>0.0172132716296246</v>
       </c>
       <c r="G109" t="n">
-        <v>0.07229233337214645</v>
+        <v>0.02758168854846589</v>
       </c>
       <c r="J109" t="n">
-        <v>0.02710502193111262</v>
+        <v>0.02757105768882022</v>
       </c>
       <c r="K109" t="n">
-        <v>0.07272473925758302</v>
+        <v>0.03736594787230835</v>
       </c>
       <c r="L109" t="n">
-        <v>0.05813171743082438</v>
+        <v>0.05990580492204048</v>
       </c>
       <c r="M109" t="n">
-        <v>0.07246820090354218</v>
+        <v>0.03667052969943048</v>
       </c>
       <c r="N109" t="n">
-        <v>0.09017899226312664</v>
+        <v>0.09154055215526069</v>
       </c>
       <c r="O109" t="n">
-        <v>0.07299491008454391</v>
+        <v>0.03666062402404458</v>
       </c>
     </row>
     <row r="110" ht="15" customHeight="1">
       <c r="F110" t="n">
-        <v>0.02431826129095877</v>
+        <v>0.01732989970202956</v>
       </c>
       <c r="G110" t="n">
-        <v>0.07393534094878614</v>
+        <v>0.02820854510638557</v>
       </c>
       <c r="J110" t="n">
-        <v>0.02687934989510549</v>
+        <v>0.02767105768882022</v>
       </c>
       <c r="K110" t="n">
-        <v>0.0743775742407099</v>
+        <v>0.03821517396031535</v>
       </c>
       <c r="L110" t="n">
-        <v>0.05835002721667976</v>
+        <v>0.05970580492204047</v>
       </c>
       <c r="M110" t="n">
-        <v>0.07411520546953178</v>
+        <v>0.03750395082896299</v>
       </c>
       <c r="N110" t="n">
-        <v>0.08947585042909328</v>
+        <v>0.09214055215526074</v>
       </c>
       <c r="O110" t="n">
-        <v>0.07465388531373808</v>
+        <v>0.03749382002459105</v>
       </c>
     </row>
     <row r="111" ht="15" customHeight="1">
       <c r="F111" t="n">
-        <v>0.02618131784218936</v>
+        <v>0.01744416383677497</v>
       </c>
       <c r="G111" t="n">
-        <v>0.07557834852542583</v>
+        <v>0.02883540166430525</v>
       </c>
       <c r="J111" t="n">
-        <v>0.02684534686422714</v>
+        <v>0.02767105768882022</v>
       </c>
       <c r="K111" t="n">
-        <v>0.0760304092238368</v>
+        <v>0.03906440004832237</v>
       </c>
       <c r="L111" t="n">
-        <v>0.05775177161466971</v>
+        <v>0.05960580492204046</v>
       </c>
       <c r="M111" t="n">
-        <v>0.07576221003552136</v>
+        <v>0.0383373719584955</v>
       </c>
       <c r="N111" t="n">
-        <v>0.08894244206607044</v>
+        <v>0.09184055215526071</v>
       </c>
       <c r="O111" t="n">
-        <v>0.07631286054293226</v>
+        <v>0.03832701602513752</v>
       </c>
     </row>
     <row r="112" ht="15" customHeight="1">
       <c r="F112" t="n">
-        <v>0.02403847859058155</v>
+        <v>0.0175560724069236</v>
       </c>
       <c r="G112" t="n">
-        <v>0.07722135610206553</v>
+        <v>0.02946225822222493</v>
       </c>
       <c r="J112" t="n">
-        <v>0.02650418701337377</v>
+        <v>0.02767105768882022</v>
       </c>
       <c r="K112" t="n">
-        <v>0.07768324420696368</v>
+        <v>0.03991362613632937</v>
       </c>
       <c r="L112" t="n">
-        <v>0.05763947001952896</v>
+        <v>0.05970580492204047</v>
       </c>
       <c r="M112" t="n">
-        <v>0.07740921460151096</v>
+        <v>0.03917079308802801</v>
       </c>
       <c r="N112" t="n">
-        <v>0.08868272932223764</v>
+        <v>0.09214055215526074</v>
       </c>
       <c r="O112" t="n">
-        <v>0.07797183577212645</v>
+        <v>0.03916021202568398</v>
       </c>
     </row>
     <row r="113" ht="15" customHeight="1">
       <c r="F113" t="n">
-        <v>0.02489087375778939</v>
+        <v>0.01766563378553829</v>
       </c>
       <c r="G113" t="n">
-        <v>0.07886436367870522</v>
+        <v>0.03008911478014462</v>
       </c>
       <c r="J113" t="n">
-        <v>0.02645704451744156</v>
+        <v>0.02747105768882022</v>
       </c>
       <c r="K113" t="n">
-        <v>0.07933607919009057</v>
+        <v>0.04076285222433638</v>
       </c>
       <c r="L113" t="n">
-        <v>0.05681564182599219</v>
+        <v>0.06000580492204047</v>
       </c>
       <c r="M113" t="n">
-        <v>0.07905621916750057</v>
+        <v>0.04000421421756053</v>
       </c>
       <c r="N113" t="n">
-        <v>0.08850067434577419</v>
+        <v>0.09174055215526072</v>
       </c>
       <c r="O113" t="n">
-        <v>0.07963081100132063</v>
+        <v>0.03999340802623045</v>
       </c>
     </row>
     <row r="114" ht="15" customHeight="1">
       <c r="F114" t="n">
-        <v>0.02373963356546688</v>
+        <v>0.0177728563456818</v>
       </c>
       <c r="G114" t="n">
-        <v>0.08050737125534491</v>
+        <v>0.03071597133806429</v>
       </c>
       <c r="J114" t="n">
-        <v>0.02620509355132665</v>
+        <v>0.02767105768882022</v>
       </c>
       <c r="K114" t="n">
-        <v>0.08098891417321745</v>
+        <v>0.04161207831234338</v>
       </c>
       <c r="L114" t="n">
-        <v>0.05698280642879419</v>
+        <v>0.05950580492204047</v>
       </c>
       <c r="M114" t="n">
-        <v>0.08070322373349015</v>
+        <v>0.04083763534709304</v>
       </c>
       <c r="N114" t="n">
-        <v>0.08790023928485968</v>
+        <v>0.09164055215526073</v>
       </c>
       <c r="O114" t="n">
-        <v>0.08128978623051482</v>
+        <v>0.04082660402677692</v>
       </c>
     </row>
     <row r="115" ht="15" customHeight="1">
       <c r="F115" t="n">
-        <v>0.02558588823526806</v>
+        <v>0.01787774846041693</v>
       </c>
       <c r="G115" t="n">
-        <v>0.0821503788319846</v>
+        <v>0.03134282789598397</v>
       </c>
       <c r="J115" t="n">
-        <v>0.02614950828992521</v>
+        <v>0.02747105768882022</v>
       </c>
       <c r="K115" t="n">
-        <v>0.08264174915634434</v>
+        <v>0.04246130440035039</v>
       </c>
       <c r="L115" t="n">
-        <v>0.05644348322266973</v>
+        <v>0.06000580492204047</v>
       </c>
       <c r="M115" t="n">
-        <v>0.08235022829947974</v>
+        <v>0.04167105647662555</v>
       </c>
       <c r="N115" t="n">
-        <v>0.08748538628767355</v>
+        <v>0.09154055215526069</v>
       </c>
       <c r="O115" t="n">
-        <v>0.08294876145970899</v>
+        <v>0.04165980002732338</v>
       </c>
     </row>
     <row r="116" ht="15" customHeight="1">
       <c r="F116" t="n">
-        <v>0.02343076798884696</v>
+        <v>0.01798031850280648</v>
       </c>
       <c r="G116" t="n">
-        <v>0.0837933864086243</v>
+        <v>0.03196968445390365</v>
       </c>
       <c r="J116" t="n">
-        <v>0.02609146290813338</v>
+        <v>0.02757105768882022</v>
       </c>
       <c r="K116" t="n">
-        <v>0.08429458413947123</v>
+        <v>0.0433105304883574</v>
       </c>
       <c r="L116" t="n">
-        <v>0.05620019160235346</v>
+        <v>0.06000580492204047</v>
       </c>
       <c r="M116" t="n">
-        <v>0.08399723286546934</v>
+        <v>0.04250447760615806</v>
       </c>
       <c r="N116" t="n">
-        <v>0.08726007750239534</v>
+        <v>0.0919405521552607</v>
       </c>
       <c r="O116" t="n">
-        <v>0.08460773668890317</v>
+        <v>0.04249299602786985</v>
       </c>
     </row>
     <row r="117" ht="15" customHeight="1">
       <c r="F117" t="n">
-        <v>0.0232754030478576</v>
+        <v>0.01808057484591322</v>
       </c>
       <c r="G117" t="n">
-        <v>0.08543639398526399</v>
+        <v>0.03259654101182333</v>
       </c>
       <c r="J117" t="n">
-        <v>0.02593213158084735</v>
+        <v>0.02767105768882022</v>
       </c>
       <c r="K117" t="n">
-        <v>0.08594741912259812</v>
+        <v>0.04415975657636441</v>
       </c>
       <c r="L117" t="n">
-        <v>0.05585545096258016</v>
+        <v>0.05970580492204047</v>
       </c>
       <c r="M117" t="n">
-        <v>0.08564423743145894</v>
+        <v>0.04333789873569057</v>
       </c>
       <c r="N117" t="n">
-        <v>0.08612827507720444</v>
+        <v>0.09234055215526071</v>
       </c>
       <c r="O117" t="n">
-        <v>0.08626671191809736</v>
+        <v>0.04332619202841632</v>
       </c>
     </row>
     <row r="118" ht="15" customHeight="1">
       <c r="F118" t="n">
-        <v>0.02512092363395401</v>
+        <v>0.01817852586279996</v>
       </c>
       <c r="G118" t="n">
-        <v>0.08707940156190368</v>
+        <v>0.033223397569743</v>
       </c>
       <c r="J118" t="n">
-        <v>0.02567268848296327</v>
+        <v>0.02757105768882022</v>
       </c>
       <c r="K118" t="n">
-        <v>0.087600254105725</v>
+        <v>0.04500898266437141</v>
       </c>
       <c r="L118" t="n">
-        <v>0.05531178069808457</v>
+        <v>0.05960580492204046</v>
       </c>
       <c r="M118" t="n">
-        <v>0.08729124199744853</v>
+        <v>0.04417131986522308</v>
       </c>
       <c r="N118" t="n">
-        <v>0.0860939411602803</v>
+        <v>0.09234055215526071</v>
       </c>
       <c r="O118" t="n">
-        <v>0.08792568714729153</v>
+        <v>0.04415938802896278</v>
       </c>
     </row>
     <row r="119" ht="15" customHeight="1">
       <c r="F119" t="n">
-        <v>0.02496779595553112</v>
+        <v>0.01827417992652949</v>
       </c>
       <c r="G119" t="n">
-        <v>0.08872240913854336</v>
+        <v>0.03385025412766268</v>
       </c>
       <c r="J119" t="n">
-        <v>0.0256143077893773</v>
+        <v>0.02767105768882022</v>
       </c>
       <c r="K119" t="n">
-        <v>0.08925308908885189</v>
+        <v>0.04585820875237843</v>
       </c>
       <c r="L119" t="n">
-        <v>0.05537170020360146</v>
+        <v>0.05940580492204048</v>
       </c>
       <c r="M119" t="n">
-        <v>0.08893824656343811</v>
+        <v>0.04500474099475559</v>
       </c>
       <c r="N119" t="n">
-        <v>0.08566103789980239</v>
+        <v>0.09164055215526073</v>
       </c>
       <c r="O119" t="n">
-        <v>0.08958466237648571</v>
+        <v>0.04499258402950925</v>
       </c>
     </row>
     <row r="120" ht="15" customHeight="1">
       <c r="F120" t="n">
-        <v>0.02279854600748026</v>
+        <v>0.0183675454101646</v>
       </c>
       <c r="G120" t="n">
-        <v>0.09036541671518306</v>
+        <v>0.03447711068558237</v>
       </c>
       <c r="J120" t="n">
-        <v>0.02525633672191344</v>
+        <v>0.02747105768882022</v>
       </c>
       <c r="K120" t="n">
-        <v>0.09090592407197877</v>
+        <v>0.04670743484038543</v>
       </c>
       <c r="L120" t="n">
-        <v>0.05471439960777902</v>
+        <v>0.05990580492204048</v>
       </c>
       <c r="M120" t="n">
-        <v>0.09058525112942772</v>
+        <v>0.0458381621242881</v>
       </c>
       <c r="N120" t="n">
-        <v>0.08453352744395032</v>
+        <v>0.09224055215526072</v>
       </c>
       <c r="O120" t="n">
-        <v>0.09124363760567988</v>
+        <v>0.04582578003005572</v>
       </c>
     </row>
     <row r="121" ht="15" customHeight="1">
       <c r="F121" t="n">
-        <v>0.02360773015449161</v>
+        <v>0.01845863068676807</v>
       </c>
       <c r="G121" t="n">
-        <v>0.09200842429182275</v>
+        <v>0.03510396724350204</v>
       </c>
       <c r="J121" t="n">
-        <v>0.02527922499319683</v>
+        <v>0.02747105768882022</v>
       </c>
       <c r="K121" t="n">
-        <v>0.09255875905510566</v>
+        <v>0.04755666092839244</v>
       </c>
       <c r="L121" t="n">
-        <v>0.05410688530424884</v>
+        <v>0.06000580492204047</v>
       </c>
       <c r="M121" t="n">
-        <v>0.09223225569541732</v>
+        <v>0.04667158325382061</v>
       </c>
       <c r="N121" t="n">
-        <v>0.08428263326128321</v>
+        <v>0.09204055215526069</v>
       </c>
       <c r="O121" t="n">
-        <v>0.09290261283487407</v>
+        <v>0.04665897603060219</v>
       </c>
     </row>
     <row r="122" ht="15" customHeight="1">
       <c r="F122" t="n">
-        <v>0.02439903079381524</v>
+        <v>0.01854744412940272</v>
       </c>
       <c r="G122" t="n">
-        <v>0.09365143186846243</v>
+        <v>0.03573082380142173</v>
       </c>
       <c r="J122" t="n">
-        <v>0.02488039204150586</v>
+        <v>0.02747105768882022</v>
       </c>
       <c r="K122" t="n">
-        <v>0.09421159403823255</v>
+        <v>0.04840588701639945</v>
       </c>
       <c r="L122" t="n">
-        <v>0.0541567546991325</v>
+        <v>0.05970580492204047</v>
       </c>
       <c r="M122" t="n">
-        <v>0.0938792602614069</v>
+        <v>0.04750500438335312</v>
       </c>
       <c r="N122" t="n">
-        <v>0.08335356970831281</v>
+        <v>0.09184055215526071</v>
       </c>
       <c r="O122" t="n">
-        <v>0.09456158806406825</v>
+        <v>0.04749217203114866</v>
       </c>
     </row>
     <row r="123" ht="15" customHeight="1">
       <c r="F123" t="n">
-        <v>0.02317613032270132</v>
+        <v>0.01863399411113132</v>
       </c>
       <c r="G123" t="n">
-        <v>0.09529443944510213</v>
+        <v>0.03635768035934141</v>
       </c>
       <c r="J123" t="n">
-        <v>0.02486366346900754</v>
+        <v>0.02767105768882022</v>
       </c>
       <c r="K123" t="n">
-        <v>0.09586442902135944</v>
+        <v>0.04925511310440645</v>
       </c>
       <c r="L123" t="n">
-        <v>0.05327221628163226</v>
+        <v>0.05980580492204046</v>
       </c>
       <c r="M123" t="n">
-        <v>0.0955262648273965</v>
+        <v>0.04833842551288563</v>
       </c>
       <c r="N123" t="n">
-        <v>0.08285755776980158</v>
+        <v>0.09224055215526072</v>
       </c>
       <c r="O123" t="n">
-        <v>0.09622056329326242</v>
+        <v>0.04832536803169513</v>
       </c>
     </row>
     <row r="124" ht="15" customHeight="1">
       <c r="F124" t="n">
-        <v>0.02294271113839991</v>
+        <v>0.01871828900501667</v>
       </c>
       <c r="G124" t="n">
-        <v>0.09693744702174183</v>
+        <v>0.03698453691726108</v>
       </c>
       <c r="J124" t="n">
-        <v>0.02453286487786878</v>
+        <v>0.02747105768882022</v>
       </c>
       <c r="K124" t="n">
-        <v>0.09751726400448632</v>
+        <v>0.05010433919241346</v>
       </c>
       <c r="L124" t="n">
-        <v>0.05276147854095029</v>
+        <v>0.06000580492204047</v>
       </c>
       <c r="M124" t="n">
-        <v>0.09717326939338611</v>
+        <v>0.04917184664241814</v>
       </c>
       <c r="N124" t="n">
-        <v>0.08220750659813475</v>
+        <v>0.09184055215526071</v>
       </c>
       <c r="O124" t="n">
-        <v>0.09787953852245661</v>
+        <v>0.04915856403224159</v>
       </c>
     </row>
     <row r="125" ht="15" customHeight="1">
       <c r="F125" t="n">
-        <v>0.02170245563816118</v>
+        <v>0.01880033718412157</v>
       </c>
       <c r="G125" t="n">
-        <v>0.09858045459838152</v>
+        <v>0.03761139347518076</v>
       </c>
       <c r="J125" t="n">
-        <v>0.02429182187025659</v>
+        <v>0.02767105768882022</v>
       </c>
       <c r="K125" t="n">
-        <v>0.09917009898761321</v>
+        <v>0.05095356528042047</v>
       </c>
       <c r="L125" t="n">
-        <v>0.05253274996628876</v>
+        <v>0.05990580492204048</v>
       </c>
       <c r="M125" t="n">
-        <v>0.09882027395937569</v>
+        <v>0.05000526777195066</v>
       </c>
       <c r="N125" t="n">
-        <v>0.08141632534569698</v>
+        <v>0.0919405521552607</v>
       </c>
       <c r="O125" t="n">
-        <v>0.09953851375165079</v>
+        <v>0.04999176003278807</v>
       </c>
     </row>
     <row r="126" ht="15" customHeight="1">
       <c r="F126" t="n">
-        <v>0.0224590462192352</v>
+        <v>0.01888014702150881</v>
       </c>
       <c r="G126" t="n">
-        <v>0.1002234621750212</v>
+        <v>0.03823825003310045</v>
       </c>
       <c r="J126" t="n">
-        <v>0.0239443600483379</v>
+        <v>0.02747105768882022</v>
       </c>
       <c r="K126" t="n">
-        <v>0.1008229339707401</v>
+        <v>0.05180279136842748</v>
       </c>
       <c r="L126" t="n">
-        <v>0.05159423904684984</v>
+        <v>0.05950580492204047</v>
       </c>
       <c r="M126" t="n">
-        <v>0.1004672785253653</v>
+        <v>0.05083868890148317</v>
       </c>
       <c r="N126" t="n">
-        <v>0.0809969231648735</v>
+        <v>0.09154055215526069</v>
       </c>
       <c r="O126" t="n">
-        <v>0.101197488980845</v>
+        <v>0.05082495603333453</v>
       </c>
     </row>
     <row r="127" ht="15" customHeight="1">
       <c r="F127" t="n">
-        <v>0.02321616527887211</v>
+        <v>0.01895772689024115</v>
       </c>
       <c r="G127" t="n">
-        <v>0.1018664697516609</v>
+        <v>0.03886510659102013</v>
       </c>
       <c r="J127" t="n">
-        <v>0.02379430501427966</v>
+        <v>0.02747105768882022</v>
       </c>
       <c r="K127" t="n">
-        <v>0.102475768953867</v>
+        <v>0.05265201745643449</v>
       </c>
       <c r="L127" t="n">
-        <v>0.05135415427183573</v>
+        <v>0.06000580492204047</v>
       </c>
       <c r="M127" t="n">
-        <v>0.1021142830913549</v>
+        <v>0.05167211003101568</v>
       </c>
       <c r="N127" t="n">
-        <v>0.07966220920804928</v>
+        <v>0.0919405521552607</v>
       </c>
       <c r="O127" t="n">
-        <v>0.1028564642100391</v>
+        <v>0.051658152033881</v>
       </c>
     </row>
     <row r="128" ht="15" customHeight="1">
       <c r="F128" t="n">
-        <v>0.02097749521432201</v>
+        <v>0.01903308516338142</v>
       </c>
       <c r="G128" t="n">
-        <v>0.1035094773283006</v>
+        <v>0.0394919631489398</v>
       </c>
       <c r="J128" t="n">
-        <v>0.02344548237024882</v>
+        <v>0.02767105768882022</v>
       </c>
       <c r="K128" t="n">
-        <v>0.1041286039369939</v>
+        <v>0.05350124354444149</v>
       </c>
       <c r="L128" t="n">
-        <v>0.05102070413044862</v>
+        <v>0.06000580492204047</v>
       </c>
       <c r="M128" t="n">
-        <v>0.1037612876573445</v>
+        <v>0.05250553116054819</v>
       </c>
       <c r="N128" t="n">
-        <v>0.07852509262760921</v>
+        <v>0.09234055215526071</v>
       </c>
       <c r="O128" t="n">
-        <v>0.1045154394392333</v>
+        <v>0.05249134803442747</v>
       </c>
     </row>
     <row r="129" ht="15" customHeight="1">
       <c r="F129" t="n">
-        <v>0.02174671842283504</v>
+        <v>0.0191062302139924</v>
       </c>
       <c r="G129" t="n">
-        <v>0.1051524849049403</v>
+        <v>0.04011881970685948</v>
       </c>
       <c r="J129" t="n">
-        <v>0.02330171771841237</v>
+        <v>0.02747105768882022</v>
       </c>
       <c r="K129" t="n">
-        <v>0.1057814389201208</v>
+        <v>0.0543504696324485</v>
       </c>
       <c r="L129" t="n">
-        <v>0.05050209711189069</v>
+        <v>0.05940580492204048</v>
       </c>
       <c r="M129" t="n">
-        <v>0.1054082922233341</v>
+        <v>0.0533389522900807</v>
       </c>
       <c r="N129" t="n">
-        <v>0.07779848257593841</v>
+        <v>0.0919405521552607</v>
       </c>
       <c r="O129" t="n">
-        <v>0.1061744146684275</v>
+        <v>0.05332454403497393</v>
       </c>
     </row>
     <row r="130" ht="15" customHeight="1">
       <c r="F130" t="n">
-        <v>0.02052676730594325</v>
+        <v>0.01917717041513688</v>
       </c>
       <c r="G130" t="n">
-        <v>0.10679549248158</v>
+        <v>0.04074567626477916</v>
       </c>
       <c r="J130" t="n">
-        <v>0.02306683666093723</v>
+        <v>0.02767105768882022</v>
       </c>
       <c r="K130" t="n">
-        <v>0.1074342739032476</v>
+        <v>0.05519969572045551</v>
       </c>
       <c r="L130" t="n">
-        <v>0.04950654170536406</v>
+        <v>0.05980580492204046</v>
       </c>
       <c r="M130" t="n">
-        <v>0.1070552967893237</v>
+        <v>0.05417237341961321</v>
       </c>
       <c r="N130" t="n">
-        <v>0.07769528820542171</v>
+        <v>0.09184055215526071</v>
       </c>
       <c r="O130" t="n">
-        <v>0.1078333898976217</v>
+        <v>0.05415774003552041</v>
       </c>
     </row>
     <row r="131" ht="15" customHeight="1">
       <c r="F131" t="n">
-        <v>0.02129522157450835</v>
+        <v>0.01924591413987765</v>
       </c>
       <c r="G131" t="n">
-        <v>0.1084385000582197</v>
+        <v>0.04137253282269884</v>
       </c>
       <c r="J131" t="n">
-        <v>0.02284142226487146</v>
+        <v>0.02747105768882022</v>
       </c>
       <c r="K131" t="n">
-        <v>0.1090871088863745</v>
+        <v>0.05604892180846251</v>
       </c>
       <c r="L131" t="n">
-        <v>0.0490087845055098</v>
+        <v>0.05990580492204048</v>
       </c>
       <c r="M131" t="n">
-        <v>0.1087023013553133</v>
+        <v>0.05500579454914573</v>
       </c>
       <c r="N131" t="n">
-        <v>0.07612841866844422</v>
+        <v>0.0919405521552607</v>
       </c>
       <c r="O131" t="n">
-        <v>0.1094923651268159</v>
+        <v>0.05499093603606687</v>
       </c>
     </row>
     <row r="132" ht="15" customHeight="1">
       <c r="F132" t="n">
-        <v>0.02004401807143925</v>
+        <v>0.01931246976127751</v>
       </c>
       <c r="G132" t="n">
-        <v>0.1100815076348594</v>
+        <v>0.04199938938061851</v>
       </c>
       <c r="J132" t="n">
-        <v>0.022499094987809</v>
+        <v>0.02747105768882022</v>
       </c>
       <c r="K132" t="n">
-        <v>0.1107399438695014</v>
+        <v>0.05689814789646953</v>
       </c>
       <c r="L132" t="n">
-        <v>0.04836431877719763</v>
+        <v>0.05980580492204046</v>
       </c>
       <c r="M132" t="n">
-        <v>0.1103493059213029</v>
+        <v>0.05583921567867824</v>
       </c>
       <c r="N132" t="n">
-        <v>0.07585438436323755</v>
+        <v>0.09154055215526069</v>
       </c>
       <c r="O132" t="n">
-        <v>0.11115134035601</v>
+        <v>0.05582413203661334</v>
       </c>
     </row>
     <row r="133" ht="15" customHeight="1">
       <c r="F133" t="n">
-        <v>0.01977842814947828</v>
+        <v>0.01937684565239924</v>
       </c>
       <c r="G133" t="n">
-        <v>0.1117245152114991</v>
+        <v>0.0426262459385382</v>
       </c>
       <c r="J133" t="n">
-        <v>0.02223761260180737</v>
+        <v>0.02757105768882022</v>
       </c>
       <c r="K133" t="n">
-        <v>0.1123927788526283</v>
+        <v>0.05774737398447653</v>
       </c>
       <c r="L133" t="n">
-        <v>0.04788409773483046</v>
+        <v>0.05980580492204046</v>
       </c>
       <c r="M133" t="n">
-        <v>0.1119963104872924</v>
+        <v>0.05667263680821075</v>
       </c>
       <c r="N133" t="n">
-        <v>0.07450761216365376</v>
+        <v>0.09154055215526069</v>
       </c>
       <c r="O133" t="n">
-        <v>0.1128103155852042</v>
+        <v>0.0566573280371598</v>
       </c>
     </row>
     <row r="134" ht="15" customHeight="1">
       <c r="F134" t="n">
-        <v>0.01950372316136776</v>
+        <v>0.01943905018630565</v>
       </c>
       <c r="G134" t="n">
-        <v>0.1133675227881387</v>
+        <v>0.04325310249645788</v>
       </c>
       <c r="J134" t="n">
-        <v>0.02196245145748928</v>
+        <v>0.02747105768882022</v>
       </c>
       <c r="K134" t="n">
-        <v>0.1140456138357552</v>
+        <v>0.05859660007248354</v>
       </c>
       <c r="L134" t="n">
-        <v>0.04717987183310599</v>
+        <v>0.05950580492204047</v>
       </c>
       <c r="M134" t="n">
-        <v>0.1136433150532821</v>
+        <v>0.05750605793774326</v>
       </c>
       <c r="N134" t="n">
-        <v>0.07360589309227239</v>
+        <v>0.09224055215526072</v>
       </c>
       <c r="O134" t="n">
-        <v>0.1144692908143984</v>
+        <v>0.05749052403770628</v>
       </c>
     </row>
     <row r="135" ht="15" customHeight="1">
       <c r="F135" t="n">
-        <v>0.02022517445984996</v>
+        <v>0.01949909173605952</v>
       </c>
       <c r="G135" t="n">
-        <v>0.1150105303647784</v>
+        <v>0.04387995905437756</v>
       </c>
       <c r="J135" t="n">
-        <v>0.02167908790547744</v>
+        <v>0.02767105768882022</v>
       </c>
       <c r="K135" t="n">
-        <v>0.1156984488188821</v>
+        <v>0.05944582616049055</v>
       </c>
       <c r="L135" t="n">
-        <v>0.04696339152672177</v>
+        <v>0.05990580492204048</v>
       </c>
       <c r="M135" t="n">
-        <v>0.1152903196192717</v>
+        <v>0.05833947906727577</v>
       </c>
       <c r="N135" t="n">
-        <v>0.07326770660451437</v>
+        <v>0.09174055215526072</v>
       </c>
       <c r="O135" t="n">
-        <v>0.1161282660435926</v>
+        <v>0.05832372003825274</v>
       </c>
     </row>
     <row r="136" ht="15" customHeight="1">
       <c r="F136" t="n">
-        <v>0.02094805339766718</v>
+        <v>0.01955697867472365</v>
       </c>
       <c r="G136" t="n">
-        <v>0.1166535379414181</v>
+        <v>0.04450681561229724</v>
       </c>
       <c r="J136" t="n">
-        <v>0.02139299829639459</v>
+        <v>0.02757105768882022</v>
       </c>
       <c r="K136" t="n">
-        <v>0.117351283802009</v>
+        <v>0.06029505224849755</v>
       </c>
       <c r="L136" t="n">
-        <v>0.04614640727037542</v>
+        <v>0.05950580492204047</v>
       </c>
       <c r="M136" t="n">
-        <v>0.1169373241852612</v>
+        <v>0.05917290019680828</v>
       </c>
       <c r="N136" t="n">
-        <v>0.07201153215580036</v>
+        <v>0.0914405521552607</v>
       </c>
       <c r="O136" t="n">
-        <v>0.1177872412727868</v>
+        <v>0.05915691603879921</v>
       </c>
     </row>
     <row r="137" ht="15" customHeight="1">
       <c r="F137" t="n">
-        <v>0.01867763132756173</v>
+        <v>0.01961271937536081</v>
       </c>
       <c r="G137" t="n">
-        <v>0.1182965455180578</v>
+        <v>0.04513367217021692</v>
       </c>
       <c r="J137" t="n">
-        <v>0.02130965898086343</v>
+        <v>0.02747105768882022</v>
       </c>
       <c r="K137" t="n">
-        <v>0.1190041187851359</v>
+        <v>0.06114427833650456</v>
       </c>
       <c r="L137" t="n">
-        <v>0.0453406695187645</v>
+        <v>0.06000580492204047</v>
       </c>
       <c r="M137" t="n">
-        <v>0.1185843287512508</v>
+        <v>0.06000632132634079</v>
       </c>
       <c r="N137" t="n">
-        <v>0.07145584920155146</v>
+        <v>0.09234055215526071</v>
       </c>
       <c r="O137" t="n">
-        <v>0.1194462165019809</v>
+        <v>0.05999011203934567</v>
       </c>
     </row>
     <row r="138" ht="15" customHeight="1">
       <c r="F138" t="n">
-        <v>0.01841917960227592</v>
+        <v>0.01966632221103381</v>
       </c>
       <c r="G138" t="n">
-        <v>0.1199395530946975</v>
+        <v>0.04576052872813659</v>
       </c>
       <c r="J138" t="n">
-        <v>0.02103454630950664</v>
+        <v>0.02757105768882022</v>
       </c>
       <c r="K138" t="n">
-        <v>0.1206569537682627</v>
+        <v>0.06199350442451158</v>
       </c>
       <c r="L138" t="n">
-        <v>0.04515792872658672</v>
+        <v>0.05960580492204046</v>
       </c>
       <c r="M138" t="n">
-        <v>0.1202313333172404</v>
+        <v>0.0608397424558733</v>
       </c>
       <c r="N138" t="n">
-        <v>0.0703191371971883</v>
+        <v>0.09214055215526074</v>
       </c>
       <c r="O138" t="n">
-        <v>0.1211051917311751</v>
+        <v>0.06082330803989214</v>
       </c>
     </row>
     <row r="139" ht="15" customHeight="1">
       <c r="F139" t="n">
-        <v>0.01917796957455205</v>
+        <v>0.01971779555480547</v>
       </c>
       <c r="G139" t="n">
-        <v>0.1215825606713372</v>
+        <v>0.04638738528605628</v>
       </c>
       <c r="J139" t="n">
-        <v>0.02057313663294699</v>
+        <v>0.02747105768882022</v>
       </c>
       <c r="K139" t="n">
-        <v>0.1223097887513896</v>
+        <v>0.06284273051251858</v>
       </c>
       <c r="L139" t="n">
-        <v>0.04430993534853966</v>
+        <v>0.06000580492204047</v>
       </c>
       <c r="M139" t="n">
-        <v>0.12187833788323</v>
+        <v>0.06167316358540581</v>
       </c>
       <c r="N139" t="n">
-        <v>0.06901987559813216</v>
+        <v>0.09164055215526073</v>
       </c>
       <c r="O139" t="n">
-        <v>0.1227641669603693</v>
+        <v>0.0616565040404386</v>
       </c>
     </row>
     <row r="140" ht="15" customHeight="1">
       <c r="F140" t="n">
-        <v>0.01895927259713243</v>
+        <v>0.01976714777973852</v>
       </c>
       <c r="G140" t="n">
-        <v>0.1232255682479769</v>
+        <v>0.04701424184397596</v>
       </c>
       <c r="J140" t="n">
-        <v>0.02033090630180713</v>
+        <v>0.02757105768882022</v>
       </c>
       <c r="K140" t="n">
-        <v>0.1239626237345165</v>
+        <v>0.06369195660052558</v>
       </c>
       <c r="L140" t="n">
-        <v>0.04370843983932091</v>
+        <v>0.05940580492204048</v>
       </c>
       <c r="M140" t="n">
-        <v>0.1235253424492196</v>
+        <v>0.06250658471493832</v>
       </c>
       <c r="N140" t="n">
-        <v>0.0679765438598034</v>
+        <v>0.0914405521552607</v>
       </c>
       <c r="O140" t="n">
-        <v>0.1244231421895635</v>
+        <v>0.06248970004098508</v>
       </c>
     </row>
     <row r="141" ht="15" customHeight="1">
       <c r="F141" t="n">
-        <v>0.01976836002275933</v>
+        <v>0.0198143872588958</v>
       </c>
       <c r="G141" t="n">
-        <v>0.1248685758246166</v>
+        <v>0.04764109840189563</v>
       </c>
       <c r="J141" t="n">
-        <v>0.02031333166670983</v>
+        <v>0.02757105768882022</v>
       </c>
       <c r="K141" t="n">
-        <v>0.1256154587176434</v>
+        <v>0.06454118268853259</v>
       </c>
       <c r="L141" t="n">
-        <v>0.04386519265362804</v>
+        <v>0.06000580492204047</v>
       </c>
       <c r="M141" t="n">
-        <v>0.1251723470152092</v>
+        <v>0.06334000584447083</v>
       </c>
       <c r="N141" t="n">
-        <v>0.06760762143762317</v>
+        <v>0.09204055215526069</v>
       </c>
       <c r="O141" t="n">
-        <v>0.1260821174187577</v>
+        <v>0.06332289604153155</v>
       </c>
     </row>
     <row r="142" ht="15" customHeight="1">
       <c r="F142" t="n">
-        <v>0.01861050320417507</v>
+        <v>0.01985952236534009</v>
       </c>
       <c r="G142" t="n">
-        <v>0.1265115834012563</v>
+        <v>0.04826795495981531</v>
       </c>
       <c r="J142" t="n">
-        <v>0.01992588907827776</v>
+        <v>0.02757105768882022</v>
       </c>
       <c r="K142" t="n">
-        <v>0.1272682937007703</v>
+        <v>0.06539040877653961</v>
       </c>
       <c r="L142" t="n">
-        <v>0.04339194424615872</v>
+        <v>0.05970580492204047</v>
       </c>
       <c r="M142" t="n">
-        <v>0.1268193515811988</v>
+        <v>0.06417342697400334</v>
       </c>
       <c r="N142" t="n">
-        <v>0.06713158778701228</v>
+        <v>0.0919405521552607</v>
       </c>
       <c r="O142" t="n">
-        <v>0.1277410926479518</v>
+        <v>0.06415609204207802</v>
       </c>
     </row>
     <row r="143" ht="15" customHeight="1">
       <c r="F143" t="n">
-        <v>0.01949097349412197</v>
+        <v>0.01990256147213417</v>
       </c>
       <c r="G143" t="n">
-        <v>0.128154590977896</v>
+        <v>0.04889481151773499</v>
       </c>
       <c r="J143" t="n">
-        <v>0.01977405488713364</v>
+        <v>0.02747105768882022</v>
       </c>
       <c r="K143" t="n">
-        <v>0.1289211286838972</v>
+        <v>0.06623963486454661</v>
       </c>
       <c r="L143" t="n">
-        <v>0.04290044507161056</v>
+        <v>0.05980580492204046</v>
       </c>
       <c r="M143" t="n">
-        <v>0.1284663561471884</v>
+        <v>0.06500684810353585</v>
       </c>
       <c r="N143" t="n">
-        <v>0.06616692236339167</v>
+        <v>0.09174055215526072</v>
       </c>
       <c r="O143" t="n">
-        <v>0.129400067877146</v>
+        <v>0.06498928804262448</v>
       </c>
     </row>
     <row r="144" ht="15" customHeight="1">
       <c r="F144" t="n">
-        <v>0.01941504224534229</v>
+        <v>0.01994351295234085</v>
       </c>
       <c r="G144" t="n">
-        <v>0.1297975985545357</v>
+        <v>0.04952166807565467</v>
       </c>
       <c r="J144" t="n">
-        <v>0.01966330544390023</v>
+        <v>0.02757105768882022</v>
       </c>
       <c r="K144" t="n">
-        <v>0.1305739636670241</v>
+        <v>0.06708886095255362</v>
       </c>
       <c r="L144" t="n">
-        <v>0.04300244558468114</v>
+        <v>0.05940580492204048</v>
       </c>
       <c r="M144" t="n">
-        <v>0.130113360713178</v>
+        <v>0.06584026923306836</v>
       </c>
       <c r="N144" t="n">
-        <v>0.06563210462218205</v>
+        <v>0.09224055215526072</v>
       </c>
       <c r="O144" t="n">
-        <v>0.1310590431063402</v>
+        <v>0.06582248404317095</v>
       </c>
     </row>
     <row r="145" ht="15" customHeight="1">
       <c r="F145" t="n">
-        <v>0.01738798081057836</v>
+        <v>0.01998238517902291</v>
       </c>
       <c r="G145" t="n">
-        <v>0.1314406061311754</v>
+        <v>0.05014852463357435</v>
       </c>
       <c r="J145" t="n">
-        <v>0.01979911709920017</v>
+        <v>0.02757105768882022</v>
       </c>
       <c r="K145" t="n">
-        <v>0.132226798650151</v>
+        <v>0.06793808704056063</v>
       </c>
       <c r="L145" t="n">
-        <v>0.0429096962400681</v>
+        <v>0.05950580492204047</v>
       </c>
       <c r="M145" t="n">
-        <v>0.1317603652791676</v>
+        <v>0.06667369036260089</v>
       </c>
       <c r="N145" t="n">
-        <v>0.06584561401880445</v>
+        <v>0.09234055215526071</v>
       </c>
       <c r="O145" t="n">
-        <v>0.1327180183355344</v>
+        <v>0.06665568004371741</v>
       </c>
     </row>
     <row r="146" ht="15" customHeight="1">
       <c r="F146" t="n">
-        <v>0.01739174006117652</v>
+        <v>0.02001918652524313</v>
       </c>
       <c r="G146" t="n">
-        <v>0.1330836137078151</v>
+        <v>0.05077538119149403</v>
       </c>
       <c r="J146" t="n">
-        <v>0.01978511697983512</v>
+        <v>0.02747105768882022</v>
       </c>
       <c r="K146" t="n">
-        <v>0.1338796336332778</v>
+        <v>0.06878731312856763</v>
       </c>
       <c r="L146" t="n">
-        <v>0.04260835119485359</v>
+        <v>0.05950580492204047</v>
       </c>
       <c r="M146" t="n">
-        <v>0.1334073698451572</v>
+        <v>0.06750711149213338</v>
       </c>
       <c r="N146" t="n">
-        <v>0.0653259300086797</v>
+        <v>0.09224055215526072</v>
       </c>
       <c r="O146" t="n">
-        <v>0.1343769935647285</v>
+        <v>0.06748887604426389</v>
       </c>
     </row>
     <row r="147" ht="15" customHeight="1">
       <c r="F147" t="n">
-        <v>0.01940303131600132</v>
+        <v>0.02005392536406434</v>
       </c>
       <c r="G147" t="n">
-        <v>0.1347266212844548</v>
+        <v>0.05140223774941372</v>
       </c>
       <c r="J147" t="n">
-        <v>0.01959131967119165</v>
+        <v>0.02767105768882022</v>
       </c>
       <c r="K147" t="n">
-        <v>0.1355324686164047</v>
+        <v>0.06963653921657464</v>
       </c>
       <c r="L147" t="n">
-        <v>0.04242871400050038</v>
+        <v>0.05940439805951681</v>
       </c>
       <c r="M147" t="n">
-        <v>0.1350543744111468</v>
+        <v>0.06834053262166589</v>
       </c>
       <c r="N147" t="n">
-        <v>0.06513301742887406</v>
+        <v>0.09153822652664217</v>
       </c>
       <c r="O147" t="n">
-        <v>0.1360359687939227</v>
+        <v>0.06832207204481036</v>
       </c>
     </row>
     <row r="148" ht="15" customHeight="1">
       <c r="F148" t="n">
-        <v>0.01942146127919297</v>
+        <v>0.02008661006854932</v>
       </c>
       <c r="G148" t="n">
-        <v>0.1363696288610944</v>
+        <v>0.05202909430733339</v>
       </c>
       <c r="J148" t="n">
-        <v>0.01960517452520365</v>
+        <v>0.02757105768882022</v>
       </c>
       <c r="K148" t="n">
-        <v>0.1371853035995316</v>
+        <v>0.07048576530458166</v>
       </c>
       <c r="L148" t="n">
-        <v>0.0425651963521653</v>
+        <v>0.05999932588147788</v>
       </c>
       <c r="M148" t="n">
-        <v>0.1367013789771364</v>
+        <v>0.06917395375119841</v>
       </c>
       <c r="N148" t="n">
-        <v>0.06576849611335922</v>
+        <v>0.09143024757823437</v>
       </c>
       <c r="O148" t="n">
-        <v>0.1376949440231169</v>
+        <v>0.06915526804535682</v>
       </c>
     </row>
     <row r="149" ht="15" customHeight="1">
       <c r="F149" t="n">
-        <v>0.01944664261367215</v>
+        <v>0.02011724901176081</v>
       </c>
       <c r="G149" t="n">
-        <v>0.1380126364377341</v>
+        <v>0.05265595086525308</v>
       </c>
       <c r="J149" t="n">
-        <v>0.01962627914162218</v>
+        <v>0.02767065157645628</v>
       </c>
       <c r="K149" t="n">
-        <v>0.1388381385826585</v>
+        <v>0.07133499139258866</v>
       </c>
       <c r="L149" t="n">
-        <v>0.04281693483071758</v>
+        <v>0.05939069352557272</v>
       </c>
       <c r="M149" t="n">
-        <v>0.138348383543126</v>
+        <v>0.07000737488073092</v>
       </c>
       <c r="N149" t="n">
-        <v>0.06572893091563814</v>
+        <v>0.09231679978597868</v>
       </c>
       <c r="O149" t="n">
-        <v>0.1393539192523111</v>
+        <v>0.0699884640459033</v>
       </c>
     </row>
     <row r="150" ht="15" customHeight="1">
       <c r="F150" t="n">
-        <v>0.01847818798235953</v>
+        <v>0.02014585056676167</v>
       </c>
       <c r="G150" t="n">
-        <v>0.1396556440143738</v>
+        <v>0.05328280742317275</v>
       </c>
       <c r="J150" t="n">
-        <v>0.01965423112019839</v>
+        <v>0.02746856169542658</v>
       </c>
       <c r="K150" t="n">
-        <v>0.1404909735657854</v>
+        <v>0.07218421748059567</v>
       </c>
       <c r="L150" t="n">
-        <v>0.04278306601702631</v>
+        <v>0.05937864236251617</v>
       </c>
       <c r="M150" t="n">
-        <v>0.1399953881091156</v>
+        <v>0.07084079601026343</v>
       </c>
       <c r="N150" t="n">
-        <v>0.06581296397205777</v>
+        <v>0.0913981005234083</v>
       </c>
       <c r="O150" t="n">
-        <v>0.1410128944815053</v>
+        <v>0.07082166004644976</v>
       </c>
     </row>
     <row r="151" ht="15" customHeight="1">
       <c r="F151" t="n">
-        <v>0.01751571004817582</v>
+        <v>0.02017242310661466</v>
       </c>
       <c r="G151" t="n">
-        <v>0.1412986515910135</v>
+        <v>0.05390966398109243</v>
       </c>
       <c r="J151" t="n">
-        <v>0.01978862806068334</v>
+        <v>0.02746475625896774</v>
       </c>
       <c r="K151" t="n">
-        <v>0.1421438085489123</v>
+        <v>0.07303344356860268</v>
       </c>
       <c r="L151" t="n">
-        <v>0.04276272649196056</v>
+        <v>0.05966331376302317</v>
       </c>
       <c r="M151" t="n">
-        <v>0.1416423926751051</v>
+        <v>0.07167421713979594</v>
       </c>
       <c r="N151" t="n">
-        <v>0.06621923741896546</v>
+        <v>0.09217436716405686</v>
       </c>
       <c r="O151" t="n">
-        <v>0.1426718697106995</v>
+        <v>0.07165485604699623</v>
       </c>
     </row>
     <row r="152" ht="15" customHeight="1">
       <c r="F152" t="n">
-        <v>0.01955882147404168</v>
+        <v>0.02019697500438259</v>
       </c>
       <c r="G152" t="n">
-        <v>0.1429416591676532</v>
+        <v>0.0545365205390121</v>
       </c>
       <c r="J152" t="n">
-        <v>0.01982906756282815</v>
+        <v>0.02755930423837931</v>
       </c>
       <c r="K152" t="n">
-        <v>0.1437966435320392</v>
+        <v>0.07388266965660968</v>
       </c>
       <c r="L152" t="n">
-        <v>0.04315505283638957</v>
+        <v>0.05994484909780859</v>
       </c>
       <c r="M152" t="n">
-        <v>0.1432893972410948</v>
+        <v>0.07250763826932845</v>
       </c>
       <c r="N152" t="n">
-        <v>0.06644639339270814</v>
+        <v>0.0914458170814576</v>
       </c>
       <c r="O152" t="n">
-        <v>0.1443308449398936</v>
+        <v>0.07248805204754269</v>
       </c>
     </row>
     <row r="153" ht="15" customHeight="1">
       <c r="F153" t="n">
-        <v>0.01860713492287778</v>
+        <v>0.02021951463312825</v>
       </c>
       <c r="G153" t="n">
-        <v>0.1445846667442929</v>
+        <v>0.05516337709693179</v>
       </c>
       <c r="J153" t="n">
-        <v>0.01977514722638392</v>
+        <v>0.02765227460496084</v>
       </c>
       <c r="K153" t="n">
-        <v>0.145449478515166</v>
+        <v>0.07473189574461669</v>
       </c>
       <c r="L153" t="n">
-        <v>0.04335918163118244</v>
+        <v>0.05942338973758735</v>
       </c>
       <c r="M153" t="n">
-        <v>0.1449364018070844</v>
+        <v>0.07334105939886096</v>
       </c>
       <c r="N153" t="n">
-        <v>0.06589307402963313</v>
+        <v>0.09141266764914396</v>
       </c>
       <c r="O153" t="n">
-        <v>0.1459898201690878</v>
+        <v>0.07332124804808916</v>
       </c>
     </row>
     <row r="154" ht="15" customHeight="1">
       <c r="F154" t="n">
-        <v>0.01866026305760483</v>
+        <v>0.02024005036591441</v>
       </c>
       <c r="G154" t="n">
-        <v>0.1462276743209326</v>
+        <v>0.05579023365485146</v>
       </c>
       <c r="J154" t="n">
-        <v>0.01982646465110176</v>
+        <v>0.02754373633001188</v>
       </c>
       <c r="K154" t="n">
-        <v>0.1471023134982929</v>
+        <v>0.07558112183262371</v>
       </c>
       <c r="L154" t="n">
-        <v>0.04347424945720826</v>
+        <v>0.05979907705307438</v>
       </c>
       <c r="M154" t="n">
-        <v>0.1465834063730739</v>
+        <v>0.07417448052839347</v>
       </c>
       <c r="N154" t="n">
-        <v>0.06655792146608758</v>
+        <v>0.09137513624064952</v>
       </c>
       <c r="O154" t="n">
-        <v>0.147648795398282</v>
+        <v>0.07415444404863562</v>
       </c>
     </row>
     <row r="155" ht="15" customHeight="1">
       <c r="F155" t="n">
-        <v>0.01971781854114348</v>
+        <v>0.02025859057580388</v>
       </c>
       <c r="G155" t="n">
-        <v>0.1478706818975723</v>
+        <v>0.05641709021277114</v>
       </c>
       <c r="J155" t="n">
-        <v>0.01988261743673275</v>
+        <v>0.02763375838483204</v>
       </c>
       <c r="K155" t="n">
-        <v>0.1487551484814198</v>
+        <v>0.07643034792063071</v>
       </c>
       <c r="L155" t="n">
-        <v>0.04339939289533623</v>
+        <v>0.05957205241498456</v>
       </c>
       <c r="M155" t="n">
-        <v>0.1482304109390636</v>
+        <v>0.07500790165792598</v>
       </c>
       <c r="N155" t="n">
-        <v>0.06693957783841847</v>
+        <v>0.09153344022950749</v>
       </c>
       <c r="O155" t="n">
-        <v>0.1493077706274762</v>
+        <v>0.0749876400491821</v>
       </c>
     </row>
     <row r="156" ht="15" customHeight="1">
       <c r="F156" t="n">
-        <v>0.01977941403641446</v>
+        <v>0.02027514363585942</v>
       </c>
       <c r="G156" t="n">
-        <v>0.149513689474212</v>
+        <v>0.05704394677069083</v>
       </c>
       <c r="J156" t="n">
-        <v>0.02014320318302804</v>
+        <v>0.02742240974072081</v>
       </c>
       <c r="K156" t="n">
-        <v>0.1504079834645467</v>
+        <v>0.07727957400863772</v>
       </c>
       <c r="L156" t="n">
-        <v>0.04373374852643544</v>
+        <v>0.05924245719403282</v>
       </c>
       <c r="M156" t="n">
-        <v>0.1498774155050532</v>
+        <v>0.07584132278745849</v>
       </c>
       <c r="N156" t="n">
-        <v>0.06673668528297311</v>
+        <v>0.09208779698925135</v>
       </c>
       <c r="O156" t="n">
-        <v>0.1509667458566704</v>
+        <v>0.07582083604972856</v>
       </c>
     </row>
     <row r="157" ht="15" customHeight="1">
       <c r="F157" t="n">
-        <v>0.0198446721639125</v>
+        <v>0.02028971791914386</v>
       </c>
       <c r="G157" t="n">
-        <v>0.1511566970508517</v>
+        <v>0.0576708033286105</v>
       </c>
       <c r="J157" t="n">
-        <v>0.02010781948973868</v>
+        <v>0.02750975936897783</v>
       </c>
       <c r="K157" t="n">
-        <v>0.1520608184476736</v>
+        <v>0.07812880009664473</v>
       </c>
       <c r="L157" t="n">
-        <v>0.04377645293137505</v>
+        <v>0.05961043276093403</v>
       </c>
       <c r="M157" t="n">
-        <v>0.1515244200710427</v>
+        <v>0.076674743916991</v>
       </c>
       <c r="N157" t="n">
-        <v>0.06694788593609863</v>
+        <v>0.09173842389341447</v>
       </c>
       <c r="O157" t="n">
-        <v>0.1526257210858645</v>
+        <v>0.07665403205027503</v>
       </c>
     </row>
     <row r="158" ht="15" customHeight="1">
       <c r="F158" t="n">
-        <v>0.01994679100871753</v>
+        <v>0.02030232179872</v>
       </c>
       <c r="G158" t="n">
-        <v>0.1527997046274913</v>
+        <v>0.05829765988653018</v>
       </c>
       <c r="J158" t="n">
-        <v>0.02008110756932237</v>
+        <v>0.0273958762409026</v>
       </c>
       <c r="K158" t="n">
-        <v>0.1537136534308005</v>
+        <v>0.07897802618465173</v>
       </c>
       <c r="L158" t="n">
-        <v>0.04376871004703725</v>
+        <v>0.05947612048640316</v>
       </c>
       <c r="M158" t="n">
-        <v>0.1531714246370323</v>
+        <v>0.07750816504652351</v>
       </c>
       <c r="N158" t="n">
-        <v>0.06687182193414221</v>
+        <v>0.09158553831553023</v>
       </c>
       <c r="O158" t="n">
-        <v>0.1542846963150587</v>
+        <v>0.07748722805082149</v>
       </c>
     </row>
     <row r="159" ht="15" customHeight="1">
       <c r="F159" t="n">
-        <v>0.01810912213009739</v>
+        <v>0.0203129636476506</v>
       </c>
       <c r="G159" t="n">
-        <v>0.1544427122041311</v>
+        <v>0.05892451644444986</v>
       </c>
       <c r="J159" t="n">
-        <v>0.02031013796884899</v>
+        <v>0.02758082932779472</v>
       </c>
       <c r="K159" t="n">
-        <v>0.1553664884139274</v>
+        <v>0.07982725227265874</v>
       </c>
       <c r="L159" t="n">
-        <v>0.0437969987395769</v>
+        <v>0.05923966174115503</v>
       </c>
       <c r="M159" t="n">
-        <v>0.1548184292030219</v>
+        <v>0.07834158617605602</v>
       </c>
       <c r="N159" t="n">
-        <v>0.06741718186484019</v>
+        <v>0.09192935762913224</v>
       </c>
       <c r="O159" t="n">
-        <v>0.1559436715442529</v>
+        <v>0.07832042405136797</v>
       </c>
     </row>
     <row r="160" ht="15" customHeight="1">
       <c r="F160" t="n">
-        <v>0.01831997275649886</v>
+        <v>0.02032165183899848</v>
       </c>
       <c r="G160" t="n">
-        <v>0.1560857197807707</v>
+        <v>0.05955137300236955</v>
       </c>
       <c r="J160" t="n">
-        <v>0.02049685881852167</v>
+        <v>0.02746468760095375</v>
       </c>
       <c r="K160" t="n">
-        <v>0.1570193233970543</v>
+        <v>0.08067647836066574</v>
       </c>
       <c r="L160" t="n">
-        <v>0.04443982221761725</v>
+        <v>0.05960119789590465</v>
       </c>
       <c r="M160" t="n">
-        <v>0.1564654337690115</v>
+        <v>0.07917500730558853</v>
       </c>
       <c r="N160" t="n">
-        <v>0.06817240240512668</v>
+        <v>0.0917700992077537</v>
       </c>
       <c r="O160" t="n">
-        <v>0.1576026467734471</v>
+        <v>0.07915362005191443</v>
       </c>
     </row>
     <row r="161" ht="15" customHeight="1">
       <c r="F161" t="n">
-        <v>0.02056765011636869</v>
+        <v>0.02032839474582641</v>
       </c>
       <c r="G161" t="n">
-        <v>0.1577287273574104</v>
+        <v>0.06017822956028923</v>
       </c>
       <c r="J161" t="n">
-        <v>0.02072912262605382</v>
+        <v>0.02744752003167923</v>
       </c>
       <c r="K161" t="n">
-        <v>0.1586721583801811</v>
+        <v>0.08152570444867276</v>
       </c>
       <c r="L161" t="n">
-        <v>0.04497111594153388</v>
+        <v>0.05936087032136686</v>
       </c>
       <c r="M161" t="n">
-        <v>0.1581124383350011</v>
+        <v>0.08000842843512106</v>
       </c>
       <c r="N161" t="n">
-        <v>0.06909651320592686</v>
+        <v>0.09160798042492813</v>
       </c>
       <c r="O161" t="n">
-        <v>0.1592616220026413</v>
+        <v>0.0799868160524609</v>
       </c>
     </row>
     <row r="162" ht="15" customHeight="1">
       <c r="F162" t="n">
-        <v>0.01984046143815355</v>
+        <v>0.02033320074119718</v>
       </c>
       <c r="G162" t="n">
-        <v>0.1593717349340501</v>
+        <v>0.0608050861182089</v>
       </c>
       <c r="J162" t="n">
-        <v>0.02099478189915888</v>
+        <v>0.02742939559127074</v>
       </c>
       <c r="K162" t="n">
-        <v>0.160324993363308</v>
+        <v>0.08237493053667977</v>
       </c>
       <c r="L162" t="n">
-        <v>0.04596481537170238</v>
+        <v>0.05911882038825655</v>
       </c>
       <c r="M162" t="n">
-        <v>0.1597594429009907</v>
+        <v>0.08084184956465357</v>
       </c>
       <c r="N162" t="n">
-        <v>0.06944852364088194</v>
+        <v>0.09134321865418882</v>
       </c>
       <c r="O162" t="n">
-        <v>0.1609205972318354</v>
+        <v>0.08082001205300737</v>
       </c>
     </row>
     <row r="163" ht="15" customHeight="1">
       <c r="F163" t="n">
-        <v>0.02012671395030027</v>
+        <v>0.02033607819817359</v>
       </c>
       <c r="G163" t="n">
-        <v>0.1610147425106898</v>
+        <v>0.06143194267612859</v>
       </c>
       <c r="J163" t="n">
-        <v>0.02118168914555024</v>
+        <v>0.02741038325102782</v>
       </c>
       <c r="K163" t="n">
-        <v>0.1619778283464349</v>
+        <v>0.08322415662468677</v>
       </c>
       <c r="L163" t="n">
-        <v>0.04629485596849828</v>
+        <v>0.05927518946728871</v>
       </c>
       <c r="M163" t="n">
-        <v>0.1614064474669803</v>
+        <v>0.08167527069418608</v>
       </c>
       <c r="N163" t="n">
-        <v>0.07078744308363322</v>
+        <v>0.09107603126906927</v>
       </c>
       <c r="O163" t="n">
-        <v>0.1625795724610296</v>
+        <v>0.08165320805355383</v>
       </c>
     </row>
     <row r="164" ht="15" customHeight="1">
       <c r="F164" t="n">
-        <v>0.02041471488125553</v>
+        <v>0.02033703548981845</v>
       </c>
       <c r="G164" t="n">
-        <v>0.1626577500873295</v>
+        <v>0.06205879923404826</v>
       </c>
       <c r="J164" t="n">
-        <v>0.02157769687294138</v>
+        <v>0.02739055198225007</v>
       </c>
       <c r="K164" t="n">
-        <v>0.1636306633295618</v>
+        <v>0.08407338271269378</v>
       </c>
       <c r="L164" t="n">
-        <v>0.04683517319229713</v>
+        <v>0.05893011892917815</v>
       </c>
       <c r="M164" t="n">
-        <v>0.1630534520329699</v>
+        <v>0.08250869182371859</v>
       </c>
       <c r="N164" t="n">
-        <v>0.07127228090782184</v>
+        <v>0.09080663564310282</v>
       </c>
       <c r="O164" t="n">
-        <v>0.1642385476902238</v>
+        <v>0.08248640405410031</v>
       </c>
     </row>
     <row r="165" ht="15" customHeight="1">
       <c r="F165" t="n">
-        <v>0.02069277145946607</v>
+        <v>0.02033703548981845</v>
       </c>
       <c r="G165" t="n">
-        <v>0.1643007576639692</v>
+        <v>0.06205879923404826</v>
       </c>
       <c r="J165" t="n">
-        <v>0.02187065758904565</v>
+        <v>0.02736997075623702</v>
       </c>
       <c r="K165" t="n">
-        <v>0.1652834983126887</v>
+        <v>0.08492260880070078</v>
       </c>
       <c r="L165" t="n">
-        <v>0.04725970250347455</v>
+        <v>0.05908375014463982</v>
       </c>
       <c r="M165" t="n">
-        <v>0.1647004565989595</v>
+        <v>0.0833421129532511</v>
       </c>
       <c r="N165" t="n">
-        <v>0.07286204648708922</v>
+        <v>0.09153524914982303</v>
       </c>
       <c r="O165" t="n">
-        <v>0.165897522919418</v>
+        <v>0.08331960005464677</v>
       </c>
     </row>
     <row r="166" ht="15" customHeight="1">
       <c r="F166" t="n">
-        <v>0.01994919091337865</v>
+        <v>0.01986655446722486</v>
       </c>
       <c r="G166" t="n">
-        <v>0.1659437652406089</v>
+        <v>0.06205853070558424</v>
       </c>
       <c r="J166" t="n">
-        <v>0.02224842380157653</v>
+        <v>0.02724870854428825</v>
       </c>
       <c r="K166" t="n">
-        <v>0.1669363332958156</v>
+        <v>0.08577183488870779</v>
       </c>
       <c r="L166" t="n">
-        <v>0.047942379362406</v>
+        <v>0.05883622448438869</v>
       </c>
       <c r="M166" t="n">
-        <v>0.1663474611649491</v>
+        <v>0.08417553408278361</v>
       </c>
       <c r="N166" t="n">
-        <v>0.07301574919507636</v>
+        <v>0.09096208916276322</v>
       </c>
       <c r="O166" t="n">
-        <v>0.1675564981486122</v>
+        <v>0.08415279605519324</v>
       </c>
     </row>
     <row r="167" ht="15" customHeight="1">
       <c r="F167" t="n">
-        <v>0.02117233095148709</v>
+        <v>0.01940151129940808</v>
       </c>
       <c r="G167" t="n">
-        <v>0.1675867728172486</v>
+        <v>0.06205826217712023</v>
       </c>
       <c r="J167" t="n">
-        <v>0.02249884801824743</v>
+        <v>0.02722683431770331</v>
       </c>
       <c r="K167" t="n">
-        <v>0.1685891682789425</v>
+        <v>0.08662106097671481</v>
       </c>
       <c r="L167" t="n">
-        <v>0.04885713922946719</v>
+        <v>0.05928768331913956</v>
       </c>
       <c r="M167" t="n">
-        <v>0.1679944657309387</v>
+        <v>0.08500895521231612</v>
       </c>
       <c r="N167" t="n">
-        <v>0.07479239840542473</v>
+        <v>0.09048737305545668</v>
       </c>
       <c r="O167" t="n">
-        <v>0.1692154733778063</v>
+        <v>0.0849859920557397</v>
       </c>
     </row>
     <row r="168" ht="15" customHeight="1">
       <c r="F168" t="n">
-        <v>0.02037421053672716</v>
+        <v>0.01894248489393377</v>
       </c>
       <c r="G168" t="n">
-        <v>0.1692297803938883</v>
+        <v>0.0620579936486562</v>
       </c>
       <c r="J168" t="n">
-        <v>0.02261452388492149</v>
+        <v>0.02740441704778178</v>
       </c>
       <c r="K168" t="n">
-        <v>0.1702420032620694</v>
+        <v>0.08747028706472181</v>
       </c>
       <c r="L168" t="n">
-        <v>0.0490091655149088</v>
+        <v>0.05893826801960736</v>
       </c>
       <c r="M168" t="n">
-        <v>0.1696414702969283</v>
+        <v>0.08584237634184863</v>
       </c>
       <c r="N168" t="n">
-        <v>0.07465193566799039</v>
+        <v>0.09041131820143694</v>
       </c>
       <c r="O168" t="n">
-        <v>0.1708744486070005</v>
+        <v>0.08581918805628617</v>
       </c>
     </row>
     <row r="169" ht="15" customHeight="1">
       <c r="F169" t="n">
-        <v>0.02257105308905239</v>
+        <v>0.01849005415842738</v>
       </c>
       <c r="G169" t="n">
-        <v>0.170872787970528</v>
+        <v>0.06205772512019219</v>
       </c>
       <c r="J169" t="n">
-        <v>0.02271950414819048</v>
+        <v>0.02718152570582322</v>
       </c>
       <c r="K169" t="n">
-        <v>0.1718948382451962</v>
+        <v>0.08831951315272882</v>
       </c>
       <c r="L169" t="n">
-        <v>0.04934834592390699</v>
+        <v>0.05878811995650704</v>
       </c>
       <c r="M169" t="n">
-        <v>0.1712884748629179</v>
+        <v>0.08667579747138114</v>
       </c>
       <c r="N169" t="n">
-        <v>0.07624480803093753</v>
+        <v>0.09053414197423748</v>
       </c>
       <c r="O169" t="n">
-        <v>0.1725334238361947</v>
+        <v>0.08665238405683263</v>
       </c>
     </row>
     <row r="170" ht="15" customHeight="1">
       <c r="F170" t="n">
-        <v>0.0217632295383692</v>
+        <v>0.0180447980004543</v>
       </c>
       <c r="G170" t="n">
-        <v>0.1725157955471677</v>
+        <v>0.06205745659172818</v>
       </c>
       <c r="J170" t="n">
-        <v>0.02311944800301048</v>
+        <v>0.02735822926312716</v>
       </c>
       <c r="K170" t="n">
-        <v>0.1735476732283231</v>
+        <v>0.08916873924073583</v>
       </c>
       <c r="L170" t="n">
-        <v>0.05017695966411637</v>
+        <v>0.05893738050055353</v>
       </c>
       <c r="M170" t="n">
-        <v>0.1729354794289074</v>
+        <v>0.08750921860091365</v>
       </c>
       <c r="N170" t="n">
-        <v>0.07672029116265727</v>
+        <v>0.09035606174739153</v>
       </c>
       <c r="O170" t="n">
-        <v>0.1741923990653889</v>
+        <v>0.08748558005737911</v>
       </c>
     </row>
     <row r="171" ht="15" customHeight="1">
       <c r="F171" t="n">
-        <v>0.02195111081458396</v>
+        <v>0.01760729532759999</v>
       </c>
       <c r="G171" t="n">
-        <v>0.1741588031238074</v>
+        <v>0.06205718806326416</v>
       </c>
       <c r="J171" t="n">
-        <v>0.02311474080439817</v>
+        <v>0.02723459669099321</v>
       </c>
       <c r="K171" t="n">
-        <v>0.17520050821145</v>
+        <v>0.09001796532874283</v>
       </c>
       <c r="L171" t="n">
-        <v>0.05049583358118248</v>
+        <v>0.05878619102246169</v>
       </c>
       <c r="M171" t="n">
-        <v>0.1745824839948971</v>
+        <v>0.08834263973044616</v>
       </c>
       <c r="N171" t="n">
-        <v>0.07707968540919047</v>
+        <v>0.09037729489443264</v>
       </c>
       <c r="O171" t="n">
-        <v>0.1758513742945831</v>
+        <v>0.08831877605792557</v>
       </c>
     </row>
     <row r="172" ht="15" customHeight="1">
       <c r="F172" t="n">
-        <v>0.02213506784760303</v>
+        <v>0.01717812504743147</v>
       </c>
       <c r="G172" t="n">
-        <v>0.175801810700447</v>
+        <v>0.06205691953480014</v>
       </c>
       <c r="J172" t="n">
-        <v>0.02330576790737021</v>
+        <v>0.02731069696072089</v>
       </c>
       <c r="K172" t="n">
-        <v>0.1768533431945769</v>
+        <v>0.09086719141674984</v>
       </c>
       <c r="L172" t="n">
-        <v>0.0511057945207509</v>
+        <v>0.05893469289294639</v>
       </c>
       <c r="M172" t="n">
-        <v>0.1762294885608867</v>
+        <v>0.08917606085997867</v>
       </c>
       <c r="N172" t="n">
-        <v>0.07802429111657855</v>
+        <v>0.09029805878889413</v>
       </c>
       <c r="O172" t="n">
-        <v>0.1775103495237772</v>
+        <v>0.08915197205847204</v>
       </c>
     </row>
     <row r="173" ht="15" customHeight="1">
       <c r="F173" t="n">
-        <v>0.02131547156733283</v>
+        <v>0.0167578660675716</v>
       </c>
       <c r="G173" t="n">
-        <v>0.1774448182770867</v>
+        <v>0.06205665100633612</v>
       </c>
       <c r="J173" t="n">
-        <v>0.02359291466694327</v>
+        <v>0.02718659904360979</v>
       </c>
       <c r="K173" t="n">
-        <v>0.1785061781777038</v>
+        <v>0.09171641750475686</v>
       </c>
       <c r="L173" t="n">
-        <v>0.051107669328467</v>
+        <v>0.0587816861641462</v>
       </c>
       <c r="M173" t="n">
-        <v>0.1778764931268762</v>
+        <v>0.09000948198951118</v>
       </c>
       <c r="N173" t="n">
-        <v>0.07855540863086208</v>
+        <v>0.09031627085066896</v>
       </c>
       <c r="O173" t="n">
-        <v>0.1791693247529714</v>
+        <v>0.0899851680590185</v>
       </c>
     </row>
     <row r="174" ht="15" customHeight="1">
       <c r="F174" t="n">
-        <v>0.02249269290367973</v>
+        <v>0.01634709729558698</v>
       </c>
       <c r="G174" t="n">
-        <v>0.1790878258537264</v>
+        <v>0.0620563824778721</v>
       </c>
       <c r="J174" t="n">
-        <v>0.02377656643813394</v>
+        <v>0.02726237191095945</v>
       </c>
       <c r="K174" t="n">
-        <v>0.1801590131608307</v>
+        <v>0.09256564359276385</v>
       </c>
       <c r="L174" t="n">
-        <v>0.05180228484997645</v>
+        <v>0.05871738081613959</v>
       </c>
       <c r="M174" t="n">
-        <v>0.1795234976928659</v>
+        <v>0.09084290311904369</v>
       </c>
       <c r="N174" t="n">
-        <v>0.07867433829808235</v>
+        <v>0.09041685894261403</v>
       </c>
       <c r="O174" t="n">
-        <v>0.1808282999821656</v>
+        <v>0.09081836405956498</v>
       </c>
     </row>
     <row r="175" ht="15" customHeight="1">
       <c r="F175" t="n">
-        <v>0.0216671027865501</v>
+        <v>0.01594639763906312</v>
       </c>
       <c r="G175" t="n">
-        <v>0.1807308334303661</v>
+        <v>0.06205611394940809</v>
       </c>
       <c r="J175" t="n">
-        <v>0.02405710857595893</v>
+        <v>0.02703629122062705</v>
       </c>
       <c r="K175" t="n">
-        <v>0.1818118481439575</v>
+        <v>0.09341486968077087</v>
       </c>
       <c r="L175" t="n">
-        <v>0.05199046793092463</v>
+        <v>0.05884098641346439</v>
       </c>
       <c r="M175" t="n">
-        <v>0.1811705022588554</v>
+        <v>0.0916763242485762</v>
       </c>
       <c r="N175" t="n">
-        <v>0.0800823804642804</v>
+        <v>0.09049890870182775</v>
       </c>
       <c r="O175" t="n">
-        <v>0.1824872752113598</v>
+        <v>0.09165156006011144</v>
       </c>
     </row>
     <row r="176" ht="15" customHeight="1">
       <c r="F176" t="n">
-        <v>0.02183907214585034</v>
+        <v>0.01555634600556876</v>
       </c>
       <c r="G176" t="n">
-        <v>0.1823738410070058</v>
+        <v>0.06205584542094406</v>
       </c>
       <c r="J176" t="n">
-        <v>0.02413492643543487</v>
+        <v>0.02720417348727187</v>
       </c>
       <c r="K176" t="n">
-        <v>0.1834646831270844</v>
+        <v>0.09426409576877787</v>
       </c>
       <c r="L176" t="n">
-        <v>0.05207304541695715</v>
+        <v>0.05865397346429232</v>
       </c>
       <c r="M176" t="n">
-        <v>0.182817506824845</v>
+        <v>0.09250974537810872</v>
       </c>
       <c r="N176" t="n">
-        <v>0.08008083547549705</v>
+        <v>0.08966468120166871</v>
       </c>
       <c r="O176" t="n">
-        <v>0.184146250440554</v>
+        <v>0.09248475606065791</v>
       </c>
     </row>
     <row r="177" ht="15" customHeight="1">
       <c r="F177" t="n">
-        <v>0.02400897191148681</v>
+        <v>0.01517752130272336</v>
       </c>
       <c r="G177" t="n">
-        <v>0.1840168485836455</v>
+        <v>0.06205557689248005</v>
       </c>
       <c r="J177" t="n">
-        <v>0.02421040537157843</v>
+        <v>0.0271665007372954</v>
       </c>
       <c r="K177" t="n">
-        <v>0.1851175181102113</v>
+        <v>0.09511332185678488</v>
       </c>
       <c r="L177" t="n">
-        <v>0.05295084415371945</v>
+        <v>0.05825781247679512</v>
       </c>
       <c r="M177" t="n">
-        <v>0.1844645113908346</v>
+        <v>0.09334316650764123</v>
       </c>
       <c r="N177" t="n">
-        <v>0.0807710036777734</v>
+        <v>0.08971643751549568</v>
       </c>
       <c r="O177" t="n">
-        <v>0.1858052256697481</v>
+        <v>0.09331795206120438</v>
       </c>
     </row>
     <row r="178" ht="15" customHeight="1">
       <c r="F178" t="n">
-        <v>0.02317717301336591</v>
+        <v>0.01481050243809519</v>
       </c>
       <c r="G178" t="n">
-        <v>0.1856598561602852</v>
+        <v>0.06205530836401604</v>
       </c>
       <c r="J178" t="n">
-        <v>0.02448393073940626</v>
+        <v>0.0269239903955171</v>
       </c>
       <c r="K178" t="n">
-        <v>0.1867703530933382</v>
+        <v>0.09596254794479189</v>
       </c>
       <c r="L178" t="n">
-        <v>0.05322469098685703</v>
+        <v>0.0584539739591444</v>
       </c>
       <c r="M178" t="n">
-        <v>0.1861115159568242</v>
+        <v>0.09417658763717374</v>
       </c>
       <c r="N178" t="n">
-        <v>0.08145418541715055</v>
+        <v>0.08955643871666752</v>
       </c>
       <c r="O178" t="n">
-        <v>0.1874642008989423</v>
+        <v>0.09415114806175084</v>
       </c>
     </row>
     <row r="179" ht="15" customHeight="1">
       <c r="F179" t="n">
-        <v>0.02434903080703279</v>
+        <v>0.01445586831926975</v>
       </c>
       <c r="G179" t="n">
-        <v>0.1873028637369249</v>
+        <v>0.06205503983555202</v>
       </c>
       <c r="J179" t="n">
-        <v>0.02475669466876283</v>
+        <v>0.02687735988675644</v>
       </c>
       <c r="K179" t="n">
-        <v>0.1884231880764651</v>
+        <v>0.09681177403279889</v>
       </c>
       <c r="L179" t="n">
-        <v>0.05340180195242383</v>
+        <v>0.05804392841951186</v>
       </c>
       <c r="M179" t="n">
-        <v>0.1877585205228138</v>
+        <v>0.09501000876670625</v>
       </c>
       <c r="N179" t="n">
-        <v>0.0815316810396694</v>
+        <v>0.09008694587854288</v>
       </c>
       <c r="O179" t="n">
-        <v>0.1891231761281365</v>
+        <v>0.09498434406229732</v>
       </c>
     </row>
     <row r="180" ht="15" customHeight="1">
       <c r="F180" t="n">
-        <v>0.02353061862199863</v>
+        <v>0.01411419785381792</v>
       </c>
       <c r="G180" t="n">
-        <v>0.1889458713135646</v>
+        <v>0.062054771307088</v>
       </c>
       <c r="J180" t="n">
-        <v>0.02493873881803725</v>
+        <v>0.02682732663583284</v>
       </c>
       <c r="K180" t="n">
-        <v>0.190076023059592</v>
+        <v>0.0976610001208059</v>
       </c>
       <c r="L180" t="n">
-        <v>0.05360121595473366</v>
+        <v>0.05792914636606925</v>
       </c>
       <c r="M180" t="n">
-        <v>0.1894055250888034</v>
+        <v>0.09584342989623876</v>
       </c>
       <c r="N180" t="n">
-        <v>0.08262945003835248</v>
+        <v>0.0893102200744807</v>
       </c>
       <c r="O180" t="n">
-        <v>0.1907821513573307</v>
+        <v>0.09581754006284378</v>
       </c>
     </row>
     <row r="181" ht="15" customHeight="1">
       <c r="F181" t="n">
-        <v>0.02371582394664742</v>
+        <v>0.01378606994935497</v>
       </c>
       <c r="G181" t="n">
-        <v>0.1905888788902043</v>
+        <v>0.06205450277862398</v>
       </c>
       <c r="J181" t="n">
-        <v>0.02512782500682269</v>
+        <v>0.02687460806756582</v>
       </c>
       <c r="K181" t="n">
-        <v>0.1917288580427189</v>
+        <v>0.0985102262088129</v>
       </c>
       <c r="L181" t="n">
-        <v>0.05441156971428832</v>
+        <v>0.05801109830698822</v>
       </c>
       <c r="M181" t="n">
-        <v>0.191052529654793</v>
+        <v>0.09667685102577127</v>
       </c>
       <c r="N181" t="n">
-        <v>0.08335783861895518</v>
+        <v>0.0888285223778395</v>
       </c>
       <c r="O181" t="n">
-        <v>0.1924411265865248</v>
+        <v>0.09665073606339025</v>
       </c>
     </row>
     <row r="182" ht="15" customHeight="1">
       <c r="F182" t="n">
-        <v>0.02489827485940706</v>
+        <v>0.01347206351345122</v>
       </c>
       <c r="G182" t="n">
-        <v>0.192231886466844</v>
+        <v>0.06205423425015997</v>
       </c>
       <c r="J182" t="n">
-        <v>0.02521733351559459</v>
+        <v>0.02681992160677475</v>
       </c>
       <c r="K182" t="n">
-        <v>0.1933816930258458</v>
+        <v>0.09935945229681992</v>
       </c>
       <c r="L182" t="n">
-        <v>0.05481865948122902</v>
+        <v>0.05779125475044042</v>
       </c>
       <c r="M182" t="n">
-        <v>0.1926995342207826</v>
+        <v>0.09751027215530378</v>
       </c>
       <c r="N182" t="n">
-        <v>0.08409450917611655</v>
+        <v>0.08944411386197826</v>
       </c>
       <c r="O182" t="n">
-        <v>0.194100101815719</v>
+        <v>0.09748393206393673</v>
       </c>
     </row>
     <row r="183" ht="15" customHeight="1">
       <c r="F183" t="n">
-        <v>0.02507159943870547</v>
+        <v>0.01317275745369215</v>
       </c>
       <c r="G183" t="n">
-        <v>0.1938748940434837</v>
+        <v>0.06205396572169595</v>
       </c>
       <c r="J183" t="n">
-        <v>0.02550064462482836</v>
+        <v>0.02686398467827913</v>
       </c>
       <c r="K183" t="n">
-        <v>0.1950345280089726</v>
+        <v>0.1002086783848269</v>
       </c>
       <c r="L183" t="n">
-        <v>0.05480828150569689</v>
+        <v>0.05747108620459762</v>
       </c>
       <c r="M183" t="n">
-        <v>0.1943465387867722</v>
+        <v>0.09834369328483629</v>
       </c>
       <c r="N183" t="n">
-        <v>0.08401712405830902</v>
+        <v>0.08865925560025562</v>
       </c>
       <c r="O183" t="n">
-        <v>0.1957590770449132</v>
+        <v>0.09831712806448319</v>
       </c>
     </row>
     <row r="184" ht="15" customHeight="1">
       <c r="F184" t="n">
-        <v>0.0242294257629706</v>
+        <v>0.01288873067765124</v>
       </c>
       <c r="G184" t="n">
-        <v>0.1955179016201234</v>
+        <v>0.06205369719323193</v>
       </c>
       <c r="J184" t="n">
-        <v>0.02547113861499946</v>
+        <v>0.02660751470689843</v>
       </c>
       <c r="K184" t="n">
-        <v>0.1966873629920995</v>
+        <v>0.1010579044728339</v>
       </c>
       <c r="L184" t="n">
-        <v>0.05556623203783306</v>
+        <v>0.05765206317763141</v>
       </c>
       <c r="M184" t="n">
-        <v>0.1959935433527618</v>
+        <v>0.0991771144143688</v>
       </c>
       <c r="N184" t="n">
-        <v>0.08540334561400509</v>
+        <v>0.08847620866603034</v>
       </c>
       <c r="O184" t="n">
-        <v>0.1974180522741074</v>
+        <v>0.09915032406502966</v>
       </c>
     </row>
     <row r="185" ht="15" customHeight="1">
       <c r="F185" t="n">
-        <v>0.02336538191063035</v>
+        <v>0.01262056209293871</v>
       </c>
       <c r="G185" t="n">
-        <v>0.197160909196763</v>
+        <v>0.06205342866476791</v>
       </c>
       <c r="J185" t="n">
-        <v>0.02572219576658331</v>
+        <v>0.02655122911745206</v>
       </c>
       <c r="K185" t="n">
-        <v>0.1983401979752264</v>
+        <v>0.1019071305608409</v>
       </c>
       <c r="L185" t="n">
-        <v>0.05607830732777874</v>
+        <v>0.05733565617771361</v>
       </c>
       <c r="M185" t="n">
-        <v>0.1976405479187514</v>
+        <v>0.1000105355439013</v>
       </c>
       <c r="N185" t="n">
-        <v>0.08533083619167714</v>
+        <v>0.0884972341326612</v>
       </c>
       <c r="O185" t="n">
-        <v>0.1990770275033016</v>
+        <v>0.09998352006557613</v>
       </c>
     </row>
     <row r="186" ht="15" customHeight="1">
       <c r="F186" t="n">
-        <v>0.02347309596011269</v>
+        <v>0.01236883060712735</v>
       </c>
       <c r="G186" t="n">
-        <v>0.1988039167734027</v>
+        <v>0.06205316013630389</v>
       </c>
       <c r="J186" t="n">
-        <v>0.02574719636005535</v>
+        <v>0.02659584533475949</v>
       </c>
       <c r="K186" t="n">
-        <v>0.1999930329583533</v>
+        <v>0.102756356648848</v>
       </c>
       <c r="L186" t="n">
-        <v>0.05593030362567508</v>
+        <v>0.05712333571301578</v>
       </c>
       <c r="M186" t="n">
-        <v>0.199287552484741</v>
+        <v>0.1008439566734338</v>
       </c>
       <c r="N186" t="n">
-        <v>0.08627725813979764</v>
+        <v>0.08792459307350692</v>
       </c>
       <c r="O186" t="n">
-        <v>0.2007360027324958</v>
+        <v>0.1008167160661226</v>
       </c>
     </row>
     <row r="187" ht="15" customHeight="1">
       <c r="F187" t="n">
-        <v>0.02354864614473844</v>
+        <v>0.01213411512780264</v>
       </c>
       <c r="G187" t="n">
-        <v>0.2004469243500424</v>
+        <v>0.06205289160783988</v>
       </c>
       <c r="J187" t="n">
-        <v>0.025839520675891</v>
+        <v>0.02664208078364018</v>
       </c>
       <c r="K187" t="n">
-        <v>0.2016458679414802</v>
+        <v>0.103605582736855</v>
       </c>
       <c r="L187" t="n">
-        <v>0.05640924438034453</v>
+        <v>0.05711657229170969</v>
       </c>
       <c r="M187" t="n">
-        <v>0.2009345570507306</v>
+        <v>0.1016773778029663</v>
       </c>
       <c r="N187" t="n">
-        <v>0.086220273806839</v>
+        <v>0.08816054656192646</v>
       </c>
       <c r="O187" t="n">
-        <v>0.2023949779616899</v>
+        <v>0.1016499120666691</v>
       </c>
     </row>
     <row r="188" ht="15" customHeight="1">
       <c r="F188" t="n">
-        <v>0.02561537226039556</v>
+        <v>0.01191699456254101</v>
       </c>
       <c r="G188" t="n">
-        <v>0.2020899319266821</v>
+        <v>0.06205262307937585</v>
       </c>
       <c r="J188" t="n">
-        <v>0.02590889830705055</v>
+        <v>0.02639065288891361</v>
       </c>
       <c r="K188" t="n">
-        <v>0.2032987029246071</v>
+        <v>0.104454808824862</v>
       </c>
       <c r="L188" t="n">
-        <v>0.05605786566589613</v>
+        <v>0.05721683642196698</v>
       </c>
       <c r="M188" t="n">
-        <v>0.2025815616167202</v>
+        <v>0.1025107989324988</v>
       </c>
       <c r="N188" t="n">
-        <v>0.086362824093771</v>
+        <v>0.08830735567127834</v>
       </c>
       <c r="O188" t="n">
-        <v>0.2040539531908841</v>
+        <v>0.1024831080672155</v>
       </c>
     </row>
     <row r="189" ht="15" customHeight="1">
       <c r="F189" t="n">
-        <v>0.02368062595479604</v>
+        <v>0.01171804781894687</v>
       </c>
       <c r="G189" t="n">
-        <v>0.2037329395033218</v>
+        <v>0.06205235455091184</v>
       </c>
       <c r="J189" t="n">
-        <v>0.02617657147704748</v>
+        <v>0.0264422790753992</v>
       </c>
       <c r="K189" t="n">
-        <v>0.204951537907734</v>
+        <v>0.105304034912869</v>
       </c>
       <c r="L189" t="n">
-        <v>0.05630322236047161</v>
+        <v>0.05702559861195938</v>
       </c>
       <c r="M189" t="n">
-        <v>0.2042285661827098</v>
+        <v>0.1033442200620314</v>
       </c>
       <c r="N189" t="n">
-        <v>0.08639092028280793</v>
+        <v>0.08776728147492135</v>
       </c>
       <c r="O189" t="n">
-        <v>0.2057129284200783</v>
+        <v>0.103316304067762</v>
       </c>
     </row>
     <row r="190" ht="15" customHeight="1">
       <c r="F190" t="n">
-        <v>0.02474438377840619</v>
+        <v>0.01153548993195491</v>
       </c>
       <c r="G190" t="n">
-        <v>0.2053759470799615</v>
+        <v>0.06205208602244783</v>
       </c>
       <c r="J190" t="n">
-        <v>0.02624271070688818</v>
+        <v>0.0262976767679164</v>
       </c>
       <c r="K190" t="n">
-        <v>0.2066043728908609</v>
+        <v>0.106153261000876</v>
       </c>
       <c r="L190" t="n">
-        <v>0.05674526219234954</v>
+        <v>0.05694432936985855</v>
       </c>
       <c r="M190" t="n">
-        <v>0.2058755707486994</v>
+        <v>0.1041776411915639</v>
       </c>
       <c r="N190" t="n">
-        <v>0.08681388230568121</v>
+        <v>0.08774258504621441</v>
       </c>
       <c r="O190" t="n">
-        <v>0.2073719036492725</v>
+        <v>0.1041495000683085</v>
       </c>
     </row>
     <row r="191" ht="15" customHeight="1">
       <c r="F191" t="n">
-        <v>0.02580662228169247</v>
+        <v>0.01135571657330608</v>
       </c>
       <c r="G191" t="n">
-        <v>0.2070189546566012</v>
+        <v>0.06205181749398381</v>
       </c>
       <c r="J191" t="n">
-        <v>0.02630729163510903</v>
+        <v>0.0263575633912847</v>
       </c>
       <c r="K191" t="n">
-        <v>0.2082572078739877</v>
+        <v>0.107002487088883</v>
       </c>
       <c r="L191" t="n">
-        <v>0.05668393288980841</v>
+        <v>0.05697449920383621</v>
       </c>
       <c r="M191" t="n">
-        <v>0.207522575314689</v>
+        <v>0.1050110623210964</v>
       </c>
       <c r="N191" t="n">
-        <v>0.08743162795681042</v>
+        <v>0.08753552745851612</v>
       </c>
       <c r="O191" t="n">
-        <v>0.2090308788784666</v>
+        <v>0.1049826960688549</v>
       </c>
     </row>
     <row r="192" ht="15" customHeight="1">
       <c r="F192" t="n">
-        <v>0.0248673180151212</v>
+        <v>0.01117694277793758</v>
       </c>
       <c r="G192" t="n">
-        <v>0.2086619622332409</v>
+        <v>0.06205154896551979</v>
       </c>
       <c r="J192" t="n">
-        <v>0.02617028990024645</v>
+        <v>0.0262226563703235</v>
       </c>
       <c r="K192" t="n">
-        <v>0.2099100428571146</v>
+        <v>0.10785171317689</v>
       </c>
       <c r="L192" t="n">
-        <v>0.05691918218112677</v>
+        <v>0.05661757862206407</v>
       </c>
       <c r="M192" t="n">
-        <v>0.2091695798806786</v>
+        <v>0.1058444834506289</v>
       </c>
       <c r="N192" t="n">
-        <v>0.08744407503061546</v>
+        <v>0.08744836978518533</v>
       </c>
       <c r="O192" t="n">
-        <v>0.2106898541076608</v>
+        <v>0.1058158920694014</v>
       </c>
     </row>
     <row r="193" ht="15" customHeight="1">
       <c r="F193" t="n">
-        <v>0.02592644752915881</v>
+        <v>0.01099974745345047</v>
       </c>
       <c r="G193" t="n">
-        <v>0.2103049698098806</v>
+        <v>0.06205128043705577</v>
       </c>
       <c r="J193" t="n">
-        <v>0.02633168114083681</v>
+        <v>0.02639367312985232</v>
       </c>
       <c r="K193" t="n">
-        <v>0.2115628778402415</v>
+        <v>0.108700939264897</v>
       </c>
       <c r="L193" t="n">
-        <v>0.05685095779458307</v>
+        <v>0.05656889984846863</v>
       </c>
       <c r="M193" t="n">
-        <v>0.2108165844466681</v>
+        <v>0.1066779045801614</v>
       </c>
       <c r="N193" t="n">
-        <v>0.08785114132151595</v>
+        <v>0.08707353834566284</v>
       </c>
       <c r="O193" t="n">
-        <v>0.212348829336855</v>
+        <v>0.1066490880699479</v>
       </c>
     </row>
     <row r="194" ht="15" customHeight="1">
       <c r="F194" t="n">
-        <v>0.02498398737427165</v>
+        <v>0.01082470950742241</v>
       </c>
       <c r="G194" t="n">
-        <v>0.2119479773865203</v>
+        <v>0.06205101190859176</v>
       </c>
       <c r="J194" t="n">
-        <v>0.02649144099541649</v>
+        <v>0.02627011900396113</v>
       </c>
       <c r="K194" t="n">
-        <v>0.2132157128233684</v>
+        <v>0.109550165352904</v>
       </c>
       <c r="L194" t="n">
-        <v>0.05697920745845583</v>
+        <v>0.05712175989170379</v>
       </c>
       <c r="M194" t="n">
-        <v>0.2124635890126577</v>
+        <v>0.1075113257096939</v>
       </c>
       <c r="N194" t="n">
-        <v>0.0874527446239316</v>
+        <v>0.08750106019617587</v>
       </c>
       <c r="O194" t="n">
-        <v>0.2140078045660492</v>
+        <v>0.1074822840704943</v>
       </c>
     </row>
     <row r="195" ht="15" customHeight="1">
       <c r="F195" t="n">
-        <v>0.02503991410092615</v>
+        <v>0.01065240784743892</v>
       </c>
       <c r="G195" t="n">
-        <v>0.21359098496316</v>
+        <v>0.06205074338012775</v>
       </c>
       <c r="J195" t="n">
-        <v>0.02654954510252187</v>
+        <v>0.02624774271745252</v>
       </c>
       <c r="K195" t="n">
-        <v>0.2148685478064953</v>
+        <v>0.110399391440911</v>
       </c>
       <c r="L195" t="n">
-        <v>0.05750387890102363</v>
+        <v>0.05657610076144048</v>
       </c>
       <c r="M195" t="n">
-        <v>0.2141105935786473</v>
+        <v>0.1083447468392264</v>
       </c>
       <c r="N195" t="n">
-        <v>0.08834880273228218</v>
+        <v>0.08743085823049546</v>
       </c>
       <c r="O195" t="n">
-        <v>0.2156667797952434</v>
+        <v>0.1083154800710408</v>
       </c>
     </row>
     <row r="196" ht="15" customHeight="1">
       <c r="F196" t="n">
-        <v>0.02509420425958866</v>
+        <v>0.01048342138107818</v>
       </c>
       <c r="G196" t="n">
-        <v>0.2152339925397997</v>
+        <v>0.06205047485166372</v>
       </c>
       <c r="J196" t="n">
-        <v>0.02660596910068938</v>
+        <v>0.02622608240455802</v>
       </c>
       <c r="K196" t="n">
-        <v>0.2165213827896222</v>
+        <v>0.111248617528918</v>
       </c>
       <c r="L196" t="n">
-        <v>0.05742491985056483</v>
+        <v>0.05673187533687291</v>
       </c>
       <c r="M196" t="n">
-        <v>0.2157575981446369</v>
+        <v>0.1091781679687589</v>
       </c>
       <c r="N196" t="n">
-        <v>0.08813923344098729</v>
+        <v>0.08746285999503001</v>
       </c>
       <c r="O196" t="n">
-        <v>0.2173257550244375</v>
+        <v>0.1091486760715873</v>
       </c>
     </row>
     <row r="197" ht="15" customHeight="1">
       <c r="F197" t="n">
-        <v>0.02414683440072556</v>
+        <v>0.01031832901594041</v>
       </c>
       <c r="G197" t="n">
-        <v>0.2168770001164393</v>
+        <v>0.06205020632319971</v>
       </c>
       <c r="J197" t="n">
-        <v>0.02666068862845539</v>
+        <v>0.02620511507619383</v>
       </c>
       <c r="K197" t="n">
-        <v>0.2181742177727491</v>
+        <v>0.112097843616925</v>
       </c>
       <c r="L197" t="n">
-        <v>0.05784227803535807</v>
+        <v>0.05648903649719522</v>
       </c>
       <c r="M197" t="n">
-        <v>0.2174046027106265</v>
+        <v>0.1100115890982915</v>
       </c>
       <c r="N197" t="n">
-        <v>0.08852395454446665</v>
+        <v>0.08719699303618783</v>
       </c>
       <c r="O197" t="n">
-        <v>0.2189847302536317</v>
+        <v>0.1099818720721337</v>
       </c>
     </row>
     <row r="198" ht="15" customHeight="1">
       <c r="F198" t="n">
-        <v>0.02519778107480327</v>
+        <v>0.01015770965960366</v>
       </c>
       <c r="G198" t="n">
-        <v>0.218520007693079</v>
+        <v>0.06204993779473569</v>
       </c>
       <c r="J198" t="n">
-        <v>0.02671367932435628</v>
+        <v>0.02618481774327618</v>
       </c>
       <c r="K198" t="n">
-        <v>0.2198270527558759</v>
+        <v>0.112947069704932</v>
       </c>
       <c r="L198" t="n">
-        <v>0.05765590118368183</v>
+        <v>0.05694753712160178</v>
       </c>
       <c r="M198" t="n">
-        <v>0.2190516072766161</v>
+        <v>0.1108450102278239</v>
       </c>
       <c r="N198" t="n">
-        <v>0.08910288383714016</v>
+        <v>0.0876331849003773</v>
       </c>
       <c r="O198" t="n">
-        <v>0.2206437054828259</v>
+        <v>0.1108150680726802</v>
       </c>
     </row>
     <row r="199" ht="15" customHeight="1">
       <c r="F199" t="n">
-        <v>0.02424702083228816</v>
+        <v>0.01000214221965344</v>
       </c>
       <c r="G199" t="n">
-        <v>0.2201630152697187</v>
+        <v>0.06204966926627167</v>
       </c>
       <c r="J199" t="n">
-        <v>0.02656491682692842</v>
+        <v>0.02626516741672126</v>
       </c>
       <c r="K199" t="n">
-        <v>0.2214798877390028</v>
+        <v>0.1137962957929391</v>
       </c>
       <c r="L199" t="n">
-        <v>0.05786573702381462</v>
+        <v>0.05630733008928671</v>
       </c>
       <c r="M199" t="n">
-        <v>0.2206986118426057</v>
+        <v>0.1116784313573565</v>
       </c>
       <c r="N199" t="n">
-        <v>0.08837593911342734</v>
+        <v>0.08707136313400682</v>
       </c>
       <c r="O199" t="n">
-        <v>0.2223026807120201</v>
+        <v>0.1116482640732267</v>
       </c>
     </row>
     <row r="200" ht="15" customHeight="1">
       <c r="F200" t="n">
-        <v>0.02629453022364659</v>
+        <v>0.009852205603668798</v>
       </c>
       <c r="G200" t="n">
-        <v>0.2218060228463584</v>
+        <v>0.06204940073780765</v>
       </c>
       <c r="J200" t="n">
-        <v>0.02681437677470824</v>
+        <v>0.02604614110744527</v>
       </c>
       <c r="K200" t="n">
-        <v>0.2231327227221297</v>
+        <v>0.1146455218809461</v>
       </c>
       <c r="L200" t="n">
-        <v>0.05797173328403496</v>
+        <v>0.05626836827944423</v>
       </c>
       <c r="M200" t="n">
-        <v>0.2223456164085953</v>
+        <v>0.112511852486889</v>
       </c>
       <c r="N200" t="n">
-        <v>0.08924303816774809</v>
+        <v>0.08751145528348453</v>
       </c>
       <c r="O200" t="n">
-        <v>0.2239616559412143</v>
+        <v>0.1124814600737731</v>
       </c>
     </row>
     <row r="201" ht="15" customHeight="1">
       <c r="F201" t="n">
-        <v>0.02534028579934499</v>
+        <v>0.009708478719248313</v>
       </c>
       <c r="G201" t="n">
-        <v>0.2234490304229981</v>
+        <v>0.06204913220934363</v>
       </c>
       <c r="J201" t="n">
-        <v>0.02666203480623211</v>
+        <v>0.02602771582636444</v>
       </c>
       <c r="K201" t="n">
-        <v>0.2247855577052566</v>
+        <v>0.1154947479689531</v>
       </c>
       <c r="L201" t="n">
-        <v>0.05787383769262128</v>
+        <v>0.05643060457126856</v>
       </c>
       <c r="M201" t="n">
-        <v>0.2239926209745849</v>
+        <v>0.1133452736164215</v>
       </c>
       <c r="N201" t="n">
-        <v>0.08960409879452186</v>
+        <v>0.08705338889521896</v>
       </c>
       <c r="O201" t="n">
-        <v>0.2256206311704085</v>
+        <v>0.1133146560743196</v>
       </c>
     </row>
     <row r="202" ht="15" customHeight="1">
       <c r="F202" t="n">
-        <v>0.02438426410984969</v>
+        <v>0.009571540473970824</v>
       </c>
       <c r="G202" t="n">
-        <v>0.2250920379996378</v>
+        <v>0.06204886368087962</v>
       </c>
       <c r="J202" t="n">
-        <v>0.02680786656003643</v>
+        <v>0.02600986858439494</v>
       </c>
       <c r="K202" t="n">
-        <v>0.2264383926883835</v>
+        <v>0.1163439740569601</v>
       </c>
       <c r="L202" t="n">
-        <v>0.05797199797785224</v>
+        <v>0.05619399184395404</v>
       </c>
       <c r="M202" t="n">
-        <v>0.2256396255405745</v>
+        <v>0.114178694745954</v>
       </c>
       <c r="N202" t="n">
-        <v>0.08885903878816864</v>
+        <v>0.08679709151561854</v>
       </c>
       <c r="O202" t="n">
-        <v>0.2272796063996026</v>
+        <v>0.1141478520748661</v>
       </c>
     </row>
     <row r="203" ht="15" customHeight="1">
       <c r="F203" t="n">
-        <v>0.02642644170562713</v>
+        <v>0.009441969775421791</v>
       </c>
       <c r="G203" t="n">
-        <v>0.2267350455762775</v>
+        <v>0.06204859515241561</v>
       </c>
       <c r="J203" t="n">
-        <v>0.02695184767465757</v>
+        <v>0.02609257639245301</v>
       </c>
       <c r="K203" t="n">
-        <v>0.2280912276715104</v>
+        <v>0.1171932001449671</v>
       </c>
       <c r="L203" t="n">
-        <v>0.05846616186800621</v>
+        <v>0.05665848297669474</v>
       </c>
       <c r="M203" t="n">
-        <v>0.2272866301065641</v>
+        <v>0.1150121158754865</v>
       </c>
       <c r="N203" t="n">
-        <v>0.08930777594310796</v>
+        <v>0.08704249069109138</v>
       </c>
       <c r="O203" t="n">
-        <v>0.2289385816287968</v>
+        <v>0.1149810480754126</v>
       </c>
     </row>
     <row r="204" ht="15" customHeight="1">
       <c r="F204" t="n">
-        <v>0.02546679513714368</v>
+        <v>0.009320345531181599</v>
       </c>
       <c r="G204" t="n">
-        <v>0.2283780531529172</v>
+        <v>0.06204832662395158</v>
       </c>
       <c r="J204" t="n">
-        <v>0.02679395378863193</v>
+        <v>0.02597581626145483</v>
       </c>
       <c r="K204" t="n">
-        <v>0.2297440626546373</v>
+        <v>0.1180424262329741</v>
       </c>
       <c r="L204" t="n">
-        <v>0.0582562770913618</v>
+        <v>0.05652403084868493</v>
       </c>
       <c r="M204" t="n">
-        <v>0.2289336346725537</v>
+        <v>0.115845537005019</v>
       </c>
       <c r="N204" t="n">
-        <v>0.08935022805375958</v>
+        <v>0.08728951396804602</v>
       </c>
       <c r="O204" t="n">
-        <v>0.230597556857991</v>
+        <v>0.115814244075959</v>
       </c>
     </row>
     <row r="205" ht="15" customHeight="1">
       <c r="F205" t="n">
-        <v>0.0245053009548657</v>
+        <v>0.00920724664884634</v>
       </c>
       <c r="G205" t="n">
-        <v>0.2300210607295569</v>
+        <v>0.06204805809548757</v>
       </c>
       <c r="J205" t="n">
-        <v>0.02683416054049589</v>
+        <v>0.02605956520231663</v>
       </c>
       <c r="K205" t="n">
-        <v>0.2313968976377642</v>
+        <v>0.1188916523209811</v>
       </c>
       <c r="L205" t="n">
-        <v>0.05844229137619741</v>
+        <v>0.05669058833911886</v>
       </c>
       <c r="M205" t="n">
-        <v>0.2305806392385433</v>
+        <v>0.1166789581345515</v>
       </c>
       <c r="N205" t="n">
-        <v>0.0892863129145432</v>
+        <v>0.0872380888928907</v>
       </c>
       <c r="O205" t="n">
-        <v>0.2322565320871852</v>
+        <v>0.1166474400765055</v>
       </c>
     </row>
     <row r="206" ht="15" customHeight="1">
       <c r="F206" t="n">
-        <v>0.02554193570925959</v>
+        <v>0.009103252035996032</v>
       </c>
       <c r="G206" t="n">
-        <v>0.2316640683061966</v>
+        <v>0.06204778956702355</v>
       </c>
       <c r="J206" t="n">
-        <v>0.02707244356878587</v>
+        <v>0.02604380022595461</v>
       </c>
       <c r="K206" t="n">
-        <v>0.2330497326208911</v>
+        <v>0.1197408784089881</v>
       </c>
       <c r="L206" t="n">
-        <v>0.05872415245079168</v>
+        <v>0.05655810832719071</v>
       </c>
       <c r="M206" t="n">
-        <v>0.2322276438045329</v>
+        <v>0.117512379264084</v>
       </c>
       <c r="N206" t="n">
-        <v>0.08951594831987858</v>
+        <v>0.08658814301203382</v>
       </c>
       <c r="O206" t="n">
-        <v>0.2339155073163793</v>
+        <v>0.1174806360770519</v>
       </c>
     </row>
     <row r="207" ht="15" customHeight="1">
       <c r="F207" t="n">
-        <v>0.02557667595079174</v>
+        <v>0.009008940600216141</v>
       </c>
       <c r="G207" t="n">
-        <v>0.2333070758828363</v>
+        <v>0.06204752103855954</v>
       </c>
       <c r="J207" t="n">
-        <v>0.0271087785120382</v>
+        <v>0.02602849834328497</v>
       </c>
       <c r="K207" t="n">
-        <v>0.2347025676040179</v>
+        <v>0.1205901044969951</v>
       </c>
       <c r="L207" t="n">
-        <v>0.05880180804342303</v>
+        <v>0.05642654369209474</v>
       </c>
       <c r="M207" t="n">
-        <v>0.2338746483705225</v>
+        <v>0.1183458003936166</v>
       </c>
       <c r="N207" t="n">
-        <v>0.09023905206418548</v>
+        <v>0.08683960387188366</v>
       </c>
       <c r="O207" t="n">
-        <v>0.2355744825455735</v>
+        <v>0.1183138320775984</v>
       </c>
     </row>
     <row r="208" ht="15" customHeight="1">
       <c r="F208" t="n">
-        <v>0.02560949822992855</v>
+        <v>0.00892489124908874</v>
       </c>
       <c r="G208" t="n">
-        <v>0.234950083459476</v>
+        <v>0.06204725251009551</v>
       </c>
       <c r="J208" t="n">
-        <v>0.02694314100878929</v>
+        <v>0.02591363656522389</v>
       </c>
       <c r="K208" t="n">
-        <v>0.2363554025871448</v>
+        <v>0.1214393305850021</v>
       </c>
       <c r="L208" t="n">
-        <v>0.05857520588237003</v>
+        <v>0.0564958473130252</v>
       </c>
       <c r="M208" t="n">
-        <v>0.2355216529365121</v>
+        <v>0.1191792215231491</v>
       </c>
       <c r="N208" t="n">
-        <v>0.08995554194188343</v>
+        <v>0.08669239901884879</v>
       </c>
       <c r="O208" t="n">
-        <v>0.2372334577747677</v>
+        <v>0.1191470280781449</v>
       </c>
     </row>
     <row r="209" ht="15" customHeight="1">
       <c r="F209" t="n">
-        <v>0.02664037909713637</v>
+        <v>0.008851682890206637</v>
       </c>
       <c r="G209" t="n">
-        <v>0.2365930910361156</v>
+        <v>0.0620469839816315</v>
       </c>
       <c r="J209" t="n">
-        <v>0.02707550669757558</v>
+        <v>0.02589919190268762</v>
       </c>
       <c r="K209" t="n">
-        <v>0.2380082375702717</v>
+        <v>0.1222885566730091</v>
       </c>
       <c r="L209" t="n">
-        <v>0.05864429369591112</v>
+        <v>0.05656597206917621</v>
       </c>
       <c r="M209" t="n">
-        <v>0.2371686575025017</v>
+        <v>0.1200126426526816</v>
       </c>
       <c r="N209" t="n">
-        <v>0.08976533574739232</v>
+        <v>0.08674645599933728</v>
       </c>
       <c r="O209" t="n">
-        <v>0.2388924330039619</v>
+        <v>0.1199802240786913</v>
       </c>
     </row>
     <row r="210" ht="15" customHeight="1">
       <c r="F210" t="n">
-        <v>0.02466929510288162</v>
+        <v>0.008789894431151447</v>
       </c>
       <c r="G210" t="n">
-        <v>0.2382360986127553</v>
+        <v>0.06204671545316748</v>
       </c>
       <c r="J210" t="n">
-        <v>0.02710585121693342</v>
+        <v>0.02598514136659236</v>
       </c>
       <c r="K210" t="n">
-        <v>0.2396610725533986</v>
+        <v>0.1231377827610161</v>
       </c>
       <c r="L210" t="n">
-        <v>0.05880901921232484</v>
+        <v>0.05603687083974201</v>
       </c>
       <c r="M210" t="n">
-        <v>0.2388156620684913</v>
+        <v>0.1208460637822141</v>
       </c>
       <c r="N210" t="n">
-        <v>0.09056835127513191</v>
+        <v>0.08640170235975758</v>
       </c>
       <c r="O210" t="n">
-        <v>0.240551408233156</v>
+        <v>0.1208134200792378</v>
       </c>
     </row>
     <row r="211" ht="15" customHeight="1">
       <c r="F211" t="n">
-        <v>0.02569622279763064</v>
+        <v>0.008740104779508637</v>
       </c>
       <c r="G211" t="n">
-        <v>0.239879106189395</v>
+        <v>0.06204644692470346</v>
       </c>
       <c r="J211" t="n">
-        <v>0.02723415020539917</v>
+        <v>0.0260714619678543</v>
       </c>
       <c r="K211" t="n">
-        <v>0.2413139075365255</v>
+        <v>0.1239870088490232</v>
       </c>
       <c r="L211" t="n">
-        <v>0.05856933015988974</v>
+        <v>0.05620849650391693</v>
       </c>
       <c r="M211" t="n">
-        <v>0.2404626666344808</v>
+        <v>0.1216794849117466</v>
       </c>
       <c r="N211" t="n">
-        <v>0.09006450631952162</v>
+        <v>0.08695806564651815</v>
       </c>
       <c r="O211" t="n">
-        <v>0.2422103834623502</v>
+        <v>0.1216466160797843</v>
       </c>
     </row>
     <row r="212" ht="15" customHeight="1">
       <c r="F212" t="n">
-        <v>0.02572113873184987</v>
+        <v>0.00870289284286236</v>
       </c>
       <c r="G212" t="n">
-        <v>0.2415221137660347</v>
+        <v>0.06204617839623944</v>
       </c>
       <c r="J212" t="n">
-        <v>0.02716037930150927</v>
+        <v>0.02595813071738964</v>
       </c>
       <c r="K212" t="n">
-        <v>0.2429667425196524</v>
+        <v>0.1248362349370301</v>
       </c>
       <c r="L212" t="n">
-        <v>0.05872517426688426</v>
+        <v>0.05598080194089508</v>
       </c>
       <c r="M212" t="n">
-        <v>0.2421096712004704</v>
+        <v>0.1225129060412791</v>
       </c>
       <c r="N212" t="n">
-        <v>0.09085371867498143</v>
+        <v>0.08661547340602715</v>
       </c>
       <c r="O212" t="n">
-        <v>0.2438693586915444</v>
+        <v>0.1224798120803308</v>
       </c>
     </row>
     <row r="213" ht="15" customHeight="1">
       <c r="F213" t="n">
-        <v>0.02574401945600566</v>
+        <v>0.008678837528801359</v>
       </c>
       <c r="G213" t="n">
-        <v>0.2431651213426744</v>
+        <v>0.06204590986777542</v>
       </c>
       <c r="J213" t="n">
-        <v>0.02728451414380008</v>
+        <v>0.0259451246261146</v>
       </c>
       <c r="K213" t="n">
-        <v>0.2446195775027793</v>
+        <v>0.1256854610250372</v>
       </c>
       <c r="L213" t="n">
-        <v>0.05857649926158698</v>
+        <v>0.05595374002987072</v>
       </c>
       <c r="M213" t="n">
-        <v>0.24375667576646</v>
+        <v>0.1233463271708116</v>
       </c>
       <c r="N213" t="n">
-        <v>0.090935906135931</v>
+        <v>0.08627385318469311</v>
       </c>
       <c r="O213" t="n">
-        <v>0.2455283339207386</v>
+        <v>0.1233130080808772</v>
       </c>
     </row>
     <row r="214" ht="15" customHeight="1">
       <c r="F214" t="n">
-        <v>0.02676484152056442</v>
+        <v>0.008668517744909225</v>
       </c>
       <c r="G214" t="n">
-        <v>0.2448081289193141</v>
+        <v>0.06204564133931141</v>
       </c>
       <c r="J214" t="n">
-        <v>0.02710653037080799</v>
+        <v>0.02603242070494539</v>
       </c>
       <c r="K214" t="n">
-        <v>0.2462724124859061</v>
+        <v>0.1265346871130442</v>
       </c>
       <c r="L214" t="n">
-        <v>0.05882325287227635</v>
+        <v>0.05642726365003808</v>
       </c>
       <c r="M214" t="n">
-        <v>0.2454036803324496</v>
+        <v>0.1241797483003441</v>
       </c>
       <c r="N214" t="n">
-        <v>0.09061098649679</v>
+        <v>0.08663313252892429</v>
       </c>
       <c r="O214" t="n">
-        <v>0.2471873091499328</v>
+        <v>0.1241462040814237</v>
       </c>
     </row>
     <row r="215" ht="15" customHeight="1">
       <c r="F215" t="n">
-        <v>0.0257835814759925</v>
+        <v>0.008668517744909225</v>
       </c>
       <c r="G215" t="n">
-        <v>0.2464511364959538</v>
+        <v>0.06204564133931141</v>
       </c>
       <c r="J215" t="n">
-        <v>0.0273264036210694</v>
+        <v>0.02601999596479822</v>
       </c>
       <c r="K215" t="n">
-        <v>0.247925247469033</v>
+        <v>0.1273839132010512</v>
       </c>
       <c r="L215" t="n">
-        <v>0.05896538282723093</v>
+        <v>0.05600132568059135</v>
       </c>
       <c r="M215" t="n">
-        <v>0.2470506848984393</v>
+        <v>0.1250131694298766</v>
       </c>
       <c r="N215" t="n">
-        <v>0.09027887755197816</v>
+        <v>0.086593238985129</v>
       </c>
       <c r="O215" t="n">
-        <v>0.248846284379127</v>
+        <v>0.1249794000819702</v>
       </c>
     </row>
     <row r="216" ht="15" customHeight="1">
       <c r="F216" t="n">
-        <v>0.02480021587275633</v>
+        <v>0.0083912996146015</v>
       </c>
       <c r="G216" t="n">
-        <v>0.2480941440725935</v>
+        <v>0.06201555492810432</v>
       </c>
       <c r="J216" t="n">
-        <v>0.02714410953312069</v>
+        <v>0.02580782741658927</v>
       </c>
       <c r="K216" t="n">
-        <v>0.2495780824521599</v>
+        <v>0.1282331392890582</v>
       </c>
       <c r="L216" t="n">
-        <v>0.05920283685472924</v>
+        <v>0.05627587900072481</v>
       </c>
       <c r="M216" t="n">
-        <v>0.2486976894644288</v>
+        <v>0.1258465905594091</v>
       </c>
       <c r="N216" t="n">
-        <v>0.09103949709591524</v>
+        <v>0.0864541000997156</v>
       </c>
       <c r="O216" t="n">
-        <v>0.2505052596083212</v>
+        <v>0.1258125960825166</v>
       </c>
     </row>
     <row r="217" ht="15" customHeight="1">
       <c r="F217" t="n">
-        <v>0.02581472126132225</v>
+        <v>0.008117027338341284</v>
       </c>
       <c r="G217" t="n">
-        <v>0.2497371516492332</v>
+        <v>0.06198546851689724</v>
       </c>
       <c r="J217" t="n">
-        <v>0.02715962374549825</v>
+        <v>0.02579589207123477</v>
       </c>
       <c r="K217" t="n">
-        <v>0.2512309174352868</v>
+        <v>0.1290823653770652</v>
       </c>
       <c r="L217" t="n">
-        <v>0.05933556268304968</v>
+        <v>0.0561508764896326</v>
       </c>
       <c r="M217" t="n">
-        <v>0.2503446940304184</v>
+        <v>0.1266800116889417</v>
       </c>
       <c r="N217" t="n">
-        <v>0.09039276292302084</v>
+        <v>0.0862156434190926</v>
       </c>
       <c r="O217" t="n">
-        <v>0.2521642348375153</v>
+        <v>0.1266457920830631</v>
       </c>
     </row>
     <row r="218" ht="15" customHeight="1">
       <c r="F218" t="n">
-        <v>0.02582707419215669</v>
+        <v>0.007846449281400616</v>
       </c>
       <c r="G218" t="n">
-        <v>0.2513801592258729</v>
+        <v>0.06195538210569016</v>
       </c>
       <c r="J218" t="n">
-        <v>0.02717292189673849</v>
+        <v>0.02588416693965091</v>
       </c>
       <c r="K218" t="n">
-        <v>0.2528837524184137</v>
+        <v>0.1299315914650722</v>
       </c>
       <c r="L218" t="n">
-        <v>0.0589635080404709</v>
+        <v>0.05622627102650901</v>
       </c>
       <c r="M218" t="n">
-        <v>0.251991698596408</v>
+        <v>0.1275134328184742</v>
       </c>
       <c r="N218" t="n">
-        <v>0.09043859282771483</v>
+        <v>0.08647779648966814</v>
       </c>
       <c r="O218" t="n">
-        <v>0.2538232100667095</v>
+        <v>0.1274789880836096</v>
       </c>
     </row>
     <row r="219" ht="15" customHeight="1">
       <c r="F219" t="n">
-        <v>0.02583725121572599</v>
+        <v>0.007580313809051213</v>
       </c>
       <c r="G219" t="n">
-        <v>0.2530231668025126</v>
+        <v>0.06192529569448307</v>
       </c>
       <c r="J219" t="n">
-        <v>0.02728397962537776</v>
+        <v>0.02597262903275392</v>
       </c>
       <c r="K219" t="n">
-        <v>0.2545365874015406</v>
+        <v>0.1307808175530792</v>
       </c>
       <c r="L219" t="n">
-        <v>0.05918662065527133</v>
+        <v>0.05610201549054819</v>
       </c>
       <c r="M219" t="n">
-        <v>0.2536387031623976</v>
+        <v>0.1283468539480067</v>
       </c>
       <c r="N219" t="n">
-        <v>0.09127690460441684</v>
+        <v>0.08594048685785072</v>
       </c>
       <c r="O219" t="n">
-        <v>0.2554821852959037</v>
+        <v>0.128312184084156</v>
       </c>
     </row>
     <row r="220" ht="15" customHeight="1">
       <c r="F220" t="n">
-        <v>0.02584522888249655</v>
+        <v>0.007319369286565118</v>
       </c>
       <c r="G220" t="n">
-        <v>0.2546661743791522</v>
+        <v>0.06189520928327599</v>
       </c>
       <c r="J220" t="n">
-        <v>0.02739277256995248</v>
+        <v>0.02596125536145999</v>
       </c>
       <c r="K220" t="n">
-        <v>0.2561894223846675</v>
+        <v>0.1316300436410862</v>
       </c>
       <c r="L220" t="n">
-        <v>0.05930484825572951</v>
+        <v>0.05567806276094445</v>
       </c>
       <c r="M220" t="n">
-        <v>0.2552857077283872</v>
+        <v>0.1291802750775392</v>
       </c>
       <c r="N220" t="n">
-        <v>0.09070761604754651</v>
+        <v>0.08630364207004854</v>
       </c>
       <c r="O220" t="n">
-        <v>0.2571411605250978</v>
+        <v>0.1291453800847025</v>
       </c>
     </row>
     <row r="221" ht="15" customHeight="1">
       <c r="F221" t="n">
-        <v>0.0258509837429348</v>
+        <v>0.007064364079214264</v>
       </c>
       <c r="G221" t="n">
-        <v>0.2563091819557919</v>
+        <v>0.06186512287206889</v>
       </c>
       <c r="J221" t="n">
-        <v>0.02739927636899904</v>
+        <v>0.02575002293668531</v>
       </c>
       <c r="K221" t="n">
-        <v>0.2578422573677943</v>
+        <v>0.1324792697290932</v>
       </c>
       <c r="L221" t="n">
-        <v>0.05901813857012395</v>
+        <v>0.055654365716892</v>
       </c>
       <c r="M221" t="n">
-        <v>0.2569327122943768</v>
+        <v>0.1300136962070717</v>
       </c>
       <c r="N221" t="n">
-        <v>0.09053064495152363</v>
+        <v>0.08646718967267014</v>
       </c>
       <c r="O221" t="n">
-        <v>0.258800135754292</v>
+        <v>0.129978576085249</v>
       </c>
     </row>
     <row r="222" ht="15" customHeight="1">
       <c r="F222" t="n">
-        <v>0.02485449234750705</v>
+        <v>0.006816046552270694</v>
       </c>
       <c r="G222" t="n">
-        <v>0.2579521895324317</v>
+        <v>0.06183503646086182</v>
       </c>
       <c r="J222" t="n">
-        <v>0.02740346666105378</v>
+        <v>0.02573890876934611</v>
       </c>
       <c r="K222" t="n">
-        <v>0.2594950923509212</v>
+        <v>0.1333284958171002</v>
       </c>
       <c r="L222" t="n">
-        <v>0.05882643932673315</v>
+        <v>0.05603087723758493</v>
       </c>
       <c r="M222" t="n">
-        <v>0.2585797168603664</v>
+        <v>0.1308471173366042</v>
       </c>
       <c r="N222" t="n">
-        <v>0.090945909110768</v>
+        <v>0.08573105721212365</v>
       </c>
       <c r="O222" t="n">
-        <v>0.2604591109834862</v>
+        <v>0.1308117720857954</v>
       </c>
     </row>
     <row r="223" ht="15" customHeight="1">
       <c r="F223" t="n">
-        <v>0.02485573124667973</v>
+        <v>0.006575165071006119</v>
       </c>
       <c r="G223" t="n">
-        <v>0.2595951971090714</v>
+        <v>0.06180495004965473</v>
       </c>
       <c r="J223" t="n">
-        <v>0.02740531908465316</v>
+        <v>0.02572788987035859</v>
       </c>
       <c r="K223" t="n">
-        <v>0.2611479273340481</v>
+        <v>0.1341777219051072</v>
       </c>
       <c r="L223" t="n">
-        <v>0.05892969825383562</v>
+        <v>0.05580755020221762</v>
       </c>
       <c r="M223" t="n">
-        <v>0.260226721426356</v>
+        <v>0.1316805384661367</v>
       </c>
       <c r="N223" t="n">
-        <v>0.09125332631969918</v>
+        <v>0.08639517223481763</v>
       </c>
       <c r="O223" t="n">
-        <v>0.2621180862126804</v>
+        <v>0.1316449680863419</v>
       </c>
     </row>
     <row r="224" ht="15" customHeight="1">
       <c r="F224" t="n">
-        <v>0.0268234878688663</v>
+        <v>0.00634246800069261</v>
       </c>
       <c r="G224" t="n">
-        <v>0.261238204685711</v>
+        <v>0.06177486363844764</v>
       </c>
       <c r="J224" t="n">
-        <v>0.02728673930939787</v>
+        <v>0.02591694325063897</v>
       </c>
       <c r="K224" t="n">
-        <v>0.262800762317175</v>
+        <v>0.1350269479931142</v>
       </c>
       <c r="L224" t="n">
-        <v>0.0592719574527179</v>
+        <v>0.05618433748998425</v>
       </c>
       <c r="M224" t="n">
-        <v>0.2618737259923456</v>
+        <v>0.1325139595956693</v>
       </c>
       <c r="N224" t="n">
-        <v>0.09061478536462503</v>
+        <v>0.08635946228716029</v>
       </c>
       <c r="O224" t="n">
-        <v>0.2637770614418746</v>
+        <v>0.1324781640868884</v>
       </c>
     </row>
     <row r="225" ht="15" customHeight="1">
       <c r="F225" t="n">
-        <v>0.02472571260677128</v>
+        <v>0.006118703706602079</v>
       </c>
       <c r="G225" t="n">
-        <v>0.2628812122623507</v>
+        <v>0.06174477722724055</v>
       </c>
       <c r="J225" t="n">
-        <v>0.02730160189348946</v>
+        <v>0.02580604592110342</v>
       </c>
       <c r="K225" t="n">
-        <v>0.2644535973003019</v>
+        <v>0.1358761740811213</v>
       </c>
       <c r="L225" t="n">
-        <v>0.05876834290108104</v>
+        <v>0.05616119198007896</v>
       </c>
       <c r="M225" t="n">
-        <v>0.2635207305583352</v>
+        <v>0.1333473807252018</v>
       </c>
       <c r="N225" t="n">
-        <v>0.09046221715237018</v>
+        <v>0.08562385491555996</v>
       </c>
       <c r="O225" t="n">
-        <v>0.2654360366710687</v>
+        <v>0.1333113600874348</v>
       </c>
     </row>
     <row r="226" ht="15" customHeight="1">
       <c r="F226" t="n">
-        <v>0.0245696537323843</v>
+        <v>0.005904620554006458</v>
       </c>
       <c r="G226" t="n">
-        <v>0.2645242198389904</v>
+        <v>0.06171469081603347</v>
       </c>
       <c r="J226" t="n">
-        <v>0.0269545132278716</v>
+        <v>0.02589517489266818</v>
       </c>
       <c r="K226" t="n">
-        <v>0.2661064322834288</v>
+        <v>0.1367254001691283</v>
       </c>
       <c r="L226" t="n">
-        <v>0.05873358044160154</v>
+        <v>0.05573806655169605</v>
       </c>
       <c r="M226" t="n">
-        <v>0.2651677351243247</v>
+        <v>0.1341808018547343</v>
       </c>
       <c r="N226" t="n">
-        <v>0.08989767451590996</v>
+        <v>0.08628827766642522</v>
       </c>
       <c r="O226" t="n">
-        <v>0.2670950119002629</v>
+        <v>0.1341445560879813</v>
       </c>
     </row>
     <row r="227" ht="15" customHeight="1">
       <c r="F227" t="n">
-        <v>0.02536262148263264</v>
+        <v>0.005700966908177764</v>
       </c>
       <c r="G227" t="n">
-        <v>0.2661672274156301</v>
+        <v>0.06168460440482639</v>
       </c>
       <c r="J227" t="n">
-        <v>0.02675306783761326</v>
+        <v>0.02588430717624944</v>
       </c>
       <c r="K227" t="n">
-        <v>0.2677592672665557</v>
+        <v>0.1375746262571353</v>
       </c>
       <c r="L227" t="n">
-        <v>0.05798396543754608</v>
+        <v>0.05571491408402976</v>
       </c>
       <c r="M227" t="n">
-        <v>0.2668147396903144</v>
+        <v>0.1350142229842668</v>
       </c>
       <c r="N227" t="n">
-        <v>0.08994678450090393</v>
+        <v>0.08605265808616408</v>
       </c>
       <c r="O227" t="n">
-        <v>0.2687539871294571</v>
+        <v>0.1349777520885278</v>
       </c>
     </row>
     <row r="228" ht="15" customHeight="1">
       <c r="F228" t="n">
-        <v>0.02411192609444355</v>
+        <v>0.005508491134387783</v>
       </c>
       <c r="G228" t="n">
-        <v>0.2678102349922698</v>
+        <v>0.0616545179936193</v>
       </c>
       <c r="J228" t="n">
-        <v>0.02670486024778346</v>
+        <v>0.0257734197827634</v>
       </c>
       <c r="K228" t="n">
-        <v>0.2694121022496826</v>
+        <v>0.1384238523451423</v>
       </c>
       <c r="L228" t="n">
-        <v>0.05783579325218136</v>
+        <v>0.05579168745627427</v>
       </c>
       <c r="M228" t="n">
-        <v>0.268461744256304</v>
+        <v>0.1358476441137993</v>
       </c>
       <c r="N228" t="n">
-        <v>0.08923517415301119</v>
+        <v>0.08611692372118518</v>
       </c>
       <c r="O228" t="n">
-        <v>0.2704129623586513</v>
+        <v>0.1358109480890742</v>
       </c>
     </row>
     <row r="229" ht="15" customHeight="1">
       <c r="F229" t="n">
-        <v>0.0258248778047443</v>
+        <v>0.005327941597908524</v>
       </c>
       <c r="G229" t="n">
-        <v>0.2694532425689095</v>
+        <v>0.06162443158241221</v>
       </c>
       <c r="J229" t="n">
-        <v>0.02621748498345108</v>
+        <v>0.0258624897231263</v>
       </c>
       <c r="K229" t="n">
-        <v>0.2710649372328094</v>
+        <v>0.1392730784331493</v>
       </c>
       <c r="L229" t="n">
-        <v>0.05690535924877402</v>
+        <v>0.05606833954762377</v>
       </c>
       <c r="M229" t="n">
-        <v>0.2701087488222936</v>
+        <v>0.1366810652433318</v>
       </c>
       <c r="N229" t="n">
-        <v>0.08818847051789125</v>
+        <v>0.0861810021178967</v>
       </c>
       <c r="O229" t="n">
-        <v>0.2720719375878455</v>
+        <v>0.1366441440896207</v>
       </c>
     </row>
     <row r="230" ht="15" customHeight="1">
       <c r="F230" t="n">
-        <v>0.02350878685046213</v>
+        <v>0.005160066664011906</v>
       </c>
       <c r="G230" t="n">
-        <v>0.2710962501455492</v>
+        <v>0.06159434517120512</v>
       </c>
       <c r="J230" t="n">
-        <v>0.02599853656968514</v>
+        <v>0.0258514940082543</v>
       </c>
       <c r="K230" t="n">
-        <v>0.2727177722159363</v>
+        <v>0.1401223045211563</v>
       </c>
       <c r="L230" t="n">
-        <v>0.05650895879059073</v>
+        <v>0.05574482323727256</v>
       </c>
       <c r="M230" t="n">
-        <v>0.2717557533882832</v>
+        <v>0.1375144863728643</v>
       </c>
       <c r="N230" t="n">
-        <v>0.08633230064120329</v>
+        <v>0.08544482082270699</v>
       </c>
       <c r="O230" t="n">
-        <v>0.2737309128170397</v>
+        <v>0.1374773400901672</v>
       </c>
     </row>
     <row r="231" ht="15" customHeight="1">
       <c r="F231" t="n">
-        <v>0.02317096346852433</v>
+        <v>0.005005614697969944</v>
       </c>
       <c r="G231" t="n">
-        <v>0.2727392577221889</v>
+        <v>0.06156425875999805</v>
       </c>
       <c r="J231" t="n">
-        <v>0.0255556095315546</v>
+        <v>0.02584040964906364</v>
       </c>
       <c r="K231" t="n">
-        <v>0.2743706071990633</v>
+        <v>0.1409715306091633</v>
       </c>
       <c r="L231" t="n">
-        <v>0.05576288724089817</v>
+        <v>0.05582109140441474</v>
       </c>
       <c r="M231" t="n">
-        <v>0.2734027579542728</v>
+        <v>0.1383479075023968</v>
       </c>
       <c r="N231" t="n">
-        <v>0.0854922915686066</v>
+        <v>0.08620830738202456</v>
       </c>
       <c r="O231" t="n">
-        <v>0.2753898880462338</v>
+        <v>0.1383105360907136</v>
       </c>
     </row>
     <row r="232" ht="15" customHeight="1">
       <c r="F232" t="n">
-        <v>0.02481871789585815</v>
+        <v>0.004865334065054447</v>
       </c>
       <c r="G232" t="n">
-        <v>0.2743822652988285</v>
+        <v>0.06153417234879096</v>
       </c>
       <c r="J232" t="n">
-        <v>0.02519629839412843</v>
+        <v>0.0257292136564705</v>
       </c>
       <c r="K232" t="n">
-        <v>0.2760234421821901</v>
+        <v>0.1418207566971703</v>
       </c>
       <c r="L232" t="n">
-        <v>0.05438343996296305</v>
+        <v>0.05559711427093811</v>
       </c>
       <c r="M232" t="n">
-        <v>0.2750497625202623</v>
+        <v>0.1391813286319293</v>
       </c>
       <c r="N232" t="n">
-        <v>0.0845940703457605</v>
+        <v>0.08607141782683686</v>
       </c>
       <c r="O232" t="n">
-        <v>0.277048863275428</v>
+        <v>0.1391437320912601</v>
       </c>
     </row>
     <row r="233" ht="15" customHeight="1">
       <c r="F233" t="n">
-        <v>0.02445936036939083</v>
+        <v>0.004739973130537402</v>
       </c>
       <c r="G233" t="n">
-        <v>0.2760252728754682</v>
+        <v>0.06150408593758387</v>
       </c>
       <c r="J233" t="n">
-        <v>0.02502819768247559</v>
+        <v>0.02571793665936314</v>
       </c>
       <c r="K233" t="n">
-        <v>0.277676277165317</v>
+        <v>0.1426699827851773</v>
       </c>
       <c r="L233" t="n">
-        <v>0.05358691232005194</v>
+        <v>0.05577320803483352</v>
       </c>
       <c r="M233" t="n">
-        <v>0.276696767086252</v>
+        <v>0.1400147497614618</v>
       </c>
       <c r="N233" t="n">
-        <v>0.0828632640183245</v>
+        <v>0.08563464209682292</v>
       </c>
       <c r="O233" t="n">
-        <v>0.2787078385046222</v>
+        <v>0.1399769280918066</v>
       </c>
     </row>
     <row r="234" ht="15" customHeight="1">
       <c r="F234" t="n">
-        <v>0.02310020112604965</v>
+        <v>0.004630280259690756</v>
       </c>
       <c r="G234" t="n">
-        <v>0.277668280452108</v>
+        <v>0.06147399952637678</v>
       </c>
       <c r="J234" t="n">
-        <v>0.02455890192166506</v>
+        <v>0.02560674437486181</v>
       </c>
       <c r="K234" t="n">
-        <v>0.2793291121484439</v>
+        <v>0.1435192088731843</v>
       </c>
       <c r="L234" t="n">
-        <v>0.05288959967543161</v>
+        <v>0.05584950937520972</v>
       </c>
       <c r="M234" t="n">
-        <v>0.2783437716522416</v>
+        <v>0.1408481708909944</v>
       </c>
       <c r="N234" t="n">
-        <v>0.08222549963195769</v>
+        <v>0.08519818567813436</v>
       </c>
       <c r="O234" t="n">
-        <v>0.2803668137338164</v>
+        <v>0.140810124092353</v>
       </c>
     </row>
     <row r="235" ht="15" customHeight="1">
       <c r="F235" t="n">
-        <v>0.02174855040276188</v>
+        <v>0.004537003817786434</v>
       </c>
       <c r="G235" t="n">
-        <v>0.2793112880287477</v>
+        <v>0.0614439131151697</v>
       </c>
       <c r="J235" t="n">
-        <v>0.0241960056367658</v>
+        <v>0.02569565232107113</v>
       </c>
       <c r="K235" t="n">
-        <v>0.2809819471315708</v>
+        <v>0.1443684349611913</v>
       </c>
       <c r="L235" t="n">
-        <v>0.05200779739236877</v>
+        <v>0.05592602238125821</v>
       </c>
       <c r="M235" t="n">
-        <v>0.2799907762182312</v>
+        <v>0.1416815920205269</v>
       </c>
       <c r="N235" t="n">
-        <v>0.08080640423231938</v>
+        <v>0.08586205485836784</v>
       </c>
       <c r="O235" t="n">
-        <v>0.2820257889630106</v>
+        <v>0.1416433200928995</v>
       </c>
     </row>
     <row r="236" ht="15" customHeight="1">
       <c r="F236" t="n">
-        <v>0.02341171843645477</v>
+        <v>0.004460892170096403</v>
       </c>
       <c r="G236" t="n">
-        <v>0.2809542956053873</v>
+        <v>0.06141382670396262</v>
       </c>
       <c r="J236" t="n">
-        <v>0.02374710335284676</v>
+        <v>0.02568466249300723</v>
       </c>
       <c r="K236" t="n">
-        <v>0.2826347821146977</v>
+        <v>0.1452176610491983</v>
       </c>
       <c r="L236" t="n">
-        <v>0.05135780083412997</v>
+        <v>0.05550275114217079</v>
       </c>
       <c r="M236" t="n">
-        <v>0.2816377807842207</v>
+        <v>0.1425150131500594</v>
       </c>
       <c r="N236" t="n">
-        <v>0.07943160486506901</v>
+        <v>0.08542625592511993</v>
       </c>
       <c r="O236" t="n">
-        <v>0.2836847641922047</v>
+        <v>0.142476516093446</v>
       </c>
     </row>
     <row r="237" ht="15" customHeight="1">
       <c r="F237" t="n">
-        <v>0.02209701546405556</v>
+        <v>0.004402693681892535</v>
       </c>
       <c r="G237" t="n">
-        <v>0.282597303182027</v>
+        <v>0.06138374029275553</v>
       </c>
       <c r="J237" t="n">
-        <v>0.02361978959497694</v>
+        <v>0.02567377688568633</v>
       </c>
       <c r="K237" t="n">
-        <v>0.2842876170978245</v>
+        <v>0.1460668871372054</v>
       </c>
       <c r="L237" t="n">
-        <v>0.05055590536398197</v>
+        <v>0.05587969974713905</v>
       </c>
       <c r="M237" t="n">
-        <v>0.2832847853502103</v>
+        <v>0.1433484342795919</v>
       </c>
       <c r="N237" t="n">
-        <v>0.0784267285758658</v>
+        <v>0.08539079516598735</v>
       </c>
       <c r="O237" t="n">
-        <v>0.2853437394213989</v>
+        <v>0.1433097120939925</v>
       </c>
     </row>
     <row r="238" ht="15" customHeight="1">
       <c r="F238" t="n">
-        <v>0.02280891566118717</v>
+        <v>0.004363156718446795</v>
       </c>
       <c r="G238" t="n">
-        <v>0.2842403107586667</v>
+        <v>0.06135365388154844</v>
       </c>
       <c r="J238" t="n">
-        <v>0.02332059716712398</v>
+        <v>0.02556299749412454</v>
       </c>
       <c r="K238" t="n">
-        <v>0.2859404520809514</v>
+        <v>0.1469161132252124</v>
       </c>
       <c r="L238" t="n">
-        <v>0.05041398720241067</v>
+        <v>0.05545687228535462</v>
       </c>
       <c r="M238" t="n">
-        <v>0.2849317899161999</v>
+        <v>0.1441818554091244</v>
       </c>
       <c r="N238" t="n">
-        <v>0.07771614086816792</v>
+        <v>0.08515567886856684</v>
       </c>
       <c r="O238" t="n">
-        <v>0.2870027146505931</v>
+        <v>0.1441429080945389</v>
       </c>
     </row>
     <row r="239" ht="15" customHeight="1">
       <c r="F239" t="n">
-        <v>0.02252581668716975</v>
+        <v>0.004343029645031124</v>
       </c>
       <c r="G239" t="n">
-        <v>0.2858833183353064</v>
+        <v>0.06132356747034135</v>
       </c>
       <c r="J239" t="n">
-        <v>0.02293014338622854</v>
+        <v>0.02565232631333808</v>
       </c>
       <c r="K239" t="n">
-        <v>0.2875932870640783</v>
+        <v>0.1477653393132194</v>
       </c>
       <c r="L239" t="n">
-        <v>0.0492861335179057</v>
+        <v>0.05573427284600918</v>
       </c>
       <c r="M239" t="n">
-        <v>0.2865787944821895</v>
+        <v>0.1450152765386569</v>
       </c>
       <c r="N239" t="n">
-        <v>0.076343622460877</v>
+        <v>0.08502091332045497</v>
       </c>
       <c r="O239" t="n">
-        <v>0.2886616898797872</v>
+        <v>0.1449761040950854</v>
       </c>
     </row>
     <row r="240" ht="15" customHeight="1">
       <c r="F240" t="n">
-        <v>0.02124163710671733</v>
+        <v>0.004340484287070755</v>
       </c>
       <c r="G240" t="n">
-        <v>0.2875263259119461</v>
+        <v>0.06129348105913428</v>
       </c>
       <c r="J240" t="n">
-        <v>0.02253857632443824</v>
+        <v>0.02564176533834311</v>
       </c>
       <c r="K240" t="n">
-        <v>0.2892461220472052</v>
+        <v>0.1486145654012264</v>
       </c>
       <c r="L240" t="n">
-        <v>0.04915587922459638</v>
+        <v>0.05541190551829425</v>
       </c>
       <c r="M240" t="n">
-        <v>0.2882257990481791</v>
+        <v>0.1458486976681894</v>
       </c>
       <c r="N240" t="n">
-        <v>0.07506736690872046</v>
+        <v>0.08588650480924853</v>
       </c>
       <c r="O240" t="n">
-        <v>0.2903206651089814</v>
+        <v>0.1458093000956318</v>
       </c>
     </row>
     <row r="241" ht="15" customHeight="1">
       <c r="F241" t="n">
-        <v>0.02195635960160753</v>
+        <v>0.004340630038877295</v>
       </c>
       <c r="G241" t="n">
-        <v>0.2891693334885858</v>
+        <v>0.06126339464792719</v>
       </c>
       <c r="J241" t="n">
-        <v>0.02224587799004159</v>
+        <v>0.02553131656415575</v>
       </c>
       <c r="K241" t="n">
-        <v>0.2908989570303321</v>
+        <v>0.1494637914892334</v>
       </c>
       <c r="L241" t="n">
-        <v>0.0484231857181629</v>
+        <v>0.05538977439140164</v>
       </c>
       <c r="M241" t="n">
-        <v>0.2898728036141687</v>
+        <v>0.1466821187977219</v>
       </c>
       <c r="N241" t="n">
-        <v>0.07448731350027687</v>
+        <v>0.08525245962254402</v>
       </c>
       <c r="O241" t="n">
-        <v>0.2919796403381756</v>
+        <v>0.1466424960961783</v>
       </c>
     </row>
     <row r="242" ht="15" customHeight="1">
       <c r="F242" t="n">
-        <v>0.02066996685361799</v>
+        <v>0.004341179411071198</v>
       </c>
       <c r="G242" t="n">
-        <v>0.2908123410652255</v>
+        <v>0.0612333082367201</v>
       </c>
       <c r="J242" t="n">
-        <v>0.02215203039132702</v>
+        <v>0.0257209819857922</v>
       </c>
       <c r="K242" t="n">
-        <v>0.292551792013459</v>
+        <v>0.1503130175772404</v>
       </c>
       <c r="L242" t="n">
-        <v>0.0477880143942854</v>
+        <v>0.05526788355452286</v>
       </c>
       <c r="M242" t="n">
-        <v>0.2915198081801583</v>
+        <v>0.1475155399272544</v>
       </c>
       <c r="N242" t="n">
-        <v>0.07350340152412482</v>
+        <v>0.0852187840479382</v>
       </c>
       <c r="O242" t="n">
-        <v>0.2936386155673698</v>
+        <v>0.1474756920967248</v>
       </c>
     </row>
     <row r="243" ht="15" customHeight="1">
       <c r="F243" t="n">
-        <v>0.02138244154452636</v>
+        <v>0.004342401483910671</v>
       </c>
       <c r="G243" t="n">
-        <v>0.2924553486418652</v>
+        <v>0.06120322182551301</v>
       </c>
       <c r="J243" t="n">
-        <v>0.02165701553658306</v>
+        <v>0.02571076359826863</v>
       </c>
       <c r="K243" t="n">
-        <v>0.2942046269965858</v>
+        <v>0.1511622436652474</v>
       </c>
       <c r="L243" t="n">
-        <v>0.04735032664864397</v>
+        <v>0.05514623709684965</v>
       </c>
       <c r="M243" t="n">
-        <v>0.2931668127461479</v>
+        <v>0.1483489610567869</v>
       </c>
       <c r="N243" t="n">
-        <v>0.07241557026884266</v>
+        <v>0.08488548437302768</v>
       </c>
       <c r="O243" t="n">
-        <v>0.295297590796564</v>
+        <v>0.1483088880972712</v>
       </c>
     </row>
     <row r="244" ht="15" customHeight="1">
       <c r="F244" t="n">
-        <v>0.02009376635611023</v>
+        <v>0.004344565337653955</v>
       </c>
       <c r="G244" t="n">
-        <v>0.2940983562185049</v>
+        <v>0.06117313541430593</v>
       </c>
       <c r="J244" t="n">
-        <v>0.02156081543409816</v>
+        <v>0.02550066339660118</v>
       </c>
       <c r="K244" t="n">
-        <v>0.2958574619797127</v>
+        <v>0.1520114697532544</v>
       </c>
       <c r="L244" t="n">
-        <v>0.04641008387691878</v>
+        <v>0.05562483910757357</v>
       </c>
       <c r="M244" t="n">
-        <v>0.2948138173121375</v>
+        <v>0.1491823821863195</v>
       </c>
       <c r="N244" t="n">
-        <v>0.07132375902300891</v>
+        <v>0.08535256688540926</v>
       </c>
       <c r="O244" t="n">
-        <v>0.2969565660257582</v>
+        <v>0.1491420840978177</v>
       </c>
     </row>
     <row r="245" ht="15" customHeight="1">
       <c r="F245" t="n">
-        <v>0.01980392397014725</v>
+        <v>0.004347940052559299</v>
       </c>
       <c r="G245" t="n">
-        <v>0.2957413637951445</v>
+        <v>0.06114304900309885</v>
       </c>
       <c r="J245" t="n">
-        <v>0.02116341209216081</v>
+        <v>0.02549068337580604</v>
       </c>
       <c r="K245" t="n">
-        <v>0.2975102969628396</v>
+        <v>0.1528606958412614</v>
       </c>
       <c r="L245" t="n">
-        <v>0.04576724747478988</v>
+        <v>0.05570369367588629</v>
       </c>
       <c r="M245" t="n">
-        <v>0.2964608218781271</v>
+        <v>0.150015803315852</v>
       </c>
       <c r="N245" t="n">
-        <v>0.07012790707520217</v>
+        <v>0.08572003787267951</v>
       </c>
       <c r="O245" t="n">
-        <v>0.2986155412549523</v>
+        <v>0.1499752800983642</v>
       </c>
     </row>
     <row r="246" ht="15" customHeight="1">
       <c r="F246" t="n">
-        <v>0.01851289706841506</v>
+        <v>0.004352794708884916</v>
       </c>
       <c r="G246" t="n">
-        <v>0.2973843713717843</v>
+        <v>0.06111296259189176</v>
       </c>
       <c r="J246" t="n">
-        <v>0.02076478751905948</v>
+        <v>0.02548082553089939</v>
       </c>
       <c r="K246" t="n">
-        <v>0.2991631319459665</v>
+        <v>0.1537099219292684</v>
       </c>
       <c r="L246" t="n">
-        <v>0.0448217788379375</v>
+        <v>0.05568280489097946</v>
       </c>
       <c r="M246" t="n">
-        <v>0.2981078264441167</v>
+        <v>0.1508492244453845</v>
       </c>
       <c r="N246" t="n">
-        <v>0.06982795371400075</v>
+        <v>0.08528790362243499</v>
       </c>
       <c r="O246" t="n">
-        <v>0.3002745164841465</v>
+        <v>0.1508084760989107</v>
       </c>
     </row>
     <row r="247" ht="15" customHeight="1">
       <c r="F247" t="n">
-        <v>0.02022066833269127</v>
+        <v>0.004359398386889063</v>
       </c>
       <c r="G247" t="n">
-        <v>0.2990273789484239</v>
+        <v>0.06108287618068467</v>
       </c>
       <c r="J247" t="n">
-        <v>0.02046492372308266</v>
+        <v>0.02547109185689736</v>
       </c>
       <c r="K247" t="n">
-        <v>0.3008159669290935</v>
+        <v>0.1545591480172754</v>
       </c>
       <c r="L247" t="n">
-        <v>0.04417363936204177</v>
+        <v>0.05546217684204469</v>
       </c>
       <c r="M247" t="n">
-        <v>0.2997548310101063</v>
+        <v>0.151682645574917</v>
       </c>
       <c r="N247" t="n">
-        <v>0.06902383822798325</v>
+        <v>0.08565617042227264</v>
       </c>
       <c r="O247" t="n">
-        <v>0.3019334917133407</v>
+        <v>0.1516416720994571</v>
       </c>
     </row>
     <row r="248" ht="15" customHeight="1">
       <c r="F248" t="n">
-        <v>0.01992722044475353</v>
+        <v>0.004368020166829939</v>
       </c>
       <c r="G248" t="n">
-        <v>0.3006703865250636</v>
+        <v>0.06105278976947758</v>
       </c>
       <c r="J248" t="n">
-        <v>0.02026380271251885</v>
+        <v>0.02566148434881613</v>
       </c>
       <c r="K248" t="n">
-        <v>0.3024688019122203</v>
+        <v>0.1554083741052824</v>
       </c>
       <c r="L248" t="n">
-        <v>0.04362279044278275</v>
+        <v>0.05564181361827364</v>
       </c>
       <c r="M248" t="n">
-        <v>0.3014018355760958</v>
+        <v>0.1525160667044495</v>
       </c>
       <c r="N248" t="n">
-        <v>0.06771549990572828</v>
+        <v>0.08482484455978884</v>
       </c>
       <c r="O248" t="n">
-        <v>0.3035924669425349</v>
+        <v>0.1524748681000036</v>
       </c>
     </row>
     <row r="249" ht="15" customHeight="1">
       <c r="F249" t="n">
-        <v>0.01963253608637946</v>
+        <v>0.004378929128965807</v>
       </c>
       <c r="G249" t="n">
-        <v>0.3023133941017033</v>
+        <v>0.06102270335827051</v>
       </c>
       <c r="J249" t="n">
-        <v>0.0198614064956565</v>
+        <v>0.02545200500167186</v>
       </c>
       <c r="K249" t="n">
-        <v>0.3041216368953472</v>
+        <v>0.1562576001932895</v>
       </c>
       <c r="L249" t="n">
-        <v>0.04306919347584062</v>
+        <v>0.05552171930885796</v>
       </c>
       <c r="M249" t="n">
-        <v>0.3030488401420854</v>
+        <v>0.153349487833982</v>
       </c>
       <c r="N249" t="n">
-        <v>0.06620287803581409</v>
+        <v>0.08549393232258046</v>
       </c>
       <c r="O249" t="n">
-        <v>0.3052514421717291</v>
+        <v>0.1533080641005501</v>
       </c>
     </row>
     <row r="250" ht="15" customHeight="1">
       <c r="F250" t="n">
-        <v>0.01733659793934669</v>
+        <v>0.004392394353554881</v>
       </c>
       <c r="G250" t="n">
-        <v>0.303956401678343</v>
+        <v>0.06099261694706342</v>
       </c>
       <c r="J250" t="n">
-        <v>0.01975771708078408</v>
+        <v>0.02564265581048072</v>
       </c>
       <c r="K250" t="n">
-        <v>0.3057744718784741</v>
+        <v>0.1571068262812964</v>
       </c>
       <c r="L250" t="n">
-        <v>0.04261280985689553</v>
+        <v>0.05510189800298931</v>
       </c>
       <c r="M250" t="n">
-        <v>0.304695844708075</v>
+        <v>0.1541829089635145</v>
       </c>
       <c r="N250" t="n">
-        <v>0.06518591190681933</v>
+        <v>0.08546343999824407</v>
       </c>
       <c r="O250" t="n">
-        <v>0.3069104174009232</v>
+        <v>0.1541412601010965</v>
       </c>
     </row>
     <row r="251" ht="15" customHeight="1">
       <c r="F251" t="n">
-        <v>0.01703938868543286</v>
+        <v>0.004408684920855409</v>
       </c>
       <c r="G251" t="n">
-        <v>0.3055994092549827</v>
+        <v>0.06096253053585633</v>
       </c>
       <c r="J251" t="n">
-        <v>0.01925271647619012</v>
+        <v>0.02543343877025889</v>
       </c>
       <c r="K251" t="n">
-        <v>0.307427306861601</v>
+        <v>0.1579560523693035</v>
       </c>
       <c r="L251" t="n">
-        <v>0.04175360098162756</v>
+        <v>0.0554823537898593</v>
       </c>
       <c r="M251" t="n">
-        <v>0.3063428492740647</v>
+        <v>0.155016330093047</v>
       </c>
       <c r="N251" t="n">
-        <v>0.06406454080732249</v>
+        <v>0.08513337387437625</v>
       </c>
       <c r="O251" t="n">
-        <v>0.3085693926301174</v>
+        <v>0.154974456101643</v>
       </c>
     </row>
     <row r="252" ht="15" customHeight="1">
       <c r="F252" t="n">
-        <v>0.01874089100641559</v>
+        <v>0.004428069911125626</v>
       </c>
       <c r="G252" t="n">
-        <v>0.3072424168316224</v>
+        <v>0.06093244412464924</v>
       </c>
       <c r="J252" t="n">
-        <v>0.01904638669016308</v>
+        <v>0.02552435587602253</v>
       </c>
       <c r="K252" t="n">
-        <v>0.3090801418447279</v>
+        <v>0.1588052784573105</v>
       </c>
       <c r="L252" t="n">
-        <v>0.04149152824571686</v>
+        <v>0.05536309075865956</v>
       </c>
       <c r="M252" t="n">
-        <v>0.3079898538400543</v>
+        <v>0.1558497512225795</v>
       </c>
       <c r="N252" t="n">
-        <v>0.06313870402590199</v>
+        <v>0.08500374023857388</v>
       </c>
       <c r="O252" t="n">
-        <v>0.3102283678593116</v>
+        <v>0.1558076521021895</v>
       </c>
     </row>
     <row r="253" ht="15" customHeight="1">
       <c r="F253" t="n">
-        <v>0.0174410875840725</v>
+        <v>0.00445081840462374</v>
       </c>
       <c r="G253" t="n">
-        <v>0.3088854244082621</v>
+        <v>0.06090235771344216</v>
       </c>
       <c r="J253" t="n">
-        <v>0.0187387097309914</v>
+        <v>0.02551540912278777</v>
       </c>
       <c r="K253" t="n">
-        <v>0.3107329768278547</v>
+        <v>0.1596545045453175</v>
       </c>
       <c r="L253" t="n">
-        <v>0.0402265530448436</v>
+        <v>0.05534411299858175</v>
       </c>
       <c r="M253" t="n">
-        <v>0.3096368584060438</v>
+        <v>0.156683172352112</v>
       </c>
       <c r="N253" t="n">
-        <v>0.0623083408511364</v>
+        <v>0.08507454537843345</v>
       </c>
       <c r="O253" t="n">
-        <v>0.3118873430885058</v>
+        <v>0.1566408481027359</v>
       </c>
     </row>
     <row r="254" ht="15" customHeight="1">
       <c r="F254" t="n">
-        <v>0.01813996110018125</v>
+        <v>0.004477199481608005</v>
       </c>
       <c r="G254" t="n">
-        <v>0.3105284319849018</v>
+        <v>0.06087227130223508</v>
       </c>
       <c r="J254" t="n">
-        <v>0.01832966760696358</v>
+        <v>0.02540660050557082</v>
       </c>
       <c r="K254" t="n">
-        <v>0.3123858118109816</v>
+        <v>0.1605037306333245</v>
       </c>
       <c r="L254" t="n">
-        <v>0.03955863677468788</v>
+        <v>0.05512542459881747</v>
       </c>
       <c r="M254" t="n">
-        <v>0.3112838629720334</v>
+        <v>0.1575165934816446</v>
       </c>
       <c r="N254" t="n">
-        <v>0.06147339057160411</v>
+        <v>0.0854457955815518</v>
       </c>
       <c r="O254" t="n">
-        <v>0.3135463183177</v>
+        <v>0.1574740441032824</v>
       </c>
     </row>
     <row r="255" ht="15" customHeight="1">
       <c r="F255" t="n">
-        <v>0.01783749423651945</v>
+        <v>0.004507482222336649</v>
       </c>
       <c r="G255" t="n">
-        <v>0.3121714395615415</v>
+        <v>0.06084218489102799</v>
       </c>
       <c r="J255" t="n">
-        <v>0.01811924232636813</v>
+        <v>0.02539793201938784</v>
       </c>
       <c r="K255" t="n">
-        <v>0.3140386467941085</v>
+        <v>0.1613529567213315</v>
       </c>
       <c r="L255" t="n">
-        <v>0.03888774083092983</v>
+        <v>0.05510702964855849</v>
       </c>
       <c r="M255" t="n">
-        <v>0.312930867538023</v>
+        <v>0.1583500146111771</v>
       </c>
       <c r="N255" t="n">
-        <v>0.06033379247588372</v>
+        <v>0.08531749713552539</v>
       </c>
       <c r="O255" t="n">
-        <v>0.3152052935468941</v>
+        <v>0.1583072401038289</v>
       </c>
     </row>
     <row r="256" ht="15" customHeight="1">
       <c r="F256" t="n">
-        <v>0.01653366967486473</v>
+        <v>0.004541935707067915</v>
       </c>
       <c r="G256" t="n">
-        <v>0.3138144471381812</v>
+        <v>0.0608120984798209</v>
       </c>
       <c r="J256" t="n">
-        <v>0.01790741589749353</v>
+        <v>0.02548940565925499</v>
       </c>
       <c r="K256" t="n">
-        <v>0.3156914817772354</v>
+        <v>0.1622021828093385</v>
       </c>
       <c r="L256" t="n">
-        <v>0.03831382660924959</v>
+        <v>0.05508893223699632</v>
       </c>
       <c r="M256" t="n">
-        <v>0.3145778721040126</v>
+        <v>0.1591834357407096</v>
       </c>
       <c r="N256" t="n">
-        <v>0.0589894858525537</v>
+        <v>0.08538965632795098</v>
       </c>
       <c r="O256" t="n">
-        <v>0.3168642687760883</v>
+        <v>0.1591404361043753</v>
       </c>
     </row>
     <row r="257" ht="15" customHeight="1">
       <c r="F257" t="n">
-        <v>0.01622847009699473</v>
+        <v>0.004580829016060023</v>
       </c>
       <c r="G257" t="n">
-        <v>0.3154574547148209</v>
+        <v>0.06078201206861381</v>
       </c>
       <c r="J257" t="n">
-        <v>0.01739417032862821</v>
+        <v>0.02558102342018843</v>
       </c>
       <c r="K257" t="n">
-        <v>0.3173443167603623</v>
+        <v>0.1630514088973455</v>
       </c>
       <c r="L257" t="n">
-        <v>0.03813685550532725</v>
+        <v>0.05547113645332261</v>
       </c>
       <c r="M257" t="n">
-        <v>0.3162248766700023</v>
+        <v>0.1600168568702421</v>
       </c>
       <c r="N257" t="n">
-        <v>0.05784040999019247</v>
+        <v>0.08466227944642529</v>
       </c>
       <c r="O257" t="n">
-        <v>0.3185232440052825</v>
+        <v>0.1599736321049218</v>
       </c>
     </row>
     <row r="258" ht="15" customHeight="1">
       <c r="F258" t="n">
-        <v>0.01692187818468707</v>
+        <v>0.004624431229571194</v>
       </c>
       <c r="G258" t="n">
-        <v>0.3171004622914605</v>
+        <v>0.06075192565740674</v>
       </c>
       <c r="J258" t="n">
-        <v>0.0172794876280607</v>
+        <v>0.02547278729720433</v>
       </c>
       <c r="K258" t="n">
-        <v>0.3189971517434891</v>
+        <v>0.1639006349853525</v>
       </c>
       <c r="L258" t="n">
-        <v>0.03745678891484303</v>
+        <v>0.05495364638672909</v>
       </c>
       <c r="M258" t="n">
-        <v>0.3178718812359918</v>
+        <v>0.1608502779997746</v>
       </c>
       <c r="N258" t="n">
-        <v>0.05708650417737865</v>
+        <v>0.08523537277854493</v>
       </c>
       <c r="O258" t="n">
-        <v>0.3201822192344767</v>
+        <v>0.1608068281054683</v>
       </c>
     </row>
     <row r="259" ht="15" customHeight="1">
       <c r="F259" t="n">
-        <v>0.01661387661971937</v>
+        <v>0.00467301142785969</v>
       </c>
       <c r="G259" t="n">
-        <v>0.3187434698681003</v>
+        <v>0.06072183924619965</v>
       </c>
       <c r="J259" t="n">
-        <v>0.01676334980407945</v>
+        <v>0.02536469928531884</v>
       </c>
       <c r="K259" t="n">
-        <v>0.320649986726616</v>
+        <v>0.1647498610733595</v>
       </c>
       <c r="L259" t="n">
-        <v>0.03627358823347701</v>
+        <v>0.05493646612640726</v>
       </c>
       <c r="M259" t="n">
-        <v>0.3195188858019814</v>
+        <v>0.1616836991293071</v>
       </c>
       <c r="N259" t="n">
-        <v>0.05652770770269061</v>
+        <v>0.08530894261190658</v>
       </c>
       <c r="O259" t="n">
-        <v>0.3218411944636709</v>
+        <v>0.1616400241060147</v>
       </c>
     </row>
     <row r="260" ht="15" customHeight="1">
       <c r="F260" t="n">
-        <v>0.01530444808386929</v>
+        <v>0.004726838691183732</v>
       </c>
       <c r="G260" t="n">
-        <v>0.32038647744474</v>
+        <v>0.06069175283499256</v>
       </c>
       <c r="J260" t="n">
-        <v>0.01664573886497296</v>
+        <v>0.02555676137954817</v>
       </c>
       <c r="K260" t="n">
-        <v>0.3223028217097429</v>
+        <v>0.1655990871613665</v>
       </c>
       <c r="L260" t="n">
-        <v>0.03608721485690936</v>
+        <v>0.05521959976154889</v>
       </c>
       <c r="M260" t="n">
-        <v>0.321165890367971</v>
+        <v>0.1625171202588396</v>
       </c>
       <c r="N260" t="n">
-        <v>0.05546395985470692</v>
+        <v>0.08488299523410681</v>
       </c>
       <c r="O260" t="n">
-        <v>0.323500169692865</v>
+        <v>0.1624732201065612</v>
       </c>
     </row>
     <row r="261" ht="15" customHeight="1">
       <c r="F261" t="n">
-        <v>0.01499357525891445</v>
+        <v>0.004786182099801563</v>
       </c>
       <c r="G261" t="n">
-        <v>0.3220294850213796</v>
+        <v>0.06066166642378547</v>
       </c>
       <c r="J261" t="n">
-        <v>0.01612663681902968</v>
+        <v>0.02534897557490844</v>
       </c>
       <c r="K261" t="n">
-        <v>0.3239556566928698</v>
+        <v>0.1664483132493735</v>
       </c>
       <c r="L261" t="n">
-        <v>0.03509763018082016</v>
+        <v>0.05510305138134558</v>
       </c>
       <c r="M261" t="n">
-        <v>0.3228128949339606</v>
+        <v>0.1633505413883722</v>
       </c>
       <c r="N261" t="n">
-        <v>0.05439519992200609</v>
+        <v>0.08435753693274239</v>
       </c>
       <c r="O261" t="n">
-        <v>0.3251591449220593</v>
+        <v>0.1633064161071077</v>
       </c>
     </row>
     <row r="262" ht="15" customHeight="1">
       <c r="F262" t="n">
-        <v>0.01368124082663248</v>
+        <v>0.00485131073397136</v>
       </c>
       <c r="G262" t="n">
-        <v>0.3236724925980193</v>
+        <v>0.06063158001257839</v>
       </c>
       <c r="J262" t="n">
-        <v>0.01600602567453814</v>
+        <v>0.02544134386641583</v>
       </c>
       <c r="K262" t="n">
-        <v>0.3256084916759967</v>
+        <v>0.1672975393373805</v>
       </c>
       <c r="L262" t="n">
-        <v>0.03460479560088955</v>
+        <v>0.05498682507498895</v>
       </c>
       <c r="M262" t="n">
-        <v>0.3244598994999502</v>
+        <v>0.1641839625179047</v>
       </c>
       <c r="N262" t="n">
-        <v>0.05272136719316645</v>
+        <v>0.08453257399541009</v>
       </c>
       <c r="O262" t="n">
-        <v>0.3268181201512534</v>
+        <v>0.1641396121076542</v>
       </c>
     </row>
     <row r="263" ht="15" customHeight="1">
       <c r="F263" t="n">
-        <v>0.01336742746880098</v>
+        <v>0.004922493673951443</v>
       </c>
       <c r="G263" t="n">
-        <v>0.325315500174659</v>
+        <v>0.06060149360137131</v>
       </c>
       <c r="J263" t="n">
-        <v>0.01558388743978678</v>
+        <v>0.02553386824908652</v>
       </c>
       <c r="K263" t="n">
-        <v>0.3272613266591236</v>
+        <v>0.1681467654253876</v>
       </c>
       <c r="L263" t="n">
-        <v>0.03370867251279766</v>
+        <v>0.05507092493167068</v>
       </c>
       <c r="M263" t="n">
-        <v>0.3261069040659398</v>
+        <v>0.1650173836474372</v>
       </c>
       <c r="N263" t="n">
-        <v>0.0516424009567667</v>
+        <v>0.08440811270970633</v>
       </c>
       <c r="O263" t="n">
-        <v>0.3284770953804476</v>
+        <v>0.1649728081082006</v>
       </c>
     </row>
     <row r="264" ht="15" customHeight="1">
       <c r="F264" t="n">
-        <v>0.01505211786719762</v>
+        <v>0.004999999999999998</v>
       </c>
       <c r="G264" t="n">
-        <v>0.3269585077512987</v>
+        <v>0.06057140719016422</v>
       </c>
       <c r="J264" t="n">
-        <v>0.0152602041230641</v>
+        <v>0.02542655071793665</v>
       </c>
       <c r="K264" t="n">
-        <v>0.3289141616422505</v>
+        <v>0.1689959915133946</v>
       </c>
       <c r="L264" t="n">
-        <v>0.03330922231222466</v>
+        <v>0.05525535504058235</v>
       </c>
       <c r="M264" t="n">
-        <v>0.3277539086319294</v>
+        <v>0.1658508047769697</v>
       </c>
       <c r="N264" t="n">
-        <v>0.05035824050138521</v>
+        <v>0.08428415936322797</v>
       </c>
       <c r="O264" t="n">
-        <v>0.3301360706096417</v>
-      </c>
-    </row>
-    <row r="265" ht="15" customHeight="1"/>
-    <row r="266" ht="15" customHeight="1"/>
-    <row r="267" ht="15" customHeight="1"/>
-    <row r="268" ht="15" customHeight="1"/>
-    <row r="269" ht="15" customHeight="1"/>
-    <row r="270" ht="15" customHeight="1"/>
-    <row r="271" ht="15" customHeight="1"/>
-    <row r="272" ht="15" customHeight="1"/>
-    <row r="273" ht="15" customHeight="1"/>
-    <row r="274" ht="15" customHeight="1"/>
-    <row r="275" ht="15" customHeight="1"/>
-    <row r="276" ht="15" customHeight="1"/>
-    <row r="277" ht="15" customHeight="1"/>
-    <row r="278" ht="15" customHeight="1"/>
-    <row r="279" ht="15" customHeight="1"/>
-    <row r="280" ht="15" customHeight="1"/>
-    <row r="281" ht="15" customHeight="1"/>
-    <row r="282" ht="15" customHeight="1"/>
-    <row r="283" ht="15" customHeight="1"/>
-    <row r="284" ht="15" customHeight="1"/>
-    <row r="285" ht="15" customHeight="1"/>
-    <row r="286" ht="15" customHeight="1"/>
-    <row r="287" ht="15" customHeight="1"/>
-    <row r="288" ht="15" customHeight="1"/>
-    <row r="289" ht="15" customHeight="1"/>
-    <row r="290" ht="15" customHeight="1"/>
-    <row r="291" ht="15" customHeight="1"/>
-    <row r="292" ht="15" customHeight="1"/>
-    <row r="293" ht="15" customHeight="1"/>
-    <row r="294" ht="15" customHeight="1"/>
-    <row r="295" ht="15" customHeight="1"/>
-    <row r="296" ht="15" customHeight="1"/>
-    <row r="297" ht="15" customHeight="1"/>
-    <row r="298" ht="15" customHeight="1"/>
-    <row r="299" ht="15" customHeight="1"/>
-    <row r="300" ht="15" customHeight="1"/>
-    <row r="301" ht="15" customHeight="1"/>
-    <row r="302" ht="15" customHeight="1"/>
-    <row r="303" ht="15" customHeight="1"/>
-    <row r="304" ht="15" customHeight="1"/>
-    <row r="305" ht="15" customHeight="1"/>
-    <row r="306" ht="15" customHeight="1"/>
-    <row r="307" ht="15" customHeight="1"/>
-    <row r="308" ht="15" customHeight="1"/>
-    <row r="309" ht="15" customHeight="1"/>
-    <row r="310" ht="15" customHeight="1"/>
-    <row r="311" ht="15" customHeight="1"/>
-    <row r="312" ht="15" customHeight="1"/>
-    <row r="313" ht="15" customHeight="1"/>
-    <row r="314" ht="15" customHeight="1"/>
-    <row r="315" ht="15" customHeight="1"/>
-    <row r="316" ht="15" customHeight="1"/>
-    <row r="317" ht="15" customHeight="1"/>
-    <row r="318" ht="15" customHeight="1"/>
-    <row r="319" ht="15" customHeight="1"/>
-    <row r="320" ht="15" customHeight="1"/>
-    <row r="321" ht="15" customHeight="1"/>
-    <row r="322" ht="15" customHeight="1"/>
-    <row r="323" ht="15" customHeight="1"/>
-    <row r="324" ht="15" customHeight="1"/>
-    <row r="325" ht="15" customHeight="1"/>
-    <row r="326" ht="15" customHeight="1"/>
-    <row r="327" ht="15" customHeight="1"/>
-    <row r="328" ht="15" customHeight="1"/>
-    <row r="329" ht="15" customHeight="1"/>
-    <row r="330" ht="15" customHeight="1"/>
-    <row r="331" ht="15" customHeight="1"/>
-    <row r="332" ht="15" customHeight="1"/>
-    <row r="333" ht="15" customHeight="1"/>
-    <row r="334" ht="15" customHeight="1"/>
-    <row r="335" ht="15" customHeight="1"/>
-    <row r="336" ht="15" customHeight="1"/>
-    <row r="337" ht="15" customHeight="1"/>
-    <row r="338" ht="15" customHeight="1"/>
-    <row r="339" ht="15" customHeight="1"/>
-    <row r="340" ht="15" customHeight="1"/>
-    <row r="341" ht="15" customHeight="1"/>
-    <row r="342" ht="15" customHeight="1"/>
-    <row r="343" ht="15" customHeight="1"/>
-    <row r="344" ht="15" customHeight="1"/>
-    <row r="345" ht="15" customHeight="1"/>
-    <row r="346" ht="15" customHeight="1"/>
-    <row r="347" ht="15" customHeight="1"/>
-    <row r="348" ht="15" customHeight="1"/>
-    <row r="349" ht="15" customHeight="1"/>
-    <row r="350" ht="15" customHeight="1"/>
-    <row r="351" ht="15" customHeight="1"/>
-    <row r="352" ht="15" customHeight="1"/>
-    <row r="353" ht="15" customHeight="1"/>
-    <row r="354" ht="15" customHeight="1"/>
-    <row r="355" ht="15" customHeight="1"/>
-    <row r="356" ht="15" customHeight="1"/>
-    <row r="357" ht="15" customHeight="1"/>
-    <row r="358" ht="15" customHeight="1"/>
-    <row r="359" ht="15" customHeight="1"/>
-    <row r="360" ht="15" customHeight="1"/>
-    <row r="361" ht="15" customHeight="1"/>
-    <row r="362" ht="15" customHeight="1"/>
-    <row r="363" ht="15" customHeight="1"/>
-    <row r="364" ht="15" customHeight="1"/>
-    <row r="365" ht="15" customHeight="1"/>
-    <row r="366" ht="15" customHeight="1"/>
-    <row r="367" ht="15" customHeight="1"/>
-    <row r="368" ht="15" customHeight="1"/>
-    <row r="369" ht="15" customHeight="1"/>
-    <row r="370" ht="15" customHeight="1"/>
-    <row r="371" ht="15" customHeight="1"/>
-    <row r="372" ht="15" customHeight="1"/>
-    <row r="373" ht="15" customHeight="1"/>
-    <row r="374" ht="15" customHeight="1"/>
-    <row r="375" ht="15" customHeight="1"/>
-    <row r="376" ht="15" customHeight="1"/>
-    <row r="377" ht="15" customHeight="1"/>
-    <row r="378" ht="15" customHeight="1"/>
-    <row r="379" ht="15" customHeight="1"/>
-    <row r="380" ht="15" customHeight="1"/>
-    <row r="381" ht="15" customHeight="1"/>
-    <row r="382" ht="15" customHeight="1"/>
-    <row r="383" ht="15" customHeight="1"/>
-    <row r="384" ht="15" customHeight="1"/>
-    <row r="385" ht="15" customHeight="1"/>
-    <row r="386" ht="15" customHeight="1"/>
-    <row r="387" ht="15" customHeight="1"/>
-    <row r="388" ht="15" customHeight="1"/>
-    <row r="389" ht="15" customHeight="1"/>
-    <row r="390" ht="15" customHeight="1"/>
-    <row r="391" ht="15" customHeight="1"/>
-    <row r="392" ht="15" customHeight="1"/>
-    <row r="393" ht="15" customHeight="1"/>
-    <row r="394" ht="15" customHeight="1"/>
-    <row r="395" ht="15" customHeight="1"/>
-    <row r="396" ht="15" customHeight="1"/>
-    <row r="397" ht="15" customHeight="1"/>
-    <row r="398" ht="15" customHeight="1"/>
-    <row r="399" ht="15" customHeight="1"/>
-    <row r="400" ht="15" customHeight="1"/>
-    <row r="401" ht="15" customHeight="1"/>
-    <row r="402" ht="15" customHeight="1"/>
-    <row r="403" ht="15" customHeight="1"/>
-    <row r="404" ht="15" customHeight="1"/>
-    <row r="405" ht="15" customHeight="1"/>
-    <row r="406" ht="15" customHeight="1"/>
-    <row r="407" ht="15" customHeight="1"/>
-    <row r="408" ht="15" customHeight="1"/>
-    <row r="409" ht="15" customHeight="1"/>
-    <row r="410" ht="15" customHeight="1"/>
-    <row r="411" ht="15" customHeight="1"/>
-    <row r="412" ht="15" customHeight="1"/>
-    <row r="413" ht="15" customHeight="1"/>
-    <row r="414" ht="15" customHeight="1"/>
-    <row r="415" ht="15" customHeight="1"/>
-    <row r="416" ht="15" customHeight="1"/>
-    <row r="417" ht="15" customHeight="1"/>
-    <row r="418" ht="15" customHeight="1"/>
-    <row r="419" ht="15" customHeight="1"/>
-    <row r="420" ht="15" customHeight="1"/>
-    <row r="421" ht="15" customHeight="1"/>
-    <row r="422" ht="15" customHeight="1"/>
-    <row r="423" ht="15" customHeight="1"/>
-    <row r="424" ht="15" customHeight="1"/>
-    <row r="425" ht="15" customHeight="1"/>
-    <row r="426" ht="15" customHeight="1"/>
-    <row r="427" ht="15" customHeight="1"/>
-    <row r="428" ht="15" customHeight="1"/>
-    <row r="429" ht="15" customHeight="1"/>
-    <row r="430" ht="15" customHeight="1"/>
-    <row r="431" ht="15" customHeight="1"/>
-    <row r="432" ht="15" customHeight="1"/>
-    <row r="433" ht="15" customHeight="1"/>
-    <row r="434" ht="15" customHeight="1"/>
-    <row r="435" ht="15" customHeight="1"/>
-    <row r="436" ht="15" customHeight="1"/>
-    <row r="437" ht="15" customHeight="1"/>
-    <row r="438" ht="15" customHeight="1"/>
-    <row r="439" ht="15" customHeight="1"/>
-    <row r="440" ht="15" customHeight="1"/>
-    <row r="441" ht="15" customHeight="1"/>
-    <row r="442" ht="15" customHeight="1"/>
-    <row r="443" ht="15" customHeight="1"/>
-    <row r="444" ht="15" customHeight="1"/>
-    <row r="445" ht="15" customHeight="1"/>
-    <row r="446" ht="15" customHeight="1"/>
-    <row r="447" ht="15" customHeight="1"/>
-    <row r="448" ht="15" customHeight="1"/>
-    <row r="449" ht="15" customHeight="1"/>
-    <row r="450" ht="15" customHeight="1"/>
-    <row r="451" ht="15" customHeight="1"/>
-    <row r="452" ht="15" customHeight="1"/>
-    <row r="453" ht="15" customHeight="1"/>
-    <row r="454" ht="15" customHeight="1"/>
-    <row r="455" ht="15" customHeight="1"/>
-    <row r="456" ht="15" customHeight="1"/>
-    <row r="457" ht="15" customHeight="1"/>
-    <row r="458" ht="15" customHeight="1"/>
-    <row r="459" ht="15" customHeight="1"/>
-    <row r="460" ht="15" customHeight="1"/>
-    <row r="461" ht="15" customHeight="1"/>
-    <row r="462" ht="15" customHeight="1"/>
-    <row r="463" ht="15" customHeight="1"/>
-    <row r="464" ht="15" customHeight="1"/>
+        <v>0.1658060041087471</v>
+      </c>
+    </row>
+    <row r="265" ht="15" customHeight="1">
+      <c r="F265" t="n">
+        <v>0.004999999999999998</v>
+      </c>
+      <c r="G265" t="n">
+        <v>0.06055824929542737</v>
+      </c>
+    </row>
+    <row r="266" ht="15" customHeight="1">
+      <c r="F266" t="n">
+        <v>0.005324616080003043</v>
+      </c>
+      <c r="G266" t="n">
+        <v>0.06055851782389138</v>
+      </c>
+    </row>
+    <row r="267" ht="15" customHeight="1">
+      <c r="F267" t="n">
+        <v>0.005646223822801937</v>
+      </c>
+      <c r="G267" t="n">
+        <v>0.0605587863523554</v>
+      </c>
+    </row>
+    <row r="268" ht="15" customHeight="1">
+      <c r="F268" t="n">
+        <v>0.005964742036717985</v>
+      </c>
+      <c r="G268" t="n">
+        <v>0.06055905488081943</v>
+      </c>
+    </row>
+    <row r="269" ht="15" customHeight="1">
+      <c r="F269" t="n">
+        <v>0.006280089530030966</v>
+      </c>
+      <c r="G269" t="n">
+        <v>0.06055932340928344</v>
+      </c>
+    </row>
+    <row r="270" ht="15" customHeight="1">
+      <c r="F270" t="n">
+        <v>0.006592185111062333</v>
+      </c>
+      <c r="G270" t="n">
+        <v>0.06055959193774746</v>
+      </c>
+    </row>
+    <row r="271" ht="15" customHeight="1">
+      <c r="F271" t="n">
+        <v>0.00690094758811962</v>
+      </c>
+      <c r="G271" t="n">
+        <v>0.06055986046621147</v>
+      </c>
+    </row>
+    <row r="272" ht="15" customHeight="1">
+      <c r="F272" t="n">
+        <v>0.007206295769523544</v>
+      </c>
+      <c r="G272" t="n">
+        <v>0.0605601289946755</v>
+      </c>
+    </row>
+    <row r="273" ht="15" customHeight="1">
+      <c r="F273" t="n">
+        <v>0.007508148463555048</v>
+      </c>
+      <c r="G273" t="n">
+        <v>0.06056039752313951</v>
+      </c>
+    </row>
+    <row r="274" ht="15" customHeight="1">
+      <c r="F274" t="n">
+        <v>0.007806424478535016</v>
+      </c>
+      <c r="G274" t="n">
+        <v>0.06056066605160353</v>
+      </c>
+    </row>
+    <row r="275" ht="15" customHeight="1">
+      <c r="F275" t="n">
+        <v>0.008101042622770956</v>
+      </c>
+      <c r="G275" t="n">
+        <v>0.06056093458006754</v>
+      </c>
+    </row>
+    <row r="276" ht="15" customHeight="1">
+      <c r="F276" t="n">
+        <v>0.008391921704582979</v>
+      </c>
+      <c r="G276" t="n">
+        <v>0.06056120310853157</v>
+      </c>
+    </row>
+    <row r="277" ht="15" customHeight="1">
+      <c r="F277" t="n">
+        <v>0.008678980532253265</v>
+      </c>
+      <c r="G277" t="n">
+        <v>0.06056147163699558</v>
+      </c>
+    </row>
+    <row r="278" ht="15" customHeight="1">
+      <c r="F278" t="n">
+        <v>0.008962137914102088</v>
+      </c>
+      <c r="G278" t="n">
+        <v>0.06056174016545959</v>
+      </c>
+    </row>
+    <row r="279" ht="15" customHeight="1">
+      <c r="F279" t="n">
+        <v>0.009241312658436966</v>
+      </c>
+      <c r="G279" t="n">
+        <v>0.06056200869392361</v>
+      </c>
+    </row>
+    <row r="280" ht="15" customHeight="1">
+      <c r="F280" t="n">
+        <v>0.009516423573577293</v>
+      </c>
+      <c r="G280" t="n">
+        <v>0.06056227722238763</v>
+      </c>
+    </row>
+    <row r="281" ht="15" customHeight="1">
+      <c r="F281" t="n">
+        <v>0.009787389467806648</v>
+      </c>
+      <c r="G281" t="n">
+        <v>0.06056254575085165</v>
+      </c>
+    </row>
+    <row r="282" ht="15" customHeight="1">
+      <c r="F282" t="n">
+        <v>0.0100541291494446</v>
+      </c>
+      <c r="G282" t="n">
+        <v>0.06056281427931567</v>
+      </c>
+    </row>
+    <row r="283" ht="15" customHeight="1">
+      <c r="F283" t="n">
+        <v>0.01031656142679867</v>
+      </c>
+      <c r="G283" t="n">
+        <v>0.06056308280777968</v>
+      </c>
+    </row>
+    <row r="284" ht="15" customHeight="1">
+      <c r="F284" t="n">
+        <v>0.01057460510818752</v>
+      </c>
+      <c r="G284" t="n">
+        <v>0.06056335133624371</v>
+      </c>
+    </row>
+    <row r="285" ht="15" customHeight="1">
+      <c r="F285" t="n">
+        <v>0.01082817900189619</v>
+      </c>
+      <c r="G285" t="n">
+        <v>0.06056361986470772</v>
+      </c>
+    </row>
+    <row r="286" ht="15" customHeight="1">
+      <c r="F286" t="n">
+        <v>0.01107720191624354</v>
+      </c>
+      <c r="G286" t="n">
+        <v>0.06056388839317173</v>
+      </c>
+    </row>
+    <row r="287" ht="15" customHeight="1">
+      <c r="F287" t="n">
+        <v>0.01132159265953708</v>
+      </c>
+      <c r="G287" t="n">
+        <v>0.06056415692163575</v>
+      </c>
+    </row>
+    <row r="288" ht="15" customHeight="1">
+      <c r="F288" t="n">
+        <v>0.01156127004009466</v>
+      </c>
+      <c r="G288" t="n">
+        <v>0.06056442545009978</v>
+      </c>
+    </row>
+    <row r="289" ht="15" customHeight="1">
+      <c r="F289" t="n">
+        <v>0.01179615286620293</v>
+      </c>
+      <c r="G289" t="n">
+        <v>0.06056469397856379</v>
+      </c>
+    </row>
+    <row r="290" ht="15" customHeight="1">
+      <c r="F290" t="n">
+        <v>0.01202649147892423</v>
+      </c>
+      <c r="G290" t="n">
+        <v>0.0605649625070278</v>
+      </c>
+    </row>
+    <row r="291" ht="15" customHeight="1">
+      <c r="F291" t="n">
+        <v>0.01225419388303187</v>
+      </c>
+      <c r="G291" t="n">
+        <v>0.06056523103549181</v>
+      </c>
+    </row>
+    <row r="292" ht="15" customHeight="1">
+      <c r="F292" t="n">
+        <v>0.01247951041958748</v>
+      </c>
+      <c r="G292" t="n">
+        <v>0.06056549956395584</v>
+      </c>
+    </row>
+    <row r="293" ht="15" customHeight="1">
+      <c r="F293" t="n">
+        <v>0.01270235989687896</v>
+      </c>
+      <c r="G293" t="n">
+        <v>0.06056576809241986</v>
+      </c>
+    </row>
+    <row r="294" ht="15" customHeight="1">
+      <c r="F294" t="n">
+        <v>0.01292266112322366</v>
+      </c>
+      <c r="G294" t="n">
+        <v>0.06056603662088387</v>
+      </c>
+    </row>
+    <row r="295" ht="15" customHeight="1">
+      <c r="F295" t="n">
+        <v>0.01314033290692913</v>
+      </c>
+      <c r="G295" t="n">
+        <v>0.06056630514934789</v>
+      </c>
+    </row>
+    <row r="296" ht="15" customHeight="1">
+      <c r="F296" t="n">
+        <v>0.01335529405631217</v>
+      </c>
+      <c r="G296" t="n">
+        <v>0.06056657367781191</v>
+      </c>
+    </row>
+    <row r="297" ht="15" customHeight="1">
+      <c r="F297" t="n">
+        <v>0.0135674633796616</v>
+      </c>
+      <c r="G297" t="n">
+        <v>0.06056684220627593</v>
+      </c>
+    </row>
+    <row r="298" ht="15" customHeight="1">
+      <c r="F298" t="n">
+        <v>0.01377675968529432</v>
+      </c>
+      <c r="G298" t="n">
+        <v>0.06056711073473994</v>
+      </c>
+    </row>
+    <row r="299" ht="15" customHeight="1">
+      <c r="F299" t="n">
+        <v>0.01398310178151788</v>
+      </c>
+      <c r="G299" t="n">
+        <v>0.06056737926320396</v>
+      </c>
+    </row>
+    <row r="300" ht="15" customHeight="1">
+      <c r="F300" t="n">
+        <v>0.01418640847664857</v>
+      </c>
+      <c r="G300" t="n">
+        <v>0.06056764779166798</v>
+      </c>
+    </row>
+    <row r="301" ht="15" customHeight="1">
+      <c r="F301" t="n">
+        <v>0.0143865985789762</v>
+      </c>
+      <c r="G301" t="n">
+        <v>0.060567916320132</v>
+      </c>
+    </row>
+    <row r="302" ht="15" customHeight="1">
+      <c r="F302" t="n">
+        <v>0.01458359089681721</v>
+      </c>
+      <c r="G302" t="n">
+        <v>0.06056818484859601</v>
+      </c>
+    </row>
+    <row r="303" ht="15" customHeight="1">
+      <c r="F303" t="n">
+        <v>0.01477730423847912</v>
+      </c>
+      <c r="G303" t="n">
+        <v>0.06056845337706002</v>
+      </c>
+    </row>
+    <row r="304" ht="15" customHeight="1">
+      <c r="F304" t="n">
+        <v>0.01496765741227765</v>
+      </c>
+      <c r="G304" t="n">
+        <v>0.06056872190552405</v>
+      </c>
+    </row>
+    <row r="305" ht="15" customHeight="1">
+      <c r="F305" t="n">
+        <v>0.01515456922650376</v>
+      </c>
+      <c r="G305" t="n">
+        <v>0.06056899043398806</v>
+      </c>
+    </row>
+    <row r="306" ht="15" customHeight="1">
+      <c r="F306" t="n">
+        <v>0.01533795848947332</v>
+      </c>
+      <c r="G306" t="n">
+        <v>0.06056925896245208</v>
+      </c>
+    </row>
+    <row r="307" ht="15" customHeight="1">
+      <c r="F307" t="n">
+        <v>0.01551774400949385</v>
+      </c>
+      <c r="G307" t="n">
+        <v>0.0605695274909161</v>
+      </c>
+    </row>
+    <row r="308" ht="15" customHeight="1">
+      <c r="F308" t="n">
+        <v>0.01569384459488044</v>
+      </c>
+      <c r="G308" t="n">
+        <v>0.06056979601938012</v>
+      </c>
+    </row>
+    <row r="309" ht="15" customHeight="1">
+      <c r="F309" t="n">
+        <v>0.01586617905392528</v>
+      </c>
+      <c r="G309" t="n">
+        <v>0.06057006454784414</v>
+      </c>
+    </row>
+    <row r="310" ht="15" customHeight="1">
+      <c r="F310" t="n">
+        <v>0.01603466619494366</v>
+      </c>
+      <c r="G310" t="n">
+        <v>0.06057033307630815</v>
+      </c>
+    </row>
+    <row r="311" ht="15" customHeight="1">
+      <c r="F311" t="n">
+        <v>0.01619922482624307</v>
+      </c>
+      <c r="G311" t="n">
+        <v>0.06057060160477216</v>
+      </c>
+    </row>
+    <row r="312" ht="15" customHeight="1">
+      <c r="F312" t="n">
+        <v>0.01635977375613792</v>
+      </c>
+      <c r="G312" t="n">
+        <v>0.06057087013323619</v>
+      </c>
+    </row>
+    <row r="313" ht="15" customHeight="1">
+      <c r="F313" t="n">
+        <v>0.01651623179292177</v>
+      </c>
+      <c r="G313" t="n">
+        <v>0.06057113866170021</v>
+      </c>
+    </row>
+    <row r="314" ht="15" customHeight="1">
+      <c r="F314" t="n">
+        <v>0.01666851774490922</v>
+      </c>
+      <c r="G314" t="n">
+        <v>0.06057140719016422</v>
+      </c>
+    </row>
+    <row r="315" ht="15" customHeight="1">
+      <c r="F315" t="n">
+        <v>0.01666851774490922</v>
+      </c>
+      <c r="G315" t="n">
+        <v>0.06055824929542737</v>
+      </c>
+    </row>
+    <row r="316" ht="15" customHeight="1">
+      <c r="F316" t="n">
+        <v>0.01680073249971409</v>
+      </c>
+      <c r="G316" t="n">
+        <v>0.06058887276356249</v>
+      </c>
+    </row>
+    <row r="317" ht="15" customHeight="1">
+      <c r="F317" t="n">
+        <v>0.01693135199352249</v>
+      </c>
+      <c r="G317" t="n">
+        <v>0.06061949623169762</v>
+      </c>
+    </row>
+    <row r="318" ht="15" customHeight="1">
+      <c r="F318" t="n">
+        <v>0.0170600358543305</v>
+      </c>
+      <c r="G318" t="n">
+        <v>0.06065011969983274</v>
+      </c>
+    </row>
+    <row r="319" ht="15" customHeight="1">
+      <c r="F319" t="n">
+        <v>0.01718644371013434</v>
+      </c>
+      <c r="G319" t="n">
+        <v>0.06068074316796785</v>
+      </c>
+    </row>
+    <row r="320" ht="15" customHeight="1">
+      <c r="F320" t="n">
+        <v>0.01731023518893019</v>
+      </c>
+      <c r="G320" t="n">
+        <v>0.06071136663610297</v>
+      </c>
+    </row>
+    <row r="321" ht="15" customHeight="1">
+      <c r="F321" t="n">
+        <v>0.01743106991871428</v>
+      </c>
+      <c r="G321" t="n">
+        <v>0.0607419901042381</v>
+      </c>
+    </row>
+    <row r="322" ht="15" customHeight="1">
+      <c r="F322" t="n">
+        <v>0.01754860752748268</v>
+      </c>
+      <c r="G322" t="n">
+        <v>0.06077261357237321</v>
+      </c>
+    </row>
+    <row r="323" ht="15" customHeight="1">
+      <c r="F323" t="n">
+        <v>0.01766250764323164</v>
+      </c>
+      <c r="G323" t="n">
+        <v>0.06080323704050833</v>
+      </c>
+    </row>
+    <row r="324" ht="15" customHeight="1">
+      <c r="F324" t="n">
+        <v>0.01777242989395731</v>
+      </c>
+      <c r="G324" t="n">
+        <v>0.06083386050864345</v>
+      </c>
+    </row>
+    <row r="325" ht="15" customHeight="1">
+      <c r="F325" t="n">
+        <v>0.01787803390765591</v>
+      </c>
+      <c r="G325" t="n">
+        <v>0.06086448397677858</v>
+      </c>
+    </row>
+    <row r="326" ht="15" customHeight="1">
+      <c r="F326" t="n">
+        <v>0.01797897931232354</v>
+      </c>
+      <c r="G326" t="n">
+        <v>0.06089510744491369</v>
+      </c>
+    </row>
+    <row r="327" ht="15" customHeight="1">
+      <c r="F327" t="n">
+        <v>0.01807492573595642</v>
+      </c>
+      <c r="G327" t="n">
+        <v>0.06092573091304881</v>
+      </c>
+    </row>
+    <row r="328" ht="15" customHeight="1">
+      <c r="F328" t="n">
+        <v>0.01816553280655072</v>
+      </c>
+      <c r="G328" t="n">
+        <v>0.06095635438118393</v>
+      </c>
+    </row>
+    <row r="329" ht="15" customHeight="1">
+      <c r="F329" t="n">
+        <v>0.01825046015210266</v>
+      </c>
+      <c r="G329" t="n">
+        <v>0.06098697784931906</v>
+      </c>
+    </row>
+    <row r="330" ht="15" customHeight="1">
+      <c r="F330" t="n">
+        <v>0.01832936740060834</v>
+      </c>
+      <c r="G330" t="n">
+        <v>0.06101760131745417</v>
+      </c>
+    </row>
+    <row r="331" ht="15" customHeight="1">
+      <c r="F331" t="n">
+        <v>0.01840191418006398</v>
+      </c>
+      <c r="G331" t="n">
+        <v>0.06104822478558929</v>
+      </c>
+    </row>
+    <row r="332" ht="15" customHeight="1">
+      <c r="F332" t="n">
+        <v>0.01846776011846578</v>
+      </c>
+      <c r="G332" t="n">
+        <v>0.06107884825372442</v>
+      </c>
+    </row>
+    <row r="333" ht="15" customHeight="1">
+      <c r="F333" t="n">
+        <v>0.01852656484380985</v>
+      </c>
+      <c r="G333" t="n">
+        <v>0.06110947172185954</v>
+      </c>
+    </row>
+    <row r="334" ht="15" customHeight="1">
+      <c r="F334" t="n">
+        <v>0.01857798798409241</v>
+      </c>
+      <c r="G334" t="n">
+        <v>0.06114009518999466</v>
+      </c>
+    </row>
+    <row r="335" ht="15" customHeight="1">
+      <c r="F335" t="n">
+        <v>0.01862168916730963</v>
+      </c>
+      <c r="G335" t="n">
+        <v>0.06117071865812977</v>
+      </c>
+    </row>
+    <row r="336" ht="15" customHeight="1">
+      <c r="F336" t="n">
+        <v>0.0186573280214577</v>
+      </c>
+      <c r="G336" t="n">
+        <v>0.0612013421262649</v>
+      </c>
+    </row>
+    <row r="337" ht="15" customHeight="1">
+      <c r="F337" t="n">
+        <v>0.01868456417453277</v>
+      </c>
+      <c r="G337" t="n">
+        <v>0.06123196559440001</v>
+      </c>
+    </row>
+    <row r="338" ht="15" customHeight="1">
+      <c r="F338" t="n">
+        <v>0.01870305725453103</v>
+      </c>
+      <c r="G338" t="n">
+        <v>0.06126258906253514</v>
+      </c>
+    </row>
+    <row r="339" ht="15" customHeight="1">
+      <c r="F339" t="n">
+        <v>0.01871246688944866</v>
+      </c>
+      <c r="G339" t="n">
+        <v>0.06129321253067025</v>
+      </c>
+    </row>
+    <row r="340" ht="15" customHeight="1">
+      <c r="F340" t="n">
+        <v>0.01871365584750361</v>
+      </c>
+      <c r="G340" t="n">
+        <v>0.06132383599880538</v>
+      </c>
+    </row>
+    <row r="341" ht="15" customHeight="1">
+      <c r="F341" t="n">
+        <v>0.01871357261507042</v>
+      </c>
+      <c r="G341" t="n">
+        <v>0.06135445946694049</v>
+      </c>
+    </row>
+    <row r="342" ht="15" customHeight="1">
+      <c r="F342" t="n">
+        <v>0.01871325889282225</v>
+      </c>
+      <c r="G342" t="n">
+        <v>0.06138508293507561</v>
+      </c>
+    </row>
+    <row r="343" ht="15" customHeight="1">
+      <c r="F343" t="n">
+        <v>0.01871256102088244</v>
+      </c>
+      <c r="G343" t="n">
+        <v>0.06141570640321073</v>
+      </c>
+    </row>
+    <row r="344" ht="15" customHeight="1">
+      <c r="F344" t="n">
+        <v>0.01871132533937432</v>
+      </c>
+      <c r="G344" t="n">
+        <v>0.06144632987134586</v>
+      </c>
+    </row>
+    <row r="345" ht="15" customHeight="1">
+      <c r="F345" t="n">
+        <v>0.01870939818842126</v>
+      </c>
+      <c r="G345" t="n">
+        <v>0.06147695333948098</v>
+      </c>
+    </row>
+    <row r="346" ht="15" customHeight="1">
+      <c r="F346" t="n">
+        <v>0.01870662590814658</v>
+      </c>
+      <c r="G346" t="n">
+        <v>0.06150757680761609</v>
+      </c>
+    </row>
+    <row r="347" ht="15" customHeight="1">
+      <c r="F347" t="n">
+        <v>0.01870285483867364</v>
+      </c>
+      <c r="G347" t="n">
+        <v>0.06153820027575121</v>
+      </c>
+    </row>
+    <row r="348" ht="15" customHeight="1">
+      <c r="F348" t="n">
+        <v>0.01869793132012576</v>
+      </c>
+      <c r="G348" t="n">
+        <v>0.06156882374388634</v>
+      </c>
+    </row>
+    <row r="349" ht="15" customHeight="1">
+      <c r="F349" t="n">
+        <v>0.01869170169262631</v>
+      </c>
+      <c r="G349" t="n">
+        <v>0.06159944721202146</v>
+      </c>
+    </row>
+    <row r="350" ht="15" customHeight="1">
+      <c r="F350" t="n">
+        <v>0.01868401229629862</v>
+      </c>
+      <c r="G350" t="n">
+        <v>0.06163007068015657</v>
+      </c>
+    </row>
+    <row r="351" ht="15" customHeight="1">
+      <c r="F351" t="n">
+        <v>0.01867470947126604</v>
+      </c>
+      <c r="G351" t="n">
+        <v>0.0616606941482917</v>
+      </c>
+    </row>
+    <row r="352" ht="15" customHeight="1">
+      <c r="F352" t="n">
+        <v>0.01866363955765191</v>
+      </c>
+      <c r="G352" t="n">
+        <v>0.06169131761642682</v>
+      </c>
+    </row>
+    <row r="353" ht="15" customHeight="1">
+      <c r="F353" t="n">
+        <v>0.01865064889557957</v>
+      </c>
+      <c r="G353" t="n">
+        <v>0.06172194108456194</v>
+      </c>
+    </row>
+    <row r="354" ht="15" customHeight="1">
+      <c r="F354" t="n">
+        <v>0.01863558382517237</v>
+      </c>
+      <c r="G354" t="n">
+        <v>0.06175256455269705</v>
+      </c>
+    </row>
+    <row r="355" ht="15" customHeight="1">
+      <c r="F355" t="n">
+        <v>0.01861829068655365</v>
+      </c>
+      <c r="G355" t="n">
+        <v>0.06178318802083218</v>
+      </c>
+    </row>
+    <row r="356" ht="15" customHeight="1">
+      <c r="F356" t="n">
+        <v>0.01859861581984675</v>
+      </c>
+      <c r="G356" t="n">
+        <v>0.0618138114889673</v>
+      </c>
+    </row>
+    <row r="357" ht="15" customHeight="1">
+      <c r="F357" t="n">
+        <v>0.01857640556517502</v>
+      </c>
+      <c r="G357" t="n">
+        <v>0.06184443495710241</v>
+      </c>
+    </row>
+    <row r="358" ht="15" customHeight="1">
+      <c r="F358" t="n">
+        <v>0.01855150626266181</v>
+      </c>
+      <c r="G358" t="n">
+        <v>0.06187505842523753</v>
+      </c>
+    </row>
+    <row r="359" ht="15" customHeight="1">
+      <c r="F359" t="n">
+        <v>0.01852376425243044</v>
+      </c>
+      <c r="G359" t="n">
+        <v>0.06190568189337266</v>
+      </c>
+    </row>
+    <row r="360" ht="15" customHeight="1">
+      <c r="F360" t="n">
+        <v>0.01849302587460427</v>
+      </c>
+      <c r="G360" t="n">
+        <v>0.06193630536150778</v>
+      </c>
+    </row>
+    <row r="361" ht="15" customHeight="1">
+      <c r="F361" t="n">
+        <v>0.01845913746930665</v>
+      </c>
+      <c r="G361" t="n">
+        <v>0.06196692882964289</v>
+      </c>
+    </row>
+    <row r="362" ht="15" customHeight="1">
+      <c r="F362" t="n">
+        <v>0.01842194537666091</v>
+      </c>
+      <c r="G362" t="n">
+        <v>0.06199755229777801</v>
+      </c>
+    </row>
+    <row r="363" ht="15" customHeight="1">
+      <c r="F363" t="n">
+        <v>0.01838129593679038</v>
+      </c>
+      <c r="G363" t="n">
+        <v>0.06202817576591314</v>
+      </c>
+    </row>
+    <row r="364" ht="15" customHeight="1">
+      <c r="F364" t="n">
+        <v>0.01833703548981844</v>
+      </c>
+      <c r="G364" t="n">
+        <v>0.06205879923404826</v>
+      </c>
+    </row>
+    <row r="365" ht="15" customHeight="1">
+      <c r="F365" t="n">
+        <v>0.01833703548981844</v>
+      </c>
+      <c r="G365" t="n">
+        <v>0.06205879923404826</v>
+      </c>
+    </row>
+    <row r="366" ht="15" customHeight="1">
+      <c r="F366" t="n">
+        <v>0.01876461990030685</v>
+      </c>
+      <c r="G366" t="n">
+        <v>0.06364114373528586</v>
+      </c>
+    </row>
+    <row r="367" ht="15" customHeight="1">
+      <c r="F367" t="n">
+        <v>0.01918388369994388</v>
+      </c>
+      <c r="G367" t="n">
+        <v>0.06522348823652346</v>
+      </c>
+    </row>
+    <row r="368" ht="15" customHeight="1">
+      <c r="F368" t="n">
+        <v>0.01959463382165624</v>
+      </c>
+      <c r="G368" t="n">
+        <v>0.06680583273776106</v>
+      </c>
+    </row>
+    <row r="369" ht="15" customHeight="1">
+      <c r="F369" t="n">
+        <v>0.01999667719837061</v>
+      </c>
+      <c r="G369" t="n">
+        <v>0.06838817723899866</v>
+      </c>
+    </row>
+    <row r="370" ht="15" customHeight="1">
+      <c r="F370" t="n">
+        <v>0.02038982076301372</v>
+      </c>
+      <c r="G370" t="n">
+        <v>0.06997052174023626</v>
+      </c>
+    </row>
+    <row r="371" ht="15" customHeight="1">
+      <c r="F371" t="n">
+        <v>0.02077387144851228</v>
+      </c>
+      <c r="G371" t="n">
+        <v>0.07155286624147386</v>
+      </c>
+    </row>
+    <row r="372" ht="15" customHeight="1">
+      <c r="F372" t="n">
+        <v>0.02114863618779297</v>
+      </c>
+      <c r="G372" t="n">
+        <v>0.07313521074271145</v>
+      </c>
+    </row>
+    <row r="373" ht="15" customHeight="1">
+      <c r="F373" t="n">
+        <v>0.02151392191378251</v>
+      </c>
+      <c r="G373" t="n">
+        <v>0.07471755524394906</v>
+      </c>
+    </row>
+    <row r="374" ht="15" customHeight="1">
+      <c r="F374" t="n">
+        <v>0.02186953555940759</v>
+      </c>
+      <c r="G374" t="n">
+        <v>0.07629989974518665</v>
+      </c>
+    </row>
+    <row r="375" ht="15" customHeight="1">
+      <c r="F375" t="n">
+        <v>0.02221528405759494</v>
+      </c>
+      <c r="G375" t="n">
+        <v>0.07788224424642426</v>
+      </c>
+    </row>
+    <row r="376" ht="15" customHeight="1">
+      <c r="F376" t="n">
+        <v>0.02255097434127126</v>
+      </c>
+      <c r="G376" t="n">
+        <v>0.07946458874766187</v>
+      </c>
+    </row>
+    <row r="377" ht="15" customHeight="1">
+      <c r="F377" t="n">
+        <v>0.02287641334336322</v>
+      </c>
+      <c r="G377" t="n">
+        <v>0.08104693324889946</v>
+      </c>
+    </row>
+    <row r="378" ht="15" customHeight="1">
+      <c r="F378" t="n">
+        <v>0.02319140799679758</v>
+      </c>
+      <c r="G378" t="n">
+        <v>0.08262927775013706</v>
+      </c>
+    </row>
+    <row r="379" ht="15" customHeight="1">
+      <c r="F379" t="n">
+        <v>0.02349576523450098</v>
+      </c>
+      <c r="G379" t="n">
+        <v>0.08421162225137466</v>
+      </c>
+    </row>
+    <row r="380" ht="15" customHeight="1">
+      <c r="F380" t="n">
+        <v>0.0237892919894002</v>
+      </c>
+      <c r="G380" t="n">
+        <v>0.08579396675261226</v>
+      </c>
+    </row>
+    <row r="381" ht="15" customHeight="1">
+      <c r="F381" t="n">
+        <v>0.02407179519442191</v>
+      </c>
+      <c r="G381" t="n">
+        <v>0.08737631125384987</v>
+      </c>
+    </row>
+    <row r="382" ht="15" customHeight="1">
+      <c r="F382" t="n">
+        <v>0.02434308178249277</v>
+      </c>
+      <c r="G382" t="n">
+        <v>0.08895865575508746</v>
+      </c>
+    </row>
+    <row r="383" ht="15" customHeight="1">
+      <c r="F383" t="n">
+        <v>0.02460295868653956</v>
+      </c>
+      <c r="G383" t="n">
+        <v>0.09054100025632505</v>
+      </c>
+    </row>
+    <row r="384" ht="15" customHeight="1">
+      <c r="F384" t="n">
+        <v>0.02485123283948894</v>
+      </c>
+      <c r="G384" t="n">
+        <v>0.09212334475756266</v>
+      </c>
+    </row>
+    <row r="385" ht="15" customHeight="1">
+      <c r="F385" t="n">
+        <v>0.02508771117426763</v>
+      </c>
+      <c r="G385" t="n">
+        <v>0.09370568925880025</v>
+      </c>
+    </row>
+    <row r="386" ht="15" customHeight="1">
+      <c r="F386" t="n">
+        <v>0.02531220062380234</v>
+      </c>
+      <c r="G386" t="n">
+        <v>0.09528803376003787</v>
+      </c>
+    </row>
+    <row r="387" ht="15" customHeight="1">
+      <c r="F387" t="n">
+        <v>0.02552450812101974</v>
+      </c>
+      <c r="G387" t="n">
+        <v>0.09687037826127547</v>
+      </c>
+    </row>
+    <row r="388" ht="15" customHeight="1">
+      <c r="F388" t="n">
+        <v>0.02572444059884658</v>
+      </c>
+      <c r="G388" t="n">
+        <v>0.09845272276251306</v>
+      </c>
+    </row>
+    <row r="389" ht="15" customHeight="1">
+      <c r="F389" t="n">
+        <v>0.02591180499020956</v>
+      </c>
+      <c r="G389" t="n">
+        <v>0.1000350672637507</v>
+      </c>
+    </row>
+    <row r="390" ht="15" customHeight="1">
+      <c r="F390" t="n">
+        <v>0.02608640822803534</v>
+      </c>
+      <c r="G390" t="n">
+        <v>0.1016174117649883</v>
+      </c>
+    </row>
+    <row r="391" ht="15" customHeight="1">
+      <c r="F391" t="n">
+        <v>0.02624805724525067</v>
+      </c>
+      <c r="G391" t="n">
+        <v>0.1031997562662259</v>
+      </c>
+    </row>
+    <row r="392" ht="15" customHeight="1">
+      <c r="F392" t="n">
+        <v>0.02639655897478223</v>
+      </c>
+      <c r="G392" t="n">
+        <v>0.1047821007674635</v>
+      </c>
+    </row>
+    <row r="393" ht="15" customHeight="1">
+      <c r="F393" t="n">
+        <v>0.02653172034955676</v>
+      </c>
+      <c r="G393" t="n">
+        <v>0.106364445268701</v>
+      </c>
+    </row>
+    <row r="394" ht="15" customHeight="1">
+      <c r="F394" t="n">
+        <v>0.02665334830250093</v>
+      </c>
+      <c r="G394" t="n">
+        <v>0.1079467897699387</v>
+      </c>
+    </row>
+    <row r="395" ht="15" customHeight="1">
+      <c r="F395" t="n">
+        <v>0.02676124976654144</v>
+      </c>
+      <c r="G395" t="n">
+        <v>0.1095291342711763</v>
+      </c>
+    </row>
+    <row r="396" ht="15" customHeight="1">
+      <c r="F396" t="n">
+        <v>0.02685523167460501</v>
+      </c>
+      <c r="G396" t="n">
+        <v>0.1111114787724139</v>
+      </c>
+    </row>
+    <row r="397" ht="15" customHeight="1">
+      <c r="F397" t="n">
+        <v>0.02693510095961835</v>
+      </c>
+      <c r="G397" t="n">
+        <v>0.1126938232736515</v>
+      </c>
+    </row>
+    <row r="398" ht="15" customHeight="1">
+      <c r="F398" t="n">
+        <v>0.02700066455450816</v>
+      </c>
+      <c r="G398" t="n">
+        <v>0.1142761677748891</v>
+      </c>
+    </row>
+    <row r="399" ht="15" customHeight="1">
+      <c r="F399" t="n">
+        <v>0.02705172939220116</v>
+      </c>
+      <c r="G399" t="n">
+        <v>0.1158585122761267</v>
+      </c>
+    </row>
+    <row r="400" ht="15" customHeight="1">
+      <c r="F400" t="n">
+        <v>0.02708810240562403</v>
+      </c>
+      <c r="G400" t="n">
+        <v>0.1174408567773643</v>
+      </c>
+    </row>
+    <row r="401" ht="15" customHeight="1">
+      <c r="F401" t="n">
+        <v>0.02711604731975793</v>
+      </c>
+      <c r="G401" t="n">
+        <v>0.1190232012786019</v>
+      </c>
+    </row>
+    <row r="402" ht="15" customHeight="1">
+      <c r="F402" t="n">
+        <v>0.02711602832483335</v>
+      </c>
+      <c r="G402" t="n">
+        <v>0.1206055457798395</v>
+      </c>
+    </row>
+    <row r="403" ht="15" customHeight="1">
+      <c r="F403" t="n">
+        <v>0.02711251863755849</v>
+      </c>
+      <c r="G403" t="n">
+        <v>0.1221878902810771</v>
+      </c>
+    </row>
+    <row r="404" ht="15" customHeight="1">
+      <c r="F404" t="n">
+        <v>0.02710325212645257</v>
+      </c>
+      <c r="G404" t="n">
+        <v>0.1237702347823147</v>
+      </c>
+    </row>
+    <row r="405" ht="15" customHeight="1">
+      <c r="F405" t="n">
+        <v>0.02708866601368786</v>
+      </c>
+      <c r="G405" t="n">
+        <v>0.1253525792835523</v>
+      </c>
+    </row>
+    <row r="406" ht="15" customHeight="1">
+      <c r="F406" t="n">
+        <v>0.02706919752143658</v>
+      </c>
+      <c r="G406" t="n">
+        <v>0.1269349237847898</v>
+      </c>
+    </row>
+    <row r="407" ht="15" customHeight="1">
+      <c r="F407" t="n">
+        <v>0.02704528387187102</v>
+      </c>
+      <c r="G407" t="n">
+        <v>0.1285172682860275</v>
+      </c>
+    </row>
+    <row r="408" ht="15" customHeight="1">
+      <c r="F408" t="n">
+        <v>0.0270173622871634</v>
+      </c>
+      <c r="G408" t="n">
+        <v>0.1300996127872651</v>
+      </c>
+    </row>
+    <row r="409" ht="15" customHeight="1">
+      <c r="F409" t="n">
+        <v>0.026985869989486</v>
+      </c>
+      <c r="G409" t="n">
+        <v>0.1316819572885027</v>
+      </c>
+    </row>
+    <row r="410" ht="15" customHeight="1">
+      <c r="F410" t="n">
+        <v>0.02695124420101106</v>
+      </c>
+      <c r="G410" t="n">
+        <v>0.1332643017897403</v>
+      </c>
+    </row>
+    <row r="411" ht="15" customHeight="1">
+      <c r="F411" t="n">
+        <v>0.02691392214391081</v>
+      </c>
+      <c r="G411" t="n">
+        <v>0.1348466462909779</v>
+      </c>
+    </row>
+    <row r="412" ht="15" customHeight="1">
+      <c r="F412" t="n">
+        <v>0.02687434104035754</v>
+      </c>
+      <c r="G412" t="n">
+        <v>0.1364289907922155</v>
+      </c>
+    </row>
+    <row r="413" ht="15" customHeight="1">
+      <c r="F413" t="n">
+        <v>0.02683293811252348</v>
+      </c>
+      <c r="G413" t="n">
+        <v>0.1380113352934531</v>
+      </c>
+    </row>
+    <row r="414" ht="15" customHeight="1">
+      <c r="F414" t="n">
+        <v>0.02679015058258089</v>
+      </c>
+      <c r="G414" t="n">
+        <v>0.1395936797946907</v>
+      </c>
+    </row>
+    <row r="415" ht="15" customHeight="1">
+      <c r="F415" t="n">
+        <v>0.02674641567270202</v>
+      </c>
+      <c r="G415" t="n">
+        <v>0.1411760242959283</v>
+      </c>
+    </row>
+    <row r="416" ht="15" customHeight="1">
+      <c r="F416" t="n">
+        <v>0.02670187573838569</v>
+      </c>
+      <c r="G416" t="n">
+        <v>0.1427583687971659</v>
+      </c>
+    </row>
+    <row r="417" ht="15" customHeight="1">
+      <c r="F417" t="n">
+        <v>0.02664342845404358</v>
+      </c>
+      <c r="G417" t="n">
+        <v>0.1443407132984035</v>
+      </c>
+    </row>
+    <row r="418" ht="15" customHeight="1">
+      <c r="F418" t="n">
+        <v>0.02656712164829509</v>
+      </c>
+      <c r="G418" t="n">
+        <v>0.1459230577996411</v>
+      </c>
+    </row>
+    <row r="419" ht="15" customHeight="1">
+      <c r="F419" t="n">
+        <v>0.02647750321337918</v>
+      </c>
+      <c r="G419" t="n">
+        <v>0.1475054023008787</v>
+      </c>
+    </row>
+    <row r="420" ht="15" customHeight="1">
+      <c r="F420" t="n">
+        <v>0.02637912104153477</v>
+      </c>
+      <c r="G420" t="n">
+        <v>0.1490877468021163</v>
+      </c>
+    </row>
+    <row r="421" ht="15" customHeight="1">
+      <c r="F421" t="n">
+        <v>0.02627652302500081</v>
+      </c>
+      <c r="G421" t="n">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="422" ht="15" customHeight="1">
+      <c r="F422" t="n">
+        <v>0.02617425705601625</v>
+      </c>
+      <c r="G422" t="n">
+        <v>0.1522524358045915</v>
+      </c>
+    </row>
+    <row r="423" ht="15" customHeight="1">
+      <c r="F423" t="n">
+        <v>0.02607687102682001</v>
+      </c>
+      <c r="G423" t="n">
+        <v>0.1538347803058291</v>
+      </c>
+    </row>
+    <row r="424" ht="15" customHeight="1">
+      <c r="F424" t="n">
+        <v>0.02598891282965105</v>
+      </c>
+      <c r="G424" t="n">
+        <v>0.1554171248070667</v>
+      </c>
+    </row>
+    <row r="425" ht="15" customHeight="1">
+      <c r="F425" t="n">
+        <v>0.02591493035674831</v>
+      </c>
+      <c r="G425" t="n">
+        <v>0.1569994693083043</v>
+      </c>
+    </row>
+    <row r="426" ht="15" customHeight="1">
+      <c r="F426" t="n">
+        <v>0.02585947150035071</v>
+      </c>
+      <c r="G426" t="n">
+        <v>0.1585818138095419</v>
+      </c>
+    </row>
+    <row r="427" ht="15" customHeight="1">
+      <c r="F427" t="n">
+        <v>0.02581800942661935</v>
+      </c>
+      <c r="G427" t="n">
+        <v>0.1601641583107795</v>
+      </c>
+    </row>
+    <row r="428" ht="15" customHeight="1">
+      <c r="F428" t="n">
+        <v>0.0257790811041849</v>
+      </c>
+      <c r="G428" t="n">
+        <v>0.1617465028120171</v>
+      </c>
+    </row>
+    <row r="429" ht="15" customHeight="1">
+      <c r="F429" t="n">
+        <v>0.02574243832231671</v>
+      </c>
+      <c r="G429" t="n">
+        <v>0.1633288473132547</v>
+      </c>
+    </row>
+    <row r="430" ht="15" customHeight="1">
+      <c r="F430" t="n">
+        <v>0.02570793534884479</v>
+      </c>
+      <c r="G430" t="n">
+        <v>0.1649111918144923</v>
+      </c>
+    </row>
+    <row r="431" ht="15" customHeight="1">
+      <c r="F431" t="n">
+        <v>0.02567542645159909</v>
+      </c>
+      <c r="G431" t="n">
+        <v>0.1664935363157299</v>
+      </c>
+    </row>
+    <row r="432" ht="15" customHeight="1">
+      <c r="F432" t="n">
+        <v>0.02564476589840958</v>
+      </c>
+      <c r="G432" t="n">
+        <v>0.1680758808169674</v>
+      </c>
+    </row>
+    <row r="433" ht="15" customHeight="1">
+      <c r="F433" t="n">
+        <v>0.02561580795710627</v>
+      </c>
+      <c r="G433" t="n">
+        <v>0.1696582253182051</v>
+      </c>
+    </row>
+    <row r="434" ht="15" customHeight="1">
+      <c r="F434" t="n">
+        <v>0.02558840689551912</v>
+      </c>
+      <c r="G434" t="n">
+        <v>0.1712405698194427</v>
+      </c>
+    </row>
+    <row r="435" ht="15" customHeight="1">
+      <c r="F435" t="n">
+        <v>0.02556241698147809</v>
+      </c>
+      <c r="G435" t="n">
+        <v>0.1728229143206803</v>
+      </c>
+    </row>
+    <row r="436" ht="15" customHeight="1">
+      <c r="F436" t="n">
+        <v>0.0255376924828132</v>
+      </c>
+      <c r="G436" t="n">
+        <v>0.1744052588219179</v>
+      </c>
+    </row>
+    <row r="437" ht="15" customHeight="1">
+      <c r="F437" t="n">
+        <v>0.02551408766735441</v>
+      </c>
+      <c r="G437" t="n">
+        <v>0.1759876033231555</v>
+      </c>
+    </row>
+    <row r="438" ht="15" customHeight="1">
+      <c r="F438" t="n">
+        <v>0.02549145680293167</v>
+      </c>
+      <c r="G438" t="n">
+        <v>0.1775699478243931</v>
+      </c>
+    </row>
+    <row r="439" ht="15" customHeight="1">
+      <c r="F439" t="n">
+        <v>0.025469654157375</v>
+      </c>
+      <c r="G439" t="n">
+        <v>0.1791522923256307</v>
+      </c>
+    </row>
+    <row r="440" ht="15" customHeight="1">
+      <c r="F440" t="n">
+        <v>0.02544853399851436</v>
+      </c>
+      <c r="G440" t="n">
+        <v>0.1807346368268683</v>
+      </c>
+    </row>
+    <row r="441" ht="15" customHeight="1">
+      <c r="F441" t="n">
+        <v>0.02542795059417972</v>
+      </c>
+      <c r="G441" t="n">
+        <v>0.1823169813281059</v>
+      </c>
+    </row>
+    <row r="442" ht="15" customHeight="1">
+      <c r="F442" t="n">
+        <v>0.02540775821220109</v>
+      </c>
+      <c r="G442" t="n">
+        <v>0.1838993258293435</v>
+      </c>
+    </row>
+    <row r="443" ht="15" customHeight="1">
+      <c r="F443" t="n">
+        <v>0.02538781112040841</v>
+      </c>
+      <c r="G443" t="n">
+        <v>0.1854816703305811</v>
+      </c>
+    </row>
+    <row r="444" ht="15" customHeight="1">
+      <c r="F444" t="n">
+        <v>0.02536796358663167</v>
+      </c>
+      <c r="G444" t="n">
+        <v>0.1870640148318187</v>
+      </c>
+    </row>
+    <row r="445" ht="15" customHeight="1">
+      <c r="F445" t="n">
+        <v>0.02534806987870087</v>
+      </c>
+      <c r="G445" t="n">
+        <v>0.1886463593330563</v>
+      </c>
+    </row>
+    <row r="446" ht="15" customHeight="1">
+      <c r="F446" t="n">
+        <v>0.02532798426444597</v>
+      </c>
+      <c r="G446" t="n">
+        <v>0.1902287038342939</v>
+      </c>
+    </row>
+    <row r="447" ht="15" customHeight="1">
+      <c r="F447" t="n">
+        <v>0.02530756101169693</v>
+      </c>
+      <c r="G447" t="n">
+        <v>0.1918110483355315</v>
+      </c>
+    </row>
+    <row r="448" ht="15" customHeight="1">
+      <c r="F448" t="n">
+        <v>0.0252870812352659</v>
+      </c>
+      <c r="G448" t="n">
+        <v>0.193393392836769</v>
+      </c>
+    </row>
+    <row r="449" ht="15" customHeight="1">
+      <c r="F449" t="n">
+        <v>0.02526694371108486</v>
+      </c>
+      <c r="G449" t="n">
+        <v>0.1949757373380067</v>
+      </c>
+    </row>
+    <row r="450" ht="15" customHeight="1">
+      <c r="F450" t="n">
+        <v>0.02524716110860096</v>
+      </c>
+      <c r="G450" t="n">
+        <v>0.1965580818392443</v>
+      </c>
+    </row>
+    <row r="451" ht="15" customHeight="1">
+      <c r="F451" t="n">
+        <v>0.0252277460746007</v>
+      </c>
+      <c r="G451" t="n">
+        <v>0.1981404263404819</v>
+      </c>
+    </row>
+    <row r="452" ht="15" customHeight="1">
+      <c r="F452" t="n">
+        <v>0.0252087112558706</v>
+      </c>
+      <c r="G452" t="n">
+        <v>0.1997227708417195</v>
+      </c>
+    </row>
+    <row r="453" ht="15" customHeight="1">
+      <c r="F453" t="n">
+        <v>0.02519006929919721</v>
+      </c>
+      <c r="G453" t="n">
+        <v>0.2013051153429571</v>
+      </c>
+    </row>
+    <row r="454" ht="15" customHeight="1">
+      <c r="F454" t="n">
+        <v>0.025171832851367</v>
+      </c>
+      <c r="G454" t="n">
+        <v>0.2028874598441947</v>
+      </c>
+    </row>
+    <row r="455" ht="15" customHeight="1">
+      <c r="F455" t="n">
+        <v>0.02515401455916656</v>
+      </c>
+      <c r="G455" t="n">
+        <v>0.2044698043454323</v>
+      </c>
+    </row>
+    <row r="456" ht="15" customHeight="1">
+      <c r="F456" t="n">
+        <v>0.02513662706938235</v>
+      </c>
+      <c r="G456" t="n">
+        <v>0.2060521488466699</v>
+      </c>
+    </row>
+    <row r="457" ht="15" customHeight="1">
+      <c r="F457" t="n">
+        <v>0.02511968302880094</v>
+      </c>
+      <c r="G457" t="n">
+        <v>0.2076344933479075</v>
+      </c>
+    </row>
+    <row r="458" ht="15" customHeight="1">
+      <c r="F458" t="n">
+        <v>0.02510319508420882</v>
+      </c>
+      <c r="G458" t="n">
+        <v>0.209216837849145</v>
+      </c>
+    </row>
+    <row r="459" ht="15" customHeight="1">
+      <c r="F459" t="n">
+        <v>0.02508717588239253</v>
+      </c>
+      <c r="G459" t="n">
+        <v>0.2107991823503827</v>
+      </c>
+    </row>
+    <row r="460" ht="15" customHeight="1">
+      <c r="F460" t="n">
+        <v>0.02507163807013858</v>
+      </c>
+      <c r="G460" t="n">
+        <v>0.2123815268516203</v>
+      </c>
+    </row>
+    <row r="461" ht="15" customHeight="1">
+      <c r="F461" t="n">
+        <v>0.02505659429423349</v>
+      </c>
+      <c r="G461" t="n">
+        <v>0.2139638713528579</v>
+      </c>
+    </row>
+    <row r="462" ht="15" customHeight="1">
+      <c r="F462" t="n">
+        <v>0.0250420572014638</v>
+      </c>
+      <c r="G462" t="n">
+        <v>0.2155462158540955</v>
+      </c>
+    </row>
+    <row r="463" ht="15" customHeight="1">
+      <c r="F463" t="n">
+        <v>0.02502803943861603</v>
+      </c>
+      <c r="G463" t="n">
+        <v>0.2171285603553331</v>
+      </c>
+    </row>
+    <row r="464" ht="15" customHeight="1">
+      <c r="F464" t="n">
+        <v>0.0250145536524767</v>
+      </c>
+      <c r="G464" t="n">
+        <v>0.2187109048565707</v>
+      </c>
+    </row>
     <row r="465" ht="15" customHeight="1"/>
     <row r="466" ht="15" customHeight="1"/>
     <row r="467" ht="15" customHeight="1"/>
